--- a/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
@@ -919,9 +919,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>あり</t>
-  </si>
-  <si>
     <t>以上</t>
     <rPh sb="0" eb="2">
       <t>イジョウ</t>
@@ -1330,10 +1327,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${cv.technicalcontentchinese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${cv.technicalcontentjapanese}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1355,6 +1348,13 @@
   </si>
   <si>
     <t>再委託（和文）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv.redelegate}</t>
+  </si>
+  <si>
+    <t>${cv.technicalcontentchinese}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2010,6 +2010,33 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2091,6 +2118,15 @@
     <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2106,48 +2142,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2157,61 +2217,76 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2222,81 +2297,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2610,8 +2610,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2627,28 +2627,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="G1" s="110" t="s">
+      <c r="B1" s="77"/>
+      <c r="G1" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="111"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="113"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="40" t="s">
@@ -2658,21 +2658,21 @@
       <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="112"/>
-      <c r="H3" s="113"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="112"/>
-      <c r="H4" s="113"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="39" t="s">
@@ -2682,34 +2682,34 @@
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="113"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="112"/>
-      <c r="H6" s="113"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="112"/>
-      <c r="H7" s="113"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="39" t="s">
@@ -2719,60 +2719,60 @@
       <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="112"/>
-      <c r="H8" s="113"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="81"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="40" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="113"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="39" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="112"/>
-      <c r="H10" s="113"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="112"/>
-      <c r="H11" s="113"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="81"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="39" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="112"/>
-      <c r="H12" s="113"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="39" t="s">
@@ -2782,34 +2782,34 @@
       <c r="C13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="112"/>
-      <c r="H13" s="113"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="81"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="112"/>
-      <c r="H14" s="113"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="112"/>
-      <c r="H15" s="113"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="39" t="s">
@@ -2819,8 +2819,8 @@
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="112"/>
-      <c r="H16" s="113"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="39" t="s">
@@ -2830,8 +2830,8 @@
       <c r="C17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="112"/>
-      <c r="H17" s="113"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="81"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="39" t="s">
@@ -2841,34 +2841,34 @@
       <c r="C18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="112"/>
-      <c r="H18" s="113"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="39" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="112"/>
-      <c r="H19" s="113"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="112"/>
-      <c r="H20" s="113"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="81"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="39" t="s">
@@ -2878,8 +2878,8 @@
       <c r="C21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="112"/>
-      <c r="H21" s="113"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="81"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="39" t="s">
@@ -2889,8 +2889,8 @@
       <c r="C22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="112"/>
-      <c r="H22" s="113"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="81"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="40" t="s">
@@ -2900,8 +2900,8 @@
       <c r="C23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="112"/>
-      <c r="H23" s="113"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A24" s="40" t="s">
@@ -2911,8 +2911,8 @@
       <c r="C24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="112"/>
-      <c r="H24" s="113"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A25" s="40" t="s">
@@ -2924,8 +2924,8 @@
       <c r="C25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="112"/>
-      <c r="H25" s="113"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="81"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="40" t="s">
@@ -2937,14 +2937,14 @@
       <c r="C26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="112"/>
-      <c r="H26" s="113"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81"/>
     </row>
     <row r="27" spans="1:8" ht="1.5" hidden="1" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="112"/>
-      <c r="H27" s="113"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="81"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="43" t="s">
@@ -2965,8 +2965,8 @@
       <c r="F28" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="112"/>
-      <c r="H28" s="113"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="81"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="44" t="str">
@@ -2974,22 +2974,22 @@
         <v>第一回</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="E29" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="F29" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="G29" s="112"/>
-      <c r="H29" s="113"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="81"/>
     </row>
     <row r="30" spans="1:8" ht="6.75" customHeight="1">
       <c r="A30" s="2"/>
@@ -3004,299 +3004,293 @@
         <v>72</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="114" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="115"/>
-      <c r="E32" s="116" t="s">
-        <v>152</v>
-      </c>
-      <c r="F32" s="117"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="85"/>
     </row>
     <row r="33" spans="1:6" ht="13.5">
       <c r="A33" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C33" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="115"/>
-      <c r="E33" s="116" t="s">
-        <v>153</v>
-      </c>
-      <c r="F33" s="117"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33" s="85"/>
     </row>
     <row r="34" spans="1:6" ht="13.5">
       <c r="A34" s="61" t="s">
         <v>63</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="97"/>
+    </row>
+    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A36" s="91"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="100"/>
+    </row>
+    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A37" s="91"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="100"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A38" s="91"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="100"/>
+    </row>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A39" s="91"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="100"/>
+    </row>
+    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A40" s="92"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="103"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="118" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="86" t="s">
+      <c r="B41" s="116" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+    </row>
+    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A42" s="118"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="117"/>
+    </row>
+    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A43" s="118"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+    </row>
+    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A44" s="118"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+    </row>
+    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A45" s="118"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+    </row>
+    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A46" s="118"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+    </row>
+    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A47" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="115"/>
+    </row>
+    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A48" s="93"/>
+      <c r="B48" s="104" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="106"/>
+    </row>
+    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A49" s="93"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="109"/>
+    </row>
+    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A50" s="93"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="109"/>
+    </row>
+    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A51" s="94"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="112"/>
+    </row>
+    <row r="52" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A52" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="88" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+    </row>
+    <row r="53" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A53" s="119"/>
+      <c r="B53" s="120" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="88"/>
-    </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A36" s="82"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="91"/>
-    </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A37" s="82"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="91"/>
-    </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A38" s="82"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="91"/>
-    </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="82"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="91"/>
-    </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A40" s="83"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="94"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" s="104" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="105"/>
-    </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A42" s="106"/>
-      <c r="B42" s="105"/>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="105"/>
-    </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A43" s="106"/>
-      <c r="B43" s="105"/>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="105"/>
-    </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A44" s="106"/>
-      <c r="B44" s="105"/>
-      <c r="C44" s="105"/>
-      <c r="D44" s="105"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="105"/>
-    </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A45" s="106"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-    </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A46" s="106"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-    </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A47" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="B47" s="170" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="171"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="171"/>
-      <c r="F47" s="172"/>
-    </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A48" s="84"/>
-      <c r="B48" s="95" t="s">
-        <v>156</v>
-      </c>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="97"/>
-    </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A49" s="84"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="100"/>
-    </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A50" s="84"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="100"/>
-    </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A51" s="85"/>
-      <c r="B51" s="101"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="103"/>
-    </row>
-    <row r="52" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A52" s="107" t="s">
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+    </row>
+    <row r="54" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A54" s="119"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+    </row>
+    <row r="55" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A55" s="119"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="119"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-    </row>
-    <row r="53" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A53" s="107"/>
-      <c r="B53" s="108" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-    </row>
-    <row r="54" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A54" s="107"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-    </row>
-    <row r="55" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A55" s="107"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="107"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="77" t="s">
+      <c r="B57" s="88"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="86"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="86"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="89"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="B57" s="79"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="77"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="77"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="79"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="78"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="89"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="78"/>
-      <c r="B62" s="80"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G1:H29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
     <mergeCell ref="A57:A59"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="B57:F59"/>
@@ -3311,6 +3305,12 @@
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="B53:F56"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:H29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -3347,18 +3347,18 @@
       <c r="J2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="133" t="str">
+      <c r="K2" s="121" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="133"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="20" t="s">
@@ -3418,11 +3418,11 @@
         <v>69</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="142" t="str">
+      <c r="D8" s="126" t="str">
         <f>記入!B34</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E8" s="142"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="50" t="s">
         <v>64</v>
       </c>
@@ -3462,617 +3462,617 @@
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="139"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="139"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="139"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="139"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="139"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="139"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="139"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="139"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="139"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="139"/>
-      <c r="K19" s="139"/>
-      <c r="L19" s="139"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="139"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="139"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="139"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="139"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="139"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="139"/>
-      <c r="K22" s="139"/>
-      <c r="L22" s="139"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="139"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="139"/>
-      <c r="K23" s="139"/>
-      <c r="L23" s="139"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="139"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="139"/>
-      <c r="K24" s="139"/>
-      <c r="L24" s="139"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="139"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="139"/>
-      <c r="K25" s="139"/>
-      <c r="L25" s="139"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="139"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="139"/>
-      <c r="L26" s="139"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="139"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="139"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="139"/>
-      <c r="K27" s="139"/>
-      <c r="L27" s="139"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="139"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="139"/>
-      <c r="L28" s="139"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="139"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="139"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="139"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="139"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="139"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="139"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="139"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="139"/>
-      <c r="C33" s="139"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="139"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="139"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="139"/>
-      <c r="K34" s="139"/>
-      <c r="L34" s="139"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="139"/>
-      <c r="C35" s="139"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="139"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="139"/>
-      <c r="K35" s="139"/>
-      <c r="L35" s="139"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="139"/>
-      <c r="C36" s="139"/>
-      <c r="D36" s="139"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="139"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="139"/>
-      <c r="K36" s="139"/>
-      <c r="L36" s="139"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="139"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="139"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
-      <c r="K37" s="139"/>
-      <c r="L37" s="139"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="139"/>
-      <c r="C38" s="139"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139"/>
-      <c r="K38" s="139"/>
-      <c r="L38" s="139"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="123"/>
+      <c r="L38" s="123"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="139"/>
-      <c r="C39" s="139"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="139"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="139"/>
-      <c r="K39" s="139"/>
-      <c r="L39" s="139"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="123"/>
+      <c r="K39" s="123"/>
+      <c r="L39" s="123"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="139"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="139"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="139"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="139"/>
-      <c r="J40" s="139"/>
-      <c r="K40" s="139"/>
-      <c r="L40" s="139"/>
+      <c r="B40" s="123"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="123"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="139"/>
-      <c r="C41" s="139"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="139"/>
-      <c r="I41" s="139"/>
-      <c r="J41" s="139"/>
-      <c r="K41" s="139"/>
-      <c r="L41" s="139"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="139"/>
-      <c r="C42" s="139"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="139"/>
-      <c r="K42" s="139"/>
-      <c r="L42" s="139"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="123"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="123"/>
+      <c r="J42" s="123"/>
+      <c r="K42" s="123"/>
+      <c r="L42" s="123"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="139"/>
-      <c r="C43" s="139"/>
-      <c r="D43" s="139"/>
-      <c r="E43" s="139"/>
-      <c r="F43" s="139"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="139"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="139"/>
-      <c r="K43" s="139"/>
-      <c r="L43" s="139"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="123"/>
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="139"/>
-      <c r="C44" s="139"/>
-      <c r="D44" s="139"/>
-      <c r="E44" s="139"/>
-      <c r="F44" s="139"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="139"/>
-      <c r="K44" s="139"/>
-      <c r="L44" s="139"/>
+      <c r="B44" s="123"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="123"/>
+      <c r="K44" s="123"/>
+      <c r="L44" s="123"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="139"/>
-      <c r="C45" s="139"/>
-      <c r="D45" s="139"/>
-      <c r="E45" s="139"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="139"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="139"/>
-      <c r="K45" s="139"/>
-      <c r="L45" s="139"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="123"/>
+      <c r="K45" s="123"/>
+      <c r="L45" s="123"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="139"/>
-      <c r="C46" s="139"/>
-      <c r="D46" s="139"/>
-      <c r="E46" s="139"/>
-      <c r="F46" s="139"/>
-      <c r="G46" s="139"/>
-      <c r="H46" s="139"/>
-      <c r="I46" s="139"/>
-      <c r="J46" s="139"/>
-      <c r="K46" s="139"/>
-      <c r="L46" s="139"/>
+      <c r="B46" s="123"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="123"/>
+      <c r="F46" s="123"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="123"/>
+      <c r="I46" s="123"/>
+      <c r="J46" s="123"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="123"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="139"/>
-      <c r="C47" s="139"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="139"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="139"/>
-      <c r="I47" s="139"/>
-      <c r="J47" s="139"/>
-      <c r="K47" s="139"/>
-      <c r="L47" s="139"/>
+      <c r="B47" s="123"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="123"/>
+      <c r="F47" s="123"/>
+      <c r="G47" s="123"/>
+      <c r="H47" s="123"/>
+      <c r="I47" s="123"/>
+      <c r="J47" s="123"/>
+      <c r="K47" s="123"/>
+      <c r="L47" s="123"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="139"/>
-      <c r="C48" s="139"/>
-      <c r="D48" s="139"/>
-      <c r="E48" s="139"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="139"/>
-      <c r="H48" s="139"/>
-      <c r="I48" s="139"/>
-      <c r="J48" s="139"/>
-      <c r="K48" s="139"/>
-      <c r="L48" s="139"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="123"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="123"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="123"/>
+      <c r="L48" s="123"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="139"/>
-      <c r="C49" s="139"/>
-      <c r="D49" s="139"/>
-      <c r="E49" s="139"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="139"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="139"/>
-      <c r="K49" s="139"/>
-      <c r="L49" s="139"/>
+      <c r="B49" s="123"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="123"/>
+      <c r="I49" s="123"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="123"/>
+      <c r="L49" s="123"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="139"/>
-      <c r="C50" s="139"/>
-      <c r="D50" s="139"/>
-      <c r="E50" s="139"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="139"/>
-      <c r="H50" s="139"/>
-      <c r="I50" s="139"/>
-      <c r="J50" s="139"/>
-      <c r="K50" s="139"/>
-      <c r="L50" s="139"/>
+      <c r="B50" s="123"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="123"/>
+      <c r="F50" s="123"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="123"/>
+      <c r="I50" s="123"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="123"/>
+      <c r="L50" s="123"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="139"/>
-      <c r="C51" s="139"/>
-      <c r="D51" s="139"/>
-      <c r="E51" s="139"/>
-      <c r="F51" s="139"/>
-      <c r="G51" s="139"/>
-      <c r="H51" s="139"/>
-      <c r="I51" s="139"/>
-      <c r="J51" s="139"/>
-      <c r="K51" s="139"/>
-      <c r="L51" s="139"/>
+      <c r="B51" s="123"/>
+      <c r="C51" s="123"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="123"/>
+      <c r="I51" s="123"/>
+      <c r="J51" s="123"/>
+      <c r="K51" s="123"/>
+      <c r="L51" s="123"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="139"/>
-      <c r="C52" s="139"/>
-      <c r="D52" s="139"/>
-      <c r="E52" s="139"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="139"/>
-      <c r="H52" s="139"/>
-      <c r="I52" s="139"/>
-      <c r="J52" s="139"/>
-      <c r="K52" s="139"/>
-      <c r="L52" s="139"/>
+      <c r="B52" s="123"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
+      <c r="G52" s="123"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="123"/>
+      <c r="K52" s="123"/>
+      <c r="L52" s="123"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="139"/>
-      <c r="C53" s="139"/>
-      <c r="D53" s="139"/>
-      <c r="E53" s="139"/>
-      <c r="F53" s="139"/>
-      <c r="G53" s="139"/>
-      <c r="H53" s="139"/>
-      <c r="I53" s="139"/>
-      <c r="J53" s="139"/>
-      <c r="K53" s="139"/>
-      <c r="L53" s="139"/>
+      <c r="B53" s="123"/>
+      <c r="C53" s="123"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="123"/>
+      <c r="F53" s="123"/>
+      <c r="G53" s="123"/>
+      <c r="H53" s="123"/>
+      <c r="I53" s="123"/>
+      <c r="J53" s="123"/>
+      <c r="K53" s="123"/>
+      <c r="L53" s="123"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="139"/>
-      <c r="C54" s="139"/>
-      <c r="D54" s="139"/>
-      <c r="E54" s="139"/>
-      <c r="F54" s="139"/>
-      <c r="G54" s="139"/>
-      <c r="H54" s="139"/>
-      <c r="I54" s="139"/>
-      <c r="J54" s="139"/>
-      <c r="K54" s="139"/>
-      <c r="L54" s="139"/>
+      <c r="B54" s="123"/>
+      <c r="C54" s="123"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="123"/>
+      <c r="F54" s="123"/>
+      <c r="G54" s="123"/>
+      <c r="H54" s="123"/>
+      <c r="I54" s="123"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="123"/>
+      <c r="L54" s="123"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="139"/>
-      <c r="C55" s="139"/>
-      <c r="D55" s="139"/>
-      <c r="E55" s="139"/>
-      <c r="F55" s="139"/>
-      <c r="G55" s="139"/>
-      <c r="H55" s="139"/>
-      <c r="I55" s="139"/>
-      <c r="J55" s="139"/>
-      <c r="K55" s="139"/>
-      <c r="L55" s="139"/>
+      <c r="B55" s="123"/>
+      <c r="C55" s="123"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="123"/>
+      <c r="H55" s="123"/>
+      <c r="I55" s="123"/>
+      <c r="J55" s="123"/>
+      <c r="K55" s="123"/>
+      <c r="L55" s="123"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="139"/>
-      <c r="C56" s="139"/>
-      <c r="D56" s="139"/>
-      <c r="E56" s="139"/>
-      <c r="F56" s="139"/>
-      <c r="G56" s="139"/>
-      <c r="H56" s="139"/>
-      <c r="I56" s="139"/>
-      <c r="J56" s="139"/>
-      <c r="K56" s="139"/>
-      <c r="L56" s="139"/>
+      <c r="B56" s="123"/>
+      <c r="C56" s="123"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="123"/>
+      <c r="F56" s="123"/>
+      <c r="G56" s="123"/>
+      <c r="H56" s="123"/>
+      <c r="I56" s="123"/>
+      <c r="J56" s="123"/>
+      <c r="K56" s="123"/>
+      <c r="L56" s="123"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="139"/>
-      <c r="C57" s="139"/>
-      <c r="D57" s="139"/>
-      <c r="E57" s="139"/>
-      <c r="F57" s="139"/>
-      <c r="G57" s="139"/>
-      <c r="H57" s="139"/>
-      <c r="I57" s="139"/>
-      <c r="J57" s="139"/>
-      <c r="K57" s="139"/>
-      <c r="L57" s="139"/>
+      <c r="B57" s="123"/>
+      <c r="C57" s="123"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="123"/>
+      <c r="F57" s="123"/>
+      <c r="G57" s="123"/>
+      <c r="H57" s="123"/>
+      <c r="I57" s="123"/>
+      <c r="J57" s="123"/>
+      <c r="K57" s="123"/>
+      <c r="L57" s="123"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
       <c r="B58" s="23"/>
@@ -4091,169 +4091,169 @@
       <c r="J59" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K59" s="133" t="str">
+      <c r="K59" s="121" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L59" s="133"/>
+      <c r="L59" s="121"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="140" t="s">
+      <c r="B60" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="141"/>
-      <c r="D60" s="141"/>
-      <c r="E60" s="141"/>
-      <c r="F60" s="141"/>
-      <c r="G60" s="141"/>
-      <c r="H60" s="141"/>
-      <c r="I60" s="141"/>
-      <c r="J60" s="141"/>
-      <c r="K60" s="141"/>
-      <c r="L60" s="141"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="125"/>
+      <c r="J60" s="125"/>
+      <c r="K60" s="125"/>
+      <c r="L60" s="125"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="141"/>
-      <c r="C61" s="141"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="141"/>
-      <c r="F61" s="141"/>
-      <c r="G61" s="141"/>
-      <c r="H61" s="141"/>
-      <c r="I61" s="141"/>
-      <c r="J61" s="141"/>
-      <c r="K61" s="141"/>
-      <c r="L61" s="141"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="125"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="125"/>
+      <c r="J61" s="125"/>
+      <c r="K61" s="125"/>
+      <c r="L61" s="125"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="141"/>
-      <c r="C62" s="141"/>
-      <c r="D62" s="141"/>
-      <c r="E62" s="141"/>
-      <c r="F62" s="141"/>
-      <c r="G62" s="141"/>
-      <c r="H62" s="141"/>
-      <c r="I62" s="141"/>
-      <c r="J62" s="141"/>
-      <c r="K62" s="141"/>
-      <c r="L62" s="141"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="125"/>
+      <c r="H62" s="125"/>
+      <c r="I62" s="125"/>
+      <c r="J62" s="125"/>
+      <c r="K62" s="125"/>
+      <c r="L62" s="125"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="141"/>
-      <c r="C63" s="141"/>
-      <c r="D63" s="141"/>
-      <c r="E63" s="141"/>
-      <c r="F63" s="141"/>
-      <c r="G63" s="141"/>
-      <c r="H63" s="141"/>
-      <c r="I63" s="141"/>
-      <c r="J63" s="141"/>
-      <c r="K63" s="141"/>
-      <c r="L63" s="141"/>
+      <c r="B63" s="125"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="125"/>
+      <c r="J63" s="125"/>
+      <c r="K63" s="125"/>
+      <c r="L63" s="125"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="141"/>
-      <c r="C64" s="141"/>
-      <c r="D64" s="141"/>
-      <c r="E64" s="141"/>
-      <c r="F64" s="141"/>
-      <c r="G64" s="141"/>
-      <c r="H64" s="141"/>
-      <c r="I64" s="141"/>
-      <c r="J64" s="141"/>
-      <c r="K64" s="141"/>
-      <c r="L64" s="141"/>
+      <c r="B64" s="125"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="125"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="125"/>
+      <c r="H64" s="125"/>
+      <c r="I64" s="125"/>
+      <c r="J64" s="125"/>
+      <c r="K64" s="125"/>
+      <c r="L64" s="125"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="141"/>
-      <c r="C65" s="141"/>
-      <c r="D65" s="141"/>
-      <c r="E65" s="141"/>
-      <c r="F65" s="141"/>
-      <c r="G65" s="141"/>
-      <c r="H65" s="141"/>
-      <c r="I65" s="141"/>
-      <c r="J65" s="141"/>
-      <c r="K65" s="141"/>
-      <c r="L65" s="141"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="125"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="125"/>
+      <c r="I65" s="125"/>
+      <c r="J65" s="125"/>
+      <c r="K65" s="125"/>
+      <c r="L65" s="125"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="141"/>
-      <c r="C66" s="141"/>
-      <c r="D66" s="141"/>
-      <c r="E66" s="141"/>
-      <c r="F66" s="141"/>
-      <c r="G66" s="141"/>
-      <c r="H66" s="141"/>
-      <c r="I66" s="141"/>
-      <c r="J66" s="141"/>
-      <c r="K66" s="141"/>
-      <c r="L66" s="141"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="125"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="125"/>
+      <c r="G66" s="125"/>
+      <c r="H66" s="125"/>
+      <c r="I66" s="125"/>
+      <c r="J66" s="125"/>
+      <c r="K66" s="125"/>
+      <c r="L66" s="125"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="141"/>
-      <c r="C67" s="141"/>
-      <c r="D67" s="141"/>
-      <c r="E67" s="141"/>
-      <c r="F67" s="141"/>
-      <c r="G67" s="141"/>
-      <c r="H67" s="141"/>
-      <c r="I67" s="141"/>
-      <c r="J67" s="141"/>
-      <c r="K67" s="141"/>
-      <c r="L67" s="141"/>
+      <c r="B67" s="125"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="125"/>
+      <c r="E67" s="125"/>
+      <c r="F67" s="125"/>
+      <c r="G67" s="125"/>
+      <c r="H67" s="125"/>
+      <c r="I67" s="125"/>
+      <c r="J67" s="125"/>
+      <c r="K67" s="125"/>
+      <c r="L67" s="125"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="141"/>
-      <c r="C68" s="141"/>
-      <c r="D68" s="141"/>
-      <c r="E68" s="141"/>
-      <c r="F68" s="141"/>
-      <c r="G68" s="141"/>
-      <c r="H68" s="141"/>
-      <c r="I68" s="141"/>
-      <c r="J68" s="141"/>
-      <c r="K68" s="141"/>
-      <c r="L68" s="141"/>
+      <c r="B68" s="125"/>
+      <c r="C68" s="125"/>
+      <c r="D68" s="125"/>
+      <c r="E68" s="125"/>
+      <c r="F68" s="125"/>
+      <c r="G68" s="125"/>
+      <c r="H68" s="125"/>
+      <c r="I68" s="125"/>
+      <c r="J68" s="125"/>
+      <c r="K68" s="125"/>
+      <c r="L68" s="125"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="141"/>
-      <c r="C69" s="141"/>
-      <c r="D69" s="141"/>
-      <c r="E69" s="141"/>
-      <c r="F69" s="141"/>
-      <c r="G69" s="141"/>
-      <c r="H69" s="141"/>
-      <c r="I69" s="141"/>
-      <c r="J69" s="141"/>
-      <c r="K69" s="141"/>
-      <c r="L69" s="141"/>
+      <c r="B69" s="125"/>
+      <c r="C69" s="125"/>
+      <c r="D69" s="125"/>
+      <c r="E69" s="125"/>
+      <c r="F69" s="125"/>
+      <c r="G69" s="125"/>
+      <c r="H69" s="125"/>
+      <c r="I69" s="125"/>
+      <c r="J69" s="125"/>
+      <c r="K69" s="125"/>
+      <c r="L69" s="125"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="141"/>
-      <c r="C70" s="141"/>
-      <c r="D70" s="141"/>
-      <c r="E70" s="141"/>
-      <c r="F70" s="141"/>
-      <c r="G70" s="141"/>
-      <c r="H70" s="141"/>
-      <c r="I70" s="141"/>
-      <c r="J70" s="141"/>
-      <c r="K70" s="141"/>
-      <c r="L70" s="141"/>
+      <c r="B70" s="125"/>
+      <c r="C70" s="125"/>
+      <c r="D70" s="125"/>
+      <c r="E70" s="125"/>
+      <c r="F70" s="125"/>
+      <c r="G70" s="125"/>
+      <c r="H70" s="125"/>
+      <c r="I70" s="125"/>
+      <c r="J70" s="125"/>
+      <c r="K70" s="125"/>
+      <c r="L70" s="125"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="141"/>
-      <c r="C71" s="141"/>
-      <c r="D71" s="141"/>
-      <c r="E71" s="141"/>
-      <c r="F71" s="141"/>
-      <c r="G71" s="141"/>
-      <c r="H71" s="141"/>
-      <c r="I71" s="141"/>
-      <c r="J71" s="141"/>
-      <c r="K71" s="141"/>
-      <c r="L71" s="141"/>
+      <c r="B71" s="125"/>
+      <c r="C71" s="125"/>
+      <c r="D71" s="125"/>
+      <c r="E71" s="125"/>
+      <c r="F71" s="125"/>
+      <c r="G71" s="125"/>
+      <c r="H71" s="125"/>
+      <c r="I71" s="125"/>
+      <c r="J71" s="125"/>
+      <c r="K71" s="125"/>
+      <c r="L71" s="125"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
       <c r="B73" s="21" t="s">
@@ -4489,11 +4489,11 @@
       <c r="J127" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K127" s="133" t="str">
+      <c r="K127" s="121" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L127" s="133"/>
+      <c r="L127" s="121"/>
     </row>
     <row r="128" spans="2:12" ht="17.25">
       <c r="B128" s="55" t="s">
@@ -4539,245 +4539,245 @@
       <c r="L130" s="56"/>
     </row>
     <row r="131" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="129" t="s">
+      <c r="B131" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="C131" s="129"/>
-      <c r="D131" s="119" t="str">
+      <c r="C131" s="128"/>
+      <c r="D131" s="136" t="str">
         <f>記入!B10</f>
         <v>${cv.pjnamejapanese}</v>
       </c>
-      <c r="E131" s="119"/>
-      <c r="F131" s="119"/>
-      <c r="G131" s="119"/>
-      <c r="H131" s="119"/>
-      <c r="I131" s="119"/>
-      <c r="J131" s="119"/>
-      <c r="K131" s="119"/>
+      <c r="E131" s="136"/>
+      <c r="F131" s="136"/>
+      <c r="G131" s="136"/>
+      <c r="H131" s="136"/>
+      <c r="I131" s="136"/>
+      <c r="J131" s="136"/>
+      <c r="K131" s="136"/>
       <c r="L131" s="54"/>
     </row>
     <row r="132" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="129" t="s">
+      <c r="B132" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="C132" s="129"/>
-      <c r="D132" s="118" t="str">
+      <c r="C132" s="128"/>
+      <c r="D132" s="141" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E132" s="119"/>
-      <c r="F132" s="119"/>
-      <c r="G132" s="119"/>
-      <c r="H132" s="119"/>
-      <c r="I132" s="119"/>
-      <c r="J132" s="119"/>
-      <c r="K132" s="119"/>
+      <c r="E132" s="136"/>
+      <c r="F132" s="136"/>
+      <c r="G132" s="136"/>
+      <c r="H132" s="136"/>
+      <c r="I132" s="136"/>
+      <c r="J132" s="136"/>
+      <c r="K132" s="136"/>
       <c r="L132" s="54"/>
     </row>
     <row r="133" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B133" s="129" t="s">
+      <c r="B133" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="C133" s="129"/>
-      <c r="D133" s="118" t="str">
+      <c r="C133" s="128"/>
+      <c r="D133" s="141" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E133" s="119"/>
-      <c r="F133" s="119"/>
-      <c r="G133" s="119"/>
-      <c r="H133" s="119"/>
-      <c r="I133" s="119"/>
-      <c r="J133" s="119"/>
-      <c r="K133" s="119"/>
+      <c r="E133" s="136"/>
+      <c r="F133" s="136"/>
+      <c r="G133" s="136"/>
+      <c r="H133" s="136"/>
+      <c r="I133" s="136"/>
+      <c r="J133" s="136"/>
+      <c r="K133" s="136"/>
       <c r="L133" s="54"/>
     </row>
     <row r="134" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="129" t="s">
+      <c r="B134" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="C134" s="129"/>
-      <c r="D134" s="120" t="str">
+      <c r="C134" s="128"/>
+      <c r="D134" s="142" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="E134" s="120"/>
-      <c r="F134" s="120"/>
-      <c r="G134" s="120"/>
-      <c r="H134" s="120"/>
-      <c r="I134" s="120"/>
-      <c r="J134" s="120"/>
-      <c r="K134" s="120"/>
+      <c r="E134" s="142"/>
+      <c r="F134" s="142"/>
+      <c r="G134" s="142"/>
+      <c r="H134" s="142"/>
+      <c r="I134" s="142"/>
+      <c r="J134" s="142"/>
+      <c r="K134" s="142"/>
       <c r="L134" s="54"/>
     </row>
     <row r="135" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="137" t="s">
+      <c r="B135" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="C135" s="129"/>
-      <c r="D135" s="121" t="str">
+      <c r="C135" s="128"/>
+      <c r="D135" s="132" t="str">
         <f>記入!B35</f>
         <v>${cv.technicalcontentjapanese}</v>
       </c>
-      <c r="E135" s="122"/>
-      <c r="F135" s="122"/>
-      <c r="G135" s="122"/>
-      <c r="H135" s="122"/>
-      <c r="I135" s="122"/>
-      <c r="J135" s="122"/>
-      <c r="K135" s="122"/>
+      <c r="E135" s="133"/>
+      <c r="F135" s="133"/>
+      <c r="G135" s="133"/>
+      <c r="H135" s="133"/>
+      <c r="I135" s="133"/>
+      <c r="J135" s="133"/>
+      <c r="K135" s="133"/>
       <c r="L135" s="54"/>
     </row>
     <row r="136" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="129"/>
-      <c r="C136" s="129"/>
-      <c r="D136" s="122"/>
-      <c r="E136" s="122"/>
-      <c r="F136" s="122"/>
-      <c r="G136" s="122"/>
-      <c r="H136" s="122"/>
-      <c r="I136" s="122"/>
-      <c r="J136" s="122"/>
-      <c r="K136" s="122"/>
+      <c r="B136" s="128"/>
+      <c r="C136" s="128"/>
+      <c r="D136" s="133"/>
+      <c r="E136" s="133"/>
+      <c r="F136" s="133"/>
+      <c r="G136" s="133"/>
+      <c r="H136" s="133"/>
+      <c r="I136" s="133"/>
+      <c r="J136" s="133"/>
+      <c r="K136" s="133"/>
       <c r="L136" s="54"/>
     </row>
     <row r="137" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="129"/>
-      <c r="C137" s="129"/>
-      <c r="D137" s="122"/>
-      <c r="E137" s="122"/>
-      <c r="F137" s="122"/>
-      <c r="G137" s="122"/>
-      <c r="H137" s="122"/>
-      <c r="I137" s="122"/>
-      <c r="J137" s="122"/>
-      <c r="K137" s="122"/>
+      <c r="B137" s="128"/>
+      <c r="C137" s="128"/>
+      <c r="D137" s="133"/>
+      <c r="E137" s="133"/>
+      <c r="F137" s="133"/>
+      <c r="G137" s="133"/>
+      <c r="H137" s="133"/>
+      <c r="I137" s="133"/>
+      <c r="J137" s="133"/>
+      <c r="K137" s="133"/>
       <c r="L137" s="54"/>
     </row>
     <row r="138" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="129"/>
-      <c r="C138" s="129"/>
-      <c r="D138" s="122"/>
-      <c r="E138" s="122"/>
-      <c r="F138" s="122"/>
-      <c r="G138" s="122"/>
-      <c r="H138" s="122"/>
-      <c r="I138" s="122"/>
-      <c r="J138" s="122"/>
-      <c r="K138" s="122"/>
+      <c r="B138" s="128"/>
+      <c r="C138" s="128"/>
+      <c r="D138" s="133"/>
+      <c r="E138" s="133"/>
+      <c r="F138" s="133"/>
+      <c r="G138" s="133"/>
+      <c r="H138" s="133"/>
+      <c r="I138" s="133"/>
+      <c r="J138" s="133"/>
+      <c r="K138" s="133"/>
       <c r="L138" s="54"/>
     </row>
     <row r="139" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="129"/>
-      <c r="C139" s="129"/>
-      <c r="D139" s="122"/>
-      <c r="E139" s="122"/>
-      <c r="F139" s="122"/>
-      <c r="G139" s="122"/>
-      <c r="H139" s="122"/>
-      <c r="I139" s="122"/>
-      <c r="J139" s="122"/>
-      <c r="K139" s="122"/>
+      <c r="B139" s="128"/>
+      <c r="C139" s="128"/>
+      <c r="D139" s="133"/>
+      <c r="E139" s="133"/>
+      <c r="F139" s="133"/>
+      <c r="G139" s="133"/>
+      <c r="H139" s="133"/>
+      <c r="I139" s="133"/>
+      <c r="J139" s="133"/>
+      <c r="K139" s="133"/>
       <c r="L139" s="54"/>
     </row>
     <row r="140" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="129"/>
-      <c r="C140" s="129"/>
-      <c r="D140" s="122"/>
-      <c r="E140" s="122"/>
-      <c r="F140" s="122"/>
-      <c r="G140" s="122"/>
-      <c r="H140" s="122"/>
-      <c r="I140" s="122"/>
-      <c r="J140" s="122"/>
-      <c r="K140" s="122"/>
+      <c r="B140" s="128"/>
+      <c r="C140" s="128"/>
+      <c r="D140" s="133"/>
+      <c r="E140" s="133"/>
+      <c r="F140" s="133"/>
+      <c r="G140" s="133"/>
+      <c r="H140" s="133"/>
+      <c r="I140" s="133"/>
+      <c r="J140" s="133"/>
+      <c r="K140" s="133"/>
       <c r="L140" s="54"/>
     </row>
     <row r="141" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="129"/>
-      <c r="C141" s="129"/>
-      <c r="D141" s="122"/>
-      <c r="E141" s="122"/>
-      <c r="F141" s="122"/>
-      <c r="G141" s="122"/>
-      <c r="H141" s="122"/>
-      <c r="I141" s="122"/>
-      <c r="J141" s="122"/>
-      <c r="K141" s="122"/>
+      <c r="B141" s="128"/>
+      <c r="C141" s="128"/>
+      <c r="D141" s="133"/>
+      <c r="E141" s="133"/>
+      <c r="F141" s="133"/>
+      <c r="G141" s="133"/>
+      <c r="H141" s="133"/>
+      <c r="I141" s="133"/>
+      <c r="J141" s="133"/>
+      <c r="K141" s="133"/>
       <c r="L141" s="54"/>
     </row>
     <row r="142" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="129" t="s">
+      <c r="B142" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="C142" s="129"/>
-      <c r="D142" s="134" t="str">
+      <c r="C142" s="128"/>
+      <c r="D142" s="129" t="str">
         <f>記入!B47</f>
-        <v>あり</v>
-      </c>
-      <c r="E142" s="135"/>
-      <c r="F142" s="135"/>
-      <c r="G142" s="135"/>
-      <c r="H142" s="135"/>
-      <c r="I142" s="135"/>
-      <c r="J142" s="135"/>
-      <c r="K142" s="136"/>
+        <v>${cv.redelegate}</v>
+      </c>
+      <c r="E142" s="130"/>
+      <c r="F142" s="130"/>
+      <c r="G142" s="130"/>
+      <c r="H142" s="130"/>
+      <c r="I142" s="130"/>
+      <c r="J142" s="130"/>
+      <c r="K142" s="131"/>
       <c r="L142" s="54"/>
     </row>
     <row r="143" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="129"/>
-      <c r="C143" s="129"/>
-      <c r="D143" s="121" t="str">
+      <c r="B143" s="128"/>
+      <c r="C143" s="128"/>
+      <c r="D143" s="132" t="str">
         <f>記入!B48</f>
         <v>再委託先：
 ${cv.redelegatecontent}</v>
       </c>
-      <c r="E143" s="122"/>
-      <c r="F143" s="122"/>
-      <c r="G143" s="122"/>
-      <c r="H143" s="122"/>
-      <c r="I143" s="122"/>
-      <c r="J143" s="122"/>
-      <c r="K143" s="122"/>
+      <c r="E143" s="133"/>
+      <c r="F143" s="133"/>
+      <c r="G143" s="133"/>
+      <c r="H143" s="133"/>
+      <c r="I143" s="133"/>
+      <c r="J143" s="133"/>
+      <c r="K143" s="133"/>
       <c r="L143" s="54"/>
     </row>
     <row r="144" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="129"/>
-      <c r="C144" s="129"/>
-      <c r="D144" s="122"/>
-      <c r="E144" s="122"/>
-      <c r="F144" s="122"/>
-      <c r="G144" s="122"/>
-      <c r="H144" s="122"/>
-      <c r="I144" s="122"/>
-      <c r="J144" s="122"/>
-      <c r="K144" s="122"/>
+      <c r="B144" s="128"/>
+      <c r="C144" s="128"/>
+      <c r="D144" s="133"/>
+      <c r="E144" s="133"/>
+      <c r="F144" s="133"/>
+      <c r="G144" s="133"/>
+      <c r="H144" s="133"/>
+      <c r="I144" s="133"/>
+      <c r="J144" s="133"/>
+      <c r="K144" s="133"/>
       <c r="L144" s="54"/>
     </row>
     <row r="145" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="129"/>
-      <c r="C145" s="129"/>
-      <c r="D145" s="122"/>
-      <c r="E145" s="122"/>
-      <c r="F145" s="122"/>
-      <c r="G145" s="122"/>
-      <c r="H145" s="122"/>
-      <c r="I145" s="122"/>
-      <c r="J145" s="122"/>
-      <c r="K145" s="122"/>
+      <c r="B145" s="128"/>
+      <c r="C145" s="128"/>
+      <c r="D145" s="133"/>
+      <c r="E145" s="133"/>
+      <c r="F145" s="133"/>
+      <c r="G145" s="133"/>
+      <c r="H145" s="133"/>
+      <c r="I145" s="133"/>
+      <c r="J145" s="133"/>
+      <c r="K145" s="133"/>
       <c r="L145" s="54"/>
     </row>
     <row r="146" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="129"/>
-      <c r="C146" s="129"/>
-      <c r="D146" s="122"/>
-      <c r="E146" s="122"/>
-      <c r="F146" s="122"/>
-      <c r="G146" s="122"/>
-      <c r="H146" s="122"/>
-      <c r="I146" s="122"/>
-      <c r="J146" s="122"/>
-      <c r="K146" s="122"/>
+      <c r="B146" s="128"/>
+      <c r="C146" s="128"/>
+      <c r="D146" s="133"/>
+      <c r="E146" s="133"/>
+      <c r="F146" s="133"/>
+      <c r="G146" s="133"/>
+      <c r="H146" s="133"/>
+      <c r="I146" s="133"/>
+      <c r="J146" s="133"/>
+      <c r="K146" s="133"/>
       <c r="L146" s="54"/>
     </row>
     <row r="147" spans="2:12" ht="20.100000000000001" customHeight="1">
@@ -4809,10 +4809,10 @@
       <c r="L148" s="54"/>
     </row>
     <row r="149" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="129" t="s">
+      <c r="B149" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="C149" s="129"/>
+      <c r="C149" s="128"/>
       <c r="D149" s="127" t="s">
         <v>83</v>
       </c>
@@ -4832,26 +4832,26 @@
       <c r="L149" s="54"/>
     </row>
     <row r="150" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="129" t="s">
+      <c r="B150" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="C150" s="129"/>
-      <c r="D150" s="126" t="str">
+      <c r="C150" s="128"/>
+      <c r="D150" s="135" t="str">
         <f>記入!B29</f>
         <v>${r.deliverydate}</v>
       </c>
       <c r="E150" s="127"/>
-      <c r="F150" s="126" t="e">
+      <c r="F150" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="G150" s="127"/>
-      <c r="H150" s="126" t="e">
+      <c r="H150" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I150" s="127"/>
-      <c r="J150" s="126" t="e">
+      <c r="J150" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
@@ -4859,26 +4859,26 @@
       <c r="L150" s="54"/>
     </row>
     <row r="151" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="129" t="s">
+      <c r="B151" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="C151" s="129"/>
-      <c r="D151" s="126" t="str">
+      <c r="C151" s="128"/>
+      <c r="D151" s="135" t="str">
         <f>記入!C29</f>
         <v>${r.completiondate}</v>
       </c>
       <c r="E151" s="127"/>
-      <c r="F151" s="126" t="e">
+      <c r="F151" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="G151" s="127"/>
-      <c r="H151" s="126" t="e">
+      <c r="H151" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I151" s="127"/>
-      <c r="J151" s="126" t="e">
+      <c r="J151" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
@@ -4886,26 +4886,26 @@
       <c r="L151" s="54"/>
     </row>
     <row r="152" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="129" t="s">
+      <c r="B152" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="C152" s="129"/>
-      <c r="D152" s="131" t="str">
+      <c r="C152" s="128"/>
+      <c r="D152" s="137" t="str">
         <f>記入!D29</f>
         <v>${r.claimdate}</v>
       </c>
-      <c r="E152" s="130"/>
-      <c r="F152" s="126" t="e">
+      <c r="E152" s="138"/>
+      <c r="F152" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="G152" s="127"/>
-      <c r="H152" s="126" t="e">
+      <c r="H152" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I152" s="127"/>
-      <c r="J152" s="126" t="e">
+      <c r="J152" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
@@ -4913,26 +4913,26 @@
       <c r="L152" s="54"/>
     </row>
     <row r="153" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="129" t="s">
+      <c r="B153" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="C153" s="129"/>
-      <c r="D153" s="131" t="str">
+      <c r="C153" s="128"/>
+      <c r="D153" s="137" t="str">
         <f>記入!E29</f>
         <v>${r.supportdate}</v>
       </c>
-      <c r="E153" s="130"/>
-      <c r="F153" s="126" t="e">
+      <c r="E153" s="138"/>
+      <c r="F153" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="G153" s="127"/>
-      <c r="H153" s="126" t="e">
+      <c r="H153" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I153" s="127"/>
-      <c r="J153" s="126" t="e">
+      <c r="J153" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
@@ -4940,26 +4940,26 @@
       <c r="L153" s="54"/>
     </row>
     <row r="154" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="129" t="s">
+      <c r="B154" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="C154" s="129"/>
-      <c r="D154" s="132" t="str">
+      <c r="C154" s="128"/>
+      <c r="D154" s="140" t="str">
         <f>記入!F29</f>
         <v>${r.claimamount}</v>
       </c>
-      <c r="E154" s="130"/>
-      <c r="F154" s="128" t="e">
+      <c r="E154" s="138"/>
+      <c r="F154" s="139" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="G154" s="127"/>
-      <c r="H154" s="128" t="e">
+      <c r="H154" s="139" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
       <c r="I154" s="127"/>
-      <c r="J154" s="128" t="e">
+      <c r="J154" s="139" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
@@ -4967,15 +4967,15 @@
       <c r="L154" s="54"/>
     </row>
     <row r="155" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="129" t="s">
+      <c r="B155" s="128" t="s">
         <v>92</v>
       </c>
-      <c r="C155" s="129"/>
-      <c r="D155" s="130" t="str">
+      <c r="C155" s="128"/>
+      <c r="D155" s="138" t="str">
         <f>記入!B12&amp;(-1)</f>
         <v>${cv.contractnumber}-1</v>
       </c>
-      <c r="E155" s="130"/>
+      <c r="E155" s="138"/>
       <c r="F155" s="127" t="str">
         <f>記入!B12&amp;(-2)</f>
         <v>${cv.contractnumber}-2</v>
@@ -4994,10 +4994,10 @@
       <c r="L155" s="54"/>
     </row>
     <row r="156" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="129" t="s">
+      <c r="B156" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="C156" s="129"/>
+      <c r="C156" s="128"/>
       <c r="D156" s="127" t="s">
         <v>95</v>
       </c>
@@ -5011,10 +5011,10 @@
       <c r="L156" s="54"/>
     </row>
     <row r="157" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="129" t="s">
+      <c r="B157" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="C157" s="129"/>
+      <c r="C157" s="128"/>
       <c r="D157" s="127" t="s">
         <v>96</v>
       </c>
@@ -5056,59 +5056,59 @@
       <c r="L159" s="54"/>
     </row>
     <row r="160" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="123" t="s">
+      <c r="B160" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="C160" s="123"/>
-      <c r="D160" s="123" t="s">
+      <c r="C160" s="143"/>
+      <c r="D160" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="E160" s="123"/>
-      <c r="F160" s="123"/>
-      <c r="G160" s="123"/>
-      <c r="H160" s="123"/>
-      <c r="I160" s="123"/>
-      <c r="J160" s="123"/>
-      <c r="K160" s="123"/>
+      <c r="E160" s="143"/>
+      <c r="F160" s="143"/>
+      <c r="G160" s="143"/>
+      <c r="H160" s="143"/>
+      <c r="I160" s="143"/>
+      <c r="J160" s="143"/>
+      <c r="K160" s="143"/>
       <c r="L160" s="54"/>
     </row>
     <row r="161" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="124"/>
-      <c r="C161" s="124"/>
-      <c r="D161" s="124"/>
-      <c r="E161" s="124"/>
-      <c r="F161" s="124"/>
-      <c r="G161" s="124"/>
-      <c r="H161" s="124"/>
-      <c r="I161" s="124"/>
-      <c r="J161" s="124"/>
-      <c r="K161" s="124"/>
+      <c r="B161" s="144"/>
+      <c r="C161" s="144"/>
+      <c r="D161" s="144"/>
+      <c r="E161" s="144"/>
+      <c r="F161" s="144"/>
+      <c r="G161" s="144"/>
+      <c r="H161" s="144"/>
+      <c r="I161" s="144"/>
+      <c r="J161" s="144"/>
+      <c r="K161" s="144"/>
       <c r="L161" s="54"/>
     </row>
     <row r="162" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="124"/>
-      <c r="C162" s="124"/>
-      <c r="D162" s="124"/>
-      <c r="E162" s="124"/>
-      <c r="F162" s="124"/>
-      <c r="G162" s="124"/>
-      <c r="H162" s="124"/>
-      <c r="I162" s="124"/>
-      <c r="J162" s="124"/>
-      <c r="K162" s="124"/>
+      <c r="B162" s="144"/>
+      <c r="C162" s="144"/>
+      <c r="D162" s="144"/>
+      <c r="E162" s="144"/>
+      <c r="F162" s="144"/>
+      <c r="G162" s="144"/>
+      <c r="H162" s="144"/>
+      <c r="I162" s="144"/>
+      <c r="J162" s="144"/>
+      <c r="K162" s="144"/>
       <c r="L162" s="54"/>
     </row>
     <row r="163" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="125"/>
-      <c r="C163" s="125"/>
-      <c r="D163" s="125"/>
-      <c r="E163" s="125"/>
-      <c r="F163" s="125"/>
-      <c r="G163" s="125"/>
-      <c r="H163" s="125"/>
-      <c r="I163" s="125"/>
-      <c r="J163" s="125"/>
-      <c r="K163" s="125"/>
+      <c r="B163" s="145"/>
+      <c r="C163" s="145"/>
+      <c r="D163" s="145"/>
+      <c r="E163" s="145"/>
+      <c r="F163" s="145"/>
+      <c r="G163" s="145"/>
+      <c r="H163" s="145"/>
+      <c r="I163" s="145"/>
+      <c r="J163" s="145"/>
+      <c r="K163" s="145"/>
       <c r="L163" s="54"/>
     </row>
     <row r="164" spans="2:12" ht="14.25">
@@ -5187,7 +5187,7 @@
       <c r="I169" s="54"/>
       <c r="J169" s="54"/>
       <c r="K169" s="54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L169" s="54"/>
     </row>
@@ -5466,12 +5466,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B11:L57"/>
-    <mergeCell ref="B60:L71"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D132:K132"/>
+    <mergeCell ref="D133:K133"/>
+    <mergeCell ref="D134:K134"/>
+    <mergeCell ref="D135:K141"/>
+    <mergeCell ref="B160:C163"/>
+    <mergeCell ref="D160:K163"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:K156"/>
+    <mergeCell ref="D157:K157"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
     <mergeCell ref="J149:K149"/>
     <mergeCell ref="B150:C150"/>
     <mergeCell ref="B151:C151"/>
@@ -5488,45 +5521,12 @@
     <mergeCell ref="F150:G150"/>
     <mergeCell ref="F151:G151"/>
     <mergeCell ref="D131:K131"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D156:K156"/>
-    <mergeCell ref="D157:K157"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="D132:K132"/>
-    <mergeCell ref="D133:K133"/>
-    <mergeCell ref="D134:K134"/>
-    <mergeCell ref="D135:K141"/>
-    <mergeCell ref="B160:C163"/>
-    <mergeCell ref="D160:K163"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B11:L57"/>
+    <mergeCell ref="B60:L71"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5563,18 +5563,18 @@
       <c r="J2" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="165" t="str">
+      <c r="K2" s="149" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="165"/>
+      <c r="L2" s="149"/>
     </row>
     <row r="3" spans="1:12" ht="20.25">
-      <c r="F3" s="166" t="s">
+      <c r="F3" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="30" t="s">
@@ -5634,11 +5634,11 @@
         <v>68</v>
       </c>
       <c r="C8" s="51"/>
-      <c r="D8" s="168" t="str">
+      <c r="D8" s="152" t="str">
         <f>記入!B34</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E8" s="169"/>
+      <c r="E8" s="153"/>
       <c r="F8" s="52" t="s">
         <v>66</v>
       </c>
@@ -5678,617 +5678,617 @@
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="167" t="s">
+      <c r="B11" s="151" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="167"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="167"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="167"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="167"/>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="167"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="167"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="167"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="167"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="167"/>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
-      <c r="L16" s="167"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="167"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
-      <c r="L17" s="167"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="167"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
-      <c r="L18" s="167"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="167"/>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="167"/>
-      <c r="L19" s="167"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="167"/>
-      <c r="C20" s="167"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="167"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="167"/>
-      <c r="K20" s="167"/>
-      <c r="L20" s="167"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="167"/>
-      <c r="C21" s="167"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="167"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="167"/>
-      <c r="K21" s="167"/>
-      <c r="L21" s="167"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="167"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="167"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="167"/>
-      <c r="K22" s="167"/>
-      <c r="L22" s="167"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="167"/>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="167"/>
-      <c r="K23" s="167"/>
-      <c r="L23" s="167"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="167"/>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="167"/>
-      <c r="G24" s="167"/>
-      <c r="H24" s="167"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="167"/>
-      <c r="K24" s="167"/>
-      <c r="L24" s="167"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="167"/>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="167"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="167"/>
-      <c r="K25" s="167"/>
-      <c r="L25" s="167"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="151"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="167"/>
-      <c r="C26" s="167"/>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="167"/>
-      <c r="L26" s="167"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="151"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167"/>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="167"/>
-      <c r="K27" s="167"/>
-      <c r="L27" s="167"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="151"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="167"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="167"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="167"/>
-      <c r="L28" s="167"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="151"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="167"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="167"/>
-      <c r="G29" s="167"/>
-      <c r="H29" s="167"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="167"/>
-      <c r="K29" s="167"/>
-      <c r="L29" s="167"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="151"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="167"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="167"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="167"/>
-      <c r="K30" s="167"/>
-      <c r="L30" s="167"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="151"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="167"/>
-      <c r="C31" s="167"/>
-      <c r="D31" s="167"/>
-      <c r="E31" s="167"/>
-      <c r="F31" s="167"/>
-      <c r="G31" s="167"/>
-      <c r="H31" s="167"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="167"/>
-      <c r="K31" s="167"/>
-      <c r="L31" s="167"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="151"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="167"/>
-      <c r="C32" s="167"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="167"/>
-      <c r="F32" s="167"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="167"/>
-      <c r="I32" s="167"/>
-      <c r="J32" s="167"/>
-      <c r="K32" s="167"/>
-      <c r="L32" s="167"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="151"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="167"/>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="167"/>
-      <c r="H33" s="167"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="167"/>
-      <c r="K33" s="167"/>
-      <c r="L33" s="167"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="151"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="167"/>
-      <c r="C34" s="167"/>
-      <c r="D34" s="167"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="167"/>
-      <c r="G34" s="167"/>
-      <c r="H34" s="167"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="167"/>
-      <c r="K34" s="167"/>
-      <c r="L34" s="167"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="151"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="167"/>
-      <c r="H35" s="167"/>
-      <c r="I35" s="167"/>
-      <c r="J35" s="167"/>
-      <c r="K35" s="167"/>
-      <c r="L35" s="167"/>
+      <c r="B35" s="151"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="151"/>
+      <c r="L35" s="151"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="167"/>
-      <c r="G36" s="167"/>
-      <c r="H36" s="167"/>
-      <c r="I36" s="167"/>
-      <c r="J36" s="167"/>
-      <c r="K36" s="167"/>
-      <c r="L36" s="167"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="151"/>
+      <c r="K36" s="151"/>
+      <c r="L36" s="151"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="167"/>
-      <c r="G37" s="167"/>
-      <c r="H37" s="167"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="167"/>
-      <c r="K37" s="167"/>
-      <c r="L37" s="167"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="151"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="167"/>
-      <c r="G38" s="167"/>
-      <c r="H38" s="167"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="167"/>
-      <c r="K38" s="167"/>
-      <c r="L38" s="167"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="151"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="167"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="167"/>
-      <c r="H39" s="167"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="167"/>
-      <c r="K39" s="167"/>
-      <c r="L39" s="167"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="151"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="167"/>
-      <c r="C40" s="167"/>
-      <c r="D40" s="167"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="167"/>
-      <c r="G40" s="167"/>
-      <c r="H40" s="167"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="167"/>
-      <c r="L40" s="167"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="151"/>
+      <c r="K40" s="151"/>
+      <c r="L40" s="151"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="167"/>
-      <c r="C41" s="167"/>
-      <c r="D41" s="167"/>
-      <c r="E41" s="167"/>
-      <c r="F41" s="167"/>
-      <c r="G41" s="167"/>
-      <c r="H41" s="167"/>
-      <c r="I41" s="167"/>
-      <c r="J41" s="167"/>
-      <c r="K41" s="167"/>
-      <c r="L41" s="167"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="151"/>
+      <c r="K41" s="151"/>
+      <c r="L41" s="151"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="167"/>
-      <c r="C42" s="167"/>
-      <c r="D42" s="167"/>
-      <c r="E42" s="167"/>
-      <c r="F42" s="167"/>
-      <c r="G42" s="167"/>
-      <c r="H42" s="167"/>
-      <c r="I42" s="167"/>
-      <c r="J42" s="167"/>
-      <c r="K42" s="167"/>
-      <c r="L42" s="167"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="151"/>
+      <c r="K42" s="151"/>
+      <c r="L42" s="151"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="167"/>
-      <c r="C43" s="167"/>
-      <c r="D43" s="167"/>
-      <c r="E43" s="167"/>
-      <c r="F43" s="167"/>
-      <c r="G43" s="167"/>
-      <c r="H43" s="167"/>
-      <c r="I43" s="167"/>
-      <c r="J43" s="167"/>
-      <c r="K43" s="167"/>
-      <c r="L43" s="167"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="167"/>
-      <c r="C44" s="167"/>
-      <c r="D44" s="167"/>
-      <c r="E44" s="167"/>
-      <c r="F44" s="167"/>
-      <c r="G44" s="167"/>
-      <c r="H44" s="167"/>
-      <c r="I44" s="167"/>
-      <c r="J44" s="167"/>
-      <c r="K44" s="167"/>
-      <c r="L44" s="167"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="151"/>
+      <c r="L44" s="151"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="167"/>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="167"/>
-      <c r="F45" s="167"/>
-      <c r="G45" s="167"/>
-      <c r="H45" s="167"/>
-      <c r="I45" s="167"/>
-      <c r="J45" s="167"/>
-      <c r="K45" s="167"/>
-      <c r="L45" s="167"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="151"/>
+      <c r="K45" s="151"/>
+      <c r="L45" s="151"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="167"/>
-      <c r="C46" s="167"/>
-      <c r="D46" s="167"/>
-      <c r="E46" s="167"/>
-      <c r="F46" s="167"/>
-      <c r="G46" s="167"/>
-      <c r="H46" s="167"/>
-      <c r="I46" s="167"/>
-      <c r="J46" s="167"/>
-      <c r="K46" s="167"/>
-      <c r="L46" s="167"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
+      <c r="J46" s="151"/>
+      <c r="K46" s="151"/>
+      <c r="L46" s="151"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="167"/>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
-      <c r="E47" s="167"/>
-      <c r="F47" s="167"/>
-      <c r="G47" s="167"/>
-      <c r="H47" s="167"/>
-      <c r="I47" s="167"/>
-      <c r="J47" s="167"/>
-      <c r="K47" s="167"/>
-      <c r="L47" s="167"/>
+      <c r="B47" s="151"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="151"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
+      <c r="J47" s="151"/>
+      <c r="K47" s="151"/>
+      <c r="L47" s="151"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="167"/>
-      <c r="C48" s="167"/>
-      <c r="D48" s="167"/>
-      <c r="E48" s="167"/>
-      <c r="F48" s="167"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="167"/>
-      <c r="I48" s="167"/>
-      <c r="J48" s="167"/>
-      <c r="K48" s="167"/>
-      <c r="L48" s="167"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="151"/>
+      <c r="F48" s="151"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="151"/>
+      <c r="L48" s="151"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="167"/>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
-      <c r="E49" s="167"/>
-      <c r="F49" s="167"/>
-      <c r="G49" s="167"/>
-      <c r="H49" s="167"/>
-      <c r="I49" s="167"/>
-      <c r="J49" s="167"/>
-      <c r="K49" s="167"/>
-      <c r="L49" s="167"/>
+      <c r="B49" s="151"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="151"/>
+      <c r="F49" s="151"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="151"/>
+      <c r="K49" s="151"/>
+      <c r="L49" s="151"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="167"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="167"/>
-      <c r="F50" s="167"/>
-      <c r="G50" s="167"/>
-      <c r="H50" s="167"/>
-      <c r="I50" s="167"/>
-      <c r="J50" s="167"/>
-      <c r="K50" s="167"/>
-      <c r="L50" s="167"/>
+      <c r="B50" s="151"/>
+      <c r="C50" s="151"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="151"/>
+      <c r="F50" s="151"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="151"/>
+      <c r="K50" s="151"/>
+      <c r="L50" s="151"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="167"/>
-      <c r="C51" s="167"/>
-      <c r="D51" s="167"/>
-      <c r="E51" s="167"/>
-      <c r="F51" s="167"/>
-      <c r="G51" s="167"/>
-      <c r="H51" s="167"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="167"/>
-      <c r="K51" s="167"/>
-      <c r="L51" s="167"/>
+      <c r="B51" s="151"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="151"/>
+      <c r="K51" s="151"/>
+      <c r="L51" s="151"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="167"/>
-      <c r="C52" s="167"/>
-      <c r="D52" s="167"/>
-      <c r="E52" s="167"/>
-      <c r="F52" s="167"/>
-      <c r="G52" s="167"/>
-      <c r="H52" s="167"/>
-      <c r="I52" s="167"/>
-      <c r="J52" s="167"/>
-      <c r="K52" s="167"/>
-      <c r="L52" s="167"/>
+      <c r="B52" s="151"/>
+      <c r="C52" s="151"/>
+      <c r="D52" s="151"/>
+      <c r="E52" s="151"/>
+      <c r="F52" s="151"/>
+      <c r="G52" s="151"/>
+      <c r="H52" s="151"/>
+      <c r="I52" s="151"/>
+      <c r="J52" s="151"/>
+      <c r="K52" s="151"/>
+      <c r="L52" s="151"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="167"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="167"/>
-      <c r="E53" s="167"/>
-      <c r="F53" s="167"/>
-      <c r="G53" s="167"/>
-      <c r="H53" s="167"/>
-      <c r="I53" s="167"/>
-      <c r="J53" s="167"/>
-      <c r="K53" s="167"/>
-      <c r="L53" s="167"/>
+      <c r="B53" s="151"/>
+      <c r="C53" s="151"/>
+      <c r="D53" s="151"/>
+      <c r="E53" s="151"/>
+      <c r="F53" s="151"/>
+      <c r="G53" s="151"/>
+      <c r="H53" s="151"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="151"/>
+      <c r="K53" s="151"/>
+      <c r="L53" s="151"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="167"/>
-      <c r="C54" s="167"/>
-      <c r="D54" s="167"/>
-      <c r="E54" s="167"/>
-      <c r="F54" s="167"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="167"/>
-      <c r="I54" s="167"/>
-      <c r="J54" s="167"/>
-      <c r="K54" s="167"/>
-      <c r="L54" s="167"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="151"/>
+      <c r="D54" s="151"/>
+      <c r="E54" s="151"/>
+      <c r="F54" s="151"/>
+      <c r="G54" s="151"/>
+      <c r="H54" s="151"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="151"/>
+      <c r="K54" s="151"/>
+      <c r="L54" s="151"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="167"/>
-      <c r="C55" s="167"/>
-      <c r="D55" s="167"/>
-      <c r="E55" s="167"/>
-      <c r="F55" s="167"/>
-      <c r="G55" s="167"/>
-      <c r="H55" s="167"/>
-      <c r="I55" s="167"/>
-      <c r="J55" s="167"/>
-      <c r="K55" s="167"/>
-      <c r="L55" s="167"/>
+      <c r="B55" s="151"/>
+      <c r="C55" s="151"/>
+      <c r="D55" s="151"/>
+      <c r="E55" s="151"/>
+      <c r="F55" s="151"/>
+      <c r="G55" s="151"/>
+      <c r="H55" s="151"/>
+      <c r="I55" s="151"/>
+      <c r="J55" s="151"/>
+      <c r="K55" s="151"/>
+      <c r="L55" s="151"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="167"/>
-      <c r="C56" s="167"/>
-      <c r="D56" s="167"/>
-      <c r="E56" s="167"/>
-      <c r="F56" s="167"/>
-      <c r="G56" s="167"/>
-      <c r="H56" s="167"/>
-      <c r="I56" s="167"/>
-      <c r="J56" s="167"/>
-      <c r="K56" s="167"/>
-      <c r="L56" s="167"/>
+      <c r="B56" s="151"/>
+      <c r="C56" s="151"/>
+      <c r="D56" s="151"/>
+      <c r="E56" s="151"/>
+      <c r="F56" s="151"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="151"/>
+      <c r="I56" s="151"/>
+      <c r="J56" s="151"/>
+      <c r="K56" s="151"/>
+      <c r="L56" s="151"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="167"/>
-      <c r="C57" s="167"/>
-      <c r="D57" s="167"/>
-      <c r="E57" s="167"/>
-      <c r="F57" s="167"/>
-      <c r="G57" s="167"/>
-      <c r="H57" s="167"/>
-      <c r="I57" s="167"/>
-      <c r="J57" s="167"/>
-      <c r="K57" s="167"/>
-      <c r="L57" s="167"/>
+      <c r="B57" s="151"/>
+      <c r="C57" s="151"/>
+      <c r="D57" s="151"/>
+      <c r="E57" s="151"/>
+      <c r="F57" s="151"/>
+      <c r="G57" s="151"/>
+      <c r="H57" s="151"/>
+      <c r="I57" s="151"/>
+      <c r="J57" s="151"/>
+      <c r="K57" s="151"/>
+      <c r="L57" s="151"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
       <c r="B58" s="34"/>
@@ -6307,169 +6307,169 @@
       <c r="J59" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K59" s="165" t="str">
+      <c r="K59" s="149" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L59" s="165"/>
+      <c r="L59" s="149"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="163" t="s">
+      <c r="B60" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="164"/>
-      <c r="D60" s="164"/>
-      <c r="E60" s="164"/>
-      <c r="F60" s="164"/>
-      <c r="G60" s="164"/>
-      <c r="H60" s="164"/>
-      <c r="I60" s="164"/>
-      <c r="J60" s="164"/>
-      <c r="K60" s="164"/>
-      <c r="L60" s="164"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="148"/>
+      <c r="E60" s="148"/>
+      <c r="F60" s="148"/>
+      <c r="G60" s="148"/>
+      <c r="H60" s="148"/>
+      <c r="I60" s="148"/>
+      <c r="J60" s="148"/>
+      <c r="K60" s="148"/>
+      <c r="L60" s="148"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="164"/>
-      <c r="C61" s="164"/>
-      <c r="D61" s="164"/>
-      <c r="E61" s="164"/>
-      <c r="F61" s="164"/>
-      <c r="G61" s="164"/>
-      <c r="H61" s="164"/>
-      <c r="I61" s="164"/>
-      <c r="J61" s="164"/>
-      <c r="K61" s="164"/>
-      <c r="L61" s="164"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148"/>
+      <c r="G61" s="148"/>
+      <c r="H61" s="148"/>
+      <c r="I61" s="148"/>
+      <c r="J61" s="148"/>
+      <c r="K61" s="148"/>
+      <c r="L61" s="148"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="164"/>
-      <c r="C62" s="164"/>
-      <c r="D62" s="164"/>
-      <c r="E62" s="164"/>
-      <c r="F62" s="164"/>
-      <c r="G62" s="164"/>
-      <c r="H62" s="164"/>
-      <c r="I62" s="164"/>
-      <c r="J62" s="164"/>
-      <c r="K62" s="164"/>
-      <c r="L62" s="164"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="148"/>
+      <c r="D62" s="148"/>
+      <c r="E62" s="148"/>
+      <c r="F62" s="148"/>
+      <c r="G62" s="148"/>
+      <c r="H62" s="148"/>
+      <c r="I62" s="148"/>
+      <c r="J62" s="148"/>
+      <c r="K62" s="148"/>
+      <c r="L62" s="148"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="164"/>
-      <c r="C63" s="164"/>
-      <c r="D63" s="164"/>
-      <c r="E63" s="164"/>
-      <c r="F63" s="164"/>
-      <c r="G63" s="164"/>
-      <c r="H63" s="164"/>
-      <c r="I63" s="164"/>
-      <c r="J63" s="164"/>
-      <c r="K63" s="164"/>
-      <c r="L63" s="164"/>
+      <c r="B63" s="148"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="148"/>
+      <c r="E63" s="148"/>
+      <c r="F63" s="148"/>
+      <c r="G63" s="148"/>
+      <c r="H63" s="148"/>
+      <c r="I63" s="148"/>
+      <c r="J63" s="148"/>
+      <c r="K63" s="148"/>
+      <c r="L63" s="148"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="164"/>
-      <c r="C64" s="164"/>
-      <c r="D64" s="164"/>
-      <c r="E64" s="164"/>
-      <c r="F64" s="164"/>
-      <c r="G64" s="164"/>
-      <c r="H64" s="164"/>
-      <c r="I64" s="164"/>
-      <c r="J64" s="164"/>
-      <c r="K64" s="164"/>
-      <c r="L64" s="164"/>
+      <c r="B64" s="148"/>
+      <c r="C64" s="148"/>
+      <c r="D64" s="148"/>
+      <c r="E64" s="148"/>
+      <c r="F64" s="148"/>
+      <c r="G64" s="148"/>
+      <c r="H64" s="148"/>
+      <c r="I64" s="148"/>
+      <c r="J64" s="148"/>
+      <c r="K64" s="148"/>
+      <c r="L64" s="148"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="164"/>
-      <c r="C65" s="164"/>
-      <c r="D65" s="164"/>
-      <c r="E65" s="164"/>
-      <c r="F65" s="164"/>
-      <c r="G65" s="164"/>
-      <c r="H65" s="164"/>
-      <c r="I65" s="164"/>
-      <c r="J65" s="164"/>
-      <c r="K65" s="164"/>
-      <c r="L65" s="164"/>
+      <c r="B65" s="148"/>
+      <c r="C65" s="148"/>
+      <c r="D65" s="148"/>
+      <c r="E65" s="148"/>
+      <c r="F65" s="148"/>
+      <c r="G65" s="148"/>
+      <c r="H65" s="148"/>
+      <c r="I65" s="148"/>
+      <c r="J65" s="148"/>
+      <c r="K65" s="148"/>
+      <c r="L65" s="148"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="164"/>
-      <c r="C66" s="164"/>
-      <c r="D66" s="164"/>
-      <c r="E66" s="164"/>
-      <c r="F66" s="164"/>
-      <c r="G66" s="164"/>
-      <c r="H66" s="164"/>
-      <c r="I66" s="164"/>
-      <c r="J66" s="164"/>
-      <c r="K66" s="164"/>
-      <c r="L66" s="164"/>
+      <c r="B66" s="148"/>
+      <c r="C66" s="148"/>
+      <c r="D66" s="148"/>
+      <c r="E66" s="148"/>
+      <c r="F66" s="148"/>
+      <c r="G66" s="148"/>
+      <c r="H66" s="148"/>
+      <c r="I66" s="148"/>
+      <c r="J66" s="148"/>
+      <c r="K66" s="148"/>
+      <c r="L66" s="148"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="164"/>
-      <c r="C67" s="164"/>
-      <c r="D67" s="164"/>
-      <c r="E67" s="164"/>
-      <c r="F67" s="164"/>
-      <c r="G67" s="164"/>
-      <c r="H67" s="164"/>
-      <c r="I67" s="164"/>
-      <c r="J67" s="164"/>
-      <c r="K67" s="164"/>
-      <c r="L67" s="164"/>
+      <c r="B67" s="148"/>
+      <c r="C67" s="148"/>
+      <c r="D67" s="148"/>
+      <c r="E67" s="148"/>
+      <c r="F67" s="148"/>
+      <c r="G67" s="148"/>
+      <c r="H67" s="148"/>
+      <c r="I67" s="148"/>
+      <c r="J67" s="148"/>
+      <c r="K67" s="148"/>
+      <c r="L67" s="148"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="164"/>
-      <c r="C68" s="164"/>
-      <c r="D68" s="164"/>
-      <c r="E68" s="164"/>
-      <c r="F68" s="164"/>
-      <c r="G68" s="164"/>
-      <c r="H68" s="164"/>
-      <c r="I68" s="164"/>
-      <c r="J68" s="164"/>
-      <c r="K68" s="164"/>
-      <c r="L68" s="164"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="148"/>
+      <c r="D68" s="148"/>
+      <c r="E68" s="148"/>
+      <c r="F68" s="148"/>
+      <c r="G68" s="148"/>
+      <c r="H68" s="148"/>
+      <c r="I68" s="148"/>
+      <c r="J68" s="148"/>
+      <c r="K68" s="148"/>
+      <c r="L68" s="148"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="164"/>
-      <c r="C69" s="164"/>
-      <c r="D69" s="164"/>
-      <c r="E69" s="164"/>
-      <c r="F69" s="164"/>
-      <c r="G69" s="164"/>
-      <c r="H69" s="164"/>
-      <c r="I69" s="164"/>
-      <c r="J69" s="164"/>
-      <c r="K69" s="164"/>
-      <c r="L69" s="164"/>
+      <c r="B69" s="148"/>
+      <c r="C69" s="148"/>
+      <c r="D69" s="148"/>
+      <c r="E69" s="148"/>
+      <c r="F69" s="148"/>
+      <c r="G69" s="148"/>
+      <c r="H69" s="148"/>
+      <c r="I69" s="148"/>
+      <c r="J69" s="148"/>
+      <c r="K69" s="148"/>
+      <c r="L69" s="148"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="164"/>
-      <c r="C70" s="164"/>
-      <c r="D70" s="164"/>
-      <c r="E70" s="164"/>
-      <c r="F70" s="164"/>
-      <c r="G70" s="164"/>
-      <c r="H70" s="164"/>
-      <c r="I70" s="164"/>
-      <c r="J70" s="164"/>
-      <c r="K70" s="164"/>
-      <c r="L70" s="164"/>
+      <c r="B70" s="148"/>
+      <c r="C70" s="148"/>
+      <c r="D70" s="148"/>
+      <c r="E70" s="148"/>
+      <c r="F70" s="148"/>
+      <c r="G70" s="148"/>
+      <c r="H70" s="148"/>
+      <c r="I70" s="148"/>
+      <c r="J70" s="148"/>
+      <c r="K70" s="148"/>
+      <c r="L70" s="148"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="164"/>
-      <c r="C71" s="164"/>
-      <c r="D71" s="164"/>
-      <c r="E71" s="164"/>
-      <c r="F71" s="164"/>
-      <c r="G71" s="164"/>
-      <c r="H71" s="164"/>
-      <c r="I71" s="164"/>
-      <c r="J71" s="164"/>
-      <c r="K71" s="164"/>
-      <c r="L71" s="164"/>
+      <c r="B71" s="148"/>
+      <c r="C71" s="148"/>
+      <c r="D71" s="148"/>
+      <c r="E71" s="148"/>
+      <c r="F71" s="148"/>
+      <c r="G71" s="148"/>
+      <c r="H71" s="148"/>
+      <c r="I71" s="148"/>
+      <c r="J71" s="148"/>
+      <c r="K71" s="148"/>
+      <c r="L71" s="148"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
       <c r="B73" s="32" t="s">
@@ -6707,11 +6707,11 @@
       <c r="J127" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="K127" s="162" t="str">
+      <c r="K127" s="146" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L127" s="162"/>
+      <c r="L127" s="146"/>
     </row>
     <row r="128" spans="2:12" s="62" customFormat="1" ht="18.75">
       <c r="B128" s="64" t="s">
@@ -6741,7 +6741,7 @@
     </row>
     <row r="130" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B130" s="65" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C130" s="65"/>
       <c r="D130" s="65"/>
@@ -6755,247 +6755,247 @@
       <c r="L130" s="66"/>
     </row>
     <row r="131" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="143" t="s">
-        <v>104</v>
-      </c>
-      <c r="C131" s="143"/>
-      <c r="D131" s="160" t="str">
+      <c r="B131" s="154" t="s">
+        <v>103</v>
+      </c>
+      <c r="C131" s="154"/>
+      <c r="D131" s="155" t="str">
         <f>記入!B11</f>
         <v>${cv.pjnamechinese}</v>
       </c>
-      <c r="E131" s="160"/>
-      <c r="F131" s="160"/>
-      <c r="G131" s="160"/>
-      <c r="H131" s="160"/>
-      <c r="I131" s="160"/>
-      <c r="J131" s="160"/>
-      <c r="K131" s="160"/>
+      <c r="E131" s="155"/>
+      <c r="F131" s="155"/>
+      <c r="G131" s="155"/>
+      <c r="H131" s="155"/>
+      <c r="I131" s="155"/>
+      <c r="J131" s="155"/>
+      <c r="K131" s="155"/>
       <c r="L131" s="67"/>
     </row>
     <row r="132" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="143" t="s">
-        <v>105</v>
-      </c>
-      <c r="C132" s="143"/>
-      <c r="D132" s="161" t="str">
+      <c r="B132" s="154" t="s">
+        <v>104</v>
+      </c>
+      <c r="C132" s="154"/>
+      <c r="D132" s="156" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E132" s="160"/>
-      <c r="F132" s="160"/>
-      <c r="G132" s="160"/>
-      <c r="H132" s="160"/>
-      <c r="I132" s="160"/>
-      <c r="J132" s="160"/>
-      <c r="K132" s="160"/>
+      <c r="E132" s="155"/>
+      <c r="F132" s="155"/>
+      <c r="G132" s="155"/>
+      <c r="H132" s="155"/>
+      <c r="I132" s="155"/>
+      <c r="J132" s="155"/>
+      <c r="K132" s="155"/>
       <c r="L132" s="68"/>
     </row>
     <row r="133" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B133" s="143" t="s">
-        <v>106</v>
-      </c>
-      <c r="C133" s="143"/>
-      <c r="D133" s="161" t="str">
+      <c r="B133" s="154" t="s">
+        <v>105</v>
+      </c>
+      <c r="C133" s="154"/>
+      <c r="D133" s="156" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E133" s="160"/>
-      <c r="F133" s="160"/>
-      <c r="G133" s="160"/>
-      <c r="H133" s="160"/>
-      <c r="I133" s="160"/>
-      <c r="J133" s="160"/>
-      <c r="K133" s="160"/>
+      <c r="E133" s="155"/>
+      <c r="F133" s="155"/>
+      <c r="G133" s="155"/>
+      <c r="H133" s="155"/>
+      <c r="I133" s="155"/>
+      <c r="J133" s="155"/>
+      <c r="K133" s="155"/>
       <c r="L133" s="68"/>
     </row>
     <row r="134" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="143" t="s">
-        <v>107</v>
-      </c>
-      <c r="C134" s="143"/>
-      <c r="D134" s="153" t="str">
+      <c r="B134" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="C134" s="154"/>
+      <c r="D134" s="157" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="E134" s="153"/>
-      <c r="F134" s="153"/>
-      <c r="G134" s="153"/>
-      <c r="H134" s="153"/>
-      <c r="I134" s="153"/>
-      <c r="J134" s="153"/>
-      <c r="K134" s="153"/>
+      <c r="E134" s="157"/>
+      <c r="F134" s="157"/>
+      <c r="G134" s="157"/>
+      <c r="H134" s="157"/>
+      <c r="I134" s="157"/>
+      <c r="J134" s="157"/>
+      <c r="K134" s="157"/>
       <c r="L134" s="68"/>
     </row>
     <row r="135" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="154" t="s">
-        <v>108</v>
-      </c>
-      <c r="C135" s="143"/>
-      <c r="D135" s="155" t="str">
+      <c r="B135" s="158" t="s">
+        <v>107</v>
+      </c>
+      <c r="C135" s="154"/>
+      <c r="D135" s="159" t="str">
         <f>記入!B41</f>
         <v>${cv.technicalcontentchinese}</v>
       </c>
-      <c r="E135" s="156"/>
-      <c r="F135" s="156"/>
-      <c r="G135" s="156"/>
-      <c r="H135" s="156"/>
-      <c r="I135" s="156"/>
-      <c r="J135" s="156"/>
-      <c r="K135" s="156"/>
+      <c r="E135" s="160"/>
+      <c r="F135" s="160"/>
+      <c r="G135" s="160"/>
+      <c r="H135" s="160"/>
+      <c r="I135" s="160"/>
+      <c r="J135" s="160"/>
+      <c r="K135" s="160"/>
       <c r="L135" s="68"/>
     </row>
     <row r="136" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="143"/>
-      <c r="C136" s="143"/>
-      <c r="D136" s="156"/>
-      <c r="E136" s="156"/>
-      <c r="F136" s="156"/>
-      <c r="G136" s="156"/>
-      <c r="H136" s="156"/>
-      <c r="I136" s="156"/>
-      <c r="J136" s="156"/>
-      <c r="K136" s="156"/>
+      <c r="B136" s="154"/>
+      <c r="C136" s="154"/>
+      <c r="D136" s="160"/>
+      <c r="E136" s="160"/>
+      <c r="F136" s="160"/>
+      <c r="G136" s="160"/>
+      <c r="H136" s="160"/>
+      <c r="I136" s="160"/>
+      <c r="J136" s="160"/>
+      <c r="K136" s="160"/>
       <c r="L136" s="68"/>
     </row>
     <row r="137" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="143"/>
-      <c r="C137" s="143"/>
-      <c r="D137" s="156"/>
-      <c r="E137" s="156"/>
-      <c r="F137" s="156"/>
-      <c r="G137" s="156"/>
-      <c r="H137" s="156"/>
-      <c r="I137" s="156"/>
-      <c r="J137" s="156"/>
-      <c r="K137" s="156"/>
+      <c r="B137" s="154"/>
+      <c r="C137" s="154"/>
+      <c r="D137" s="160"/>
+      <c r="E137" s="160"/>
+      <c r="F137" s="160"/>
+      <c r="G137" s="160"/>
+      <c r="H137" s="160"/>
+      <c r="I137" s="160"/>
+      <c r="J137" s="160"/>
+      <c r="K137" s="160"/>
       <c r="L137" s="68"/>
     </row>
     <row r="138" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="143"/>
-      <c r="C138" s="143"/>
-      <c r="D138" s="156"/>
-      <c r="E138" s="156"/>
-      <c r="F138" s="156"/>
-      <c r="G138" s="156"/>
-      <c r="H138" s="156"/>
-      <c r="I138" s="156"/>
-      <c r="J138" s="156"/>
-      <c r="K138" s="156"/>
+      <c r="B138" s="154"/>
+      <c r="C138" s="154"/>
+      <c r="D138" s="160"/>
+      <c r="E138" s="160"/>
+      <c r="F138" s="160"/>
+      <c r="G138" s="160"/>
+      <c r="H138" s="160"/>
+      <c r="I138" s="160"/>
+      <c r="J138" s="160"/>
+      <c r="K138" s="160"/>
       <c r="L138" s="67"/>
     </row>
     <row r="139" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="143"/>
-      <c r="C139" s="143"/>
-      <c r="D139" s="156"/>
-      <c r="E139" s="156"/>
-      <c r="F139" s="156"/>
-      <c r="G139" s="156"/>
-      <c r="H139" s="156"/>
-      <c r="I139" s="156"/>
-      <c r="J139" s="156"/>
-      <c r="K139" s="156"/>
+      <c r="B139" s="154"/>
+      <c r="C139" s="154"/>
+      <c r="D139" s="160"/>
+      <c r="E139" s="160"/>
+      <c r="F139" s="160"/>
+      <c r="G139" s="160"/>
+      <c r="H139" s="160"/>
+      <c r="I139" s="160"/>
+      <c r="J139" s="160"/>
+      <c r="K139" s="160"/>
       <c r="L139" s="67"/>
     </row>
     <row r="140" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="143"/>
-      <c r="C140" s="143"/>
-      <c r="D140" s="156"/>
-      <c r="E140" s="156"/>
-      <c r="F140" s="156"/>
-      <c r="G140" s="156"/>
-      <c r="H140" s="156"/>
-      <c r="I140" s="156"/>
-      <c r="J140" s="156"/>
-      <c r="K140" s="156"/>
+      <c r="B140" s="154"/>
+      <c r="C140" s="154"/>
+      <c r="D140" s="160"/>
+      <c r="E140" s="160"/>
+      <c r="F140" s="160"/>
+      <c r="G140" s="160"/>
+      <c r="H140" s="160"/>
+      <c r="I140" s="160"/>
+      <c r="J140" s="160"/>
+      <c r="K140" s="160"/>
       <c r="L140" s="68"/>
     </row>
     <row r="141" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="143"/>
-      <c r="C141" s="143"/>
-      <c r="D141" s="156"/>
-      <c r="E141" s="156"/>
-      <c r="F141" s="156"/>
-      <c r="G141" s="156"/>
-      <c r="H141" s="156"/>
-      <c r="I141" s="156"/>
-      <c r="J141" s="156"/>
-      <c r="K141" s="156"/>
+      <c r="B141" s="154"/>
+      <c r="C141" s="154"/>
+      <c r="D141" s="160"/>
+      <c r="E141" s="160"/>
+      <c r="F141" s="160"/>
+      <c r="G141" s="160"/>
+      <c r="H141" s="160"/>
+      <c r="I141" s="160"/>
+      <c r="J141" s="160"/>
+      <c r="K141" s="160"/>
       <c r="L141" s="68"/>
     </row>
     <row r="142" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="143" t="s">
-        <v>109</v>
-      </c>
-      <c r="C142" s="143"/>
-      <c r="D142" s="157" t="str">
+      <c r="B142" s="154" t="s">
+        <v>108</v>
+      </c>
+      <c r="C142" s="154"/>
+      <c r="D142" s="161" t="str">
         <f>記入!B52</f>
         <v>无</v>
       </c>
-      <c r="E142" s="158"/>
-      <c r="F142" s="158"/>
-      <c r="G142" s="158"/>
-      <c r="H142" s="158"/>
-      <c r="I142" s="158"/>
-      <c r="J142" s="158"/>
-      <c r="K142" s="159"/>
+      <c r="E142" s="162"/>
+      <c r="F142" s="162"/>
+      <c r="G142" s="162"/>
+      <c r="H142" s="162"/>
+      <c r="I142" s="162"/>
+      <c r="J142" s="162"/>
+      <c r="K142" s="163"/>
       <c r="L142" s="67"/>
     </row>
     <row r="143" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="143"/>
-      <c r="C143" s="143"/>
-      <c r="D143" s="155" t="str">
+      <c r="B143" s="154"/>
+      <c r="C143" s="154"/>
+      <c r="D143" s="159" t="str">
         <f>記入!B53</f>
         <v>再委托公司：
 ①
 ②
 ③</v>
       </c>
-      <c r="E143" s="156"/>
-      <c r="F143" s="156"/>
-      <c r="G143" s="156"/>
-      <c r="H143" s="156"/>
-      <c r="I143" s="156"/>
-      <c r="J143" s="156"/>
-      <c r="K143" s="156"/>
+      <c r="E143" s="160"/>
+      <c r="F143" s="160"/>
+      <c r="G143" s="160"/>
+      <c r="H143" s="160"/>
+      <c r="I143" s="160"/>
+      <c r="J143" s="160"/>
+      <c r="K143" s="160"/>
       <c r="L143" s="69"/>
     </row>
     <row r="144" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="143"/>
-      <c r="C144" s="143"/>
-      <c r="D144" s="156"/>
-      <c r="E144" s="156"/>
-      <c r="F144" s="156"/>
-      <c r="G144" s="156"/>
-      <c r="H144" s="156"/>
-      <c r="I144" s="156"/>
-      <c r="J144" s="156"/>
-      <c r="K144" s="156"/>
+      <c r="B144" s="154"/>
+      <c r="C144" s="154"/>
+      <c r="D144" s="160"/>
+      <c r="E144" s="160"/>
+      <c r="F144" s="160"/>
+      <c r="G144" s="160"/>
+      <c r="H144" s="160"/>
+      <c r="I144" s="160"/>
+      <c r="J144" s="160"/>
+      <c r="K144" s="160"/>
       <c r="L144" s="69"/>
     </row>
     <row r="145" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="143"/>
-      <c r="C145" s="143"/>
-      <c r="D145" s="156"/>
-      <c r="E145" s="156"/>
-      <c r="F145" s="156"/>
-      <c r="G145" s="156"/>
-      <c r="H145" s="156"/>
-      <c r="I145" s="156"/>
-      <c r="J145" s="156"/>
-      <c r="K145" s="156"/>
+      <c r="B145" s="154"/>
+      <c r="C145" s="154"/>
+      <c r="D145" s="160"/>
+      <c r="E145" s="160"/>
+      <c r="F145" s="160"/>
+      <c r="G145" s="160"/>
+      <c r="H145" s="160"/>
+      <c r="I145" s="160"/>
+      <c r="J145" s="160"/>
+      <c r="K145" s="160"/>
       <c r="L145" s="69"/>
     </row>
     <row r="146" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="143"/>
-      <c r="C146" s="143"/>
-      <c r="D146" s="156"/>
-      <c r="E146" s="156"/>
-      <c r="F146" s="156"/>
-      <c r="G146" s="156"/>
-      <c r="H146" s="156"/>
-      <c r="I146" s="156"/>
-      <c r="J146" s="156"/>
-      <c r="K146" s="156"/>
+      <c r="B146" s="154"/>
+      <c r="C146" s="154"/>
+      <c r="D146" s="160"/>
+      <c r="E146" s="160"/>
+      <c r="F146" s="160"/>
+      <c r="G146" s="160"/>
+      <c r="H146" s="160"/>
+      <c r="I146" s="160"/>
+      <c r="J146" s="160"/>
+      <c r="K146" s="160"/>
       <c r="L146" s="69"/>
     </row>
     <row r="147" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7013,7 +7013,7 @@
     </row>
     <row r="148" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B148" s="69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C148" s="69"/>
       <c r="D148" s="69"/>
@@ -7027,222 +7027,222 @@
       <c r="L148" s="68"/>
     </row>
     <row r="149" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="143" t="s">
+      <c r="B149" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="C149" s="143"/>
-      <c r="D149" s="144" t="s">
+      <c r="C149" s="154"/>
+      <c r="D149" s="164" t="s">
+        <v>110</v>
+      </c>
+      <c r="E149" s="164"/>
+      <c r="F149" s="164" t="s">
         <v>111</v>
       </c>
-      <c r="E149" s="144"/>
-      <c r="F149" s="144" t="s">
+      <c r="G149" s="164"/>
+      <c r="H149" s="164" t="s">
         <v>112</v>
       </c>
-      <c r="G149" s="144"/>
-      <c r="H149" s="144" t="s">
+      <c r="I149" s="164"/>
+      <c r="J149" s="164" t="s">
         <v>113</v>
       </c>
-      <c r="I149" s="144"/>
-      <c r="J149" s="144" t="s">
+      <c r="K149" s="164"/>
+      <c r="L149" s="68"/>
+    </row>
+    <row r="150" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B150" s="154" t="s">
         <v>114</v>
       </c>
-      <c r="K149" s="144"/>
-      <c r="L149" s="68"/>
-    </row>
-    <row r="150" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="143" t="s">
-        <v>115</v>
-      </c>
-      <c r="C150" s="143"/>
-      <c r="D150" s="152" t="str">
+      <c r="C150" s="154"/>
+      <c r="D150" s="165" t="str">
         <f>記入!B29</f>
         <v>${r.deliverydate}</v>
       </c>
-      <c r="E150" s="144"/>
-      <c r="F150" s="152" t="e">
+      <c r="E150" s="164"/>
+      <c r="F150" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G150" s="144"/>
-      <c r="H150" s="152" t="e">
+      <c r="G150" s="164"/>
+      <c r="H150" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I150" s="144"/>
-      <c r="J150" s="152" t="e">
+      <c r="I150" s="164"/>
+      <c r="J150" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K150" s="144"/>
+      <c r="K150" s="164"/>
       <c r="L150" s="69"/>
     </row>
     <row r="151" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="143" t="s">
-        <v>116</v>
-      </c>
-      <c r="C151" s="143"/>
-      <c r="D151" s="152" t="str">
+      <c r="B151" s="154" t="s">
+        <v>115</v>
+      </c>
+      <c r="C151" s="154"/>
+      <c r="D151" s="165" t="str">
         <f>記入!C29</f>
         <v>${r.completiondate}</v>
       </c>
-      <c r="E151" s="144"/>
-      <c r="F151" s="152" t="e">
+      <c r="E151" s="164"/>
+      <c r="F151" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G151" s="144"/>
-      <c r="H151" s="152" t="e">
+      <c r="G151" s="164"/>
+      <c r="H151" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I151" s="144"/>
-      <c r="J151" s="152" t="e">
+      <c r="I151" s="164"/>
+      <c r="J151" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K151" s="144"/>
+      <c r="K151" s="164"/>
       <c r="L151" s="67"/>
     </row>
     <row r="152" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="143" t="s">
-        <v>117</v>
-      </c>
-      <c r="C152" s="143"/>
-      <c r="D152" s="151" t="str">
+      <c r="B152" s="154" t="s">
+        <v>116</v>
+      </c>
+      <c r="C152" s="154"/>
+      <c r="D152" s="166" t="str">
         <f>記入!D29</f>
         <v>${r.claimdate}</v>
       </c>
-      <c r="E152" s="148"/>
-      <c r="F152" s="152" t="e">
+      <c r="E152" s="167"/>
+      <c r="F152" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G152" s="144"/>
-      <c r="H152" s="152" t="e">
+      <c r="G152" s="164"/>
+      <c r="H152" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I152" s="144"/>
-      <c r="J152" s="152" t="e">
+      <c r="I152" s="164"/>
+      <c r="J152" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K152" s="144"/>
+      <c r="K152" s="164"/>
       <c r="L152" s="67"/>
     </row>
     <row r="153" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="143" t="s">
-        <v>118</v>
-      </c>
-      <c r="C153" s="143"/>
-      <c r="D153" s="151" t="str">
+      <c r="B153" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="C153" s="154"/>
+      <c r="D153" s="166" t="str">
         <f>記入!E29</f>
         <v>${r.supportdate}</v>
       </c>
-      <c r="E153" s="148"/>
-      <c r="F153" s="152" t="e">
+      <c r="E153" s="167"/>
+      <c r="F153" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G153" s="144"/>
-      <c r="H153" s="152" t="e">
+      <c r="G153" s="164"/>
+      <c r="H153" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I153" s="144"/>
-      <c r="J153" s="152" t="e">
+      <c r="I153" s="164"/>
+      <c r="J153" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K153" s="144"/>
+      <c r="K153" s="164"/>
       <c r="L153" s="67"/>
     </row>
     <row r="154" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="143" t="s">
-        <v>119</v>
-      </c>
-      <c r="C154" s="143"/>
-      <c r="D154" s="149" t="str">
+      <c r="B154" s="154" t="s">
+        <v>118</v>
+      </c>
+      <c r="C154" s="154"/>
+      <c r="D154" s="168" t="str">
         <f>記入!F29</f>
         <v>${r.claimamount}</v>
       </c>
-      <c r="E154" s="148"/>
-      <c r="F154" s="150" t="e">
+      <c r="E154" s="167"/>
+      <c r="F154" s="169" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G154" s="144"/>
-      <c r="H154" s="150" t="e">
+      <c r="G154" s="164"/>
+      <c r="H154" s="169" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I154" s="144"/>
-      <c r="J154" s="150" t="e">
+      <c r="I154" s="164"/>
+      <c r="J154" s="169" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K154" s="144"/>
+      <c r="K154" s="164"/>
       <c r="L154" s="67"/>
     </row>
     <row r="155" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="143" t="s">
-        <v>120</v>
-      </c>
-      <c r="C155" s="143"/>
-      <c r="D155" s="148" t="str">
+      <c r="B155" s="154" t="s">
+        <v>119</v>
+      </c>
+      <c r="C155" s="154"/>
+      <c r="D155" s="167" t="str">
         <f>記入!B12&amp;(-1)</f>
         <v>${cv.contractnumber}-1</v>
       </c>
-      <c r="E155" s="148"/>
-      <c r="F155" s="144" t="str">
+      <c r="E155" s="167"/>
+      <c r="F155" s="164" t="str">
         <f>記入!B12&amp;(-2)</f>
         <v>${cv.contractnumber}-2</v>
       </c>
-      <c r="G155" s="144"/>
-      <c r="H155" s="144" t="str">
+      <c r="G155" s="164"/>
+      <c r="H155" s="164" t="str">
         <f>記入!B12&amp;(-3)</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="I155" s="144"/>
-      <c r="J155" s="144" t="str">
+      <c r="I155" s="164"/>
+      <c r="J155" s="164" t="str">
         <f>記入!B12&amp;(-4)</f>
         <v>${cv.contractnumber}-4</v>
       </c>
-      <c r="K155" s="144"/>
+      <c r="K155" s="164"/>
       <c r="L155" s="67"/>
     </row>
     <row r="156" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="143" t="s">
+      <c r="B156" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="C156" s="143"/>
-      <c r="D156" s="144" t="s">
+      <c r="C156" s="154"/>
+      <c r="D156" s="164" t="s">
+        <v>121</v>
+      </c>
+      <c r="E156" s="164"/>
+      <c r="F156" s="164"/>
+      <c r="G156" s="164"/>
+      <c r="H156" s="164"/>
+      <c r="I156" s="164"/>
+      <c r="J156" s="164"/>
+      <c r="K156" s="164"/>
+      <c r="L156" s="68"/>
+    </row>
+    <row r="157" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B157" s="154" t="s">
+        <v>120</v>
+      </c>
+      <c r="C157" s="154"/>
+      <c r="D157" s="164" t="s">
         <v>122</v>
       </c>
-      <c r="E156" s="144"/>
-      <c r="F156" s="144"/>
-      <c r="G156" s="144"/>
-      <c r="H156" s="144"/>
-      <c r="I156" s="144"/>
-      <c r="J156" s="144"/>
-      <c r="K156" s="144"/>
-      <c r="L156" s="68"/>
-    </row>
-    <row r="157" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="143" t="s">
-        <v>121</v>
-      </c>
-      <c r="C157" s="143"/>
-      <c r="D157" s="144" t="s">
-        <v>123</v>
-      </c>
-      <c r="E157" s="144"/>
-      <c r="F157" s="144"/>
-      <c r="G157" s="144"/>
-      <c r="H157" s="144"/>
-      <c r="I157" s="144"/>
-      <c r="J157" s="144"/>
-      <c r="K157" s="144"/>
+      <c r="E157" s="164"/>
+      <c r="F157" s="164"/>
+      <c r="G157" s="164"/>
+      <c r="H157" s="164"/>
+      <c r="I157" s="164"/>
+      <c r="J157" s="164"/>
+      <c r="K157" s="164"/>
       <c r="L157" s="68"/>
     </row>
     <row r="158" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7260,7 +7260,7 @@
     </row>
     <row r="159" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B159" s="69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C159" s="69"/>
       <c r="D159" s="69"/>
@@ -7274,60 +7274,60 @@
       <c r="L159" s="69"/>
     </row>
     <row r="160" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="145" t="s">
-        <v>125</v>
-      </c>
-      <c r="C160" s="145"/>
-      <c r="D160" s="145">
+      <c r="B160" s="170" t="s">
+        <v>124</v>
+      </c>
+      <c r="C160" s="170"/>
+      <c r="D160" s="170">
         <f>記入!B60</f>
         <v>0</v>
       </c>
-      <c r="E160" s="145"/>
-      <c r="F160" s="145"/>
-      <c r="G160" s="145"/>
-      <c r="H160" s="145"/>
-      <c r="I160" s="145"/>
-      <c r="J160" s="145"/>
-      <c r="K160" s="145"/>
+      <c r="E160" s="170"/>
+      <c r="F160" s="170"/>
+      <c r="G160" s="170"/>
+      <c r="H160" s="170"/>
+      <c r="I160" s="170"/>
+      <c r="J160" s="170"/>
+      <c r="K160" s="170"/>
       <c r="L160" s="69"/>
     </row>
     <row r="161" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="146"/>
-      <c r="C161" s="146"/>
-      <c r="D161" s="146"/>
-      <c r="E161" s="146"/>
-      <c r="F161" s="146"/>
-      <c r="G161" s="146"/>
-      <c r="H161" s="146"/>
-      <c r="I161" s="146"/>
-      <c r="J161" s="146"/>
-      <c r="K161" s="146"/>
+      <c r="B161" s="171"/>
+      <c r="C161" s="171"/>
+      <c r="D161" s="171"/>
+      <c r="E161" s="171"/>
+      <c r="F161" s="171"/>
+      <c r="G161" s="171"/>
+      <c r="H161" s="171"/>
+      <c r="I161" s="171"/>
+      <c r="J161" s="171"/>
+      <c r="K161" s="171"/>
       <c r="L161" s="69"/>
     </row>
     <row r="162" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="146"/>
-      <c r="C162" s="146"/>
-      <c r="D162" s="146"/>
-      <c r="E162" s="146"/>
-      <c r="F162" s="146"/>
-      <c r="G162" s="146"/>
-      <c r="H162" s="146"/>
-      <c r="I162" s="146"/>
-      <c r="J162" s="146"/>
-      <c r="K162" s="146"/>
+      <c r="B162" s="171"/>
+      <c r="C162" s="171"/>
+      <c r="D162" s="171"/>
+      <c r="E162" s="171"/>
+      <c r="F162" s="171"/>
+      <c r="G162" s="171"/>
+      <c r="H162" s="171"/>
+      <c r="I162" s="171"/>
+      <c r="J162" s="171"/>
+      <c r="K162" s="171"/>
       <c r="L162" s="67"/>
     </row>
     <row r="163" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="147"/>
-      <c r="C163" s="147"/>
-      <c r="D163" s="147"/>
-      <c r="E163" s="147"/>
-      <c r="F163" s="147"/>
-      <c r="G163" s="147"/>
-      <c r="H163" s="147"/>
-      <c r="I163" s="147"/>
-      <c r="J163" s="147"/>
-      <c r="K163" s="147"/>
+      <c r="B163" s="172"/>
+      <c r="C163" s="172"/>
+      <c r="D163" s="172"/>
+      <c r="E163" s="172"/>
+      <c r="F163" s="172"/>
+      <c r="G163" s="172"/>
+      <c r="H163" s="172"/>
+      <c r="I163" s="172"/>
+      <c r="J163" s="172"/>
+      <c r="K163" s="172"/>
       <c r="L163" s="69"/>
     </row>
     <row r="164" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7367,7 +7367,7 @@
       <c r="I166" s="69"/>
       <c r="J166" s="69"/>
       <c r="K166" s="69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L166" s="69"/>
     </row>
@@ -7558,6 +7558,60 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:K156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:K157"/>
+    <mergeCell ref="B160:C163"/>
+    <mergeCell ref="D160:K163"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:K134"/>
+    <mergeCell ref="B135:C141"/>
+    <mergeCell ref="D135:K141"/>
+    <mergeCell ref="B142:C146"/>
+    <mergeCell ref="D142:K142"/>
+    <mergeCell ref="D143:K146"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="D131:K131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="D132:K132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:K133"/>
     <mergeCell ref="K127:L127"/>
     <mergeCell ref="B60:L71"/>
     <mergeCell ref="K2:L2"/>
@@ -7565,60 +7619,6 @@
     <mergeCell ref="B11:L57"/>
     <mergeCell ref="K59:L59"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="D131:K131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="D132:K132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="D133:K133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D134:K134"/>
-    <mergeCell ref="B135:C141"/>
-    <mergeCell ref="D135:K141"/>
-    <mergeCell ref="B142:C146"/>
-    <mergeCell ref="D142:K142"/>
-    <mergeCell ref="D143:K146"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:K156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D157:K157"/>
-    <mergeCell ref="B160:C163"/>
-    <mergeCell ref="D160:K163"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="162">
   <si>
     <t>委託元（和文）</t>
     <rPh sb="4" eb="6">
@@ -1240,9 +1240,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>无</t>
-  </si>
-  <si>
     <t>${r.completiondate}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1336,25 +1333,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>${cv.signingdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再委託（和文）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv.redelegate}</t>
+  </si>
+  <si>
+    <t>${cv.technicalcontentchinese}</t>
+  </si>
+  <si>
+    <t>${cv.subcontract}</t>
+  </si>
+  <si>
     <t>再委托公司：
-①
-②
-③</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv.signingdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>再委託（和文）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv.redelegate}</t>
-  </si>
-  <si>
-    <t>${cv.technicalcontentchinese}</t>
+${cv.subcontractcontent}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv.othertermsjapanese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv.othertermschinese}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2010,6 +2015,111 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2037,114 +2147,66 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2160,62 +2222,62 @@
     <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2240,63 +2302,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2610,8 +2615,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:F46"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2627,28 +2632,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="G1" s="78" t="s">
+      <c r="B1" s="112"/>
+      <c r="G1" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="79"/>
+      <c r="H1" s="114"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="116"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="40" t="s">
@@ -2658,21 +2663,21 @@
       <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="116"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="116"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="39" t="s">
@@ -2682,34 +2687,34 @@
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="80"/>
-      <c r="H5" s="81"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="116"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="116"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="116"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="39" t="s">
@@ -2719,60 +2724,60 @@
       <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="80"/>
-      <c r="H8" s="81"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="116"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="40" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="81"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="116"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="39" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="81"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="116"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="80"/>
-      <c r="H11" s="81"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="116"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="39" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="80"/>
-      <c r="H12" s="81"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="116"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="39" t="s">
@@ -2782,34 +2787,34 @@
       <c r="C13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="116"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="80"/>
-      <c r="H14" s="81"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="116"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="116"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="39" t="s">
@@ -2819,8 +2824,8 @@
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="80"/>
-      <c r="H16" s="81"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="116"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="39" t="s">
@@ -2830,8 +2835,8 @@
       <c r="C17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="80"/>
-      <c r="H17" s="81"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="116"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="39" t="s">
@@ -2841,34 +2846,34 @@
       <c r="C18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="80"/>
-      <c r="H18" s="81"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="116"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="39" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="80"/>
-      <c r="H19" s="81"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="80"/>
-      <c r="H20" s="81"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="39" t="s">
@@ -2878,8 +2883,8 @@
       <c r="C21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="80"/>
-      <c r="H21" s="81"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="116"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="39" t="s">
@@ -2889,8 +2894,8 @@
       <c r="C22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="80"/>
-      <c r="H22" s="81"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="116"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="40" t="s">
@@ -2900,8 +2905,8 @@
       <c r="C23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="80"/>
-      <c r="H23" s="81"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="116"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A24" s="40" t="s">
@@ -2911,8 +2916,8 @@
       <c r="C24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="80"/>
-      <c r="H24" s="81"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="116"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A25" s="40" t="s">
@@ -2924,8 +2929,8 @@
       <c r="C25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="80"/>
-      <c r="H25" s="81"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="116"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="40" t="s">
@@ -2937,14 +2942,14 @@
       <c r="C26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="80"/>
-      <c r="H26" s="81"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="116"/>
     </row>
     <row r="27" spans="1:8" ht="1.5" hidden="1" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="81"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="116"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="43" t="s">
@@ -2965,8 +2970,8 @@
       <c r="F28" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="116"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="44" t="str">
@@ -2974,22 +2979,22 @@
         <v>第一回</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C29" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="E29" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="F29" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="G29" s="80"/>
-      <c r="H29" s="81"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="116"/>
     </row>
     <row r="30" spans="1:8" ht="6.75" customHeight="1">
       <c r="A30" s="2"/>
@@ -3004,293 +3009,303 @@
         <v>72</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="82" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="83"/>
-      <c r="E32" s="84" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="85"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="120"/>
     </row>
     <row r="33" spans="1:6" ht="13.5">
       <c r="A33" s="13" t="s">
         <v>73</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" s="82" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="117" t="s">
         <v>62</v>
       </c>
-      <c r="D33" s="83"/>
-      <c r="E33" s="84" t="s">
-        <v>152</v>
-      </c>
-      <c r="F33" s="85"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="120"/>
     </row>
     <row r="34" spans="1:6" ht="13.5">
       <c r="A34" s="61" t="s">
         <v>63</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A35" s="90" t="s">
+      <c r="A35" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="88"/>
+    </row>
+    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A36" s="82"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="91"/>
+    </row>
+    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A37" s="82"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="90"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="91"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A38" s="82"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="91"/>
+    </row>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A39" s="82"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="91"/>
+    </row>
+    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A40" s="83"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
+      <c r="F40" s="94"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="109" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="107" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="108"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+    </row>
+    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A42" s="109"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="108"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+    </row>
+    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A43" s="109"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="108"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+    </row>
+    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A44" s="109"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+    </row>
+    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A45" s="109"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+    </row>
+    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A46" s="109"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108"/>
+    </row>
+    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A47" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="B47" s="104" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="106"/>
+    </row>
+    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A48" s="84"/>
+      <c r="B48" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="97"/>
-    </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A36" s="91"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="100"/>
-    </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A37" s="91"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="100"/>
-    </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A38" s="91"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="100"/>
-    </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="91"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="100"/>
-    </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A40" s="92"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="103"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="118" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="116" t="s">
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="97"/>
+    </row>
+    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A49" s="84"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="100"/>
+    </row>
+    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A50" s="84"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="100"/>
+    </row>
+    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A51" s="85"/>
+      <c r="B51" s="101"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="103"/>
+    </row>
+    <row r="52" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A52" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="104" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="106"/>
+    </row>
+    <row r="53" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A53" s="110"/>
+      <c r="B53" s="111" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-    </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A42" s="118"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="117"/>
-    </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A43" s="118"/>
-      <c r="B43" s="117"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="117"/>
-    </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A44" s="118"/>
-      <c r="B44" s="117"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-    </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A45" s="118"/>
-      <c r="B45" s="117"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
-    </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A46" s="118"/>
-      <c r="B46" s="117"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-    </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A47" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" s="113" t="s">
-        <v>158</v>
-      </c>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="115"/>
-    </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A48" s="93"/>
-      <c r="B48" s="104" t="s">
-        <v>154</v>
-      </c>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="106"/>
-    </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A49" s="93"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="109"/>
-    </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A50" s="93"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="109"/>
-    </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A51" s="94"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="112"/>
-    </row>
-    <row r="52" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A52" s="119" t="s">
-        <v>128</v>
-      </c>
-      <c r="B52" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="89"/>
-    </row>
-    <row r="53" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A53" s="119"/>
-      <c r="B53" s="120" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="89"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
     </row>
     <row r="54" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A54" s="119"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
+      <c r="A54" s="110"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
     </row>
     <row r="55" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A55" s="119"/>
-      <c r="B55" s="89"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89"/>
+      <c r="A55" s="110"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="119"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="89"/>
+      <c r="A56" s="110"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="86" t="s">
+      <c r="A57" s="77" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="88"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="89"/>
+      <c r="B57" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="86"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
+      <c r="A58" s="77"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="86"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
-      <c r="F59" s="89"/>
+      <c r="A59" s="77"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="86" t="s">
+      <c r="A60" s="77" t="s">
         <v>130</v>
       </c>
-      <c r="B60" s="88"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="89"/>
+      <c r="B60" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="80"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="87"/>
-      <c r="B61" s="89"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
+      <c r="A61" s="78"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="80"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="87"/>
-      <c r="B62" s="89"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="89"/>
+      <c r="A62" s="78"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
+      <c r="F62" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:H29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="A57:A59"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="B57:F59"/>
@@ -3305,12 +3320,6 @@
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="B53:F56"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G1:H29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -3347,18 +3356,18 @@
       <c r="J2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="121" t="str">
+      <c r="K2" s="136" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="121"/>
+      <c r="L2" s="136"/>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="20" t="s">
@@ -3418,11 +3427,11 @@
         <v>69</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="126" t="str">
+      <c r="D8" s="145" t="str">
         <f>記入!B34</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E8" s="126"/>
+      <c r="E8" s="145"/>
       <c r="F8" s="50" t="s">
         <v>64</v>
       </c>
@@ -3462,617 +3471,617 @@
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="142"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
+      <c r="B12" s="142"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="142"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="142"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
+      <c r="B15" s="142"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="142"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="142"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="142"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="142"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="142"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="142"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="142"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="142"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="123"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="142"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="142"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="142"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="142"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="142"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="142"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="142"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="123"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="142"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="142"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="123"/>
-      <c r="L26" s="123"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="142"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="142"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="123"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
+      <c r="B27" s="142"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="142"/>
+      <c r="K27" s="142"/>
+      <c r="L27" s="142"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
+      <c r="B28" s="142"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="142"/>
+      <c r="L28" s="142"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="142"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="123"/>
-      <c r="L30" s="123"/>
+      <c r="B30" s="142"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="142"/>
+      <c r="J30" s="142"/>
+      <c r="K30" s="142"/>
+      <c r="L30" s="142"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
+      <c r="B31" s="142"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="142"/>
+      <c r="J31" s="142"/>
+      <c r="K31" s="142"/>
+      <c r="L31" s="142"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="123"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
+      <c r="B32" s="142"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="142"/>
+      <c r="J32" s="142"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="142"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="123"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="142"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="123"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
+      <c r="B34" s="142"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="142"/>
+      <c r="J34" s="142"/>
+      <c r="K34" s="142"/>
+      <c r="L34" s="142"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="123"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="142"/>
+      <c r="J35" s="142"/>
+      <c r="K35" s="142"/>
+      <c r="L35" s="142"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="123"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
+      <c r="B36" s="142"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="142"/>
+      <c r="J36" s="142"/>
+      <c r="K36" s="142"/>
+      <c r="L36" s="142"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="123"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="123"/>
+      <c r="B37" s="142"/>
+      <c r="C37" s="142"/>
+      <c r="D37" s="142"/>
+      <c r="E37" s="142"/>
+      <c r="F37" s="142"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="142"/>
+      <c r="J37" s="142"/>
+      <c r="K37" s="142"/>
+      <c r="L37" s="142"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="123"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="123"/>
-      <c r="K38" s="123"/>
-      <c r="L38" s="123"/>
+      <c r="B38" s="142"/>
+      <c r="C38" s="142"/>
+      <c r="D38" s="142"/>
+      <c r="E38" s="142"/>
+      <c r="F38" s="142"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="142"/>
+      <c r="I38" s="142"/>
+      <c r="J38" s="142"/>
+      <c r="K38" s="142"/>
+      <c r="L38" s="142"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="123"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="123"/>
-      <c r="K39" s="123"/>
-      <c r="L39" s="123"/>
+      <c r="B39" s="142"/>
+      <c r="C39" s="142"/>
+      <c r="D39" s="142"/>
+      <c r="E39" s="142"/>
+      <c r="F39" s="142"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="142"/>
+      <c r="J39" s="142"/>
+      <c r="K39" s="142"/>
+      <c r="L39" s="142"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="123"/>
-      <c r="C40" s="123"/>
-      <c r="D40" s="123"/>
-      <c r="E40" s="123"/>
-      <c r="F40" s="123"/>
-      <c r="G40" s="123"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="123"/>
-      <c r="K40" s="123"/>
-      <c r="L40" s="123"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="142"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="142"/>
+      <c r="K40" s="142"/>
+      <c r="L40" s="142"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="123"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="123"/>
-      <c r="K41" s="123"/>
-      <c r="L41" s="123"/>
+      <c r="B41" s="142"/>
+      <c r="C41" s="142"/>
+      <c r="D41" s="142"/>
+      <c r="E41" s="142"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="142"/>
+      <c r="J41" s="142"/>
+      <c r="K41" s="142"/>
+      <c r="L41" s="142"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="123"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="123"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="123"/>
-      <c r="J42" s="123"/>
-      <c r="K42" s="123"/>
-      <c r="L42" s="123"/>
+      <c r="B42" s="142"/>
+      <c r="C42" s="142"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="142"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="142"/>
+      <c r="I42" s="142"/>
+      <c r="J42" s="142"/>
+      <c r="K42" s="142"/>
+      <c r="L42" s="142"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="123"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="123"/>
-      <c r="K43" s="123"/>
-      <c r="L43" s="123"/>
+      <c r="B43" s="142"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="142"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="142"/>
+      <c r="L43" s="142"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="123"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
-      <c r="G44" s="123"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="123"/>
-      <c r="J44" s="123"/>
-      <c r="K44" s="123"/>
-      <c r="L44" s="123"/>
+      <c r="B44" s="142"/>
+      <c r="C44" s="142"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="142"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="142"/>
+      <c r="H44" s="142"/>
+      <c r="I44" s="142"/>
+      <c r="J44" s="142"/>
+      <c r="K44" s="142"/>
+      <c r="L44" s="142"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="123"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="123"/>
-      <c r="K45" s="123"/>
-      <c r="L45" s="123"/>
+      <c r="B45" s="142"/>
+      <c r="C45" s="142"/>
+      <c r="D45" s="142"/>
+      <c r="E45" s="142"/>
+      <c r="F45" s="142"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="142"/>
+      <c r="I45" s="142"/>
+      <c r="J45" s="142"/>
+      <c r="K45" s="142"/>
+      <c r="L45" s="142"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="123"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="123"/>
-      <c r="G46" s="123"/>
-      <c r="H46" s="123"/>
-      <c r="I46" s="123"/>
-      <c r="J46" s="123"/>
-      <c r="K46" s="123"/>
-      <c r="L46" s="123"/>
+      <c r="B46" s="142"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="142"/>
+      <c r="I46" s="142"/>
+      <c r="J46" s="142"/>
+      <c r="K46" s="142"/>
+      <c r="L46" s="142"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="123"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
-      <c r="F47" s="123"/>
-      <c r="G47" s="123"/>
-      <c r="H47" s="123"/>
-      <c r="I47" s="123"/>
-      <c r="J47" s="123"/>
-      <c r="K47" s="123"/>
-      <c r="L47" s="123"/>
+      <c r="B47" s="142"/>
+      <c r="C47" s="142"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="142"/>
+      <c r="J47" s="142"/>
+      <c r="K47" s="142"/>
+      <c r="L47" s="142"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="123"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
-      <c r="G48" s="123"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="123"/>
-      <c r="J48" s="123"/>
-      <c r="K48" s="123"/>
-      <c r="L48" s="123"/>
+      <c r="B48" s="142"/>
+      <c r="C48" s="142"/>
+      <c r="D48" s="142"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="142"/>
+      <c r="H48" s="142"/>
+      <c r="I48" s="142"/>
+      <c r="J48" s="142"/>
+      <c r="K48" s="142"/>
+      <c r="L48" s="142"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="123"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="123"/>
-      <c r="G49" s="123"/>
-      <c r="H49" s="123"/>
-      <c r="I49" s="123"/>
-      <c r="J49" s="123"/>
-      <c r="K49" s="123"/>
-      <c r="L49" s="123"/>
+      <c r="B49" s="142"/>
+      <c r="C49" s="142"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="142"/>
+      <c r="F49" s="142"/>
+      <c r="G49" s="142"/>
+      <c r="H49" s="142"/>
+      <c r="I49" s="142"/>
+      <c r="J49" s="142"/>
+      <c r="K49" s="142"/>
+      <c r="L49" s="142"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="123"/>
-      <c r="C50" s="123"/>
-      <c r="D50" s="123"/>
-      <c r="E50" s="123"/>
-      <c r="F50" s="123"/>
-      <c r="G50" s="123"/>
-      <c r="H50" s="123"/>
-      <c r="I50" s="123"/>
-      <c r="J50" s="123"/>
-      <c r="K50" s="123"/>
-      <c r="L50" s="123"/>
+      <c r="B50" s="142"/>
+      <c r="C50" s="142"/>
+      <c r="D50" s="142"/>
+      <c r="E50" s="142"/>
+      <c r="F50" s="142"/>
+      <c r="G50" s="142"/>
+      <c r="H50" s="142"/>
+      <c r="I50" s="142"/>
+      <c r="J50" s="142"/>
+      <c r="K50" s="142"/>
+      <c r="L50" s="142"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="123"/>
-      <c r="C51" s="123"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="123"/>
-      <c r="F51" s="123"/>
-      <c r="G51" s="123"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="123"/>
-      <c r="J51" s="123"/>
-      <c r="K51" s="123"/>
-      <c r="L51" s="123"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="142"/>
+      <c r="I51" s="142"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="142"/>
+      <c r="L51" s="142"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="123"/>
-      <c r="C52" s="123"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
-      <c r="G52" s="123"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
-      <c r="J52" s="123"/>
-      <c r="K52" s="123"/>
-      <c r="L52" s="123"/>
+      <c r="B52" s="142"/>
+      <c r="C52" s="142"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="142"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="142"/>
+      <c r="H52" s="142"/>
+      <c r="I52" s="142"/>
+      <c r="J52" s="142"/>
+      <c r="K52" s="142"/>
+      <c r="L52" s="142"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="123"/>
-      <c r="C53" s="123"/>
-      <c r="D53" s="123"/>
-      <c r="E53" s="123"/>
-      <c r="F53" s="123"/>
-      <c r="G53" s="123"/>
-      <c r="H53" s="123"/>
-      <c r="I53" s="123"/>
-      <c r="J53" s="123"/>
-      <c r="K53" s="123"/>
-      <c r="L53" s="123"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="142"/>
+      <c r="D53" s="142"/>
+      <c r="E53" s="142"/>
+      <c r="F53" s="142"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="142"/>
+      <c r="I53" s="142"/>
+      <c r="J53" s="142"/>
+      <c r="K53" s="142"/>
+      <c r="L53" s="142"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="123"/>
-      <c r="C54" s="123"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="123"/>
-      <c r="F54" s="123"/>
-      <c r="G54" s="123"/>
-      <c r="H54" s="123"/>
-      <c r="I54" s="123"/>
-      <c r="J54" s="123"/>
-      <c r="K54" s="123"/>
-      <c r="L54" s="123"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="142"/>
+      <c r="D54" s="142"/>
+      <c r="E54" s="142"/>
+      <c r="F54" s="142"/>
+      <c r="G54" s="142"/>
+      <c r="H54" s="142"/>
+      <c r="I54" s="142"/>
+      <c r="J54" s="142"/>
+      <c r="K54" s="142"/>
+      <c r="L54" s="142"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="123"/>
-      <c r="C55" s="123"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="123"/>
-      <c r="G55" s="123"/>
-      <c r="H55" s="123"/>
-      <c r="I55" s="123"/>
-      <c r="J55" s="123"/>
-      <c r="K55" s="123"/>
-      <c r="L55" s="123"/>
+      <c r="B55" s="142"/>
+      <c r="C55" s="142"/>
+      <c r="D55" s="142"/>
+      <c r="E55" s="142"/>
+      <c r="F55" s="142"/>
+      <c r="G55" s="142"/>
+      <c r="H55" s="142"/>
+      <c r="I55" s="142"/>
+      <c r="J55" s="142"/>
+      <c r="K55" s="142"/>
+      <c r="L55" s="142"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="123"/>
-      <c r="C56" s="123"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="123"/>
-      <c r="G56" s="123"/>
-      <c r="H56" s="123"/>
-      <c r="I56" s="123"/>
-      <c r="J56" s="123"/>
-      <c r="K56" s="123"/>
-      <c r="L56" s="123"/>
+      <c r="B56" s="142"/>
+      <c r="C56" s="142"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="142"/>
+      <c r="F56" s="142"/>
+      <c r="G56" s="142"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="142"/>
+      <c r="J56" s="142"/>
+      <c r="K56" s="142"/>
+      <c r="L56" s="142"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="123"/>
-      <c r="C57" s="123"/>
-      <c r="D57" s="123"/>
-      <c r="E57" s="123"/>
-      <c r="F57" s="123"/>
-      <c r="G57" s="123"/>
-      <c r="H57" s="123"/>
-      <c r="I57" s="123"/>
-      <c r="J57" s="123"/>
-      <c r="K57" s="123"/>
-      <c r="L57" s="123"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="142"/>
+      <c r="F57" s="142"/>
+      <c r="G57" s="142"/>
+      <c r="H57" s="142"/>
+      <c r="I57" s="142"/>
+      <c r="J57" s="142"/>
+      <c r="K57" s="142"/>
+      <c r="L57" s="142"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
       <c r="B58" s="23"/>
@@ -4091,169 +4100,169 @@
       <c r="J59" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K59" s="121" t="str">
+      <c r="K59" s="136" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L59" s="121"/>
+      <c r="L59" s="136"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="124" t="s">
+      <c r="B60" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="C60" s="125"/>
-      <c r="D60" s="125"/>
-      <c r="E60" s="125"/>
-      <c r="F60" s="125"/>
-      <c r="G60" s="125"/>
-      <c r="H60" s="125"/>
-      <c r="I60" s="125"/>
-      <c r="J60" s="125"/>
-      <c r="K60" s="125"/>
-      <c r="L60" s="125"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="144"/>
+      <c r="E60" s="144"/>
+      <c r="F60" s="144"/>
+      <c r="G60" s="144"/>
+      <c r="H60" s="144"/>
+      <c r="I60" s="144"/>
+      <c r="J60" s="144"/>
+      <c r="K60" s="144"/>
+      <c r="L60" s="144"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="125"/>
-      <c r="C61" s="125"/>
-      <c r="D61" s="125"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="125"/>
-      <c r="G61" s="125"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="125"/>
-      <c r="J61" s="125"/>
-      <c r="K61" s="125"/>
-      <c r="L61" s="125"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="144"/>
+      <c r="E61" s="144"/>
+      <c r="F61" s="144"/>
+      <c r="G61" s="144"/>
+      <c r="H61" s="144"/>
+      <c r="I61" s="144"/>
+      <c r="J61" s="144"/>
+      <c r="K61" s="144"/>
+      <c r="L61" s="144"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="125"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="125"/>
-      <c r="E62" s="125"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="125"/>
-      <c r="H62" s="125"/>
-      <c r="I62" s="125"/>
-      <c r="J62" s="125"/>
-      <c r="K62" s="125"/>
-      <c r="L62" s="125"/>
+      <c r="B62" s="144"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="144"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="144"/>
+      <c r="G62" s="144"/>
+      <c r="H62" s="144"/>
+      <c r="I62" s="144"/>
+      <c r="J62" s="144"/>
+      <c r="K62" s="144"/>
+      <c r="L62" s="144"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="125"/>
-      <c r="C63" s="125"/>
-      <c r="D63" s="125"/>
-      <c r="E63" s="125"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="125"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="125"/>
-      <c r="J63" s="125"/>
-      <c r="K63" s="125"/>
-      <c r="L63" s="125"/>
+      <c r="B63" s="144"/>
+      <c r="C63" s="144"/>
+      <c r="D63" s="144"/>
+      <c r="E63" s="144"/>
+      <c r="F63" s="144"/>
+      <c r="G63" s="144"/>
+      <c r="H63" s="144"/>
+      <c r="I63" s="144"/>
+      <c r="J63" s="144"/>
+      <c r="K63" s="144"/>
+      <c r="L63" s="144"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="125"/>
-      <c r="C64" s="125"/>
-      <c r="D64" s="125"/>
-      <c r="E64" s="125"/>
-      <c r="F64" s="125"/>
-      <c r="G64" s="125"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="125"/>
-      <c r="J64" s="125"/>
-      <c r="K64" s="125"/>
-      <c r="L64" s="125"/>
+      <c r="B64" s="144"/>
+      <c r="C64" s="144"/>
+      <c r="D64" s="144"/>
+      <c r="E64" s="144"/>
+      <c r="F64" s="144"/>
+      <c r="G64" s="144"/>
+      <c r="H64" s="144"/>
+      <c r="I64" s="144"/>
+      <c r="J64" s="144"/>
+      <c r="K64" s="144"/>
+      <c r="L64" s="144"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="125"/>
-      <c r="C65" s="125"/>
-      <c r="D65" s="125"/>
-      <c r="E65" s="125"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="125"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="125"/>
-      <c r="J65" s="125"/>
-      <c r="K65" s="125"/>
-      <c r="L65" s="125"/>
+      <c r="B65" s="144"/>
+      <c r="C65" s="144"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="144"/>
+      <c r="F65" s="144"/>
+      <c r="G65" s="144"/>
+      <c r="H65" s="144"/>
+      <c r="I65" s="144"/>
+      <c r="J65" s="144"/>
+      <c r="K65" s="144"/>
+      <c r="L65" s="144"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="125"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="125"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="125"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="125"/>
-      <c r="J66" s="125"/>
-      <c r="K66" s="125"/>
-      <c r="L66" s="125"/>
+      <c r="B66" s="144"/>
+      <c r="C66" s="144"/>
+      <c r="D66" s="144"/>
+      <c r="E66" s="144"/>
+      <c r="F66" s="144"/>
+      <c r="G66" s="144"/>
+      <c r="H66" s="144"/>
+      <c r="I66" s="144"/>
+      <c r="J66" s="144"/>
+      <c r="K66" s="144"/>
+      <c r="L66" s="144"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="125"/>
-      <c r="C67" s="125"/>
-      <c r="D67" s="125"/>
-      <c r="E67" s="125"/>
-      <c r="F67" s="125"/>
-      <c r="G67" s="125"/>
-      <c r="H67" s="125"/>
-      <c r="I67" s="125"/>
-      <c r="J67" s="125"/>
-      <c r="K67" s="125"/>
-      <c r="L67" s="125"/>
+      <c r="B67" s="144"/>
+      <c r="C67" s="144"/>
+      <c r="D67" s="144"/>
+      <c r="E67" s="144"/>
+      <c r="F67" s="144"/>
+      <c r="G67" s="144"/>
+      <c r="H67" s="144"/>
+      <c r="I67" s="144"/>
+      <c r="J67" s="144"/>
+      <c r="K67" s="144"/>
+      <c r="L67" s="144"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="125"/>
-      <c r="C68" s="125"/>
-      <c r="D68" s="125"/>
-      <c r="E68" s="125"/>
-      <c r="F68" s="125"/>
-      <c r="G68" s="125"/>
-      <c r="H68" s="125"/>
-      <c r="I68" s="125"/>
-      <c r="J68" s="125"/>
-      <c r="K68" s="125"/>
-      <c r="L68" s="125"/>
+      <c r="B68" s="144"/>
+      <c r="C68" s="144"/>
+      <c r="D68" s="144"/>
+      <c r="E68" s="144"/>
+      <c r="F68" s="144"/>
+      <c r="G68" s="144"/>
+      <c r="H68" s="144"/>
+      <c r="I68" s="144"/>
+      <c r="J68" s="144"/>
+      <c r="K68" s="144"/>
+      <c r="L68" s="144"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="125"/>
-      <c r="C69" s="125"/>
-      <c r="D69" s="125"/>
-      <c r="E69" s="125"/>
-      <c r="F69" s="125"/>
-      <c r="G69" s="125"/>
-      <c r="H69" s="125"/>
-      <c r="I69" s="125"/>
-      <c r="J69" s="125"/>
-      <c r="K69" s="125"/>
-      <c r="L69" s="125"/>
+      <c r="B69" s="144"/>
+      <c r="C69" s="144"/>
+      <c r="D69" s="144"/>
+      <c r="E69" s="144"/>
+      <c r="F69" s="144"/>
+      <c r="G69" s="144"/>
+      <c r="H69" s="144"/>
+      <c r="I69" s="144"/>
+      <c r="J69" s="144"/>
+      <c r="K69" s="144"/>
+      <c r="L69" s="144"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="125"/>
-      <c r="C70" s="125"/>
-      <c r="D70" s="125"/>
-      <c r="E70" s="125"/>
-      <c r="F70" s="125"/>
-      <c r="G70" s="125"/>
-      <c r="H70" s="125"/>
-      <c r="I70" s="125"/>
-      <c r="J70" s="125"/>
-      <c r="K70" s="125"/>
-      <c r="L70" s="125"/>
+      <c r="B70" s="144"/>
+      <c r="C70" s="144"/>
+      <c r="D70" s="144"/>
+      <c r="E70" s="144"/>
+      <c r="F70" s="144"/>
+      <c r="G70" s="144"/>
+      <c r="H70" s="144"/>
+      <c r="I70" s="144"/>
+      <c r="J70" s="144"/>
+      <c r="K70" s="144"/>
+      <c r="L70" s="144"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="125"/>
-      <c r="C71" s="125"/>
-      <c r="D71" s="125"/>
-      <c r="E71" s="125"/>
-      <c r="F71" s="125"/>
-      <c r="G71" s="125"/>
-      <c r="H71" s="125"/>
-      <c r="I71" s="125"/>
-      <c r="J71" s="125"/>
-      <c r="K71" s="125"/>
-      <c r="L71" s="125"/>
+      <c r="B71" s="144"/>
+      <c r="C71" s="144"/>
+      <c r="D71" s="144"/>
+      <c r="E71" s="144"/>
+      <c r="F71" s="144"/>
+      <c r="G71" s="144"/>
+      <c r="H71" s="144"/>
+      <c r="I71" s="144"/>
+      <c r="J71" s="144"/>
+      <c r="K71" s="144"/>
+      <c r="L71" s="144"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
       <c r="B73" s="21" t="s">
@@ -4489,11 +4498,11 @@
       <c r="J127" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K127" s="121" t="str">
+      <c r="K127" s="136" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L127" s="121"/>
+      <c r="L127" s="136"/>
     </row>
     <row r="128" spans="2:12" ht="17.25">
       <c r="B128" s="55" t="s">
@@ -4539,245 +4548,245 @@
       <c r="L130" s="56"/>
     </row>
     <row r="131" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="128" t="s">
+      <c r="B131" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="C131" s="128"/>
-      <c r="D131" s="136" t="str">
+      <c r="C131" s="132"/>
+      <c r="D131" s="122" t="str">
         <f>記入!B10</f>
         <v>${cv.pjnamejapanese}</v>
       </c>
-      <c r="E131" s="136"/>
-      <c r="F131" s="136"/>
-      <c r="G131" s="136"/>
-      <c r="H131" s="136"/>
-      <c r="I131" s="136"/>
-      <c r="J131" s="136"/>
-      <c r="K131" s="136"/>
+      <c r="E131" s="122"/>
+      <c r="F131" s="122"/>
+      <c r="G131" s="122"/>
+      <c r="H131" s="122"/>
+      <c r="I131" s="122"/>
+      <c r="J131" s="122"/>
+      <c r="K131" s="122"/>
       <c r="L131" s="54"/>
     </row>
     <row r="132" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="128" t="s">
+      <c r="B132" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="C132" s="128"/>
-      <c r="D132" s="141" t="str">
+      <c r="C132" s="132"/>
+      <c r="D132" s="121" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E132" s="136"/>
-      <c r="F132" s="136"/>
-      <c r="G132" s="136"/>
-      <c r="H132" s="136"/>
-      <c r="I132" s="136"/>
-      <c r="J132" s="136"/>
-      <c r="K132" s="136"/>
+      <c r="E132" s="122"/>
+      <c r="F132" s="122"/>
+      <c r="G132" s="122"/>
+      <c r="H132" s="122"/>
+      <c r="I132" s="122"/>
+      <c r="J132" s="122"/>
+      <c r="K132" s="122"/>
       <c r="L132" s="54"/>
     </row>
     <row r="133" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B133" s="128" t="s">
+      <c r="B133" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="C133" s="128"/>
-      <c r="D133" s="141" t="str">
+      <c r="C133" s="132"/>
+      <c r="D133" s="121" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E133" s="136"/>
-      <c r="F133" s="136"/>
-      <c r="G133" s="136"/>
-      <c r="H133" s="136"/>
-      <c r="I133" s="136"/>
-      <c r="J133" s="136"/>
-      <c r="K133" s="136"/>
+      <c r="E133" s="122"/>
+      <c r="F133" s="122"/>
+      <c r="G133" s="122"/>
+      <c r="H133" s="122"/>
+      <c r="I133" s="122"/>
+      <c r="J133" s="122"/>
+      <c r="K133" s="122"/>
       <c r="L133" s="54"/>
     </row>
     <row r="134" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="128" t="s">
+      <c r="B134" s="132" t="s">
         <v>78</v>
       </c>
-      <c r="C134" s="128"/>
-      <c r="D134" s="142" t="str">
+      <c r="C134" s="132"/>
+      <c r="D134" s="123" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="E134" s="142"/>
-      <c r="F134" s="142"/>
-      <c r="G134" s="142"/>
-      <c r="H134" s="142"/>
-      <c r="I134" s="142"/>
-      <c r="J134" s="142"/>
-      <c r="K134" s="142"/>
+      <c r="E134" s="123"/>
+      <c r="F134" s="123"/>
+      <c r="G134" s="123"/>
+      <c r="H134" s="123"/>
+      <c r="I134" s="123"/>
+      <c r="J134" s="123"/>
+      <c r="K134" s="123"/>
       <c r="L134" s="54"/>
     </row>
     <row r="135" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="134" t="s">
+      <c r="B135" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="C135" s="128"/>
-      <c r="D135" s="132" t="str">
+      <c r="C135" s="132"/>
+      <c r="D135" s="124" t="str">
         <f>記入!B35</f>
         <v>${cv.technicalcontentjapanese}</v>
       </c>
-      <c r="E135" s="133"/>
-      <c r="F135" s="133"/>
-      <c r="G135" s="133"/>
-      <c r="H135" s="133"/>
-      <c r="I135" s="133"/>
-      <c r="J135" s="133"/>
-      <c r="K135" s="133"/>
+      <c r="E135" s="125"/>
+      <c r="F135" s="125"/>
+      <c r="G135" s="125"/>
+      <c r="H135" s="125"/>
+      <c r="I135" s="125"/>
+      <c r="J135" s="125"/>
+      <c r="K135" s="125"/>
       <c r="L135" s="54"/>
     </row>
     <row r="136" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="128"/>
-      <c r="C136" s="128"/>
-      <c r="D136" s="133"/>
-      <c r="E136" s="133"/>
-      <c r="F136" s="133"/>
-      <c r="G136" s="133"/>
-      <c r="H136" s="133"/>
-      <c r="I136" s="133"/>
-      <c r="J136" s="133"/>
-      <c r="K136" s="133"/>
+      <c r="B136" s="132"/>
+      <c r="C136" s="132"/>
+      <c r="D136" s="125"/>
+      <c r="E136" s="125"/>
+      <c r="F136" s="125"/>
+      <c r="G136" s="125"/>
+      <c r="H136" s="125"/>
+      <c r="I136" s="125"/>
+      <c r="J136" s="125"/>
+      <c r="K136" s="125"/>
       <c r="L136" s="54"/>
     </row>
     <row r="137" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="128"/>
-      <c r="C137" s="128"/>
-      <c r="D137" s="133"/>
-      <c r="E137" s="133"/>
-      <c r="F137" s="133"/>
-      <c r="G137" s="133"/>
-      <c r="H137" s="133"/>
-      <c r="I137" s="133"/>
-      <c r="J137" s="133"/>
-      <c r="K137" s="133"/>
+      <c r="B137" s="132"/>
+      <c r="C137" s="132"/>
+      <c r="D137" s="125"/>
+      <c r="E137" s="125"/>
+      <c r="F137" s="125"/>
+      <c r="G137" s="125"/>
+      <c r="H137" s="125"/>
+      <c r="I137" s="125"/>
+      <c r="J137" s="125"/>
+      <c r="K137" s="125"/>
       <c r="L137" s="54"/>
     </row>
     <row r="138" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="128"/>
-      <c r="C138" s="128"/>
-      <c r="D138" s="133"/>
-      <c r="E138" s="133"/>
-      <c r="F138" s="133"/>
-      <c r="G138" s="133"/>
-      <c r="H138" s="133"/>
-      <c r="I138" s="133"/>
-      <c r="J138" s="133"/>
-      <c r="K138" s="133"/>
+      <c r="B138" s="132"/>
+      <c r="C138" s="132"/>
+      <c r="D138" s="125"/>
+      <c r="E138" s="125"/>
+      <c r="F138" s="125"/>
+      <c r="G138" s="125"/>
+      <c r="H138" s="125"/>
+      <c r="I138" s="125"/>
+      <c r="J138" s="125"/>
+      <c r="K138" s="125"/>
       <c r="L138" s="54"/>
     </row>
     <row r="139" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="128"/>
-      <c r="C139" s="128"/>
-      <c r="D139" s="133"/>
-      <c r="E139" s="133"/>
-      <c r="F139" s="133"/>
-      <c r="G139" s="133"/>
-      <c r="H139" s="133"/>
-      <c r="I139" s="133"/>
-      <c r="J139" s="133"/>
-      <c r="K139" s="133"/>
+      <c r="B139" s="132"/>
+      <c r="C139" s="132"/>
+      <c r="D139" s="125"/>
+      <c r="E139" s="125"/>
+      <c r="F139" s="125"/>
+      <c r="G139" s="125"/>
+      <c r="H139" s="125"/>
+      <c r="I139" s="125"/>
+      <c r="J139" s="125"/>
+      <c r="K139" s="125"/>
       <c r="L139" s="54"/>
     </row>
     <row r="140" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="128"/>
-      <c r="C140" s="128"/>
-      <c r="D140" s="133"/>
-      <c r="E140" s="133"/>
-      <c r="F140" s="133"/>
-      <c r="G140" s="133"/>
-      <c r="H140" s="133"/>
-      <c r="I140" s="133"/>
-      <c r="J140" s="133"/>
-      <c r="K140" s="133"/>
+      <c r="B140" s="132"/>
+      <c r="C140" s="132"/>
+      <c r="D140" s="125"/>
+      <c r="E140" s="125"/>
+      <c r="F140" s="125"/>
+      <c r="G140" s="125"/>
+      <c r="H140" s="125"/>
+      <c r="I140" s="125"/>
+      <c r="J140" s="125"/>
+      <c r="K140" s="125"/>
       <c r="L140" s="54"/>
     </row>
     <row r="141" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="128"/>
-      <c r="C141" s="128"/>
-      <c r="D141" s="133"/>
-      <c r="E141" s="133"/>
-      <c r="F141" s="133"/>
-      <c r="G141" s="133"/>
-      <c r="H141" s="133"/>
-      <c r="I141" s="133"/>
-      <c r="J141" s="133"/>
-      <c r="K141" s="133"/>
+      <c r="B141" s="132"/>
+      <c r="C141" s="132"/>
+      <c r="D141" s="125"/>
+      <c r="E141" s="125"/>
+      <c r="F141" s="125"/>
+      <c r="G141" s="125"/>
+      <c r="H141" s="125"/>
+      <c r="I141" s="125"/>
+      <c r="J141" s="125"/>
+      <c r="K141" s="125"/>
       <c r="L141" s="54"/>
     </row>
     <row r="142" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="128" t="s">
+      <c r="B142" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="C142" s="128"/>
-      <c r="D142" s="129" t="str">
+      <c r="C142" s="132"/>
+      <c r="D142" s="137" t="str">
         <f>記入!B47</f>
         <v>${cv.redelegate}</v>
       </c>
-      <c r="E142" s="130"/>
-      <c r="F142" s="130"/>
-      <c r="G142" s="130"/>
-      <c r="H142" s="130"/>
-      <c r="I142" s="130"/>
-      <c r="J142" s="130"/>
-      <c r="K142" s="131"/>
+      <c r="E142" s="138"/>
+      <c r="F142" s="138"/>
+      <c r="G142" s="138"/>
+      <c r="H142" s="138"/>
+      <c r="I142" s="138"/>
+      <c r="J142" s="138"/>
+      <c r="K142" s="139"/>
       <c r="L142" s="54"/>
     </row>
     <row r="143" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="128"/>
-      <c r="C143" s="128"/>
-      <c r="D143" s="132" t="str">
+      <c r="B143" s="132"/>
+      <c r="C143" s="132"/>
+      <c r="D143" s="124" t="str">
         <f>記入!B48</f>
         <v>再委託先：
 ${cv.redelegatecontent}</v>
       </c>
-      <c r="E143" s="133"/>
-      <c r="F143" s="133"/>
-      <c r="G143" s="133"/>
-      <c r="H143" s="133"/>
-      <c r="I143" s="133"/>
-      <c r="J143" s="133"/>
-      <c r="K143" s="133"/>
+      <c r="E143" s="125"/>
+      <c r="F143" s="125"/>
+      <c r="G143" s="125"/>
+      <c r="H143" s="125"/>
+      <c r="I143" s="125"/>
+      <c r="J143" s="125"/>
+      <c r="K143" s="125"/>
       <c r="L143" s="54"/>
     </row>
     <row r="144" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="128"/>
-      <c r="C144" s="128"/>
-      <c r="D144" s="133"/>
-      <c r="E144" s="133"/>
-      <c r="F144" s="133"/>
-      <c r="G144" s="133"/>
-      <c r="H144" s="133"/>
-      <c r="I144" s="133"/>
-      <c r="J144" s="133"/>
-      <c r="K144" s="133"/>
+      <c r="B144" s="132"/>
+      <c r="C144" s="132"/>
+      <c r="D144" s="125"/>
+      <c r="E144" s="125"/>
+      <c r="F144" s="125"/>
+      <c r="G144" s="125"/>
+      <c r="H144" s="125"/>
+      <c r="I144" s="125"/>
+      <c r="J144" s="125"/>
+      <c r="K144" s="125"/>
       <c r="L144" s="54"/>
     </row>
     <row r="145" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="128"/>
-      <c r="C145" s="128"/>
-      <c r="D145" s="133"/>
-      <c r="E145" s="133"/>
-      <c r="F145" s="133"/>
-      <c r="G145" s="133"/>
-      <c r="H145" s="133"/>
-      <c r="I145" s="133"/>
-      <c r="J145" s="133"/>
-      <c r="K145" s="133"/>
+      <c r="B145" s="132"/>
+      <c r="C145" s="132"/>
+      <c r="D145" s="125"/>
+      <c r="E145" s="125"/>
+      <c r="F145" s="125"/>
+      <c r="G145" s="125"/>
+      <c r="H145" s="125"/>
+      <c r="I145" s="125"/>
+      <c r="J145" s="125"/>
+      <c r="K145" s="125"/>
       <c r="L145" s="54"/>
     </row>
     <row r="146" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="128"/>
-      <c r="C146" s="128"/>
-      <c r="D146" s="133"/>
-      <c r="E146" s="133"/>
-      <c r="F146" s="133"/>
-      <c r="G146" s="133"/>
-      <c r="H146" s="133"/>
-      <c r="I146" s="133"/>
-      <c r="J146" s="133"/>
-      <c r="K146" s="133"/>
+      <c r="B146" s="132"/>
+      <c r="C146" s="132"/>
+      <c r="D146" s="125"/>
+      <c r="E146" s="125"/>
+      <c r="F146" s="125"/>
+      <c r="G146" s="125"/>
+      <c r="H146" s="125"/>
+      <c r="I146" s="125"/>
+      <c r="J146" s="125"/>
+      <c r="K146" s="125"/>
       <c r="L146" s="54"/>
     </row>
     <row r="147" spans="2:12" ht="20.100000000000001" customHeight="1">
@@ -4809,222 +4818,222 @@
       <c r="L148" s="54"/>
     </row>
     <row r="149" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="128" t="s">
+      <c r="B149" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="C149" s="128"/>
-      <c r="D149" s="127" t="s">
+      <c r="C149" s="132"/>
+      <c r="D149" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="E149" s="127"/>
-      <c r="F149" s="127" t="s">
+      <c r="E149" s="130"/>
+      <c r="F149" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="G149" s="127"/>
-      <c r="H149" s="127" t="s">
+      <c r="G149" s="130"/>
+      <c r="H149" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="I149" s="127"/>
-      <c r="J149" s="127" t="s">
+      <c r="I149" s="130"/>
+      <c r="J149" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="K149" s="127"/>
+      <c r="K149" s="130"/>
       <c r="L149" s="54"/>
     </row>
     <row r="150" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="128" t="s">
+      <c r="B150" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="C150" s="128"/>
-      <c r="D150" s="135" t="str">
+      <c r="C150" s="132"/>
+      <c r="D150" s="129" t="str">
         <f>記入!B29</f>
         <v>${r.deliverydate}</v>
       </c>
-      <c r="E150" s="127"/>
-      <c r="F150" s="135" t="e">
+      <c r="E150" s="130"/>
+      <c r="F150" s="129" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G150" s="127"/>
-      <c r="H150" s="135" t="e">
+      <c r="G150" s="130"/>
+      <c r="H150" s="129" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I150" s="127"/>
-      <c r="J150" s="135" t="e">
+      <c r="I150" s="130"/>
+      <c r="J150" s="129" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K150" s="127"/>
+      <c r="K150" s="130"/>
       <c r="L150" s="54"/>
     </row>
     <row r="151" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="128" t="s">
+      <c r="B151" s="132" t="s">
         <v>88</v>
       </c>
-      <c r="C151" s="128"/>
-      <c r="D151" s="135" t="str">
+      <c r="C151" s="132"/>
+      <c r="D151" s="129" t="str">
         <f>記入!C29</f>
         <v>${r.completiondate}</v>
       </c>
-      <c r="E151" s="127"/>
-      <c r="F151" s="135" t="e">
+      <c r="E151" s="130"/>
+      <c r="F151" s="129" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G151" s="127"/>
-      <c r="H151" s="135" t="e">
+      <c r="G151" s="130"/>
+      <c r="H151" s="129" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I151" s="127"/>
-      <c r="J151" s="135" t="e">
+      <c r="I151" s="130"/>
+      <c r="J151" s="129" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K151" s="127"/>
+      <c r="K151" s="130"/>
       <c r="L151" s="54"/>
     </row>
     <row r="152" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="128" t="s">
+      <c r="B152" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="C152" s="128"/>
-      <c r="D152" s="137" t="str">
+      <c r="C152" s="132"/>
+      <c r="D152" s="134" t="str">
         <f>記入!D29</f>
         <v>${r.claimdate}</v>
       </c>
-      <c r="E152" s="138"/>
-      <c r="F152" s="135" t="e">
+      <c r="E152" s="133"/>
+      <c r="F152" s="129" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G152" s="127"/>
-      <c r="H152" s="135" t="e">
+      <c r="G152" s="130"/>
+      <c r="H152" s="129" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I152" s="127"/>
-      <c r="J152" s="135" t="e">
+      <c r="I152" s="130"/>
+      <c r="J152" s="129" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K152" s="127"/>
+      <c r="K152" s="130"/>
       <c r="L152" s="54"/>
     </row>
     <row r="153" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="128" t="s">
+      <c r="B153" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="C153" s="128"/>
-      <c r="D153" s="137" t="str">
+      <c r="C153" s="132"/>
+      <c r="D153" s="134" t="str">
         <f>記入!E29</f>
         <v>${r.supportdate}</v>
       </c>
-      <c r="E153" s="138"/>
-      <c r="F153" s="135" t="e">
+      <c r="E153" s="133"/>
+      <c r="F153" s="129" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G153" s="127"/>
-      <c r="H153" s="135" t="e">
+      <c r="G153" s="130"/>
+      <c r="H153" s="129" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I153" s="127"/>
-      <c r="J153" s="135" t="e">
+      <c r="I153" s="130"/>
+      <c r="J153" s="129" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K153" s="127"/>
+      <c r="K153" s="130"/>
       <c r="L153" s="54"/>
     </row>
     <row r="154" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="128" t="s">
+      <c r="B154" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="C154" s="128"/>
-      <c r="D154" s="140" t="str">
+      <c r="C154" s="132"/>
+      <c r="D154" s="135" t="str">
         <f>記入!F29</f>
         <v>${r.claimamount}</v>
       </c>
-      <c r="E154" s="138"/>
-      <c r="F154" s="139" t="e">
+      <c r="E154" s="133"/>
+      <c r="F154" s="131" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G154" s="127"/>
-      <c r="H154" s="139" t="e">
+      <c r="G154" s="130"/>
+      <c r="H154" s="131" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I154" s="127"/>
-      <c r="J154" s="139" t="e">
+      <c r="I154" s="130"/>
+      <c r="J154" s="131" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K154" s="127"/>
+      <c r="K154" s="130"/>
       <c r="L154" s="54"/>
     </row>
     <row r="155" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="128" t="s">
+      <c r="B155" s="132" t="s">
         <v>92</v>
       </c>
-      <c r="C155" s="128"/>
-      <c r="D155" s="138" t="str">
+      <c r="C155" s="132"/>
+      <c r="D155" s="133" t="str">
         <f>記入!B12&amp;(-1)</f>
         <v>${cv.contractnumber}-1</v>
       </c>
-      <c r="E155" s="138"/>
-      <c r="F155" s="127" t="str">
+      <c r="E155" s="133"/>
+      <c r="F155" s="130" t="str">
         <f>記入!B12&amp;(-2)</f>
         <v>${cv.contractnumber}-2</v>
       </c>
-      <c r="G155" s="127"/>
-      <c r="H155" s="127" t="str">
+      <c r="G155" s="130"/>
+      <c r="H155" s="130" t="str">
         <f>記入!B12&amp;(-3)</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="I155" s="127"/>
-      <c r="J155" s="127" t="str">
+      <c r="I155" s="130"/>
+      <c r="J155" s="130" t="str">
         <f>記入!B12&amp;(-4)</f>
         <v>${cv.contractnumber}-4</v>
       </c>
-      <c r="K155" s="127"/>
+      <c r="K155" s="130"/>
       <c r="L155" s="54"/>
     </row>
     <row r="156" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="128" t="s">
+      <c r="B156" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="C156" s="128"/>
-      <c r="D156" s="127" t="s">
+      <c r="C156" s="132"/>
+      <c r="D156" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="E156" s="127"/>
-      <c r="F156" s="127"/>
-      <c r="G156" s="127"/>
-      <c r="H156" s="127"/>
-      <c r="I156" s="127"/>
-      <c r="J156" s="127"/>
-      <c r="K156" s="127"/>
+      <c r="E156" s="130"/>
+      <c r="F156" s="130"/>
+      <c r="G156" s="130"/>
+      <c r="H156" s="130"/>
+      <c r="I156" s="130"/>
+      <c r="J156" s="130"/>
+      <c r="K156" s="130"/>
       <c r="L156" s="54"/>
     </row>
     <row r="157" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="128" t="s">
+      <c r="B157" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="C157" s="128"/>
-      <c r="D157" s="127" t="s">
+      <c r="C157" s="132"/>
+      <c r="D157" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="E157" s="127"/>
-      <c r="F157" s="127"/>
-      <c r="G157" s="127"/>
-      <c r="H157" s="127"/>
-      <c r="I157" s="127"/>
-      <c r="J157" s="127"/>
-      <c r="K157" s="127"/>
+      <c r="E157" s="130"/>
+      <c r="F157" s="130"/>
+      <c r="G157" s="130"/>
+      <c r="H157" s="130"/>
+      <c r="I157" s="130"/>
+      <c r="J157" s="130"/>
+      <c r="K157" s="130"/>
       <c r="L157" s="54"/>
     </row>
     <row r="158" spans="2:12" ht="20.100000000000001" customHeight="1">
@@ -5056,59 +5065,59 @@
       <c r="L159" s="54"/>
     </row>
     <row r="160" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="143" t="s">
+      <c r="B160" s="126" t="s">
         <v>98</v>
       </c>
-      <c r="C160" s="143"/>
-      <c r="D160" s="143" t="s">
+      <c r="C160" s="126"/>
+      <c r="D160" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="E160" s="143"/>
-      <c r="F160" s="143"/>
-      <c r="G160" s="143"/>
-      <c r="H160" s="143"/>
-      <c r="I160" s="143"/>
-      <c r="J160" s="143"/>
-      <c r="K160" s="143"/>
+      <c r="E160" s="126"/>
+      <c r="F160" s="126"/>
+      <c r="G160" s="126"/>
+      <c r="H160" s="126"/>
+      <c r="I160" s="126"/>
+      <c r="J160" s="126"/>
+      <c r="K160" s="126"/>
       <c r="L160" s="54"/>
     </row>
     <row r="161" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="144"/>
-      <c r="C161" s="144"/>
-      <c r="D161" s="144"/>
-      <c r="E161" s="144"/>
-      <c r="F161" s="144"/>
-      <c r="G161" s="144"/>
-      <c r="H161" s="144"/>
-      <c r="I161" s="144"/>
-      <c r="J161" s="144"/>
-      <c r="K161" s="144"/>
+      <c r="B161" s="127"/>
+      <c r="C161" s="127"/>
+      <c r="D161" s="127"/>
+      <c r="E161" s="127"/>
+      <c r="F161" s="127"/>
+      <c r="G161" s="127"/>
+      <c r="H161" s="127"/>
+      <c r="I161" s="127"/>
+      <c r="J161" s="127"/>
+      <c r="K161" s="127"/>
       <c r="L161" s="54"/>
     </row>
     <row r="162" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="144"/>
-      <c r="C162" s="144"/>
-      <c r="D162" s="144"/>
-      <c r="E162" s="144"/>
-      <c r="F162" s="144"/>
-      <c r="G162" s="144"/>
-      <c r="H162" s="144"/>
-      <c r="I162" s="144"/>
-      <c r="J162" s="144"/>
-      <c r="K162" s="144"/>
+      <c r="B162" s="127"/>
+      <c r="C162" s="127"/>
+      <c r="D162" s="127"/>
+      <c r="E162" s="127"/>
+      <c r="F162" s="127"/>
+      <c r="G162" s="127"/>
+      <c r="H162" s="127"/>
+      <c r="I162" s="127"/>
+      <c r="J162" s="127"/>
+      <c r="K162" s="127"/>
       <c r="L162" s="54"/>
     </row>
     <row r="163" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="145"/>
-      <c r="C163" s="145"/>
-      <c r="D163" s="145"/>
-      <c r="E163" s="145"/>
-      <c r="F163" s="145"/>
-      <c r="G163" s="145"/>
-      <c r="H163" s="145"/>
-      <c r="I163" s="145"/>
-      <c r="J163" s="145"/>
-      <c r="K163" s="145"/>
+      <c r="B163" s="128"/>
+      <c r="C163" s="128"/>
+      <c r="D163" s="128"/>
+      <c r="E163" s="128"/>
+      <c r="F163" s="128"/>
+      <c r="G163" s="128"/>
+      <c r="H163" s="128"/>
+      <c r="I163" s="128"/>
+      <c r="J163" s="128"/>
+      <c r="K163" s="128"/>
       <c r="L163" s="54"/>
     </row>
     <row r="164" spans="2:12" ht="14.25">
@@ -5466,6 +5475,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B11:L57"/>
+    <mergeCell ref="B60:L71"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="D142:K142"/>
+    <mergeCell ref="D143:K146"/>
+    <mergeCell ref="B142:C146"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C141"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="D131:K131"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:K156"/>
+    <mergeCell ref="D157:K157"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="F152:G152"/>
     <mergeCell ref="D132:K132"/>
     <mergeCell ref="D133:K133"/>
     <mergeCell ref="D134:K134"/>
@@ -5482,51 +5536,6 @@
     <mergeCell ref="F155:G155"/>
     <mergeCell ref="H150:I150"/>
     <mergeCell ref="H151:I151"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D156:K156"/>
-    <mergeCell ref="D157:K157"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="D142:K142"/>
-    <mergeCell ref="D143:K146"/>
-    <mergeCell ref="B142:C146"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C141"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="D131:K131"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B11:L57"/>
-    <mergeCell ref="B60:L71"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5563,18 +5572,18 @@
       <c r="J2" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="149" t="str">
+      <c r="K2" s="168" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="149"/>
+      <c r="L2" s="168"/>
     </row>
     <row r="3" spans="1:12" ht="20.25">
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="169" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="30" t="s">
@@ -5634,11 +5643,11 @@
         <v>68</v>
       </c>
       <c r="C8" s="51"/>
-      <c r="D8" s="152" t="str">
+      <c r="D8" s="171" t="str">
         <f>記入!B34</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E8" s="153"/>
+      <c r="E8" s="172"/>
       <c r="F8" s="52" t="s">
         <v>66</v>
       </c>
@@ -5678,617 +5687,617 @@
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="151"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="170"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="170"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="170"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="170"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="151"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="170"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="170"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="151"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="170"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="151"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="170"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="170"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="151"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="151"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="170"/>
+      <c r="L24" s="170"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="151"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="170"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="170"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="151"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="170"/>
+      <c r="L27" s="170"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="151"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="170"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="151"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="170"/>
+      <c r="L29" s="170"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="151"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="170"/>
+      <c r="L30" s="170"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="151"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="170"/>
+      <c r="L31" s="170"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="151"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
+      <c r="B32" s="170"/>
+      <c r="C32" s="170"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="170"/>
+      <c r="K32" s="170"/>
+      <c r="L32" s="170"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="151"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="170"/>
+      <c r="L33" s="170"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="151"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="170"/>
+      <c r="K34" s="170"/>
+      <c r="L34" s="170"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="151"/>
-      <c r="C35" s="151"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="170"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="170"/>
+      <c r="K35" s="170"/>
+      <c r="L35" s="170"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="151"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
+      <c r="B36" s="170"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="170"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="170"/>
+      <c r="K36" s="170"/>
+      <c r="L36" s="170"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="151"/>
-      <c r="C37" s="151"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="170"/>
+      <c r="L37" s="170"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="151"/>
-      <c r="C38" s="151"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="170"/>
+      <c r="E38" s="170"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="170"/>
+      <c r="K38" s="170"/>
+      <c r="L38" s="170"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="151"/>
-      <c r="C39" s="151"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="170"/>
+      <c r="K39" s="170"/>
+      <c r="L39" s="170"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="151"/>
-      <c r="C40" s="151"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
+      <c r="B40" s="170"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="170"/>
+      <c r="K40" s="170"/>
+      <c r="L40" s="170"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="151"/>
-      <c r="C41" s="151"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
+      <c r="E41" s="170"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="170"/>
+      <c r="H41" s="170"/>
+      <c r="I41" s="170"/>
+      <c r="J41" s="170"/>
+      <c r="K41" s="170"/>
+      <c r="L41" s="170"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="151"/>
-      <c r="C42" s="151"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="170"/>
+      <c r="K42" s="170"/>
+      <c r="L42" s="170"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="151"/>
-      <c r="C43" s="151"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="170"/>
+      <c r="E43" s="170"/>
+      <c r="F43" s="170"/>
+      <c r="G43" s="170"/>
+      <c r="H43" s="170"/>
+      <c r="I43" s="170"/>
+      <c r="J43" s="170"/>
+      <c r="K43" s="170"/>
+      <c r="L43" s="170"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="151"/>
-      <c r="C44" s="151"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="151"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="151"/>
-      <c r="L44" s="151"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="170"/>
+      <c r="J44" s="170"/>
+      <c r="K44" s="170"/>
+      <c r="L44" s="170"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="151"/>
-      <c r="C45" s="151"/>
-      <c r="D45" s="151"/>
-      <c r="E45" s="151"/>
-      <c r="F45" s="151"/>
-      <c r="G45" s="151"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
-      <c r="J45" s="151"/>
-      <c r="K45" s="151"/>
-      <c r="L45" s="151"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="170"/>
+      <c r="K45" s="170"/>
+      <c r="L45" s="170"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="151"/>
-      <c r="C46" s="151"/>
-      <c r="D46" s="151"/>
-      <c r="E46" s="151"/>
-      <c r="F46" s="151"/>
-      <c r="G46" s="151"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
-      <c r="J46" s="151"/>
-      <c r="K46" s="151"/>
-      <c r="L46" s="151"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
+      <c r="E46" s="170"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="170"/>
+      <c r="K46" s="170"/>
+      <c r="L46" s="170"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="151"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
-      <c r="E47" s="151"/>
-      <c r="F47" s="151"/>
-      <c r="G47" s="151"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="151"/>
-      <c r="J47" s="151"/>
-      <c r="K47" s="151"/>
-      <c r="L47" s="151"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
+      <c r="E47" s="170"/>
+      <c r="F47" s="170"/>
+      <c r="G47" s="170"/>
+      <c r="H47" s="170"/>
+      <c r="I47" s="170"/>
+      <c r="J47" s="170"/>
+      <c r="K47" s="170"/>
+      <c r="L47" s="170"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="151"/>
-      <c r="C48" s="151"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="151"/>
-      <c r="F48" s="151"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="151"/>
-      <c r="L48" s="151"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
+      <c r="E48" s="170"/>
+      <c r="F48" s="170"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="170"/>
+      <c r="I48" s="170"/>
+      <c r="J48" s="170"/>
+      <c r="K48" s="170"/>
+      <c r="L48" s="170"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="151"/>
-      <c r="C49" s="151"/>
-      <c r="D49" s="151"/>
-      <c r="E49" s="151"/>
-      <c r="F49" s="151"/>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="151"/>
-      <c r="K49" s="151"/>
-      <c r="L49" s="151"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
+      <c r="E49" s="170"/>
+      <c r="F49" s="170"/>
+      <c r="G49" s="170"/>
+      <c r="H49" s="170"/>
+      <c r="I49" s="170"/>
+      <c r="J49" s="170"/>
+      <c r="K49" s="170"/>
+      <c r="L49" s="170"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="151"/>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="151"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="151"/>
-      <c r="J50" s="151"/>
-      <c r="K50" s="151"/>
-      <c r="L50" s="151"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="170"/>
+      <c r="E50" s="170"/>
+      <c r="F50" s="170"/>
+      <c r="G50" s="170"/>
+      <c r="H50" s="170"/>
+      <c r="I50" s="170"/>
+      <c r="J50" s="170"/>
+      <c r="K50" s="170"/>
+      <c r="L50" s="170"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="151"/>
-      <c r="C51" s="151"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="151"/>
-      <c r="F51" s="151"/>
-      <c r="G51" s="151"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="151"/>
-      <c r="J51" s="151"/>
-      <c r="K51" s="151"/>
-      <c r="L51" s="151"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="170"/>
+      <c r="E51" s="170"/>
+      <c r="F51" s="170"/>
+      <c r="G51" s="170"/>
+      <c r="H51" s="170"/>
+      <c r="I51" s="170"/>
+      <c r="J51" s="170"/>
+      <c r="K51" s="170"/>
+      <c r="L51" s="170"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="151"/>
-      <c r="C52" s="151"/>
-      <c r="D52" s="151"/>
-      <c r="E52" s="151"/>
-      <c r="F52" s="151"/>
-      <c r="G52" s="151"/>
-      <c r="H52" s="151"/>
-      <c r="I52" s="151"/>
-      <c r="J52" s="151"/>
-      <c r="K52" s="151"/>
-      <c r="L52" s="151"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
+      <c r="E52" s="170"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="170"/>
+      <c r="J52" s="170"/>
+      <c r="K52" s="170"/>
+      <c r="L52" s="170"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="151"/>
-      <c r="C53" s="151"/>
-      <c r="D53" s="151"/>
-      <c r="E53" s="151"/>
-      <c r="F53" s="151"/>
-      <c r="G53" s="151"/>
-      <c r="H53" s="151"/>
-      <c r="I53" s="151"/>
-      <c r="J53" s="151"/>
-      <c r="K53" s="151"/>
-      <c r="L53" s="151"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="170"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="170"/>
+      <c r="J53" s="170"/>
+      <c r="K53" s="170"/>
+      <c r="L53" s="170"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="151"/>
-      <c r="C54" s="151"/>
-      <c r="D54" s="151"/>
-      <c r="E54" s="151"/>
-      <c r="F54" s="151"/>
-      <c r="G54" s="151"/>
-      <c r="H54" s="151"/>
-      <c r="I54" s="151"/>
-      <c r="J54" s="151"/>
-      <c r="K54" s="151"/>
-      <c r="L54" s="151"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
+      <c r="E54" s="170"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="170"/>
+      <c r="J54" s="170"/>
+      <c r="K54" s="170"/>
+      <c r="L54" s="170"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="151"/>
-      <c r="C55" s="151"/>
-      <c r="D55" s="151"/>
-      <c r="E55" s="151"/>
-      <c r="F55" s="151"/>
-      <c r="G55" s="151"/>
-      <c r="H55" s="151"/>
-      <c r="I55" s="151"/>
-      <c r="J55" s="151"/>
-      <c r="K55" s="151"/>
-      <c r="L55" s="151"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
+      <c r="E55" s="170"/>
+      <c r="F55" s="170"/>
+      <c r="G55" s="170"/>
+      <c r="H55" s="170"/>
+      <c r="I55" s="170"/>
+      <c r="J55" s="170"/>
+      <c r="K55" s="170"/>
+      <c r="L55" s="170"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="151"/>
-      <c r="C56" s="151"/>
-      <c r="D56" s="151"/>
-      <c r="E56" s="151"/>
-      <c r="F56" s="151"/>
-      <c r="G56" s="151"/>
-      <c r="H56" s="151"/>
-      <c r="I56" s="151"/>
-      <c r="J56" s="151"/>
-      <c r="K56" s="151"/>
-      <c r="L56" s="151"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="170"/>
+      <c r="E56" s="170"/>
+      <c r="F56" s="170"/>
+      <c r="G56" s="170"/>
+      <c r="H56" s="170"/>
+      <c r="I56" s="170"/>
+      <c r="J56" s="170"/>
+      <c r="K56" s="170"/>
+      <c r="L56" s="170"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="151"/>
-      <c r="C57" s="151"/>
-      <c r="D57" s="151"/>
-      <c r="E57" s="151"/>
-      <c r="F57" s="151"/>
-      <c r="G57" s="151"/>
-      <c r="H57" s="151"/>
-      <c r="I57" s="151"/>
-      <c r="J57" s="151"/>
-      <c r="K57" s="151"/>
-      <c r="L57" s="151"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="170"/>
+      <c r="E57" s="170"/>
+      <c r="F57" s="170"/>
+      <c r="G57" s="170"/>
+      <c r="H57" s="170"/>
+      <c r="I57" s="170"/>
+      <c r="J57" s="170"/>
+      <c r="K57" s="170"/>
+      <c r="L57" s="170"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
       <c r="B58" s="34"/>
@@ -6307,169 +6316,169 @@
       <c r="J59" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K59" s="149" t="str">
+      <c r="K59" s="168" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L59" s="149"/>
+      <c r="L59" s="168"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="147" t="s">
+      <c r="B60" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="C60" s="148"/>
-      <c r="D60" s="148"/>
-      <c r="E60" s="148"/>
-      <c r="F60" s="148"/>
-      <c r="G60" s="148"/>
-      <c r="H60" s="148"/>
-      <c r="I60" s="148"/>
-      <c r="J60" s="148"/>
-      <c r="K60" s="148"/>
-      <c r="L60" s="148"/>
+      <c r="C60" s="167"/>
+      <c r="D60" s="167"/>
+      <c r="E60" s="167"/>
+      <c r="F60" s="167"/>
+      <c r="G60" s="167"/>
+      <c r="H60" s="167"/>
+      <c r="I60" s="167"/>
+      <c r="J60" s="167"/>
+      <c r="K60" s="167"/>
+      <c r="L60" s="167"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="148"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="148"/>
-      <c r="E61" s="148"/>
-      <c r="F61" s="148"/>
-      <c r="G61" s="148"/>
-      <c r="H61" s="148"/>
-      <c r="I61" s="148"/>
-      <c r="J61" s="148"/>
-      <c r="K61" s="148"/>
-      <c r="L61" s="148"/>
+      <c r="B61" s="167"/>
+      <c r="C61" s="167"/>
+      <c r="D61" s="167"/>
+      <c r="E61" s="167"/>
+      <c r="F61" s="167"/>
+      <c r="G61" s="167"/>
+      <c r="H61" s="167"/>
+      <c r="I61" s="167"/>
+      <c r="J61" s="167"/>
+      <c r="K61" s="167"/>
+      <c r="L61" s="167"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="148"/>
-      <c r="C62" s="148"/>
-      <c r="D62" s="148"/>
-      <c r="E62" s="148"/>
-      <c r="F62" s="148"/>
-      <c r="G62" s="148"/>
-      <c r="H62" s="148"/>
-      <c r="I62" s="148"/>
-      <c r="J62" s="148"/>
-      <c r="K62" s="148"/>
-      <c r="L62" s="148"/>
+      <c r="B62" s="167"/>
+      <c r="C62" s="167"/>
+      <c r="D62" s="167"/>
+      <c r="E62" s="167"/>
+      <c r="F62" s="167"/>
+      <c r="G62" s="167"/>
+      <c r="H62" s="167"/>
+      <c r="I62" s="167"/>
+      <c r="J62" s="167"/>
+      <c r="K62" s="167"/>
+      <c r="L62" s="167"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="148"/>
-      <c r="C63" s="148"/>
-      <c r="D63" s="148"/>
-      <c r="E63" s="148"/>
-      <c r="F63" s="148"/>
-      <c r="G63" s="148"/>
-      <c r="H63" s="148"/>
-      <c r="I63" s="148"/>
-      <c r="J63" s="148"/>
-      <c r="K63" s="148"/>
-      <c r="L63" s="148"/>
+      <c r="B63" s="167"/>
+      <c r="C63" s="167"/>
+      <c r="D63" s="167"/>
+      <c r="E63" s="167"/>
+      <c r="F63" s="167"/>
+      <c r="G63" s="167"/>
+      <c r="H63" s="167"/>
+      <c r="I63" s="167"/>
+      <c r="J63" s="167"/>
+      <c r="K63" s="167"/>
+      <c r="L63" s="167"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="148"/>
-      <c r="C64" s="148"/>
-      <c r="D64" s="148"/>
-      <c r="E64" s="148"/>
-      <c r="F64" s="148"/>
-      <c r="G64" s="148"/>
-      <c r="H64" s="148"/>
-      <c r="I64" s="148"/>
-      <c r="J64" s="148"/>
-      <c r="K64" s="148"/>
-      <c r="L64" s="148"/>
+      <c r="B64" s="167"/>
+      <c r="C64" s="167"/>
+      <c r="D64" s="167"/>
+      <c r="E64" s="167"/>
+      <c r="F64" s="167"/>
+      <c r="G64" s="167"/>
+      <c r="H64" s="167"/>
+      <c r="I64" s="167"/>
+      <c r="J64" s="167"/>
+      <c r="K64" s="167"/>
+      <c r="L64" s="167"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="148"/>
-      <c r="C65" s="148"/>
-      <c r="D65" s="148"/>
-      <c r="E65" s="148"/>
-      <c r="F65" s="148"/>
-      <c r="G65" s="148"/>
-      <c r="H65" s="148"/>
-      <c r="I65" s="148"/>
-      <c r="J65" s="148"/>
-      <c r="K65" s="148"/>
-      <c r="L65" s="148"/>
+      <c r="B65" s="167"/>
+      <c r="C65" s="167"/>
+      <c r="D65" s="167"/>
+      <c r="E65" s="167"/>
+      <c r="F65" s="167"/>
+      <c r="G65" s="167"/>
+      <c r="H65" s="167"/>
+      <c r="I65" s="167"/>
+      <c r="J65" s="167"/>
+      <c r="K65" s="167"/>
+      <c r="L65" s="167"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="148"/>
-      <c r="C66" s="148"/>
-      <c r="D66" s="148"/>
-      <c r="E66" s="148"/>
-      <c r="F66" s="148"/>
-      <c r="G66" s="148"/>
-      <c r="H66" s="148"/>
-      <c r="I66" s="148"/>
-      <c r="J66" s="148"/>
-      <c r="K66" s="148"/>
-      <c r="L66" s="148"/>
+      <c r="B66" s="167"/>
+      <c r="C66" s="167"/>
+      <c r="D66" s="167"/>
+      <c r="E66" s="167"/>
+      <c r="F66" s="167"/>
+      <c r="G66" s="167"/>
+      <c r="H66" s="167"/>
+      <c r="I66" s="167"/>
+      <c r="J66" s="167"/>
+      <c r="K66" s="167"/>
+      <c r="L66" s="167"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="148"/>
-      <c r="C67" s="148"/>
-      <c r="D67" s="148"/>
-      <c r="E67" s="148"/>
-      <c r="F67" s="148"/>
-      <c r="G67" s="148"/>
-      <c r="H67" s="148"/>
-      <c r="I67" s="148"/>
-      <c r="J67" s="148"/>
-      <c r="K67" s="148"/>
-      <c r="L67" s="148"/>
+      <c r="B67" s="167"/>
+      <c r="C67" s="167"/>
+      <c r="D67" s="167"/>
+      <c r="E67" s="167"/>
+      <c r="F67" s="167"/>
+      <c r="G67" s="167"/>
+      <c r="H67" s="167"/>
+      <c r="I67" s="167"/>
+      <c r="J67" s="167"/>
+      <c r="K67" s="167"/>
+      <c r="L67" s="167"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="148"/>
-      <c r="C68" s="148"/>
-      <c r="D68" s="148"/>
-      <c r="E68" s="148"/>
-      <c r="F68" s="148"/>
-      <c r="G68" s="148"/>
-      <c r="H68" s="148"/>
-      <c r="I68" s="148"/>
-      <c r="J68" s="148"/>
-      <c r="K68" s="148"/>
-      <c r="L68" s="148"/>
+      <c r="B68" s="167"/>
+      <c r="C68" s="167"/>
+      <c r="D68" s="167"/>
+      <c r="E68" s="167"/>
+      <c r="F68" s="167"/>
+      <c r="G68" s="167"/>
+      <c r="H68" s="167"/>
+      <c r="I68" s="167"/>
+      <c r="J68" s="167"/>
+      <c r="K68" s="167"/>
+      <c r="L68" s="167"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="148"/>
-      <c r="C69" s="148"/>
-      <c r="D69" s="148"/>
-      <c r="E69" s="148"/>
-      <c r="F69" s="148"/>
-      <c r="G69" s="148"/>
-      <c r="H69" s="148"/>
-      <c r="I69" s="148"/>
-      <c r="J69" s="148"/>
-      <c r="K69" s="148"/>
-      <c r="L69" s="148"/>
+      <c r="B69" s="167"/>
+      <c r="C69" s="167"/>
+      <c r="D69" s="167"/>
+      <c r="E69" s="167"/>
+      <c r="F69" s="167"/>
+      <c r="G69" s="167"/>
+      <c r="H69" s="167"/>
+      <c r="I69" s="167"/>
+      <c r="J69" s="167"/>
+      <c r="K69" s="167"/>
+      <c r="L69" s="167"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="148"/>
-      <c r="C70" s="148"/>
-      <c r="D70" s="148"/>
-      <c r="E70" s="148"/>
-      <c r="F70" s="148"/>
-      <c r="G70" s="148"/>
-      <c r="H70" s="148"/>
-      <c r="I70" s="148"/>
-      <c r="J70" s="148"/>
-      <c r="K70" s="148"/>
-      <c r="L70" s="148"/>
+      <c r="B70" s="167"/>
+      <c r="C70" s="167"/>
+      <c r="D70" s="167"/>
+      <c r="E70" s="167"/>
+      <c r="F70" s="167"/>
+      <c r="G70" s="167"/>
+      <c r="H70" s="167"/>
+      <c r="I70" s="167"/>
+      <c r="J70" s="167"/>
+      <c r="K70" s="167"/>
+      <c r="L70" s="167"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="148"/>
-      <c r="C71" s="148"/>
-      <c r="D71" s="148"/>
-      <c r="E71" s="148"/>
-      <c r="F71" s="148"/>
-      <c r="G71" s="148"/>
-      <c r="H71" s="148"/>
-      <c r="I71" s="148"/>
-      <c r="J71" s="148"/>
-      <c r="K71" s="148"/>
-      <c r="L71" s="148"/>
+      <c r="B71" s="167"/>
+      <c r="C71" s="167"/>
+      <c r="D71" s="167"/>
+      <c r="E71" s="167"/>
+      <c r="F71" s="167"/>
+      <c r="G71" s="167"/>
+      <c r="H71" s="167"/>
+      <c r="I71" s="167"/>
+      <c r="J71" s="167"/>
+      <c r="K71" s="167"/>
+      <c r="L71" s="167"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
       <c r="B73" s="32" t="s">
@@ -6707,11 +6716,11 @@
       <c r="J127" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="K127" s="146" t="str">
+      <c r="K127" s="165" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L127" s="146"/>
+      <c r="L127" s="165"/>
     </row>
     <row r="128" spans="2:12" s="62" customFormat="1" ht="18.75">
       <c r="B128" s="64" t="s">
@@ -6755,247 +6764,245 @@
       <c r="L130" s="66"/>
     </row>
     <row r="131" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="154" t="s">
+      <c r="B131" s="146" t="s">
         <v>103</v>
       </c>
-      <c r="C131" s="154"/>
-      <c r="D131" s="155" t="str">
+      <c r="C131" s="146"/>
+      <c r="D131" s="163" t="str">
         <f>記入!B11</f>
         <v>${cv.pjnamechinese}</v>
       </c>
-      <c r="E131" s="155"/>
-      <c r="F131" s="155"/>
-      <c r="G131" s="155"/>
-      <c r="H131" s="155"/>
-      <c r="I131" s="155"/>
-      <c r="J131" s="155"/>
-      <c r="K131" s="155"/>
+      <c r="E131" s="163"/>
+      <c r="F131" s="163"/>
+      <c r="G131" s="163"/>
+      <c r="H131" s="163"/>
+      <c r="I131" s="163"/>
+      <c r="J131" s="163"/>
+      <c r="K131" s="163"/>
       <c r="L131" s="67"/>
     </row>
     <row r="132" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="154" t="s">
+      <c r="B132" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="C132" s="154"/>
-      <c r="D132" s="156" t="str">
+      <c r="C132" s="146"/>
+      <c r="D132" s="164" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E132" s="155"/>
-      <c r="F132" s="155"/>
-      <c r="G132" s="155"/>
-      <c r="H132" s="155"/>
-      <c r="I132" s="155"/>
-      <c r="J132" s="155"/>
-      <c r="K132" s="155"/>
+      <c r="E132" s="163"/>
+      <c r="F132" s="163"/>
+      <c r="G132" s="163"/>
+      <c r="H132" s="163"/>
+      <c r="I132" s="163"/>
+      <c r="J132" s="163"/>
+      <c r="K132" s="163"/>
       <c r="L132" s="68"/>
     </row>
     <row r="133" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B133" s="154" t="s">
+      <c r="B133" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="C133" s="154"/>
-      <c r="D133" s="156" t="str">
+      <c r="C133" s="146"/>
+      <c r="D133" s="164" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E133" s="155"/>
-      <c r="F133" s="155"/>
-      <c r="G133" s="155"/>
-      <c r="H133" s="155"/>
-      <c r="I133" s="155"/>
-      <c r="J133" s="155"/>
-      <c r="K133" s="155"/>
+      <c r="E133" s="163"/>
+      <c r="F133" s="163"/>
+      <c r="G133" s="163"/>
+      <c r="H133" s="163"/>
+      <c r="I133" s="163"/>
+      <c r="J133" s="163"/>
+      <c r="K133" s="163"/>
       <c r="L133" s="68"/>
     </row>
     <row r="134" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="154" t="s">
+      <c r="B134" s="146" t="s">
         <v>106</v>
       </c>
-      <c r="C134" s="154"/>
-      <c r="D134" s="157" t="str">
+      <c r="C134" s="146"/>
+      <c r="D134" s="156" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="E134" s="157"/>
-      <c r="F134" s="157"/>
-      <c r="G134" s="157"/>
-      <c r="H134" s="157"/>
-      <c r="I134" s="157"/>
-      <c r="J134" s="157"/>
-      <c r="K134" s="157"/>
+      <c r="E134" s="156"/>
+      <c r="F134" s="156"/>
+      <c r="G134" s="156"/>
+      <c r="H134" s="156"/>
+      <c r="I134" s="156"/>
+      <c r="J134" s="156"/>
+      <c r="K134" s="156"/>
       <c r="L134" s="68"/>
     </row>
     <row r="135" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="158" t="s">
+      <c r="B135" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="C135" s="154"/>
-      <c r="D135" s="159" t="str">
+      <c r="C135" s="146"/>
+      <c r="D135" s="158" t="str">
         <f>記入!B41</f>
         <v>${cv.technicalcontentchinese}</v>
       </c>
-      <c r="E135" s="160"/>
-      <c r="F135" s="160"/>
-      <c r="G135" s="160"/>
-      <c r="H135" s="160"/>
-      <c r="I135" s="160"/>
-      <c r="J135" s="160"/>
-      <c r="K135" s="160"/>
+      <c r="E135" s="159"/>
+      <c r="F135" s="159"/>
+      <c r="G135" s="159"/>
+      <c r="H135" s="159"/>
+      <c r="I135" s="159"/>
+      <c r="J135" s="159"/>
+      <c r="K135" s="159"/>
       <c r="L135" s="68"/>
     </row>
     <row r="136" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="154"/>
-      <c r="C136" s="154"/>
-      <c r="D136" s="160"/>
-      <c r="E136" s="160"/>
-      <c r="F136" s="160"/>
-      <c r="G136" s="160"/>
-      <c r="H136" s="160"/>
-      <c r="I136" s="160"/>
-      <c r="J136" s="160"/>
-      <c r="K136" s="160"/>
+      <c r="B136" s="146"/>
+      <c r="C136" s="146"/>
+      <c r="D136" s="159"/>
+      <c r="E136" s="159"/>
+      <c r="F136" s="159"/>
+      <c r="G136" s="159"/>
+      <c r="H136" s="159"/>
+      <c r="I136" s="159"/>
+      <c r="J136" s="159"/>
+      <c r="K136" s="159"/>
       <c r="L136" s="68"/>
     </row>
     <row r="137" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="154"/>
-      <c r="C137" s="154"/>
-      <c r="D137" s="160"/>
-      <c r="E137" s="160"/>
-      <c r="F137" s="160"/>
-      <c r="G137" s="160"/>
-      <c r="H137" s="160"/>
-      <c r="I137" s="160"/>
-      <c r="J137" s="160"/>
-      <c r="K137" s="160"/>
+      <c r="B137" s="146"/>
+      <c r="C137" s="146"/>
+      <c r="D137" s="159"/>
+      <c r="E137" s="159"/>
+      <c r="F137" s="159"/>
+      <c r="G137" s="159"/>
+      <c r="H137" s="159"/>
+      <c r="I137" s="159"/>
+      <c r="J137" s="159"/>
+      <c r="K137" s="159"/>
       <c r="L137" s="68"/>
     </row>
     <row r="138" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="154"/>
-      <c r="C138" s="154"/>
-      <c r="D138" s="160"/>
-      <c r="E138" s="160"/>
-      <c r="F138" s="160"/>
-      <c r="G138" s="160"/>
-      <c r="H138" s="160"/>
-      <c r="I138" s="160"/>
-      <c r="J138" s="160"/>
-      <c r="K138" s="160"/>
+      <c r="B138" s="146"/>
+      <c r="C138" s="146"/>
+      <c r="D138" s="159"/>
+      <c r="E138" s="159"/>
+      <c r="F138" s="159"/>
+      <c r="G138" s="159"/>
+      <c r="H138" s="159"/>
+      <c r="I138" s="159"/>
+      <c r="J138" s="159"/>
+      <c r="K138" s="159"/>
       <c r="L138" s="67"/>
     </row>
     <row r="139" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="154"/>
-      <c r="C139" s="154"/>
-      <c r="D139" s="160"/>
-      <c r="E139" s="160"/>
-      <c r="F139" s="160"/>
-      <c r="G139" s="160"/>
-      <c r="H139" s="160"/>
-      <c r="I139" s="160"/>
-      <c r="J139" s="160"/>
-      <c r="K139" s="160"/>
+      <c r="B139" s="146"/>
+      <c r="C139" s="146"/>
+      <c r="D139" s="159"/>
+      <c r="E139" s="159"/>
+      <c r="F139" s="159"/>
+      <c r="G139" s="159"/>
+      <c r="H139" s="159"/>
+      <c r="I139" s="159"/>
+      <c r="J139" s="159"/>
+      <c r="K139" s="159"/>
       <c r="L139" s="67"/>
     </row>
     <row r="140" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="154"/>
-      <c r="C140" s="154"/>
-      <c r="D140" s="160"/>
-      <c r="E140" s="160"/>
-      <c r="F140" s="160"/>
-      <c r="G140" s="160"/>
-      <c r="H140" s="160"/>
-      <c r="I140" s="160"/>
-      <c r="J140" s="160"/>
-      <c r="K140" s="160"/>
+      <c r="B140" s="146"/>
+      <c r="C140" s="146"/>
+      <c r="D140" s="159"/>
+      <c r="E140" s="159"/>
+      <c r="F140" s="159"/>
+      <c r="G140" s="159"/>
+      <c r="H140" s="159"/>
+      <c r="I140" s="159"/>
+      <c r="J140" s="159"/>
+      <c r="K140" s="159"/>
       <c r="L140" s="68"/>
     </row>
     <row r="141" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="154"/>
-      <c r="C141" s="154"/>
-      <c r="D141" s="160"/>
-      <c r="E141" s="160"/>
-      <c r="F141" s="160"/>
-      <c r="G141" s="160"/>
-      <c r="H141" s="160"/>
-      <c r="I141" s="160"/>
-      <c r="J141" s="160"/>
-      <c r="K141" s="160"/>
+      <c r="B141" s="146"/>
+      <c r="C141" s="146"/>
+      <c r="D141" s="159"/>
+      <c r="E141" s="159"/>
+      <c r="F141" s="159"/>
+      <c r="G141" s="159"/>
+      <c r="H141" s="159"/>
+      <c r="I141" s="159"/>
+      <c r="J141" s="159"/>
+      <c r="K141" s="159"/>
       <c r="L141" s="68"/>
     </row>
     <row r="142" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="154" t="s">
+      <c r="B142" s="146" t="s">
         <v>108</v>
       </c>
-      <c r="C142" s="154"/>
-      <c r="D142" s="161" t="str">
+      <c r="C142" s="146"/>
+      <c r="D142" s="160" t="str">
         <f>記入!B52</f>
-        <v>无</v>
-      </c>
-      <c r="E142" s="162"/>
-      <c r="F142" s="162"/>
-      <c r="G142" s="162"/>
-      <c r="H142" s="162"/>
-      <c r="I142" s="162"/>
-      <c r="J142" s="162"/>
-      <c r="K142" s="163"/>
+        <v>${cv.subcontract}</v>
+      </c>
+      <c r="E142" s="161"/>
+      <c r="F142" s="161"/>
+      <c r="G142" s="161"/>
+      <c r="H142" s="161"/>
+      <c r="I142" s="161"/>
+      <c r="J142" s="161"/>
+      <c r="K142" s="162"/>
       <c r="L142" s="67"/>
     </row>
     <row r="143" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="154"/>
-      <c r="C143" s="154"/>
-      <c r="D143" s="159" t="str">
+      <c r="B143" s="146"/>
+      <c r="C143" s="146"/>
+      <c r="D143" s="158" t="str">
         <f>記入!B53</f>
         <v>再委托公司：
-①
-②
-③</v>
-      </c>
-      <c r="E143" s="160"/>
-      <c r="F143" s="160"/>
-      <c r="G143" s="160"/>
-      <c r="H143" s="160"/>
-      <c r="I143" s="160"/>
-      <c r="J143" s="160"/>
-      <c r="K143" s="160"/>
+${cv.subcontractcontent}</v>
+      </c>
+      <c r="E143" s="159"/>
+      <c r="F143" s="159"/>
+      <c r="G143" s="159"/>
+      <c r="H143" s="159"/>
+      <c r="I143" s="159"/>
+      <c r="J143" s="159"/>
+      <c r="K143" s="159"/>
       <c r="L143" s="69"/>
     </row>
     <row r="144" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="154"/>
-      <c r="C144" s="154"/>
-      <c r="D144" s="160"/>
-      <c r="E144" s="160"/>
-      <c r="F144" s="160"/>
-      <c r="G144" s="160"/>
-      <c r="H144" s="160"/>
-      <c r="I144" s="160"/>
-      <c r="J144" s="160"/>
-      <c r="K144" s="160"/>
+      <c r="B144" s="146"/>
+      <c r="C144" s="146"/>
+      <c r="D144" s="159"/>
+      <c r="E144" s="159"/>
+      <c r="F144" s="159"/>
+      <c r="G144" s="159"/>
+      <c r="H144" s="159"/>
+      <c r="I144" s="159"/>
+      <c r="J144" s="159"/>
+      <c r="K144" s="159"/>
       <c r="L144" s="69"/>
     </row>
     <row r="145" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="154"/>
-      <c r="C145" s="154"/>
-      <c r="D145" s="160"/>
-      <c r="E145" s="160"/>
-      <c r="F145" s="160"/>
-      <c r="G145" s="160"/>
-      <c r="H145" s="160"/>
-      <c r="I145" s="160"/>
-      <c r="J145" s="160"/>
-      <c r="K145" s="160"/>
+      <c r="B145" s="146"/>
+      <c r="C145" s="146"/>
+      <c r="D145" s="159"/>
+      <c r="E145" s="159"/>
+      <c r="F145" s="159"/>
+      <c r="G145" s="159"/>
+      <c r="H145" s="159"/>
+      <c r="I145" s="159"/>
+      <c r="J145" s="159"/>
+      <c r="K145" s="159"/>
       <c r="L145" s="69"/>
     </row>
     <row r="146" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="154"/>
-      <c r="C146" s="154"/>
-      <c r="D146" s="160"/>
-      <c r="E146" s="160"/>
-      <c r="F146" s="160"/>
-      <c r="G146" s="160"/>
-      <c r="H146" s="160"/>
-      <c r="I146" s="160"/>
-      <c r="J146" s="160"/>
-      <c r="K146" s="160"/>
+      <c r="B146" s="146"/>
+      <c r="C146" s="146"/>
+      <c r="D146" s="159"/>
+      <c r="E146" s="159"/>
+      <c r="F146" s="159"/>
+      <c r="G146" s="159"/>
+      <c r="H146" s="159"/>
+      <c r="I146" s="159"/>
+      <c r="J146" s="159"/>
+      <c r="K146" s="159"/>
       <c r="L146" s="69"/>
     </row>
     <row r="147" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7027,222 +7034,222 @@
       <c r="L148" s="68"/>
     </row>
     <row r="149" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="154" t="s">
+      <c r="B149" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="C149" s="154"/>
-      <c r="D149" s="164" t="s">
+      <c r="C149" s="146"/>
+      <c r="D149" s="147" t="s">
         <v>110</v>
       </c>
-      <c r="E149" s="164"/>
-      <c r="F149" s="164" t="s">
+      <c r="E149" s="147"/>
+      <c r="F149" s="147" t="s">
         <v>111</v>
       </c>
-      <c r="G149" s="164"/>
-      <c r="H149" s="164" t="s">
+      <c r="G149" s="147"/>
+      <c r="H149" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="I149" s="164"/>
-      <c r="J149" s="164" t="s">
+      <c r="I149" s="147"/>
+      <c r="J149" s="147" t="s">
         <v>113</v>
       </c>
-      <c r="K149" s="164"/>
+      <c r="K149" s="147"/>
       <c r="L149" s="68"/>
     </row>
     <row r="150" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="154" t="s">
+      <c r="B150" s="146" t="s">
         <v>114</v>
       </c>
-      <c r="C150" s="154"/>
-      <c r="D150" s="165" t="str">
+      <c r="C150" s="146"/>
+      <c r="D150" s="155" t="str">
         <f>記入!B29</f>
         <v>${r.deliverydate}</v>
       </c>
-      <c r="E150" s="164"/>
-      <c r="F150" s="165" t="e">
+      <c r="E150" s="147"/>
+      <c r="F150" s="155" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G150" s="164"/>
-      <c r="H150" s="165" t="e">
+      <c r="G150" s="147"/>
+      <c r="H150" s="155" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I150" s="164"/>
-      <c r="J150" s="165" t="e">
+      <c r="I150" s="147"/>
+      <c r="J150" s="155" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K150" s="164"/>
+      <c r="K150" s="147"/>
       <c r="L150" s="69"/>
     </row>
     <row r="151" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="154" t="s">
+      <c r="B151" s="146" t="s">
         <v>115</v>
       </c>
-      <c r="C151" s="154"/>
-      <c r="D151" s="165" t="str">
+      <c r="C151" s="146"/>
+      <c r="D151" s="155" t="str">
         <f>記入!C29</f>
         <v>${r.completiondate}</v>
       </c>
-      <c r="E151" s="164"/>
-      <c r="F151" s="165" t="e">
+      <c r="E151" s="147"/>
+      <c r="F151" s="155" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G151" s="164"/>
-      <c r="H151" s="165" t="e">
+      <c r="G151" s="147"/>
+      <c r="H151" s="155" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I151" s="164"/>
-      <c r="J151" s="165" t="e">
+      <c r="I151" s="147"/>
+      <c r="J151" s="155" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K151" s="164"/>
+      <c r="K151" s="147"/>
       <c r="L151" s="67"/>
     </row>
     <row r="152" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="154" t="s">
+      <c r="B152" s="146" t="s">
         <v>116</v>
       </c>
-      <c r="C152" s="154"/>
-      <c r="D152" s="166" t="str">
+      <c r="C152" s="146"/>
+      <c r="D152" s="154" t="str">
         <f>記入!D29</f>
         <v>${r.claimdate}</v>
       </c>
-      <c r="E152" s="167"/>
-      <c r="F152" s="165" t="e">
+      <c r="E152" s="151"/>
+      <c r="F152" s="155" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G152" s="164"/>
-      <c r="H152" s="165" t="e">
+      <c r="G152" s="147"/>
+      <c r="H152" s="155" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I152" s="164"/>
-      <c r="J152" s="165" t="e">
+      <c r="I152" s="147"/>
+      <c r="J152" s="155" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K152" s="164"/>
+      <c r="K152" s="147"/>
       <c r="L152" s="67"/>
     </row>
     <row r="153" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="154" t="s">
+      <c r="B153" s="146" t="s">
         <v>117</v>
       </c>
-      <c r="C153" s="154"/>
-      <c r="D153" s="166" t="str">
+      <c r="C153" s="146"/>
+      <c r="D153" s="154" t="str">
         <f>記入!E29</f>
         <v>${r.supportdate}</v>
       </c>
-      <c r="E153" s="167"/>
-      <c r="F153" s="165" t="e">
+      <c r="E153" s="151"/>
+      <c r="F153" s="155" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G153" s="164"/>
-      <c r="H153" s="165" t="e">
+      <c r="G153" s="147"/>
+      <c r="H153" s="155" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I153" s="164"/>
-      <c r="J153" s="165" t="e">
+      <c r="I153" s="147"/>
+      <c r="J153" s="155" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K153" s="164"/>
+      <c r="K153" s="147"/>
       <c r="L153" s="67"/>
     </row>
     <row r="154" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="154" t="s">
+      <c r="B154" s="146" t="s">
         <v>118</v>
       </c>
-      <c r="C154" s="154"/>
-      <c r="D154" s="168" t="str">
+      <c r="C154" s="146"/>
+      <c r="D154" s="152" t="str">
         <f>記入!F29</f>
         <v>${r.claimamount}</v>
       </c>
-      <c r="E154" s="167"/>
-      <c r="F154" s="169" t="e">
+      <c r="E154" s="151"/>
+      <c r="F154" s="153" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G154" s="164"/>
-      <c r="H154" s="169" t="e">
+      <c r="G154" s="147"/>
+      <c r="H154" s="153" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I154" s="164"/>
-      <c r="J154" s="169" t="e">
+      <c r="I154" s="147"/>
+      <c r="J154" s="153" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K154" s="164"/>
+      <c r="K154" s="147"/>
       <c r="L154" s="67"/>
     </row>
     <row r="155" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="154" t="s">
+      <c r="B155" s="146" t="s">
         <v>119</v>
       </c>
-      <c r="C155" s="154"/>
-      <c r="D155" s="167" t="str">
+      <c r="C155" s="146"/>
+      <c r="D155" s="151" t="str">
         <f>記入!B12&amp;(-1)</f>
         <v>${cv.contractnumber}-1</v>
       </c>
-      <c r="E155" s="167"/>
-      <c r="F155" s="164" t="str">
+      <c r="E155" s="151"/>
+      <c r="F155" s="147" t="str">
         <f>記入!B12&amp;(-2)</f>
         <v>${cv.contractnumber}-2</v>
       </c>
-      <c r="G155" s="164"/>
-      <c r="H155" s="164" t="str">
+      <c r="G155" s="147"/>
+      <c r="H155" s="147" t="str">
         <f>記入!B12&amp;(-3)</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="I155" s="164"/>
-      <c r="J155" s="164" t="str">
+      <c r="I155" s="147"/>
+      <c r="J155" s="147" t="str">
         <f>記入!B12&amp;(-4)</f>
         <v>${cv.contractnumber}-4</v>
       </c>
-      <c r="K155" s="164"/>
+      <c r="K155" s="147"/>
       <c r="L155" s="67"/>
     </row>
     <row r="156" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="154" t="s">
+      <c r="B156" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="C156" s="154"/>
-      <c r="D156" s="164" t="s">
+      <c r="C156" s="146"/>
+      <c r="D156" s="147" t="s">
         <v>121</v>
       </c>
-      <c r="E156" s="164"/>
-      <c r="F156" s="164"/>
-      <c r="G156" s="164"/>
-      <c r="H156" s="164"/>
-      <c r="I156" s="164"/>
-      <c r="J156" s="164"/>
-      <c r="K156" s="164"/>
+      <c r="E156" s="147"/>
+      <c r="F156" s="147"/>
+      <c r="G156" s="147"/>
+      <c r="H156" s="147"/>
+      <c r="I156" s="147"/>
+      <c r="J156" s="147"/>
+      <c r="K156" s="147"/>
       <c r="L156" s="68"/>
     </row>
     <row r="157" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="154" t="s">
+      <c r="B157" s="146" t="s">
         <v>120</v>
       </c>
-      <c r="C157" s="154"/>
-      <c r="D157" s="164" t="s">
+      <c r="C157" s="146"/>
+      <c r="D157" s="147" t="s">
         <v>122</v>
       </c>
-      <c r="E157" s="164"/>
-      <c r="F157" s="164"/>
-      <c r="G157" s="164"/>
-      <c r="H157" s="164"/>
-      <c r="I157" s="164"/>
-      <c r="J157" s="164"/>
-      <c r="K157" s="164"/>
+      <c r="E157" s="147"/>
+      <c r="F157" s="147"/>
+      <c r="G157" s="147"/>
+      <c r="H157" s="147"/>
+      <c r="I157" s="147"/>
+      <c r="J157" s="147"/>
+      <c r="K157" s="147"/>
       <c r="L157" s="68"/>
     </row>
     <row r="158" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7274,60 +7281,60 @@
       <c r="L159" s="69"/>
     </row>
     <row r="160" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="170" t="s">
+      <c r="B160" s="148" t="s">
         <v>124</v>
       </c>
-      <c r="C160" s="170"/>
-      <c r="D160" s="170">
+      <c r="C160" s="148"/>
+      <c r="D160" s="148" t="str">
         <f>記入!B60</f>
-        <v>0</v>
-      </c>
-      <c r="E160" s="170"/>
-      <c r="F160" s="170"/>
-      <c r="G160" s="170"/>
-      <c r="H160" s="170"/>
-      <c r="I160" s="170"/>
-      <c r="J160" s="170"/>
-      <c r="K160" s="170"/>
+        <v>${cv.othertermschinese}</v>
+      </c>
+      <c r="E160" s="148"/>
+      <c r="F160" s="148"/>
+      <c r="G160" s="148"/>
+      <c r="H160" s="148"/>
+      <c r="I160" s="148"/>
+      <c r="J160" s="148"/>
+      <c r="K160" s="148"/>
       <c r="L160" s="69"/>
     </row>
     <row r="161" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="171"/>
-      <c r="C161" s="171"/>
-      <c r="D161" s="171"/>
-      <c r="E161" s="171"/>
-      <c r="F161" s="171"/>
-      <c r="G161" s="171"/>
-      <c r="H161" s="171"/>
-      <c r="I161" s="171"/>
-      <c r="J161" s="171"/>
-      <c r="K161" s="171"/>
+      <c r="B161" s="149"/>
+      <c r="C161" s="149"/>
+      <c r="D161" s="149"/>
+      <c r="E161" s="149"/>
+      <c r="F161" s="149"/>
+      <c r="G161" s="149"/>
+      <c r="H161" s="149"/>
+      <c r="I161" s="149"/>
+      <c r="J161" s="149"/>
+      <c r="K161" s="149"/>
       <c r="L161" s="69"/>
     </row>
     <row r="162" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="171"/>
-      <c r="C162" s="171"/>
-      <c r="D162" s="171"/>
-      <c r="E162" s="171"/>
-      <c r="F162" s="171"/>
-      <c r="G162" s="171"/>
-      <c r="H162" s="171"/>
-      <c r="I162" s="171"/>
-      <c r="J162" s="171"/>
-      <c r="K162" s="171"/>
+      <c r="B162" s="149"/>
+      <c r="C162" s="149"/>
+      <c r="D162" s="149"/>
+      <c r="E162" s="149"/>
+      <c r="F162" s="149"/>
+      <c r="G162" s="149"/>
+      <c r="H162" s="149"/>
+      <c r="I162" s="149"/>
+      <c r="J162" s="149"/>
+      <c r="K162" s="149"/>
       <c r="L162" s="67"/>
     </row>
     <row r="163" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="172"/>
-      <c r="C163" s="172"/>
-      <c r="D163" s="172"/>
-      <c r="E163" s="172"/>
-      <c r="F163" s="172"/>
-      <c r="G163" s="172"/>
-      <c r="H163" s="172"/>
-      <c r="I163" s="172"/>
-      <c r="J163" s="172"/>
-      <c r="K163" s="172"/>
+      <c r="B163" s="150"/>
+      <c r="C163" s="150"/>
+      <c r="D163" s="150"/>
+      <c r="E163" s="150"/>
+      <c r="F163" s="150"/>
+      <c r="G163" s="150"/>
+      <c r="H163" s="150"/>
+      <c r="I163" s="150"/>
+      <c r="J163" s="150"/>
+      <c r="K163" s="150"/>
       <c r="L163" s="69"/>
     </row>
     <row r="164" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7558,47 +7565,19 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:K156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D157:K157"/>
-    <mergeCell ref="B160:C163"/>
-    <mergeCell ref="D160:K163"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="B60:L71"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B11:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="D131:K131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="D132:K132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:K133"/>
     <mergeCell ref="B134:C134"/>
     <mergeCell ref="D134:K134"/>
     <mergeCell ref="B135:C141"/>
@@ -7606,19 +7585,47 @@
     <mergeCell ref="B142:C146"/>
     <mergeCell ref="D142:K142"/>
     <mergeCell ref="D143:K146"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="D131:K131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="D132:K132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="D133:K133"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="B60:L71"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B11:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:K156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:K157"/>
+    <mergeCell ref="B160:C163"/>
+    <mergeCell ref="D160:K163"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\newparkcloudNew\controller\src\main\resources\jxls_templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570"/>
+    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -22,7 +17,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'受託技術個別契約書-cn'!$B$2:$L$175</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'受託技術個別契約書-jp'!$B$2:$L$178</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -32,7 +27,7 @@
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0" shapeId="0">
+    <comment ref="A29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +65,7 @@
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +89,7 @@
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -441,9 +436,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>中華人民共和国大連市高新技術産業園区軟件園東路23号15棟401室</t>
-  </si>
-  <si>
     <t>総経理　</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -478,10 +470,6 @@
   <si>
     <t>松下电器软件开发（大连）有限公司</t>
     <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>中华人民共和国辽宁省大连市高新技术产业园区软件园东路23号15号楼401室</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>松下电器软件开发（大连）有限公司</t>
@@ -1006,6 +994,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
+        <charset val="134"/>
       </rPr>
       <t>委托费及支付方法</t>
     </r>
@@ -1360,6 +1349,14 @@
   </si>
   <si>
     <t>${cv.othertermschinese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中国遼寧省大連市高新技術産業園区黄浦路900号30号楼&lt;116085&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中国辽宁省大连市高新技术产业园区黄浦路900号30号楼&lt;116085&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1377,14 +1374,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1392,7 +1389,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1400,7 +1397,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1453,7 +1450,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1500,11 +1497,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1512,12 +1511,14 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1544,16 +1545,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2015,6 +2019,33 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2120,48 +2151,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2171,61 +2226,76 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2236,72 +2306,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2326,7 +2330,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2368,7 +2372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2403,7 +2407,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2615,7 +2619,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -2632,28 +2636,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="G1" s="113" t="s">
+      <c r="B1" s="77"/>
+      <c r="G1" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="114"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="116"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="40" t="s">
@@ -2663,21 +2667,21 @@
       <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="115"/>
-      <c r="H3" s="116"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="39" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="115"/>
-      <c r="H4" s="116"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="39" t="s">
@@ -2687,34 +2691,34 @@
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="115"/>
-      <c r="H5" s="116"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="41" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="115"/>
-      <c r="H6" s="116"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="116"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="39" t="s">
@@ -2724,60 +2728,60 @@
       <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="115"/>
-      <c r="H8" s="116"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="81"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="40" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="115"/>
-      <c r="H9" s="116"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="39" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="115"/>
-      <c r="H10" s="116"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="115"/>
-      <c r="H11" s="116"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="81"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="39" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="115"/>
-      <c r="H12" s="116"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="39" t="s">
@@ -2787,34 +2791,34 @@
       <c r="C13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="115"/>
-      <c r="H13" s="116"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="81"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="115"/>
-      <c r="H14" s="116"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="115"/>
-      <c r="H15" s="116"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="39" t="s">
@@ -2824,8 +2828,8 @@
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="115"/>
-      <c r="H16" s="116"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="39" t="s">
@@ -2835,8 +2839,8 @@
       <c r="C17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="115"/>
-      <c r="H17" s="116"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="81"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="39" t="s">
@@ -2846,34 +2850,34 @@
       <c r="C18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="115"/>
-      <c r="H18" s="116"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="39" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="115"/>
-      <c r="H19" s="116"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="115"/>
-      <c r="H20" s="116"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="81"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="39" t="s">
@@ -2883,8 +2887,8 @@
       <c r="C21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="115"/>
-      <c r="H21" s="116"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="81"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="39" t="s">
@@ -2894,8 +2898,8 @@
       <c r="C22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="115"/>
-      <c r="H22" s="116"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="81"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="40" t="s">
@@ -2905,8 +2909,8 @@
       <c r="C23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="115"/>
-      <c r="H23" s="116"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A24" s="40" t="s">
@@ -2916,8 +2920,8 @@
       <c r="C24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="115"/>
-      <c r="H24" s="116"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A25" s="40" t="s">
@@ -2929,8 +2933,8 @@
       <c r="C25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="115"/>
-      <c r="H25" s="116"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="81"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="40" t="s">
@@ -2942,14 +2946,14 @@
       <c r="C26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="115"/>
-      <c r="H26" s="116"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81"/>
     </row>
     <row r="27" spans="1:8" ht="1.5" hidden="1" customHeight="1">
       <c r="A27" s="42"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="116"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="81"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="43" t="s">
@@ -2970,8 +2974,8 @@
       <c r="F28" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="115"/>
-      <c r="H28" s="116"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="81"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="44" t="str">
@@ -2979,22 +2983,22 @@
         <v>第一回</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C29" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="F29" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" s="115"/>
-      <c r="H29" s="116"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="81"/>
     </row>
     <row r="30" spans="1:8" ht="6.75" customHeight="1">
       <c r="A30" s="2"/>
@@ -3006,306 +3010,300 @@
     </row>
     <row r="32" spans="1:8" s="3" customFormat="1" ht="13.5">
       <c r="A32" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B32" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="83"/>
+      <c r="E32" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="117" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="118"/>
-      <c r="E32" s="119" t="s">
-        <v>150</v>
-      </c>
-      <c r="F32" s="120"/>
+      <c r="F32" s="85"/>
     </row>
     <row r="33" spans="1:6" ht="13.5">
       <c r="A33" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="83"/>
+      <c r="E33" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="C33" s="117" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="118"/>
-      <c r="E33" s="119" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" s="120"/>
+      <c r="F33" s="85"/>
     </row>
     <row r="34" spans="1:6" ht="13.5">
       <c r="A34" s="61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="97"/>
+    </row>
+    <row r="36" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A36" s="91"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="100"/>
+    </row>
+    <row r="37" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A37" s="91"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="100"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A38" s="91"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="100"/>
+    </row>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A39" s="91"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="100"/>
+    </row>
+    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A40" s="92"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="103"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="118" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+    </row>
+    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A42" s="118"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="117"/>
+    </row>
+    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A43" s="118"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+    </row>
+    <row r="44" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A44" s="118"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+    </row>
+    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A45" s="118"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+    </row>
+    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A46" s="118"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+    </row>
+    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A47" s="90" t="s">
+        <v>153</v>
+      </c>
+      <c r="B47" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="115"/>
+    </row>
+    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A48" s="93"/>
+      <c r="B48" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="106"/>
+    </row>
+    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A49" s="93"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="108"/>
+      <c r="D49" s="108"/>
+      <c r="E49" s="108"/>
+      <c r="F49" s="109"/>
+    </row>
+    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A50" s="93"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="109"/>
+    </row>
+    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A51" s="94"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="112"/>
+    </row>
+    <row r="52" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A52" s="119" t="s">
         <v>126</v>
       </c>
-      <c r="B35" s="86" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="88"/>
-    </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A36" s="82"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="91"/>
-    </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A37" s="82"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="91"/>
-    </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A38" s="82"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="91"/>
-    </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="82"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="91"/>
-    </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A40" s="83"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="94"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="109" t="s">
+      <c r="B52" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="115"/>
+    </row>
+    <row r="53" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A53" s="119"/>
+      <c r="B53" s="120" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+    </row>
+    <row r="54" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A54" s="119"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+    </row>
+    <row r="55" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A55" s="119"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="89"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="119"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="107" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
-      <c r="F41" s="108"/>
-    </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A42" s="109"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="108"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
-      <c r="F42" s="108"/>
-    </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A43" s="109"/>
-      <c r="B43" s="108"/>
-      <c r="C43" s="108"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="108"/>
-    </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A44" s="109"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="108"/>
-      <c r="D44" s="108"/>
-      <c r="E44" s="108"/>
-      <c r="F44" s="108"/>
-    </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A45" s="109"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108"/>
-    </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A46" s="109"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108"/>
-    </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A47" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="B47" s="104" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="106"/>
-    </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A48" s="84"/>
-      <c r="B48" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="97"/>
-    </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A49" s="84"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="100"/>
-    </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A50" s="84"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
-      <c r="F50" s="100"/>
-    </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A51" s="85"/>
-      <c r="B51" s="101"/>
-      <c r="C51" s="102"/>
-      <c r="D51" s="102"/>
-      <c r="E51" s="102"/>
-      <c r="F51" s="103"/>
-    </row>
-    <row r="52" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A52" s="110" t="s">
+      <c r="B57" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="86"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="89"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="86"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="89"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="86" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="104" t="s">
-        <v>158</v>
-      </c>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="106"/>
-    </row>
-    <row r="53" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A53" s="110"/>
-      <c r="B53" s="111" t="s">
+      <c r="B60" s="88" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-    </row>
-    <row r="54" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A54" s="110"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-    </row>
-    <row r="55" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A55" s="110"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="110"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="B57" s="79" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="77"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="77"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="B60" s="79" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="78"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="89"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="78"/>
-      <c r="B62" s="80"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
-      <c r="F62" s="80"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="89"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G1:H29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
     <mergeCell ref="A57:A59"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="B57:F59"/>
@@ -3320,6 +3318,12 @@
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="B52:F52"/>
     <mergeCell ref="B53:F56"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:H29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -3341,7 +3345,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L190"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A79" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3356,18 +3362,18 @@
       <c r="J2" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="136" t="str">
+      <c r="K2" s="121" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="136"/>
+      <c r="L2" s="121"/>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="F3" s="141" t="s">
+      <c r="F3" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="20" t="s">
@@ -3424,16 +3430,16 @@
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
       <c r="B8" s="50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="145" t="str">
+      <c r="D8" s="126" t="str">
         <f>記入!B34</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E8" s="145"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G8" s="49"/>
       <c r="H8" s="49"/>
@@ -3444,7 +3450,7 @@
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="B9" s="50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
@@ -3471,617 +3477,617 @@
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="142" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="142"/>
+      <c r="B11" s="123" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="142"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="142"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="123"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="142"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="142"/>
+      <c r="B13" s="123"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="142"/>
+      <c r="B14" s="123"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="142"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="142"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="142"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="123"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="123"/>
+      <c r="L16" s="123"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="142"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="123"/>
+      <c r="L17" s="123"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="142"/>
+      <c r="B18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="123"/>
+      <c r="L18" s="123"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="142"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="142"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="142"/>
+      <c r="B19" s="123"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="123"/>
+      <c r="L19" s="123"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
+      <c r="B20" s="123"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="123"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="123"/>
+      <c r="G20" s="123"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="123"/>
+      <c r="L20" s="123"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="142"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="123"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="142"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="123"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="142"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="142"/>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="142"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="142"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="123"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="142"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="142"/>
+      <c r="B25" s="123"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="123"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="123"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="142"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="142"/>
+      <c r="B26" s="123"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="142"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="142"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="123"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="123"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="142"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="142"/>
-      <c r="L28" s="142"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="142"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="142"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="142"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="142"/>
-      <c r="L30" s="142"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="123"/>
+      <c r="F30" s="123"/>
+      <c r="G30" s="123"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="123"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="142"/>
-      <c r="C31" s="142"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="142"/>
-      <c r="J31" s="142"/>
-      <c r="K31" s="142"/>
-      <c r="L31" s="142"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="123"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="142"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="142"/>
-      <c r="J32" s="142"/>
-      <c r="K32" s="142"/>
-      <c r="L32" s="142"/>
+      <c r="B32" s="123"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="123"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="123"/>
+      <c r="L32" s="123"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="142"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="142"/>
-      <c r="L33" s="142"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="123"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="142"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="142"/>
-      <c r="J34" s="142"/>
-      <c r="K34" s="142"/>
-      <c r="L34" s="142"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
+      <c r="K34" s="123"/>
+      <c r="L34" s="123"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="142"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="142"/>
-      <c r="L35" s="142"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="123"/>
+      <c r="D35" s="123"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="123"/>
+      <c r="G35" s="123"/>
+      <c r="H35" s="123"/>
+      <c r="I35" s="123"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="123"/>
+      <c r="L35" s="123"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="142"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="142"/>
-      <c r="J36" s="142"/>
-      <c r="K36" s="142"/>
-      <c r="L36" s="142"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="123"/>
+      <c r="D36" s="123"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="123"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="123"/>
+      <c r="L36" s="123"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="142"/>
-      <c r="C37" s="142"/>
-      <c r="D37" s="142"/>
-      <c r="E37" s="142"/>
-      <c r="F37" s="142"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="142"/>
-      <c r="J37" s="142"/>
-      <c r="K37" s="142"/>
-      <c r="L37" s="142"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="142"/>
-      <c r="C38" s="142"/>
-      <c r="D38" s="142"/>
-      <c r="E38" s="142"/>
-      <c r="F38" s="142"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="142"/>
-      <c r="I38" s="142"/>
-      <c r="J38" s="142"/>
-      <c r="K38" s="142"/>
-      <c r="L38" s="142"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="123"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
+      <c r="J38" s="123"/>
+      <c r="K38" s="123"/>
+      <c r="L38" s="123"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="142"/>
-      <c r="C39" s="142"/>
-      <c r="D39" s="142"/>
-      <c r="E39" s="142"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="142"/>
-      <c r="J39" s="142"/>
-      <c r="K39" s="142"/>
-      <c r="L39" s="142"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="123"/>
+      <c r="D39" s="123"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
+      <c r="G39" s="123"/>
+      <c r="H39" s="123"/>
+      <c r="I39" s="123"/>
+      <c r="J39" s="123"/>
+      <c r="K39" s="123"/>
+      <c r="L39" s="123"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="142"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="142"/>
-      <c r="J40" s="142"/>
-      <c r="K40" s="142"/>
-      <c r="L40" s="142"/>
+      <c r="B40" s="123"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="123"/>
+      <c r="E40" s="123"/>
+      <c r="F40" s="123"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="123"/>
+      <c r="I40" s="123"/>
+      <c r="J40" s="123"/>
+      <c r="K40" s="123"/>
+      <c r="L40" s="123"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="142"/>
-      <c r="C41" s="142"/>
-      <c r="D41" s="142"/>
-      <c r="E41" s="142"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="142"/>
-      <c r="J41" s="142"/>
-      <c r="K41" s="142"/>
-      <c r="L41" s="142"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="123"/>
+      <c r="I41" s="123"/>
+      <c r="J41" s="123"/>
+      <c r="K41" s="123"/>
+      <c r="L41" s="123"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="142"/>
-      <c r="C42" s="142"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="142"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="142"/>
-      <c r="H42" s="142"/>
-      <c r="I42" s="142"/>
-      <c r="J42" s="142"/>
-      <c r="K42" s="142"/>
-      <c r="L42" s="142"/>
+      <c r="B42" s="123"/>
+      <c r="C42" s="123"/>
+      <c r="D42" s="123"/>
+      <c r="E42" s="123"/>
+      <c r="F42" s="123"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="123"/>
+      <c r="J42" s="123"/>
+      <c r="K42" s="123"/>
+      <c r="L42" s="123"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="142"/>
-      <c r="C43" s="142"/>
-      <c r="D43" s="142"/>
-      <c r="E43" s="142"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="142"/>
-      <c r="K43" s="142"/>
-      <c r="L43" s="142"/>
+      <c r="B43" s="123"/>
+      <c r="C43" s="123"/>
+      <c r="D43" s="123"/>
+      <c r="E43" s="123"/>
+      <c r="F43" s="123"/>
+      <c r="G43" s="123"/>
+      <c r="H43" s="123"/>
+      <c r="I43" s="123"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="123"/>
+      <c r="L43" s="123"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="142"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="142"/>
-      <c r="I44" s="142"/>
-      <c r="J44" s="142"/>
-      <c r="K44" s="142"/>
-      <c r="L44" s="142"/>
+      <c r="B44" s="123"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="123"/>
+      <c r="F44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="123"/>
+      <c r="J44" s="123"/>
+      <c r="K44" s="123"/>
+      <c r="L44" s="123"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="142"/>
-      <c r="C45" s="142"/>
-      <c r="D45" s="142"/>
-      <c r="E45" s="142"/>
-      <c r="F45" s="142"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="142"/>
-      <c r="I45" s="142"/>
-      <c r="J45" s="142"/>
-      <c r="K45" s="142"/>
-      <c r="L45" s="142"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
+      <c r="J45" s="123"/>
+      <c r="K45" s="123"/>
+      <c r="L45" s="123"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="142"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="142"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="142"/>
-      <c r="I46" s="142"/>
-      <c r="J46" s="142"/>
-      <c r="K46" s="142"/>
-      <c r="L46" s="142"/>
+      <c r="B46" s="123"/>
+      <c r="C46" s="123"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="123"/>
+      <c r="F46" s="123"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="123"/>
+      <c r="I46" s="123"/>
+      <c r="J46" s="123"/>
+      <c r="K46" s="123"/>
+      <c r="L46" s="123"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="142"/>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="142"/>
-      <c r="J47" s="142"/>
-      <c r="K47" s="142"/>
-      <c r="L47" s="142"/>
+      <c r="B47" s="123"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="123"/>
+      <c r="F47" s="123"/>
+      <c r="G47" s="123"/>
+      <c r="H47" s="123"/>
+      <c r="I47" s="123"/>
+      <c r="J47" s="123"/>
+      <c r="K47" s="123"/>
+      <c r="L47" s="123"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="142"/>
-      <c r="C48" s="142"/>
-      <c r="D48" s="142"/>
-      <c r="E48" s="142"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="142"/>
-      <c r="I48" s="142"/>
-      <c r="J48" s="142"/>
-      <c r="K48" s="142"/>
-      <c r="L48" s="142"/>
+      <c r="B48" s="123"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="123"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="123"/>
+      <c r="J48" s="123"/>
+      <c r="K48" s="123"/>
+      <c r="L48" s="123"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="142"/>
-      <c r="C49" s="142"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="142"/>
-      <c r="F49" s="142"/>
-      <c r="G49" s="142"/>
-      <c r="H49" s="142"/>
-      <c r="I49" s="142"/>
-      <c r="J49" s="142"/>
-      <c r="K49" s="142"/>
-      <c r="L49" s="142"/>
+      <c r="B49" s="123"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="123"/>
+      <c r="I49" s="123"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="123"/>
+      <c r="L49" s="123"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="142"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="142"/>
-      <c r="E50" s="142"/>
-      <c r="F50" s="142"/>
-      <c r="G50" s="142"/>
-      <c r="H50" s="142"/>
-      <c r="I50" s="142"/>
-      <c r="J50" s="142"/>
-      <c r="K50" s="142"/>
-      <c r="L50" s="142"/>
+      <c r="B50" s="123"/>
+      <c r="C50" s="123"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="123"/>
+      <c r="F50" s="123"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="123"/>
+      <c r="I50" s="123"/>
+      <c r="J50" s="123"/>
+      <c r="K50" s="123"/>
+      <c r="L50" s="123"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="142"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="142"/>
-      <c r="I51" s="142"/>
-      <c r="J51" s="142"/>
-      <c r="K51" s="142"/>
-      <c r="L51" s="142"/>
+      <c r="B51" s="123"/>
+      <c r="C51" s="123"/>
+      <c r="D51" s="123"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="123"/>
+      <c r="G51" s="123"/>
+      <c r="H51" s="123"/>
+      <c r="I51" s="123"/>
+      <c r="J51" s="123"/>
+      <c r="K51" s="123"/>
+      <c r="L51" s="123"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="142"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="142"/>
-      <c r="J52" s="142"/>
-      <c r="K52" s="142"/>
-      <c r="L52" s="142"/>
+      <c r="B52" s="123"/>
+      <c r="C52" s="123"/>
+      <c r="D52" s="123"/>
+      <c r="E52" s="123"/>
+      <c r="F52" s="123"/>
+      <c r="G52" s="123"/>
+      <c r="H52" s="123"/>
+      <c r="I52" s="123"/>
+      <c r="J52" s="123"/>
+      <c r="K52" s="123"/>
+      <c r="L52" s="123"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="142"/>
-      <c r="C53" s="142"/>
-      <c r="D53" s="142"/>
-      <c r="E53" s="142"/>
-      <c r="F53" s="142"/>
-      <c r="G53" s="142"/>
-      <c r="H53" s="142"/>
-      <c r="I53" s="142"/>
-      <c r="J53" s="142"/>
-      <c r="K53" s="142"/>
-      <c r="L53" s="142"/>
+      <c r="B53" s="123"/>
+      <c r="C53" s="123"/>
+      <c r="D53" s="123"/>
+      <c r="E53" s="123"/>
+      <c r="F53" s="123"/>
+      <c r="G53" s="123"/>
+      <c r="H53" s="123"/>
+      <c r="I53" s="123"/>
+      <c r="J53" s="123"/>
+      <c r="K53" s="123"/>
+      <c r="L53" s="123"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="142"/>
-      <c r="C54" s="142"/>
-      <c r="D54" s="142"/>
-      <c r="E54" s="142"/>
-      <c r="F54" s="142"/>
-      <c r="G54" s="142"/>
-      <c r="H54" s="142"/>
-      <c r="I54" s="142"/>
-      <c r="J54" s="142"/>
-      <c r="K54" s="142"/>
-      <c r="L54" s="142"/>
+      <c r="B54" s="123"/>
+      <c r="C54" s="123"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="123"/>
+      <c r="F54" s="123"/>
+      <c r="G54" s="123"/>
+      <c r="H54" s="123"/>
+      <c r="I54" s="123"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="123"/>
+      <c r="L54" s="123"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="142"/>
-      <c r="C55" s="142"/>
-      <c r="D55" s="142"/>
-      <c r="E55" s="142"/>
-      <c r="F55" s="142"/>
-      <c r="G55" s="142"/>
-      <c r="H55" s="142"/>
-      <c r="I55" s="142"/>
-      <c r="J55" s="142"/>
-      <c r="K55" s="142"/>
-      <c r="L55" s="142"/>
+      <c r="B55" s="123"/>
+      <c r="C55" s="123"/>
+      <c r="D55" s="123"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="123"/>
+      <c r="H55" s="123"/>
+      <c r="I55" s="123"/>
+      <c r="J55" s="123"/>
+      <c r="K55" s="123"/>
+      <c r="L55" s="123"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="142"/>
-      <c r="C56" s="142"/>
-      <c r="D56" s="142"/>
-      <c r="E56" s="142"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="142"/>
-      <c r="H56" s="142"/>
-      <c r="I56" s="142"/>
-      <c r="J56" s="142"/>
-      <c r="K56" s="142"/>
-      <c r="L56" s="142"/>
+      <c r="B56" s="123"/>
+      <c r="C56" s="123"/>
+      <c r="D56" s="123"/>
+      <c r="E56" s="123"/>
+      <c r="F56" s="123"/>
+      <c r="G56" s="123"/>
+      <c r="H56" s="123"/>
+      <c r="I56" s="123"/>
+      <c r="J56" s="123"/>
+      <c r="K56" s="123"/>
+      <c r="L56" s="123"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="142"/>
-      <c r="C57" s="142"/>
-      <c r="D57" s="142"/>
-      <c r="E57" s="142"/>
-      <c r="F57" s="142"/>
-      <c r="G57" s="142"/>
-      <c r="H57" s="142"/>
-      <c r="I57" s="142"/>
-      <c r="J57" s="142"/>
-      <c r="K57" s="142"/>
-      <c r="L57" s="142"/>
+      <c r="B57" s="123"/>
+      <c r="C57" s="123"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="123"/>
+      <c r="F57" s="123"/>
+      <c r="G57" s="123"/>
+      <c r="H57" s="123"/>
+      <c r="I57" s="123"/>
+      <c r="J57" s="123"/>
+      <c r="K57" s="123"/>
+      <c r="L57" s="123"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
       <c r="B58" s="23"/>
@@ -4100,176 +4106,176 @@
       <c r="J59" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K59" s="136" t="str">
+      <c r="K59" s="121" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L59" s="136"/>
+      <c r="L59" s="121"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="143" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="144"/>
-      <c r="D60" s="144"/>
-      <c r="E60" s="144"/>
-      <c r="F60" s="144"/>
-      <c r="G60" s="144"/>
-      <c r="H60" s="144"/>
-      <c r="I60" s="144"/>
-      <c r="J60" s="144"/>
-      <c r="K60" s="144"/>
-      <c r="L60" s="144"/>
+      <c r="B60" s="124" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="125"/>
+      <c r="D60" s="125"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="125"/>
+      <c r="J60" s="125"/>
+      <c r="K60" s="125"/>
+      <c r="L60" s="125"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="144"/>
-      <c r="C61" s="144"/>
-      <c r="D61" s="144"/>
-      <c r="E61" s="144"/>
-      <c r="F61" s="144"/>
-      <c r="G61" s="144"/>
-      <c r="H61" s="144"/>
-      <c r="I61" s="144"/>
-      <c r="J61" s="144"/>
-      <c r="K61" s="144"/>
-      <c r="L61" s="144"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="125"/>
+      <c r="H61" s="125"/>
+      <c r="I61" s="125"/>
+      <c r="J61" s="125"/>
+      <c r="K61" s="125"/>
+      <c r="L61" s="125"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="144"/>
-      <c r="C62" s="144"/>
-      <c r="D62" s="144"/>
-      <c r="E62" s="144"/>
-      <c r="F62" s="144"/>
-      <c r="G62" s="144"/>
-      <c r="H62" s="144"/>
-      <c r="I62" s="144"/>
-      <c r="J62" s="144"/>
-      <c r="K62" s="144"/>
-      <c r="L62" s="144"/>
+      <c r="B62" s="125"/>
+      <c r="C62" s="125"/>
+      <c r="D62" s="125"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="125"/>
+      <c r="H62" s="125"/>
+      <c r="I62" s="125"/>
+      <c r="J62" s="125"/>
+      <c r="K62" s="125"/>
+      <c r="L62" s="125"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="144"/>
-      <c r="C63" s="144"/>
-      <c r="D63" s="144"/>
-      <c r="E63" s="144"/>
-      <c r="F63" s="144"/>
-      <c r="G63" s="144"/>
-      <c r="H63" s="144"/>
-      <c r="I63" s="144"/>
-      <c r="J63" s="144"/>
-      <c r="K63" s="144"/>
-      <c r="L63" s="144"/>
+      <c r="B63" s="125"/>
+      <c r="C63" s="125"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="125"/>
+      <c r="H63" s="125"/>
+      <c r="I63" s="125"/>
+      <c r="J63" s="125"/>
+      <c r="K63" s="125"/>
+      <c r="L63" s="125"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="144"/>
-      <c r="C64" s="144"/>
-      <c r="D64" s="144"/>
-      <c r="E64" s="144"/>
-      <c r="F64" s="144"/>
-      <c r="G64" s="144"/>
-      <c r="H64" s="144"/>
-      <c r="I64" s="144"/>
-      <c r="J64" s="144"/>
-      <c r="K64" s="144"/>
-      <c r="L64" s="144"/>
+      <c r="B64" s="125"/>
+      <c r="C64" s="125"/>
+      <c r="D64" s="125"/>
+      <c r="E64" s="125"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="125"/>
+      <c r="H64" s="125"/>
+      <c r="I64" s="125"/>
+      <c r="J64" s="125"/>
+      <c r="K64" s="125"/>
+      <c r="L64" s="125"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="144"/>
-      <c r="C65" s="144"/>
-      <c r="D65" s="144"/>
-      <c r="E65" s="144"/>
-      <c r="F65" s="144"/>
-      <c r="G65" s="144"/>
-      <c r="H65" s="144"/>
-      <c r="I65" s="144"/>
-      <c r="J65" s="144"/>
-      <c r="K65" s="144"/>
-      <c r="L65" s="144"/>
+      <c r="B65" s="125"/>
+      <c r="C65" s="125"/>
+      <c r="D65" s="125"/>
+      <c r="E65" s="125"/>
+      <c r="F65" s="125"/>
+      <c r="G65" s="125"/>
+      <c r="H65" s="125"/>
+      <c r="I65" s="125"/>
+      <c r="J65" s="125"/>
+      <c r="K65" s="125"/>
+      <c r="L65" s="125"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="144"/>
-      <c r="C66" s="144"/>
-      <c r="D66" s="144"/>
-      <c r="E66" s="144"/>
-      <c r="F66" s="144"/>
-      <c r="G66" s="144"/>
-      <c r="H66" s="144"/>
-      <c r="I66" s="144"/>
-      <c r="J66" s="144"/>
-      <c r="K66" s="144"/>
-      <c r="L66" s="144"/>
+      <c r="B66" s="125"/>
+      <c r="C66" s="125"/>
+      <c r="D66" s="125"/>
+      <c r="E66" s="125"/>
+      <c r="F66" s="125"/>
+      <c r="G66" s="125"/>
+      <c r="H66" s="125"/>
+      <c r="I66" s="125"/>
+      <c r="J66" s="125"/>
+      <c r="K66" s="125"/>
+      <c r="L66" s="125"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="144"/>
-      <c r="C67" s="144"/>
-      <c r="D67" s="144"/>
-      <c r="E67" s="144"/>
-      <c r="F67" s="144"/>
-      <c r="G67" s="144"/>
-      <c r="H67" s="144"/>
-      <c r="I67" s="144"/>
-      <c r="J67" s="144"/>
-      <c r="K67" s="144"/>
-      <c r="L67" s="144"/>
+      <c r="B67" s="125"/>
+      <c r="C67" s="125"/>
+      <c r="D67" s="125"/>
+      <c r="E67" s="125"/>
+      <c r="F67" s="125"/>
+      <c r="G67" s="125"/>
+      <c r="H67" s="125"/>
+      <c r="I67" s="125"/>
+      <c r="J67" s="125"/>
+      <c r="K67" s="125"/>
+      <c r="L67" s="125"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="144"/>
-      <c r="C68" s="144"/>
-      <c r="D68" s="144"/>
-      <c r="E68" s="144"/>
-      <c r="F68" s="144"/>
-      <c r="G68" s="144"/>
-      <c r="H68" s="144"/>
-      <c r="I68" s="144"/>
-      <c r="J68" s="144"/>
-      <c r="K68" s="144"/>
-      <c r="L68" s="144"/>
+      <c r="B68" s="125"/>
+      <c r="C68" s="125"/>
+      <c r="D68" s="125"/>
+      <c r="E68" s="125"/>
+      <c r="F68" s="125"/>
+      <c r="G68" s="125"/>
+      <c r="H68" s="125"/>
+      <c r="I68" s="125"/>
+      <c r="J68" s="125"/>
+      <c r="K68" s="125"/>
+      <c r="L68" s="125"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="144"/>
-      <c r="C69" s="144"/>
-      <c r="D69" s="144"/>
-      <c r="E69" s="144"/>
-      <c r="F69" s="144"/>
-      <c r="G69" s="144"/>
-      <c r="H69" s="144"/>
-      <c r="I69" s="144"/>
-      <c r="J69" s="144"/>
-      <c r="K69" s="144"/>
-      <c r="L69" s="144"/>
+      <c r="B69" s="125"/>
+      <c r="C69" s="125"/>
+      <c r="D69" s="125"/>
+      <c r="E69" s="125"/>
+      <c r="F69" s="125"/>
+      <c r="G69" s="125"/>
+      <c r="H69" s="125"/>
+      <c r="I69" s="125"/>
+      <c r="J69" s="125"/>
+      <c r="K69" s="125"/>
+      <c r="L69" s="125"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="144"/>
-      <c r="C70" s="144"/>
-      <c r="D70" s="144"/>
-      <c r="E70" s="144"/>
-      <c r="F70" s="144"/>
-      <c r="G70" s="144"/>
-      <c r="H70" s="144"/>
-      <c r="I70" s="144"/>
-      <c r="J70" s="144"/>
-      <c r="K70" s="144"/>
-      <c r="L70" s="144"/>
+      <c r="B70" s="125"/>
+      <c r="C70" s="125"/>
+      <c r="D70" s="125"/>
+      <c r="E70" s="125"/>
+      <c r="F70" s="125"/>
+      <c r="G70" s="125"/>
+      <c r="H70" s="125"/>
+      <c r="I70" s="125"/>
+      <c r="J70" s="125"/>
+      <c r="K70" s="125"/>
+      <c r="L70" s="125"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="144"/>
-      <c r="C71" s="144"/>
-      <c r="D71" s="144"/>
-      <c r="E71" s="144"/>
-      <c r="F71" s="144"/>
-      <c r="G71" s="144"/>
-      <c r="H71" s="144"/>
-      <c r="I71" s="144"/>
-      <c r="J71" s="144"/>
-      <c r="K71" s="144"/>
-      <c r="L71" s="144"/>
+      <c r="B71" s="125"/>
+      <c r="C71" s="125"/>
+      <c r="D71" s="125"/>
+      <c r="E71" s="125"/>
+      <c r="F71" s="125"/>
+      <c r="G71" s="125"/>
+      <c r="H71" s="125"/>
+      <c r="I71" s="125"/>
+      <c r="J71" s="125"/>
+      <c r="K71" s="125"/>
+      <c r="L71" s="125"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
       <c r="B73" s="21" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="D73" s="21"/>
       <c r="E73" s="21"/>
@@ -4325,10 +4331,10 @@
     <row r="78" spans="2:12" ht="14.25">
       <c r="B78" s="21"/>
       <c r="C78" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
@@ -4368,7 +4374,7 @@
     <row r="82" spans="2:9" ht="14.25">
       <c r="B82" s="21"/>
       <c r="C82" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D82" s="25"/>
       <c r="E82" s="21"/>
@@ -4485,7 +4491,7 @@
     <row r="94" spans="2:9" ht="14.25">
       <c r="B94" s="21"/>
       <c r="C94" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D94" s="25"/>
       <c r="E94" s="21"/>
@@ -4498,15 +4504,15 @@
       <c r="J127" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K127" s="136" t="str">
+      <c r="K127" s="121" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L127" s="136"/>
+      <c r="L127" s="121"/>
     </row>
     <row r="128" spans="2:12" ht="17.25">
       <c r="B128" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C128" s="24"/>
       <c r="D128" s="24"/>
@@ -4534,7 +4540,7 @@
     </row>
     <row r="130" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B130" s="56" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C130" s="56"/>
       <c r="D130" s="56"/>
@@ -4548,245 +4554,245 @@
       <c r="L130" s="56"/>
     </row>
     <row r="131" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="132" t="s">
-        <v>75</v>
-      </c>
-      <c r="C131" s="132"/>
-      <c r="D131" s="122" t="str">
+      <c r="B131" s="128" t="s">
+        <v>73</v>
+      </c>
+      <c r="C131" s="128"/>
+      <c r="D131" s="136" t="str">
         <f>記入!B10</f>
         <v>${cv.pjnamejapanese}</v>
       </c>
-      <c r="E131" s="122"/>
-      <c r="F131" s="122"/>
-      <c r="G131" s="122"/>
-      <c r="H131" s="122"/>
-      <c r="I131" s="122"/>
-      <c r="J131" s="122"/>
-      <c r="K131" s="122"/>
+      <c r="E131" s="136"/>
+      <c r="F131" s="136"/>
+      <c r="G131" s="136"/>
+      <c r="H131" s="136"/>
+      <c r="I131" s="136"/>
+      <c r="J131" s="136"/>
+      <c r="K131" s="136"/>
       <c r="L131" s="54"/>
     </row>
     <row r="132" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="132" t="s">
-        <v>76</v>
-      </c>
-      <c r="C132" s="132"/>
-      <c r="D132" s="121" t="str">
+      <c r="B132" s="128" t="s">
+        <v>74</v>
+      </c>
+      <c r="C132" s="128"/>
+      <c r="D132" s="141" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E132" s="122"/>
-      <c r="F132" s="122"/>
-      <c r="G132" s="122"/>
-      <c r="H132" s="122"/>
-      <c r="I132" s="122"/>
-      <c r="J132" s="122"/>
-      <c r="K132" s="122"/>
+      <c r="E132" s="136"/>
+      <c r="F132" s="136"/>
+      <c r="G132" s="136"/>
+      <c r="H132" s="136"/>
+      <c r="I132" s="136"/>
+      <c r="J132" s="136"/>
+      <c r="K132" s="136"/>
       <c r="L132" s="54"/>
     </row>
     <row r="133" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B133" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="C133" s="132"/>
-      <c r="D133" s="121" t="str">
+      <c r="B133" s="128" t="s">
+        <v>75</v>
+      </c>
+      <c r="C133" s="128"/>
+      <c r="D133" s="141" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E133" s="122"/>
-      <c r="F133" s="122"/>
-      <c r="G133" s="122"/>
-      <c r="H133" s="122"/>
-      <c r="I133" s="122"/>
-      <c r="J133" s="122"/>
-      <c r="K133" s="122"/>
+      <c r="E133" s="136"/>
+      <c r="F133" s="136"/>
+      <c r="G133" s="136"/>
+      <c r="H133" s="136"/>
+      <c r="I133" s="136"/>
+      <c r="J133" s="136"/>
+      <c r="K133" s="136"/>
       <c r="L133" s="54"/>
     </row>
     <row r="134" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="132" t="s">
-        <v>78</v>
-      </c>
-      <c r="C134" s="132"/>
-      <c r="D134" s="123" t="str">
+      <c r="B134" s="128" t="s">
+        <v>76</v>
+      </c>
+      <c r="C134" s="128"/>
+      <c r="D134" s="142" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="E134" s="123"/>
-      <c r="F134" s="123"/>
-      <c r="G134" s="123"/>
-      <c r="H134" s="123"/>
-      <c r="I134" s="123"/>
-      <c r="J134" s="123"/>
-      <c r="K134" s="123"/>
+      <c r="E134" s="142"/>
+      <c r="F134" s="142"/>
+      <c r="G134" s="142"/>
+      <c r="H134" s="142"/>
+      <c r="I134" s="142"/>
+      <c r="J134" s="142"/>
+      <c r="K134" s="142"/>
       <c r="L134" s="54"/>
     </row>
     <row r="135" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="140" t="s">
-        <v>100</v>
-      </c>
-      <c r="C135" s="132"/>
-      <c r="D135" s="124" t="str">
+      <c r="B135" s="134" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135" s="128"/>
+      <c r="D135" s="132" t="str">
         <f>記入!B35</f>
         <v>${cv.technicalcontentjapanese}</v>
       </c>
-      <c r="E135" s="125"/>
-      <c r="F135" s="125"/>
-      <c r="G135" s="125"/>
-      <c r="H135" s="125"/>
-      <c r="I135" s="125"/>
-      <c r="J135" s="125"/>
-      <c r="K135" s="125"/>
+      <c r="E135" s="133"/>
+      <c r="F135" s="133"/>
+      <c r="G135" s="133"/>
+      <c r="H135" s="133"/>
+      <c r="I135" s="133"/>
+      <c r="J135" s="133"/>
+      <c r="K135" s="133"/>
       <c r="L135" s="54"/>
     </row>
     <row r="136" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="132"/>
-      <c r="C136" s="132"/>
-      <c r="D136" s="125"/>
-      <c r="E136" s="125"/>
-      <c r="F136" s="125"/>
-      <c r="G136" s="125"/>
-      <c r="H136" s="125"/>
-      <c r="I136" s="125"/>
-      <c r="J136" s="125"/>
-      <c r="K136" s="125"/>
+      <c r="B136" s="128"/>
+      <c r="C136" s="128"/>
+      <c r="D136" s="133"/>
+      <c r="E136" s="133"/>
+      <c r="F136" s="133"/>
+      <c r="G136" s="133"/>
+      <c r="H136" s="133"/>
+      <c r="I136" s="133"/>
+      <c r="J136" s="133"/>
+      <c r="K136" s="133"/>
       <c r="L136" s="54"/>
     </row>
     <row r="137" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="132"/>
-      <c r="C137" s="132"/>
-      <c r="D137" s="125"/>
-      <c r="E137" s="125"/>
-      <c r="F137" s="125"/>
-      <c r="G137" s="125"/>
-      <c r="H137" s="125"/>
-      <c r="I137" s="125"/>
-      <c r="J137" s="125"/>
-      <c r="K137" s="125"/>
+      <c r="B137" s="128"/>
+      <c r="C137" s="128"/>
+      <c r="D137" s="133"/>
+      <c r="E137" s="133"/>
+      <c r="F137" s="133"/>
+      <c r="G137" s="133"/>
+      <c r="H137" s="133"/>
+      <c r="I137" s="133"/>
+      <c r="J137" s="133"/>
+      <c r="K137" s="133"/>
       <c r="L137" s="54"/>
     </row>
     <row r="138" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="132"/>
-      <c r="C138" s="132"/>
-      <c r="D138" s="125"/>
-      <c r="E138" s="125"/>
-      <c r="F138" s="125"/>
-      <c r="G138" s="125"/>
-      <c r="H138" s="125"/>
-      <c r="I138" s="125"/>
-      <c r="J138" s="125"/>
-      <c r="K138" s="125"/>
+      <c r="B138" s="128"/>
+      <c r="C138" s="128"/>
+      <c r="D138" s="133"/>
+      <c r="E138" s="133"/>
+      <c r="F138" s="133"/>
+      <c r="G138" s="133"/>
+      <c r="H138" s="133"/>
+      <c r="I138" s="133"/>
+      <c r="J138" s="133"/>
+      <c r="K138" s="133"/>
       <c r="L138" s="54"/>
     </row>
     <row r="139" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="132"/>
-      <c r="C139" s="132"/>
-      <c r="D139" s="125"/>
-      <c r="E139" s="125"/>
-      <c r="F139" s="125"/>
-      <c r="G139" s="125"/>
-      <c r="H139" s="125"/>
-      <c r="I139" s="125"/>
-      <c r="J139" s="125"/>
-      <c r="K139" s="125"/>
+      <c r="B139" s="128"/>
+      <c r="C139" s="128"/>
+      <c r="D139" s="133"/>
+      <c r="E139" s="133"/>
+      <c r="F139" s="133"/>
+      <c r="G139" s="133"/>
+      <c r="H139" s="133"/>
+      <c r="I139" s="133"/>
+      <c r="J139" s="133"/>
+      <c r="K139" s="133"/>
       <c r="L139" s="54"/>
     </row>
     <row r="140" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="132"/>
-      <c r="C140" s="132"/>
-      <c r="D140" s="125"/>
-      <c r="E140" s="125"/>
-      <c r="F140" s="125"/>
-      <c r="G140" s="125"/>
-      <c r="H140" s="125"/>
-      <c r="I140" s="125"/>
-      <c r="J140" s="125"/>
-      <c r="K140" s="125"/>
+      <c r="B140" s="128"/>
+      <c r="C140" s="128"/>
+      <c r="D140" s="133"/>
+      <c r="E140" s="133"/>
+      <c r="F140" s="133"/>
+      <c r="G140" s="133"/>
+      <c r="H140" s="133"/>
+      <c r="I140" s="133"/>
+      <c r="J140" s="133"/>
+      <c r="K140" s="133"/>
       <c r="L140" s="54"/>
     </row>
     <row r="141" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="132"/>
-      <c r="C141" s="132"/>
-      <c r="D141" s="125"/>
-      <c r="E141" s="125"/>
-      <c r="F141" s="125"/>
-      <c r="G141" s="125"/>
-      <c r="H141" s="125"/>
-      <c r="I141" s="125"/>
-      <c r="J141" s="125"/>
-      <c r="K141" s="125"/>
+      <c r="B141" s="128"/>
+      <c r="C141" s="128"/>
+      <c r="D141" s="133"/>
+      <c r="E141" s="133"/>
+      <c r="F141" s="133"/>
+      <c r="G141" s="133"/>
+      <c r="H141" s="133"/>
+      <c r="I141" s="133"/>
+      <c r="J141" s="133"/>
+      <c r="K141" s="133"/>
       <c r="L141" s="54"/>
     </row>
     <row r="142" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="132" t="s">
-        <v>80</v>
-      </c>
-      <c r="C142" s="132"/>
-      <c r="D142" s="137" t="str">
+      <c r="B142" s="128" t="s">
+        <v>78</v>
+      </c>
+      <c r="C142" s="128"/>
+      <c r="D142" s="129" t="str">
         <f>記入!B47</f>
         <v>${cv.redelegate}</v>
       </c>
-      <c r="E142" s="138"/>
-      <c r="F142" s="138"/>
-      <c r="G142" s="138"/>
-      <c r="H142" s="138"/>
-      <c r="I142" s="138"/>
-      <c r="J142" s="138"/>
-      <c r="K142" s="139"/>
+      <c r="E142" s="130"/>
+      <c r="F142" s="130"/>
+      <c r="G142" s="130"/>
+      <c r="H142" s="130"/>
+      <c r="I142" s="130"/>
+      <c r="J142" s="130"/>
+      <c r="K142" s="131"/>
       <c r="L142" s="54"/>
     </row>
     <row r="143" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="132"/>
-      <c r="C143" s="132"/>
-      <c r="D143" s="124" t="str">
+      <c r="B143" s="128"/>
+      <c r="C143" s="128"/>
+      <c r="D143" s="132" t="str">
         <f>記入!B48</f>
         <v>再委託先：
 ${cv.redelegatecontent}</v>
       </c>
-      <c r="E143" s="125"/>
-      <c r="F143" s="125"/>
-      <c r="G143" s="125"/>
-      <c r="H143" s="125"/>
-      <c r="I143" s="125"/>
-      <c r="J143" s="125"/>
-      <c r="K143" s="125"/>
+      <c r="E143" s="133"/>
+      <c r="F143" s="133"/>
+      <c r="G143" s="133"/>
+      <c r="H143" s="133"/>
+      <c r="I143" s="133"/>
+      <c r="J143" s="133"/>
+      <c r="K143" s="133"/>
       <c r="L143" s="54"/>
     </row>
     <row r="144" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="132"/>
-      <c r="C144" s="132"/>
-      <c r="D144" s="125"/>
-      <c r="E144" s="125"/>
-      <c r="F144" s="125"/>
-      <c r="G144" s="125"/>
-      <c r="H144" s="125"/>
-      <c r="I144" s="125"/>
-      <c r="J144" s="125"/>
-      <c r="K144" s="125"/>
+      <c r="B144" s="128"/>
+      <c r="C144" s="128"/>
+      <c r="D144" s="133"/>
+      <c r="E144" s="133"/>
+      <c r="F144" s="133"/>
+      <c r="G144" s="133"/>
+      <c r="H144" s="133"/>
+      <c r="I144" s="133"/>
+      <c r="J144" s="133"/>
+      <c r="K144" s="133"/>
       <c r="L144" s="54"/>
     </row>
     <row r="145" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="132"/>
-      <c r="C145" s="132"/>
-      <c r="D145" s="125"/>
-      <c r="E145" s="125"/>
-      <c r="F145" s="125"/>
-      <c r="G145" s="125"/>
-      <c r="H145" s="125"/>
-      <c r="I145" s="125"/>
-      <c r="J145" s="125"/>
-      <c r="K145" s="125"/>
+      <c r="B145" s="128"/>
+      <c r="C145" s="128"/>
+      <c r="D145" s="133"/>
+      <c r="E145" s="133"/>
+      <c r="F145" s="133"/>
+      <c r="G145" s="133"/>
+      <c r="H145" s="133"/>
+      <c r="I145" s="133"/>
+      <c r="J145" s="133"/>
+      <c r="K145" s="133"/>
       <c r="L145" s="54"/>
     </row>
     <row r="146" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="132"/>
-      <c r="C146" s="132"/>
-      <c r="D146" s="125"/>
-      <c r="E146" s="125"/>
-      <c r="F146" s="125"/>
-      <c r="G146" s="125"/>
-      <c r="H146" s="125"/>
-      <c r="I146" s="125"/>
-      <c r="J146" s="125"/>
-      <c r="K146" s="125"/>
+      <c r="B146" s="128"/>
+      <c r="C146" s="128"/>
+      <c r="D146" s="133"/>
+      <c r="E146" s="133"/>
+      <c r="F146" s="133"/>
+      <c r="G146" s="133"/>
+      <c r="H146" s="133"/>
+      <c r="I146" s="133"/>
+      <c r="J146" s="133"/>
+      <c r="K146" s="133"/>
       <c r="L146" s="54"/>
     </row>
     <row r="147" spans="2:12" ht="20.100000000000001" customHeight="1">
@@ -4804,7 +4810,7 @@
     </row>
     <row r="148" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B148" s="54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C148" s="54"/>
       <c r="D148" s="54"/>
@@ -4818,222 +4824,222 @@
       <c r="L148" s="54"/>
     </row>
     <row r="149" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="132" t="s">
+      <c r="B149" s="128" t="s">
+        <v>80</v>
+      </c>
+      <c r="C149" s="128"/>
+      <c r="D149" s="127" t="s">
+        <v>81</v>
+      </c>
+      <c r="E149" s="127"/>
+      <c r="F149" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="C149" s="132"/>
-      <c r="D149" s="130" t="s">
+      <c r="G149" s="127"/>
+      <c r="H149" s="127" t="s">
         <v>83</v>
       </c>
-      <c r="E149" s="130"/>
-      <c r="F149" s="130" t="s">
+      <c r="I149" s="127"/>
+      <c r="J149" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="G149" s="130"/>
-      <c r="H149" s="130" t="s">
+      <c r="K149" s="127"/>
+      <c r="L149" s="54"/>
+    </row>
+    <row r="150" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="B150" s="128" t="s">
         <v>85</v>
       </c>
-      <c r="I149" s="130"/>
-      <c r="J149" s="130" t="s">
-        <v>86</v>
-      </c>
-      <c r="K149" s="130"/>
-      <c r="L149" s="54"/>
-    </row>
-    <row r="150" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="132" t="s">
-        <v>87</v>
-      </c>
-      <c r="C150" s="132"/>
-      <c r="D150" s="129" t="str">
+      <c r="C150" s="128"/>
+      <c r="D150" s="135" t="str">
         <f>記入!B29</f>
         <v>${r.deliverydate}</v>
       </c>
-      <c r="E150" s="130"/>
-      <c r="F150" s="129" t="e">
+      <c r="E150" s="127"/>
+      <c r="F150" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G150" s="130"/>
-      <c r="H150" s="129" t="e">
+      <c r="G150" s="127"/>
+      <c r="H150" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I150" s="130"/>
-      <c r="J150" s="129" t="e">
+      <c r="I150" s="127"/>
+      <c r="J150" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K150" s="130"/>
+      <c r="K150" s="127"/>
       <c r="L150" s="54"/>
     </row>
     <row r="151" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="132" t="s">
-        <v>88</v>
-      </c>
-      <c r="C151" s="132"/>
-      <c r="D151" s="129" t="str">
+      <c r="B151" s="128" t="s">
+        <v>86</v>
+      </c>
+      <c r="C151" s="128"/>
+      <c r="D151" s="135" t="str">
         <f>記入!C29</f>
         <v>${r.completiondate}</v>
       </c>
-      <c r="E151" s="130"/>
-      <c r="F151" s="129" t="e">
+      <c r="E151" s="127"/>
+      <c r="F151" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G151" s="130"/>
-      <c r="H151" s="129" t="e">
+      <c r="G151" s="127"/>
+      <c r="H151" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I151" s="130"/>
-      <c r="J151" s="129" t="e">
+      <c r="I151" s="127"/>
+      <c r="J151" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K151" s="130"/>
+      <c r="K151" s="127"/>
       <c r="L151" s="54"/>
     </row>
     <row r="152" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="132" t="s">
-        <v>89</v>
-      </c>
-      <c r="C152" s="132"/>
-      <c r="D152" s="134" t="str">
+      <c r="B152" s="128" t="s">
+        <v>87</v>
+      </c>
+      <c r="C152" s="128"/>
+      <c r="D152" s="137" t="str">
         <f>記入!D29</f>
         <v>${r.claimdate}</v>
       </c>
-      <c r="E152" s="133"/>
-      <c r="F152" s="129" t="e">
+      <c r="E152" s="138"/>
+      <c r="F152" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G152" s="130"/>
-      <c r="H152" s="129" t="e">
+      <c r="G152" s="127"/>
+      <c r="H152" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I152" s="130"/>
-      <c r="J152" s="129" t="e">
+      <c r="I152" s="127"/>
+      <c r="J152" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K152" s="130"/>
+      <c r="K152" s="127"/>
       <c r="L152" s="54"/>
     </row>
     <row r="153" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="132" t="s">
-        <v>90</v>
-      </c>
-      <c r="C153" s="132"/>
-      <c r="D153" s="134" t="str">
+      <c r="B153" s="128" t="s">
+        <v>88</v>
+      </c>
+      <c r="C153" s="128"/>
+      <c r="D153" s="137" t="str">
         <f>記入!E29</f>
         <v>${r.supportdate}</v>
       </c>
-      <c r="E153" s="133"/>
-      <c r="F153" s="129" t="e">
+      <c r="E153" s="138"/>
+      <c r="F153" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G153" s="130"/>
-      <c r="H153" s="129" t="e">
+      <c r="G153" s="127"/>
+      <c r="H153" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I153" s="130"/>
-      <c r="J153" s="129" t="e">
+      <c r="I153" s="127"/>
+      <c r="J153" s="135" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K153" s="130"/>
+      <c r="K153" s="127"/>
       <c r="L153" s="54"/>
     </row>
     <row r="154" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="132" t="s">
-        <v>91</v>
-      </c>
-      <c r="C154" s="132"/>
-      <c r="D154" s="135" t="str">
+      <c r="B154" s="128" t="s">
+        <v>89</v>
+      </c>
+      <c r="C154" s="128"/>
+      <c r="D154" s="140" t="str">
         <f>記入!F29</f>
         <v>${r.claimamount}</v>
       </c>
-      <c r="E154" s="133"/>
-      <c r="F154" s="131" t="e">
+      <c r="E154" s="138"/>
+      <c r="F154" s="139" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G154" s="130"/>
-      <c r="H154" s="131" t="e">
+      <c r="G154" s="127"/>
+      <c r="H154" s="139" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I154" s="130"/>
-      <c r="J154" s="131" t="e">
+      <c r="I154" s="127"/>
+      <c r="J154" s="139" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K154" s="130"/>
+      <c r="K154" s="127"/>
       <c r="L154" s="54"/>
     </row>
     <row r="155" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="132" t="s">
-        <v>92</v>
-      </c>
-      <c r="C155" s="132"/>
-      <c r="D155" s="133" t="str">
+      <c r="B155" s="128" t="s">
+        <v>90</v>
+      </c>
+      <c r="C155" s="128"/>
+      <c r="D155" s="138" t="str">
         <f>記入!B12&amp;(-1)</f>
         <v>${cv.contractnumber}-1</v>
       </c>
-      <c r="E155" s="133"/>
-      <c r="F155" s="130" t="str">
+      <c r="E155" s="138"/>
+      <c r="F155" s="127" t="str">
         <f>記入!B12&amp;(-2)</f>
         <v>${cv.contractnumber}-2</v>
       </c>
-      <c r="G155" s="130"/>
-      <c r="H155" s="130" t="str">
+      <c r="G155" s="127"/>
+      <c r="H155" s="127" t="str">
         <f>記入!B12&amp;(-3)</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="I155" s="130"/>
-      <c r="J155" s="130" t="str">
+      <c r="I155" s="127"/>
+      <c r="J155" s="127" t="str">
         <f>記入!B12&amp;(-4)</f>
         <v>${cv.contractnumber}-4</v>
       </c>
-      <c r="K155" s="130"/>
+      <c r="K155" s="127"/>
       <c r="L155" s="54"/>
     </row>
     <row r="156" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="132" t="s">
+      <c r="B156" s="128" t="s">
+        <v>91</v>
+      </c>
+      <c r="C156" s="128"/>
+      <c r="D156" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="C156" s="132"/>
-      <c r="D156" s="130" t="s">
-        <v>95</v>
-      </c>
-      <c r="E156" s="130"/>
-      <c r="F156" s="130"/>
-      <c r="G156" s="130"/>
-      <c r="H156" s="130"/>
-      <c r="I156" s="130"/>
-      <c r="J156" s="130"/>
-      <c r="K156" s="130"/>
+      <c r="E156" s="127"/>
+      <c r="F156" s="127"/>
+      <c r="G156" s="127"/>
+      <c r="H156" s="127"/>
+      <c r="I156" s="127"/>
+      <c r="J156" s="127"/>
+      <c r="K156" s="127"/>
       <c r="L156" s="54"/>
     </row>
     <row r="157" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="132" t="s">
+      <c r="B157" s="128" t="s">
+        <v>92</v>
+      </c>
+      <c r="C157" s="128"/>
+      <c r="D157" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="C157" s="132"/>
-      <c r="D157" s="130" t="s">
-        <v>96</v>
-      </c>
-      <c r="E157" s="130"/>
-      <c r="F157" s="130"/>
-      <c r="G157" s="130"/>
-      <c r="H157" s="130"/>
-      <c r="I157" s="130"/>
-      <c r="J157" s="130"/>
-      <c r="K157" s="130"/>
+      <c r="E157" s="127"/>
+      <c r="F157" s="127"/>
+      <c r="G157" s="127"/>
+      <c r="H157" s="127"/>
+      <c r="I157" s="127"/>
+      <c r="J157" s="127"/>
+      <c r="K157" s="127"/>
       <c r="L157" s="54"/>
     </row>
     <row r="158" spans="2:12" ht="20.100000000000001" customHeight="1">
@@ -5051,7 +5057,7 @@
     </row>
     <row r="159" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B159" s="54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C159" s="54"/>
       <c r="D159" s="54"/>
@@ -5065,59 +5071,59 @@
       <c r="L159" s="54"/>
     </row>
     <row r="160" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="126" t="s">
-        <v>98</v>
-      </c>
-      <c r="C160" s="126"/>
-      <c r="D160" s="126" t="s">
-        <v>99</v>
-      </c>
-      <c r="E160" s="126"/>
-      <c r="F160" s="126"/>
-      <c r="G160" s="126"/>
-      <c r="H160" s="126"/>
-      <c r="I160" s="126"/>
-      <c r="J160" s="126"/>
-      <c r="K160" s="126"/>
+      <c r="B160" s="143" t="s">
+        <v>96</v>
+      </c>
+      <c r="C160" s="143"/>
+      <c r="D160" s="143" t="s">
+        <v>97</v>
+      </c>
+      <c r="E160" s="143"/>
+      <c r="F160" s="143"/>
+      <c r="G160" s="143"/>
+      <c r="H160" s="143"/>
+      <c r="I160" s="143"/>
+      <c r="J160" s="143"/>
+      <c r="K160" s="143"/>
       <c r="L160" s="54"/>
     </row>
     <row r="161" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="127"/>
-      <c r="C161" s="127"/>
-      <c r="D161" s="127"/>
-      <c r="E161" s="127"/>
-      <c r="F161" s="127"/>
-      <c r="G161" s="127"/>
-      <c r="H161" s="127"/>
-      <c r="I161" s="127"/>
-      <c r="J161" s="127"/>
-      <c r="K161" s="127"/>
+      <c r="B161" s="144"/>
+      <c r="C161" s="144"/>
+      <c r="D161" s="144"/>
+      <c r="E161" s="144"/>
+      <c r="F161" s="144"/>
+      <c r="G161" s="144"/>
+      <c r="H161" s="144"/>
+      <c r="I161" s="144"/>
+      <c r="J161" s="144"/>
+      <c r="K161" s="144"/>
       <c r="L161" s="54"/>
     </row>
     <row r="162" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="127"/>
-      <c r="C162" s="127"/>
-      <c r="D162" s="127"/>
-      <c r="E162" s="127"/>
-      <c r="F162" s="127"/>
-      <c r="G162" s="127"/>
-      <c r="H162" s="127"/>
-      <c r="I162" s="127"/>
-      <c r="J162" s="127"/>
-      <c r="K162" s="127"/>
+      <c r="B162" s="144"/>
+      <c r="C162" s="144"/>
+      <c r="D162" s="144"/>
+      <c r="E162" s="144"/>
+      <c r="F162" s="144"/>
+      <c r="G162" s="144"/>
+      <c r="H162" s="144"/>
+      <c r="I162" s="144"/>
+      <c r="J162" s="144"/>
+      <c r="K162" s="144"/>
       <c r="L162" s="54"/>
     </row>
     <row r="163" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="128"/>
-      <c r="C163" s="128"/>
-      <c r="D163" s="128"/>
-      <c r="E163" s="128"/>
-      <c r="F163" s="128"/>
-      <c r="G163" s="128"/>
-      <c r="H163" s="128"/>
-      <c r="I163" s="128"/>
-      <c r="J163" s="128"/>
-      <c r="K163" s="128"/>
+      <c r="B163" s="145"/>
+      <c r="C163" s="145"/>
+      <c r="D163" s="145"/>
+      <c r="E163" s="145"/>
+      <c r="F163" s="145"/>
+      <c r="G163" s="145"/>
+      <c r="H163" s="145"/>
+      <c r="I163" s="145"/>
+      <c r="J163" s="145"/>
+      <c r="K163" s="145"/>
       <c r="L163" s="54"/>
     </row>
     <row r="164" spans="2:12" ht="14.25">
@@ -5196,7 +5202,7 @@
       <c r="I169" s="54"/>
       <c r="J169" s="54"/>
       <c r="K169" s="54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L169" s="54"/>
     </row>
@@ -5475,12 +5481,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B11:L57"/>
-    <mergeCell ref="B60:L71"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D132:K132"/>
+    <mergeCell ref="D133:K133"/>
+    <mergeCell ref="D134:K134"/>
+    <mergeCell ref="D135:K141"/>
+    <mergeCell ref="B160:C163"/>
+    <mergeCell ref="D160:K163"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:K156"/>
+    <mergeCell ref="D157:K157"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
     <mergeCell ref="J149:K149"/>
     <mergeCell ref="B150:C150"/>
     <mergeCell ref="B151:C151"/>
@@ -5497,45 +5536,12 @@
     <mergeCell ref="F150:G150"/>
     <mergeCell ref="F151:G151"/>
     <mergeCell ref="D131:K131"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D156:K156"/>
-    <mergeCell ref="D157:K157"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="D132:K132"/>
-    <mergeCell ref="D133:K133"/>
-    <mergeCell ref="D134:K134"/>
-    <mergeCell ref="D135:K141"/>
-    <mergeCell ref="B160:C163"/>
-    <mergeCell ref="D160:K163"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B11:L57"/>
+    <mergeCell ref="B60:L71"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5557,7 +5563,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60:L71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -5570,20 +5578,20 @@
     <row r="1" spans="1:12"/>
     <row r="2" spans="1:12" ht="24.75" customHeight="1">
       <c r="J2" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" s="168" t="str">
+        <v>47</v>
+      </c>
+      <c r="K2" s="149" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="168"/>
+      <c r="L2" s="149"/>
     </row>
     <row r="3" spans="1:12" ht="20.25">
-      <c r="F3" s="169" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
+      <c r="F3" s="150" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="30" t="s">
@@ -5592,10 +5600,10 @@
     </row>
     <row r="5" spans="1:12" ht="14.25">
       <c r="B5" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
@@ -5609,7 +5617,7 @@
     </row>
     <row r="6" spans="1:12" ht="14.25">
       <c r="B6" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="38" t="str">
         <f>記入!B4</f>
@@ -5640,16 +5648,16 @@
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
       <c r="B8" s="52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C8" s="51"/>
-      <c r="D8" s="171" t="str">
+      <c r="D8" s="152" t="str">
         <f>記入!B34</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E8" s="172"/>
+      <c r="E8" s="153"/>
       <c r="F8" s="52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G8" s="51"/>
       <c r="H8" s="51"/>
@@ -5660,7 +5668,7 @@
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="B9" s="52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
@@ -5687,617 +5695,617 @@
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="170" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
+      <c r="B11" s="151" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="170"/>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="170"/>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="170"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="151"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="151"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="151"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="170"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="170"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="151"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="151"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="151"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="151"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="151"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="151"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="170"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="151"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="151"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="170"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="170"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="151"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="151"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="170"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="170"/>
-      <c r="L21" s="170"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="151"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="151"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="170"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="170"/>
-      <c r="L22" s="170"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="170"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="151"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="151"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="170"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="170"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="151"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="170"/>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="151"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="170"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="170"/>
+      <c r="B26" s="151"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="151"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="170"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="170"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="151"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="151"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="170"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="170"/>
+      <c r="B28" s="151"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="151"/>
+      <c r="G28" s="151"/>
+      <c r="H28" s="151"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="151"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="170"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="170"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="151"/>
+      <c r="G29" s="151"/>
+      <c r="H29" s="151"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="151"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="151"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="170"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="170"/>
+      <c r="B30" s="151"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="151"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="170"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170"/>
-      <c r="F31" s="170"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="170"/>
-      <c r="L31" s="170"/>
+      <c r="B31" s="151"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="151"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="151"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="151"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="151"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="170"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="170"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="151"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
+      <c r="H32" s="151"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="151"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="170"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="170"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="151"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="151"/>
+      <c r="G33" s="151"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="151"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="170"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="170"/>
-      <c r="L34" s="170"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="151"/>
+      <c r="D34" s="151"/>
+      <c r="E34" s="151"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="151"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="151"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="151"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="170"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="170"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="170"/>
-      <c r="K35" s="170"/>
-      <c r="L35" s="170"/>
+      <c r="B35" s="151"/>
+      <c r="C35" s="151"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="151"/>
+      <c r="K35" s="151"/>
+      <c r="L35" s="151"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="170"/>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="170"/>
-      <c r="I36" s="170"/>
-      <c r="J36" s="170"/>
-      <c r="K36" s="170"/>
-      <c r="L36" s="170"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="151"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="151"/>
+      <c r="K36" s="151"/>
+      <c r="L36" s="151"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="170"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="170"/>
-      <c r="L37" s="170"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="151"/>
+      <c r="E37" s="151"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="151"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="151"/>
+      <c r="K37" s="151"/>
+      <c r="L37" s="151"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="170"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="170"/>
-      <c r="J38" s="170"/>
-      <c r="K38" s="170"/>
-      <c r="L38" s="170"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="151"/>
+      <c r="E38" s="151"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="151"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="151"/>
+      <c r="K38" s="151"/>
+      <c r="L38" s="151"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="170"/>
-      <c r="K39" s="170"/>
-      <c r="L39" s="170"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="151"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="151"/>
+      <c r="G39" s="151"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="151"/>
+      <c r="K39" s="151"/>
+      <c r="L39" s="151"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="170"/>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
-      <c r="E40" s="170"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="170"/>
-      <c r="J40" s="170"/>
-      <c r="K40" s="170"/>
-      <c r="L40" s="170"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="151"/>
+      <c r="G40" s="151"/>
+      <c r="H40" s="151"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="151"/>
+      <c r="K40" s="151"/>
+      <c r="L40" s="151"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="170"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="170"/>
-      <c r="H41" s="170"/>
-      <c r="I41" s="170"/>
-      <c r="J41" s="170"/>
-      <c r="K41" s="170"/>
-      <c r="L41" s="170"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="151"/>
+      <c r="G41" s="151"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="151"/>
+      <c r="K41" s="151"/>
+      <c r="L41" s="151"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="170"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="170"/>
-      <c r="K42" s="170"/>
-      <c r="L42" s="170"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="151"/>
+      <c r="E42" s="151"/>
+      <c r="F42" s="151"/>
+      <c r="G42" s="151"/>
+      <c r="H42" s="151"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="151"/>
+      <c r="K42" s="151"/>
+      <c r="L42" s="151"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="170"/>
-      <c r="F43" s="170"/>
-      <c r="G43" s="170"/>
-      <c r="H43" s="170"/>
-      <c r="I43" s="170"/>
-      <c r="J43" s="170"/>
-      <c r="K43" s="170"/>
-      <c r="L43" s="170"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="151"/>
+      <c r="D43" s="151"/>
+      <c r="E43" s="151"/>
+      <c r="F43" s="151"/>
+      <c r="G43" s="151"/>
+      <c r="H43" s="151"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="151"/>
+      <c r="K43" s="151"/>
+      <c r="L43" s="151"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="170"/>
-      <c r="F44" s="170"/>
-      <c r="G44" s="170"/>
-      <c r="H44" s="170"/>
-      <c r="I44" s="170"/>
-      <c r="J44" s="170"/>
-      <c r="K44" s="170"/>
-      <c r="L44" s="170"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
+      <c r="J44" s="151"/>
+      <c r="K44" s="151"/>
+      <c r="L44" s="151"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="170"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="170"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="170"/>
-      <c r="H45" s="170"/>
-      <c r="I45" s="170"/>
-      <c r="J45" s="170"/>
-      <c r="K45" s="170"/>
-      <c r="L45" s="170"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
+      <c r="J45" s="151"/>
+      <c r="K45" s="151"/>
+      <c r="L45" s="151"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="170"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
-      <c r="E46" s="170"/>
-      <c r="F46" s="170"/>
-      <c r="G46" s="170"/>
-      <c r="H46" s="170"/>
-      <c r="I46" s="170"/>
-      <c r="J46" s="170"/>
-      <c r="K46" s="170"/>
-      <c r="L46" s="170"/>
+      <c r="B46" s="151"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
+      <c r="J46" s="151"/>
+      <c r="K46" s="151"/>
+      <c r="L46" s="151"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="170"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="170"/>
-      <c r="F47" s="170"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="170"/>
-      <c r="I47" s="170"/>
-      <c r="J47" s="170"/>
-      <c r="K47" s="170"/>
-      <c r="L47" s="170"/>
+      <c r="B47" s="151"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="151"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
+      <c r="J47" s="151"/>
+      <c r="K47" s="151"/>
+      <c r="L47" s="151"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="170"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170"/>
-      <c r="E48" s="170"/>
-      <c r="F48" s="170"/>
-      <c r="G48" s="170"/>
-      <c r="H48" s="170"/>
-      <c r="I48" s="170"/>
-      <c r="J48" s="170"/>
-      <c r="K48" s="170"/>
-      <c r="L48" s="170"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="151"/>
+      <c r="F48" s="151"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
+      <c r="J48" s="151"/>
+      <c r="K48" s="151"/>
+      <c r="L48" s="151"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="170"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="170"/>
-      <c r="E49" s="170"/>
-      <c r="F49" s="170"/>
-      <c r="G49" s="170"/>
-      <c r="H49" s="170"/>
-      <c r="I49" s="170"/>
-      <c r="J49" s="170"/>
-      <c r="K49" s="170"/>
-      <c r="L49" s="170"/>
+      <c r="B49" s="151"/>
+      <c r="C49" s="151"/>
+      <c r="D49" s="151"/>
+      <c r="E49" s="151"/>
+      <c r="F49" s="151"/>
+      <c r="G49" s="151"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="151"/>
+      <c r="K49" s="151"/>
+      <c r="L49" s="151"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="170"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
-      <c r="E50" s="170"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="170"/>
-      <c r="H50" s="170"/>
-      <c r="I50" s="170"/>
-      <c r="J50" s="170"/>
-      <c r="K50" s="170"/>
-      <c r="L50" s="170"/>
+      <c r="B50" s="151"/>
+      <c r="C50" s="151"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="151"/>
+      <c r="F50" s="151"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="151"/>
+      <c r="K50" s="151"/>
+      <c r="L50" s="151"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="170"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="170"/>
-      <c r="F51" s="170"/>
-      <c r="G51" s="170"/>
-      <c r="H51" s="170"/>
-      <c r="I51" s="170"/>
-      <c r="J51" s="170"/>
-      <c r="K51" s="170"/>
-      <c r="L51" s="170"/>
+      <c r="B51" s="151"/>
+      <c r="C51" s="151"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="151"/>
+      <c r="F51" s="151"/>
+      <c r="G51" s="151"/>
+      <c r="H51" s="151"/>
+      <c r="I51" s="151"/>
+      <c r="J51" s="151"/>
+      <c r="K51" s="151"/>
+      <c r="L51" s="151"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="170"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="170"/>
-      <c r="F52" s="170"/>
-      <c r="G52" s="170"/>
-      <c r="H52" s="170"/>
-      <c r="I52" s="170"/>
-      <c r="J52" s="170"/>
-      <c r="K52" s="170"/>
-      <c r="L52" s="170"/>
+      <c r="B52" s="151"/>
+      <c r="C52" s="151"/>
+      <c r="D52" s="151"/>
+      <c r="E52" s="151"/>
+      <c r="F52" s="151"/>
+      <c r="G52" s="151"/>
+      <c r="H52" s="151"/>
+      <c r="I52" s="151"/>
+      <c r="J52" s="151"/>
+      <c r="K52" s="151"/>
+      <c r="L52" s="151"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="170"/>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="170"/>
-      <c r="F53" s="170"/>
-      <c r="G53" s="170"/>
-      <c r="H53" s="170"/>
-      <c r="I53" s="170"/>
-      <c r="J53" s="170"/>
-      <c r="K53" s="170"/>
-      <c r="L53" s="170"/>
+      <c r="B53" s="151"/>
+      <c r="C53" s="151"/>
+      <c r="D53" s="151"/>
+      <c r="E53" s="151"/>
+      <c r="F53" s="151"/>
+      <c r="G53" s="151"/>
+      <c r="H53" s="151"/>
+      <c r="I53" s="151"/>
+      <c r="J53" s="151"/>
+      <c r="K53" s="151"/>
+      <c r="L53" s="151"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="170"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="170"/>
-      <c r="F54" s="170"/>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170"/>
-      <c r="I54" s="170"/>
-      <c r="J54" s="170"/>
-      <c r="K54" s="170"/>
-      <c r="L54" s="170"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="151"/>
+      <c r="D54" s="151"/>
+      <c r="E54" s="151"/>
+      <c r="F54" s="151"/>
+      <c r="G54" s="151"/>
+      <c r="H54" s="151"/>
+      <c r="I54" s="151"/>
+      <c r="J54" s="151"/>
+      <c r="K54" s="151"/>
+      <c r="L54" s="151"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="170"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
-      <c r="E55" s="170"/>
-      <c r="F55" s="170"/>
-      <c r="G55" s="170"/>
-      <c r="H55" s="170"/>
-      <c r="I55" s="170"/>
-      <c r="J55" s="170"/>
-      <c r="K55" s="170"/>
-      <c r="L55" s="170"/>
+      <c r="B55" s="151"/>
+      <c r="C55" s="151"/>
+      <c r="D55" s="151"/>
+      <c r="E55" s="151"/>
+      <c r="F55" s="151"/>
+      <c r="G55" s="151"/>
+      <c r="H55" s="151"/>
+      <c r="I55" s="151"/>
+      <c r="J55" s="151"/>
+      <c r="K55" s="151"/>
+      <c r="L55" s="151"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="170"/>
-      <c r="C56" s="170"/>
-      <c r="D56" s="170"/>
-      <c r="E56" s="170"/>
-      <c r="F56" s="170"/>
-      <c r="G56" s="170"/>
-      <c r="H56" s="170"/>
-      <c r="I56" s="170"/>
-      <c r="J56" s="170"/>
-      <c r="K56" s="170"/>
-      <c r="L56" s="170"/>
+      <c r="B56" s="151"/>
+      <c r="C56" s="151"/>
+      <c r="D56" s="151"/>
+      <c r="E56" s="151"/>
+      <c r="F56" s="151"/>
+      <c r="G56" s="151"/>
+      <c r="H56" s="151"/>
+      <c r="I56" s="151"/>
+      <c r="J56" s="151"/>
+      <c r="K56" s="151"/>
+      <c r="L56" s="151"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="170"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="170"/>
-      <c r="E57" s="170"/>
-      <c r="F57" s="170"/>
-      <c r="G57" s="170"/>
-      <c r="H57" s="170"/>
-      <c r="I57" s="170"/>
-      <c r="J57" s="170"/>
-      <c r="K57" s="170"/>
-      <c r="L57" s="170"/>
+      <c r="B57" s="151"/>
+      <c r="C57" s="151"/>
+      <c r="D57" s="151"/>
+      <c r="E57" s="151"/>
+      <c r="F57" s="151"/>
+      <c r="G57" s="151"/>
+      <c r="H57" s="151"/>
+      <c r="I57" s="151"/>
+      <c r="J57" s="151"/>
+      <c r="K57" s="151"/>
+      <c r="L57" s="151"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
       <c r="B58" s="34"/>
@@ -6314,178 +6322,178 @@
     </row>
     <row r="59" spans="2:12" ht="24.75" customHeight="1">
       <c r="J59" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="K59" s="168" t="str">
+        <v>47</v>
+      </c>
+      <c r="K59" s="149" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L59" s="168"/>
+      <c r="L59" s="149"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="166" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="167"/>
-      <c r="D60" s="167"/>
-      <c r="E60" s="167"/>
-      <c r="F60" s="167"/>
-      <c r="G60" s="167"/>
-      <c r="H60" s="167"/>
-      <c r="I60" s="167"/>
-      <c r="J60" s="167"/>
-      <c r="K60" s="167"/>
-      <c r="L60" s="167"/>
+      <c r="B60" s="147" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="148"/>
+      <c r="D60" s="148"/>
+      <c r="E60" s="148"/>
+      <c r="F60" s="148"/>
+      <c r="G60" s="148"/>
+      <c r="H60" s="148"/>
+      <c r="I60" s="148"/>
+      <c r="J60" s="148"/>
+      <c r="K60" s="148"/>
+      <c r="L60" s="148"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="167"/>
-      <c r="C61" s="167"/>
-      <c r="D61" s="167"/>
-      <c r="E61" s="167"/>
-      <c r="F61" s="167"/>
-      <c r="G61" s="167"/>
-      <c r="H61" s="167"/>
-      <c r="I61" s="167"/>
-      <c r="J61" s="167"/>
-      <c r="K61" s="167"/>
-      <c r="L61" s="167"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148"/>
+      <c r="G61" s="148"/>
+      <c r="H61" s="148"/>
+      <c r="I61" s="148"/>
+      <c r="J61" s="148"/>
+      <c r="K61" s="148"/>
+      <c r="L61" s="148"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="167"/>
-      <c r="C62" s="167"/>
-      <c r="D62" s="167"/>
-      <c r="E62" s="167"/>
-      <c r="F62" s="167"/>
-      <c r="G62" s="167"/>
-      <c r="H62" s="167"/>
-      <c r="I62" s="167"/>
-      <c r="J62" s="167"/>
-      <c r="K62" s="167"/>
-      <c r="L62" s="167"/>
+      <c r="B62" s="148"/>
+      <c r="C62" s="148"/>
+      <c r="D62" s="148"/>
+      <c r="E62" s="148"/>
+      <c r="F62" s="148"/>
+      <c r="G62" s="148"/>
+      <c r="H62" s="148"/>
+      <c r="I62" s="148"/>
+      <c r="J62" s="148"/>
+      <c r="K62" s="148"/>
+      <c r="L62" s="148"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="167"/>
-      <c r="C63" s="167"/>
-      <c r="D63" s="167"/>
-      <c r="E63" s="167"/>
-      <c r="F63" s="167"/>
-      <c r="G63" s="167"/>
-      <c r="H63" s="167"/>
-      <c r="I63" s="167"/>
-      <c r="J63" s="167"/>
-      <c r="K63" s="167"/>
-      <c r="L63" s="167"/>
+      <c r="B63" s="148"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="148"/>
+      <c r="E63" s="148"/>
+      <c r="F63" s="148"/>
+      <c r="G63" s="148"/>
+      <c r="H63" s="148"/>
+      <c r="I63" s="148"/>
+      <c r="J63" s="148"/>
+      <c r="K63" s="148"/>
+      <c r="L63" s="148"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="167"/>
-      <c r="C64" s="167"/>
-      <c r="D64" s="167"/>
-      <c r="E64" s="167"/>
-      <c r="F64" s="167"/>
-      <c r="G64" s="167"/>
-      <c r="H64" s="167"/>
-      <c r="I64" s="167"/>
-      <c r="J64" s="167"/>
-      <c r="K64" s="167"/>
-      <c r="L64" s="167"/>
+      <c r="B64" s="148"/>
+      <c r="C64" s="148"/>
+      <c r="D64" s="148"/>
+      <c r="E64" s="148"/>
+      <c r="F64" s="148"/>
+      <c r="G64" s="148"/>
+      <c r="H64" s="148"/>
+      <c r="I64" s="148"/>
+      <c r="J64" s="148"/>
+      <c r="K64" s="148"/>
+      <c r="L64" s="148"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="167"/>
-      <c r="C65" s="167"/>
-      <c r="D65" s="167"/>
-      <c r="E65" s="167"/>
-      <c r="F65" s="167"/>
-      <c r="G65" s="167"/>
-      <c r="H65" s="167"/>
-      <c r="I65" s="167"/>
-      <c r="J65" s="167"/>
-      <c r="K65" s="167"/>
-      <c r="L65" s="167"/>
+      <c r="B65" s="148"/>
+      <c r="C65" s="148"/>
+      <c r="D65" s="148"/>
+      <c r="E65" s="148"/>
+      <c r="F65" s="148"/>
+      <c r="G65" s="148"/>
+      <c r="H65" s="148"/>
+      <c r="I65" s="148"/>
+      <c r="J65" s="148"/>
+      <c r="K65" s="148"/>
+      <c r="L65" s="148"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="167"/>
-      <c r="C66" s="167"/>
-      <c r="D66" s="167"/>
-      <c r="E66" s="167"/>
-      <c r="F66" s="167"/>
-      <c r="G66" s="167"/>
-      <c r="H66" s="167"/>
-      <c r="I66" s="167"/>
-      <c r="J66" s="167"/>
-      <c r="K66" s="167"/>
-      <c r="L66" s="167"/>
+      <c r="B66" s="148"/>
+      <c r="C66" s="148"/>
+      <c r="D66" s="148"/>
+      <c r="E66" s="148"/>
+      <c r="F66" s="148"/>
+      <c r="G66" s="148"/>
+      <c r="H66" s="148"/>
+      <c r="I66" s="148"/>
+      <c r="J66" s="148"/>
+      <c r="K66" s="148"/>
+      <c r="L66" s="148"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="167"/>
-      <c r="C67" s="167"/>
-      <c r="D67" s="167"/>
-      <c r="E67" s="167"/>
-      <c r="F67" s="167"/>
-      <c r="G67" s="167"/>
-      <c r="H67" s="167"/>
-      <c r="I67" s="167"/>
-      <c r="J67" s="167"/>
-      <c r="K67" s="167"/>
-      <c r="L67" s="167"/>
+      <c r="B67" s="148"/>
+      <c r="C67" s="148"/>
+      <c r="D67" s="148"/>
+      <c r="E67" s="148"/>
+      <c r="F67" s="148"/>
+      <c r="G67" s="148"/>
+      <c r="H67" s="148"/>
+      <c r="I67" s="148"/>
+      <c r="J67" s="148"/>
+      <c r="K67" s="148"/>
+      <c r="L67" s="148"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="167"/>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
-      <c r="E68" s="167"/>
-      <c r="F68" s="167"/>
-      <c r="G68" s="167"/>
-      <c r="H68" s="167"/>
-      <c r="I68" s="167"/>
-      <c r="J68" s="167"/>
-      <c r="K68" s="167"/>
-      <c r="L68" s="167"/>
+      <c r="B68" s="148"/>
+      <c r="C68" s="148"/>
+      <c r="D68" s="148"/>
+      <c r="E68" s="148"/>
+      <c r="F68" s="148"/>
+      <c r="G68" s="148"/>
+      <c r="H68" s="148"/>
+      <c r="I68" s="148"/>
+      <c r="J68" s="148"/>
+      <c r="K68" s="148"/>
+      <c r="L68" s="148"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="167"/>
-      <c r="C69" s="167"/>
-      <c r="D69" s="167"/>
-      <c r="E69" s="167"/>
-      <c r="F69" s="167"/>
-      <c r="G69" s="167"/>
-      <c r="H69" s="167"/>
-      <c r="I69" s="167"/>
-      <c r="J69" s="167"/>
-      <c r="K69" s="167"/>
-      <c r="L69" s="167"/>
+      <c r="B69" s="148"/>
+      <c r="C69" s="148"/>
+      <c r="D69" s="148"/>
+      <c r="E69" s="148"/>
+      <c r="F69" s="148"/>
+      <c r="G69" s="148"/>
+      <c r="H69" s="148"/>
+      <c r="I69" s="148"/>
+      <c r="J69" s="148"/>
+      <c r="K69" s="148"/>
+      <c r="L69" s="148"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="167"/>
-      <c r="C70" s="167"/>
-      <c r="D70" s="167"/>
-      <c r="E70" s="167"/>
-      <c r="F70" s="167"/>
-      <c r="G70" s="167"/>
-      <c r="H70" s="167"/>
-      <c r="I70" s="167"/>
-      <c r="J70" s="167"/>
-      <c r="K70" s="167"/>
-      <c r="L70" s="167"/>
+      <c r="B70" s="148"/>
+      <c r="C70" s="148"/>
+      <c r="D70" s="148"/>
+      <c r="E70" s="148"/>
+      <c r="F70" s="148"/>
+      <c r="G70" s="148"/>
+      <c r="H70" s="148"/>
+      <c r="I70" s="148"/>
+      <c r="J70" s="148"/>
+      <c r="K70" s="148"/>
+      <c r="L70" s="148"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="167"/>
-      <c r="C71" s="167"/>
-      <c r="D71" s="167"/>
-      <c r="E71" s="167"/>
-      <c r="F71" s="167"/>
-      <c r="G71" s="167"/>
-      <c r="H71" s="167"/>
-      <c r="I71" s="167"/>
-      <c r="J71" s="167"/>
-      <c r="K71" s="167"/>
-      <c r="L71" s="167"/>
+      <c r="B71" s="148"/>
+      <c r="C71" s="148"/>
+      <c r="D71" s="148"/>
+      <c r="E71" s="148"/>
+      <c r="F71" s="148"/>
+      <c r="G71" s="148"/>
+      <c r="H71" s="148"/>
+      <c r="I71" s="148"/>
+      <c r="J71" s="148"/>
+      <c r="K71" s="148"/>
+      <c r="L71" s="148"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
       <c r="B73" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="D73" s="32"/>
       <c r="E73" s="32"/>
@@ -6497,7 +6505,7 @@
     <row r="74" spans="2:12" ht="14.25">
       <c r="B74" s="32"/>
       <c r="C74" s="32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D74" s="32"/>
       <c r="E74" s="32"/>
@@ -6541,10 +6549,10 @@
     <row r="78" spans="2:12" ht="14.25">
       <c r="B78" s="32"/>
       <c r="C78" s="36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D78" s="36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E78" s="32"/>
       <c r="F78" s="32"/>
@@ -6585,7 +6593,7 @@
     <row r="82" spans="2:9" ht="14.25">
       <c r="B82" s="32"/>
       <c r="C82" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D82" s="37"/>
       <c r="E82" s="32"/>
@@ -6596,7 +6604,7 @@
     </row>
     <row r="85" spans="2:9" ht="14.25">
       <c r="B85" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C85" s="35" t="str">
         <f>記入!B7</f>
@@ -6703,7 +6711,7 @@
     <row r="94" spans="2:9" ht="14.25">
       <c r="B94" s="32"/>
       <c r="C94" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D94" s="37"/>
       <c r="E94" s="32"/>
@@ -6714,17 +6722,17 @@
     </row>
     <row r="127" spans="2:12" s="62" customFormat="1" ht="24.75" customHeight="1">
       <c r="J127" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="K127" s="165" t="str">
+        <v>47</v>
+      </c>
+      <c r="K127" s="146" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L127" s="165"/>
+      <c r="L127" s="146"/>
     </row>
     <row r="128" spans="2:12" s="62" customFormat="1" ht="18.75">
       <c r="B128" s="64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C128" s="63"/>
       <c r="D128" s="63"/>
@@ -6750,7 +6758,7 @@
     </row>
     <row r="130" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B130" s="65" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C130" s="65"/>
       <c r="D130" s="65"/>
@@ -6764,245 +6772,245 @@
       <c r="L130" s="66"/>
     </row>
     <row r="131" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="146" t="s">
-        <v>103</v>
-      </c>
-      <c r="C131" s="146"/>
-      <c r="D131" s="163" t="str">
+      <c r="B131" s="154" t="s">
+        <v>101</v>
+      </c>
+      <c r="C131" s="154"/>
+      <c r="D131" s="155" t="str">
         <f>記入!B11</f>
         <v>${cv.pjnamechinese}</v>
       </c>
-      <c r="E131" s="163"/>
-      <c r="F131" s="163"/>
-      <c r="G131" s="163"/>
-      <c r="H131" s="163"/>
-      <c r="I131" s="163"/>
-      <c r="J131" s="163"/>
-      <c r="K131" s="163"/>
+      <c r="E131" s="155"/>
+      <c r="F131" s="155"/>
+      <c r="G131" s="155"/>
+      <c r="H131" s="155"/>
+      <c r="I131" s="155"/>
+      <c r="J131" s="155"/>
+      <c r="K131" s="155"/>
       <c r="L131" s="67"/>
     </row>
     <row r="132" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="146" t="s">
-        <v>104</v>
-      </c>
-      <c r="C132" s="146"/>
-      <c r="D132" s="164" t="str">
+      <c r="B132" s="154" t="s">
+        <v>102</v>
+      </c>
+      <c r="C132" s="154"/>
+      <c r="D132" s="156" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E132" s="163"/>
-      <c r="F132" s="163"/>
-      <c r="G132" s="163"/>
-      <c r="H132" s="163"/>
-      <c r="I132" s="163"/>
-      <c r="J132" s="163"/>
-      <c r="K132" s="163"/>
+      <c r="E132" s="155"/>
+      <c r="F132" s="155"/>
+      <c r="G132" s="155"/>
+      <c r="H132" s="155"/>
+      <c r="I132" s="155"/>
+      <c r="J132" s="155"/>
+      <c r="K132" s="155"/>
       <c r="L132" s="68"/>
     </row>
     <row r="133" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B133" s="146" t="s">
-        <v>105</v>
-      </c>
-      <c r="C133" s="146"/>
-      <c r="D133" s="164" t="str">
+      <c r="B133" s="154" t="s">
+        <v>103</v>
+      </c>
+      <c r="C133" s="154"/>
+      <c r="D133" s="156" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E133" s="163"/>
-      <c r="F133" s="163"/>
-      <c r="G133" s="163"/>
-      <c r="H133" s="163"/>
-      <c r="I133" s="163"/>
-      <c r="J133" s="163"/>
-      <c r="K133" s="163"/>
+      <c r="E133" s="155"/>
+      <c r="F133" s="155"/>
+      <c r="G133" s="155"/>
+      <c r="H133" s="155"/>
+      <c r="I133" s="155"/>
+      <c r="J133" s="155"/>
+      <c r="K133" s="155"/>
       <c r="L133" s="68"/>
     </row>
     <row r="134" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="146" t="s">
-        <v>106</v>
-      </c>
-      <c r="C134" s="146"/>
-      <c r="D134" s="156" t="str">
+      <c r="B134" s="154" t="s">
+        <v>104</v>
+      </c>
+      <c r="C134" s="154"/>
+      <c r="D134" s="157" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="E134" s="156"/>
-      <c r="F134" s="156"/>
-      <c r="G134" s="156"/>
-      <c r="H134" s="156"/>
-      <c r="I134" s="156"/>
-      <c r="J134" s="156"/>
-      <c r="K134" s="156"/>
+      <c r="E134" s="157"/>
+      <c r="F134" s="157"/>
+      <c r="G134" s="157"/>
+      <c r="H134" s="157"/>
+      <c r="I134" s="157"/>
+      <c r="J134" s="157"/>
+      <c r="K134" s="157"/>
       <c r="L134" s="68"/>
     </row>
     <row r="135" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="157" t="s">
-        <v>107</v>
-      </c>
-      <c r="C135" s="146"/>
-      <c r="D135" s="158" t="str">
+      <c r="B135" s="158" t="s">
+        <v>105</v>
+      </c>
+      <c r="C135" s="154"/>
+      <c r="D135" s="159" t="str">
         <f>記入!B41</f>
         <v>${cv.technicalcontentchinese}</v>
       </c>
-      <c r="E135" s="159"/>
-      <c r="F135" s="159"/>
-      <c r="G135" s="159"/>
-      <c r="H135" s="159"/>
-      <c r="I135" s="159"/>
-      <c r="J135" s="159"/>
-      <c r="K135" s="159"/>
+      <c r="E135" s="160"/>
+      <c r="F135" s="160"/>
+      <c r="G135" s="160"/>
+      <c r="H135" s="160"/>
+      <c r="I135" s="160"/>
+      <c r="J135" s="160"/>
+      <c r="K135" s="160"/>
       <c r="L135" s="68"/>
     </row>
     <row r="136" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="146"/>
-      <c r="C136" s="146"/>
-      <c r="D136" s="159"/>
-      <c r="E136" s="159"/>
-      <c r="F136" s="159"/>
-      <c r="G136" s="159"/>
-      <c r="H136" s="159"/>
-      <c r="I136" s="159"/>
-      <c r="J136" s="159"/>
-      <c r="K136" s="159"/>
+      <c r="B136" s="154"/>
+      <c r="C136" s="154"/>
+      <c r="D136" s="160"/>
+      <c r="E136" s="160"/>
+      <c r="F136" s="160"/>
+      <c r="G136" s="160"/>
+      <c r="H136" s="160"/>
+      <c r="I136" s="160"/>
+      <c r="J136" s="160"/>
+      <c r="K136" s="160"/>
       <c r="L136" s="68"/>
     </row>
     <row r="137" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="146"/>
-      <c r="C137" s="146"/>
-      <c r="D137" s="159"/>
-      <c r="E137" s="159"/>
-      <c r="F137" s="159"/>
-      <c r="G137" s="159"/>
-      <c r="H137" s="159"/>
-      <c r="I137" s="159"/>
-      <c r="J137" s="159"/>
-      <c r="K137" s="159"/>
+      <c r="B137" s="154"/>
+      <c r="C137" s="154"/>
+      <c r="D137" s="160"/>
+      <c r="E137" s="160"/>
+      <c r="F137" s="160"/>
+      <c r="G137" s="160"/>
+      <c r="H137" s="160"/>
+      <c r="I137" s="160"/>
+      <c r="J137" s="160"/>
+      <c r="K137" s="160"/>
       <c r="L137" s="68"/>
     </row>
     <row r="138" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="146"/>
-      <c r="C138" s="146"/>
-      <c r="D138" s="159"/>
-      <c r="E138" s="159"/>
-      <c r="F138" s="159"/>
-      <c r="G138" s="159"/>
-      <c r="H138" s="159"/>
-      <c r="I138" s="159"/>
-      <c r="J138" s="159"/>
-      <c r="K138" s="159"/>
+      <c r="B138" s="154"/>
+      <c r="C138" s="154"/>
+      <c r="D138" s="160"/>
+      <c r="E138" s="160"/>
+      <c r="F138" s="160"/>
+      <c r="G138" s="160"/>
+      <c r="H138" s="160"/>
+      <c r="I138" s="160"/>
+      <c r="J138" s="160"/>
+      <c r="K138" s="160"/>
       <c r="L138" s="67"/>
     </row>
     <row r="139" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="146"/>
-      <c r="C139" s="146"/>
-      <c r="D139" s="159"/>
-      <c r="E139" s="159"/>
-      <c r="F139" s="159"/>
-      <c r="G139" s="159"/>
-      <c r="H139" s="159"/>
-      <c r="I139" s="159"/>
-      <c r="J139" s="159"/>
-      <c r="K139" s="159"/>
+      <c r="B139" s="154"/>
+      <c r="C139" s="154"/>
+      <c r="D139" s="160"/>
+      <c r="E139" s="160"/>
+      <c r="F139" s="160"/>
+      <c r="G139" s="160"/>
+      <c r="H139" s="160"/>
+      <c r="I139" s="160"/>
+      <c r="J139" s="160"/>
+      <c r="K139" s="160"/>
       <c r="L139" s="67"/>
     </row>
     <row r="140" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="146"/>
-      <c r="C140" s="146"/>
-      <c r="D140" s="159"/>
-      <c r="E140" s="159"/>
-      <c r="F140" s="159"/>
-      <c r="G140" s="159"/>
-      <c r="H140" s="159"/>
-      <c r="I140" s="159"/>
-      <c r="J140" s="159"/>
-      <c r="K140" s="159"/>
+      <c r="B140" s="154"/>
+      <c r="C140" s="154"/>
+      <c r="D140" s="160"/>
+      <c r="E140" s="160"/>
+      <c r="F140" s="160"/>
+      <c r="G140" s="160"/>
+      <c r="H140" s="160"/>
+      <c r="I140" s="160"/>
+      <c r="J140" s="160"/>
+      <c r="K140" s="160"/>
       <c r="L140" s="68"/>
     </row>
     <row r="141" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="146"/>
-      <c r="C141" s="146"/>
-      <c r="D141" s="159"/>
-      <c r="E141" s="159"/>
-      <c r="F141" s="159"/>
-      <c r="G141" s="159"/>
-      <c r="H141" s="159"/>
-      <c r="I141" s="159"/>
-      <c r="J141" s="159"/>
-      <c r="K141" s="159"/>
+      <c r="B141" s="154"/>
+      <c r="C141" s="154"/>
+      <c r="D141" s="160"/>
+      <c r="E141" s="160"/>
+      <c r="F141" s="160"/>
+      <c r="G141" s="160"/>
+      <c r="H141" s="160"/>
+      <c r="I141" s="160"/>
+      <c r="J141" s="160"/>
+      <c r="K141" s="160"/>
       <c r="L141" s="68"/>
     </row>
     <row r="142" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="146" t="s">
-        <v>108</v>
-      </c>
-      <c r="C142" s="146"/>
-      <c r="D142" s="160" t="str">
+      <c r="B142" s="154" t="s">
+        <v>106</v>
+      </c>
+      <c r="C142" s="154"/>
+      <c r="D142" s="161" t="str">
         <f>記入!B52</f>
         <v>${cv.subcontract}</v>
       </c>
-      <c r="E142" s="161"/>
-      <c r="F142" s="161"/>
-      <c r="G142" s="161"/>
-      <c r="H142" s="161"/>
-      <c r="I142" s="161"/>
-      <c r="J142" s="161"/>
-      <c r="K142" s="162"/>
+      <c r="E142" s="162"/>
+      <c r="F142" s="162"/>
+      <c r="G142" s="162"/>
+      <c r="H142" s="162"/>
+      <c r="I142" s="162"/>
+      <c r="J142" s="162"/>
+      <c r="K142" s="163"/>
       <c r="L142" s="67"/>
     </row>
     <row r="143" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="146"/>
-      <c r="C143" s="146"/>
-      <c r="D143" s="158" t="str">
+      <c r="B143" s="154"/>
+      <c r="C143" s="154"/>
+      <c r="D143" s="159" t="str">
         <f>記入!B53</f>
         <v>再委托公司：
 ${cv.subcontractcontent}</v>
       </c>
-      <c r="E143" s="159"/>
-      <c r="F143" s="159"/>
-      <c r="G143" s="159"/>
-      <c r="H143" s="159"/>
-      <c r="I143" s="159"/>
-      <c r="J143" s="159"/>
-      <c r="K143" s="159"/>
+      <c r="E143" s="160"/>
+      <c r="F143" s="160"/>
+      <c r="G143" s="160"/>
+      <c r="H143" s="160"/>
+      <c r="I143" s="160"/>
+      <c r="J143" s="160"/>
+      <c r="K143" s="160"/>
       <c r="L143" s="69"/>
     </row>
     <row r="144" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="146"/>
-      <c r="C144" s="146"/>
-      <c r="D144" s="159"/>
-      <c r="E144" s="159"/>
-      <c r="F144" s="159"/>
-      <c r="G144" s="159"/>
-      <c r="H144" s="159"/>
-      <c r="I144" s="159"/>
-      <c r="J144" s="159"/>
-      <c r="K144" s="159"/>
+      <c r="B144" s="154"/>
+      <c r="C144" s="154"/>
+      <c r="D144" s="160"/>
+      <c r="E144" s="160"/>
+      <c r="F144" s="160"/>
+      <c r="G144" s="160"/>
+      <c r="H144" s="160"/>
+      <c r="I144" s="160"/>
+      <c r="J144" s="160"/>
+      <c r="K144" s="160"/>
       <c r="L144" s="69"/>
     </row>
     <row r="145" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="146"/>
-      <c r="C145" s="146"/>
-      <c r="D145" s="159"/>
-      <c r="E145" s="159"/>
-      <c r="F145" s="159"/>
-      <c r="G145" s="159"/>
-      <c r="H145" s="159"/>
-      <c r="I145" s="159"/>
-      <c r="J145" s="159"/>
-      <c r="K145" s="159"/>
+      <c r="B145" s="154"/>
+      <c r="C145" s="154"/>
+      <c r="D145" s="160"/>
+      <c r="E145" s="160"/>
+      <c r="F145" s="160"/>
+      <c r="G145" s="160"/>
+      <c r="H145" s="160"/>
+      <c r="I145" s="160"/>
+      <c r="J145" s="160"/>
+      <c r="K145" s="160"/>
       <c r="L145" s="69"/>
     </row>
     <row r="146" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="146"/>
-      <c r="C146" s="146"/>
-      <c r="D146" s="159"/>
-      <c r="E146" s="159"/>
-      <c r="F146" s="159"/>
-      <c r="G146" s="159"/>
-      <c r="H146" s="159"/>
-      <c r="I146" s="159"/>
-      <c r="J146" s="159"/>
-      <c r="K146" s="159"/>
+      <c r="B146" s="154"/>
+      <c r="C146" s="154"/>
+      <c r="D146" s="160"/>
+      <c r="E146" s="160"/>
+      <c r="F146" s="160"/>
+      <c r="G146" s="160"/>
+      <c r="H146" s="160"/>
+      <c r="I146" s="160"/>
+      <c r="J146" s="160"/>
+      <c r="K146" s="160"/>
       <c r="L146" s="69"/>
     </row>
     <row r="147" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7020,7 +7028,7 @@
     </row>
     <row r="148" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B148" s="69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C148" s="69"/>
       <c r="D148" s="69"/>
@@ -7034,222 +7042,222 @@
       <c r="L148" s="68"/>
     </row>
     <row r="149" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="146" t="s">
-        <v>82</v>
-      </c>
-      <c r="C149" s="146"/>
-      <c r="D149" s="147" t="s">
+      <c r="B149" s="154" t="s">
+        <v>80</v>
+      </c>
+      <c r="C149" s="154"/>
+      <c r="D149" s="164" t="s">
+        <v>108</v>
+      </c>
+      <c r="E149" s="164"/>
+      <c r="F149" s="164" t="s">
+        <v>109</v>
+      </c>
+      <c r="G149" s="164"/>
+      <c r="H149" s="164" t="s">
         <v>110</v>
       </c>
-      <c r="E149" s="147"/>
-      <c r="F149" s="147" t="s">
+      <c r="I149" s="164"/>
+      <c r="J149" s="164" t="s">
         <v>111</v>
       </c>
-      <c r="G149" s="147"/>
-      <c r="H149" s="147" t="s">
+      <c r="K149" s="164"/>
+      <c r="L149" s="68"/>
+    </row>
+    <row r="150" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B150" s="154" t="s">
         <v>112</v>
       </c>
-      <c r="I149" s="147"/>
-      <c r="J149" s="147" t="s">
-        <v>113</v>
-      </c>
-      <c r="K149" s="147"/>
-      <c r="L149" s="68"/>
-    </row>
-    <row r="150" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="146" t="s">
-        <v>114</v>
-      </c>
-      <c r="C150" s="146"/>
-      <c r="D150" s="155" t="str">
+      <c r="C150" s="154"/>
+      <c r="D150" s="165" t="str">
         <f>記入!B29</f>
         <v>${r.deliverydate}</v>
       </c>
-      <c r="E150" s="147"/>
-      <c r="F150" s="155" t="e">
+      <c r="E150" s="164"/>
+      <c r="F150" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G150" s="147"/>
-      <c r="H150" s="155" t="e">
+      <c r="G150" s="164"/>
+      <c r="H150" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I150" s="147"/>
-      <c r="J150" s="155" t="e">
+      <c r="I150" s="164"/>
+      <c r="J150" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K150" s="147"/>
+      <c r="K150" s="164"/>
       <c r="L150" s="69"/>
     </row>
     <row r="151" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="146" t="s">
-        <v>115</v>
-      </c>
-      <c r="C151" s="146"/>
-      <c r="D151" s="155" t="str">
+      <c r="B151" s="154" t="s">
+        <v>113</v>
+      </c>
+      <c r="C151" s="154"/>
+      <c r="D151" s="165" t="str">
         <f>記入!C29</f>
         <v>${r.completiondate}</v>
       </c>
-      <c r="E151" s="147"/>
-      <c r="F151" s="155" t="e">
+      <c r="E151" s="164"/>
+      <c r="F151" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G151" s="147"/>
-      <c r="H151" s="155" t="e">
+      <c r="G151" s="164"/>
+      <c r="H151" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I151" s="147"/>
-      <c r="J151" s="155" t="e">
+      <c r="I151" s="164"/>
+      <c r="J151" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K151" s="147"/>
+      <c r="K151" s="164"/>
       <c r="L151" s="67"/>
     </row>
     <row r="152" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="146" t="s">
-        <v>116</v>
-      </c>
-      <c r="C152" s="146"/>
-      <c r="D152" s="154" t="str">
+      <c r="B152" s="154" t="s">
+        <v>114</v>
+      </c>
+      <c r="C152" s="154"/>
+      <c r="D152" s="166" t="str">
         <f>記入!D29</f>
         <v>${r.claimdate}</v>
       </c>
-      <c r="E152" s="151"/>
-      <c r="F152" s="155" t="e">
+      <c r="E152" s="167"/>
+      <c r="F152" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G152" s="147"/>
-      <c r="H152" s="155" t="e">
+      <c r="G152" s="164"/>
+      <c r="H152" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I152" s="147"/>
-      <c r="J152" s="155" t="e">
+      <c r="I152" s="164"/>
+      <c r="J152" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K152" s="147"/>
+      <c r="K152" s="164"/>
       <c r="L152" s="67"/>
     </row>
     <row r="153" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="146" t="s">
-        <v>117</v>
-      </c>
-      <c r="C153" s="146"/>
-      <c r="D153" s="154" t="str">
+      <c r="B153" s="154" t="s">
+        <v>115</v>
+      </c>
+      <c r="C153" s="154"/>
+      <c r="D153" s="166" t="str">
         <f>記入!E29</f>
         <v>${r.supportdate}</v>
       </c>
-      <c r="E153" s="151"/>
-      <c r="F153" s="155" t="e">
+      <c r="E153" s="167"/>
+      <c r="F153" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G153" s="147"/>
-      <c r="H153" s="155" t="e">
+      <c r="G153" s="164"/>
+      <c r="H153" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I153" s="147"/>
-      <c r="J153" s="155" t="e">
+      <c r="I153" s="164"/>
+      <c r="J153" s="165" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K153" s="147"/>
+      <c r="K153" s="164"/>
       <c r="L153" s="67"/>
     </row>
     <row r="154" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="146" t="s">
-        <v>118</v>
-      </c>
-      <c r="C154" s="146"/>
-      <c r="D154" s="152" t="str">
+      <c r="B154" s="154" t="s">
+        <v>116</v>
+      </c>
+      <c r="C154" s="154"/>
+      <c r="D154" s="168" t="str">
         <f>記入!F29</f>
         <v>${r.claimamount}</v>
       </c>
-      <c r="E154" s="151"/>
-      <c r="F154" s="153" t="e">
+      <c r="E154" s="167"/>
+      <c r="F154" s="169" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G154" s="147"/>
-      <c r="H154" s="153" t="e">
+      <c r="G154" s="164"/>
+      <c r="H154" s="169" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I154" s="147"/>
-      <c r="J154" s="153" t="e">
+      <c r="I154" s="164"/>
+      <c r="J154" s="169" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K154" s="147"/>
+      <c r="K154" s="164"/>
       <c r="L154" s="67"/>
     </row>
     <row r="155" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="146" t="s">
-        <v>119</v>
-      </c>
-      <c r="C155" s="146"/>
-      <c r="D155" s="151" t="str">
+      <c r="B155" s="154" t="s">
+        <v>117</v>
+      </c>
+      <c r="C155" s="154"/>
+      <c r="D155" s="167" t="str">
         <f>記入!B12&amp;(-1)</f>
         <v>${cv.contractnumber}-1</v>
       </c>
-      <c r="E155" s="151"/>
-      <c r="F155" s="147" t="str">
+      <c r="E155" s="167"/>
+      <c r="F155" s="164" t="str">
         <f>記入!B12&amp;(-2)</f>
         <v>${cv.contractnumber}-2</v>
       </c>
-      <c r="G155" s="147"/>
-      <c r="H155" s="147" t="str">
+      <c r="G155" s="164"/>
+      <c r="H155" s="164" t="str">
         <f>記入!B12&amp;(-3)</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="I155" s="147"/>
-      <c r="J155" s="147" t="str">
+      <c r="I155" s="164"/>
+      <c r="J155" s="164" t="str">
         <f>記入!B12&amp;(-4)</f>
         <v>${cv.contractnumber}-4</v>
       </c>
-      <c r="K155" s="147"/>
+      <c r="K155" s="164"/>
       <c r="L155" s="67"/>
     </row>
     <row r="156" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="146" t="s">
-        <v>93</v>
-      </c>
-      <c r="C156" s="146"/>
-      <c r="D156" s="147" t="s">
-        <v>121</v>
-      </c>
-      <c r="E156" s="147"/>
-      <c r="F156" s="147"/>
-      <c r="G156" s="147"/>
-      <c r="H156" s="147"/>
-      <c r="I156" s="147"/>
-      <c r="J156" s="147"/>
-      <c r="K156" s="147"/>
+      <c r="B156" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="C156" s="154"/>
+      <c r="D156" s="164" t="s">
+        <v>119</v>
+      </c>
+      <c r="E156" s="164"/>
+      <c r="F156" s="164"/>
+      <c r="G156" s="164"/>
+      <c r="H156" s="164"/>
+      <c r="I156" s="164"/>
+      <c r="J156" s="164"/>
+      <c r="K156" s="164"/>
       <c r="L156" s="68"/>
     </row>
     <row r="157" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="146" t="s">
+      <c r="B157" s="154" t="s">
+        <v>118</v>
+      </c>
+      <c r="C157" s="154"/>
+      <c r="D157" s="164" t="s">
         <v>120</v>
       </c>
-      <c r="C157" s="146"/>
-      <c r="D157" s="147" t="s">
-        <v>122</v>
-      </c>
-      <c r="E157" s="147"/>
-      <c r="F157" s="147"/>
-      <c r="G157" s="147"/>
-      <c r="H157" s="147"/>
-      <c r="I157" s="147"/>
-      <c r="J157" s="147"/>
-      <c r="K157" s="147"/>
+      <c r="E157" s="164"/>
+      <c r="F157" s="164"/>
+      <c r="G157" s="164"/>
+      <c r="H157" s="164"/>
+      <c r="I157" s="164"/>
+      <c r="J157" s="164"/>
+      <c r="K157" s="164"/>
       <c r="L157" s="68"/>
     </row>
     <row r="158" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7267,7 +7275,7 @@
     </row>
     <row r="159" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B159" s="69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C159" s="69"/>
       <c r="D159" s="69"/>
@@ -7281,60 +7289,60 @@
       <c r="L159" s="69"/>
     </row>
     <row r="160" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="148" t="s">
-        <v>124</v>
-      </c>
-      <c r="C160" s="148"/>
-      <c r="D160" s="148" t="str">
+      <c r="B160" s="170" t="s">
+        <v>122</v>
+      </c>
+      <c r="C160" s="170"/>
+      <c r="D160" s="170" t="str">
         <f>記入!B60</f>
         <v>${cv.othertermschinese}</v>
       </c>
-      <c r="E160" s="148"/>
-      <c r="F160" s="148"/>
-      <c r="G160" s="148"/>
-      <c r="H160" s="148"/>
-      <c r="I160" s="148"/>
-      <c r="J160" s="148"/>
-      <c r="K160" s="148"/>
+      <c r="E160" s="170"/>
+      <c r="F160" s="170"/>
+      <c r="G160" s="170"/>
+      <c r="H160" s="170"/>
+      <c r="I160" s="170"/>
+      <c r="J160" s="170"/>
+      <c r="K160" s="170"/>
       <c r="L160" s="69"/>
     </row>
     <row r="161" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="149"/>
-      <c r="C161" s="149"/>
-      <c r="D161" s="149"/>
-      <c r="E161" s="149"/>
-      <c r="F161" s="149"/>
-      <c r="G161" s="149"/>
-      <c r="H161" s="149"/>
-      <c r="I161" s="149"/>
-      <c r="J161" s="149"/>
-      <c r="K161" s="149"/>
+      <c r="B161" s="171"/>
+      <c r="C161" s="171"/>
+      <c r="D161" s="171"/>
+      <c r="E161" s="171"/>
+      <c r="F161" s="171"/>
+      <c r="G161" s="171"/>
+      <c r="H161" s="171"/>
+      <c r="I161" s="171"/>
+      <c r="J161" s="171"/>
+      <c r="K161" s="171"/>
       <c r="L161" s="69"/>
     </row>
     <row r="162" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="149"/>
-      <c r="C162" s="149"/>
-      <c r="D162" s="149"/>
-      <c r="E162" s="149"/>
-      <c r="F162" s="149"/>
-      <c r="G162" s="149"/>
-      <c r="H162" s="149"/>
-      <c r="I162" s="149"/>
-      <c r="J162" s="149"/>
-      <c r="K162" s="149"/>
+      <c r="B162" s="171"/>
+      <c r="C162" s="171"/>
+      <c r="D162" s="171"/>
+      <c r="E162" s="171"/>
+      <c r="F162" s="171"/>
+      <c r="G162" s="171"/>
+      <c r="H162" s="171"/>
+      <c r="I162" s="171"/>
+      <c r="J162" s="171"/>
+      <c r="K162" s="171"/>
       <c r="L162" s="67"/>
     </row>
     <row r="163" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="150"/>
-      <c r="C163" s="150"/>
-      <c r="D163" s="150"/>
-      <c r="E163" s="150"/>
-      <c r="F163" s="150"/>
-      <c r="G163" s="150"/>
-      <c r="H163" s="150"/>
-      <c r="I163" s="150"/>
-      <c r="J163" s="150"/>
-      <c r="K163" s="150"/>
+      <c r="B163" s="172"/>
+      <c r="C163" s="172"/>
+      <c r="D163" s="172"/>
+      <c r="E163" s="172"/>
+      <c r="F163" s="172"/>
+      <c r="G163" s="172"/>
+      <c r="H163" s="172"/>
+      <c r="I163" s="172"/>
+      <c r="J163" s="172"/>
+      <c r="K163" s="172"/>
       <c r="L163" s="69"/>
     </row>
     <row r="164" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7374,7 +7382,7 @@
       <c r="I166" s="69"/>
       <c r="J166" s="69"/>
       <c r="K166" s="69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L166" s="69"/>
     </row>
@@ -7565,6 +7573,60 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:K156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:K157"/>
+    <mergeCell ref="B160:C163"/>
+    <mergeCell ref="D160:K163"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:K134"/>
+    <mergeCell ref="B135:C141"/>
+    <mergeCell ref="D135:K141"/>
+    <mergeCell ref="B142:C146"/>
+    <mergeCell ref="D142:K142"/>
+    <mergeCell ref="D143:K146"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="D131:K131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="D132:K132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:K133"/>
     <mergeCell ref="K127:L127"/>
     <mergeCell ref="B60:L71"/>
     <mergeCell ref="K2:L2"/>
@@ -7572,60 +7634,6 @@
     <mergeCell ref="B11:L57"/>
     <mergeCell ref="K59:L59"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="D131:K131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="D132:K132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="D133:K133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D134:K134"/>
-    <mergeCell ref="B135:C141"/>
-    <mergeCell ref="D135:K141"/>
-    <mergeCell ref="B142:C146"/>
-    <mergeCell ref="D142:K142"/>
-    <mergeCell ref="D143:K146"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:K156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D157:K157"/>
-    <mergeCell ref="B160:C163"/>
-    <mergeCell ref="D160:K163"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570" activeTab="2"/>
+    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="受託技術個別契約書-cn" sheetId="13" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">記入!$A$31:$F$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">記入!$A$1:$H$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">記入!$A$34:$F$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">記入!$A$1:$H$65</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'受託技術個別契約書-cn'!$B$2:$L$175</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'受託技術個別契約書-jp'!$B$2:$L$178</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -27,7 +32,7 @@
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A29" authorId="0">
+    <comment ref="A29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +70,7 @@
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +94,7 @@
     <author>ADMIN</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="177">
   <si>
     <t>委託元（和文）</t>
     <rPh sb="4" eb="6">
@@ -994,6 +999,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="SimSun"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>委托费及支付方法</t>
@@ -1229,22 +1235,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${r.completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${r.claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${r.supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${r.claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>${cv.depositjapanese}</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1270,10 +1260,6 @@
   </si>
   <si>
     <t>${cv.contractnumber}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${r.deliverydate}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1357,6 +1343,86 @@
   </si>
   <si>
     <t>中国辽宁省大连市高新技术产业园区黄浦路900号30号楼&lt;116085&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[1].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[2].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[3].deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[0].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[1].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[2].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[3].completiondate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[0].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[1].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[2].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[3].claimdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[0].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[1].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[2].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[3].supportdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[0].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[1].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[2].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv[3].claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${cv.contractnumber.get(0).deliverydate}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1374,14 +1440,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1389,7 +1455,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1397,7 +1463,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1450,7 +1516,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1497,12 +1563,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1511,6 +1579,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1518,6 +1587,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1545,18 +1615,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1837,7 +1910,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1884,9 +1957,6 @@
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="6" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -2019,6 +2089,9 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2032,6 +2105,9 @@
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2330,7 +2406,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2372,7 +2448,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2407,7 +2483,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2617,19 +2693,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="45.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="10.125" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -2646,11 +2723,11 @@
       <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
@@ -2660,7 +2737,7 @@
       <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
@@ -2671,11 +2748,11 @@
       <c r="H3" s="81"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>15</v>
@@ -2684,7 +2761,7 @@
       <c r="H4" s="81"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="4"/>
@@ -2695,11 +2772,11 @@
       <c r="H5" s="81"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>15</v>
@@ -2708,11 +2785,11 @@
       <c r="H6" s="81"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>15</v>
@@ -2721,7 +2798,7 @@
       <c r="H7" s="81"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="14"/>
@@ -2732,11 +2809,11 @@
       <c r="H8" s="81"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="39" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>15</v>
@@ -2745,11 +2822,11 @@
       <c r="H9" s="81"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>15</v>
@@ -2758,11 +2835,11 @@
       <c r="H10" s="81"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>15</v>
@@ -2771,11 +2848,11 @@
       <c r="H11" s="81"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>15</v>
@@ -2784,7 +2861,7 @@
       <c r="H12" s="81"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4"/>
@@ -2795,11 +2872,11 @@
       <c r="H13" s="81"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>15</v>
@@ -2808,11 +2885,11 @@
       <c r="H14" s="81"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>15</v>
@@ -2821,7 +2898,7 @@
       <c r="H15" s="81"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="14"/>
@@ -2832,7 +2909,7 @@
       <c r="H16" s="81"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="14"/>
@@ -2843,7 +2920,7 @@
       <c r="H17" s="81"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="14"/>
@@ -2854,11 +2931,11 @@
       <c r="H18" s="81"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="38" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>15</v>
@@ -2867,11 +2944,11 @@
       <c r="H19" s="81"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>15</v>
@@ -2880,7 +2957,7 @@
       <c r="H20" s="81"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="14"/>
@@ -2891,7 +2968,7 @@
       <c r="H21" s="81"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="38" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="14"/>
@@ -2902,7 +2979,7 @@
       <c r="H22" s="81"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="8"/>
@@ -2913,7 +2990,7 @@
       <c r="H23" s="81"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="39" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="5"/>
@@ -2924,7 +3001,7 @@
       <c r="H24" s="81"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="39" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -2937,7 +3014,7 @@
       <c r="H25" s="81"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2950,387 +3027,456 @@
       <c r="H26" s="81"/>
     </row>
     <row r="27" spans="1:8" ht="1.5" hidden="1" customHeight="1">
-      <c r="A27" s="42"/>
+      <c r="A27" s="41"/>
       <c r="B27" s="1"/>
       <c r="G27" s="80"/>
       <c r="H27" s="81"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="E28" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="45" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="80"/>
       <c r="H28" s="81"/>
     </row>
-    <row r="29" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A29" s="44" t="str">
+    <row r="29" spans="1:8" ht="13.5">
+      <c r="A29" s="43" t="str">
         <f>IF(B29="","","第一回")</f>
         <v>第一回</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="G29" s="80"/>
+        <v>168</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="82"/>
       <c r="H29" s="81"/>
     </row>
-    <row r="30" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.25">
-      <c r="A31" s="16" t="s">
+    <row r="30" spans="1:8" ht="13.5">
+      <c r="A30" s="43" t="str">
+        <f>IF(B30="","","第二回")</f>
+        <v>第二回</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.5">
+      <c r="A31" s="43" t="str">
+        <f>IF(B31="","","第三回")</f>
+        <v>第三回</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+    </row>
+    <row r="32" spans="1:8" ht="13.5">
+      <c r="A32" s="43" t="str">
+        <f>IF(B32="","","第四回")</f>
+        <v>第四回</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+    </row>
+    <row r="33" spans="1:6" ht="12" customHeight="1">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25">
+      <c r="A34" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A32" s="13" t="s">
+    <row r="35" spans="1:6" s="3" customFormat="1" ht="13.5">
+      <c r="A35" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="27" t="s">
-        <v>146</v>
-      </c>
-      <c r="C32" s="82" t="s">
+      <c r="B35" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="83"/>
-      <c r="E32" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" s="85"/>
-    </row>
-    <row r="33" spans="1:6" ht="13.5">
-      <c r="A33" s="13" t="s">
+      <c r="D35" s="84"/>
+      <c r="E35" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="86"/>
+    </row>
+    <row r="36" spans="1:6" ht="13.5">
+      <c r="A36" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B36" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="84"/>
+      <c r="E36" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="86"/>
+    </row>
+    <row r="37" spans="1:6" ht="13.5">
+      <c r="A37" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="82" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="83"/>
-      <c r="E33" s="84" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33" s="85"/>
-    </row>
-    <row r="34" spans="1:6" ht="13.5">
-      <c r="A34" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-    </row>
-    <row r="35" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A35" s="90" t="s">
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A38" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="95" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="97"/>
-    </row>
-    <row r="36" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A36" s="91"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="100"/>
-    </row>
-    <row r="37" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A37" s="91"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="100"/>
-    </row>
-    <row r="38" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A38" s="91"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="100"/>
+      <c r="B38" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="98"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="91"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="100"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="101"/>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1">
       <c r="A40" s="92"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="103"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="118" t="s">
+      <c r="B40" s="99"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="101"/>
+    </row>
+    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A41" s="92"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="101"/>
+    </row>
+    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A42" s="92"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="101"/>
+    </row>
+    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A43" s="93"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="104"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="119" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="116" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="117"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-    </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A42" s="118"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="117"/>
-    </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A43" s="118"/>
-      <c r="B43" s="117"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="117"/>
-    </row>
-    <row r="44" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A44" s="118"/>
-      <c r="B44" s="117"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
+      <c r="B44" s="117" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
     </row>
     <row r="45" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A45" s="118"/>
-      <c r="B45" s="117"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
+      <c r="A45" s="119"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
     </row>
     <row r="46" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A46" s="118"/>
-      <c r="B46" s="117"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
+      <c r="A46" s="119"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A47" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="B47" s="113" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="115"/>
+      <c r="A47" s="119"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A48" s="93"/>
-      <c r="B48" s="104" t="s">
-        <v>151</v>
-      </c>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="106"/>
+      <c r="A48" s="119"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A49" s="93"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
-      <c r="D49" s="108"/>
-      <c r="E49" s="108"/>
-      <c r="F49" s="109"/>
+      <c r="A49" s="119"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="118"/>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A50" s="93"/>
-      <c r="B50" s="107"/>
-      <c r="C50" s="108"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="109"/>
+      <c r="A50" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="114" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="116"/>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1">
       <c r="A51" s="94"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="112"/>
+      <c r="B51" s="105" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="107"/>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A52" s="119" t="s">
+      <c r="A52" s="94"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="110"/>
+    </row>
+    <row r="53" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A53" s="94"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="110"/>
+    </row>
+    <row r="54" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A54" s="95"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="113"/>
+    </row>
+    <row r="55" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A55" s="120" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="113" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="115"/>
-    </row>
-    <row r="53" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A53" s="119"/>
-      <c r="B53" s="120" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="89"/>
-    </row>
-    <row r="54" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A54" s="119"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="89"/>
-    </row>
-    <row r="55" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A55" s="119"/>
-      <c r="B55" s="89"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="89"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="119"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="89"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="86" t="s">
+      <c r="B55" s="114" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="115"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="116"/>
+    </row>
+    <row r="56" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A56" s="120"/>
+      <c r="B56" s="121" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="90"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
+    </row>
+    <row r="57" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A57" s="120"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+    </row>
+    <row r="58" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A58" s="120"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="120"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="B57" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="C57" s="89"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="89"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="86"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="86"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
-      <c r="F59" s="89"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="B60" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="89"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="89"/>
+      <c r="B60" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="90"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="87"/>
-      <c r="B61" s="89"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="87"/>
-      <c r="B62" s="89"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="89"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="88"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="90"/>
+      <c r="E64" s="90"/>
+      <c r="F64" s="90"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="88"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
+      <c r="F65" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A57:A59"/>
     <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B57:F59"/>
+    <mergeCell ref="A63:A65"/>
     <mergeCell ref="B60:F62"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B35:F40"/>
-    <mergeCell ref="B48:F51"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B41:F46"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F56"/>
+    <mergeCell ref="B63:F65"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A50:A54"/>
+    <mergeCell ref="B38:F43"/>
+    <mergeCell ref="B51:F54"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B44:F49"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B56:F59"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G1:H29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B47:F47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50:F50">
       <formula1>"あり,なし"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52:F52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55:F55">
       <formula1>"有,无"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3345,2139 +3491,2139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L190"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A79" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A118" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="20" customWidth="1"/>
-    <col min="2" max="12" width="9" style="20"/>
-    <col min="13" max="13" width="2.5" style="20" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="2.625" style="19" customWidth="1"/>
+    <col min="2" max="12" width="9" style="19"/>
+    <col min="13" max="13" width="2.5" style="19" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12"/>
     <row r="2" spans="1:12" ht="24.75" customHeight="1">
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="121" t="str">
+      <c r="K2" s="122" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="121"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:12" ht="14.25">
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="28" t="str">
+      <c r="C6" s="27" t="str">
         <f>記入!B2</f>
         <v>${cv.depositjapanese}</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
     </row>
     <row r="7" spans="1:12" ht="8.25" customHeight="1">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="126" t="str">
-        <f>記入!B34</f>
+      <c r="C8" s="48"/>
+      <c r="D8" s="127" t="str">
+        <f>記入!B37</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E8" s="126"/>
-      <c r="F8" s="50" t="s">
+      <c r="E8" s="127"/>
+      <c r="F8" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="123"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="123"/>
-      <c r="H12" s="123"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="123"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="123"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="123"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="123"/>
-      <c r="H14" s="123"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="123"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="123"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
-      <c r="L15" s="123"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="123"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="123"/>
-      <c r="L16" s="123"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="123"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="123"/>
-      <c r="K18" s="123"/>
-      <c r="L18" s="123"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="123"/>
-      <c r="K19" s="123"/>
-      <c r="L19" s="123"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="123"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="123"/>
-      <c r="K20" s="123"/>
-      <c r="L20" s="123"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="123"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="123"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="123"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="123"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="123"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="123"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="123"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="123"/>
-      <c r="H24" s="123"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="123"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="123"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="123"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="123"/>
-      <c r="L26" s="123"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="123"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="123"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="123"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
-      <c r="H28" s="123"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="123"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="123"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="123"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="123"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="123"/>
-      <c r="L30" s="123"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="123"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="123"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="123"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="124"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="123"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="123"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="123"/>
-      <c r="K32" s="123"/>
-      <c r="L32" s="123"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="124"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="123"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="123"/>
-      <c r="H33" s="123"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="123"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
-      <c r="K34" s="123"/>
-      <c r="L34" s="123"/>
+      <c r="B34" s="124"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="124"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="123"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="123"/>
-      <c r="H35" s="123"/>
-      <c r="I35" s="123"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="123"/>
-      <c r="L35" s="123"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="124"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="123"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="123"/>
-      <c r="H36" s="123"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="123"/>
-      <c r="L36" s="123"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="124"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="123"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
-      <c r="H37" s="123"/>
-      <c r="I37" s="123"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="123"/>
-      <c r="L37" s="123"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="124"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="123"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="123"/>
-      <c r="H38" s="123"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="123"/>
-      <c r="K38" s="123"/>
-      <c r="L38" s="123"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="124"/>
+      <c r="L38" s="124"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="123"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="123"/>
-      <c r="H39" s="123"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="123"/>
-      <c r="K39" s="123"/>
-      <c r="L39" s="123"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="124"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="124"/>
+      <c r="K39" s="124"/>
+      <c r="L39" s="124"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="123"/>
-      <c r="C40" s="123"/>
-      <c r="D40" s="123"/>
-      <c r="E40" s="123"/>
-      <c r="F40" s="123"/>
-      <c r="G40" s="123"/>
-      <c r="H40" s="123"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="123"/>
-      <c r="K40" s="123"/>
-      <c r="L40" s="123"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="124"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="123"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
-      <c r="H41" s="123"/>
-      <c r="I41" s="123"/>
-      <c r="J41" s="123"/>
-      <c r="K41" s="123"/>
-      <c r="L41" s="123"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="124"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="123"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="123"/>
-      <c r="H42" s="123"/>
-      <c r="I42" s="123"/>
-      <c r="J42" s="123"/>
-      <c r="K42" s="123"/>
-      <c r="L42" s="123"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="124"/>
+      <c r="L42" s="124"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="123"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="123"/>
-      <c r="K43" s="123"/>
-      <c r="L43" s="123"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="124"/>
+      <c r="G43" s="124"/>
+      <c r="H43" s="124"/>
+      <c r="I43" s="124"/>
+      <c r="J43" s="124"/>
+      <c r="K43" s="124"/>
+      <c r="L43" s="124"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="123"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
-      <c r="G44" s="123"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="123"/>
-      <c r="J44" s="123"/>
-      <c r="K44" s="123"/>
-      <c r="L44" s="123"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="124"/>
+      <c r="K44" s="124"/>
+      <c r="L44" s="124"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="123"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="123"/>
-      <c r="J45" s="123"/>
-      <c r="K45" s="123"/>
-      <c r="L45" s="123"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="124"/>
+      <c r="L45" s="124"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="123"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="123"/>
-      <c r="G46" s="123"/>
-      <c r="H46" s="123"/>
-      <c r="I46" s="123"/>
-      <c r="J46" s="123"/>
-      <c r="K46" s="123"/>
-      <c r="L46" s="123"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="124"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="123"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
-      <c r="F47" s="123"/>
-      <c r="G47" s="123"/>
-      <c r="H47" s="123"/>
-      <c r="I47" s="123"/>
-      <c r="J47" s="123"/>
-      <c r="K47" s="123"/>
-      <c r="L47" s="123"/>
+      <c r="B47" s="124"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="124"/>
+      <c r="K47" s="124"/>
+      <c r="L47" s="124"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="123"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
-      <c r="G48" s="123"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="123"/>
-      <c r="J48" s="123"/>
-      <c r="K48" s="123"/>
-      <c r="L48" s="123"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="124"/>
+      <c r="J48" s="124"/>
+      <c r="K48" s="124"/>
+      <c r="L48" s="124"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="123"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="123"/>
-      <c r="G49" s="123"/>
-      <c r="H49" s="123"/>
-      <c r="I49" s="123"/>
-      <c r="J49" s="123"/>
-      <c r="K49" s="123"/>
-      <c r="L49" s="123"/>
+      <c r="B49" s="124"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="124"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="123"/>
-      <c r="C50" s="123"/>
-      <c r="D50" s="123"/>
-      <c r="E50" s="123"/>
-      <c r="F50" s="123"/>
-      <c r="G50" s="123"/>
-      <c r="H50" s="123"/>
-      <c r="I50" s="123"/>
-      <c r="J50" s="123"/>
-      <c r="K50" s="123"/>
-      <c r="L50" s="123"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="124"/>
+      <c r="J50" s="124"/>
+      <c r="K50" s="124"/>
+      <c r="L50" s="124"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="123"/>
-      <c r="C51" s="123"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="123"/>
-      <c r="F51" s="123"/>
-      <c r="G51" s="123"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="123"/>
-      <c r="J51" s="123"/>
-      <c r="K51" s="123"/>
-      <c r="L51" s="123"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="124"/>
+      <c r="L51" s="124"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="123"/>
-      <c r="C52" s="123"/>
-      <c r="D52" s="123"/>
-      <c r="E52" s="123"/>
-      <c r="F52" s="123"/>
-      <c r="G52" s="123"/>
-      <c r="H52" s="123"/>
-      <c r="I52" s="123"/>
-      <c r="J52" s="123"/>
-      <c r="K52" s="123"/>
-      <c r="L52" s="123"/>
+      <c r="B52" s="124"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="124"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="124"/>
+      <c r="L52" s="124"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="123"/>
-      <c r="C53" s="123"/>
-      <c r="D53" s="123"/>
-      <c r="E53" s="123"/>
-      <c r="F53" s="123"/>
-      <c r="G53" s="123"/>
-      <c r="H53" s="123"/>
-      <c r="I53" s="123"/>
-      <c r="J53" s="123"/>
-      <c r="K53" s="123"/>
-      <c r="L53" s="123"/>
+      <c r="B53" s="124"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="124"/>
+      <c r="G53" s="124"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="124"/>
+      <c r="J53" s="124"/>
+      <c r="K53" s="124"/>
+      <c r="L53" s="124"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="123"/>
-      <c r="C54" s="123"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="123"/>
-      <c r="F54" s="123"/>
-      <c r="G54" s="123"/>
-      <c r="H54" s="123"/>
-      <c r="I54" s="123"/>
-      <c r="J54" s="123"/>
-      <c r="K54" s="123"/>
-      <c r="L54" s="123"/>
+      <c r="B54" s="124"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="124"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="124"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="124"/>
+      <c r="J54" s="124"/>
+      <c r="K54" s="124"/>
+      <c r="L54" s="124"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="123"/>
-      <c r="C55" s="123"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="123"/>
-      <c r="G55" s="123"/>
-      <c r="H55" s="123"/>
-      <c r="I55" s="123"/>
-      <c r="J55" s="123"/>
-      <c r="K55" s="123"/>
-      <c r="L55" s="123"/>
+      <c r="B55" s="124"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="124"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="124"/>
+      <c r="J55" s="124"/>
+      <c r="K55" s="124"/>
+      <c r="L55" s="124"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="123"/>
-      <c r="C56" s="123"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="123"/>
-      <c r="G56" s="123"/>
-      <c r="H56" s="123"/>
-      <c r="I56" s="123"/>
-      <c r="J56" s="123"/>
-      <c r="K56" s="123"/>
-      <c r="L56" s="123"/>
+      <c r="B56" s="124"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="124"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="124"/>
+      <c r="L56" s="124"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="123"/>
-      <c r="C57" s="123"/>
-      <c r="D57" s="123"/>
-      <c r="E57" s="123"/>
-      <c r="F57" s="123"/>
-      <c r="G57" s="123"/>
-      <c r="H57" s="123"/>
-      <c r="I57" s="123"/>
-      <c r="J57" s="123"/>
-      <c r="K57" s="123"/>
-      <c r="L57" s="123"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="124"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="124"/>
+      <c r="J57" s="124"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="124"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
     </row>
     <row r="59" spans="2:12" ht="24.75" customHeight="1">
-      <c r="J59" s="24" t="s">
+      <c r="J59" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K59" s="121" t="str">
+      <c r="K59" s="122" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L59" s="121"/>
+      <c r="L59" s="122"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="124" t="s">
+      <c r="B60" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="125"/>
-      <c r="D60" s="125"/>
-      <c r="E60" s="125"/>
-      <c r="F60" s="125"/>
-      <c r="G60" s="125"/>
-      <c r="H60" s="125"/>
-      <c r="I60" s="125"/>
-      <c r="J60" s="125"/>
-      <c r="K60" s="125"/>
-      <c r="L60" s="125"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
+      <c r="G60" s="126"/>
+      <c r="H60" s="126"/>
+      <c r="I60" s="126"/>
+      <c r="J60" s="126"/>
+      <c r="K60" s="126"/>
+      <c r="L60" s="126"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="125"/>
-      <c r="C61" s="125"/>
-      <c r="D61" s="125"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="125"/>
-      <c r="G61" s="125"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="125"/>
-      <c r="J61" s="125"/>
-      <c r="K61" s="125"/>
-      <c r="L61" s="125"/>
+      <c r="B61" s="126"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="126"/>
+      <c r="F61" s="126"/>
+      <c r="G61" s="126"/>
+      <c r="H61" s="126"/>
+      <c r="I61" s="126"/>
+      <c r="J61" s="126"/>
+      <c r="K61" s="126"/>
+      <c r="L61" s="126"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="125"/>
-      <c r="C62" s="125"/>
-      <c r="D62" s="125"/>
-      <c r="E62" s="125"/>
-      <c r="F62" s="125"/>
-      <c r="G62" s="125"/>
-      <c r="H62" s="125"/>
-      <c r="I62" s="125"/>
-      <c r="J62" s="125"/>
-      <c r="K62" s="125"/>
-      <c r="L62" s="125"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="126"/>
+      <c r="G62" s="126"/>
+      <c r="H62" s="126"/>
+      <c r="I62" s="126"/>
+      <c r="J62" s="126"/>
+      <c r="K62" s="126"/>
+      <c r="L62" s="126"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="125"/>
-      <c r="C63" s="125"/>
-      <c r="D63" s="125"/>
-      <c r="E63" s="125"/>
-      <c r="F63" s="125"/>
-      <c r="G63" s="125"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="125"/>
-      <c r="J63" s="125"/>
-      <c r="K63" s="125"/>
-      <c r="L63" s="125"/>
+      <c r="B63" s="126"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="126"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="126"/>
+      <c r="G63" s="126"/>
+      <c r="H63" s="126"/>
+      <c r="I63" s="126"/>
+      <c r="J63" s="126"/>
+      <c r="K63" s="126"/>
+      <c r="L63" s="126"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="125"/>
-      <c r="C64" s="125"/>
-      <c r="D64" s="125"/>
-      <c r="E64" s="125"/>
-      <c r="F64" s="125"/>
-      <c r="G64" s="125"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="125"/>
-      <c r="J64" s="125"/>
-      <c r="K64" s="125"/>
-      <c r="L64" s="125"/>
+      <c r="B64" s="126"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="126"/>
+      <c r="E64" s="126"/>
+      <c r="F64" s="126"/>
+      <c r="G64" s="126"/>
+      <c r="H64" s="126"/>
+      <c r="I64" s="126"/>
+      <c r="J64" s="126"/>
+      <c r="K64" s="126"/>
+      <c r="L64" s="126"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="125"/>
-      <c r="C65" s="125"/>
-      <c r="D65" s="125"/>
-      <c r="E65" s="125"/>
-      <c r="F65" s="125"/>
-      <c r="G65" s="125"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="125"/>
-      <c r="J65" s="125"/>
-      <c r="K65" s="125"/>
-      <c r="L65" s="125"/>
+      <c r="B65" s="126"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="126"/>
+      <c r="F65" s="126"/>
+      <c r="G65" s="126"/>
+      <c r="H65" s="126"/>
+      <c r="I65" s="126"/>
+      <c r="J65" s="126"/>
+      <c r="K65" s="126"/>
+      <c r="L65" s="126"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="125"/>
-      <c r="C66" s="125"/>
-      <c r="D66" s="125"/>
-      <c r="E66" s="125"/>
-      <c r="F66" s="125"/>
-      <c r="G66" s="125"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="125"/>
-      <c r="J66" s="125"/>
-      <c r="K66" s="125"/>
-      <c r="L66" s="125"/>
+      <c r="B66" s="126"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="126"/>
+      <c r="F66" s="126"/>
+      <c r="G66" s="126"/>
+      <c r="H66" s="126"/>
+      <c r="I66" s="126"/>
+      <c r="J66" s="126"/>
+      <c r="K66" s="126"/>
+      <c r="L66" s="126"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="125"/>
-      <c r="C67" s="125"/>
-      <c r="D67" s="125"/>
-      <c r="E67" s="125"/>
-      <c r="F67" s="125"/>
-      <c r="G67" s="125"/>
-      <c r="H67" s="125"/>
-      <c r="I67" s="125"/>
-      <c r="J67" s="125"/>
-      <c r="K67" s="125"/>
-      <c r="L67" s="125"/>
+      <c r="B67" s="126"/>
+      <c r="C67" s="126"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="126"/>
+      <c r="G67" s="126"/>
+      <c r="H67" s="126"/>
+      <c r="I67" s="126"/>
+      <c r="J67" s="126"/>
+      <c r="K67" s="126"/>
+      <c r="L67" s="126"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="125"/>
-      <c r="C68" s="125"/>
-      <c r="D68" s="125"/>
-      <c r="E68" s="125"/>
-      <c r="F68" s="125"/>
-      <c r="G68" s="125"/>
-      <c r="H68" s="125"/>
-      <c r="I68" s="125"/>
-      <c r="J68" s="125"/>
-      <c r="K68" s="125"/>
-      <c r="L68" s="125"/>
+      <c r="B68" s="126"/>
+      <c r="C68" s="126"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="126"/>
+      <c r="G68" s="126"/>
+      <c r="H68" s="126"/>
+      <c r="I68" s="126"/>
+      <c r="J68" s="126"/>
+      <c r="K68" s="126"/>
+      <c r="L68" s="126"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="125"/>
-      <c r="C69" s="125"/>
-      <c r="D69" s="125"/>
-      <c r="E69" s="125"/>
-      <c r="F69" s="125"/>
-      <c r="G69" s="125"/>
-      <c r="H69" s="125"/>
-      <c r="I69" s="125"/>
-      <c r="J69" s="125"/>
-      <c r="K69" s="125"/>
-      <c r="L69" s="125"/>
+      <c r="B69" s="126"/>
+      <c r="C69" s="126"/>
+      <c r="D69" s="126"/>
+      <c r="E69" s="126"/>
+      <c r="F69" s="126"/>
+      <c r="G69" s="126"/>
+      <c r="H69" s="126"/>
+      <c r="I69" s="126"/>
+      <c r="J69" s="126"/>
+      <c r="K69" s="126"/>
+      <c r="L69" s="126"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="125"/>
-      <c r="C70" s="125"/>
-      <c r="D70" s="125"/>
-      <c r="E70" s="125"/>
-      <c r="F70" s="125"/>
-      <c r="G70" s="125"/>
-      <c r="H70" s="125"/>
-      <c r="I70" s="125"/>
-      <c r="J70" s="125"/>
-      <c r="K70" s="125"/>
-      <c r="L70" s="125"/>
+      <c r="B70" s="126"/>
+      <c r="C70" s="126"/>
+      <c r="D70" s="126"/>
+      <c r="E70" s="126"/>
+      <c r="F70" s="126"/>
+      <c r="G70" s="126"/>
+      <c r="H70" s="126"/>
+      <c r="I70" s="126"/>
+      <c r="J70" s="126"/>
+      <c r="K70" s="126"/>
+      <c r="L70" s="126"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="125"/>
-      <c r="C71" s="125"/>
-      <c r="D71" s="125"/>
-      <c r="E71" s="125"/>
-      <c r="F71" s="125"/>
-      <c r="G71" s="125"/>
-      <c r="H71" s="125"/>
-      <c r="I71" s="125"/>
-      <c r="J71" s="125"/>
-      <c r="K71" s="125"/>
-      <c r="L71" s="125"/>
+      <c r="B71" s="126"/>
+      <c r="C71" s="126"/>
+      <c r="D71" s="126"/>
+      <c r="E71" s="126"/>
+      <c r="F71" s="126"/>
+      <c r="G71" s="126"/>
+      <c r="H71" s="126"/>
+      <c r="I71" s="126"/>
+      <c r="J71" s="126"/>
+      <c r="K71" s="126"/>
+      <c r="L71" s="126"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
-      <c r="I73" s="21"/>
+      <c r="C73" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="20"/>
     </row>
     <row r="74" spans="2:12" ht="14.25">
-      <c r="B74" s="21"/>
-      <c r="C74" s="21" t="s">
+      <c r="B74" s="20"/>
+      <c r="C74" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="20"/>
     </row>
     <row r="75" spans="2:12" ht="14.25">
-      <c r="B75" s="21" t="s">
+      <c r="B75" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
-      <c r="I75" s="21"/>
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="20"/>
     </row>
     <row r="76" spans="2:12" ht="14.25">
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="21"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
-      <c r="I76" s="21"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="20"/>
     </row>
     <row r="77" spans="2:12" ht="14.25">
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="20"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="20"/>
     </row>
     <row r="78" spans="2:12" ht="14.25">
-      <c r="B78" s="21"/>
-      <c r="C78" s="26" t="s">
+      <c r="B78" s="20"/>
+      <c r="C78" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E78" s="26" t="s">
+      <c r="E78" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
+      <c r="I78" s="20"/>
     </row>
     <row r="79" spans="2:12" ht="14.25">
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="20"/>
+      <c r="I79" s="20"/>
     </row>
     <row r="80" spans="2:12" ht="14.25">
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="20"/>
+      <c r="I80" s="20"/>
     </row>
     <row r="81" spans="2:9" ht="14.25">
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="20"/>
+      <c r="I81" s="20"/>
     </row>
     <row r="82" spans="2:9" ht="14.25">
-      <c r="B82" s="21"/>
-      <c r="C82" s="21" t="s">
+      <c r="B82" s="20"/>
+      <c r="C82" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D82" s="25"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="20"/>
     </row>
     <row r="85" spans="2:9" ht="14.25">
-      <c r="B85" s="21" t="s">
+      <c r="B85" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C85" s="29" t="str">
+      <c r="C85" s="28" t="str">
         <f>記入!B6</f>
         <v>${cv.prplacejapanese}</v>
       </c>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="20"/>
     </row>
     <row r="86" spans="2:9" ht="14.25">
-      <c r="B86" s="21"/>
-      <c r="C86" s="29" t="str">
+      <c r="B86" s="20"/>
+      <c r="C86" s="28" t="str">
         <f>記入!B2</f>
         <v>${cv.depositjapanese}</v>
       </c>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="20"/>
     </row>
     <row r="87" spans="2:9" ht="14.25">
-      <c r="B87" s="21" t="s">
+      <c r="B87" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="21"/>
-      <c r="D87" s="21"/>
-      <c r="E87" s="21"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="20"/>
     </row>
     <row r="88" spans="2:9" ht="14.25">
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="20"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="20"/>
+      <c r="I88" s="20"/>
     </row>
     <row r="89" spans="2:9" ht="14.25">
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="20"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="20"/>
+      <c r="I89" s="20"/>
     </row>
     <row r="90" spans="2:9" ht="14.25">
-      <c r="B90" s="21"/>
-      <c r="C90" s="26" t="str">
-        <f>記入!B32</f>
+      <c r="B90" s="20"/>
+      <c r="C90" s="25" t="str">
+        <f>記入!B35</f>
         <v>${cv.prplacepositionjapanese}</v>
       </c>
-      <c r="E90" s="26" t="str">
-        <f>記入!E32</f>
+      <c r="E90" s="25" t="str">
+        <f>記入!E35</f>
         <v>${cv.namejapanese}</v>
       </c>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
     </row>
     <row r="91" spans="2:9" ht="14.25">
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="21"/>
-      <c r="E91" s="21"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
-      <c r="I91" s="21"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="20"/>
+      <c r="I91" s="20"/>
     </row>
     <row r="92" spans="2:9" ht="14.25">
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
     </row>
     <row r="93" spans="2:9" ht="14.25">
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="21"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
-      <c r="I93" s="21"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="20"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="20"/>
+      <c r="H93" s="20"/>
+      <c r="I93" s="20"/>
     </row>
     <row r="94" spans="2:9" ht="14.25">
-      <c r="B94" s="21"/>
-      <c r="C94" s="21" t="s">
+      <c r="B94" s="20"/>
+      <c r="C94" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D94" s="25"/>
-      <c r="E94" s="21"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
-      <c r="I94" s="21"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="20"/>
+      <c r="H94" s="20"/>
+      <c r="I94" s="20"/>
     </row>
     <row r="127" spans="2:12" ht="24.75" customHeight="1">
-      <c r="J127" s="24" t="s">
+      <c r="J127" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K127" s="121" t="str">
+      <c r="K127" s="122" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L127" s="121"/>
+      <c r="L127" s="122"/>
     </row>
     <row r="128" spans="2:12" ht="17.25">
-      <c r="B128" s="55" t="s">
+      <c r="B128" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="C128" s="24"/>
-      <c r="D128" s="24"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="24"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="24"/>
-      <c r="K128" s="24"/>
-      <c r="L128" s="24"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="23"/>
+      <c r="H128" s="23"/>
+      <c r="I128" s="23"/>
+      <c r="J128" s="23"/>
+      <c r="K128" s="23"/>
+      <c r="L128" s="23"/>
     </row>
     <row r="129" spans="2:12">
-      <c r="B129" s="24"/>
-      <c r="C129" s="24"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="24"/>
-      <c r="H129" s="24"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="24"/>
-      <c r="K129" s="24"/>
-      <c r="L129" s="24"/>
+      <c r="B129" s="23"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="23"/>
+      <c r="H129" s="23"/>
+      <c r="I129" s="23"/>
+      <c r="J129" s="23"/>
+      <c r="K129" s="23"/>
+      <c r="L129" s="23"/>
     </row>
     <row r="130" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B130" s="56" t="s">
+      <c r="B130" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C130" s="56"/>
-      <c r="D130" s="56"/>
-      <c r="E130" s="56"/>
-      <c r="F130" s="56"/>
-      <c r="G130" s="56"/>
-      <c r="H130" s="56"/>
-      <c r="I130" s="56"/>
-      <c r="J130" s="56"/>
-      <c r="K130" s="56"/>
-      <c r="L130" s="56"/>
+      <c r="C130" s="55"/>
+      <c r="D130" s="55"/>
+      <c r="E130" s="55"/>
+      <c r="F130" s="55"/>
+      <c r="G130" s="55"/>
+      <c r="H130" s="55"/>
+      <c r="I130" s="55"/>
+      <c r="J130" s="55"/>
+      <c r="K130" s="55"/>
+      <c r="L130" s="55"/>
     </row>
     <row r="131" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="128" t="s">
+      <c r="B131" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="C131" s="128"/>
-      <c r="D131" s="136" t="str">
+      <c r="C131" s="129"/>
+      <c r="D131" s="137" t="str">
         <f>記入!B10</f>
         <v>${cv.pjnamejapanese}</v>
       </c>
-      <c r="E131" s="136"/>
-      <c r="F131" s="136"/>
-      <c r="G131" s="136"/>
-      <c r="H131" s="136"/>
-      <c r="I131" s="136"/>
-      <c r="J131" s="136"/>
-      <c r="K131" s="136"/>
-      <c r="L131" s="54"/>
+      <c r="E131" s="137"/>
+      <c r="F131" s="137"/>
+      <c r="G131" s="137"/>
+      <c r="H131" s="137"/>
+      <c r="I131" s="137"/>
+      <c r="J131" s="137"/>
+      <c r="K131" s="137"/>
+      <c r="L131" s="53"/>
     </row>
     <row r="132" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="128" t="s">
+      <c r="B132" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="C132" s="128"/>
-      <c r="D132" s="141" t="str">
+      <c r="C132" s="129"/>
+      <c r="D132" s="142" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E132" s="136"/>
-      <c r="F132" s="136"/>
-      <c r="G132" s="136"/>
-      <c r="H132" s="136"/>
-      <c r="I132" s="136"/>
-      <c r="J132" s="136"/>
-      <c r="K132" s="136"/>
-      <c r="L132" s="54"/>
+      <c r="E132" s="137"/>
+      <c r="F132" s="137"/>
+      <c r="G132" s="137"/>
+      <c r="H132" s="137"/>
+      <c r="I132" s="137"/>
+      <c r="J132" s="137"/>
+      <c r="K132" s="137"/>
+      <c r="L132" s="53"/>
     </row>
     <row r="133" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B133" s="128" t="s">
+      <c r="B133" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="C133" s="128"/>
-      <c r="D133" s="141" t="str">
+      <c r="C133" s="129"/>
+      <c r="D133" s="142" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E133" s="136"/>
-      <c r="F133" s="136"/>
-      <c r="G133" s="136"/>
-      <c r="H133" s="136"/>
-      <c r="I133" s="136"/>
-      <c r="J133" s="136"/>
-      <c r="K133" s="136"/>
-      <c r="L133" s="54"/>
+      <c r="E133" s="137"/>
+      <c r="F133" s="137"/>
+      <c r="G133" s="137"/>
+      <c r="H133" s="137"/>
+      <c r="I133" s="137"/>
+      <c r="J133" s="137"/>
+      <c r="K133" s="137"/>
+      <c r="L133" s="53"/>
     </row>
     <row r="134" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="128" t="s">
+      <c r="B134" s="129" t="s">
         <v>76</v>
       </c>
-      <c r="C134" s="128"/>
-      <c r="D134" s="142" t="str">
+      <c r="C134" s="129"/>
+      <c r="D134" s="143" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="E134" s="142"/>
-      <c r="F134" s="142"/>
-      <c r="G134" s="142"/>
-      <c r="H134" s="142"/>
-      <c r="I134" s="142"/>
-      <c r="J134" s="142"/>
-      <c r="K134" s="142"/>
-      <c r="L134" s="54"/>
+      <c r="E134" s="143"/>
+      <c r="F134" s="143"/>
+      <c r="G134" s="143"/>
+      <c r="H134" s="143"/>
+      <c r="I134" s="143"/>
+      <c r="J134" s="143"/>
+      <c r="K134" s="143"/>
+      <c r="L134" s="53"/>
     </row>
     <row r="135" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="134" t="s">
+      <c r="B135" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="C135" s="128"/>
-      <c r="D135" s="132" t="str">
-        <f>記入!B35</f>
+      <c r="C135" s="129"/>
+      <c r="D135" s="133" t="str">
+        <f>記入!B38</f>
         <v>${cv.technicalcontentjapanese}</v>
       </c>
-      <c r="E135" s="133"/>
-      <c r="F135" s="133"/>
-      <c r="G135" s="133"/>
-      <c r="H135" s="133"/>
-      <c r="I135" s="133"/>
-      <c r="J135" s="133"/>
-      <c r="K135" s="133"/>
-      <c r="L135" s="54"/>
+      <c r="E135" s="134"/>
+      <c r="F135" s="134"/>
+      <c r="G135" s="134"/>
+      <c r="H135" s="134"/>
+      <c r="I135" s="134"/>
+      <c r="J135" s="134"/>
+      <c r="K135" s="134"/>
+      <c r="L135" s="53"/>
     </row>
     <row r="136" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="128"/>
-      <c r="C136" s="128"/>
-      <c r="D136" s="133"/>
-      <c r="E136" s="133"/>
-      <c r="F136" s="133"/>
-      <c r="G136" s="133"/>
-      <c r="H136" s="133"/>
-      <c r="I136" s="133"/>
-      <c r="J136" s="133"/>
-      <c r="K136" s="133"/>
-      <c r="L136" s="54"/>
+      <c r="B136" s="129"/>
+      <c r="C136" s="129"/>
+      <c r="D136" s="134"/>
+      <c r="E136" s="134"/>
+      <c r="F136" s="134"/>
+      <c r="G136" s="134"/>
+      <c r="H136" s="134"/>
+      <c r="I136" s="134"/>
+      <c r="J136" s="134"/>
+      <c r="K136" s="134"/>
+      <c r="L136" s="53"/>
     </row>
     <row r="137" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="128"/>
-      <c r="C137" s="128"/>
-      <c r="D137" s="133"/>
-      <c r="E137" s="133"/>
-      <c r="F137" s="133"/>
-      <c r="G137" s="133"/>
-      <c r="H137" s="133"/>
-      <c r="I137" s="133"/>
-      <c r="J137" s="133"/>
-      <c r="K137" s="133"/>
-      <c r="L137" s="54"/>
+      <c r="B137" s="129"/>
+      <c r="C137" s="129"/>
+      <c r="D137" s="134"/>
+      <c r="E137" s="134"/>
+      <c r="F137" s="134"/>
+      <c r="G137" s="134"/>
+      <c r="H137" s="134"/>
+      <c r="I137" s="134"/>
+      <c r="J137" s="134"/>
+      <c r="K137" s="134"/>
+      <c r="L137" s="53"/>
     </row>
     <row r="138" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="128"/>
-      <c r="C138" s="128"/>
-      <c r="D138" s="133"/>
-      <c r="E138" s="133"/>
-      <c r="F138" s="133"/>
-      <c r="G138" s="133"/>
-      <c r="H138" s="133"/>
-      <c r="I138" s="133"/>
-      <c r="J138" s="133"/>
-      <c r="K138" s="133"/>
-      <c r="L138" s="54"/>
+      <c r="B138" s="129"/>
+      <c r="C138" s="129"/>
+      <c r="D138" s="134"/>
+      <c r="E138" s="134"/>
+      <c r="F138" s="134"/>
+      <c r="G138" s="134"/>
+      <c r="H138" s="134"/>
+      <c r="I138" s="134"/>
+      <c r="J138" s="134"/>
+      <c r="K138" s="134"/>
+      <c r="L138" s="53"/>
     </row>
     <row r="139" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="128"/>
-      <c r="C139" s="128"/>
-      <c r="D139" s="133"/>
-      <c r="E139" s="133"/>
-      <c r="F139" s="133"/>
-      <c r="G139" s="133"/>
-      <c r="H139" s="133"/>
-      <c r="I139" s="133"/>
-      <c r="J139" s="133"/>
-      <c r="K139" s="133"/>
-      <c r="L139" s="54"/>
+      <c r="B139" s="129"/>
+      <c r="C139" s="129"/>
+      <c r="D139" s="134"/>
+      <c r="E139" s="134"/>
+      <c r="F139" s="134"/>
+      <c r="G139" s="134"/>
+      <c r="H139" s="134"/>
+      <c r="I139" s="134"/>
+      <c r="J139" s="134"/>
+      <c r="K139" s="134"/>
+      <c r="L139" s="53"/>
     </row>
     <row r="140" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="128"/>
-      <c r="C140" s="128"/>
-      <c r="D140" s="133"/>
-      <c r="E140" s="133"/>
-      <c r="F140" s="133"/>
-      <c r="G140" s="133"/>
-      <c r="H140" s="133"/>
-      <c r="I140" s="133"/>
-      <c r="J140" s="133"/>
-      <c r="K140" s="133"/>
-      <c r="L140" s="54"/>
+      <c r="B140" s="129"/>
+      <c r="C140" s="129"/>
+      <c r="D140" s="134"/>
+      <c r="E140" s="134"/>
+      <c r="F140" s="134"/>
+      <c r="G140" s="134"/>
+      <c r="H140" s="134"/>
+      <c r="I140" s="134"/>
+      <c r="J140" s="134"/>
+      <c r="K140" s="134"/>
+      <c r="L140" s="53"/>
     </row>
     <row r="141" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="128"/>
-      <c r="C141" s="128"/>
-      <c r="D141" s="133"/>
-      <c r="E141" s="133"/>
-      <c r="F141" s="133"/>
-      <c r="G141" s="133"/>
-      <c r="H141" s="133"/>
-      <c r="I141" s="133"/>
-      <c r="J141" s="133"/>
-      <c r="K141" s="133"/>
-      <c r="L141" s="54"/>
+      <c r="B141" s="129"/>
+      <c r="C141" s="129"/>
+      <c r="D141" s="134"/>
+      <c r="E141" s="134"/>
+      <c r="F141" s="134"/>
+      <c r="G141" s="134"/>
+      <c r="H141" s="134"/>
+      <c r="I141" s="134"/>
+      <c r="J141" s="134"/>
+      <c r="K141" s="134"/>
+      <c r="L141" s="53"/>
     </row>
     <row r="142" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="128" t="s">
+      <c r="B142" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="C142" s="128"/>
-      <c r="D142" s="129" t="str">
-        <f>記入!B47</f>
+      <c r="C142" s="129"/>
+      <c r="D142" s="130" t="str">
+        <f>記入!B50</f>
         <v>${cv.redelegate}</v>
       </c>
-      <c r="E142" s="130"/>
-      <c r="F142" s="130"/>
-      <c r="G142" s="130"/>
-      <c r="H142" s="130"/>
-      <c r="I142" s="130"/>
-      <c r="J142" s="130"/>
-      <c r="K142" s="131"/>
-      <c r="L142" s="54"/>
+      <c r="E142" s="131"/>
+      <c r="F142" s="131"/>
+      <c r="G142" s="131"/>
+      <c r="H142" s="131"/>
+      <c r="I142" s="131"/>
+      <c r="J142" s="131"/>
+      <c r="K142" s="132"/>
+      <c r="L142" s="53"/>
     </row>
     <row r="143" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="128"/>
-      <c r="C143" s="128"/>
-      <c r="D143" s="132" t="str">
-        <f>記入!B48</f>
+      <c r="B143" s="129"/>
+      <c r="C143" s="129"/>
+      <c r="D143" s="133" t="str">
+        <f>記入!B51</f>
         <v>再委託先：
 ${cv.redelegatecontent}</v>
       </c>
-      <c r="E143" s="133"/>
-      <c r="F143" s="133"/>
-      <c r="G143" s="133"/>
-      <c r="H143" s="133"/>
-      <c r="I143" s="133"/>
-      <c r="J143" s="133"/>
-      <c r="K143" s="133"/>
-      <c r="L143" s="54"/>
+      <c r="E143" s="134"/>
+      <c r="F143" s="134"/>
+      <c r="G143" s="134"/>
+      <c r="H143" s="134"/>
+      <c r="I143" s="134"/>
+      <c r="J143" s="134"/>
+      <c r="K143" s="134"/>
+      <c r="L143" s="53"/>
     </row>
     <row r="144" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="128"/>
-      <c r="C144" s="128"/>
-      <c r="D144" s="133"/>
-      <c r="E144" s="133"/>
-      <c r="F144" s="133"/>
-      <c r="G144" s="133"/>
-      <c r="H144" s="133"/>
-      <c r="I144" s="133"/>
-      <c r="J144" s="133"/>
-      <c r="K144" s="133"/>
-      <c r="L144" s="54"/>
+      <c r="B144" s="129"/>
+      <c r="C144" s="129"/>
+      <c r="D144" s="134"/>
+      <c r="E144" s="134"/>
+      <c r="F144" s="134"/>
+      <c r="G144" s="134"/>
+      <c r="H144" s="134"/>
+      <c r="I144" s="134"/>
+      <c r="J144" s="134"/>
+      <c r="K144" s="134"/>
+      <c r="L144" s="53"/>
     </row>
     <row r="145" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="128"/>
-      <c r="C145" s="128"/>
-      <c r="D145" s="133"/>
-      <c r="E145" s="133"/>
-      <c r="F145" s="133"/>
-      <c r="G145" s="133"/>
-      <c r="H145" s="133"/>
-      <c r="I145" s="133"/>
-      <c r="J145" s="133"/>
-      <c r="K145" s="133"/>
-      <c r="L145" s="54"/>
+      <c r="B145" s="129"/>
+      <c r="C145" s="129"/>
+      <c r="D145" s="134"/>
+      <c r="E145" s="134"/>
+      <c r="F145" s="134"/>
+      <c r="G145" s="134"/>
+      <c r="H145" s="134"/>
+      <c r="I145" s="134"/>
+      <c r="J145" s="134"/>
+      <c r="K145" s="134"/>
+      <c r="L145" s="53"/>
     </row>
     <row r="146" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="128"/>
-      <c r="C146" s="128"/>
-      <c r="D146" s="133"/>
-      <c r="E146" s="133"/>
-      <c r="F146" s="133"/>
-      <c r="G146" s="133"/>
-      <c r="H146" s="133"/>
-      <c r="I146" s="133"/>
-      <c r="J146" s="133"/>
-      <c r="K146" s="133"/>
-      <c r="L146" s="54"/>
+      <c r="B146" s="129"/>
+      <c r="C146" s="129"/>
+      <c r="D146" s="134"/>
+      <c r="E146" s="134"/>
+      <c r="F146" s="134"/>
+      <c r="G146" s="134"/>
+      <c r="H146" s="134"/>
+      <c r="I146" s="134"/>
+      <c r="J146" s="134"/>
+      <c r="K146" s="134"/>
+      <c r="L146" s="53"/>
     </row>
     <row r="147" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B147" s="54"/>
-      <c r="C147" s="54"/>
-      <c r="D147" s="54"/>
-      <c r="E147" s="54"/>
-      <c r="F147" s="54"/>
-      <c r="G147" s="54"/>
-      <c r="H147" s="54"/>
-      <c r="I147" s="54"/>
-      <c r="J147" s="54"/>
-      <c r="K147" s="54"/>
-      <c r="L147" s="54"/>
+      <c r="B147" s="53"/>
+      <c r="C147" s="53"/>
+      <c r="D147" s="53"/>
+      <c r="E147" s="53"/>
+      <c r="F147" s="53"/>
+      <c r="G147" s="53"/>
+      <c r="H147" s="53"/>
+      <c r="I147" s="53"/>
+      <c r="J147" s="53"/>
+      <c r="K147" s="53"/>
+      <c r="L147" s="53"/>
     </row>
     <row r="148" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B148" s="54" t="s">
+      <c r="B148" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C148" s="54"/>
-      <c r="D148" s="54"/>
-      <c r="E148" s="54"/>
-      <c r="F148" s="54"/>
-      <c r="G148" s="54"/>
-      <c r="H148" s="54"/>
-      <c r="I148" s="54"/>
-      <c r="J148" s="54"/>
-      <c r="K148" s="58"/>
-      <c r="L148" s="54"/>
+      <c r="C148" s="53"/>
+      <c r="D148" s="53"/>
+      <c r="E148" s="53"/>
+      <c r="F148" s="53"/>
+      <c r="G148" s="53"/>
+      <c r="H148" s="53"/>
+      <c r="I148" s="53"/>
+      <c r="J148" s="53"/>
+      <c r="K148" s="57"/>
+      <c r="L148" s="53"/>
     </row>
     <row r="149" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="128" t="s">
+      <c r="B149" s="129" t="s">
         <v>80</v>
       </c>
-      <c r="C149" s="128"/>
-      <c r="D149" s="127" t="s">
+      <c r="C149" s="129"/>
+      <c r="D149" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="E149" s="127"/>
-      <c r="F149" s="127" t="s">
+      <c r="E149" s="128"/>
+      <c r="F149" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="G149" s="127"/>
-      <c r="H149" s="127" t="s">
+      <c r="G149" s="128"/>
+      <c r="H149" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="I149" s="127"/>
-      <c r="J149" s="127" t="s">
+      <c r="I149" s="128"/>
+      <c r="J149" s="128" t="s">
         <v>84</v>
       </c>
-      <c r="K149" s="127"/>
-      <c r="L149" s="54"/>
+      <c r="K149" s="128"/>
+      <c r="L149" s="53"/>
     </row>
     <row r="150" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="128" t="s">
+      <c r="B150" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="C150" s="128"/>
-      <c r="D150" s="135" t="str">
+      <c r="C150" s="129"/>
+      <c r="D150" s="136" t="str">
         <f>記入!B29</f>
-        <v>${r.deliverydate}</v>
-      </c>
-      <c r="E150" s="127"/>
-      <c r="F150" s="135" t="e">
+        <v>${cv.contractnumber.get(0).deliverydate}</v>
+      </c>
+      <c r="E150" s="128"/>
+      <c r="F150" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G150" s="127"/>
-      <c r="H150" s="135" t="e">
+      <c r="G150" s="128"/>
+      <c r="H150" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I150" s="127"/>
-      <c r="J150" s="135" t="e">
+      <c r="I150" s="128"/>
+      <c r="J150" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K150" s="127"/>
-      <c r="L150" s="54"/>
+      <c r="K150" s="128"/>
+      <c r="L150" s="53"/>
     </row>
     <row r="151" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="128" t="s">
+      <c r="B151" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="C151" s="128"/>
-      <c r="D151" s="135" t="str">
+      <c r="C151" s="129"/>
+      <c r="D151" s="136" t="str">
         <f>記入!C29</f>
-        <v>${r.completiondate}</v>
-      </c>
-      <c r="E151" s="127"/>
-      <c r="F151" s="135" t="e">
+        <v>${cv[0].completiondate}</v>
+      </c>
+      <c r="E151" s="128"/>
+      <c r="F151" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G151" s="127"/>
-      <c r="H151" s="135" t="e">
+      <c r="G151" s="128"/>
+      <c r="H151" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I151" s="127"/>
-      <c r="J151" s="135" t="e">
+      <c r="I151" s="128"/>
+      <c r="J151" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K151" s="127"/>
-      <c r="L151" s="54"/>
+      <c r="K151" s="128"/>
+      <c r="L151" s="53"/>
     </row>
     <row r="152" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="128" t="s">
+      <c r="B152" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="C152" s="128"/>
-      <c r="D152" s="137" t="str">
+      <c r="C152" s="129"/>
+      <c r="D152" s="138" t="str">
         <f>記入!D29</f>
-        <v>${r.claimdate}</v>
-      </c>
-      <c r="E152" s="138"/>
-      <c r="F152" s="135" t="e">
+        <v>${cv[0].claimdate}</v>
+      </c>
+      <c r="E152" s="139"/>
+      <c r="F152" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G152" s="127"/>
-      <c r="H152" s="135" t="e">
+      <c r="G152" s="128"/>
+      <c r="H152" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I152" s="127"/>
-      <c r="J152" s="135" t="e">
+      <c r="I152" s="128"/>
+      <c r="J152" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K152" s="127"/>
-      <c r="L152" s="54"/>
+      <c r="K152" s="128"/>
+      <c r="L152" s="53"/>
     </row>
     <row r="153" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="128" t="s">
+      <c r="B153" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="C153" s="128"/>
-      <c r="D153" s="137" t="str">
+      <c r="C153" s="129"/>
+      <c r="D153" s="138" t="str">
         <f>記入!E29</f>
-        <v>${r.supportdate}</v>
-      </c>
-      <c r="E153" s="138"/>
-      <c r="F153" s="135" t="e">
+        <v>${cv[0].supportdate}</v>
+      </c>
+      <c r="E153" s="139"/>
+      <c r="F153" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G153" s="127"/>
-      <c r="H153" s="135" t="e">
+      <c r="G153" s="128"/>
+      <c r="H153" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I153" s="127"/>
-      <c r="J153" s="135" t="e">
+      <c r="I153" s="128"/>
+      <c r="J153" s="136" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K153" s="127"/>
-      <c r="L153" s="54"/>
+      <c r="K153" s="128"/>
+      <c r="L153" s="53"/>
     </row>
     <row r="154" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="128" t="s">
+      <c r="B154" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="C154" s="128"/>
-      <c r="D154" s="140" t="str">
+      <c r="C154" s="129"/>
+      <c r="D154" s="141" t="str">
         <f>記入!F29</f>
-        <v>${r.claimamount}</v>
-      </c>
-      <c r="E154" s="138"/>
-      <c r="F154" s="139" t="e">
+        <v>${cv[0].claimamount}</v>
+      </c>
+      <c r="E154" s="139"/>
+      <c r="F154" s="140" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G154" s="127"/>
-      <c r="H154" s="139" t="e">
+      <c r="G154" s="128"/>
+      <c r="H154" s="140" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I154" s="127"/>
-      <c r="J154" s="139" t="e">
+      <c r="I154" s="128"/>
+      <c r="J154" s="140" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K154" s="127"/>
-      <c r="L154" s="54"/>
+      <c r="K154" s="128"/>
+      <c r="L154" s="53"/>
     </row>
     <row r="155" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="128" t="s">
+      <c r="B155" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="C155" s="128"/>
-      <c r="D155" s="138" t="str">
+      <c r="C155" s="129"/>
+      <c r="D155" s="139" t="str">
         <f>記入!B12&amp;(-1)</f>
         <v>${cv.contractnumber}-1</v>
       </c>
-      <c r="E155" s="138"/>
-      <c r="F155" s="127" t="str">
+      <c r="E155" s="139"/>
+      <c r="F155" s="128" t="str">
         <f>記入!B12&amp;(-2)</f>
         <v>${cv.contractnumber}-2</v>
       </c>
-      <c r="G155" s="127"/>
-      <c r="H155" s="127" t="str">
+      <c r="G155" s="128"/>
+      <c r="H155" s="128" t="str">
         <f>記入!B12&amp;(-3)</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="I155" s="127"/>
-      <c r="J155" s="127" t="str">
+      <c r="I155" s="128"/>
+      <c r="J155" s="128" t="str">
         <f>記入!B12&amp;(-4)</f>
         <v>${cv.contractnumber}-4</v>
       </c>
-      <c r="K155" s="127"/>
-      <c r="L155" s="54"/>
+      <c r="K155" s="128"/>
+      <c r="L155" s="53"/>
     </row>
     <row r="156" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="128" t="s">
+      <c r="B156" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="C156" s="128"/>
-      <c r="D156" s="127" t="s">
+      <c r="C156" s="129"/>
+      <c r="D156" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="E156" s="127"/>
-      <c r="F156" s="127"/>
-      <c r="G156" s="127"/>
-      <c r="H156" s="127"/>
-      <c r="I156" s="127"/>
-      <c r="J156" s="127"/>
-      <c r="K156" s="127"/>
-      <c r="L156" s="54"/>
+      <c r="E156" s="128"/>
+      <c r="F156" s="128"/>
+      <c r="G156" s="128"/>
+      <c r="H156" s="128"/>
+      <c r="I156" s="128"/>
+      <c r="J156" s="128"/>
+      <c r="K156" s="128"/>
+      <c r="L156" s="53"/>
     </row>
     <row r="157" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="128" t="s">
+      <c r="B157" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="C157" s="128"/>
-      <c r="D157" s="127" t="s">
+      <c r="C157" s="129"/>
+      <c r="D157" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="E157" s="127"/>
-      <c r="F157" s="127"/>
-      <c r="G157" s="127"/>
-      <c r="H157" s="127"/>
-      <c r="I157" s="127"/>
-      <c r="J157" s="127"/>
-      <c r="K157" s="127"/>
-      <c r="L157" s="54"/>
+      <c r="E157" s="128"/>
+      <c r="F157" s="128"/>
+      <c r="G157" s="128"/>
+      <c r="H157" s="128"/>
+      <c r="I157" s="128"/>
+      <c r="J157" s="128"/>
+      <c r="K157" s="128"/>
+      <c r="L157" s="53"/>
     </row>
     <row r="158" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B158" s="54"/>
-      <c r="C158" s="54"/>
-      <c r="D158" s="54"/>
-      <c r="E158" s="54"/>
-      <c r="F158" s="54"/>
-      <c r="G158" s="54"/>
-      <c r="H158" s="54"/>
-      <c r="I158" s="54"/>
-      <c r="J158" s="54"/>
-      <c r="K158" s="54"/>
-      <c r="L158" s="54"/>
+      <c r="B158" s="53"/>
+      <c r="C158" s="53"/>
+      <c r="D158" s="53"/>
+      <c r="E158" s="53"/>
+      <c r="F158" s="53"/>
+      <c r="G158" s="53"/>
+      <c r="H158" s="53"/>
+      <c r="I158" s="53"/>
+      <c r="J158" s="53"/>
+      <c r="K158" s="53"/>
+      <c r="L158" s="53"/>
     </row>
     <row r="159" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B159" s="54" t="s">
+      <c r="B159" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C159" s="54"/>
-      <c r="D159" s="54"/>
-      <c r="E159" s="59"/>
-      <c r="F159" s="54"/>
-      <c r="G159" s="54"/>
-      <c r="H159" s="54"/>
-      <c r="I159" s="54"/>
-      <c r="J159" s="54"/>
-      <c r="K159" s="54"/>
-      <c r="L159" s="54"/>
+      <c r="C159" s="53"/>
+      <c r="D159" s="53"/>
+      <c r="E159" s="58"/>
+      <c r="F159" s="53"/>
+      <c r="G159" s="53"/>
+      <c r="H159" s="53"/>
+      <c r="I159" s="53"/>
+      <c r="J159" s="53"/>
+      <c r="K159" s="53"/>
+      <c r="L159" s="53"/>
     </row>
     <row r="160" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="143" t="s">
+      <c r="B160" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="C160" s="143"/>
-      <c r="D160" s="143" t="s">
+      <c r="C160" s="144"/>
+      <c r="D160" s="144" t="s">
         <v>97</v>
       </c>
-      <c r="E160" s="143"/>
-      <c r="F160" s="143"/>
-      <c r="G160" s="143"/>
-      <c r="H160" s="143"/>
-      <c r="I160" s="143"/>
-      <c r="J160" s="143"/>
-      <c r="K160" s="143"/>
-      <c r="L160" s="54"/>
+      <c r="E160" s="144"/>
+      <c r="F160" s="144"/>
+      <c r="G160" s="144"/>
+      <c r="H160" s="144"/>
+      <c r="I160" s="144"/>
+      <c r="J160" s="144"/>
+      <c r="K160" s="144"/>
+      <c r="L160" s="53"/>
     </row>
     <row r="161" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="144"/>
-      <c r="C161" s="144"/>
-      <c r="D161" s="144"/>
-      <c r="E161" s="144"/>
-      <c r="F161" s="144"/>
-      <c r="G161" s="144"/>
-      <c r="H161" s="144"/>
-      <c r="I161" s="144"/>
-      <c r="J161" s="144"/>
-      <c r="K161" s="144"/>
-      <c r="L161" s="54"/>
+      <c r="B161" s="145"/>
+      <c r="C161" s="145"/>
+      <c r="D161" s="145"/>
+      <c r="E161" s="145"/>
+      <c r="F161" s="145"/>
+      <c r="G161" s="145"/>
+      <c r="H161" s="145"/>
+      <c r="I161" s="145"/>
+      <c r="J161" s="145"/>
+      <c r="K161" s="145"/>
+      <c r="L161" s="53"/>
     </row>
     <row r="162" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="144"/>
-      <c r="C162" s="144"/>
-      <c r="D162" s="144"/>
-      <c r="E162" s="144"/>
-      <c r="F162" s="144"/>
-      <c r="G162" s="144"/>
-      <c r="H162" s="144"/>
-      <c r="I162" s="144"/>
-      <c r="J162" s="144"/>
-      <c r="K162" s="144"/>
-      <c r="L162" s="54"/>
+      <c r="B162" s="145"/>
+      <c r="C162" s="145"/>
+      <c r="D162" s="145"/>
+      <c r="E162" s="145"/>
+      <c r="F162" s="145"/>
+      <c r="G162" s="145"/>
+      <c r="H162" s="145"/>
+      <c r="I162" s="145"/>
+      <c r="J162" s="145"/>
+      <c r="K162" s="145"/>
+      <c r="L162" s="53"/>
     </row>
     <row r="163" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="145"/>
-      <c r="C163" s="145"/>
-      <c r="D163" s="145"/>
-      <c r="E163" s="145"/>
-      <c r="F163" s="145"/>
-      <c r="G163" s="145"/>
-      <c r="H163" s="145"/>
-      <c r="I163" s="145"/>
-      <c r="J163" s="145"/>
-      <c r="K163" s="145"/>
-      <c r="L163" s="54"/>
+      <c r="B163" s="146"/>
+      <c r="C163" s="146"/>
+      <c r="D163" s="146"/>
+      <c r="E163" s="146"/>
+      <c r="F163" s="146"/>
+      <c r="G163" s="146"/>
+      <c r="H163" s="146"/>
+      <c r="I163" s="146"/>
+      <c r="J163" s="146"/>
+      <c r="K163" s="146"/>
+      <c r="L163" s="53"/>
     </row>
     <row r="164" spans="2:12" ht="14.25">
-      <c r="B164" s="54"/>
-      <c r="C164" s="54"/>
-      <c r="D164" s="54"/>
-      <c r="E164" s="54"/>
-      <c r="F164" s="54"/>
-      <c r="G164" s="54"/>
-      <c r="H164" s="54"/>
-      <c r="I164" s="54"/>
-      <c r="J164" s="54"/>
-      <c r="K164" s="54"/>
-      <c r="L164" s="54"/>
+      <c r="B164" s="53"/>
+      <c r="C164" s="53"/>
+      <c r="D164" s="53"/>
+      <c r="E164" s="53"/>
+      <c r="F164" s="53"/>
+      <c r="G164" s="53"/>
+      <c r="H164" s="53"/>
+      <c r="I164" s="53"/>
+      <c r="J164" s="53"/>
+      <c r="K164" s="53"/>
+      <c r="L164" s="53"/>
     </row>
     <row r="165" spans="2:12" ht="14.25">
-      <c r="B165" s="54"/>
-      <c r="C165" s="54"/>
-      <c r="D165" s="54"/>
-      <c r="E165" s="54"/>
-      <c r="F165" s="54"/>
-      <c r="G165" s="54"/>
-      <c r="H165" s="54"/>
-      <c r="I165" s="54"/>
-      <c r="J165" s="54"/>
-      <c r="K165" s="54"/>
-      <c r="L165" s="54"/>
+      <c r="B165" s="53"/>
+      <c r="C165" s="53"/>
+      <c r="D165" s="53"/>
+      <c r="E165" s="53"/>
+      <c r="F165" s="53"/>
+      <c r="G165" s="53"/>
+      <c r="H165" s="53"/>
+      <c r="I165" s="53"/>
+      <c r="J165" s="53"/>
+      <c r="K165" s="53"/>
+      <c r="L165" s="53"/>
     </row>
     <row r="166" spans="2:12" ht="14.25">
-      <c r="B166" s="54"/>
-      <c r="C166" s="54"/>
-      <c r="D166" s="54"/>
-      <c r="E166" s="54"/>
-      <c r="F166" s="54"/>
-      <c r="G166" s="54"/>
-      <c r="H166" s="54"/>
-      <c r="I166" s="54"/>
-      <c r="J166" s="54"/>
-      <c r="K166" s="54"/>
-      <c r="L166" s="54"/>
+      <c r="B166" s="53"/>
+      <c r="C166" s="53"/>
+      <c r="D166" s="53"/>
+      <c r="E166" s="53"/>
+      <c r="F166" s="53"/>
+      <c r="G166" s="53"/>
+      <c r="H166" s="53"/>
+      <c r="I166" s="53"/>
+      <c r="J166" s="53"/>
+      <c r="K166" s="53"/>
+      <c r="L166" s="53"/>
     </row>
     <row r="167" spans="2:12" ht="14.25">
-      <c r="B167" s="54"/>
-      <c r="C167" s="54"/>
-      <c r="D167" s="54"/>
-      <c r="E167" s="59"/>
-      <c r="F167" s="54"/>
-      <c r="G167" s="54"/>
-      <c r="H167" s="54"/>
-      <c r="I167" s="54"/>
-      <c r="J167" s="54"/>
-      <c r="K167" s="54"/>
-      <c r="L167" s="54"/>
+      <c r="B167" s="53"/>
+      <c r="C167" s="53"/>
+      <c r="D167" s="53"/>
+      <c r="E167" s="58"/>
+      <c r="F167" s="53"/>
+      <c r="G167" s="53"/>
+      <c r="H167" s="53"/>
+      <c r="I167" s="53"/>
+      <c r="J167" s="53"/>
+      <c r="K167" s="53"/>
+      <c r="L167" s="53"/>
     </row>
     <row r="168" spans="2:12" ht="14.25">
-      <c r="B168" s="54"/>
-      <c r="C168" s="54"/>
-      <c r="D168" s="54"/>
-      <c r="E168" s="57"/>
-      <c r="F168" s="54"/>
-      <c r="G168" s="54"/>
-      <c r="H168" s="54"/>
-      <c r="I168" s="54"/>
-      <c r="J168" s="54"/>
-      <c r="K168" s="54"/>
-      <c r="L168" s="54"/>
+      <c r="B168" s="53"/>
+      <c r="C168" s="53"/>
+      <c r="D168" s="53"/>
+      <c r="E168" s="56"/>
+      <c r="F168" s="53"/>
+      <c r="G168" s="53"/>
+      <c r="H168" s="53"/>
+      <c r="I168" s="53"/>
+      <c r="J168" s="53"/>
+      <c r="K168" s="53"/>
+      <c r="L168" s="53"/>
     </row>
     <row r="169" spans="2:12" ht="14.25">
-      <c r="B169" s="54"/>
-      <c r="C169" s="54"/>
-      <c r="D169" s="54"/>
-      <c r="E169" s="57"/>
-      <c r="F169" s="54"/>
-      <c r="G169" s="54"/>
-      <c r="H169" s="54"/>
-      <c r="I169" s="54"/>
-      <c r="J169" s="54"/>
-      <c r="K169" s="54" t="s">
+      <c r="B169" s="53"/>
+      <c r="C169" s="53"/>
+      <c r="D169" s="53"/>
+      <c r="E169" s="56"/>
+      <c r="F169" s="53"/>
+      <c r="G169" s="53"/>
+      <c r="H169" s="53"/>
+      <c r="I169" s="53"/>
+      <c r="J169" s="53"/>
+      <c r="K169" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="L169" s="54"/>
+      <c r="L169" s="53"/>
     </row>
     <row r="170" spans="2:12" ht="14.25">
-      <c r="B170" s="54"/>
-      <c r="C170" s="54"/>
-      <c r="D170" s="54"/>
-      <c r="E170" s="54"/>
-      <c r="F170" s="54"/>
-      <c r="G170" s="54"/>
-      <c r="H170" s="54"/>
-      <c r="I170" s="54"/>
-      <c r="J170" s="54"/>
-      <c r="K170" s="54"/>
-      <c r="L170" s="54"/>
+      <c r="B170" s="53"/>
+      <c r="C170" s="53"/>
+      <c r="D170" s="53"/>
+      <c r="E170" s="53"/>
+      <c r="F170" s="53"/>
+      <c r="G170" s="53"/>
+      <c r="H170" s="53"/>
+      <c r="I170" s="53"/>
+      <c r="J170" s="53"/>
+      <c r="K170" s="53"/>
+      <c r="L170" s="53"/>
     </row>
     <row r="171" spans="2:12" ht="14.25">
-      <c r="B171" s="54"/>
-      <c r="C171" s="54"/>
-      <c r="D171" s="54"/>
-      <c r="E171" s="54"/>
-      <c r="F171" s="54"/>
-      <c r="G171" s="54"/>
-      <c r="H171" s="54"/>
-      <c r="I171" s="54"/>
-      <c r="J171" s="54"/>
-      <c r="K171" s="54"/>
-      <c r="L171" s="54"/>
+      <c r="B171" s="53"/>
+      <c r="C171" s="53"/>
+      <c r="D171" s="53"/>
+      <c r="E171" s="53"/>
+      <c r="F171" s="53"/>
+      <c r="G171" s="53"/>
+      <c r="H171" s="53"/>
+      <c r="I171" s="53"/>
+      <c r="J171" s="53"/>
+      <c r="K171" s="53"/>
+      <c r="L171" s="53"/>
     </row>
     <row r="172" spans="2:12" ht="14.25">
-      <c r="B172" s="54"/>
-      <c r="C172" s="54"/>
-      <c r="D172" s="54"/>
-      <c r="E172" s="54"/>
-      <c r="F172" s="54"/>
-      <c r="G172" s="54"/>
-      <c r="H172" s="54"/>
-      <c r="I172" s="54"/>
-      <c r="J172" s="54"/>
-      <c r="K172" s="54"/>
-      <c r="L172" s="54"/>
+      <c r="B172" s="53"/>
+      <c r="C172" s="53"/>
+      <c r="D172" s="53"/>
+      <c r="E172" s="53"/>
+      <c r="F172" s="53"/>
+      <c r="G172" s="53"/>
+      <c r="H172" s="53"/>
+      <c r="I172" s="53"/>
+      <c r="J172" s="53"/>
+      <c r="K172" s="53"/>
+      <c r="L172" s="53"/>
     </row>
     <row r="173" spans="2:12">
-      <c r="B173" s="53"/>
-      <c r="C173" s="53"/>
-      <c r="D173" s="53"/>
-      <c r="E173" s="53"/>
-      <c r="F173" s="53"/>
-      <c r="G173" s="53"/>
-      <c r="H173" s="53"/>
-      <c r="I173" s="53"/>
-      <c r="J173" s="53"/>
-      <c r="K173" s="53"/>
-      <c r="L173" s="53"/>
+      <c r="B173" s="52"/>
+      <c r="C173" s="52"/>
+      <c r="D173" s="52"/>
+      <c r="E173" s="52"/>
+      <c r="F173" s="52"/>
+      <c r="G173" s="52"/>
+      <c r="H173" s="52"/>
+      <c r="I173" s="52"/>
+      <c r="J173" s="52"/>
+      <c r="K173" s="52"/>
+      <c r="L173" s="52"/>
     </row>
     <row r="174" spans="2:12" ht="14.25">
-      <c r="B174" s="54"/>
-      <c r="C174" s="54"/>
-      <c r="D174" s="54"/>
-      <c r="E174" s="54"/>
-      <c r="F174" s="54"/>
-      <c r="G174" s="54"/>
-      <c r="H174" s="54"/>
-      <c r="I174" s="54"/>
-      <c r="J174" s="54"/>
-      <c r="K174" s="54"/>
-      <c r="L174" s="54"/>
+      <c r="B174" s="53"/>
+      <c r="C174" s="53"/>
+      <c r="D174" s="53"/>
+      <c r="E174" s="53"/>
+      <c r="F174" s="53"/>
+      <c r="G174" s="53"/>
+      <c r="H174" s="53"/>
+      <c r="I174" s="53"/>
+      <c r="J174" s="53"/>
+      <c r="K174" s="53"/>
+      <c r="L174" s="53"/>
     </row>
     <row r="175" spans="2:12" ht="14.25">
-      <c r="B175" s="54"/>
-      <c r="C175" s="54"/>
-      <c r="D175" s="54"/>
-      <c r="E175" s="59"/>
-      <c r="F175" s="54"/>
-      <c r="G175" s="54"/>
-      <c r="H175" s="54"/>
-      <c r="I175" s="54"/>
-      <c r="J175" s="54"/>
-      <c r="K175" s="54"/>
-      <c r="L175" s="54"/>
+      <c r="B175" s="53"/>
+      <c r="C175" s="53"/>
+      <c r="D175" s="53"/>
+      <c r="E175" s="58"/>
+      <c r="F175" s="53"/>
+      <c r="G175" s="53"/>
+      <c r="H175" s="53"/>
+      <c r="I175" s="53"/>
+      <c r="J175" s="53"/>
+      <c r="K175" s="53"/>
+      <c r="L175" s="53"/>
     </row>
     <row r="176" spans="2:12" ht="14.25">
-      <c r="B176" s="54"/>
-      <c r="C176" s="54"/>
-      <c r="D176" s="54"/>
-      <c r="E176" s="57"/>
-      <c r="F176" s="54"/>
-      <c r="G176" s="54"/>
-      <c r="H176" s="54"/>
-      <c r="I176" s="54"/>
-      <c r="J176" s="54"/>
-      <c r="K176" s="54"/>
-      <c r="L176" s="54"/>
+      <c r="B176" s="53"/>
+      <c r="C176" s="53"/>
+      <c r="D176" s="53"/>
+      <c r="E176" s="56"/>
+      <c r="F176" s="53"/>
+      <c r="G176" s="53"/>
+      <c r="H176" s="53"/>
+      <c r="I176" s="53"/>
+      <c r="J176" s="53"/>
+      <c r="K176" s="53"/>
+      <c r="L176" s="53"/>
     </row>
     <row r="177" spans="2:12" ht="14.25">
-      <c r="B177" s="54"/>
-      <c r="C177" s="54"/>
-      <c r="D177" s="54"/>
-      <c r="E177" s="57"/>
-      <c r="F177" s="54"/>
-      <c r="G177" s="54"/>
-      <c r="H177" s="54"/>
-      <c r="I177" s="54"/>
-      <c r="J177" s="54"/>
-      <c r="K177" s="54"/>
-      <c r="L177" s="54"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="53"/>
+      <c r="D177" s="53"/>
+      <c r="E177" s="56"/>
+      <c r="F177" s="53"/>
+      <c r="G177" s="53"/>
+      <c r="H177" s="53"/>
+      <c r="I177" s="53"/>
+      <c r="J177" s="53"/>
+      <c r="K177" s="53"/>
+      <c r="L177" s="53"/>
     </row>
     <row r="178" spans="2:12" ht="14.25">
-      <c r="B178" s="54"/>
-      <c r="C178" s="54"/>
-      <c r="D178" s="54"/>
-      <c r="E178" s="54"/>
-      <c r="F178" s="54"/>
-      <c r="G178" s="54"/>
-      <c r="H178" s="54"/>
-      <c r="I178" s="54"/>
-      <c r="J178" s="54"/>
-      <c r="K178" s="54"/>
-      <c r="L178" s="54"/>
+      <c r="B178" s="53"/>
+      <c r="C178" s="53"/>
+      <c r="D178" s="53"/>
+      <c r="E178" s="53"/>
+      <c r="F178" s="53"/>
+      <c r="G178" s="53"/>
+      <c r="H178" s="53"/>
+      <c r="I178" s="53"/>
+      <c r="J178" s="53"/>
+      <c r="K178" s="53"/>
+      <c r="L178" s="53"/>
     </row>
     <row r="179" spans="2:12" ht="14.25">
-      <c r="B179" s="54"/>
-      <c r="C179" s="54"/>
-      <c r="D179" s="54"/>
-      <c r="E179" s="54"/>
-      <c r="F179" s="54"/>
-      <c r="G179" s="54"/>
-      <c r="H179" s="54"/>
-      <c r="I179" s="54"/>
-      <c r="J179" s="54"/>
-      <c r="K179" s="54"/>
-      <c r="L179" s="54"/>
+      <c r="B179" s="53"/>
+      <c r="C179" s="53"/>
+      <c r="D179" s="53"/>
+      <c r="E179" s="53"/>
+      <c r="F179" s="53"/>
+      <c r="G179" s="53"/>
+      <c r="H179" s="53"/>
+      <c r="I179" s="53"/>
+      <c r="J179" s="53"/>
+      <c r="K179" s="53"/>
+      <c r="L179" s="53"/>
     </row>
     <row r="180" spans="2:12" ht="14.25">
-      <c r="B180" s="54"/>
-      <c r="C180" s="54"/>
-      <c r="D180" s="54"/>
-      <c r="E180" s="54"/>
-      <c r="F180" s="54"/>
-      <c r="G180" s="54"/>
-      <c r="H180" s="54"/>
-      <c r="I180" s="54"/>
-      <c r="J180" s="54"/>
-      <c r="K180" s="54"/>
-      <c r="L180" s="54"/>
+      <c r="B180" s="53"/>
+      <c r="C180" s="53"/>
+      <c r="D180" s="53"/>
+      <c r="E180" s="53"/>
+      <c r="F180" s="53"/>
+      <c r="G180" s="53"/>
+      <c r="H180" s="53"/>
+      <c r="I180" s="53"/>
+      <c r="J180" s="53"/>
+      <c r="K180" s="53"/>
+      <c r="L180" s="53"/>
     </row>
     <row r="181" spans="2:12">
-      <c r="B181" s="53"/>
-      <c r="C181" s="53"/>
-      <c r="D181" s="53"/>
-      <c r="E181" s="53"/>
-      <c r="F181" s="53"/>
-      <c r="G181" s="53"/>
-      <c r="H181" s="53"/>
-      <c r="I181" s="53"/>
-      <c r="J181" s="53"/>
-      <c r="K181" s="53"/>
-      <c r="L181" s="53"/>
+      <c r="B181" s="52"/>
+      <c r="C181" s="52"/>
+      <c r="D181" s="52"/>
+      <c r="E181" s="52"/>
+      <c r="F181" s="52"/>
+      <c r="G181" s="52"/>
+      <c r="H181" s="52"/>
+      <c r="I181" s="52"/>
+      <c r="J181" s="52"/>
+      <c r="K181" s="52"/>
+      <c r="L181" s="52"/>
     </row>
     <row r="182" spans="2:12" ht="14.25">
-      <c r="B182" s="54"/>
-      <c r="C182" s="54"/>
-      <c r="D182" s="54"/>
-      <c r="E182" s="54"/>
-      <c r="F182" s="54"/>
-      <c r="G182" s="54"/>
-      <c r="H182" s="54"/>
-      <c r="I182" s="54"/>
-      <c r="J182" s="54"/>
-      <c r="K182" s="54"/>
-      <c r="L182" s="54"/>
+      <c r="B182" s="53"/>
+      <c r="C182" s="53"/>
+      <c r="D182" s="53"/>
+      <c r="E182" s="53"/>
+      <c r="F182" s="53"/>
+      <c r="G182" s="53"/>
+      <c r="H182" s="53"/>
+      <c r="I182" s="53"/>
+      <c r="J182" s="53"/>
+      <c r="K182" s="53"/>
+      <c r="L182" s="53"/>
     </row>
     <row r="183" spans="2:12" ht="14.25">
-      <c r="B183" s="54"/>
-      <c r="C183" s="54"/>
-      <c r="D183" s="54"/>
-      <c r="E183" s="59"/>
-      <c r="F183" s="54"/>
-      <c r="G183" s="54"/>
-      <c r="H183" s="54"/>
-      <c r="I183" s="54"/>
-      <c r="J183" s="54"/>
-      <c r="K183" s="54"/>
-      <c r="L183" s="54"/>
+      <c r="B183" s="53"/>
+      <c r="C183" s="53"/>
+      <c r="D183" s="53"/>
+      <c r="E183" s="58"/>
+      <c r="F183" s="53"/>
+      <c r="G183" s="53"/>
+      <c r="H183" s="53"/>
+      <c r="I183" s="53"/>
+      <c r="J183" s="53"/>
+      <c r="K183" s="53"/>
+      <c r="L183" s="53"/>
     </row>
     <row r="184" spans="2:12" ht="14.25">
-      <c r="B184" s="54"/>
-      <c r="C184" s="54"/>
-      <c r="D184" s="54"/>
-      <c r="E184" s="57"/>
-      <c r="F184" s="54"/>
-      <c r="G184" s="54"/>
-      <c r="H184" s="54"/>
-      <c r="I184" s="54"/>
-      <c r="J184" s="54"/>
-      <c r="K184" s="54"/>
-      <c r="L184" s="54"/>
+      <c r="B184" s="53"/>
+      <c r="C184" s="53"/>
+      <c r="D184" s="53"/>
+      <c r="E184" s="56"/>
+      <c r="F184" s="53"/>
+      <c r="G184" s="53"/>
+      <c r="H184" s="53"/>
+      <c r="I184" s="53"/>
+      <c r="J184" s="53"/>
+      <c r="K184" s="53"/>
+      <c r="L184" s="53"/>
     </row>
     <row r="185" spans="2:12" ht="14.25">
-      <c r="B185" s="54"/>
-      <c r="C185" s="54"/>
-      <c r="D185" s="54"/>
-      <c r="E185" s="57"/>
-      <c r="F185" s="54"/>
-      <c r="G185" s="54"/>
-      <c r="H185" s="54"/>
-      <c r="I185" s="54"/>
-      <c r="J185" s="54"/>
-      <c r="K185" s="54"/>
-      <c r="L185" s="54"/>
+      <c r="B185" s="53"/>
+      <c r="C185" s="53"/>
+      <c r="D185" s="53"/>
+      <c r="E185" s="56"/>
+      <c r="F185" s="53"/>
+      <c r="G185" s="53"/>
+      <c r="H185" s="53"/>
+      <c r="I185" s="53"/>
+      <c r="J185" s="53"/>
+      <c r="K185" s="53"/>
+      <c r="L185" s="53"/>
     </row>
     <row r="186" spans="2:12" ht="14.25">
-      <c r="B186" s="54"/>
-      <c r="C186" s="54"/>
-      <c r="D186" s="54"/>
-      <c r="E186" s="54"/>
-      <c r="F186" s="54"/>
-      <c r="G186" s="54"/>
-      <c r="H186" s="54"/>
-      <c r="I186" s="54"/>
-      <c r="J186" s="54"/>
-      <c r="K186" s="54"/>
-      <c r="L186" s="54"/>
+      <c r="B186" s="53"/>
+      <c r="C186" s="53"/>
+      <c r="D186" s="53"/>
+      <c r="E186" s="53"/>
+      <c r="F186" s="53"/>
+      <c r="G186" s="53"/>
+      <c r="H186" s="53"/>
+      <c r="I186" s="53"/>
+      <c r="J186" s="53"/>
+      <c r="K186" s="53"/>
+      <c r="L186" s="53"/>
     </row>
     <row r="187" spans="2:12" ht="14.25">
-      <c r="B187" s="54"/>
-      <c r="C187" s="54"/>
-      <c r="D187" s="54"/>
-      <c r="E187" s="54"/>
-      <c r="F187" s="54"/>
-      <c r="G187" s="54"/>
-      <c r="H187" s="54"/>
-      <c r="I187" s="54"/>
-      <c r="J187" s="54"/>
-      <c r="K187" s="54"/>
-      <c r="L187" s="54"/>
+      <c r="B187" s="53"/>
+      <c r="C187" s="53"/>
+      <c r="D187" s="53"/>
+      <c r="E187" s="53"/>
+      <c r="F187" s="53"/>
+      <c r="G187" s="53"/>
+      <c r="H187" s="53"/>
+      <c r="I187" s="53"/>
+      <c r="J187" s="53"/>
+      <c r="K187" s="53"/>
+      <c r="L187" s="53"/>
     </row>
     <row r="188" spans="2:12" ht="14.25">
-      <c r="B188" s="54"/>
-      <c r="C188" s="54"/>
-      <c r="D188" s="54"/>
-      <c r="E188" s="54"/>
-      <c r="F188" s="54"/>
-      <c r="G188" s="54"/>
-      <c r="H188" s="54"/>
-      <c r="I188" s="54"/>
-      <c r="J188" s="54"/>
-      <c r="K188" s="54"/>
-      <c r="L188" s="54"/>
+      <c r="B188" s="53"/>
+      <c r="C188" s="53"/>
+      <c r="D188" s="53"/>
+      <c r="E188" s="53"/>
+      <c r="F188" s="53"/>
+      <c r="G188" s="53"/>
+      <c r="H188" s="53"/>
+      <c r="I188" s="53"/>
+      <c r="J188" s="53"/>
+      <c r="K188" s="53"/>
+      <c r="L188" s="53"/>
     </row>
     <row r="189" spans="2:12">
-      <c r="B189" s="53"/>
-      <c r="C189" s="53"/>
-      <c r="D189" s="53"/>
-      <c r="E189" s="53"/>
-      <c r="F189" s="53"/>
-      <c r="G189" s="53"/>
-      <c r="H189" s="53"/>
-      <c r="I189" s="53"/>
-      <c r="J189" s="53"/>
-      <c r="K189" s="53"/>
-      <c r="L189" s="53"/>
+      <c r="B189" s="52"/>
+      <c r="C189" s="52"/>
+      <c r="D189" s="52"/>
+      <c r="E189" s="52"/>
+      <c r="F189" s="52"/>
+      <c r="G189" s="52"/>
+      <c r="H189" s="52"/>
+      <c r="I189" s="52"/>
+      <c r="J189" s="52"/>
+      <c r="K189" s="52"/>
+      <c r="L189" s="52"/>
     </row>
     <row r="190" spans="2:12" ht="14.25">
-      <c r="B190" s="24"/>
-      <c r="C190" s="24"/>
-      <c r="D190" s="24"/>
-      <c r="E190" s="24"/>
-      <c r="F190" s="24"/>
-      <c r="G190" s="24"/>
-      <c r="H190" s="24"/>
-      <c r="I190" s="24"/>
-      <c r="J190" s="24"/>
-      <c r="K190" s="24"/>
-      <c r="L190" s="60"/>
+      <c r="B190" s="23"/>
+      <c r="C190" s="23"/>
+      <c r="D190" s="23"/>
+      <c r="E190" s="23"/>
+      <c r="F190" s="23"/>
+      <c r="G190" s="23"/>
+      <c r="H190" s="23"/>
+      <c r="I190" s="23"/>
+      <c r="J190" s="23"/>
+      <c r="K190" s="23"/>
+      <c r="L190" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -5563,2013 +5709,2013 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:L71"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A82" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="30" customWidth="1"/>
-    <col min="2" max="12" width="9" style="30"/>
-    <col min="13" max="13" width="2.5" style="30" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="2.625" style="29" customWidth="1"/>
+    <col min="2" max="12" width="9" style="29"/>
+    <col min="13" max="13" width="2.5" style="29" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12"/>
     <row r="2" spans="1:12" ht="24.75" customHeight="1">
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="149" t="str">
+      <c r="K2" s="150" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="149"/>
+      <c r="L2" s="150"/>
     </row>
     <row r="3" spans="1:12" ht="20.25">
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="151" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
     </row>
     <row r="6" spans="1:12" ht="14.25">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="38" t="str">
+      <c r="C6" s="37" t="str">
         <f>記入!B4</f>
         <v>${cv.depositchinese}</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
     </row>
     <row r="7" spans="1:12" ht="8.25" customHeight="1">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="152" t="str">
-        <f>記入!B34</f>
+      <c r="C8" s="50"/>
+      <c r="D8" s="153" t="str">
+        <f>記入!B37</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E8" s="153"/>
-      <c r="F8" s="52" t="s">
+      <c r="E8" s="154"/>
+      <c r="F8" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="152"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="151"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="151"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="152"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="151"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="151"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="151"/>
-      <c r="K17" s="151"/>
-      <c r="L17" s="151"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="151"/>
-      <c r="K18" s="151"/>
-      <c r="L18" s="151"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="151"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="151"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="151"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="151"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="151"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="151"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="151"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="151"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="152"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="151"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="151"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="151"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="151"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="151"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="151"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="151"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="151"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="152"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="151"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="151"/>
-      <c r="G25" s="151"/>
-      <c r="H25" s="151"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="151"/>
-      <c r="K25" s="151"/>
-      <c r="L25" s="151"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="152"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="151"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="151"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="152"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="151"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="151"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="151"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="151"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="152"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="151"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="152"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="151"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="152"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="151"/>
-      <c r="C34" s="151"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="152"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="151"/>
-      <c r="C35" s="151"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="151"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="152"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="152"/>
+      <c r="K36" s="152"/>
+      <c r="L36" s="152"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="151"/>
-      <c r="C37" s="151"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
+      <c r="I37" s="152"/>
+      <c r="J37" s="152"/>
+      <c r="K37" s="152"/>
+      <c r="L37" s="152"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="151"/>
-      <c r="C38" s="151"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
+      <c r="K38" s="152"/>
+      <c r="L38" s="152"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="151"/>
-      <c r="C39" s="151"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="152"/>
+      <c r="K39" s="152"/>
+      <c r="L39" s="152"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="151"/>
-      <c r="C40" s="151"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="152"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="152"/>
+      <c r="K40" s="152"/>
+      <c r="L40" s="152"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="151"/>
-      <c r="C41" s="151"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="152"/>
+      <c r="L41" s="152"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="151"/>
-      <c r="C42" s="151"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="152"/>
+      <c r="K42" s="152"/>
+      <c r="L42" s="152"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="151"/>
-      <c r="C43" s="151"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="152"/>
+      <c r="K43" s="152"/>
+      <c r="L43" s="152"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="151"/>
-      <c r="C44" s="151"/>
-      <c r="D44" s="151"/>
-      <c r="E44" s="151"/>
-      <c r="F44" s="151"/>
-      <c r="G44" s="151"/>
-      <c r="H44" s="151"/>
-      <c r="I44" s="151"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="151"/>
-      <c r="L44" s="151"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="152"/>
+      <c r="K44" s="152"/>
+      <c r="L44" s="152"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="151"/>
-      <c r="C45" s="151"/>
-      <c r="D45" s="151"/>
-      <c r="E45" s="151"/>
-      <c r="F45" s="151"/>
-      <c r="G45" s="151"/>
-      <c r="H45" s="151"/>
-      <c r="I45" s="151"/>
-      <c r="J45" s="151"/>
-      <c r="K45" s="151"/>
-      <c r="L45" s="151"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="152"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="152"/>
+      <c r="K45" s="152"/>
+      <c r="L45" s="152"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="151"/>
-      <c r="C46" s="151"/>
-      <c r="D46" s="151"/>
-      <c r="E46" s="151"/>
-      <c r="F46" s="151"/>
-      <c r="G46" s="151"/>
-      <c r="H46" s="151"/>
-      <c r="I46" s="151"/>
-      <c r="J46" s="151"/>
-      <c r="K46" s="151"/>
-      <c r="L46" s="151"/>
+      <c r="B46" s="152"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="152"/>
+      <c r="J46" s="152"/>
+      <c r="K46" s="152"/>
+      <c r="L46" s="152"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="151"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
-      <c r="E47" s="151"/>
-      <c r="F47" s="151"/>
-      <c r="G47" s="151"/>
-      <c r="H47" s="151"/>
-      <c r="I47" s="151"/>
-      <c r="J47" s="151"/>
-      <c r="K47" s="151"/>
-      <c r="L47" s="151"/>
+      <c r="B47" s="152"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="152"/>
+      <c r="F47" s="152"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="152"/>
+      <c r="J47" s="152"/>
+      <c r="K47" s="152"/>
+      <c r="L47" s="152"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="151"/>
-      <c r="C48" s="151"/>
-      <c r="D48" s="151"/>
-      <c r="E48" s="151"/>
-      <c r="F48" s="151"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="151"/>
-      <c r="I48" s="151"/>
-      <c r="J48" s="151"/>
-      <c r="K48" s="151"/>
-      <c r="L48" s="151"/>
+      <c r="B48" s="152"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="152"/>
+      <c r="E48" s="152"/>
+      <c r="F48" s="152"/>
+      <c r="G48" s="152"/>
+      <c r="H48" s="152"/>
+      <c r="I48" s="152"/>
+      <c r="J48" s="152"/>
+      <c r="K48" s="152"/>
+      <c r="L48" s="152"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="151"/>
-      <c r="C49" s="151"/>
-      <c r="D49" s="151"/>
-      <c r="E49" s="151"/>
-      <c r="F49" s="151"/>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="151"/>
-      <c r="K49" s="151"/>
-      <c r="L49" s="151"/>
+      <c r="B49" s="152"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
+      <c r="F49" s="152"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="152"/>
+      <c r="J49" s="152"/>
+      <c r="K49" s="152"/>
+      <c r="L49" s="152"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="151"/>
-      <c r="C50" s="151"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="151"/>
-      <c r="F50" s="151"/>
-      <c r="G50" s="151"/>
-      <c r="H50" s="151"/>
-      <c r="I50" s="151"/>
-      <c r="J50" s="151"/>
-      <c r="K50" s="151"/>
-      <c r="L50" s="151"/>
+      <c r="B50" s="152"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="152"/>
+      <c r="F50" s="152"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="152"/>
+      <c r="K50" s="152"/>
+      <c r="L50" s="152"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="151"/>
-      <c r="C51" s="151"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="151"/>
-      <c r="F51" s="151"/>
-      <c r="G51" s="151"/>
-      <c r="H51" s="151"/>
-      <c r="I51" s="151"/>
-      <c r="J51" s="151"/>
-      <c r="K51" s="151"/>
-      <c r="L51" s="151"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="152"/>
+      <c r="F51" s="152"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="152"/>
+      <c r="J51" s="152"/>
+      <c r="K51" s="152"/>
+      <c r="L51" s="152"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="151"/>
-      <c r="C52" s="151"/>
-      <c r="D52" s="151"/>
-      <c r="E52" s="151"/>
-      <c r="F52" s="151"/>
-      <c r="G52" s="151"/>
-      <c r="H52" s="151"/>
-      <c r="I52" s="151"/>
-      <c r="J52" s="151"/>
-      <c r="K52" s="151"/>
-      <c r="L52" s="151"/>
+      <c r="B52" s="152"/>
+      <c r="C52" s="152"/>
+      <c r="D52" s="152"/>
+      <c r="E52" s="152"/>
+      <c r="F52" s="152"/>
+      <c r="G52" s="152"/>
+      <c r="H52" s="152"/>
+      <c r="I52" s="152"/>
+      <c r="J52" s="152"/>
+      <c r="K52" s="152"/>
+      <c r="L52" s="152"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="151"/>
-      <c r="C53" s="151"/>
-      <c r="D53" s="151"/>
-      <c r="E53" s="151"/>
-      <c r="F53" s="151"/>
-      <c r="G53" s="151"/>
-      <c r="H53" s="151"/>
-      <c r="I53" s="151"/>
-      <c r="J53" s="151"/>
-      <c r="K53" s="151"/>
-      <c r="L53" s="151"/>
+      <c r="B53" s="152"/>
+      <c r="C53" s="152"/>
+      <c r="D53" s="152"/>
+      <c r="E53" s="152"/>
+      <c r="F53" s="152"/>
+      <c r="G53" s="152"/>
+      <c r="H53" s="152"/>
+      <c r="I53" s="152"/>
+      <c r="J53" s="152"/>
+      <c r="K53" s="152"/>
+      <c r="L53" s="152"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="151"/>
-      <c r="C54" s="151"/>
-      <c r="D54" s="151"/>
-      <c r="E54" s="151"/>
-      <c r="F54" s="151"/>
-      <c r="G54" s="151"/>
-      <c r="H54" s="151"/>
-      <c r="I54" s="151"/>
-      <c r="J54" s="151"/>
-      <c r="K54" s="151"/>
-      <c r="L54" s="151"/>
+      <c r="B54" s="152"/>
+      <c r="C54" s="152"/>
+      <c r="D54" s="152"/>
+      <c r="E54" s="152"/>
+      <c r="F54" s="152"/>
+      <c r="G54" s="152"/>
+      <c r="H54" s="152"/>
+      <c r="I54" s="152"/>
+      <c r="J54" s="152"/>
+      <c r="K54" s="152"/>
+      <c r="L54" s="152"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="151"/>
-      <c r="C55" s="151"/>
-      <c r="D55" s="151"/>
-      <c r="E55" s="151"/>
-      <c r="F55" s="151"/>
-      <c r="G55" s="151"/>
-      <c r="H55" s="151"/>
-      <c r="I55" s="151"/>
-      <c r="J55" s="151"/>
-      <c r="K55" s="151"/>
-      <c r="L55" s="151"/>
+      <c r="B55" s="152"/>
+      <c r="C55" s="152"/>
+      <c r="D55" s="152"/>
+      <c r="E55" s="152"/>
+      <c r="F55" s="152"/>
+      <c r="G55" s="152"/>
+      <c r="H55" s="152"/>
+      <c r="I55" s="152"/>
+      <c r="J55" s="152"/>
+      <c r="K55" s="152"/>
+      <c r="L55" s="152"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="151"/>
-      <c r="C56" s="151"/>
-      <c r="D56" s="151"/>
-      <c r="E56" s="151"/>
-      <c r="F56" s="151"/>
-      <c r="G56" s="151"/>
-      <c r="H56" s="151"/>
-      <c r="I56" s="151"/>
-      <c r="J56" s="151"/>
-      <c r="K56" s="151"/>
-      <c r="L56" s="151"/>
+      <c r="B56" s="152"/>
+      <c r="C56" s="152"/>
+      <c r="D56" s="152"/>
+      <c r="E56" s="152"/>
+      <c r="F56" s="152"/>
+      <c r="G56" s="152"/>
+      <c r="H56" s="152"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="152"/>
+      <c r="K56" s="152"/>
+      <c r="L56" s="152"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="151"/>
-      <c r="C57" s="151"/>
-      <c r="D57" s="151"/>
-      <c r="E57" s="151"/>
-      <c r="F57" s="151"/>
-      <c r="G57" s="151"/>
-      <c r="H57" s="151"/>
-      <c r="I57" s="151"/>
-      <c r="J57" s="151"/>
-      <c r="K57" s="151"/>
-      <c r="L57" s="151"/>
+      <c r="B57" s="152"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="152"/>
+      <c r="E57" s="152"/>
+      <c r="F57" s="152"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="152"/>
+      <c r="K57" s="152"/>
+      <c r="L57" s="152"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
     </row>
     <row r="59" spans="2:12" ht="24.75" customHeight="1">
-      <c r="J59" s="31" t="s">
+      <c r="J59" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="K59" s="149" t="str">
+      <c r="K59" s="150" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L59" s="149"/>
+      <c r="L59" s="150"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="147" t="s">
+      <c r="B60" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="148"/>
-      <c r="D60" s="148"/>
-      <c r="E60" s="148"/>
-      <c r="F60" s="148"/>
-      <c r="G60" s="148"/>
-      <c r="H60" s="148"/>
-      <c r="I60" s="148"/>
-      <c r="J60" s="148"/>
-      <c r="K60" s="148"/>
-      <c r="L60" s="148"/>
+      <c r="C60" s="149"/>
+      <c r="D60" s="149"/>
+      <c r="E60" s="149"/>
+      <c r="F60" s="149"/>
+      <c r="G60" s="149"/>
+      <c r="H60" s="149"/>
+      <c r="I60" s="149"/>
+      <c r="J60" s="149"/>
+      <c r="K60" s="149"/>
+      <c r="L60" s="149"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="148"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="148"/>
-      <c r="E61" s="148"/>
-      <c r="F61" s="148"/>
-      <c r="G61" s="148"/>
-      <c r="H61" s="148"/>
-      <c r="I61" s="148"/>
-      <c r="J61" s="148"/>
-      <c r="K61" s="148"/>
-      <c r="L61" s="148"/>
+      <c r="B61" s="149"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="149"/>
+      <c r="E61" s="149"/>
+      <c r="F61" s="149"/>
+      <c r="G61" s="149"/>
+      <c r="H61" s="149"/>
+      <c r="I61" s="149"/>
+      <c r="J61" s="149"/>
+      <c r="K61" s="149"/>
+      <c r="L61" s="149"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="148"/>
-      <c r="C62" s="148"/>
-      <c r="D62" s="148"/>
-      <c r="E62" s="148"/>
-      <c r="F62" s="148"/>
-      <c r="G62" s="148"/>
-      <c r="H62" s="148"/>
-      <c r="I62" s="148"/>
-      <c r="J62" s="148"/>
-      <c r="K62" s="148"/>
-      <c r="L62" s="148"/>
+      <c r="B62" s="149"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="149"/>
+      <c r="E62" s="149"/>
+      <c r="F62" s="149"/>
+      <c r="G62" s="149"/>
+      <c r="H62" s="149"/>
+      <c r="I62" s="149"/>
+      <c r="J62" s="149"/>
+      <c r="K62" s="149"/>
+      <c r="L62" s="149"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="148"/>
-      <c r="C63" s="148"/>
-      <c r="D63" s="148"/>
-      <c r="E63" s="148"/>
-      <c r="F63" s="148"/>
-      <c r="G63" s="148"/>
-      <c r="H63" s="148"/>
-      <c r="I63" s="148"/>
-      <c r="J63" s="148"/>
-      <c r="K63" s="148"/>
-      <c r="L63" s="148"/>
+      <c r="B63" s="149"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="149"/>
+      <c r="E63" s="149"/>
+      <c r="F63" s="149"/>
+      <c r="G63" s="149"/>
+      <c r="H63" s="149"/>
+      <c r="I63" s="149"/>
+      <c r="J63" s="149"/>
+      <c r="K63" s="149"/>
+      <c r="L63" s="149"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="148"/>
-      <c r="C64" s="148"/>
-      <c r="D64" s="148"/>
-      <c r="E64" s="148"/>
-      <c r="F64" s="148"/>
-      <c r="G64" s="148"/>
-      <c r="H64" s="148"/>
-      <c r="I64" s="148"/>
-      <c r="J64" s="148"/>
-      <c r="K64" s="148"/>
-      <c r="L64" s="148"/>
+      <c r="B64" s="149"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="149"/>
+      <c r="E64" s="149"/>
+      <c r="F64" s="149"/>
+      <c r="G64" s="149"/>
+      <c r="H64" s="149"/>
+      <c r="I64" s="149"/>
+      <c r="J64" s="149"/>
+      <c r="K64" s="149"/>
+      <c r="L64" s="149"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="148"/>
-      <c r="C65" s="148"/>
-      <c r="D65" s="148"/>
-      <c r="E65" s="148"/>
-      <c r="F65" s="148"/>
-      <c r="G65" s="148"/>
-      <c r="H65" s="148"/>
-      <c r="I65" s="148"/>
-      <c r="J65" s="148"/>
-      <c r="K65" s="148"/>
-      <c r="L65" s="148"/>
+      <c r="B65" s="149"/>
+      <c r="C65" s="149"/>
+      <c r="D65" s="149"/>
+      <c r="E65" s="149"/>
+      <c r="F65" s="149"/>
+      <c r="G65" s="149"/>
+      <c r="H65" s="149"/>
+      <c r="I65" s="149"/>
+      <c r="J65" s="149"/>
+      <c r="K65" s="149"/>
+      <c r="L65" s="149"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="148"/>
-      <c r="C66" s="148"/>
-      <c r="D66" s="148"/>
-      <c r="E66" s="148"/>
-      <c r="F66" s="148"/>
-      <c r="G66" s="148"/>
-      <c r="H66" s="148"/>
-      <c r="I66" s="148"/>
-      <c r="J66" s="148"/>
-      <c r="K66" s="148"/>
-      <c r="L66" s="148"/>
+      <c r="B66" s="149"/>
+      <c r="C66" s="149"/>
+      <c r="D66" s="149"/>
+      <c r="E66" s="149"/>
+      <c r="F66" s="149"/>
+      <c r="G66" s="149"/>
+      <c r="H66" s="149"/>
+      <c r="I66" s="149"/>
+      <c r="J66" s="149"/>
+      <c r="K66" s="149"/>
+      <c r="L66" s="149"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="148"/>
-      <c r="C67" s="148"/>
-      <c r="D67" s="148"/>
-      <c r="E67" s="148"/>
-      <c r="F67" s="148"/>
-      <c r="G67" s="148"/>
-      <c r="H67" s="148"/>
-      <c r="I67" s="148"/>
-      <c r="J67" s="148"/>
-      <c r="K67" s="148"/>
-      <c r="L67" s="148"/>
+      <c r="B67" s="149"/>
+      <c r="C67" s="149"/>
+      <c r="D67" s="149"/>
+      <c r="E67" s="149"/>
+      <c r="F67" s="149"/>
+      <c r="G67" s="149"/>
+      <c r="H67" s="149"/>
+      <c r="I67" s="149"/>
+      <c r="J67" s="149"/>
+      <c r="K67" s="149"/>
+      <c r="L67" s="149"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="148"/>
-      <c r="C68" s="148"/>
-      <c r="D68" s="148"/>
-      <c r="E68" s="148"/>
-      <c r="F68" s="148"/>
-      <c r="G68" s="148"/>
-      <c r="H68" s="148"/>
-      <c r="I68" s="148"/>
-      <c r="J68" s="148"/>
-      <c r="K68" s="148"/>
-      <c r="L68" s="148"/>
+      <c r="B68" s="149"/>
+      <c r="C68" s="149"/>
+      <c r="D68" s="149"/>
+      <c r="E68" s="149"/>
+      <c r="F68" s="149"/>
+      <c r="G68" s="149"/>
+      <c r="H68" s="149"/>
+      <c r="I68" s="149"/>
+      <c r="J68" s="149"/>
+      <c r="K68" s="149"/>
+      <c r="L68" s="149"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="148"/>
-      <c r="C69" s="148"/>
-      <c r="D69" s="148"/>
-      <c r="E69" s="148"/>
-      <c r="F69" s="148"/>
-      <c r="G69" s="148"/>
-      <c r="H69" s="148"/>
-      <c r="I69" s="148"/>
-      <c r="J69" s="148"/>
-      <c r="K69" s="148"/>
-      <c r="L69" s="148"/>
+      <c r="B69" s="149"/>
+      <c r="C69" s="149"/>
+      <c r="D69" s="149"/>
+      <c r="E69" s="149"/>
+      <c r="F69" s="149"/>
+      <c r="G69" s="149"/>
+      <c r="H69" s="149"/>
+      <c r="I69" s="149"/>
+      <c r="J69" s="149"/>
+      <c r="K69" s="149"/>
+      <c r="L69" s="149"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="148"/>
-      <c r="C70" s="148"/>
-      <c r="D70" s="148"/>
-      <c r="E70" s="148"/>
-      <c r="F70" s="148"/>
-      <c r="G70" s="148"/>
-      <c r="H70" s="148"/>
-      <c r="I70" s="148"/>
-      <c r="J70" s="148"/>
-      <c r="K70" s="148"/>
-      <c r="L70" s="148"/>
+      <c r="B70" s="149"/>
+      <c r="C70" s="149"/>
+      <c r="D70" s="149"/>
+      <c r="E70" s="149"/>
+      <c r="F70" s="149"/>
+      <c r="G70" s="149"/>
+      <c r="H70" s="149"/>
+      <c r="I70" s="149"/>
+      <c r="J70" s="149"/>
+      <c r="K70" s="149"/>
+      <c r="L70" s="149"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="148"/>
-      <c r="C71" s="148"/>
-      <c r="D71" s="148"/>
-      <c r="E71" s="148"/>
-      <c r="F71" s="148"/>
-      <c r="G71" s="148"/>
-      <c r="H71" s="148"/>
-      <c r="I71" s="148"/>
-      <c r="J71" s="148"/>
-      <c r="K71" s="148"/>
-      <c r="L71" s="148"/>
+      <c r="B71" s="149"/>
+      <c r="C71" s="149"/>
+      <c r="D71" s="149"/>
+      <c r="E71" s="149"/>
+      <c r="F71" s="149"/>
+      <c r="G71" s="149"/>
+      <c r="H71" s="149"/>
+      <c r="I71" s="149"/>
+      <c r="J71" s="149"/>
+      <c r="K71" s="149"/>
+      <c r="L71" s="149"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C73" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32"/>
-      <c r="F73" s="32"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="32"/>
-      <c r="I73" s="32"/>
+      <c r="C73" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" s="31"/>
+      <c r="E73" s="31"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
     </row>
     <row r="74" spans="2:12" ht="14.25">
-      <c r="B74" s="32"/>
-      <c r="C74" s="32" t="s">
+      <c r="B74" s="31"/>
+      <c r="C74" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="32"/>
-      <c r="I74" s="32"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="31"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
     </row>
     <row r="75" spans="2:12" ht="14.25">
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="32"/>
-      <c r="I75" s="32"/>
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="31"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
     </row>
     <row r="76" spans="2:12" ht="14.25">
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="32"/>
-      <c r="I76" s="32"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="31"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
     </row>
     <row r="77" spans="2:12" ht="14.25">
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="32"/>
-      <c r="I77" s="32"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
     </row>
     <row r="78" spans="2:12" ht="14.25">
-      <c r="B78" s="32"/>
-      <c r="C78" s="36" t="s">
+      <c r="B78" s="31"/>
+      <c r="C78" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D78" s="36" t="s">
+      <c r="D78" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="E78" s="32"/>
-      <c r="F78" s="32"/>
-      <c r="G78" s="32"/>
-      <c r="H78" s="32"/>
-      <c r="I78" s="32"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
     </row>
     <row r="79" spans="2:12" ht="14.25">
-      <c r="B79" s="32"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="32"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="32"/>
-      <c r="H79" s="32"/>
-      <c r="I79" s="32"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
     </row>
     <row r="80" spans="2:12" ht="14.25">
-      <c r="B80" s="32"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
     </row>
     <row r="81" spans="2:9" ht="14.25">
-      <c r="B81" s="32"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="32"/>
-      <c r="I81" s="32"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
     </row>
     <row r="82" spans="2:9" ht="14.25">
-      <c r="B82" s="32"/>
-      <c r="C82" s="32" t="s">
+      <c r="B82" s="31"/>
+      <c r="C82" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D82" s="37"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
-      <c r="H82" s="32"/>
-      <c r="I82" s="32"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
     </row>
     <row r="85" spans="2:9" ht="14.25">
-      <c r="B85" s="32" t="s">
+      <c r="B85" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C85" s="35" t="str">
+      <c r="C85" s="34" t="str">
         <f>記入!B7</f>
         <v>${cv.prplacechinese}</v>
       </c>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="32"/>
-      <c r="I85" s="32"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="31"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
     </row>
     <row r="86" spans="2:9" ht="14.25">
-      <c r="B86" s="32"/>
-      <c r="C86" s="35" t="str">
+      <c r="B86" s="31"/>
+      <c r="C86" s="34" t="str">
         <f>記入!B4</f>
         <v>${cv.depositchinese}</v>
       </c>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32"/>
-      <c r="F86" s="32"/>
-      <c r="G86" s="32"/>
-      <c r="H86" s="32"/>
-      <c r="I86" s="32"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
     </row>
     <row r="87" spans="2:9" ht="14.25">
-      <c r="B87" s="32" t="s">
+      <c r="B87" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="32"/>
-      <c r="H87" s="32"/>
-      <c r="I87" s="32"/>
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
     </row>
     <row r="88" spans="2:9" ht="14.25">
-      <c r="B88" s="32"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="32"/>
-      <c r="F88" s="32"/>
-      <c r="G88" s="32"/>
-      <c r="H88" s="32"/>
-      <c r="I88" s="32"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
     </row>
     <row r="89" spans="2:9" ht="14.25">
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="31"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
     </row>
     <row r="90" spans="2:9" ht="14.25">
-      <c r="B90" s="32"/>
-      <c r="C90" s="48" t="str">
-        <f>記入!B33</f>
+      <c r="B90" s="31"/>
+      <c r="C90" s="47" t="str">
+        <f>記入!B36</f>
         <v>${cv.prplacepositionchinese}</v>
       </c>
-      <c r="D90" s="36" t="str">
-        <f>記入!E33</f>
+      <c r="D90" s="35" t="str">
+        <f>記入!E36</f>
         <v>${cv.namechinese}</v>
       </c>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32"/>
-      <c r="G90" s="32"/>
-      <c r="H90" s="32"/>
-      <c r="I90" s="32"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
     </row>
     <row r="91" spans="2:9" ht="14.25">
-      <c r="B91" s="32"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="32"/>
-      <c r="F91" s="32"/>
-      <c r="G91" s="32"/>
-      <c r="H91" s="32"/>
-      <c r="I91" s="32"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
     </row>
     <row r="92" spans="2:9" ht="14.25">
-      <c r="B92" s="32"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="32"/>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
     </row>
     <row r="93" spans="2:9" ht="14.25">
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="32"/>
-      <c r="F93" s="32"/>
-      <c r="G93" s="32"/>
-      <c r="H93" s="32"/>
-      <c r="I93" s="32"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
     </row>
     <row r="94" spans="2:9" ht="14.25">
-      <c r="B94" s="32"/>
-      <c r="C94" s="32" t="s">
+      <c r="B94" s="31"/>
+      <c r="C94" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D94" s="37"/>
-      <c r="E94" s="32"/>
-      <c r="F94" s="32"/>
-      <c r="G94" s="32"/>
-      <c r="H94" s="32"/>
-      <c r="I94" s="32"/>
-    </row>
-    <row r="127" spans="2:12" s="62" customFormat="1" ht="24.75" customHeight="1">
-      <c r="J127" s="63" t="s">
+      <c r="D94" s="36"/>
+      <c r="E94" s="31"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+    </row>
+    <row r="127" spans="2:12" s="61" customFormat="1" ht="24.75" customHeight="1">
+      <c r="J127" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="K127" s="146" t="str">
+      <c r="K127" s="147" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L127" s="146"/>
-    </row>
-    <row r="128" spans="2:12" s="62" customFormat="1" ht="18.75">
-      <c r="B128" s="64" t="s">
+      <c r="L127" s="147"/>
+    </row>
+    <row r="128" spans="2:12" s="61" customFormat="1" ht="18.75">
+      <c r="B128" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="C128" s="63"/>
-      <c r="D128" s="63"/>
-      <c r="E128" s="63"/>
-      <c r="F128" s="63"/>
-      <c r="G128" s="63"/>
-      <c r="H128" s="63"/>
-      <c r="I128" s="63"/>
-      <c r="J128" s="63"/>
-      <c r="K128" s="63"/>
-    </row>
-    <row r="129" spans="2:12" s="62" customFormat="1">
-      <c r="B129" s="63"/>
-      <c r="C129" s="63"/>
-      <c r="D129" s="63"/>
-      <c r="E129" s="63"/>
-      <c r="F129" s="63"/>
-      <c r="G129" s="63"/>
-      <c r="H129" s="63"/>
-      <c r="I129" s="63"/>
-      <c r="J129" s="63"/>
-      <c r="K129" s="63"/>
-    </row>
-    <row r="130" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B130" s="65" t="s">
+      <c r="C128" s="62"/>
+      <c r="D128" s="62"/>
+      <c r="E128" s="62"/>
+      <c r="F128" s="62"/>
+      <c r="G128" s="62"/>
+      <c r="H128" s="62"/>
+      <c r="I128" s="62"/>
+      <c r="J128" s="62"/>
+      <c r="K128" s="62"/>
+    </row>
+    <row r="129" spans="2:12" s="61" customFormat="1">
+      <c r="B129" s="62"/>
+      <c r="C129" s="62"/>
+      <c r="D129" s="62"/>
+      <c r="E129" s="62"/>
+      <c r="F129" s="62"/>
+      <c r="G129" s="62"/>
+      <c r="H129" s="62"/>
+      <c r="I129" s="62"/>
+      <c r="J129" s="62"/>
+      <c r="K129" s="62"/>
+    </row>
+    <row r="130" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B130" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C130" s="65"/>
-      <c r="D130" s="65"/>
-      <c r="E130" s="65"/>
-      <c r="F130" s="65"/>
-      <c r="G130" s="65"/>
-      <c r="H130" s="65"/>
-      <c r="I130" s="65"/>
-      <c r="J130" s="65"/>
-      <c r="K130" s="65"/>
-      <c r="L130" s="66"/>
-    </row>
-    <row r="131" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="154" t="s">
+      <c r="C130" s="64"/>
+      <c r="D130" s="64"/>
+      <c r="E130" s="64"/>
+      <c r="F130" s="64"/>
+      <c r="G130" s="64"/>
+      <c r="H130" s="64"/>
+      <c r="I130" s="64"/>
+      <c r="J130" s="64"/>
+      <c r="K130" s="64"/>
+      <c r="L130" s="65"/>
+    </row>
+    <row r="131" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B131" s="155" t="s">
         <v>101</v>
       </c>
-      <c r="C131" s="154"/>
-      <c r="D131" s="155" t="str">
+      <c r="C131" s="155"/>
+      <c r="D131" s="156" t="str">
         <f>記入!B11</f>
         <v>${cv.pjnamechinese}</v>
       </c>
-      <c r="E131" s="155"/>
-      <c r="F131" s="155"/>
-      <c r="G131" s="155"/>
-      <c r="H131" s="155"/>
-      <c r="I131" s="155"/>
-      <c r="J131" s="155"/>
-      <c r="K131" s="155"/>
-      <c r="L131" s="67"/>
-    </row>
-    <row r="132" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="154" t="s">
+      <c r="E131" s="156"/>
+      <c r="F131" s="156"/>
+      <c r="G131" s="156"/>
+      <c r="H131" s="156"/>
+      <c r="I131" s="156"/>
+      <c r="J131" s="156"/>
+      <c r="K131" s="156"/>
+      <c r="L131" s="66"/>
+    </row>
+    <row r="132" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B132" s="155" t="s">
         <v>102</v>
       </c>
-      <c r="C132" s="154"/>
-      <c r="D132" s="156" t="str">
+      <c r="C132" s="155"/>
+      <c r="D132" s="157" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E132" s="155"/>
-      <c r="F132" s="155"/>
-      <c r="G132" s="155"/>
-      <c r="H132" s="155"/>
-      <c r="I132" s="155"/>
-      <c r="J132" s="155"/>
-      <c r="K132" s="155"/>
-      <c r="L132" s="68"/>
-    </row>
-    <row r="133" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B133" s="154" t="s">
+      <c r="E132" s="156"/>
+      <c r="F132" s="156"/>
+      <c r="G132" s="156"/>
+      <c r="H132" s="156"/>
+      <c r="I132" s="156"/>
+      <c r="J132" s="156"/>
+      <c r="K132" s="156"/>
+      <c r="L132" s="67"/>
+    </row>
+    <row r="133" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B133" s="155" t="s">
         <v>103</v>
       </c>
-      <c r="C133" s="154"/>
-      <c r="D133" s="156" t="str">
+      <c r="C133" s="155"/>
+      <c r="D133" s="157" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E133" s="155"/>
-      <c r="F133" s="155"/>
-      <c r="G133" s="155"/>
-      <c r="H133" s="155"/>
-      <c r="I133" s="155"/>
-      <c r="J133" s="155"/>
-      <c r="K133" s="155"/>
-      <c r="L133" s="68"/>
-    </row>
-    <row r="134" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="154" t="s">
+      <c r="E133" s="156"/>
+      <c r="F133" s="156"/>
+      <c r="G133" s="156"/>
+      <c r="H133" s="156"/>
+      <c r="I133" s="156"/>
+      <c r="J133" s="156"/>
+      <c r="K133" s="156"/>
+      <c r="L133" s="67"/>
+    </row>
+    <row r="134" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B134" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="C134" s="154"/>
-      <c r="D134" s="157" t="str">
+      <c r="C134" s="155"/>
+      <c r="D134" s="158" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="E134" s="157"/>
-      <c r="F134" s="157"/>
-      <c r="G134" s="157"/>
-      <c r="H134" s="157"/>
-      <c r="I134" s="157"/>
-      <c r="J134" s="157"/>
-      <c r="K134" s="157"/>
-      <c r="L134" s="68"/>
-    </row>
-    <row r="135" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="158" t="s">
+      <c r="E134" s="158"/>
+      <c r="F134" s="158"/>
+      <c r="G134" s="158"/>
+      <c r="H134" s="158"/>
+      <c r="I134" s="158"/>
+      <c r="J134" s="158"/>
+      <c r="K134" s="158"/>
+      <c r="L134" s="67"/>
+    </row>
+    <row r="135" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B135" s="159" t="s">
         <v>105</v>
       </c>
-      <c r="C135" s="154"/>
-      <c r="D135" s="159" t="str">
-        <f>記入!B41</f>
+      <c r="C135" s="155"/>
+      <c r="D135" s="160" t="str">
+        <f>記入!B44</f>
         <v>${cv.technicalcontentchinese}</v>
       </c>
-      <c r="E135" s="160"/>
-      <c r="F135" s="160"/>
-      <c r="G135" s="160"/>
-      <c r="H135" s="160"/>
-      <c r="I135" s="160"/>
-      <c r="J135" s="160"/>
-      <c r="K135" s="160"/>
-      <c r="L135" s="68"/>
-    </row>
-    <row r="136" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="154"/>
-      <c r="C136" s="154"/>
-      <c r="D136" s="160"/>
-      <c r="E136" s="160"/>
-      <c r="F136" s="160"/>
-      <c r="G136" s="160"/>
-      <c r="H136" s="160"/>
-      <c r="I136" s="160"/>
-      <c r="J136" s="160"/>
-      <c r="K136" s="160"/>
-      <c r="L136" s="68"/>
-    </row>
-    <row r="137" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="154"/>
-      <c r="C137" s="154"/>
-      <c r="D137" s="160"/>
-      <c r="E137" s="160"/>
-      <c r="F137" s="160"/>
-      <c r="G137" s="160"/>
-      <c r="H137" s="160"/>
-      <c r="I137" s="160"/>
-      <c r="J137" s="160"/>
-      <c r="K137" s="160"/>
-      <c r="L137" s="68"/>
-    </row>
-    <row r="138" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="154"/>
-      <c r="C138" s="154"/>
-      <c r="D138" s="160"/>
-      <c r="E138" s="160"/>
-      <c r="F138" s="160"/>
-      <c r="G138" s="160"/>
-      <c r="H138" s="160"/>
-      <c r="I138" s="160"/>
-      <c r="J138" s="160"/>
-      <c r="K138" s="160"/>
-      <c r="L138" s="67"/>
-    </row>
-    <row r="139" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="154"/>
-      <c r="C139" s="154"/>
-      <c r="D139" s="160"/>
-      <c r="E139" s="160"/>
-      <c r="F139" s="160"/>
-      <c r="G139" s="160"/>
-      <c r="H139" s="160"/>
-      <c r="I139" s="160"/>
-      <c r="J139" s="160"/>
-      <c r="K139" s="160"/>
-      <c r="L139" s="67"/>
-    </row>
-    <row r="140" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="154"/>
-      <c r="C140" s="154"/>
-      <c r="D140" s="160"/>
-      <c r="E140" s="160"/>
-      <c r="F140" s="160"/>
-      <c r="G140" s="160"/>
-      <c r="H140" s="160"/>
-      <c r="I140" s="160"/>
-      <c r="J140" s="160"/>
-      <c r="K140" s="160"/>
-      <c r="L140" s="68"/>
-    </row>
-    <row r="141" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="154"/>
-      <c r="C141" s="154"/>
-      <c r="D141" s="160"/>
-      <c r="E141" s="160"/>
-      <c r="F141" s="160"/>
-      <c r="G141" s="160"/>
-      <c r="H141" s="160"/>
-      <c r="I141" s="160"/>
-      <c r="J141" s="160"/>
-      <c r="K141" s="160"/>
-      <c r="L141" s="68"/>
-    </row>
-    <row r="142" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="154" t="s">
+      <c r="E135" s="161"/>
+      <c r="F135" s="161"/>
+      <c r="G135" s="161"/>
+      <c r="H135" s="161"/>
+      <c r="I135" s="161"/>
+      <c r="J135" s="161"/>
+      <c r="K135" s="161"/>
+      <c r="L135" s="67"/>
+    </row>
+    <row r="136" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B136" s="155"/>
+      <c r="C136" s="155"/>
+      <c r="D136" s="161"/>
+      <c r="E136" s="161"/>
+      <c r="F136" s="161"/>
+      <c r="G136" s="161"/>
+      <c r="H136" s="161"/>
+      <c r="I136" s="161"/>
+      <c r="J136" s="161"/>
+      <c r="K136" s="161"/>
+      <c r="L136" s="67"/>
+    </row>
+    <row r="137" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B137" s="155"/>
+      <c r="C137" s="155"/>
+      <c r="D137" s="161"/>
+      <c r="E137" s="161"/>
+      <c r="F137" s="161"/>
+      <c r="G137" s="161"/>
+      <c r="H137" s="161"/>
+      <c r="I137" s="161"/>
+      <c r="J137" s="161"/>
+      <c r="K137" s="161"/>
+      <c r="L137" s="67"/>
+    </row>
+    <row r="138" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B138" s="155"/>
+      <c r="C138" s="155"/>
+      <c r="D138" s="161"/>
+      <c r="E138" s="161"/>
+      <c r="F138" s="161"/>
+      <c r="G138" s="161"/>
+      <c r="H138" s="161"/>
+      <c r="I138" s="161"/>
+      <c r="J138" s="161"/>
+      <c r="K138" s="161"/>
+      <c r="L138" s="66"/>
+    </row>
+    <row r="139" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B139" s="155"/>
+      <c r="C139" s="155"/>
+      <c r="D139" s="161"/>
+      <c r="E139" s="161"/>
+      <c r="F139" s="161"/>
+      <c r="G139" s="161"/>
+      <c r="H139" s="161"/>
+      <c r="I139" s="161"/>
+      <c r="J139" s="161"/>
+      <c r="K139" s="161"/>
+      <c r="L139" s="66"/>
+    </row>
+    <row r="140" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B140" s="155"/>
+      <c r="C140" s="155"/>
+      <c r="D140" s="161"/>
+      <c r="E140" s="161"/>
+      <c r="F140" s="161"/>
+      <c r="G140" s="161"/>
+      <c r="H140" s="161"/>
+      <c r="I140" s="161"/>
+      <c r="J140" s="161"/>
+      <c r="K140" s="161"/>
+      <c r="L140" s="67"/>
+    </row>
+    <row r="141" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B141" s="155"/>
+      <c r="C141" s="155"/>
+      <c r="D141" s="161"/>
+      <c r="E141" s="161"/>
+      <c r="F141" s="161"/>
+      <c r="G141" s="161"/>
+      <c r="H141" s="161"/>
+      <c r="I141" s="161"/>
+      <c r="J141" s="161"/>
+      <c r="K141" s="161"/>
+      <c r="L141" s="67"/>
+    </row>
+    <row r="142" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B142" s="155" t="s">
         <v>106</v>
       </c>
-      <c r="C142" s="154"/>
-      <c r="D142" s="161" t="str">
-        <f>記入!B52</f>
+      <c r="C142" s="155"/>
+      <c r="D142" s="162" t="str">
+        <f>記入!B55</f>
         <v>${cv.subcontract}</v>
       </c>
-      <c r="E142" s="162"/>
-      <c r="F142" s="162"/>
-      <c r="G142" s="162"/>
-      <c r="H142" s="162"/>
-      <c r="I142" s="162"/>
-      <c r="J142" s="162"/>
-      <c r="K142" s="163"/>
-      <c r="L142" s="67"/>
-    </row>
-    <row r="143" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="154"/>
-      <c r="C143" s="154"/>
-      <c r="D143" s="159" t="str">
-        <f>記入!B53</f>
+      <c r="E142" s="163"/>
+      <c r="F142" s="163"/>
+      <c r="G142" s="163"/>
+      <c r="H142" s="163"/>
+      <c r="I142" s="163"/>
+      <c r="J142" s="163"/>
+      <c r="K142" s="164"/>
+      <c r="L142" s="66"/>
+    </row>
+    <row r="143" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B143" s="155"/>
+      <c r="C143" s="155"/>
+      <c r="D143" s="160" t="str">
+        <f>記入!B56</f>
         <v>再委托公司：
 ${cv.subcontractcontent}</v>
       </c>
-      <c r="E143" s="160"/>
-      <c r="F143" s="160"/>
-      <c r="G143" s="160"/>
-      <c r="H143" s="160"/>
-      <c r="I143" s="160"/>
-      <c r="J143" s="160"/>
-      <c r="K143" s="160"/>
-      <c r="L143" s="69"/>
-    </row>
-    <row r="144" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="154"/>
-      <c r="C144" s="154"/>
-      <c r="D144" s="160"/>
-      <c r="E144" s="160"/>
-      <c r="F144" s="160"/>
-      <c r="G144" s="160"/>
-      <c r="H144" s="160"/>
-      <c r="I144" s="160"/>
-      <c r="J144" s="160"/>
-      <c r="K144" s="160"/>
-      <c r="L144" s="69"/>
-    </row>
-    <row r="145" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="154"/>
-      <c r="C145" s="154"/>
-      <c r="D145" s="160"/>
-      <c r="E145" s="160"/>
-      <c r="F145" s="160"/>
-      <c r="G145" s="160"/>
-      <c r="H145" s="160"/>
-      <c r="I145" s="160"/>
-      <c r="J145" s="160"/>
-      <c r="K145" s="160"/>
-      <c r="L145" s="69"/>
-    </row>
-    <row r="146" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="154"/>
-      <c r="C146" s="154"/>
-      <c r="D146" s="160"/>
-      <c r="E146" s="160"/>
-      <c r="F146" s="160"/>
-      <c r="G146" s="160"/>
-      <c r="H146" s="160"/>
-      <c r="I146" s="160"/>
-      <c r="J146" s="160"/>
-      <c r="K146" s="160"/>
-      <c r="L146" s="69"/>
-    </row>
-    <row r="147" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B147" s="69"/>
-      <c r="C147" s="69"/>
-      <c r="D147" s="69"/>
-      <c r="E147" s="69"/>
-      <c r="F147" s="69"/>
-      <c r="G147" s="69"/>
-      <c r="H147" s="69"/>
-      <c r="I147" s="69"/>
-      <c r="J147" s="69"/>
-      <c r="K147" s="69"/>
-      <c r="L147" s="68"/>
-    </row>
-    <row r="148" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B148" s="69" t="s">
+      <c r="E143" s="161"/>
+      <c r="F143" s="161"/>
+      <c r="G143" s="161"/>
+      <c r="H143" s="161"/>
+      <c r="I143" s="161"/>
+      <c r="J143" s="161"/>
+      <c r="K143" s="161"/>
+      <c r="L143" s="68"/>
+    </row>
+    <row r="144" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B144" s="155"/>
+      <c r="C144" s="155"/>
+      <c r="D144" s="161"/>
+      <c r="E144" s="161"/>
+      <c r="F144" s="161"/>
+      <c r="G144" s="161"/>
+      <c r="H144" s="161"/>
+      <c r="I144" s="161"/>
+      <c r="J144" s="161"/>
+      <c r="K144" s="161"/>
+      <c r="L144" s="68"/>
+    </row>
+    <row r="145" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B145" s="155"/>
+      <c r="C145" s="155"/>
+      <c r="D145" s="161"/>
+      <c r="E145" s="161"/>
+      <c r="F145" s="161"/>
+      <c r="G145" s="161"/>
+      <c r="H145" s="161"/>
+      <c r="I145" s="161"/>
+      <c r="J145" s="161"/>
+      <c r="K145" s="161"/>
+      <c r="L145" s="68"/>
+    </row>
+    <row r="146" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B146" s="155"/>
+      <c r="C146" s="155"/>
+      <c r="D146" s="161"/>
+      <c r="E146" s="161"/>
+      <c r="F146" s="161"/>
+      <c r="G146" s="161"/>
+      <c r="H146" s="161"/>
+      <c r="I146" s="161"/>
+      <c r="J146" s="161"/>
+      <c r="K146" s="161"/>
+      <c r="L146" s="68"/>
+    </row>
+    <row r="147" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B147" s="68"/>
+      <c r="C147" s="68"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="68"/>
+      <c r="F147" s="68"/>
+      <c r="G147" s="68"/>
+      <c r="H147" s="68"/>
+      <c r="I147" s="68"/>
+      <c r="J147" s="68"/>
+      <c r="K147" s="68"/>
+      <c r="L147" s="67"/>
+    </row>
+    <row r="148" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B148" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="C148" s="69"/>
-      <c r="D148" s="69"/>
-      <c r="E148" s="69"/>
-      <c r="F148" s="69"/>
-      <c r="G148" s="69"/>
-      <c r="H148" s="69"/>
-      <c r="I148" s="69"/>
-      <c r="J148" s="69"/>
-      <c r="K148" s="70"/>
-      <c r="L148" s="68"/>
-    </row>
-    <row r="149" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="154" t="s">
+      <c r="C148" s="68"/>
+      <c r="D148" s="68"/>
+      <c r="E148" s="68"/>
+      <c r="F148" s="68"/>
+      <c r="G148" s="68"/>
+      <c r="H148" s="68"/>
+      <c r="I148" s="68"/>
+      <c r="J148" s="68"/>
+      <c r="K148" s="69"/>
+      <c r="L148" s="67"/>
+    </row>
+    <row r="149" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B149" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="C149" s="154"/>
-      <c r="D149" s="164" t="s">
+      <c r="C149" s="155"/>
+      <c r="D149" s="165" t="s">
         <v>108</v>
       </c>
-      <c r="E149" s="164"/>
-      <c r="F149" s="164" t="s">
+      <c r="E149" s="165"/>
+      <c r="F149" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="G149" s="164"/>
-      <c r="H149" s="164" t="s">
+      <c r="G149" s="165"/>
+      <c r="H149" s="165" t="s">
         <v>110</v>
       </c>
-      <c r="I149" s="164"/>
-      <c r="J149" s="164" t="s">
+      <c r="I149" s="165"/>
+      <c r="J149" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="K149" s="164"/>
-      <c r="L149" s="68"/>
-    </row>
-    <row r="150" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="154" t="s">
+      <c r="K149" s="165"/>
+      <c r="L149" s="67"/>
+    </row>
+    <row r="150" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B150" s="155" t="s">
         <v>112</v>
       </c>
-      <c r="C150" s="154"/>
-      <c r="D150" s="165" t="str">
+      <c r="C150" s="155"/>
+      <c r="D150" s="166" t="str">
         <f>記入!B29</f>
-        <v>${r.deliverydate}</v>
-      </c>
-      <c r="E150" s="164"/>
-      <c r="F150" s="165" t="e">
+        <v>${cv.contractnumber.get(0).deliverydate}</v>
+      </c>
+      <c r="E150" s="165"/>
+      <c r="F150" s="166" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G150" s="164"/>
-      <c r="H150" s="165" t="e">
+      <c r="G150" s="165"/>
+      <c r="H150" s="166" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I150" s="164"/>
-      <c r="J150" s="165" t="e">
+      <c r="I150" s="165"/>
+      <c r="J150" s="166" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K150" s="164"/>
-      <c r="L150" s="69"/>
-    </row>
-    <row r="151" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="154" t="s">
+      <c r="K150" s="165"/>
+      <c r="L150" s="68"/>
+    </row>
+    <row r="151" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B151" s="155" t="s">
         <v>113</v>
       </c>
-      <c r="C151" s="154"/>
-      <c r="D151" s="165" t="str">
+      <c r="C151" s="155"/>
+      <c r="D151" s="166" t="str">
         <f>記入!C29</f>
-        <v>${r.completiondate}</v>
-      </c>
-      <c r="E151" s="164"/>
-      <c r="F151" s="165" t="e">
+        <v>${cv[0].completiondate}</v>
+      </c>
+      <c r="E151" s="165"/>
+      <c r="F151" s="166" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G151" s="164"/>
-      <c r="H151" s="165" t="e">
+      <c r="G151" s="165"/>
+      <c r="H151" s="166" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I151" s="164"/>
-      <c r="J151" s="165" t="e">
+      <c r="I151" s="165"/>
+      <c r="J151" s="166" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K151" s="164"/>
-      <c r="L151" s="67"/>
-    </row>
-    <row r="152" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="154" t="s">
+      <c r="K151" s="165"/>
+      <c r="L151" s="66"/>
+    </row>
+    <row r="152" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B152" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="C152" s="154"/>
-      <c r="D152" s="166" t="str">
+      <c r="C152" s="155"/>
+      <c r="D152" s="167" t="str">
         <f>記入!D29</f>
-        <v>${r.claimdate}</v>
-      </c>
-      <c r="E152" s="167"/>
-      <c r="F152" s="165" t="e">
+        <v>${cv[0].claimdate}</v>
+      </c>
+      <c r="E152" s="168"/>
+      <c r="F152" s="166" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G152" s="164"/>
-      <c r="H152" s="165" t="e">
+      <c r="G152" s="165"/>
+      <c r="H152" s="166" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I152" s="164"/>
-      <c r="J152" s="165" t="e">
+      <c r="I152" s="165"/>
+      <c r="J152" s="166" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K152" s="164"/>
-      <c r="L152" s="67"/>
-    </row>
-    <row r="153" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="154" t="s">
+      <c r="K152" s="165"/>
+      <c r="L152" s="66"/>
+    </row>
+    <row r="153" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B153" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="C153" s="154"/>
-      <c r="D153" s="166" t="str">
+      <c r="C153" s="155"/>
+      <c r="D153" s="167" t="str">
         <f>記入!E29</f>
-        <v>${r.supportdate}</v>
-      </c>
-      <c r="E153" s="167"/>
-      <c r="F153" s="165" t="e">
+        <v>${cv[0].supportdate}</v>
+      </c>
+      <c r="E153" s="168"/>
+      <c r="F153" s="166" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G153" s="164"/>
-      <c r="H153" s="165" t="e">
+      <c r="G153" s="165"/>
+      <c r="H153" s="166" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I153" s="164"/>
-      <c r="J153" s="165" t="e">
+      <c r="I153" s="165"/>
+      <c r="J153" s="166" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K153" s="164"/>
-      <c r="L153" s="67"/>
-    </row>
-    <row r="154" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="154" t="s">
+      <c r="K153" s="165"/>
+      <c r="L153" s="66"/>
+    </row>
+    <row r="154" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B154" s="155" t="s">
         <v>116</v>
       </c>
-      <c r="C154" s="154"/>
-      <c r="D154" s="168" t="str">
+      <c r="C154" s="155"/>
+      <c r="D154" s="169" t="str">
         <f>記入!F29</f>
-        <v>${r.claimamount}</v>
-      </c>
-      <c r="E154" s="167"/>
-      <c r="F154" s="169" t="e">
+        <v>${cv[0].claimamount}</v>
+      </c>
+      <c r="E154" s="168"/>
+      <c r="F154" s="170" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G154" s="164"/>
-      <c r="H154" s="169" t="e">
+      <c r="G154" s="165"/>
+      <c r="H154" s="170" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I154" s="164"/>
-      <c r="J154" s="169" t="e">
+      <c r="I154" s="165"/>
+      <c r="J154" s="170" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K154" s="164"/>
-      <c r="L154" s="67"/>
-    </row>
-    <row r="155" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="154" t="s">
+      <c r="K154" s="165"/>
+      <c r="L154" s="66"/>
+    </row>
+    <row r="155" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B155" s="155" t="s">
         <v>117</v>
       </c>
-      <c r="C155" s="154"/>
-      <c r="D155" s="167" t="str">
+      <c r="C155" s="155"/>
+      <c r="D155" s="168" t="str">
         <f>記入!B12&amp;(-1)</f>
         <v>${cv.contractnumber}-1</v>
       </c>
-      <c r="E155" s="167"/>
-      <c r="F155" s="164" t="str">
+      <c r="E155" s="168"/>
+      <c r="F155" s="165" t="str">
         <f>記入!B12&amp;(-2)</f>
         <v>${cv.contractnumber}-2</v>
       </c>
-      <c r="G155" s="164"/>
-      <c r="H155" s="164" t="str">
+      <c r="G155" s="165"/>
+      <c r="H155" s="165" t="str">
         <f>記入!B12&amp;(-3)</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="I155" s="164"/>
-      <c r="J155" s="164" t="str">
+      <c r="I155" s="165"/>
+      <c r="J155" s="165" t="str">
         <f>記入!B12&amp;(-4)</f>
         <v>${cv.contractnumber}-4</v>
       </c>
-      <c r="K155" s="164"/>
-      <c r="L155" s="67"/>
-    </row>
-    <row r="156" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="154" t="s">
+      <c r="K155" s="165"/>
+      <c r="L155" s="66"/>
+    </row>
+    <row r="156" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B156" s="155" t="s">
         <v>91</v>
       </c>
-      <c r="C156" s="154"/>
-      <c r="D156" s="164" t="s">
+      <c r="C156" s="155"/>
+      <c r="D156" s="165" t="s">
         <v>119</v>
       </c>
-      <c r="E156" s="164"/>
-      <c r="F156" s="164"/>
-      <c r="G156" s="164"/>
-      <c r="H156" s="164"/>
-      <c r="I156" s="164"/>
-      <c r="J156" s="164"/>
-      <c r="K156" s="164"/>
-      <c r="L156" s="68"/>
-    </row>
-    <row r="157" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="154" t="s">
+      <c r="E156" s="165"/>
+      <c r="F156" s="165"/>
+      <c r="G156" s="165"/>
+      <c r="H156" s="165"/>
+      <c r="I156" s="165"/>
+      <c r="J156" s="165"/>
+      <c r="K156" s="165"/>
+      <c r="L156" s="67"/>
+    </row>
+    <row r="157" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B157" s="155" t="s">
         <v>118</v>
       </c>
-      <c r="C157" s="154"/>
-      <c r="D157" s="164" t="s">
+      <c r="C157" s="155"/>
+      <c r="D157" s="165" t="s">
         <v>120</v>
       </c>
-      <c r="E157" s="164"/>
-      <c r="F157" s="164"/>
-      <c r="G157" s="164"/>
-      <c r="H157" s="164"/>
-      <c r="I157" s="164"/>
-      <c r="J157" s="164"/>
-      <c r="K157" s="164"/>
-      <c r="L157" s="68"/>
-    </row>
-    <row r="158" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B158" s="69"/>
-      <c r="C158" s="69"/>
-      <c r="D158" s="69"/>
-      <c r="E158" s="69"/>
-      <c r="F158" s="69"/>
-      <c r="G158" s="69"/>
-      <c r="H158" s="69"/>
-      <c r="I158" s="69"/>
-      <c r="J158" s="69"/>
-      <c r="K158" s="69"/>
-      <c r="L158" s="69"/>
-    </row>
-    <row r="159" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B159" s="69" t="s">
+      <c r="E157" s="165"/>
+      <c r="F157" s="165"/>
+      <c r="G157" s="165"/>
+      <c r="H157" s="165"/>
+      <c r="I157" s="165"/>
+      <c r="J157" s="165"/>
+      <c r="K157" s="165"/>
+      <c r="L157" s="67"/>
+    </row>
+    <row r="158" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B158" s="68"/>
+      <c r="C158" s="68"/>
+      <c r="D158" s="68"/>
+      <c r="E158" s="68"/>
+      <c r="F158" s="68"/>
+      <c r="G158" s="68"/>
+      <c r="H158" s="68"/>
+      <c r="I158" s="68"/>
+      <c r="J158" s="68"/>
+      <c r="K158" s="68"/>
+      <c r="L158" s="68"/>
+    </row>
+    <row r="159" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B159" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="C159" s="69"/>
-      <c r="D159" s="69"/>
-      <c r="E159" s="71"/>
-      <c r="F159" s="69"/>
-      <c r="G159" s="69"/>
-      <c r="H159" s="69"/>
-      <c r="I159" s="69"/>
-      <c r="J159" s="69"/>
-      <c r="K159" s="69"/>
-      <c r="L159" s="69"/>
-    </row>
-    <row r="160" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="170" t="s">
+      <c r="C159" s="68"/>
+      <c r="D159" s="68"/>
+      <c r="E159" s="70"/>
+      <c r="F159" s="68"/>
+      <c r="G159" s="68"/>
+      <c r="H159" s="68"/>
+      <c r="I159" s="68"/>
+      <c r="J159" s="68"/>
+      <c r="K159" s="68"/>
+      <c r="L159" s="68"/>
+    </row>
+    <row r="160" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B160" s="171" t="s">
         <v>122</v>
       </c>
-      <c r="C160" s="170"/>
-      <c r="D160" s="170" t="str">
-        <f>記入!B60</f>
+      <c r="C160" s="171"/>
+      <c r="D160" s="171" t="str">
+        <f>記入!B63</f>
         <v>${cv.othertermschinese}</v>
       </c>
-      <c r="E160" s="170"/>
-      <c r="F160" s="170"/>
-      <c r="G160" s="170"/>
-      <c r="H160" s="170"/>
-      <c r="I160" s="170"/>
-      <c r="J160" s="170"/>
-      <c r="K160" s="170"/>
-      <c r="L160" s="69"/>
-    </row>
-    <row r="161" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="171"/>
-      <c r="C161" s="171"/>
-      <c r="D161" s="171"/>
-      <c r="E161" s="171"/>
-      <c r="F161" s="171"/>
-      <c r="G161" s="171"/>
-      <c r="H161" s="171"/>
-      <c r="I161" s="171"/>
-      <c r="J161" s="171"/>
-      <c r="K161" s="171"/>
-      <c r="L161" s="69"/>
-    </row>
-    <row r="162" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="171"/>
-      <c r="C162" s="171"/>
-      <c r="D162" s="171"/>
-      <c r="E162" s="171"/>
-      <c r="F162" s="171"/>
-      <c r="G162" s="171"/>
-      <c r="H162" s="171"/>
-      <c r="I162" s="171"/>
-      <c r="J162" s="171"/>
-      <c r="K162" s="171"/>
-      <c r="L162" s="67"/>
-    </row>
-    <row r="163" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="172"/>
-      <c r="C163" s="172"/>
-      <c r="D163" s="172"/>
-      <c r="E163" s="172"/>
-      <c r="F163" s="172"/>
-      <c r="G163" s="172"/>
-      <c r="H163" s="172"/>
-      <c r="I163" s="172"/>
-      <c r="J163" s="172"/>
-      <c r="K163" s="172"/>
-      <c r="L163" s="69"/>
-    </row>
-    <row r="164" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B164" s="72"/>
-      <c r="C164" s="72"/>
-      <c r="D164" s="72"/>
-      <c r="E164" s="73"/>
-      <c r="F164" s="73"/>
-      <c r="G164" s="73"/>
-      <c r="H164" s="73"/>
-      <c r="I164" s="73"/>
-      <c r="J164" s="73"/>
-      <c r="K164" s="73"/>
-      <c r="L164" s="73"/>
-    </row>
-    <row r="165" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B165" s="68"/>
-      <c r="C165" s="68"/>
-      <c r="D165" s="68"/>
-      <c r="E165" s="69"/>
-      <c r="F165" s="69"/>
-      <c r="G165" s="69"/>
-      <c r="H165" s="69"/>
-      <c r="I165" s="69"/>
-      <c r="J165" s="69"/>
-      <c r="K165" s="69"/>
-      <c r="L165" s="69"/>
-    </row>
-    <row r="166" spans="2:12" s="62" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B166" s="68"/>
-      <c r="C166" s="69"/>
-      <c r="D166" s="69"/>
-      <c r="E166" s="71"/>
-      <c r="F166" s="69"/>
-      <c r="G166" s="69"/>
-      <c r="H166" s="69"/>
-      <c r="I166" s="69"/>
-      <c r="J166" s="69"/>
-      <c r="K166" s="69" t="s">
+      <c r="E160" s="171"/>
+      <c r="F160" s="171"/>
+      <c r="G160" s="171"/>
+      <c r="H160" s="171"/>
+      <c r="I160" s="171"/>
+      <c r="J160" s="171"/>
+      <c r="K160" s="171"/>
+      <c r="L160" s="68"/>
+    </row>
+    <row r="161" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B161" s="172"/>
+      <c r="C161" s="172"/>
+      <c r="D161" s="172"/>
+      <c r="E161" s="172"/>
+      <c r="F161" s="172"/>
+      <c r="G161" s="172"/>
+      <c r="H161" s="172"/>
+      <c r="I161" s="172"/>
+      <c r="J161" s="172"/>
+      <c r="K161" s="172"/>
+      <c r="L161" s="68"/>
+    </row>
+    <row r="162" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B162" s="172"/>
+      <c r="C162" s="172"/>
+      <c r="D162" s="172"/>
+      <c r="E162" s="172"/>
+      <c r="F162" s="172"/>
+      <c r="G162" s="172"/>
+      <c r="H162" s="172"/>
+      <c r="I162" s="172"/>
+      <c r="J162" s="172"/>
+      <c r="K162" s="172"/>
+      <c r="L162" s="66"/>
+    </row>
+    <row r="163" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B163" s="173"/>
+      <c r="C163" s="173"/>
+      <c r="D163" s="173"/>
+      <c r="E163" s="173"/>
+      <c r="F163" s="173"/>
+      <c r="G163" s="173"/>
+      <c r="H163" s="173"/>
+      <c r="I163" s="173"/>
+      <c r="J163" s="173"/>
+      <c r="K163" s="173"/>
+      <c r="L163" s="68"/>
+    </row>
+    <row r="164" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B164" s="71"/>
+      <c r="C164" s="71"/>
+      <c r="D164" s="71"/>
+      <c r="E164" s="72"/>
+      <c r="F164" s="72"/>
+      <c r="G164" s="72"/>
+      <c r="H164" s="72"/>
+      <c r="I164" s="72"/>
+      <c r="J164" s="72"/>
+      <c r="K164" s="72"/>
+      <c r="L164" s="72"/>
+    </row>
+    <row r="165" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B165" s="67"/>
+      <c r="C165" s="67"/>
+      <c r="D165" s="67"/>
+      <c r="E165" s="68"/>
+      <c r="F165" s="68"/>
+      <c r="G165" s="68"/>
+      <c r="H165" s="68"/>
+      <c r="I165" s="68"/>
+      <c r="J165" s="68"/>
+      <c r="K165" s="68"/>
+      <c r="L165" s="68"/>
+    </row>
+    <row r="166" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B166" s="67"/>
+      <c r="C166" s="68"/>
+      <c r="D166" s="68"/>
+      <c r="E166" s="70"/>
+      <c r="F166" s="68"/>
+      <c r="G166" s="68"/>
+      <c r="H166" s="68"/>
+      <c r="I166" s="68"/>
+      <c r="J166" s="68"/>
+      <c r="K166" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="L166" s="69"/>
-    </row>
-    <row r="167" spans="2:12" s="62" customFormat="1" ht="14.25">
-      <c r="B167" s="68"/>
-      <c r="C167" s="69"/>
-      <c r="D167" s="69"/>
-      <c r="E167" s="74"/>
-      <c r="F167" s="69"/>
-      <c r="G167" s="69"/>
-      <c r="H167" s="69"/>
-      <c r="I167" s="69"/>
-      <c r="J167" s="69"/>
-      <c r="K167" s="69"/>
-      <c r="L167" s="69"/>
-    </row>
-    <row r="168" spans="2:12" s="62" customFormat="1" ht="14.25">
-      <c r="B168" s="68"/>
-      <c r="C168" s="69"/>
-      <c r="D168" s="69"/>
-      <c r="E168" s="74"/>
-      <c r="F168" s="69"/>
-      <c r="G168" s="69"/>
-      <c r="H168" s="69"/>
-      <c r="I168" s="69"/>
-      <c r="J168" s="69"/>
-      <c r="K168" s="69"/>
-      <c r="L168" s="69"/>
-    </row>
-    <row r="169" spans="2:12" s="62" customFormat="1" ht="14.25">
-      <c r="B169" s="68"/>
-      <c r="C169" s="69"/>
-      <c r="D169" s="69"/>
-      <c r="E169" s="69"/>
-      <c r="F169" s="69"/>
-      <c r="G169" s="69"/>
-      <c r="H169" s="69"/>
-      <c r="I169" s="69"/>
-      <c r="J169" s="69"/>
-      <c r="K169" s="69"/>
-      <c r="L169" s="69"/>
-    </row>
-    <row r="170" spans="2:12" s="62" customFormat="1" ht="14.25">
-      <c r="B170" s="68"/>
-      <c r="C170" s="69"/>
-      <c r="D170" s="69"/>
-      <c r="E170" s="67"/>
-      <c r="F170" s="67"/>
-      <c r="G170" s="67"/>
-      <c r="H170" s="67"/>
-      <c r="I170" s="67"/>
-      <c r="J170" s="67"/>
-      <c r="K170" s="67"/>
-      <c r="L170" s="67"/>
-    </row>
-    <row r="171" spans="2:12" s="62" customFormat="1" ht="14.25">
-      <c r="B171" s="68"/>
-      <c r="C171" s="69"/>
-      <c r="D171" s="69"/>
-      <c r="E171" s="69"/>
-      <c r="F171" s="69"/>
-      <c r="G171" s="69"/>
-      <c r="H171" s="69"/>
-      <c r="I171" s="69"/>
-      <c r="J171" s="69"/>
-      <c r="K171" s="69"/>
-      <c r="L171" s="69"/>
-    </row>
-    <row r="172" spans="2:12" s="62" customFormat="1">
-      <c r="B172" s="72"/>
-      <c r="C172" s="72"/>
-      <c r="D172" s="72"/>
-      <c r="E172" s="73"/>
-      <c r="F172" s="73"/>
-      <c r="G172" s="73"/>
-      <c r="H172" s="73"/>
-      <c r="I172" s="73"/>
-      <c r="J172" s="73"/>
-      <c r="K172" s="73"/>
-      <c r="L172" s="73"/>
-    </row>
-    <row r="173" spans="2:12" s="62" customFormat="1" ht="14.25">
-      <c r="B173" s="68"/>
-      <c r="C173" s="68"/>
-      <c r="D173" s="68"/>
-      <c r="E173" s="69"/>
-      <c r="F173" s="69"/>
-      <c r="G173" s="69"/>
-      <c r="H173" s="69"/>
-      <c r="I173" s="69"/>
-      <c r="J173" s="69"/>
-      <c r="K173" s="69"/>
-      <c r="L173" s="69"/>
-    </row>
-    <row r="174" spans="2:12" s="62" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B174" s="68"/>
-      <c r="C174" s="69"/>
-      <c r="D174" s="69"/>
-      <c r="E174" s="71"/>
-      <c r="F174" s="69"/>
-      <c r="G174" s="69"/>
-      <c r="H174" s="69"/>
-      <c r="I174" s="69"/>
-      <c r="J174" s="69"/>
-      <c r="K174" s="69"/>
-      <c r="L174" s="69"/>
-    </row>
-    <row r="175" spans="2:12" s="62" customFormat="1" ht="14.25">
-      <c r="B175" s="68"/>
-      <c r="C175" s="69"/>
-      <c r="D175" s="69"/>
-      <c r="E175" s="74"/>
-      <c r="F175" s="69"/>
-      <c r="G175" s="69"/>
-      <c r="H175" s="69"/>
-      <c r="I175" s="69"/>
-      <c r="J175" s="69"/>
-      <c r="K175" s="69"/>
-      <c r="L175" s="69"/>
-    </row>
-    <row r="176" spans="2:12" s="62" customFormat="1" ht="14.25">
-      <c r="B176" s="68"/>
-      <c r="C176" s="69"/>
-      <c r="D176" s="69"/>
-      <c r="E176" s="74"/>
-      <c r="F176" s="69"/>
-      <c r="G176" s="69"/>
-      <c r="H176" s="69"/>
-      <c r="I176" s="69"/>
-      <c r="J176" s="69"/>
-      <c r="K176" s="69"/>
-      <c r="L176" s="69"/>
-    </row>
-    <row r="177" spans="2:12" s="62" customFormat="1" ht="14.25">
-      <c r="B177" s="68"/>
-      <c r="C177" s="69"/>
-      <c r="D177" s="69"/>
-      <c r="E177" s="69"/>
-      <c r="F177" s="69"/>
-      <c r="G177" s="69"/>
-      <c r="H177" s="69"/>
-      <c r="I177" s="69"/>
-      <c r="J177" s="69"/>
-      <c r="K177" s="69"/>
-      <c r="L177" s="69"/>
-    </row>
-    <row r="178" spans="2:12" s="62" customFormat="1" ht="14.25">
-      <c r="B178" s="68"/>
-      <c r="C178" s="69"/>
-      <c r="D178" s="69"/>
-      <c r="E178" s="67"/>
-      <c r="F178" s="67"/>
-      <c r="G178" s="67"/>
-      <c r="H178" s="67"/>
-      <c r="I178" s="67"/>
-      <c r="J178" s="67"/>
-      <c r="K178" s="67"/>
-      <c r="L178" s="67"/>
-    </row>
-    <row r="179" spans="2:12" s="62" customFormat="1" ht="14.25">
-      <c r="B179" s="68"/>
-      <c r="C179" s="69"/>
-      <c r="D179" s="69"/>
-      <c r="E179" s="69"/>
-      <c r="F179" s="69"/>
-      <c r="G179" s="69"/>
-      <c r="H179" s="69"/>
-      <c r="I179" s="69"/>
-      <c r="J179" s="69"/>
-      <c r="K179" s="69"/>
-      <c r="L179" s="69"/>
-    </row>
-    <row r="180" spans="2:12" s="62" customFormat="1">
-      <c r="B180" s="75"/>
-      <c r="C180" s="75"/>
-      <c r="D180" s="75"/>
-      <c r="E180" s="75"/>
-      <c r="F180" s="75"/>
-      <c r="G180" s="75"/>
-      <c r="H180" s="75"/>
-      <c r="I180" s="75"/>
-      <c r="J180" s="75"/>
-      <c r="K180" s="75"/>
-      <c r="L180" s="75"/>
-    </row>
-    <row r="181" spans="2:12" s="62" customFormat="1" ht="14.25">
-      <c r="L181" s="76"/>
+      <c r="L166" s="68"/>
+    </row>
+    <row r="167" spans="2:12" s="61" customFormat="1" ht="14.25">
+      <c r="B167" s="67"/>
+      <c r="C167" s="68"/>
+      <c r="D167" s="68"/>
+      <c r="E167" s="73"/>
+      <c r="F167" s="68"/>
+      <c r="G167" s="68"/>
+      <c r="H167" s="68"/>
+      <c r="I167" s="68"/>
+      <c r="J167" s="68"/>
+      <c r="K167" s="68"/>
+      <c r="L167" s="68"/>
+    </row>
+    <row r="168" spans="2:12" s="61" customFormat="1" ht="14.25">
+      <c r="B168" s="67"/>
+      <c r="C168" s="68"/>
+      <c r="D168" s="68"/>
+      <c r="E168" s="73"/>
+      <c r="F168" s="68"/>
+      <c r="G168" s="68"/>
+      <c r="H168" s="68"/>
+      <c r="I168" s="68"/>
+      <c r="J168" s="68"/>
+      <c r="K168" s="68"/>
+      <c r="L168" s="68"/>
+    </row>
+    <row r="169" spans="2:12" s="61" customFormat="1" ht="14.25">
+      <c r="B169" s="67"/>
+      <c r="C169" s="68"/>
+      <c r="D169" s="68"/>
+      <c r="E169" s="68"/>
+      <c r="F169" s="68"/>
+      <c r="G169" s="68"/>
+      <c r="H169" s="68"/>
+      <c r="I169" s="68"/>
+      <c r="J169" s="68"/>
+      <c r="K169" s="68"/>
+      <c r="L169" s="68"/>
+    </row>
+    <row r="170" spans="2:12" s="61" customFormat="1" ht="14.25">
+      <c r="B170" s="67"/>
+      <c r="C170" s="68"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="66"/>
+      <c r="F170" s="66"/>
+      <c r="G170" s="66"/>
+      <c r="H170" s="66"/>
+      <c r="I170" s="66"/>
+      <c r="J170" s="66"/>
+      <c r="K170" s="66"/>
+      <c r="L170" s="66"/>
+    </row>
+    <row r="171" spans="2:12" s="61" customFormat="1" ht="14.25">
+      <c r="B171" s="67"/>
+      <c r="C171" s="68"/>
+      <c r="D171" s="68"/>
+      <c r="E171" s="68"/>
+      <c r="F171" s="68"/>
+      <c r="G171" s="68"/>
+      <c r="H171" s="68"/>
+      <c r="I171" s="68"/>
+      <c r="J171" s="68"/>
+      <c r="K171" s="68"/>
+      <c r="L171" s="68"/>
+    </row>
+    <row r="172" spans="2:12" s="61" customFormat="1">
+      <c r="B172" s="71"/>
+      <c r="C172" s="71"/>
+      <c r="D172" s="71"/>
+      <c r="E172" s="72"/>
+      <c r="F172" s="72"/>
+      <c r="G172" s="72"/>
+      <c r="H172" s="72"/>
+      <c r="I172" s="72"/>
+      <c r="J172" s="72"/>
+      <c r="K172" s="72"/>
+      <c r="L172" s="72"/>
+    </row>
+    <row r="173" spans="2:12" s="61" customFormat="1" ht="14.25">
+      <c r="B173" s="67"/>
+      <c r="C173" s="67"/>
+      <c r="D173" s="67"/>
+      <c r="E173" s="68"/>
+      <c r="F173" s="68"/>
+      <c r="G173" s="68"/>
+      <c r="H173" s="68"/>
+      <c r="I173" s="68"/>
+      <c r="J173" s="68"/>
+      <c r="K173" s="68"/>
+      <c r="L173" s="68"/>
+    </row>
+    <row r="174" spans="2:12" s="61" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B174" s="67"/>
+      <c r="C174" s="68"/>
+      <c r="D174" s="68"/>
+      <c r="E174" s="70"/>
+      <c r="F174" s="68"/>
+      <c r="G174" s="68"/>
+      <c r="H174" s="68"/>
+      <c r="I174" s="68"/>
+      <c r="J174" s="68"/>
+      <c r="K174" s="68"/>
+      <c r="L174" s="68"/>
+    </row>
+    <row r="175" spans="2:12" s="61" customFormat="1" ht="14.25">
+      <c r="B175" s="67"/>
+      <c r="C175" s="68"/>
+      <c r="D175" s="68"/>
+      <c r="E175" s="73"/>
+      <c r="F175" s="68"/>
+      <c r="G175" s="68"/>
+      <c r="H175" s="68"/>
+      <c r="I175" s="68"/>
+      <c r="J175" s="68"/>
+      <c r="K175" s="68"/>
+      <c r="L175" s="68"/>
+    </row>
+    <row r="176" spans="2:12" s="61" customFormat="1" ht="14.25">
+      <c r="B176" s="67"/>
+      <c r="C176" s="68"/>
+      <c r="D176" s="68"/>
+      <c r="E176" s="73"/>
+      <c r="F176" s="68"/>
+      <c r="G176" s="68"/>
+      <c r="H176" s="68"/>
+      <c r="I176" s="68"/>
+      <c r="J176" s="68"/>
+      <c r="K176" s="68"/>
+      <c r="L176" s="68"/>
+    </row>
+    <row r="177" spans="2:12" s="61" customFormat="1" ht="14.25">
+      <c r="B177" s="67"/>
+      <c r="C177" s="68"/>
+      <c r="D177" s="68"/>
+      <c r="E177" s="68"/>
+      <c r="F177" s="68"/>
+      <c r="G177" s="68"/>
+      <c r="H177" s="68"/>
+      <c r="I177" s="68"/>
+      <c r="J177" s="68"/>
+      <c r="K177" s="68"/>
+      <c r="L177" s="68"/>
+    </row>
+    <row r="178" spans="2:12" s="61" customFormat="1" ht="14.25">
+      <c r="B178" s="67"/>
+      <c r="C178" s="68"/>
+      <c r="D178" s="68"/>
+      <c r="E178" s="66"/>
+      <c r="F178" s="66"/>
+      <c r="G178" s="66"/>
+      <c r="H178" s="66"/>
+      <c r="I178" s="66"/>
+      <c r="J178" s="66"/>
+      <c r="K178" s="66"/>
+      <c r="L178" s="66"/>
+    </row>
+    <row r="179" spans="2:12" s="61" customFormat="1" ht="14.25">
+      <c r="B179" s="67"/>
+      <c r="C179" s="68"/>
+      <c r="D179" s="68"/>
+      <c r="E179" s="68"/>
+      <c r="F179" s="68"/>
+      <c r="G179" s="68"/>
+      <c r="H179" s="68"/>
+      <c r="I179" s="68"/>
+      <c r="J179" s="68"/>
+      <c r="K179" s="68"/>
+      <c r="L179" s="68"/>
+    </row>
+    <row r="180" spans="2:12" s="61" customFormat="1">
+      <c r="B180" s="74"/>
+      <c r="C180" s="74"/>
+      <c r="D180" s="74"/>
+      <c r="E180" s="74"/>
+      <c r="F180" s="74"/>
+      <c r="G180" s="74"/>
+      <c r="H180" s="74"/>
+      <c r="I180" s="74"/>
+      <c r="J180" s="74"/>
+      <c r="K180" s="74"/>
+      <c r="L180" s="74"/>
+    </row>
+    <row r="181" spans="2:12" s="61" customFormat="1" ht="14.25">
+      <c r="L181" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="61">

--- a/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,20 +43,6 @@
             <family val="2"/>
           </rPr>
           <t>jx:area(lastCell="H65")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A29" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="2"/>
-          </rPr>
-          <t>jx:each(items="ba1", var="r", lastCell="F29")</t>
         </r>
       </text>
     </comment>
@@ -119,35 +105,35 @@
     <rPh sb="4" eb="6">
       <t>ﾜﾌﾞﾝ</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>委託元（英文）</t>
     <rPh sb="4" eb="6">
       <t>ｴｲﾌﾞﾝ</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PJ名(和文)</t>
     <rPh sb="4" eb="6">
       <t>ﾜﾌﾞﾝ</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PJ名(中文)</t>
     <rPh sb="4" eb="6">
       <t>ﾁｭｳﾌﾞﾝ</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>契約番号</t>
     <rPh sb="0" eb="2">
       <t>ｹｲﾔｸ</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>開発開始日</t>
@@ -157,7 +143,7 @@
     <rPh sb="4" eb="5">
       <t>ﾋ</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>開発満了日</t>
@@ -170,14 +156,14 @@
     <rPh sb="4" eb="5">
       <t>ﾋ</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>納品作成日</t>
     <rPh sb="0" eb="2">
       <t>ﾉｳﾋﾝ</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>納品予定日</t>
@@ -187,7 +173,7 @@
     <rPh sb="2" eb="5">
       <t>ﾖﾃｲﾋﾞ</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>請求金額</t>
@@ -197,7 +183,7 @@
     <rPh sb="2" eb="4">
       <t>ｷﾝｶﾞｸ</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>事業場コード</t>
@@ -207,7 +193,7 @@
     <rPh sb="2" eb="3">
       <t>バ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>請求番号</t>
@@ -217,7 +203,7 @@
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ウィルスチェック</t>
@@ -227,7 +213,7 @@
     <rPh sb="0" eb="2">
       <t>ﾀﾝﾄｳ</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>無用情報</t>
@@ -237,7 +223,7 @@
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>有用情報</t>
@@ -247,14 +233,14 @@
     <rPh sb="2" eb="4">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>委託元（中文）</t>
     <rPh sb="4" eb="6">
       <t>ﾁｭｳﾌﾞﾝ</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>通貨形式</t>
@@ -264,7 +250,7 @@
     <rPh sb="2" eb="4">
       <t>ケイシキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>■以下の内容で手動で記入</t>
@@ -280,27 +266,27 @@
     <rPh sb="10" eb="12">
       <t>キニュウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>納品予定日</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検収完了日</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>請求日</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>支払日</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>請求金額</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>納品回数</t>
@@ -310,7 +296,7 @@
     <rPh sb="2" eb="4">
       <t>カイスウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>請求日</t>
@@ -320,7 +306,7 @@
     <rPh sb="2" eb="3">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>支払日</t>
@@ -330,27 +316,27 @@
     <rPh sb="2" eb="3">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>委託元略</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>開発部署</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検収完了日</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>到达  TO</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>出荷判定実施者</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>委託元場所（和文）</t>
@@ -360,7 +346,7 @@
     <rPh sb="6" eb="8">
       <t>ｶｽﾞﾌﾐ</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>委託元場所（中文）</t>
@@ -370,7 +356,7 @@
     <rPh sb="6" eb="8">
       <t>ﾁｭｳﾌﾞﾝ</t>
     </rPh>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>■以下の内容は契約管理ツールで自動生成</t>
@@ -392,15 +378,15 @@
     <rPh sb="17" eb="19">
       <t>セイセイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Office Scan</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>パナソニックソフトウェア開発センター大連（有）（PSDCD）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>左側内容の編集不可</t>
@@ -416,11 +402,11 @@
     <rPh sb="7" eb="9">
       <t>フカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>契約番号：</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>委託個別契約書</t>
@@ -430,23 +416,23 @@
   </si>
   <si>
     <t>甲：</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>パナソニックソフトウェア開発センター大連（有）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>乙：</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>総経理　</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>付表1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">第８条（準拠法）
@@ -454,47 +440,47 @@
       かつ、中華人民共和国の法律に従って解釈されるものとする。
 以上、本契約締結の証として、本書和文２通、中文２通を作成し、甲乙署名、押印の上、双方は和文、中文各１通を保有する。
 </t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>合同号：</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>甲方：</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>乙方：</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>委托个别合同书</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>松下电器软件开发（大连）有限公司</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>松下电器软件开发（大连）有限公司</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>总经理</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>署名日</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>署名日</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>附表1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">第8条（法律依据）
@@ -502,7 +488,7 @@
     法律进行解释。
 作为本合同签订凭证，特制本合同日文2份、中文2份，甲乙双方签字盖章后，双方各持中、日文各1份。
 </t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve">第1条（“本研究开发”的内容）
@@ -524,51 +510,51 @@
 第7条（语言）
 　　本合同用中文、日文签订，日文与中文均为正本。
 </t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>名前(和文)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>名前(中文)</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>基本契約書締結日</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>付けの業務委託基本契約書（以下、「基本契約書」という）に</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>基づき、以下の通り委託個別契約書を締結する。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>签订的业务委托基本合同书（以下称为“基本合同书”），</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>签订委托个别合同书如下。</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve">    甲乙双方根据</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>　　　甲と乙とは、</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>張 建波　　　</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>张建波</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>委託元役職(和文)</t>
@@ -584,7 +570,7 @@
     <rPh sb="6" eb="8">
       <t>ワブン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>委託元役職(中文)</t>
@@ -600,18 +586,18 @@
     <rPh sb="6" eb="8">
       <t>チュウブン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1．「本研究開発」の内容</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>テーマ名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>開始日</t>
@@ -621,7 +607,7 @@
     <rPh sb="2" eb="3">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>満了日</t>
@@ -631,7 +617,7 @@
     <rPh sb="2" eb="3">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>委託費</t>
@@ -641,7 +627,7 @@
     <rPh sb="2" eb="3">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t xml:space="preserve">第１条（「本研究開発」の内容）
@@ -674,14 +660,14 @@
     <rPh sb="486" eb="487">
       <t>ブツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>再委託</t>
     <rPh sb="0" eb="3">
       <t>サイイタク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2．成果物・委託費及び支払方法</t>
@@ -706,14 +692,14 @@
     <rPh sb="13" eb="15">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>第一回成果物</t>
@@ -729,14 +715,14 @@
     <rPh sb="5" eb="6">
       <t>ブツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>第二回成果物</t>
     <rPh sb="1" eb="2">
       <t>ニ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>第三回成果物</t>
@@ -746,14 +732,14 @@
     <rPh sb="1" eb="2">
       <t>サン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>第四回成果物</t>
     <rPh sb="1" eb="2">
       <t>ヨン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>納入期限</t>
@@ -763,7 +749,7 @@
     <rPh sb="2" eb="4">
       <t>キゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>検収完了日</t>
@@ -776,7 +762,7 @@
     <rPh sb="4" eb="5">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>請求期日</t>
@@ -786,7 +772,7 @@
     <rPh sb="2" eb="4">
       <t>キジツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>支払期限</t>
@@ -796,7 +782,7 @@
     <rPh sb="2" eb="4">
       <t>キゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>請求金額</t>
@@ -806,7 +792,7 @@
     <rPh sb="2" eb="4">
       <t>キンガク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>送付番号</t>
@@ -816,7 +802,7 @@
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>成果物内容</t>
@@ -829,7 +815,7 @@
     <rPh sb="3" eb="5">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>納品形式</t>
@@ -839,7 +825,7 @@
     <rPh sb="2" eb="4">
       <t>ケイシキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>実施報告書及びプログラム一式</t>
@@ -855,14 +841,14 @@
     <rPh sb="12" eb="14">
       <t>イッシキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>電子ファイル</t>
     <rPh sb="0" eb="2">
       <t>デンシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3．その他特約事項</t>
@@ -875,7 +861,7 @@
     <rPh sb="7" eb="9">
       <t>ジコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>詳細内容</t>
@@ -885,14 +871,14 @@
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>特になし</t>
     <rPh sb="0" eb="1">
       <t>トク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>技術内容
@@ -909,25 +895,25 @@
     <rPh sb="8" eb="10">
       <t>モクヒョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>以上</t>
     <rPh sb="0" eb="2">
       <t>イジョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1．“本研究开发”的内容</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>项目名</t>
     <rPh sb="1" eb="3">
       <t>メナ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>开始日</t>
@@ -940,7 +926,7 @@
     <rPh sb="2" eb="3">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>结束日</t>
@@ -950,7 +936,7 @@
     <rPh sb="2" eb="3">
       <t>ヒ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>委托费</t>
@@ -960,12 +946,12 @@
     <rPh sb="1" eb="2">
       <t>タク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>技术内容
 （技术目标）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>再委托</t>
@@ -978,7 +964,7 @@
     <rPh sb="2" eb="3">
       <t>タク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <r>
@@ -1007,15 +993,15 @@
     <rPh sb="5" eb="6">
       <t>クダモノ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>第一次成果物</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>第二次成果物</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>第三次成果物</t>
@@ -1025,11 +1011,11 @@
     <rPh sb="3" eb="6">
       <t>セイカブツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>第四次成果物</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>提交期限</t>
@@ -1042,7 +1028,7 @@
     <rPh sb="2" eb="4">
       <t>キゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>验收完了日</t>
@@ -1055,11 +1041,11 @@
     <rPh sb="4" eb="5">
       <t>ビ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>请求期限</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>支付期限</t>
@@ -1072,11 +1058,11 @@
     <rPh sb="2" eb="4">
       <t>キゲン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>请求金额</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>提交号码</t>
@@ -1089,7 +1075,7 @@
     <rPh sb="2" eb="3">
       <t>ゴウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>成果物形式</t>
@@ -1102,7 +1088,7 @@
     <rPh sb="3" eb="5">
       <t>ケイシキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>实施报告书以及程序一套</t>
@@ -1130,7 +1116,7 @@
     <rPh sb="10" eb="11">
       <t>トウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>电子文件</t>
@@ -1143,22 +1129,22 @@
     <rPh sb="3" eb="4">
       <t>ケン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3．其他特约事项</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>详细内容</t>
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>以上</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>技術内容
@@ -1167,7 +1153,7 @@
     <rPh sb="13" eb="15">
       <t>ワブン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>技術内容
@@ -1188,7 +1174,7 @@
     <rPh sb="13" eb="15">
       <t>チュウブン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>再委託（中文）</t>
@@ -1198,7 +1184,7 @@
     <rPh sb="1" eb="3">
       <t>イタク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>その他特約事項
@@ -1215,7 +1201,7 @@
     <rPh sb="9" eb="11">
       <t>ワブン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>その他特約事項
@@ -1232,88 +1218,88 @@
     <rPh sb="9" eb="11">
       <t>チュウブン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.depositjapanese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.depositchinese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.prplacejapanese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.prplacechinese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.deployment}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.pjnamechinese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.contractnumber}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.openingdate}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.enddate}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.currencyposition}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.claimamount}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.pjnamejapanese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.prplacepositionjapanese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.prplacepositionchinese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.namejapanese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.namechinese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.technicalcontentjapanese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>再委託先：
 ${cv.redelegatecontent}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.signingdate}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>再委託（和文）</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.redelegate}</t>
@@ -1327,103 +1313,103 @@
   <si>
     <t>再委托公司：
 ${cv.subcontractcontent}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.othertermsjapanese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>${cv.othertermschinese}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>中国遼寧省大連市高新技術産業園区黄浦路900号30号楼&lt;116085&gt;</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>中国辽宁省大连市高新技术产业园区黄浦路900号30号楼&lt;116085&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[1].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[2].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[3].deliverydate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[0].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[1].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[2].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[3].completiondate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[0].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[1].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[2].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[3].claimdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[0].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[1].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[2].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[3].supportdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[0].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[1].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[2].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv[3].claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${cv.contractnumber.get(0).deliverydate}</t>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[1].claimdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[1].claimamount}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[2].claimamount}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[3].claimdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[0].deliverydate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[0].completiondate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[0].claimdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[0].supportdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[0].claimamount}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[1].deliverydate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[1].completiondate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[1].supportdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[2].deliverydate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[2].completiondate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[2].claimdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[2].supportdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[3].deliverydate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[3].completiondate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[3].supportdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[3].claimamount}</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1436,13 +1422,20 @@
     <numFmt numFmtId="178" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
     <numFmt numFmtId="179" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1896,498 +1889,504 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="40" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="7" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="7" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="27" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 3" xfId="2"/>
+    <cellStyle name="標準 3 2" xfId="6"/>
     <cellStyle name="標準 4" xfId="3"/>
     <cellStyle name="標準 5" xfId="4"/>
     <cellStyle name="標準 6" xfId="5"/>
@@ -2696,7 +2695,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2723,7 +2722,7 @@
       <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2737,7 +2736,7 @@
       <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5"/>
@@ -2748,7 +2747,7 @@
       <c r="H3" s="81"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -2761,7 +2760,7 @@
       <c r="H4" s="81"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="4"/>
@@ -2772,7 +2771,7 @@
       <c r="H5" s="81"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -2785,7 +2784,7 @@
       <c r="H6" s="81"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="38" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -2798,7 +2797,7 @@
       <c r="H7" s="81"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="14"/>
@@ -2809,7 +2808,7 @@
       <c r="H8" s="81"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="37" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -2822,7 +2821,7 @@
       <c r="H9" s="81"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -2835,7 +2834,7 @@
       <c r="H10" s="81"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -2848,7 +2847,7 @@
       <c r="H11" s="81"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -2861,7 +2860,7 @@
       <c r="H12" s="81"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4"/>
@@ -2872,7 +2871,7 @@
       <c r="H13" s="81"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -2885,7 +2884,7 @@
       <c r="H14" s="81"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
@@ -2898,7 +2897,7 @@
       <c r="H15" s="81"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="14"/>
@@ -2909,7 +2908,7 @@
       <c r="H16" s="81"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="36" t="s">
         <v>8</v>
       </c>
       <c r="B17" s="14"/>
@@ -2920,7 +2919,7 @@
       <c r="H17" s="81"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="14"/>
@@ -2931,7 +2930,7 @@
       <c r="H18" s="81"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="36" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -2944,7 +2943,7 @@
       <c r="H19" s="81"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -2957,7 +2956,7 @@
       <c r="H20" s="81"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="36" t="s">
         <v>25</v>
       </c>
       <c r="B21" s="14"/>
@@ -2968,7 +2967,7 @@
       <c r="H21" s="81"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B22" s="14"/>
@@ -2979,7 +2978,7 @@
       <c r="H22" s="81"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="37" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="8"/>
@@ -2990,7 +2989,7 @@
       <c r="H23" s="81"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="37" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="5"/>
@@ -3001,7 +3000,7 @@
       <c r="H24" s="81"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="15" t="s">
@@ -3014,7 +3013,7 @@
       <c r="H25" s="81"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="37" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3027,124 +3026,124 @@
       <c r="H26" s="81"/>
     </row>
     <row r="27" spans="1:8" ht="1.5" hidden="1" customHeight="1">
-      <c r="A27" s="41"/>
+      <c r="A27" s="39"/>
       <c r="B27" s="1"/>
       <c r="G27" s="80"/>
       <c r="H27" s="81"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="44" t="s">
+      <c r="E28" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="42" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="80"/>
       <c r="H28" s="81"/>
     </row>
     <row r="29" spans="1:8" ht="13.5">
-      <c r="A29" s="43" t="str">
+      <c r="A29" s="174" t="str">
         <f>IF(B29="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="D29" s="17" t="s">
+      <c r="B29" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="74" t="s">
         <v>164</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>172</v>
+      <c r="F29" s="76" t="s">
+        <v>165</v>
       </c>
       <c r="G29" s="82"/>
       <c r="H29" s="81"/>
     </row>
     <row r="30" spans="1:8" ht="13.5">
-      <c r="A30" s="43" t="str">
+      <c r="A30" s="174" t="str">
         <f>IF(B30="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="74" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
+      <c r="E30" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
     </row>
     <row r="31" spans="1:8" ht="13.5">
-      <c r="A31" s="43" t="str">
+      <c r="A31" s="174" t="str">
         <f>IF(B31="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="E31" s="17" t="s">
+      <c r="B31" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="F31" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
+      <c r="D31" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="E31" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
     </row>
     <row r="32" spans="1:8" ht="13.5">
-      <c r="A32" s="43" t="str">
+      <c r="A32" s="174" t="str">
         <f>IF(B32="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="F32" s="10" t="s">
+      <c r="B32" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="74" t="s">
         <v>175</v>
       </c>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
+      <c r="F32" s="76" t="s">
+        <v>176</v>
+      </c>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
     </row>
     <row r="33" spans="1:6" ht="12" customHeight="1">
       <c r="A33" s="2"/>
@@ -3158,7 +3157,7 @@
       <c r="A35" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="24" t="s">
         <v>141</v>
       </c>
       <c r="C35" s="83" t="s">
@@ -3174,7 +3173,7 @@
       <c r="A36" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="24" t="s">
         <v>142</v>
       </c>
       <c r="C36" s="83" t="s">
@@ -3187,14 +3186,14 @@
       <c r="F36" s="86"/>
     </row>
     <row r="37" spans="1:6" ht="13.5">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="57" t="s">
         <v>61</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1">
       <c r="A38" s="91" t="s">
@@ -3471,8 +3470,8 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
-  <dataValidations count="2">
+  <phoneticPr fontId="2"/>
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50:F50">
       <formula1>"あり,なし"</formula1>
     </dataValidation>
@@ -3481,7 +3480,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -3497,15 +3496,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="19" customWidth="1"/>
-    <col min="2" max="12" width="9" style="19"/>
-    <col min="13" max="13" width="2.5" style="19" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="2.625" style="17" customWidth="1"/>
+    <col min="2" max="12" width="9" style="17"/>
+    <col min="13" max="13" width="2.5" style="17" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12"/>
     <row r="2" spans="1:12" ht="24.75" customHeight="1">
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K2" s="122" t="str">
@@ -3522,105 +3521,105 @@
       <c r="H3" s="123"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
     </row>
     <row r="6" spans="1:12" ht="14.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="27" t="str">
+      <c r="C6" s="25" t="str">
         <f>記入!B2</f>
         <v>${cv.depositjapanese}</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:12" ht="8.25" customHeight="1">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="127" t="str">
         <f>記入!B37</f>
         <v>${cv.signingdate}</v>
       </c>
       <c r="E8" s="127"/>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
       <c r="B11" s="124" t="s">
@@ -4236,20 +4235,20 @@
       <c r="L57" s="124"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
     </row>
     <row r="59" spans="2:12" ht="24.75" customHeight="1">
-      <c r="J59" s="23" t="s">
+      <c r="J59" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K59" s="122" t="str">
@@ -4417,237 +4416,237 @@
       <c r="L71" s="126"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
-      <c r="B73" s="20" t="s">
+      <c r="B73" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
     </row>
     <row r="74" spans="2:12" ht="14.25">
-      <c r="B74" s="20"/>
-      <c r="C74" s="20" t="s">
+      <c r="B74" s="18"/>
+      <c r="C74" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
     </row>
     <row r="75" spans="2:12" ht="14.25">
-      <c r="B75" s="20" t="s">
+      <c r="B75" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
     </row>
     <row r="76" spans="2:12" ht="14.25">
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
     </row>
     <row r="77" spans="2:12" ht="14.25">
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
     </row>
     <row r="78" spans="2:12" ht="14.25">
-      <c r="B78" s="20"/>
-      <c r="C78" s="25" t="s">
+      <c r="B78" s="18"/>
+      <c r="C78" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E78" s="25" t="s">
+      <c r="E78" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
     </row>
     <row r="79" spans="2:12" ht="14.25">
-      <c r="B79" s="20"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
     </row>
     <row r="80" spans="2:12" ht="14.25">
-      <c r="B80" s="20"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
     </row>
     <row r="81" spans="2:9" ht="14.25">
-      <c r="B81" s="20"/>
-      <c r="C81" s="20"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
     </row>
     <row r="82" spans="2:9" ht="14.25">
-      <c r="B82" s="20"/>
-      <c r="C82" s="20" t="s">
+      <c r="B82" s="18"/>
+      <c r="C82" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D82" s="24"/>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
     </row>
     <row r="85" spans="2:9" ht="14.25">
-      <c r="B85" s="20" t="s">
+      <c r="B85" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C85" s="28" t="str">
+      <c r="C85" s="26" t="str">
         <f>記入!B6</f>
         <v>${cv.prplacejapanese}</v>
       </c>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
     </row>
     <row r="86" spans="2:9" ht="14.25">
-      <c r="B86" s="20"/>
-      <c r="C86" s="28" t="str">
+      <c r="B86" s="18"/>
+      <c r="C86" s="26" t="str">
         <f>記入!B2</f>
         <v>${cv.depositjapanese}</v>
       </c>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
     </row>
     <row r="87" spans="2:9" ht="14.25">
-      <c r="B87" s="20" t="s">
+      <c r="B87" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="20"/>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
     </row>
     <row r="88" spans="2:9" ht="14.25">
-      <c r="B88" s="20"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="20"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
     </row>
     <row r="89" spans="2:9" ht="14.25">
-      <c r="B89" s="20"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
     </row>
     <row r="90" spans="2:9" ht="14.25">
-      <c r="B90" s="20"/>
-      <c r="C90" s="25" t="str">
+      <c r="B90" s="18"/>
+      <c r="C90" s="23" t="str">
         <f>記入!B35</f>
         <v>${cv.prplacepositionjapanese}</v>
       </c>
-      <c r="E90" s="25" t="str">
+      <c r="E90" s="23" t="str">
         <f>記入!E35</f>
         <v>${cv.namejapanese}</v>
       </c>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
     </row>
     <row r="91" spans="2:9" ht="14.25">
-      <c r="B91" s="20"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
     </row>
     <row r="92" spans="2:9" ht="14.25">
-      <c r="B92" s="20"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
     </row>
     <row r="93" spans="2:9" ht="14.25">
-      <c r="B93" s="20"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
     </row>
     <row r="94" spans="2:9" ht="14.25">
-      <c r="B94" s="20"/>
-      <c r="C94" s="20" t="s">
+      <c r="B94" s="18"/>
+      <c r="C94" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D94" s="24"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="20"/>
-      <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
     </row>
     <row r="127" spans="2:12" ht="24.75" customHeight="1">
-      <c r="J127" s="23" t="s">
+      <c r="J127" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K127" s="122" t="str">
@@ -4657,47 +4656,47 @@
       <c r="L127" s="122"/>
     </row>
     <row r="128" spans="2:12" ht="17.25">
-      <c r="B128" s="54" t="s">
+      <c r="B128" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C128" s="23"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="23"/>
-      <c r="F128" s="23"/>
-      <c r="G128" s="23"/>
-      <c r="H128" s="23"/>
-      <c r="I128" s="23"/>
-      <c r="J128" s="23"/>
-      <c r="K128" s="23"/>
-      <c r="L128" s="23"/>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="21"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="21"/>
+      <c r="I128" s="21"/>
+      <c r="J128" s="21"/>
+      <c r="K128" s="21"/>
+      <c r="L128" s="21"/>
     </row>
     <row r="129" spans="2:12">
-      <c r="B129" s="23"/>
-      <c r="C129" s="23"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="23"/>
-      <c r="F129" s="23"/>
-      <c r="G129" s="23"/>
-      <c r="H129" s="23"/>
-      <c r="I129" s="23"/>
-      <c r="J129" s="23"/>
-      <c r="K129" s="23"/>
-      <c r="L129" s="23"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="21"/>
+      <c r="D129" s="21"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="21"/>
+      <c r="H129" s="21"/>
+      <c r="I129" s="21"/>
+      <c r="J129" s="21"/>
+      <c r="K129" s="21"/>
+      <c r="L129" s="21"/>
     </row>
     <row r="130" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B130" s="55" t="s">
+      <c r="B130" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="C130" s="55"/>
-      <c r="D130" s="55"/>
-      <c r="E130" s="55"/>
-      <c r="F130" s="55"/>
-      <c r="G130" s="55"/>
-      <c r="H130" s="55"/>
-      <c r="I130" s="55"/>
-      <c r="J130" s="55"/>
-      <c r="K130" s="55"/>
-      <c r="L130" s="55"/>
+      <c r="C130" s="52"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="52"/>
+      <c r="F130" s="52"/>
+      <c r="G130" s="52"/>
+      <c r="H130" s="52"/>
+      <c r="I130" s="52"/>
+      <c r="J130" s="52"/>
+      <c r="K130" s="52"/>
+      <c r="L130" s="52"/>
     </row>
     <row r="131" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B131" s="129" t="s">
@@ -4715,7 +4714,7 @@
       <c r="I131" s="137"/>
       <c r="J131" s="137"/>
       <c r="K131" s="137"/>
-      <c r="L131" s="53"/>
+      <c r="L131" s="50"/>
     </row>
     <row r="132" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B132" s="129" t="s">
@@ -4733,7 +4732,7 @@
       <c r="I132" s="137"/>
       <c r="J132" s="137"/>
       <c r="K132" s="137"/>
-      <c r="L132" s="53"/>
+      <c r="L132" s="50"/>
     </row>
     <row r="133" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B133" s="129" t="s">
@@ -4751,7 +4750,7 @@
       <c r="I133" s="137"/>
       <c r="J133" s="137"/>
       <c r="K133" s="137"/>
-      <c r="L133" s="53"/>
+      <c r="L133" s="50"/>
     </row>
     <row r="134" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B134" s="129" t="s">
@@ -4769,7 +4768,7 @@
       <c r="I134" s="143"/>
       <c r="J134" s="143"/>
       <c r="K134" s="143"/>
-      <c r="L134" s="53"/>
+      <c r="L134" s="50"/>
     </row>
     <row r="135" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B135" s="135" t="s">
@@ -4787,7 +4786,7 @@
       <c r="I135" s="134"/>
       <c r="J135" s="134"/>
       <c r="K135" s="134"/>
-      <c r="L135" s="53"/>
+      <c r="L135" s="50"/>
     </row>
     <row r="136" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B136" s="129"/>
@@ -4800,7 +4799,7 @@
       <c r="I136" s="134"/>
       <c r="J136" s="134"/>
       <c r="K136" s="134"/>
-      <c r="L136" s="53"/>
+      <c r="L136" s="50"/>
     </row>
     <row r="137" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B137" s="129"/>
@@ -4813,7 +4812,7 @@
       <c r="I137" s="134"/>
       <c r="J137" s="134"/>
       <c r="K137" s="134"/>
-      <c r="L137" s="53"/>
+      <c r="L137" s="50"/>
     </row>
     <row r="138" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B138" s="129"/>
@@ -4826,7 +4825,7 @@
       <c r="I138" s="134"/>
       <c r="J138" s="134"/>
       <c r="K138" s="134"/>
-      <c r="L138" s="53"/>
+      <c r="L138" s="50"/>
     </row>
     <row r="139" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B139" s="129"/>
@@ -4839,7 +4838,7 @@
       <c r="I139" s="134"/>
       <c r="J139" s="134"/>
       <c r="K139" s="134"/>
-      <c r="L139" s="53"/>
+      <c r="L139" s="50"/>
     </row>
     <row r="140" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B140" s="129"/>
@@ -4852,7 +4851,7 @@
       <c r="I140" s="134"/>
       <c r="J140" s="134"/>
       <c r="K140" s="134"/>
-      <c r="L140" s="53"/>
+      <c r="L140" s="50"/>
     </row>
     <row r="141" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B141" s="129"/>
@@ -4865,7 +4864,7 @@
       <c r="I141" s="134"/>
       <c r="J141" s="134"/>
       <c r="K141" s="134"/>
-      <c r="L141" s="53"/>
+      <c r="L141" s="50"/>
     </row>
     <row r="142" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B142" s="129" t="s">
@@ -4883,7 +4882,7 @@
       <c r="I142" s="131"/>
       <c r="J142" s="131"/>
       <c r="K142" s="132"/>
-      <c r="L142" s="53"/>
+      <c r="L142" s="50"/>
     </row>
     <row r="143" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B143" s="129"/>
@@ -4900,7 +4899,7 @@
       <c r="I143" s="134"/>
       <c r="J143" s="134"/>
       <c r="K143" s="134"/>
-      <c r="L143" s="53"/>
+      <c r="L143" s="50"/>
     </row>
     <row r="144" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B144" s="129"/>
@@ -4913,7 +4912,7 @@
       <c r="I144" s="134"/>
       <c r="J144" s="134"/>
       <c r="K144" s="134"/>
-      <c r="L144" s="53"/>
+      <c r="L144" s="50"/>
     </row>
     <row r="145" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B145" s="129"/>
@@ -4926,7 +4925,7 @@
       <c r="I145" s="134"/>
       <c r="J145" s="134"/>
       <c r="K145" s="134"/>
-      <c r="L145" s="53"/>
+      <c r="L145" s="50"/>
     </row>
     <row r="146" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B146" s="129"/>
@@ -4939,35 +4938,35 @@
       <c r="I146" s="134"/>
       <c r="J146" s="134"/>
       <c r="K146" s="134"/>
-      <c r="L146" s="53"/>
+      <c r="L146" s="50"/>
     </row>
     <row r="147" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B147" s="53"/>
-      <c r="C147" s="53"/>
-      <c r="D147" s="53"/>
-      <c r="E147" s="53"/>
-      <c r="F147" s="53"/>
-      <c r="G147" s="53"/>
-      <c r="H147" s="53"/>
-      <c r="I147" s="53"/>
-      <c r="J147" s="53"/>
-      <c r="K147" s="53"/>
-      <c r="L147" s="53"/>
+      <c r="B147" s="50"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="50"/>
+      <c r="F147" s="50"/>
+      <c r="G147" s="50"/>
+      <c r="H147" s="50"/>
+      <c r="I147" s="50"/>
+      <c r="J147" s="50"/>
+      <c r="K147" s="50"/>
+      <c r="L147" s="50"/>
     </row>
     <row r="148" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B148" s="53" t="s">
+      <c r="B148" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C148" s="53"/>
-      <c r="D148" s="53"/>
-      <c r="E148" s="53"/>
-      <c r="F148" s="53"/>
-      <c r="G148" s="53"/>
-      <c r="H148" s="53"/>
-      <c r="I148" s="53"/>
-      <c r="J148" s="53"/>
-      <c r="K148" s="57"/>
-      <c r="L148" s="53"/>
+      <c r="C148" s="50"/>
+      <c r="D148" s="50"/>
+      <c r="E148" s="50"/>
+      <c r="F148" s="50"/>
+      <c r="G148" s="50"/>
+      <c r="H148" s="50"/>
+      <c r="I148" s="50"/>
+      <c r="J148" s="50"/>
+      <c r="K148" s="54"/>
+      <c r="L148" s="50"/>
     </row>
     <row r="149" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B149" s="129" t="s">
@@ -4990,7 +4989,7 @@
         <v>84</v>
       </c>
       <c r="K149" s="128"/>
-      <c r="L149" s="53"/>
+      <c r="L149" s="50"/>
     </row>
     <row r="150" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B150" s="129" t="s">
@@ -4999,7 +4998,7 @@
       <c r="C150" s="129"/>
       <c r="D150" s="136" t="str">
         <f>記入!B29</f>
-        <v>${cv.contractnumber.get(0).deliverydate}</v>
+        <v>${ba1[0].deliverydate}</v>
       </c>
       <c r="E150" s="128"/>
       <c r="F150" s="136" t="e">
@@ -5017,7 +5016,7 @@
         <v>#REF!</v>
       </c>
       <c r="K150" s="128"/>
-      <c r="L150" s="53"/>
+      <c r="L150" s="50"/>
     </row>
     <row r="151" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B151" s="129" t="s">
@@ -5026,7 +5025,7 @@
       <c r="C151" s="129"/>
       <c r="D151" s="136" t="str">
         <f>記入!C29</f>
-        <v>${cv[0].completiondate}</v>
+        <v>${ba1[0].completiondate}</v>
       </c>
       <c r="E151" s="128"/>
       <c r="F151" s="136" t="e">
@@ -5044,7 +5043,7 @@
         <v>#REF!</v>
       </c>
       <c r="K151" s="128"/>
-      <c r="L151" s="53"/>
+      <c r="L151" s="50"/>
     </row>
     <row r="152" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B152" s="129" t="s">
@@ -5053,7 +5052,7 @@
       <c r="C152" s="129"/>
       <c r="D152" s="138" t="str">
         <f>記入!D29</f>
-        <v>${cv[0].claimdate}</v>
+        <v>${ba1[0].claimdate}</v>
       </c>
       <c r="E152" s="139"/>
       <c r="F152" s="136" t="e">
@@ -5071,7 +5070,7 @@
         <v>#REF!</v>
       </c>
       <c r="K152" s="128"/>
-      <c r="L152" s="53"/>
+      <c r="L152" s="50"/>
     </row>
     <row r="153" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B153" s="129" t="s">
@@ -5080,7 +5079,7 @@
       <c r="C153" s="129"/>
       <c r="D153" s="138" t="str">
         <f>記入!E29</f>
-        <v>${cv[0].supportdate}</v>
+        <v>${ba1[0].supportdate}</v>
       </c>
       <c r="E153" s="139"/>
       <c r="F153" s="136" t="e">
@@ -5098,7 +5097,7 @@
         <v>#REF!</v>
       </c>
       <c r="K153" s="128"/>
-      <c r="L153" s="53"/>
+      <c r="L153" s="50"/>
     </row>
     <row r="154" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B154" s="129" t="s">
@@ -5107,7 +5106,7 @@
       <c r="C154" s="129"/>
       <c r="D154" s="141" t="str">
         <f>記入!F29</f>
-        <v>${cv[0].claimamount}</v>
+        <v>${ba1[0].claimamount}</v>
       </c>
       <c r="E154" s="139"/>
       <c r="F154" s="140" t="e">
@@ -5125,7 +5124,7 @@
         <v>#REF!</v>
       </c>
       <c r="K154" s="128"/>
-      <c r="L154" s="53"/>
+      <c r="L154" s="50"/>
     </row>
     <row r="155" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B155" s="129" t="s">
@@ -5152,7 +5151,7 @@
         <v>${cv.contractnumber}-4</v>
       </c>
       <c r="K155" s="128"/>
-      <c r="L155" s="53"/>
+      <c r="L155" s="50"/>
     </row>
     <row r="156" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B156" s="129" t="s">
@@ -5169,7 +5168,7 @@
       <c r="I156" s="128"/>
       <c r="J156" s="128"/>
       <c r="K156" s="128"/>
-      <c r="L156" s="53"/>
+      <c r="L156" s="50"/>
     </row>
     <row r="157" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B157" s="129" t="s">
@@ -5186,35 +5185,35 @@
       <c r="I157" s="128"/>
       <c r="J157" s="128"/>
       <c r="K157" s="128"/>
-      <c r="L157" s="53"/>
+      <c r="L157" s="50"/>
     </row>
     <row r="158" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B158" s="53"/>
-      <c r="C158" s="53"/>
-      <c r="D158" s="53"/>
-      <c r="E158" s="53"/>
-      <c r="F158" s="53"/>
-      <c r="G158" s="53"/>
-      <c r="H158" s="53"/>
-      <c r="I158" s="53"/>
-      <c r="J158" s="53"/>
-      <c r="K158" s="53"/>
-      <c r="L158" s="53"/>
+      <c r="B158" s="50"/>
+      <c r="C158" s="50"/>
+      <c r="D158" s="50"/>
+      <c r="E158" s="50"/>
+      <c r="F158" s="50"/>
+      <c r="G158" s="50"/>
+      <c r="H158" s="50"/>
+      <c r="I158" s="50"/>
+      <c r="J158" s="50"/>
+      <c r="K158" s="50"/>
+      <c r="L158" s="50"/>
     </row>
     <row r="159" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B159" s="53" t="s">
+      <c r="B159" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="C159" s="53"/>
-      <c r="D159" s="53"/>
-      <c r="E159" s="58"/>
-      <c r="F159" s="53"/>
-      <c r="G159" s="53"/>
-      <c r="H159" s="53"/>
-      <c r="I159" s="53"/>
-      <c r="J159" s="53"/>
-      <c r="K159" s="53"/>
-      <c r="L159" s="53"/>
+      <c r="C159" s="50"/>
+      <c r="D159" s="50"/>
+      <c r="E159" s="55"/>
+      <c r="F159" s="50"/>
+      <c r="G159" s="50"/>
+      <c r="H159" s="50"/>
+      <c r="I159" s="50"/>
+      <c r="J159" s="50"/>
+      <c r="K159" s="50"/>
+      <c r="L159" s="50"/>
     </row>
     <row r="160" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B160" s="144" t="s">
@@ -5231,7 +5230,7 @@
       <c r="I160" s="144"/>
       <c r="J160" s="144"/>
       <c r="K160" s="144"/>
-      <c r="L160" s="53"/>
+      <c r="L160" s="50"/>
     </row>
     <row r="161" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B161" s="145"/>
@@ -5244,7 +5243,7 @@
       <c r="I161" s="145"/>
       <c r="J161" s="145"/>
       <c r="K161" s="145"/>
-      <c r="L161" s="53"/>
+      <c r="L161" s="50"/>
     </row>
     <row r="162" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B162" s="145"/>
@@ -5257,7 +5256,7 @@
       <c r="I162" s="145"/>
       <c r="J162" s="145"/>
       <c r="K162" s="145"/>
-      <c r="L162" s="53"/>
+      <c r="L162" s="50"/>
     </row>
     <row r="163" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B163" s="146"/>
@@ -5270,360 +5269,360 @@
       <c r="I163" s="146"/>
       <c r="J163" s="146"/>
       <c r="K163" s="146"/>
-      <c r="L163" s="53"/>
+      <c r="L163" s="50"/>
     </row>
     <row r="164" spans="2:12" ht="14.25">
-      <c r="B164" s="53"/>
-      <c r="C164" s="53"/>
-      <c r="D164" s="53"/>
-      <c r="E164" s="53"/>
-      <c r="F164" s="53"/>
-      <c r="G164" s="53"/>
-      <c r="H164" s="53"/>
-      <c r="I164" s="53"/>
-      <c r="J164" s="53"/>
-      <c r="K164" s="53"/>
-      <c r="L164" s="53"/>
+      <c r="B164" s="50"/>
+      <c r="C164" s="50"/>
+      <c r="D164" s="50"/>
+      <c r="E164" s="50"/>
+      <c r="F164" s="50"/>
+      <c r="G164" s="50"/>
+      <c r="H164" s="50"/>
+      <c r="I164" s="50"/>
+      <c r="J164" s="50"/>
+      <c r="K164" s="50"/>
+      <c r="L164" s="50"/>
     </row>
     <row r="165" spans="2:12" ht="14.25">
-      <c r="B165" s="53"/>
-      <c r="C165" s="53"/>
-      <c r="D165" s="53"/>
-      <c r="E165" s="53"/>
-      <c r="F165" s="53"/>
-      <c r="G165" s="53"/>
-      <c r="H165" s="53"/>
-      <c r="I165" s="53"/>
-      <c r="J165" s="53"/>
-      <c r="K165" s="53"/>
-      <c r="L165" s="53"/>
+      <c r="B165" s="50"/>
+      <c r="C165" s="50"/>
+      <c r="D165" s="50"/>
+      <c r="E165" s="50"/>
+      <c r="F165" s="50"/>
+      <c r="G165" s="50"/>
+      <c r="H165" s="50"/>
+      <c r="I165" s="50"/>
+      <c r="J165" s="50"/>
+      <c r="K165" s="50"/>
+      <c r="L165" s="50"/>
     </row>
     <row r="166" spans="2:12" ht="14.25">
-      <c r="B166" s="53"/>
-      <c r="C166" s="53"/>
-      <c r="D166" s="53"/>
-      <c r="E166" s="53"/>
-      <c r="F166" s="53"/>
-      <c r="G166" s="53"/>
-      <c r="H166" s="53"/>
-      <c r="I166" s="53"/>
-      <c r="J166" s="53"/>
-      <c r="K166" s="53"/>
-      <c r="L166" s="53"/>
+      <c r="B166" s="50"/>
+      <c r="C166" s="50"/>
+      <c r="D166" s="50"/>
+      <c r="E166" s="50"/>
+      <c r="F166" s="50"/>
+      <c r="G166" s="50"/>
+      <c r="H166" s="50"/>
+      <c r="I166" s="50"/>
+      <c r="J166" s="50"/>
+      <c r="K166" s="50"/>
+      <c r="L166" s="50"/>
     </row>
     <row r="167" spans="2:12" ht="14.25">
-      <c r="B167" s="53"/>
-      <c r="C167" s="53"/>
-      <c r="D167" s="53"/>
-      <c r="E167" s="58"/>
-      <c r="F167" s="53"/>
-      <c r="G167" s="53"/>
-      <c r="H167" s="53"/>
-      <c r="I167" s="53"/>
-      <c r="J167" s="53"/>
-      <c r="K167" s="53"/>
-      <c r="L167" s="53"/>
+      <c r="B167" s="50"/>
+      <c r="C167" s="50"/>
+      <c r="D167" s="50"/>
+      <c r="E167" s="55"/>
+      <c r="F167" s="50"/>
+      <c r="G167" s="50"/>
+      <c r="H167" s="50"/>
+      <c r="I167" s="50"/>
+      <c r="J167" s="50"/>
+      <c r="K167" s="50"/>
+      <c r="L167" s="50"/>
     </row>
     <row r="168" spans="2:12" ht="14.25">
-      <c r="B168" s="53"/>
-      <c r="C168" s="53"/>
-      <c r="D168" s="53"/>
-      <c r="E168" s="56"/>
-      <c r="F168" s="53"/>
-      <c r="G168" s="53"/>
-      <c r="H168" s="53"/>
-      <c r="I168" s="53"/>
-      <c r="J168" s="53"/>
-      <c r="K168" s="53"/>
-      <c r="L168" s="53"/>
+      <c r="B168" s="50"/>
+      <c r="C168" s="50"/>
+      <c r="D168" s="50"/>
+      <c r="E168" s="53"/>
+      <c r="F168" s="50"/>
+      <c r="G168" s="50"/>
+      <c r="H168" s="50"/>
+      <c r="I168" s="50"/>
+      <c r="J168" s="50"/>
+      <c r="K168" s="50"/>
+      <c r="L168" s="50"/>
     </row>
     <row r="169" spans="2:12" ht="14.25">
-      <c r="B169" s="53"/>
-      <c r="C169" s="53"/>
-      <c r="D169" s="53"/>
-      <c r="E169" s="56"/>
-      <c r="F169" s="53"/>
-      <c r="G169" s="53"/>
-      <c r="H169" s="53"/>
-      <c r="I169" s="53"/>
-      <c r="J169" s="53"/>
-      <c r="K169" s="53" t="s">
+      <c r="B169" s="50"/>
+      <c r="C169" s="50"/>
+      <c r="D169" s="50"/>
+      <c r="E169" s="53"/>
+      <c r="F169" s="50"/>
+      <c r="G169" s="50"/>
+      <c r="H169" s="50"/>
+      <c r="I169" s="50"/>
+      <c r="J169" s="50"/>
+      <c r="K169" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="L169" s="53"/>
+      <c r="L169" s="50"/>
     </row>
     <row r="170" spans="2:12" ht="14.25">
-      <c r="B170" s="53"/>
-      <c r="C170" s="53"/>
-      <c r="D170" s="53"/>
-      <c r="E170" s="53"/>
-      <c r="F170" s="53"/>
-      <c r="G170" s="53"/>
-      <c r="H170" s="53"/>
-      <c r="I170" s="53"/>
-      <c r="J170" s="53"/>
-      <c r="K170" s="53"/>
-      <c r="L170" s="53"/>
+      <c r="B170" s="50"/>
+      <c r="C170" s="50"/>
+      <c r="D170" s="50"/>
+      <c r="E170" s="50"/>
+      <c r="F170" s="50"/>
+      <c r="G170" s="50"/>
+      <c r="H170" s="50"/>
+      <c r="I170" s="50"/>
+      <c r="J170" s="50"/>
+      <c r="K170" s="50"/>
+      <c r="L170" s="50"/>
     </row>
     <row r="171" spans="2:12" ht="14.25">
-      <c r="B171" s="53"/>
-      <c r="C171" s="53"/>
-      <c r="D171" s="53"/>
-      <c r="E171" s="53"/>
-      <c r="F171" s="53"/>
-      <c r="G171" s="53"/>
-      <c r="H171" s="53"/>
-      <c r="I171" s="53"/>
-      <c r="J171" s="53"/>
-      <c r="K171" s="53"/>
-      <c r="L171" s="53"/>
+      <c r="B171" s="50"/>
+      <c r="C171" s="50"/>
+      <c r="D171" s="50"/>
+      <c r="E171" s="50"/>
+      <c r="F171" s="50"/>
+      <c r="G171" s="50"/>
+      <c r="H171" s="50"/>
+      <c r="I171" s="50"/>
+      <c r="J171" s="50"/>
+      <c r="K171" s="50"/>
+      <c r="L171" s="50"/>
     </row>
     <row r="172" spans="2:12" ht="14.25">
-      <c r="B172" s="53"/>
-      <c r="C172" s="53"/>
-      <c r="D172" s="53"/>
-      <c r="E172" s="53"/>
-      <c r="F172" s="53"/>
-      <c r="G172" s="53"/>
-      <c r="H172" s="53"/>
-      <c r="I172" s="53"/>
-      <c r="J172" s="53"/>
-      <c r="K172" s="53"/>
-      <c r="L172" s="53"/>
+      <c r="B172" s="50"/>
+      <c r="C172" s="50"/>
+      <c r="D172" s="50"/>
+      <c r="E172" s="50"/>
+      <c r="F172" s="50"/>
+      <c r="G172" s="50"/>
+      <c r="H172" s="50"/>
+      <c r="I172" s="50"/>
+      <c r="J172" s="50"/>
+      <c r="K172" s="50"/>
+      <c r="L172" s="50"/>
     </row>
     <row r="173" spans="2:12">
-      <c r="B173" s="52"/>
-      <c r="C173" s="52"/>
-      <c r="D173" s="52"/>
-      <c r="E173" s="52"/>
-      <c r="F173" s="52"/>
-      <c r="G173" s="52"/>
-      <c r="H173" s="52"/>
-      <c r="I173" s="52"/>
-      <c r="J173" s="52"/>
-      <c r="K173" s="52"/>
-      <c r="L173" s="52"/>
+      <c r="B173" s="49"/>
+      <c r="C173" s="49"/>
+      <c r="D173" s="49"/>
+      <c r="E173" s="49"/>
+      <c r="F173" s="49"/>
+      <c r="G173" s="49"/>
+      <c r="H173" s="49"/>
+      <c r="I173" s="49"/>
+      <c r="J173" s="49"/>
+      <c r="K173" s="49"/>
+      <c r="L173" s="49"/>
     </row>
     <row r="174" spans="2:12" ht="14.25">
-      <c r="B174" s="53"/>
-      <c r="C174" s="53"/>
-      <c r="D174" s="53"/>
-      <c r="E174" s="53"/>
-      <c r="F174" s="53"/>
-      <c r="G174" s="53"/>
-      <c r="H174" s="53"/>
-      <c r="I174" s="53"/>
-      <c r="J174" s="53"/>
-      <c r="K174" s="53"/>
-      <c r="L174" s="53"/>
+      <c r="B174" s="50"/>
+      <c r="C174" s="50"/>
+      <c r="D174" s="50"/>
+      <c r="E174" s="50"/>
+      <c r="F174" s="50"/>
+      <c r="G174" s="50"/>
+      <c r="H174" s="50"/>
+      <c r="I174" s="50"/>
+      <c r="J174" s="50"/>
+      <c r="K174" s="50"/>
+      <c r="L174" s="50"/>
     </row>
     <row r="175" spans="2:12" ht="14.25">
-      <c r="B175" s="53"/>
-      <c r="C175" s="53"/>
-      <c r="D175" s="53"/>
-      <c r="E175" s="58"/>
-      <c r="F175" s="53"/>
-      <c r="G175" s="53"/>
-      <c r="H175" s="53"/>
-      <c r="I175" s="53"/>
-      <c r="J175" s="53"/>
-      <c r="K175" s="53"/>
-      <c r="L175" s="53"/>
+      <c r="B175" s="50"/>
+      <c r="C175" s="50"/>
+      <c r="D175" s="50"/>
+      <c r="E175" s="55"/>
+      <c r="F175" s="50"/>
+      <c r="G175" s="50"/>
+      <c r="H175" s="50"/>
+      <c r="I175" s="50"/>
+      <c r="J175" s="50"/>
+      <c r="K175" s="50"/>
+      <c r="L175" s="50"/>
     </row>
     <row r="176" spans="2:12" ht="14.25">
-      <c r="B176" s="53"/>
-      <c r="C176" s="53"/>
-      <c r="D176" s="53"/>
-      <c r="E176" s="56"/>
-      <c r="F176" s="53"/>
-      <c r="G176" s="53"/>
-      <c r="H176" s="53"/>
-      <c r="I176" s="53"/>
-      <c r="J176" s="53"/>
-      <c r="K176" s="53"/>
-      <c r="L176" s="53"/>
+      <c r="B176" s="50"/>
+      <c r="C176" s="50"/>
+      <c r="D176" s="50"/>
+      <c r="E176" s="53"/>
+      <c r="F176" s="50"/>
+      <c r="G176" s="50"/>
+      <c r="H176" s="50"/>
+      <c r="I176" s="50"/>
+      <c r="J176" s="50"/>
+      <c r="K176" s="50"/>
+      <c r="L176" s="50"/>
     </row>
     <row r="177" spans="2:12" ht="14.25">
-      <c r="B177" s="53"/>
-      <c r="C177" s="53"/>
-      <c r="D177" s="53"/>
-      <c r="E177" s="56"/>
-      <c r="F177" s="53"/>
-      <c r="G177" s="53"/>
-      <c r="H177" s="53"/>
-      <c r="I177" s="53"/>
-      <c r="J177" s="53"/>
-      <c r="K177" s="53"/>
-      <c r="L177" s="53"/>
+      <c r="B177" s="50"/>
+      <c r="C177" s="50"/>
+      <c r="D177" s="50"/>
+      <c r="E177" s="53"/>
+      <c r="F177" s="50"/>
+      <c r="G177" s="50"/>
+      <c r="H177" s="50"/>
+      <c r="I177" s="50"/>
+      <c r="J177" s="50"/>
+      <c r="K177" s="50"/>
+      <c r="L177" s="50"/>
     </row>
     <row r="178" spans="2:12" ht="14.25">
-      <c r="B178" s="53"/>
-      <c r="C178" s="53"/>
-      <c r="D178" s="53"/>
-      <c r="E178" s="53"/>
-      <c r="F178" s="53"/>
-      <c r="G178" s="53"/>
-      <c r="H178" s="53"/>
-      <c r="I178" s="53"/>
-      <c r="J178" s="53"/>
-      <c r="K178" s="53"/>
-      <c r="L178" s="53"/>
+      <c r="B178" s="50"/>
+      <c r="C178" s="50"/>
+      <c r="D178" s="50"/>
+      <c r="E178" s="50"/>
+      <c r="F178" s="50"/>
+      <c r="G178" s="50"/>
+      <c r="H178" s="50"/>
+      <c r="I178" s="50"/>
+      <c r="J178" s="50"/>
+      <c r="K178" s="50"/>
+      <c r="L178" s="50"/>
     </row>
     <row r="179" spans="2:12" ht="14.25">
-      <c r="B179" s="53"/>
-      <c r="C179" s="53"/>
-      <c r="D179" s="53"/>
-      <c r="E179" s="53"/>
-      <c r="F179" s="53"/>
-      <c r="G179" s="53"/>
-      <c r="H179" s="53"/>
-      <c r="I179" s="53"/>
-      <c r="J179" s="53"/>
-      <c r="K179" s="53"/>
-      <c r="L179" s="53"/>
+      <c r="B179" s="50"/>
+      <c r="C179" s="50"/>
+      <c r="D179" s="50"/>
+      <c r="E179" s="50"/>
+      <c r="F179" s="50"/>
+      <c r="G179" s="50"/>
+      <c r="H179" s="50"/>
+      <c r="I179" s="50"/>
+      <c r="J179" s="50"/>
+      <c r="K179" s="50"/>
+      <c r="L179" s="50"/>
     </row>
     <row r="180" spans="2:12" ht="14.25">
-      <c r="B180" s="53"/>
-      <c r="C180" s="53"/>
-      <c r="D180" s="53"/>
-      <c r="E180" s="53"/>
-      <c r="F180" s="53"/>
-      <c r="G180" s="53"/>
-      <c r="H180" s="53"/>
-      <c r="I180" s="53"/>
-      <c r="J180" s="53"/>
-      <c r="K180" s="53"/>
-      <c r="L180" s="53"/>
+      <c r="B180" s="50"/>
+      <c r="C180" s="50"/>
+      <c r="D180" s="50"/>
+      <c r="E180" s="50"/>
+      <c r="F180" s="50"/>
+      <c r="G180" s="50"/>
+      <c r="H180" s="50"/>
+      <c r="I180" s="50"/>
+      <c r="J180" s="50"/>
+      <c r="K180" s="50"/>
+      <c r="L180" s="50"/>
     </row>
     <row r="181" spans="2:12">
-      <c r="B181" s="52"/>
-      <c r="C181" s="52"/>
-      <c r="D181" s="52"/>
-      <c r="E181" s="52"/>
-      <c r="F181" s="52"/>
-      <c r="G181" s="52"/>
-      <c r="H181" s="52"/>
-      <c r="I181" s="52"/>
-      <c r="J181" s="52"/>
-      <c r="K181" s="52"/>
-      <c r="L181" s="52"/>
+      <c r="B181" s="49"/>
+      <c r="C181" s="49"/>
+      <c r="D181" s="49"/>
+      <c r="E181" s="49"/>
+      <c r="F181" s="49"/>
+      <c r="G181" s="49"/>
+      <c r="H181" s="49"/>
+      <c r="I181" s="49"/>
+      <c r="J181" s="49"/>
+      <c r="K181" s="49"/>
+      <c r="L181" s="49"/>
     </row>
     <row r="182" spans="2:12" ht="14.25">
-      <c r="B182" s="53"/>
-      <c r="C182" s="53"/>
-      <c r="D182" s="53"/>
-      <c r="E182" s="53"/>
-      <c r="F182" s="53"/>
-      <c r="G182" s="53"/>
-      <c r="H182" s="53"/>
-      <c r="I182" s="53"/>
-      <c r="J182" s="53"/>
-      <c r="K182" s="53"/>
-      <c r="L182" s="53"/>
+      <c r="B182" s="50"/>
+      <c r="C182" s="50"/>
+      <c r="D182" s="50"/>
+      <c r="E182" s="50"/>
+      <c r="F182" s="50"/>
+      <c r="G182" s="50"/>
+      <c r="H182" s="50"/>
+      <c r="I182" s="50"/>
+      <c r="J182" s="50"/>
+      <c r="K182" s="50"/>
+      <c r="L182" s="50"/>
     </row>
     <row r="183" spans="2:12" ht="14.25">
-      <c r="B183" s="53"/>
-      <c r="C183" s="53"/>
-      <c r="D183" s="53"/>
-      <c r="E183" s="58"/>
-      <c r="F183" s="53"/>
-      <c r="G183" s="53"/>
-      <c r="H183" s="53"/>
-      <c r="I183" s="53"/>
-      <c r="J183" s="53"/>
-      <c r="K183" s="53"/>
-      <c r="L183" s="53"/>
+      <c r="B183" s="50"/>
+      <c r="C183" s="50"/>
+      <c r="D183" s="50"/>
+      <c r="E183" s="55"/>
+      <c r="F183" s="50"/>
+      <c r="G183" s="50"/>
+      <c r="H183" s="50"/>
+      <c r="I183" s="50"/>
+      <c r="J183" s="50"/>
+      <c r="K183" s="50"/>
+      <c r="L183" s="50"/>
     </row>
     <row r="184" spans="2:12" ht="14.25">
-      <c r="B184" s="53"/>
-      <c r="C184" s="53"/>
-      <c r="D184" s="53"/>
-      <c r="E184" s="56"/>
-      <c r="F184" s="53"/>
-      <c r="G184" s="53"/>
-      <c r="H184" s="53"/>
-      <c r="I184" s="53"/>
-      <c r="J184" s="53"/>
-      <c r="K184" s="53"/>
-      <c r="L184" s="53"/>
+      <c r="B184" s="50"/>
+      <c r="C184" s="50"/>
+      <c r="D184" s="50"/>
+      <c r="E184" s="53"/>
+      <c r="F184" s="50"/>
+      <c r="G184" s="50"/>
+      <c r="H184" s="50"/>
+      <c r="I184" s="50"/>
+      <c r="J184" s="50"/>
+      <c r="K184" s="50"/>
+      <c r="L184" s="50"/>
     </row>
     <row r="185" spans="2:12" ht="14.25">
-      <c r="B185" s="53"/>
-      <c r="C185" s="53"/>
-      <c r="D185" s="53"/>
-      <c r="E185" s="56"/>
-      <c r="F185" s="53"/>
-      <c r="G185" s="53"/>
-      <c r="H185" s="53"/>
-      <c r="I185" s="53"/>
-      <c r="J185" s="53"/>
-      <c r="K185" s="53"/>
-      <c r="L185" s="53"/>
+      <c r="B185" s="50"/>
+      <c r="C185" s="50"/>
+      <c r="D185" s="50"/>
+      <c r="E185" s="53"/>
+      <c r="F185" s="50"/>
+      <c r="G185" s="50"/>
+      <c r="H185" s="50"/>
+      <c r="I185" s="50"/>
+      <c r="J185" s="50"/>
+      <c r="K185" s="50"/>
+      <c r="L185" s="50"/>
     </row>
     <row r="186" spans="2:12" ht="14.25">
-      <c r="B186" s="53"/>
-      <c r="C186" s="53"/>
-      <c r="D186" s="53"/>
-      <c r="E186" s="53"/>
-      <c r="F186" s="53"/>
-      <c r="G186" s="53"/>
-      <c r="H186" s="53"/>
-      <c r="I186" s="53"/>
-      <c r="J186" s="53"/>
-      <c r="K186" s="53"/>
-      <c r="L186" s="53"/>
+      <c r="B186" s="50"/>
+      <c r="C186" s="50"/>
+      <c r="D186" s="50"/>
+      <c r="E186" s="50"/>
+      <c r="F186" s="50"/>
+      <c r="G186" s="50"/>
+      <c r="H186" s="50"/>
+      <c r="I186" s="50"/>
+      <c r="J186" s="50"/>
+      <c r="K186" s="50"/>
+      <c r="L186" s="50"/>
     </row>
     <row r="187" spans="2:12" ht="14.25">
-      <c r="B187" s="53"/>
-      <c r="C187" s="53"/>
-      <c r="D187" s="53"/>
-      <c r="E187" s="53"/>
-      <c r="F187" s="53"/>
-      <c r="G187" s="53"/>
-      <c r="H187" s="53"/>
-      <c r="I187" s="53"/>
-      <c r="J187" s="53"/>
-      <c r="K187" s="53"/>
-      <c r="L187" s="53"/>
+      <c r="B187" s="50"/>
+      <c r="C187" s="50"/>
+      <c r="D187" s="50"/>
+      <c r="E187" s="50"/>
+      <c r="F187" s="50"/>
+      <c r="G187" s="50"/>
+      <c r="H187" s="50"/>
+      <c r="I187" s="50"/>
+      <c r="J187" s="50"/>
+      <c r="K187" s="50"/>
+      <c r="L187" s="50"/>
     </row>
     <row r="188" spans="2:12" ht="14.25">
-      <c r="B188" s="53"/>
-      <c r="C188" s="53"/>
-      <c r="D188" s="53"/>
-      <c r="E188" s="53"/>
-      <c r="F188" s="53"/>
-      <c r="G188" s="53"/>
-      <c r="H188" s="53"/>
-      <c r="I188" s="53"/>
-      <c r="J188" s="53"/>
-      <c r="K188" s="53"/>
-      <c r="L188" s="53"/>
+      <c r="B188" s="50"/>
+      <c r="C188" s="50"/>
+      <c r="D188" s="50"/>
+      <c r="E188" s="50"/>
+      <c r="F188" s="50"/>
+      <c r="G188" s="50"/>
+      <c r="H188" s="50"/>
+      <c r="I188" s="50"/>
+      <c r="J188" s="50"/>
+      <c r="K188" s="50"/>
+      <c r="L188" s="50"/>
     </row>
     <row r="189" spans="2:12">
-      <c r="B189" s="52"/>
-      <c r="C189" s="52"/>
-      <c r="D189" s="52"/>
-      <c r="E189" s="52"/>
-      <c r="F189" s="52"/>
-      <c r="G189" s="52"/>
-      <c r="H189" s="52"/>
-      <c r="I189" s="52"/>
-      <c r="J189" s="52"/>
-      <c r="K189" s="52"/>
-      <c r="L189" s="52"/>
+      <c r="B189" s="49"/>
+      <c r="C189" s="49"/>
+      <c r="D189" s="49"/>
+      <c r="E189" s="49"/>
+      <c r="F189" s="49"/>
+      <c r="G189" s="49"/>
+      <c r="H189" s="49"/>
+      <c r="I189" s="49"/>
+      <c r="J189" s="49"/>
+      <c r="K189" s="49"/>
+      <c r="L189" s="49"/>
     </row>
     <row r="190" spans="2:12" ht="14.25">
-      <c r="B190" s="23"/>
-      <c r="C190" s="23"/>
-      <c r="D190" s="23"/>
-      <c r="E190" s="23"/>
-      <c r="F190" s="23"/>
-      <c r="G190" s="23"/>
-      <c r="H190" s="23"/>
-      <c r="I190" s="23"/>
-      <c r="J190" s="23"/>
-      <c r="K190" s="23"/>
-      <c r="L190" s="59"/>
+      <c r="B190" s="21"/>
+      <c r="C190" s="21"/>
+      <c r="D190" s="21"/>
+      <c r="E190" s="21"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="21"/>
+      <c r="H190" s="21"/>
+      <c r="I190" s="21"/>
+      <c r="J190" s="21"/>
+      <c r="K190" s="21"/>
+      <c r="L190" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -5689,7 +5688,7 @@
     <mergeCell ref="K59:L59"/>
     <mergeCell ref="D8:E8"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -5715,15 +5714,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="29" customWidth="1"/>
-    <col min="2" max="12" width="9" style="29"/>
-    <col min="13" max="13" width="2.5" style="29" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="2.625" style="27" customWidth="1"/>
+    <col min="2" max="12" width="9" style="27"/>
+    <col min="13" max="13" width="2.5" style="27" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12"/>
     <row r="2" spans="1:12" ht="24.75" customHeight="1">
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="28" t="s">
         <v>47</v>
       </c>
       <c r="K2" s="150" t="str">
@@ -5740,105 +5739,105 @@
       <c r="H3" s="151"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="14.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" ht="14.25">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="37" t="str">
+      <c r="C6" s="35" t="str">
         <f>記入!B4</f>
         <v>${cv.depositchinese}</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7" spans="1:12" ht="8.25" customHeight="1">
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="153" t="str">
         <f>記入!B37</f>
         <v>${cv.signingdate}</v>
       </c>
       <c r="E8" s="154"/>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
       <c r="B11" s="152" t="s">
@@ -6454,20 +6453,20 @@
       <c r="L57" s="152"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="33"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
     </row>
     <row r="59" spans="2:12" ht="24.75" customHeight="1">
-      <c r="J59" s="30" t="s">
+      <c r="J59" s="28" t="s">
         <v>47</v>
       </c>
       <c r="K59" s="150" t="str">
@@ -6635,239 +6634,239 @@
       <c r="L71" s="149"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
     </row>
     <row r="74" spans="2:12" ht="14.25">
-      <c r="B74" s="31"/>
-      <c r="C74" s="31" t="s">
+      <c r="B74" s="29"/>
+      <c r="C74" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
     </row>
     <row r="75" spans="2:12" ht="14.25">
-      <c r="B75" s="31" t="s">
+      <c r="B75" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
     </row>
     <row r="76" spans="2:12" ht="14.25">
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
     </row>
     <row r="77" spans="2:12" ht="14.25">
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
     </row>
     <row r="78" spans="2:12" ht="14.25">
-      <c r="B78" s="31"/>
-      <c r="C78" s="35" t="s">
+      <c r="B78" s="29"/>
+      <c r="C78" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="D78" s="35" t="s">
+      <c r="D78" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
     </row>
     <row r="79" spans="2:12" ht="14.25">
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
     </row>
     <row r="80" spans="2:12" ht="14.25">
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
     </row>
     <row r="81" spans="2:9" ht="14.25">
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
     </row>
     <row r="82" spans="2:9" ht="14.25">
-      <c r="B82" s="31"/>
-      <c r="C82" s="31" t="s">
+      <c r="B82" s="29"/>
+      <c r="C82" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D82" s="36"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
     </row>
     <row r="85" spans="2:9" ht="14.25">
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C85" s="34" t="str">
+      <c r="C85" s="32" t="str">
         <f>記入!B7</f>
         <v>${cv.prplacechinese}</v>
       </c>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
     </row>
     <row r="86" spans="2:9" ht="14.25">
-      <c r="B86" s="31"/>
-      <c r="C86" s="34" t="str">
+      <c r="B86" s="29"/>
+      <c r="C86" s="32" t="str">
         <f>記入!B4</f>
         <v>${cv.depositchinese}</v>
       </c>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
     </row>
     <row r="87" spans="2:9" ht="14.25">
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
     </row>
     <row r="88" spans="2:9" ht="14.25">
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
     </row>
     <row r="89" spans="2:9" ht="14.25">
-      <c r="B89" s="31"/>
-      <c r="C89" s="31"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
     </row>
     <row r="90" spans="2:9" ht="14.25">
-      <c r="B90" s="31"/>
-      <c r="C90" s="47" t="str">
+      <c r="B90" s="29"/>
+      <c r="C90" s="44" t="str">
         <f>記入!B36</f>
         <v>${cv.prplacepositionchinese}</v>
       </c>
-      <c r="D90" s="35" t="str">
+      <c r="D90" s="33" t="str">
         <f>記入!E36</f>
         <v>${cv.namechinese}</v>
       </c>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
     </row>
     <row r="91" spans="2:9" ht="14.25">
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
     </row>
     <row r="92" spans="2:9" ht="14.25">
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
     </row>
     <row r="93" spans="2:9" ht="14.25">
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="31"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
     </row>
     <row r="94" spans="2:9" ht="14.25">
-      <c r="B94" s="31"/>
-      <c r="C94" s="31" t="s">
+      <c r="B94" s="29"/>
+      <c r="C94" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D94" s="36"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="31"/>
-    </row>
-    <row r="127" spans="2:12" s="61" customFormat="1" ht="24.75" customHeight="1">
-      <c r="J127" s="62" t="s">
+      <c r="D94" s="34"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+    </row>
+    <row r="127" spans="2:12" s="58" customFormat="1" ht="24.75" customHeight="1">
+      <c r="J127" s="59" t="s">
         <v>47</v>
       </c>
       <c r="K127" s="147" t="str">
@@ -6876,48 +6875,48 @@
       </c>
       <c r="L127" s="147"/>
     </row>
-    <row r="128" spans="2:12" s="61" customFormat="1" ht="18.75">
-      <c r="B128" s="63" t="s">
+    <row r="128" spans="2:12" s="58" customFormat="1" ht="18.75">
+      <c r="B128" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C128" s="62"/>
-      <c r="D128" s="62"/>
-      <c r="E128" s="62"/>
-      <c r="F128" s="62"/>
-      <c r="G128" s="62"/>
-      <c r="H128" s="62"/>
-      <c r="I128" s="62"/>
-      <c r="J128" s="62"/>
-      <c r="K128" s="62"/>
-    </row>
-    <row r="129" spans="2:12" s="61" customFormat="1">
-      <c r="B129" s="62"/>
-      <c r="C129" s="62"/>
-      <c r="D129" s="62"/>
-      <c r="E129" s="62"/>
-      <c r="F129" s="62"/>
-      <c r="G129" s="62"/>
-      <c r="H129" s="62"/>
-      <c r="I129" s="62"/>
-      <c r="J129" s="62"/>
-      <c r="K129" s="62"/>
-    </row>
-    <row r="130" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B130" s="64" t="s">
+      <c r="C128" s="59"/>
+      <c r="D128" s="59"/>
+      <c r="E128" s="59"/>
+      <c r="F128" s="59"/>
+      <c r="G128" s="59"/>
+      <c r="H128" s="59"/>
+      <c r="I128" s="59"/>
+      <c r="J128" s="59"/>
+      <c r="K128" s="59"/>
+    </row>
+    <row r="129" spans="2:12" s="58" customFormat="1">
+      <c r="B129" s="59"/>
+      <c r="C129" s="59"/>
+      <c r="D129" s="59"/>
+      <c r="E129" s="59"/>
+      <c r="F129" s="59"/>
+      <c r="G129" s="59"/>
+      <c r="H129" s="59"/>
+      <c r="I129" s="59"/>
+      <c r="J129" s="59"/>
+      <c r="K129" s="59"/>
+    </row>
+    <row r="130" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B130" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="C130" s="64"/>
-      <c r="D130" s="64"/>
-      <c r="E130" s="64"/>
-      <c r="F130" s="64"/>
-      <c r="G130" s="64"/>
-      <c r="H130" s="64"/>
-      <c r="I130" s="64"/>
-      <c r="J130" s="64"/>
-      <c r="K130" s="64"/>
-      <c r="L130" s="65"/>
-    </row>
-    <row r="131" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C130" s="61"/>
+      <c r="D130" s="61"/>
+      <c r="E130" s="61"/>
+      <c r="F130" s="61"/>
+      <c r="G130" s="61"/>
+      <c r="H130" s="61"/>
+      <c r="I130" s="61"/>
+      <c r="J130" s="61"/>
+      <c r="K130" s="61"/>
+      <c r="L130" s="62"/>
+    </row>
+    <row r="131" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B131" s="155" t="s">
         <v>101</v>
       </c>
@@ -6933,9 +6932,9 @@
       <c r="I131" s="156"/>
       <c r="J131" s="156"/>
       <c r="K131" s="156"/>
-      <c r="L131" s="66"/>
-    </row>
-    <row r="132" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L131" s="63"/>
+    </row>
+    <row r="132" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B132" s="155" t="s">
         <v>102</v>
       </c>
@@ -6951,9 +6950,9 @@
       <c r="I132" s="156"/>
       <c r="J132" s="156"/>
       <c r="K132" s="156"/>
-      <c r="L132" s="67"/>
-    </row>
-    <row r="133" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L132" s="64"/>
+    </row>
+    <row r="133" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B133" s="155" t="s">
         <v>103</v>
       </c>
@@ -6969,9 +6968,9 @@
       <c r="I133" s="156"/>
       <c r="J133" s="156"/>
       <c r="K133" s="156"/>
-      <c r="L133" s="67"/>
-    </row>
-    <row r="134" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L133" s="64"/>
+    </row>
+    <row r="134" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B134" s="155" t="s">
         <v>104</v>
       </c>
@@ -6987,9 +6986,9 @@
       <c r="I134" s="158"/>
       <c r="J134" s="158"/>
       <c r="K134" s="158"/>
-      <c r="L134" s="67"/>
-    </row>
-    <row r="135" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L134" s="64"/>
+    </row>
+    <row r="135" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B135" s="159" t="s">
         <v>105</v>
       </c>
@@ -7005,9 +7004,9 @@
       <c r="I135" s="161"/>
       <c r="J135" s="161"/>
       <c r="K135" s="161"/>
-      <c r="L135" s="67"/>
-    </row>
-    <row r="136" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L135" s="64"/>
+    </row>
+    <row r="136" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B136" s="155"/>
       <c r="C136" s="155"/>
       <c r="D136" s="161"/>
@@ -7018,9 +7017,9 @@
       <c r="I136" s="161"/>
       <c r="J136" s="161"/>
       <c r="K136" s="161"/>
-      <c r="L136" s="67"/>
-    </row>
-    <row r="137" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L136" s="64"/>
+    </row>
+    <row r="137" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B137" s="155"/>
       <c r="C137" s="155"/>
       <c r="D137" s="161"/>
@@ -7031,9 +7030,9 @@
       <c r="I137" s="161"/>
       <c r="J137" s="161"/>
       <c r="K137" s="161"/>
-      <c r="L137" s="67"/>
-    </row>
-    <row r="138" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L137" s="64"/>
+    </row>
+    <row r="138" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B138" s="155"/>
       <c r="C138" s="155"/>
       <c r="D138" s="161"/>
@@ -7044,9 +7043,9 @@
       <c r="I138" s="161"/>
       <c r="J138" s="161"/>
       <c r="K138" s="161"/>
-      <c r="L138" s="66"/>
-    </row>
-    <row r="139" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L138" s="63"/>
+    </row>
+    <row r="139" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B139" s="155"/>
       <c r="C139" s="155"/>
       <c r="D139" s="161"/>
@@ -7057,9 +7056,9 @@
       <c r="I139" s="161"/>
       <c r="J139" s="161"/>
       <c r="K139" s="161"/>
-      <c r="L139" s="66"/>
-    </row>
-    <row r="140" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L139" s="63"/>
+    </row>
+    <row r="140" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B140" s="155"/>
       <c r="C140" s="155"/>
       <c r="D140" s="161"/>
@@ -7070,9 +7069,9 @@
       <c r="I140" s="161"/>
       <c r="J140" s="161"/>
       <c r="K140" s="161"/>
-      <c r="L140" s="67"/>
-    </row>
-    <row r="141" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L140" s="64"/>
+    </row>
+    <row r="141" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B141" s="155"/>
       <c r="C141" s="155"/>
       <c r="D141" s="161"/>
@@ -7083,9 +7082,9 @@
       <c r="I141" s="161"/>
       <c r="J141" s="161"/>
       <c r="K141" s="161"/>
-      <c r="L141" s="67"/>
-    </row>
-    <row r="142" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L141" s="64"/>
+    </row>
+    <row r="142" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B142" s="155" t="s">
         <v>106</v>
       </c>
@@ -7101,9 +7100,9 @@
       <c r="I142" s="163"/>
       <c r="J142" s="163"/>
       <c r="K142" s="164"/>
-      <c r="L142" s="66"/>
-    </row>
-    <row r="143" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L142" s="63"/>
+    </row>
+    <row r="143" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B143" s="155"/>
       <c r="C143" s="155"/>
       <c r="D143" s="160" t="str">
@@ -7118,9 +7117,9 @@
       <c r="I143" s="161"/>
       <c r="J143" s="161"/>
       <c r="K143" s="161"/>
-      <c r="L143" s="68"/>
-    </row>
-    <row r="144" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L143" s="65"/>
+    </row>
+    <row r="144" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B144" s="155"/>
       <c r="C144" s="155"/>
       <c r="D144" s="161"/>
@@ -7131,9 +7130,9 @@
       <c r="I144" s="161"/>
       <c r="J144" s="161"/>
       <c r="K144" s="161"/>
-      <c r="L144" s="68"/>
-    </row>
-    <row r="145" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L144" s="65"/>
+    </row>
+    <row r="145" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B145" s="155"/>
       <c r="C145" s="155"/>
       <c r="D145" s="161"/>
@@ -7144,9 +7143,9 @@
       <c r="I145" s="161"/>
       <c r="J145" s="161"/>
       <c r="K145" s="161"/>
-      <c r="L145" s="68"/>
-    </row>
-    <row r="146" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L145" s="65"/>
+    </row>
+    <row r="146" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B146" s="155"/>
       <c r="C146" s="155"/>
       <c r="D146" s="161"/>
@@ -7157,37 +7156,37 @@
       <c r="I146" s="161"/>
       <c r="J146" s="161"/>
       <c r="K146" s="161"/>
-      <c r="L146" s="68"/>
-    </row>
-    <row r="147" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B147" s="68"/>
-      <c r="C147" s="68"/>
-      <c r="D147" s="68"/>
-      <c r="E147" s="68"/>
-      <c r="F147" s="68"/>
-      <c r="G147" s="68"/>
-      <c r="H147" s="68"/>
-      <c r="I147" s="68"/>
-      <c r="J147" s="68"/>
-      <c r="K147" s="68"/>
-      <c r="L147" s="67"/>
-    </row>
-    <row r="148" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B148" s="68" t="s">
+      <c r="L146" s="65"/>
+    </row>
+    <row r="147" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B147" s="65"/>
+      <c r="C147" s="65"/>
+      <c r="D147" s="65"/>
+      <c r="E147" s="65"/>
+      <c r="F147" s="65"/>
+      <c r="G147" s="65"/>
+      <c r="H147" s="65"/>
+      <c r="I147" s="65"/>
+      <c r="J147" s="65"/>
+      <c r="K147" s="65"/>
+      <c r="L147" s="64"/>
+    </row>
+    <row r="148" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B148" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="C148" s="68"/>
-      <c r="D148" s="68"/>
-      <c r="E148" s="68"/>
-      <c r="F148" s="68"/>
-      <c r="G148" s="68"/>
-      <c r="H148" s="68"/>
-      <c r="I148" s="68"/>
-      <c r="J148" s="68"/>
-      <c r="K148" s="69"/>
-      <c r="L148" s="67"/>
-    </row>
-    <row r="149" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C148" s="65"/>
+      <c r="D148" s="65"/>
+      <c r="E148" s="65"/>
+      <c r="F148" s="65"/>
+      <c r="G148" s="65"/>
+      <c r="H148" s="65"/>
+      <c r="I148" s="65"/>
+      <c r="J148" s="65"/>
+      <c r="K148" s="66"/>
+      <c r="L148" s="64"/>
+    </row>
+    <row r="149" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B149" s="155" t="s">
         <v>80</v>
       </c>
@@ -7208,16 +7207,16 @@
         <v>111</v>
       </c>
       <c r="K149" s="165"/>
-      <c r="L149" s="67"/>
-    </row>
-    <row r="150" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L149" s="64"/>
+    </row>
+    <row r="150" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B150" s="155" t="s">
         <v>112</v>
       </c>
       <c r="C150" s="155"/>
       <c r="D150" s="166" t="str">
         <f>記入!B29</f>
-        <v>${cv.contractnumber.get(0).deliverydate}</v>
+        <v>${ba1[0].deliverydate}</v>
       </c>
       <c r="E150" s="165"/>
       <c r="F150" s="166" t="e">
@@ -7235,16 +7234,16 @@
         <v>#REF!</v>
       </c>
       <c r="K150" s="165"/>
-      <c r="L150" s="68"/>
-    </row>
-    <row r="151" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L150" s="65"/>
+    </row>
+    <row r="151" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B151" s="155" t="s">
         <v>113</v>
       </c>
       <c r="C151" s="155"/>
       <c r="D151" s="166" t="str">
         <f>記入!C29</f>
-        <v>${cv[0].completiondate}</v>
+        <v>${ba1[0].completiondate}</v>
       </c>
       <c r="E151" s="165"/>
       <c r="F151" s="166" t="e">
@@ -7262,16 +7261,16 @@
         <v>#REF!</v>
       </c>
       <c r="K151" s="165"/>
-      <c r="L151" s="66"/>
-    </row>
-    <row r="152" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L151" s="63"/>
+    </row>
+    <row r="152" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B152" s="155" t="s">
         <v>114</v>
       </c>
       <c r="C152" s="155"/>
       <c r="D152" s="167" t="str">
         <f>記入!D29</f>
-        <v>${cv[0].claimdate}</v>
+        <v>${ba1[0].claimdate}</v>
       </c>
       <c r="E152" s="168"/>
       <c r="F152" s="166" t="e">
@@ -7289,16 +7288,16 @@
         <v>#REF!</v>
       </c>
       <c r="K152" s="165"/>
-      <c r="L152" s="66"/>
-    </row>
-    <row r="153" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L152" s="63"/>
+    </row>
+    <row r="153" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B153" s="155" t="s">
         <v>115</v>
       </c>
       <c r="C153" s="155"/>
       <c r="D153" s="167" t="str">
         <f>記入!E29</f>
-        <v>${cv[0].supportdate}</v>
+        <v>${ba1[0].supportdate}</v>
       </c>
       <c r="E153" s="168"/>
       <c r="F153" s="166" t="e">
@@ -7316,16 +7315,16 @@
         <v>#REF!</v>
       </c>
       <c r="K153" s="165"/>
-      <c r="L153" s="66"/>
-    </row>
-    <row r="154" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L153" s="63"/>
+    </row>
+    <row r="154" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B154" s="155" t="s">
         <v>116</v>
       </c>
       <c r="C154" s="155"/>
       <c r="D154" s="169" t="str">
         <f>記入!F29</f>
-        <v>${cv[0].claimamount}</v>
+        <v>${ba1[0].claimamount}</v>
       </c>
       <c r="E154" s="168"/>
       <c r="F154" s="170" t="e">
@@ -7343,9 +7342,9 @@
         <v>#REF!</v>
       </c>
       <c r="K154" s="165"/>
-      <c r="L154" s="66"/>
-    </row>
-    <row r="155" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L154" s="63"/>
+    </row>
+    <row r="155" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B155" s="155" t="s">
         <v>117</v>
       </c>
@@ -7370,9 +7369,9 @@
         <v>${cv.contractnumber}-4</v>
       </c>
       <c r="K155" s="165"/>
-      <c r="L155" s="66"/>
-    </row>
-    <row r="156" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L155" s="63"/>
+    </row>
+    <row r="156" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B156" s="155" t="s">
         <v>91</v>
       </c>
@@ -7387,9 +7386,9 @@
       <c r="I156" s="165"/>
       <c r="J156" s="165"/>
       <c r="K156" s="165"/>
-      <c r="L156" s="67"/>
-    </row>
-    <row r="157" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L156" s="64"/>
+    </row>
+    <row r="157" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B157" s="155" t="s">
         <v>118</v>
       </c>
@@ -7404,37 +7403,37 @@
       <c r="I157" s="165"/>
       <c r="J157" s="165"/>
       <c r="K157" s="165"/>
-      <c r="L157" s="67"/>
-    </row>
-    <row r="158" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B158" s="68"/>
-      <c r="C158" s="68"/>
-      <c r="D158" s="68"/>
-      <c r="E158" s="68"/>
-      <c r="F158" s="68"/>
-      <c r="G158" s="68"/>
-      <c r="H158" s="68"/>
-      <c r="I158" s="68"/>
-      <c r="J158" s="68"/>
-      <c r="K158" s="68"/>
-      <c r="L158" s="68"/>
-    </row>
-    <row r="159" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B159" s="68" t="s">
+      <c r="L157" s="64"/>
+    </row>
+    <row r="158" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B158" s="65"/>
+      <c r="C158" s="65"/>
+      <c r="D158" s="65"/>
+      <c r="E158" s="65"/>
+      <c r="F158" s="65"/>
+      <c r="G158" s="65"/>
+      <c r="H158" s="65"/>
+      <c r="I158" s="65"/>
+      <c r="J158" s="65"/>
+      <c r="K158" s="65"/>
+      <c r="L158" s="65"/>
+    </row>
+    <row r="159" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B159" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="C159" s="68"/>
-      <c r="D159" s="68"/>
-      <c r="E159" s="70"/>
-      <c r="F159" s="68"/>
-      <c r="G159" s="68"/>
-      <c r="H159" s="68"/>
-      <c r="I159" s="68"/>
-      <c r="J159" s="68"/>
-      <c r="K159" s="68"/>
-      <c r="L159" s="68"/>
-    </row>
-    <row r="160" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C159" s="65"/>
+      <c r="D159" s="65"/>
+      <c r="E159" s="67"/>
+      <c r="F159" s="65"/>
+      <c r="G159" s="65"/>
+      <c r="H159" s="65"/>
+      <c r="I159" s="65"/>
+      <c r="J159" s="65"/>
+      <c r="K159" s="65"/>
+      <c r="L159" s="65"/>
+    </row>
+    <row r="160" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B160" s="171" t="s">
         <v>122</v>
       </c>
@@ -7450,9 +7449,9 @@
       <c r="I160" s="171"/>
       <c r="J160" s="171"/>
       <c r="K160" s="171"/>
-      <c r="L160" s="68"/>
-    </row>
-    <row r="161" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L160" s="65"/>
+    </row>
+    <row r="161" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B161" s="172"/>
       <c r="C161" s="172"/>
       <c r="D161" s="172"/>
@@ -7463,9 +7462,9 @@
       <c r="I161" s="172"/>
       <c r="J161" s="172"/>
       <c r="K161" s="172"/>
-      <c r="L161" s="68"/>
-    </row>
-    <row r="162" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L161" s="65"/>
+    </row>
+    <row r="162" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B162" s="172"/>
       <c r="C162" s="172"/>
       <c r="D162" s="172"/>
@@ -7476,9 +7475,9 @@
       <c r="I162" s="172"/>
       <c r="J162" s="172"/>
       <c r="K162" s="172"/>
-      <c r="L162" s="66"/>
-    </row>
-    <row r="163" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L162" s="63"/>
+    </row>
+    <row r="163" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B163" s="173"/>
       <c r="C163" s="173"/>
       <c r="D163" s="173"/>
@@ -7489,233 +7488,233 @@
       <c r="I163" s="173"/>
       <c r="J163" s="173"/>
       <c r="K163" s="173"/>
-      <c r="L163" s="68"/>
-    </row>
-    <row r="164" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B164" s="71"/>
-      <c r="C164" s="71"/>
-      <c r="D164" s="71"/>
-      <c r="E164" s="72"/>
-      <c r="F164" s="72"/>
-      <c r="G164" s="72"/>
-      <c r="H164" s="72"/>
-      <c r="I164" s="72"/>
-      <c r="J164" s="72"/>
-      <c r="K164" s="72"/>
-      <c r="L164" s="72"/>
-    </row>
-    <row r="165" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B165" s="67"/>
-      <c r="C165" s="67"/>
-      <c r="D165" s="67"/>
-      <c r="E165" s="68"/>
-      <c r="F165" s="68"/>
-      <c r="G165" s="68"/>
-      <c r="H165" s="68"/>
-      <c r="I165" s="68"/>
-      <c r="J165" s="68"/>
-      <c r="K165" s="68"/>
-      <c r="L165" s="68"/>
-    </row>
-    <row r="166" spans="2:12" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B166" s="67"/>
-      <c r="C166" s="68"/>
-      <c r="D166" s="68"/>
-      <c r="E166" s="70"/>
-      <c r="F166" s="68"/>
-      <c r="G166" s="68"/>
-      <c r="H166" s="68"/>
-      <c r="I166" s="68"/>
-      <c r="J166" s="68"/>
-      <c r="K166" s="68" t="s">
+      <c r="L163" s="65"/>
+    </row>
+    <row r="164" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B164" s="68"/>
+      <c r="C164" s="68"/>
+      <c r="D164" s="68"/>
+      <c r="E164" s="69"/>
+      <c r="F164" s="69"/>
+      <c r="G164" s="69"/>
+      <c r="H164" s="69"/>
+      <c r="I164" s="69"/>
+      <c r="J164" s="69"/>
+      <c r="K164" s="69"/>
+      <c r="L164" s="69"/>
+    </row>
+    <row r="165" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B165" s="64"/>
+      <c r="C165" s="64"/>
+      <c r="D165" s="64"/>
+      <c r="E165" s="65"/>
+      <c r="F165" s="65"/>
+      <c r="G165" s="65"/>
+      <c r="H165" s="65"/>
+      <c r="I165" s="65"/>
+      <c r="J165" s="65"/>
+      <c r="K165" s="65"/>
+      <c r="L165" s="65"/>
+    </row>
+    <row r="166" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B166" s="64"/>
+      <c r="C166" s="65"/>
+      <c r="D166" s="65"/>
+      <c r="E166" s="67"/>
+      <c r="F166" s="65"/>
+      <c r="G166" s="65"/>
+      <c r="H166" s="65"/>
+      <c r="I166" s="65"/>
+      <c r="J166" s="65"/>
+      <c r="K166" s="65" t="s">
         <v>123</v>
       </c>
-      <c r="L166" s="68"/>
-    </row>
-    <row r="167" spans="2:12" s="61" customFormat="1" ht="14.25">
-      <c r="B167" s="67"/>
-      <c r="C167" s="68"/>
-      <c r="D167" s="68"/>
-      <c r="E167" s="73"/>
-      <c r="F167" s="68"/>
-      <c r="G167" s="68"/>
-      <c r="H167" s="68"/>
-      <c r="I167" s="68"/>
-      <c r="J167" s="68"/>
-      <c r="K167" s="68"/>
-      <c r="L167" s="68"/>
-    </row>
-    <row r="168" spans="2:12" s="61" customFormat="1" ht="14.25">
-      <c r="B168" s="67"/>
-      <c r="C168" s="68"/>
-      <c r="D168" s="68"/>
-      <c r="E168" s="73"/>
-      <c r="F168" s="68"/>
-      <c r="G168" s="68"/>
-      <c r="H168" s="68"/>
-      <c r="I168" s="68"/>
-      <c r="J168" s="68"/>
-      <c r="K168" s="68"/>
-      <c r="L168" s="68"/>
-    </row>
-    <row r="169" spans="2:12" s="61" customFormat="1" ht="14.25">
-      <c r="B169" s="67"/>
-      <c r="C169" s="68"/>
-      <c r="D169" s="68"/>
-      <c r="E169" s="68"/>
-      <c r="F169" s="68"/>
-      <c r="G169" s="68"/>
-      <c r="H169" s="68"/>
-      <c r="I169" s="68"/>
-      <c r="J169" s="68"/>
-      <c r="K169" s="68"/>
-      <c r="L169" s="68"/>
-    </row>
-    <row r="170" spans="2:12" s="61" customFormat="1" ht="14.25">
-      <c r="B170" s="67"/>
-      <c r="C170" s="68"/>
-      <c r="D170" s="68"/>
-      <c r="E170" s="66"/>
-      <c r="F170" s="66"/>
-      <c r="G170" s="66"/>
-      <c r="H170" s="66"/>
-      <c r="I170" s="66"/>
-      <c r="J170" s="66"/>
-      <c r="K170" s="66"/>
-      <c r="L170" s="66"/>
-    </row>
-    <row r="171" spans="2:12" s="61" customFormat="1" ht="14.25">
-      <c r="B171" s="67"/>
-      <c r="C171" s="68"/>
-      <c r="D171" s="68"/>
-      <c r="E171" s="68"/>
-      <c r="F171" s="68"/>
-      <c r="G171" s="68"/>
-      <c r="H171" s="68"/>
-      <c r="I171" s="68"/>
-      <c r="J171" s="68"/>
-      <c r="K171" s="68"/>
-      <c r="L171" s="68"/>
-    </row>
-    <row r="172" spans="2:12" s="61" customFormat="1">
-      <c r="B172" s="71"/>
-      <c r="C172" s="71"/>
-      <c r="D172" s="71"/>
-      <c r="E172" s="72"/>
-      <c r="F172" s="72"/>
-      <c r="G172" s="72"/>
-      <c r="H172" s="72"/>
-      <c r="I172" s="72"/>
-      <c r="J172" s="72"/>
-      <c r="K172" s="72"/>
-      <c r="L172" s="72"/>
-    </row>
-    <row r="173" spans="2:12" s="61" customFormat="1" ht="14.25">
-      <c r="B173" s="67"/>
-      <c r="C173" s="67"/>
-      <c r="D173" s="67"/>
-      <c r="E173" s="68"/>
-      <c r="F173" s="68"/>
-      <c r="G173" s="68"/>
-      <c r="H173" s="68"/>
-      <c r="I173" s="68"/>
-      <c r="J173" s="68"/>
-      <c r="K173" s="68"/>
-      <c r="L173" s="68"/>
-    </row>
-    <row r="174" spans="2:12" s="61" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B174" s="67"/>
-      <c r="C174" s="68"/>
-      <c r="D174" s="68"/>
-      <c r="E174" s="70"/>
-      <c r="F174" s="68"/>
-      <c r="G174" s="68"/>
-      <c r="H174" s="68"/>
-      <c r="I174" s="68"/>
-      <c r="J174" s="68"/>
-      <c r="K174" s="68"/>
-      <c r="L174" s="68"/>
-    </row>
-    <row r="175" spans="2:12" s="61" customFormat="1" ht="14.25">
-      <c r="B175" s="67"/>
-      <c r="C175" s="68"/>
-      <c r="D175" s="68"/>
-      <c r="E175" s="73"/>
-      <c r="F175" s="68"/>
-      <c r="G175" s="68"/>
-      <c r="H175" s="68"/>
-      <c r="I175" s="68"/>
-      <c r="J175" s="68"/>
-      <c r="K175" s="68"/>
-      <c r="L175" s="68"/>
-    </row>
-    <row r="176" spans="2:12" s="61" customFormat="1" ht="14.25">
-      <c r="B176" s="67"/>
-      <c r="C176" s="68"/>
-      <c r="D176" s="68"/>
-      <c r="E176" s="73"/>
-      <c r="F176" s="68"/>
-      <c r="G176" s="68"/>
-      <c r="H176" s="68"/>
-      <c r="I176" s="68"/>
-      <c r="J176" s="68"/>
-      <c r="K176" s="68"/>
-      <c r="L176" s="68"/>
-    </row>
-    <row r="177" spans="2:12" s="61" customFormat="1" ht="14.25">
-      <c r="B177" s="67"/>
-      <c r="C177" s="68"/>
-      <c r="D177" s="68"/>
-      <c r="E177" s="68"/>
-      <c r="F177" s="68"/>
-      <c r="G177" s="68"/>
-      <c r="H177" s="68"/>
-      <c r="I177" s="68"/>
-      <c r="J177" s="68"/>
-      <c r="K177" s="68"/>
-      <c r="L177" s="68"/>
-    </row>
-    <row r="178" spans="2:12" s="61" customFormat="1" ht="14.25">
-      <c r="B178" s="67"/>
-      <c r="C178" s="68"/>
-      <c r="D178" s="68"/>
-      <c r="E178" s="66"/>
-      <c r="F178" s="66"/>
-      <c r="G178" s="66"/>
-      <c r="H178" s="66"/>
-      <c r="I178" s="66"/>
-      <c r="J178" s="66"/>
-      <c r="K178" s="66"/>
-      <c r="L178" s="66"/>
-    </row>
-    <row r="179" spans="2:12" s="61" customFormat="1" ht="14.25">
-      <c r="B179" s="67"/>
-      <c r="C179" s="68"/>
-      <c r="D179" s="68"/>
-      <c r="E179" s="68"/>
-      <c r="F179" s="68"/>
-      <c r="G179" s="68"/>
-      <c r="H179" s="68"/>
-      <c r="I179" s="68"/>
-      <c r="J179" s="68"/>
-      <c r="K179" s="68"/>
-      <c r="L179" s="68"/>
-    </row>
-    <row r="180" spans="2:12" s="61" customFormat="1">
-      <c r="B180" s="74"/>
-      <c r="C180" s="74"/>
-      <c r="D180" s="74"/>
-      <c r="E180" s="74"/>
-      <c r="F180" s="74"/>
-      <c r="G180" s="74"/>
-      <c r="H180" s="74"/>
-      <c r="I180" s="74"/>
-      <c r="J180" s="74"/>
-      <c r="K180" s="74"/>
-      <c r="L180" s="74"/>
-    </row>
-    <row r="181" spans="2:12" s="61" customFormat="1" ht="14.25">
-      <c r="L181" s="75"/>
+      <c r="L166" s="65"/>
+    </row>
+    <row r="167" spans="2:12" s="58" customFormat="1" ht="14.25">
+      <c r="B167" s="64"/>
+      <c r="C167" s="65"/>
+      <c r="D167" s="65"/>
+      <c r="E167" s="70"/>
+      <c r="F167" s="65"/>
+      <c r="G167" s="65"/>
+      <c r="H167" s="65"/>
+      <c r="I167" s="65"/>
+      <c r="J167" s="65"/>
+      <c r="K167" s="65"/>
+      <c r="L167" s="65"/>
+    </row>
+    <row r="168" spans="2:12" s="58" customFormat="1" ht="14.25">
+      <c r="B168" s="64"/>
+      <c r="C168" s="65"/>
+      <c r="D168" s="65"/>
+      <c r="E168" s="70"/>
+      <c r="F168" s="65"/>
+      <c r="G168" s="65"/>
+      <c r="H168" s="65"/>
+      <c r="I168" s="65"/>
+      <c r="J168" s="65"/>
+      <c r="K168" s="65"/>
+      <c r="L168" s="65"/>
+    </row>
+    <row r="169" spans="2:12" s="58" customFormat="1" ht="14.25">
+      <c r="B169" s="64"/>
+      <c r="C169" s="65"/>
+      <c r="D169" s="65"/>
+      <c r="E169" s="65"/>
+      <c r="F169" s="65"/>
+      <c r="G169" s="65"/>
+      <c r="H169" s="65"/>
+      <c r="I169" s="65"/>
+      <c r="J169" s="65"/>
+      <c r="K169" s="65"/>
+      <c r="L169" s="65"/>
+    </row>
+    <row r="170" spans="2:12" s="58" customFormat="1" ht="14.25">
+      <c r="B170" s="64"/>
+      <c r="C170" s="65"/>
+      <c r="D170" s="65"/>
+      <c r="E170" s="63"/>
+      <c r="F170" s="63"/>
+      <c r="G170" s="63"/>
+      <c r="H170" s="63"/>
+      <c r="I170" s="63"/>
+      <c r="J170" s="63"/>
+      <c r="K170" s="63"/>
+      <c r="L170" s="63"/>
+    </row>
+    <row r="171" spans="2:12" s="58" customFormat="1" ht="14.25">
+      <c r="B171" s="64"/>
+      <c r="C171" s="65"/>
+      <c r="D171" s="65"/>
+      <c r="E171" s="65"/>
+      <c r="F171" s="65"/>
+      <c r="G171" s="65"/>
+      <c r="H171" s="65"/>
+      <c r="I171" s="65"/>
+      <c r="J171" s="65"/>
+      <c r="K171" s="65"/>
+      <c r="L171" s="65"/>
+    </row>
+    <row r="172" spans="2:12" s="58" customFormat="1">
+      <c r="B172" s="68"/>
+      <c r="C172" s="68"/>
+      <c r="D172" s="68"/>
+      <c r="E172" s="69"/>
+      <c r="F172" s="69"/>
+      <c r="G172" s="69"/>
+      <c r="H172" s="69"/>
+      <c r="I172" s="69"/>
+      <c r="J172" s="69"/>
+      <c r="K172" s="69"/>
+      <c r="L172" s="69"/>
+    </row>
+    <row r="173" spans="2:12" s="58" customFormat="1" ht="14.25">
+      <c r="B173" s="64"/>
+      <c r="C173" s="64"/>
+      <c r="D173" s="64"/>
+      <c r="E173" s="65"/>
+      <c r="F173" s="65"/>
+      <c r="G173" s="65"/>
+      <c r="H173" s="65"/>
+      <c r="I173" s="65"/>
+      <c r="J173" s="65"/>
+      <c r="K173" s="65"/>
+      <c r="L173" s="65"/>
+    </row>
+    <row r="174" spans="2:12" s="58" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B174" s="64"/>
+      <c r="C174" s="65"/>
+      <c r="D174" s="65"/>
+      <c r="E174" s="67"/>
+      <c r="F174" s="65"/>
+      <c r="G174" s="65"/>
+      <c r="H174" s="65"/>
+      <c r="I174" s="65"/>
+      <c r="J174" s="65"/>
+      <c r="K174" s="65"/>
+      <c r="L174" s="65"/>
+    </row>
+    <row r="175" spans="2:12" s="58" customFormat="1" ht="14.25">
+      <c r="B175" s="64"/>
+      <c r="C175" s="65"/>
+      <c r="D175" s="65"/>
+      <c r="E175" s="70"/>
+      <c r="F175" s="65"/>
+      <c r="G175" s="65"/>
+      <c r="H175" s="65"/>
+      <c r="I175" s="65"/>
+      <c r="J175" s="65"/>
+      <c r="K175" s="65"/>
+      <c r="L175" s="65"/>
+    </row>
+    <row r="176" spans="2:12" s="58" customFormat="1" ht="14.25">
+      <c r="B176" s="64"/>
+      <c r="C176" s="65"/>
+      <c r="D176" s="65"/>
+      <c r="E176" s="70"/>
+      <c r="F176" s="65"/>
+      <c r="G176" s="65"/>
+      <c r="H176" s="65"/>
+      <c r="I176" s="65"/>
+      <c r="J176" s="65"/>
+      <c r="K176" s="65"/>
+      <c r="L176" s="65"/>
+    </row>
+    <row r="177" spans="2:12" s="58" customFormat="1" ht="14.25">
+      <c r="B177" s="64"/>
+      <c r="C177" s="65"/>
+      <c r="D177" s="65"/>
+      <c r="E177" s="65"/>
+      <c r="F177" s="65"/>
+      <c r="G177" s="65"/>
+      <c r="H177" s="65"/>
+      <c r="I177" s="65"/>
+      <c r="J177" s="65"/>
+      <c r="K177" s="65"/>
+      <c r="L177" s="65"/>
+    </row>
+    <row r="178" spans="2:12" s="58" customFormat="1" ht="14.25">
+      <c r="B178" s="64"/>
+      <c r="C178" s="65"/>
+      <c r="D178" s="65"/>
+      <c r="E178" s="63"/>
+      <c r="F178" s="63"/>
+      <c r="G178" s="63"/>
+      <c r="H178" s="63"/>
+      <c r="I178" s="63"/>
+      <c r="J178" s="63"/>
+      <c r="K178" s="63"/>
+      <c r="L178" s="63"/>
+    </row>
+    <row r="179" spans="2:12" s="58" customFormat="1" ht="14.25">
+      <c r="B179" s="64"/>
+      <c r="C179" s="65"/>
+      <c r="D179" s="65"/>
+      <c r="E179" s="65"/>
+      <c r="F179" s="65"/>
+      <c r="G179" s="65"/>
+      <c r="H179" s="65"/>
+      <c r="I179" s="65"/>
+      <c r="J179" s="65"/>
+      <c r="K179" s="65"/>
+      <c r="L179" s="65"/>
+    </row>
+    <row r="180" spans="2:12" s="58" customFormat="1">
+      <c r="B180" s="71"/>
+      <c r="C180" s="71"/>
+      <c r="D180" s="71"/>
+      <c r="E180" s="71"/>
+      <c r="F180" s="71"/>
+      <c r="G180" s="71"/>
+      <c r="H180" s="71"/>
+      <c r="I180" s="71"/>
+      <c r="J180" s="71"/>
+      <c r="K180" s="71"/>
+      <c r="L180" s="71"/>
+    </row>
+    <row r="181" spans="2:12" s="58" customFormat="1" ht="14.25">
+      <c r="L181" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -7781,7 +7780,7 @@
     <mergeCell ref="K59:L59"/>
     <mergeCell ref="D8:E8"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
   <headerFooter>

--- a/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\newparkcloud\controller\src\main\resources\jxls_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\P-FANS\newparkcloud\controller\src\main\resources\jxls_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570"/>
+    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="179">
   <si>
     <t>委託元（和文）</t>
     <rPh sb="4" eb="6">
@@ -1221,10 +1221,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>${cv.depositjapanese}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>${cv.depositchinese}</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1368,47 +1364,59 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>${ba1[1].completiondate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[1].supportdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[2].deliverydate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[2].completiondate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[2].claimdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[2].supportdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[3].deliverydate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[3].completiondate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[3].supportdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[3].claimamount}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${cv.depositjapanese}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${cv.depositjapanese}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>${ba1[1].deliverydate}</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>${ba1[1].completiondate}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${ba1[1].supportdate}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${ba1[2].deliverydate}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${ba1[2].completiondate}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${ba1[2].claimdate}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${ba1[2].supportdate}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${ba1[3].deliverydate}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${ba1[3].completiondate}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${ba1[3].supportdate}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${ba1[3].claimamount}</t>
+    <t>${cv.depositchinese}</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1904,7 +1912,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2086,300 +2094,297 @@
     <xf numFmtId="40" fontId="7" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2694,8 +2699,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2712,28 +2717,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="G1" s="78" t="s">
+      <c r="B1" s="113"/>
+      <c r="G1" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="79"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="81"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="117"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="37" t="s">
@@ -2743,21 +2748,21 @@
       <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="117"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="36" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="80"/>
-      <c r="H4" s="81"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="117"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="36" t="s">
@@ -2767,34 +2772,34 @@
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="80"/>
-      <c r="H5" s="81"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="117"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="38" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="80"/>
-      <c r="H6" s="81"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="117"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="38" t="s">
         <v>33</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="117"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="36" t="s">
@@ -2804,60 +2809,60 @@
       <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="80"/>
-      <c r="H8" s="81"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="117"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="37" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="81"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="80"/>
-      <c r="H10" s="81"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="117"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="80"/>
-      <c r="H11" s="81"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="117"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="80"/>
-      <c r="H12" s="81"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="117"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="36" t="s">
@@ -2867,34 +2872,34 @@
       <c r="C13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="80"/>
-      <c r="H13" s="81"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="117"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="80"/>
-      <c r="H14" s="81"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="117"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="36" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="117"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="36" t="s">
@@ -2904,8 +2909,8 @@
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="80"/>
-      <c r="H16" s="81"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="117"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="36" t="s">
@@ -2915,8 +2920,8 @@
       <c r="C17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="80"/>
-      <c r="H17" s="81"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="117"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="36" t="s">
@@ -2926,34 +2931,34 @@
       <c r="C18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="80"/>
-      <c r="H18" s="81"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="117"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="36" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="80"/>
-      <c r="H19" s="81"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="117"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="80"/>
-      <c r="H20" s="81"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="117"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="36" t="s">
@@ -2963,8 +2968,8 @@
       <c r="C21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="80"/>
-      <c r="H21" s="81"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="117"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="36" t="s">
@@ -2974,8 +2979,8 @@
       <c r="C22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="80"/>
-      <c r="H22" s="81"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="117"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="37" t="s">
@@ -2985,8 +2990,8 @@
       <c r="C23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="80"/>
-      <c r="H23" s="81"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="117"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A24" s="37" t="s">
@@ -2996,8 +3001,8 @@
       <c r="C24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="80"/>
-      <c r="H24" s="81"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="117"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A25" s="37" t="s">
@@ -3009,8 +3014,8 @@
       <c r="C25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="80"/>
-      <c r="H25" s="81"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="117"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="37" t="s">
@@ -3022,14 +3027,14 @@
       <c r="C26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="80"/>
-      <c r="H26" s="81"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="117"/>
     </row>
     <row r="27" spans="1:8" ht="1.5" hidden="1" customHeight="1">
       <c r="A27" s="39"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="81"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="117"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="40" t="s">
@@ -3050,97 +3055,97 @@
       <c r="F28" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="80"/>
-      <c r="H28" s="81"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="117"/>
     </row>
     <row r="29" spans="1:8" ht="13.5">
-      <c r="A29" s="174" t="str">
+      <c r="A29" s="77" t="str">
         <f>IF(B29="","","第一回")</f>
         <v>第一回</v>
       </c>
       <c r="B29" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="75" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="D29" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="E29" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="F29" s="76" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="76" t="s">
-        <v>165</v>
-      </c>
-      <c r="G29" s="82"/>
-      <c r="H29" s="81"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="117"/>
     </row>
     <row r="30" spans="1:8" ht="13.5">
-      <c r="A30" s="174" t="str">
+      <c r="A30" s="77" t="str">
         <f>IF(B30="","","第二回")</f>
         <v>第二回</v>
       </c>
       <c r="B30" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="C30" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30" s="74" t="s">
+      <c r="F30" s="76" t="s">
         <v>157</v>
-      </c>
-      <c r="E30" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="F30" s="76" t="s">
-        <v>158</v>
       </c>
       <c r="G30" s="73"/>
       <c r="H30" s="73"/>
     </row>
     <row r="31" spans="1:8" ht="13.5">
-      <c r="A31" s="174" t="str">
+      <c r="A31" s="77" t="str">
         <f>IF(B31="","","第三回")</f>
         <v>第三回</v>
       </c>
       <c r="B31" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="D31" s="74" t="s">
         <v>169</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="E31" s="74" t="s">
         <v>170</v>
       </c>
-      <c r="D31" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31" s="74" t="s">
-        <v>172</v>
-      </c>
       <c r="F31" s="76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G31" s="73"/>
       <c r="H31" s="73"/>
     </row>
     <row r="32" spans="1:8" ht="13.5">
-      <c r="A32" s="174" t="str">
+      <c r="A32" s="77" t="str">
         <f>IF(B32="","","第四回")</f>
         <v>第四回</v>
       </c>
       <c r="B32" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="74" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="F32" s="76" t="s">
         <v>174</v>
-      </c>
-      <c r="D32" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" s="76" t="s">
-        <v>176</v>
       </c>
       <c r="G32" s="73"/>
       <c r="H32" s="73"/>
@@ -3158,297 +3163,303 @@
         <v>70</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="83" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="84"/>
-      <c r="E35" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="F35" s="86"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="121" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" s="122"/>
     </row>
     <row r="36" spans="1:6" ht="13.5">
       <c r="A36" s="13" t="s">
         <v>71</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="84"/>
-      <c r="E36" s="85" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" s="86"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="121" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="122"/>
     </row>
     <row r="37" spans="1:6" ht="13.5">
       <c r="A37" s="57" t="s">
         <v>61</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C37" s="43"/>
       <c r="D37" s="43"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A38" s="91" t="s">
+      <c r="A38" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="96" t="s">
+      <c r="B38" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="89"/>
+    </row>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A39" s="83"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="91"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="92"/>
+    </row>
+    <row r="40" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A40" s="83"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="92"/>
+    </row>
+    <row r="41" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A41" s="83"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="92"/>
+    </row>
+    <row r="42" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A42" s="83"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91"/>
+      <c r="F42" s="92"/>
+    </row>
+    <row r="43" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A43" s="84"/>
+      <c r="B43" s="93"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="95"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="B44" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+    </row>
+    <row r="45" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A45" s="110"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="109"/>
+      <c r="D45" s="109"/>
+      <c r="E45" s="109"/>
+      <c r="F45" s="109"/>
+    </row>
+    <row r="46" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A46" s="110"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="109"/>
+    </row>
+    <row r="47" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A47" s="110"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="109"/>
+    </row>
+    <row r="48" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A48" s="110"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="109"/>
+    </row>
+    <row r="49" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A49" s="110"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+    </row>
+    <row r="50" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A50" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="107"/>
+    </row>
+    <row r="51" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A51" s="85"/>
+      <c r="B51" s="96" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="98"/>
-    </row>
-    <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="92"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="101"/>
-    </row>
-    <row r="40" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A40" s="92"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="101"/>
-    </row>
-    <row r="41" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A41" s="92"/>
-      <c r="B41" s="99"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="101"/>
-    </row>
-    <row r="42" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A42" s="92"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="100"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="101"/>
-    </row>
-    <row r="43" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A43" s="93"/>
-      <c r="B43" s="102"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="104"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="119" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="117" t="s">
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="98"/>
+    </row>
+    <row r="52" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A52" s="85"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="100"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="100"/>
+      <c r="F52" s="101"/>
+    </row>
+    <row r="53" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A53" s="85"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="100"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="100"/>
+      <c r="F53" s="101"/>
+    </row>
+    <row r="54" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A54" s="86"/>
+      <c r="B54" s="102"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="104"/>
+    </row>
+    <row r="55" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A55" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" s="105" t="s">
         <v>150</v>
       </c>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-    </row>
-    <row r="45" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A45" s="119"/>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-    </row>
-    <row r="46" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A46" s="119"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-    </row>
-    <row r="47" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A47" s="119"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
-      <c r="D47" s="118"/>
-      <c r="E47" s="118"/>
-      <c r="F47" s="118"/>
-    </row>
-    <row r="48" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A48" s="119"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="118"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="118"/>
-      <c r="F48" s="118"/>
-    </row>
-    <row r="49" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A49" s="119"/>
-      <c r="B49" s="118"/>
-      <c r="C49" s="118"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="118"/>
-      <c r="F49" s="118"/>
-    </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A50" s="91" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" s="114" t="s">
-        <v>149</v>
-      </c>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="116"/>
-    </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A51" s="94"/>
-      <c r="B51" s="105" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="106"/>
-      <c r="F51" s="107"/>
-    </row>
-    <row r="52" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A52" s="94"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="110"/>
-    </row>
-    <row r="53" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A53" s="94"/>
-      <c r="B53" s="108"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="110"/>
-    </row>
-    <row r="54" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A54" s="95"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="112"/>
-      <c r="D54" s="112"/>
-      <c r="E54" s="112"/>
-      <c r="F54" s="113"/>
-    </row>
-    <row r="55" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A55" s="120" t="s">
-        <v>126</v>
-      </c>
-      <c r="B55" s="114" t="s">
+      <c r="C55" s="106"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="107"/>
+    </row>
+    <row r="56" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A56" s="111"/>
+      <c r="B56" s="112" t="s">
         <v>151</v>
       </c>
-      <c r="C55" s="115"/>
-      <c r="D55" s="115"/>
-      <c r="E55" s="115"/>
-      <c r="F55" s="116"/>
-    </row>
-    <row r="56" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A56" s="120"/>
-      <c r="B56" s="121" t="s">
+      <c r="C56" s="81"/>
+      <c r="D56" s="81"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+    </row>
+    <row r="57" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A57" s="111"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+    </row>
+    <row r="58" spans="1:6" ht="13.5" customHeight="1">
+      <c r="A58" s="111"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="81"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="111"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="80" t="s">
         <v>152</v>
       </c>
-      <c r="C56" s="90"/>
-      <c r="D56" s="90"/>
-      <c r="E56" s="90"/>
-      <c r="F56" s="90"/>
-    </row>
-    <row r="57" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A57" s="120"/>
-      <c r="B57" s="90"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-    </row>
-    <row r="58" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A58" s="120"/>
-      <c r="B58" s="90"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="90"/>
-      <c r="E58" s="90"/>
-      <c r="F58" s="90"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="120"/>
-      <c r="B59" s="90"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="90"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="89" t="s">
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="78"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="81"/>
+      <c r="D61" s="81"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="78"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" s="80" t="s">
         <v>153</v>
       </c>
-      <c r="C60" s="90"/>
-      <c r="D60" s="90"/>
-      <c r="E60" s="90"/>
-      <c r="F60" s="90"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="87"/>
-      <c r="B61" s="90"/>
-      <c r="C61" s="90"/>
-      <c r="D61" s="90"/>
-      <c r="E61" s="90"/>
-      <c r="F61" s="90"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="87"/>
-      <c r="B62" s="90"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="B63" s="89" t="s">
-        <v>154</v>
-      </c>
-      <c r="C63" s="90"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="88"/>
-      <c r="B64" s="90"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
+      <c r="A64" s="79"/>
+      <c r="B64" s="81"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="88"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="90"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
-      <c r="F65" s="90"/>
+      <c r="A65" s="79"/>
+      <c r="B65" s="81"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:H29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="B60:F62"/>
@@ -3463,12 +3474,6 @@
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="B55:F55"/>
     <mergeCell ref="B56:F59"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G1:H29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="2">
@@ -3490,8 +3495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L190"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A118" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A145" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F150" sqref="F150:K154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3507,18 +3512,18 @@
       <c r="J2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="122" t="str">
+      <c r="K2" s="138" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="122"/>
+      <c r="L2" s="138"/>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="F3" s="123" t="s">
+      <c r="F3" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="17" t="s">
@@ -3578,11 +3583,11 @@
         <v>67</v>
       </c>
       <c r="C8" s="45"/>
-      <c r="D8" s="127" t="str">
+      <c r="D8" s="147" t="str">
         <f>記入!B37</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E8" s="127"/>
+      <c r="E8" s="147"/>
       <c r="F8" s="46" t="s">
         <v>62</v>
       </c>
@@ -3622,617 +3627,617 @@
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="124"/>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
+      <c r="B12" s="144"/>
+      <c r="C12" s="144"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
+      <c r="B13" s="144"/>
+      <c r="C13" s="144"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="124"/>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="124"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="124"/>
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
-      <c r="D15" s="124"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="124"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="124"/>
-      <c r="L15" s="124"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="144"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
-      <c r="D16" s="124"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="124"/>
-      <c r="J16" s="124"/>
-      <c r="K16" s="124"/>
-      <c r="L16" s="124"/>
+      <c r="B16" s="144"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="124"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
-      <c r="L17" s="124"/>
+      <c r="B17" s="144"/>
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="124"/>
-      <c r="C18" s="124"/>
-      <c r="D18" s="124"/>
-      <c r="E18" s="124"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="124"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="124"/>
-      <c r="L18" s="124"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="124"/>
-      <c r="J19" s="124"/>
-      <c r="K19" s="124"/>
-      <c r="L19" s="124"/>
+      <c r="B19" s="144"/>
+      <c r="C19" s="144"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="124"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="124"/>
-      <c r="L20" s="124"/>
+      <c r="B20" s="144"/>
+      <c r="C20" s="144"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="124"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
-      <c r="L21" s="124"/>
+      <c r="B21" s="144"/>
+      <c r="C21" s="144"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="124"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="124"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="124"/>
-      <c r="L22" s="124"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="144"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="124"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="124"/>
-      <c r="E23" s="124"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="124"/>
-      <c r="L23" s="124"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="124"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
-      <c r="L24" s="124"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="124"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="124"/>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="124"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="124"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="124"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="124"/>
-      <c r="L27" s="124"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="144"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="124"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="124"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="124"/>
-      <c r="L28" s="124"/>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="124"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="124"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="124"/>
-      <c r="L29" s="124"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="124"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="124"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="124"/>
-      <c r="L30" s="124"/>
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="144"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="124"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="124"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="124"/>
-      <c r="L31" s="124"/>
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="144"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="124"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="124"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="124"/>
-      <c r="L32" s="124"/>
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="144"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="124"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="124"/>
-      <c r="H33" s="124"/>
-      <c r="I33" s="124"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="124"/>
-      <c r="L33" s="124"/>
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="144"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="124"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="124"/>
-      <c r="E34" s="124"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="124"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="124"/>
-      <c r="L34" s="124"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="144"/>
+      <c r="K34" s="144"/>
+      <c r="L34" s="144"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="124"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="124"/>
-      <c r="E35" s="124"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="124"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="124"/>
-      <c r="J35" s="124"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="124"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="144"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="124"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="124"/>
-      <c r="E36" s="124"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="124"/>
-      <c r="L36" s="124"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="144"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="124"/>
-      <c r="C37" s="124"/>
-      <c r="D37" s="124"/>
-      <c r="E37" s="124"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="124"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="124"/>
-      <c r="J37" s="124"/>
-      <c r="K37" s="124"/>
-      <c r="L37" s="124"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="144"/>
+      <c r="J37" s="144"/>
+      <c r="K37" s="144"/>
+      <c r="L37" s="144"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="124"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="124"/>
-      <c r="L38" s="124"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="144"/>
+      <c r="H38" s="144"/>
+      <c r="I38" s="144"/>
+      <c r="J38" s="144"/>
+      <c r="K38" s="144"/>
+      <c r="L38" s="144"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="124"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="124"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="124"/>
-      <c r="L39" s="124"/>
+      <c r="B39" s="144"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="144"/>
+      <c r="I39" s="144"/>
+      <c r="J39" s="144"/>
+      <c r="K39" s="144"/>
+      <c r="L39" s="144"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="124"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
+      <c r="B40" s="144"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
+      <c r="G40" s="144"/>
+      <c r="H40" s="144"/>
+      <c r="I40" s="144"/>
+      <c r="J40" s="144"/>
+      <c r="K40" s="144"/>
+      <c r="L40" s="144"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="124"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124"/>
+      <c r="B41" s="144"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="144"/>
+      <c r="E41" s="144"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="144"/>
+      <c r="H41" s="144"/>
+      <c r="I41" s="144"/>
+      <c r="J41" s="144"/>
+      <c r="K41" s="144"/>
+      <c r="L41" s="144"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="124"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
+      <c r="B42" s="144"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="144"/>
+      <c r="E42" s="144"/>
+      <c r="F42" s="144"/>
+      <c r="G42" s="144"/>
+      <c r="H42" s="144"/>
+      <c r="I42" s="144"/>
+      <c r="J42" s="144"/>
+      <c r="K42" s="144"/>
+      <c r="L42" s="144"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="124"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="124"/>
-      <c r="H43" s="124"/>
-      <c r="I43" s="124"/>
-      <c r="J43" s="124"/>
-      <c r="K43" s="124"/>
-      <c r="L43" s="124"/>
+      <c r="B43" s="144"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="144"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="144"/>
+      <c r="H43" s="144"/>
+      <c r="I43" s="144"/>
+      <c r="J43" s="144"/>
+      <c r="K43" s="144"/>
+      <c r="L43" s="144"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="124"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="124"/>
-      <c r="K44" s="124"/>
-      <c r="L44" s="124"/>
+      <c r="B44" s="144"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="144"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="144"/>
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
+      <c r="J44" s="144"/>
+      <c r="K44" s="144"/>
+      <c r="L44" s="144"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="124"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="124"/>
-      <c r="L45" s="124"/>
+      <c r="B45" s="144"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="144"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="144"/>
+      <c r="H45" s="144"/>
+      <c r="I45" s="144"/>
+      <c r="J45" s="144"/>
+      <c r="K45" s="144"/>
+      <c r="L45" s="144"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="124"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
+      <c r="B46" s="144"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="144"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="144"/>
+      <c r="K46" s="144"/>
+      <c r="L46" s="144"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="124"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="124"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
-      <c r="G47" s="124"/>
-      <c r="H47" s="124"/>
-      <c r="I47" s="124"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
+      <c r="B47" s="144"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="144"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="144"/>
+      <c r="H47" s="144"/>
+      <c r="I47" s="144"/>
+      <c r="J47" s="144"/>
+      <c r="K47" s="144"/>
+      <c r="L47" s="144"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="124"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="124"/>
-      <c r="L48" s="124"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="144"/>
+      <c r="H48" s="144"/>
+      <c r="I48" s="144"/>
+      <c r="J48" s="144"/>
+      <c r="K48" s="144"/>
+      <c r="L48" s="144"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="124"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="124"/>
+      <c r="B49" s="144"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="144"/>
+      <c r="F49" s="144"/>
+      <c r="G49" s="144"/>
+      <c r="H49" s="144"/>
+      <c r="I49" s="144"/>
+      <c r="J49" s="144"/>
+      <c r="K49" s="144"/>
+      <c r="L49" s="144"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="124"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="124"/>
-      <c r="L50" s="124"/>
+      <c r="B50" s="144"/>
+      <c r="C50" s="144"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="144"/>
+      <c r="F50" s="144"/>
+      <c r="G50" s="144"/>
+      <c r="H50" s="144"/>
+      <c r="I50" s="144"/>
+      <c r="J50" s="144"/>
+      <c r="K50" s="144"/>
+      <c r="L50" s="144"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="124"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="124"/>
-      <c r="K51" s="124"/>
-      <c r="L51" s="124"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="144"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="144"/>
+      <c r="K51" s="144"/>
+      <c r="L51" s="144"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="124"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="124"/>
-      <c r="L52" s="124"/>
+      <c r="B52" s="144"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="144"/>
+      <c r="E52" s="144"/>
+      <c r="F52" s="144"/>
+      <c r="G52" s="144"/>
+      <c r="H52" s="144"/>
+      <c r="I52" s="144"/>
+      <c r="J52" s="144"/>
+      <c r="K52" s="144"/>
+      <c r="L52" s="144"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="124"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="124"/>
-      <c r="K53" s="124"/>
-      <c r="L53" s="124"/>
+      <c r="B53" s="144"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="144"/>
+      <c r="E53" s="144"/>
+      <c r="F53" s="144"/>
+      <c r="G53" s="144"/>
+      <c r="H53" s="144"/>
+      <c r="I53" s="144"/>
+      <c r="J53" s="144"/>
+      <c r="K53" s="144"/>
+      <c r="L53" s="144"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="124"/>
-      <c r="C54" s="124"/>
-      <c r="D54" s="124"/>
-      <c r="E54" s="124"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="124"/>
-      <c r="J54" s="124"/>
-      <c r="K54" s="124"/>
-      <c r="L54" s="124"/>
+      <c r="B54" s="144"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="144"/>
+      <c r="E54" s="144"/>
+      <c r="F54" s="144"/>
+      <c r="G54" s="144"/>
+      <c r="H54" s="144"/>
+      <c r="I54" s="144"/>
+      <c r="J54" s="144"/>
+      <c r="K54" s="144"/>
+      <c r="L54" s="144"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="124"/>
-      <c r="C55" s="124"/>
-      <c r="D55" s="124"/>
-      <c r="E55" s="124"/>
-      <c r="F55" s="124"/>
-      <c r="G55" s="124"/>
-      <c r="H55" s="124"/>
-      <c r="I55" s="124"/>
-      <c r="J55" s="124"/>
-      <c r="K55" s="124"/>
-      <c r="L55" s="124"/>
+      <c r="B55" s="144"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="144"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="144"/>
+      <c r="G55" s="144"/>
+      <c r="H55" s="144"/>
+      <c r="I55" s="144"/>
+      <c r="J55" s="144"/>
+      <c r="K55" s="144"/>
+      <c r="L55" s="144"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="124"/>
-      <c r="C56" s="124"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="124"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="124"/>
-      <c r="L56" s="124"/>
+      <c r="B56" s="144"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="144"/>
+      <c r="E56" s="144"/>
+      <c r="F56" s="144"/>
+      <c r="G56" s="144"/>
+      <c r="H56" s="144"/>
+      <c r="I56" s="144"/>
+      <c r="J56" s="144"/>
+      <c r="K56" s="144"/>
+      <c r="L56" s="144"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="124"/>
-      <c r="C57" s="124"/>
-      <c r="D57" s="124"/>
-      <c r="E57" s="124"/>
-      <c r="F57" s="124"/>
-      <c r="G57" s="124"/>
-      <c r="H57" s="124"/>
-      <c r="I57" s="124"/>
-      <c r="J57" s="124"/>
-      <c r="K57" s="124"/>
-      <c r="L57" s="124"/>
+      <c r="B57" s="144"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="144"/>
+      <c r="E57" s="144"/>
+      <c r="F57" s="144"/>
+      <c r="G57" s="144"/>
+      <c r="H57" s="144"/>
+      <c r="I57" s="144"/>
+      <c r="J57" s="144"/>
+      <c r="K57" s="144"/>
+      <c r="L57" s="144"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
       <c r="B58" s="20"/>
@@ -4251,176 +4256,176 @@
       <c r="J59" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K59" s="122" t="str">
+      <c r="K59" s="138" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L59" s="122"/>
+      <c r="L59" s="138"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="125" t="s">
+      <c r="B60" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="126"/>
-      <c r="D60" s="126"/>
-      <c r="E60" s="126"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="126"/>
-      <c r="H60" s="126"/>
-      <c r="I60" s="126"/>
-      <c r="J60" s="126"/>
-      <c r="K60" s="126"/>
-      <c r="L60" s="126"/>
+      <c r="C60" s="146"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="146"/>
+      <c r="F60" s="146"/>
+      <c r="G60" s="146"/>
+      <c r="H60" s="146"/>
+      <c r="I60" s="146"/>
+      <c r="J60" s="146"/>
+      <c r="K60" s="146"/>
+      <c r="L60" s="146"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="126"/>
-      <c r="C61" s="126"/>
-      <c r="D61" s="126"/>
-      <c r="E61" s="126"/>
-      <c r="F61" s="126"/>
-      <c r="G61" s="126"/>
-      <c r="H61" s="126"/>
-      <c r="I61" s="126"/>
-      <c r="J61" s="126"/>
-      <c r="K61" s="126"/>
-      <c r="L61" s="126"/>
+      <c r="B61" s="146"/>
+      <c r="C61" s="146"/>
+      <c r="D61" s="146"/>
+      <c r="E61" s="146"/>
+      <c r="F61" s="146"/>
+      <c r="G61" s="146"/>
+      <c r="H61" s="146"/>
+      <c r="I61" s="146"/>
+      <c r="J61" s="146"/>
+      <c r="K61" s="146"/>
+      <c r="L61" s="146"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="126"/>
-      <c r="C62" s="126"/>
-      <c r="D62" s="126"/>
-      <c r="E62" s="126"/>
-      <c r="F62" s="126"/>
-      <c r="G62" s="126"/>
-      <c r="H62" s="126"/>
-      <c r="I62" s="126"/>
-      <c r="J62" s="126"/>
-      <c r="K62" s="126"/>
-      <c r="L62" s="126"/>
+      <c r="B62" s="146"/>
+      <c r="C62" s="146"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="146"/>
+      <c r="G62" s="146"/>
+      <c r="H62" s="146"/>
+      <c r="I62" s="146"/>
+      <c r="J62" s="146"/>
+      <c r="K62" s="146"/>
+      <c r="L62" s="146"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="126"/>
-      <c r="C63" s="126"/>
-      <c r="D63" s="126"/>
-      <c r="E63" s="126"/>
-      <c r="F63" s="126"/>
-      <c r="G63" s="126"/>
-      <c r="H63" s="126"/>
-      <c r="I63" s="126"/>
-      <c r="J63" s="126"/>
-      <c r="K63" s="126"/>
-      <c r="L63" s="126"/>
+      <c r="B63" s="146"/>
+      <c r="C63" s="146"/>
+      <c r="D63" s="146"/>
+      <c r="E63" s="146"/>
+      <c r="F63" s="146"/>
+      <c r="G63" s="146"/>
+      <c r="H63" s="146"/>
+      <c r="I63" s="146"/>
+      <c r="J63" s="146"/>
+      <c r="K63" s="146"/>
+      <c r="L63" s="146"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="126"/>
-      <c r="C64" s="126"/>
-      <c r="D64" s="126"/>
-      <c r="E64" s="126"/>
-      <c r="F64" s="126"/>
-      <c r="G64" s="126"/>
-      <c r="H64" s="126"/>
-      <c r="I64" s="126"/>
-      <c r="J64" s="126"/>
-      <c r="K64" s="126"/>
-      <c r="L64" s="126"/>
+      <c r="B64" s="146"/>
+      <c r="C64" s="146"/>
+      <c r="D64" s="146"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="146"/>
+      <c r="G64" s="146"/>
+      <c r="H64" s="146"/>
+      <c r="I64" s="146"/>
+      <c r="J64" s="146"/>
+      <c r="K64" s="146"/>
+      <c r="L64" s="146"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="126"/>
-      <c r="C65" s="126"/>
-      <c r="D65" s="126"/>
-      <c r="E65" s="126"/>
-      <c r="F65" s="126"/>
-      <c r="G65" s="126"/>
-      <c r="H65" s="126"/>
-      <c r="I65" s="126"/>
-      <c r="J65" s="126"/>
-      <c r="K65" s="126"/>
-      <c r="L65" s="126"/>
+      <c r="B65" s="146"/>
+      <c r="C65" s="146"/>
+      <c r="D65" s="146"/>
+      <c r="E65" s="146"/>
+      <c r="F65" s="146"/>
+      <c r="G65" s="146"/>
+      <c r="H65" s="146"/>
+      <c r="I65" s="146"/>
+      <c r="J65" s="146"/>
+      <c r="K65" s="146"/>
+      <c r="L65" s="146"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="126"/>
-      <c r="C66" s="126"/>
-      <c r="D66" s="126"/>
-      <c r="E66" s="126"/>
-      <c r="F66" s="126"/>
-      <c r="G66" s="126"/>
-      <c r="H66" s="126"/>
-      <c r="I66" s="126"/>
-      <c r="J66" s="126"/>
-      <c r="K66" s="126"/>
-      <c r="L66" s="126"/>
+      <c r="B66" s="146"/>
+      <c r="C66" s="146"/>
+      <c r="D66" s="146"/>
+      <c r="E66" s="146"/>
+      <c r="F66" s="146"/>
+      <c r="G66" s="146"/>
+      <c r="H66" s="146"/>
+      <c r="I66" s="146"/>
+      <c r="J66" s="146"/>
+      <c r="K66" s="146"/>
+      <c r="L66" s="146"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="126"/>
-      <c r="C67" s="126"/>
-      <c r="D67" s="126"/>
-      <c r="E67" s="126"/>
-      <c r="F67" s="126"/>
-      <c r="G67" s="126"/>
-      <c r="H67" s="126"/>
-      <c r="I67" s="126"/>
-      <c r="J67" s="126"/>
-      <c r="K67" s="126"/>
-      <c r="L67" s="126"/>
+      <c r="B67" s="146"/>
+      <c r="C67" s="146"/>
+      <c r="D67" s="146"/>
+      <c r="E67" s="146"/>
+      <c r="F67" s="146"/>
+      <c r="G67" s="146"/>
+      <c r="H67" s="146"/>
+      <c r="I67" s="146"/>
+      <c r="J67" s="146"/>
+      <c r="K67" s="146"/>
+      <c r="L67" s="146"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="126"/>
-      <c r="C68" s="126"/>
-      <c r="D68" s="126"/>
-      <c r="E68" s="126"/>
-      <c r="F68" s="126"/>
-      <c r="G68" s="126"/>
-      <c r="H68" s="126"/>
-      <c r="I68" s="126"/>
-      <c r="J68" s="126"/>
-      <c r="K68" s="126"/>
-      <c r="L68" s="126"/>
+      <c r="B68" s="146"/>
+      <c r="C68" s="146"/>
+      <c r="D68" s="146"/>
+      <c r="E68" s="146"/>
+      <c r="F68" s="146"/>
+      <c r="G68" s="146"/>
+      <c r="H68" s="146"/>
+      <c r="I68" s="146"/>
+      <c r="J68" s="146"/>
+      <c r="K68" s="146"/>
+      <c r="L68" s="146"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="126"/>
-      <c r="C69" s="126"/>
-      <c r="D69" s="126"/>
-      <c r="E69" s="126"/>
-      <c r="F69" s="126"/>
-      <c r="G69" s="126"/>
-      <c r="H69" s="126"/>
-      <c r="I69" s="126"/>
-      <c r="J69" s="126"/>
-      <c r="K69" s="126"/>
-      <c r="L69" s="126"/>
+      <c r="B69" s="146"/>
+      <c r="C69" s="146"/>
+      <c r="D69" s="146"/>
+      <c r="E69" s="146"/>
+      <c r="F69" s="146"/>
+      <c r="G69" s="146"/>
+      <c r="H69" s="146"/>
+      <c r="I69" s="146"/>
+      <c r="J69" s="146"/>
+      <c r="K69" s="146"/>
+      <c r="L69" s="146"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="126"/>
-      <c r="C70" s="126"/>
-      <c r="D70" s="126"/>
-      <c r="E70" s="126"/>
-      <c r="F70" s="126"/>
-      <c r="G70" s="126"/>
-      <c r="H70" s="126"/>
-      <c r="I70" s="126"/>
-      <c r="J70" s="126"/>
-      <c r="K70" s="126"/>
-      <c r="L70" s="126"/>
+      <c r="B70" s="146"/>
+      <c r="C70" s="146"/>
+      <c r="D70" s="146"/>
+      <c r="E70" s="146"/>
+      <c r="F70" s="146"/>
+      <c r="G70" s="146"/>
+      <c r="H70" s="146"/>
+      <c r="I70" s="146"/>
+      <c r="J70" s="146"/>
+      <c r="K70" s="146"/>
+      <c r="L70" s="146"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="126"/>
-      <c r="C71" s="126"/>
-      <c r="D71" s="126"/>
-      <c r="E71" s="126"/>
-      <c r="F71" s="126"/>
-      <c r="G71" s="126"/>
-      <c r="H71" s="126"/>
-      <c r="I71" s="126"/>
-      <c r="J71" s="126"/>
-      <c r="K71" s="126"/>
-      <c r="L71" s="126"/>
+      <c r="B71" s="146"/>
+      <c r="C71" s="146"/>
+      <c r="D71" s="146"/>
+      <c r="E71" s="146"/>
+      <c r="F71" s="146"/>
+      <c r="G71" s="146"/>
+      <c r="H71" s="146"/>
+      <c r="I71" s="146"/>
+      <c r="J71" s="146"/>
+      <c r="K71" s="146"/>
+      <c r="L71" s="146"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
       <c r="B73" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
@@ -4545,9 +4550,8 @@
     </row>
     <row r="86" spans="2:9" ht="14.25">
       <c r="B86" s="18"/>
-      <c r="C86" s="26" t="str">
-        <f>記入!B2</f>
-        <v>${cv.depositjapanese}</v>
+      <c r="C86" s="26" t="s">
+        <v>176</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
@@ -4649,11 +4653,11 @@
       <c r="J127" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K127" s="122" t="str">
+      <c r="K127" s="138" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L127" s="122"/>
+      <c r="L127" s="138"/>
     </row>
     <row r="128" spans="2:12" ht="17.25">
       <c r="B128" s="51" t="s">
@@ -4699,245 +4703,245 @@
       <c r="L130" s="52"/>
     </row>
     <row r="131" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="129" t="s">
+      <c r="B131" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="C131" s="129"/>
-      <c r="D131" s="137" t="str">
+      <c r="C131" s="134"/>
+      <c r="D131" s="124" t="str">
         <f>記入!B10</f>
         <v>${cv.pjnamejapanese}</v>
       </c>
-      <c r="E131" s="137"/>
-      <c r="F131" s="137"/>
-      <c r="G131" s="137"/>
-      <c r="H131" s="137"/>
-      <c r="I131" s="137"/>
-      <c r="J131" s="137"/>
-      <c r="K131" s="137"/>
+      <c r="E131" s="124"/>
+      <c r="F131" s="124"/>
+      <c r="G131" s="124"/>
+      <c r="H131" s="124"/>
+      <c r="I131" s="124"/>
+      <c r="J131" s="124"/>
+      <c r="K131" s="124"/>
       <c r="L131" s="50"/>
     </row>
     <row r="132" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="129" t="s">
+      <c r="B132" s="134" t="s">
         <v>74</v>
       </c>
-      <c r="C132" s="129"/>
-      <c r="D132" s="142" t="str">
+      <c r="C132" s="134"/>
+      <c r="D132" s="123" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E132" s="137"/>
-      <c r="F132" s="137"/>
-      <c r="G132" s="137"/>
-      <c r="H132" s="137"/>
-      <c r="I132" s="137"/>
-      <c r="J132" s="137"/>
-      <c r="K132" s="137"/>
+      <c r="E132" s="124"/>
+      <c r="F132" s="124"/>
+      <c r="G132" s="124"/>
+      <c r="H132" s="124"/>
+      <c r="I132" s="124"/>
+      <c r="J132" s="124"/>
+      <c r="K132" s="124"/>
       <c r="L132" s="50"/>
     </row>
     <row r="133" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B133" s="129" t="s">
+      <c r="B133" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="C133" s="129"/>
-      <c r="D133" s="142" t="str">
+      <c r="C133" s="134"/>
+      <c r="D133" s="123" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E133" s="137"/>
-      <c r="F133" s="137"/>
-      <c r="G133" s="137"/>
-      <c r="H133" s="137"/>
-      <c r="I133" s="137"/>
-      <c r="J133" s="137"/>
-      <c r="K133" s="137"/>
+      <c r="E133" s="124"/>
+      <c r="F133" s="124"/>
+      <c r="G133" s="124"/>
+      <c r="H133" s="124"/>
+      <c r="I133" s="124"/>
+      <c r="J133" s="124"/>
+      <c r="K133" s="124"/>
       <c r="L133" s="50"/>
     </row>
     <row r="134" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="129" t="s">
+      <c r="B134" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="C134" s="129"/>
-      <c r="D134" s="143" t="str">
+      <c r="C134" s="134"/>
+      <c r="D134" s="125" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="E134" s="143"/>
-      <c r="F134" s="143"/>
-      <c r="G134" s="143"/>
-      <c r="H134" s="143"/>
-      <c r="I134" s="143"/>
-      <c r="J134" s="143"/>
-      <c r="K134" s="143"/>
+      <c r="E134" s="125"/>
+      <c r="F134" s="125"/>
+      <c r="G134" s="125"/>
+      <c r="H134" s="125"/>
+      <c r="I134" s="125"/>
+      <c r="J134" s="125"/>
+      <c r="K134" s="125"/>
       <c r="L134" s="50"/>
     </row>
     <row r="135" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="135" t="s">
+      <c r="B135" s="142" t="s">
         <v>98</v>
       </c>
-      <c r="C135" s="129"/>
-      <c r="D135" s="133" t="str">
+      <c r="C135" s="134"/>
+      <c r="D135" s="126" t="str">
         <f>記入!B38</f>
         <v>${cv.technicalcontentjapanese}</v>
       </c>
-      <c r="E135" s="134"/>
-      <c r="F135" s="134"/>
-      <c r="G135" s="134"/>
-      <c r="H135" s="134"/>
-      <c r="I135" s="134"/>
-      <c r="J135" s="134"/>
-      <c r="K135" s="134"/>
+      <c r="E135" s="127"/>
+      <c r="F135" s="127"/>
+      <c r="G135" s="127"/>
+      <c r="H135" s="127"/>
+      <c r="I135" s="127"/>
+      <c r="J135" s="127"/>
+      <c r="K135" s="127"/>
       <c r="L135" s="50"/>
     </row>
     <row r="136" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="129"/>
-      <c r="C136" s="129"/>
-      <c r="D136" s="134"/>
-      <c r="E136" s="134"/>
-      <c r="F136" s="134"/>
-      <c r="G136" s="134"/>
-      <c r="H136" s="134"/>
-      <c r="I136" s="134"/>
-      <c r="J136" s="134"/>
-      <c r="K136" s="134"/>
+      <c r="B136" s="134"/>
+      <c r="C136" s="134"/>
+      <c r="D136" s="127"/>
+      <c r="E136" s="127"/>
+      <c r="F136" s="127"/>
+      <c r="G136" s="127"/>
+      <c r="H136" s="127"/>
+      <c r="I136" s="127"/>
+      <c r="J136" s="127"/>
+      <c r="K136" s="127"/>
       <c r="L136" s="50"/>
     </row>
     <row r="137" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="129"/>
-      <c r="C137" s="129"/>
-      <c r="D137" s="134"/>
-      <c r="E137" s="134"/>
-      <c r="F137" s="134"/>
-      <c r="G137" s="134"/>
-      <c r="H137" s="134"/>
-      <c r="I137" s="134"/>
-      <c r="J137" s="134"/>
-      <c r="K137" s="134"/>
+      <c r="B137" s="134"/>
+      <c r="C137" s="134"/>
+      <c r="D137" s="127"/>
+      <c r="E137" s="127"/>
+      <c r="F137" s="127"/>
+      <c r="G137" s="127"/>
+      <c r="H137" s="127"/>
+      <c r="I137" s="127"/>
+      <c r="J137" s="127"/>
+      <c r="K137" s="127"/>
       <c r="L137" s="50"/>
     </row>
     <row r="138" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="129"/>
-      <c r="C138" s="129"/>
-      <c r="D138" s="134"/>
-      <c r="E138" s="134"/>
-      <c r="F138" s="134"/>
-      <c r="G138" s="134"/>
-      <c r="H138" s="134"/>
-      <c r="I138" s="134"/>
-      <c r="J138" s="134"/>
-      <c r="K138" s="134"/>
+      <c r="B138" s="134"/>
+      <c r="C138" s="134"/>
+      <c r="D138" s="127"/>
+      <c r="E138" s="127"/>
+      <c r="F138" s="127"/>
+      <c r="G138" s="127"/>
+      <c r="H138" s="127"/>
+      <c r="I138" s="127"/>
+      <c r="J138" s="127"/>
+      <c r="K138" s="127"/>
       <c r="L138" s="50"/>
     </row>
     <row r="139" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="129"/>
-      <c r="C139" s="129"/>
-      <c r="D139" s="134"/>
-      <c r="E139" s="134"/>
-      <c r="F139" s="134"/>
-      <c r="G139" s="134"/>
-      <c r="H139" s="134"/>
-      <c r="I139" s="134"/>
-      <c r="J139" s="134"/>
-      <c r="K139" s="134"/>
+      <c r="B139" s="134"/>
+      <c r="C139" s="134"/>
+      <c r="D139" s="127"/>
+      <c r="E139" s="127"/>
+      <c r="F139" s="127"/>
+      <c r="G139" s="127"/>
+      <c r="H139" s="127"/>
+      <c r="I139" s="127"/>
+      <c r="J139" s="127"/>
+      <c r="K139" s="127"/>
       <c r="L139" s="50"/>
     </row>
     <row r="140" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="129"/>
-      <c r="C140" s="129"/>
-      <c r="D140" s="134"/>
-      <c r="E140" s="134"/>
-      <c r="F140" s="134"/>
-      <c r="G140" s="134"/>
-      <c r="H140" s="134"/>
-      <c r="I140" s="134"/>
-      <c r="J140" s="134"/>
-      <c r="K140" s="134"/>
+      <c r="B140" s="134"/>
+      <c r="C140" s="134"/>
+      <c r="D140" s="127"/>
+      <c r="E140" s="127"/>
+      <c r="F140" s="127"/>
+      <c r="G140" s="127"/>
+      <c r="H140" s="127"/>
+      <c r="I140" s="127"/>
+      <c r="J140" s="127"/>
+      <c r="K140" s="127"/>
       <c r="L140" s="50"/>
     </row>
     <row r="141" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="129"/>
-      <c r="C141" s="129"/>
-      <c r="D141" s="134"/>
-      <c r="E141" s="134"/>
-      <c r="F141" s="134"/>
-      <c r="G141" s="134"/>
-      <c r="H141" s="134"/>
-      <c r="I141" s="134"/>
-      <c r="J141" s="134"/>
-      <c r="K141" s="134"/>
+      <c r="B141" s="134"/>
+      <c r="C141" s="134"/>
+      <c r="D141" s="127"/>
+      <c r="E141" s="127"/>
+      <c r="F141" s="127"/>
+      <c r="G141" s="127"/>
+      <c r="H141" s="127"/>
+      <c r="I141" s="127"/>
+      <c r="J141" s="127"/>
+      <c r="K141" s="127"/>
       <c r="L141" s="50"/>
     </row>
     <row r="142" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="129" t="s">
+      <c r="B142" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="C142" s="129"/>
-      <c r="D142" s="130" t="str">
+      <c r="C142" s="134"/>
+      <c r="D142" s="139" t="str">
         <f>記入!B50</f>
         <v>${cv.redelegate}</v>
       </c>
-      <c r="E142" s="131"/>
-      <c r="F142" s="131"/>
-      <c r="G142" s="131"/>
-      <c r="H142" s="131"/>
-      <c r="I142" s="131"/>
-      <c r="J142" s="131"/>
-      <c r="K142" s="132"/>
+      <c r="E142" s="140"/>
+      <c r="F142" s="140"/>
+      <c r="G142" s="140"/>
+      <c r="H142" s="140"/>
+      <c r="I142" s="140"/>
+      <c r="J142" s="140"/>
+      <c r="K142" s="141"/>
       <c r="L142" s="50"/>
     </row>
     <row r="143" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="129"/>
-      <c r="C143" s="129"/>
-      <c r="D143" s="133" t="str">
+      <c r="B143" s="134"/>
+      <c r="C143" s="134"/>
+      <c r="D143" s="126" t="str">
         <f>記入!B51</f>
         <v>再委託先：
 ${cv.redelegatecontent}</v>
       </c>
-      <c r="E143" s="134"/>
-      <c r="F143" s="134"/>
-      <c r="G143" s="134"/>
-      <c r="H143" s="134"/>
-      <c r="I143" s="134"/>
-      <c r="J143" s="134"/>
-      <c r="K143" s="134"/>
+      <c r="E143" s="127"/>
+      <c r="F143" s="127"/>
+      <c r="G143" s="127"/>
+      <c r="H143" s="127"/>
+      <c r="I143" s="127"/>
+      <c r="J143" s="127"/>
+      <c r="K143" s="127"/>
       <c r="L143" s="50"/>
     </row>
     <row r="144" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="129"/>
-      <c r="C144" s="129"/>
-      <c r="D144" s="134"/>
-      <c r="E144" s="134"/>
-      <c r="F144" s="134"/>
-      <c r="G144" s="134"/>
-      <c r="H144" s="134"/>
-      <c r="I144" s="134"/>
-      <c r="J144" s="134"/>
-      <c r="K144" s="134"/>
+      <c r="B144" s="134"/>
+      <c r="C144" s="134"/>
+      <c r="D144" s="127"/>
+      <c r="E144" s="127"/>
+      <c r="F144" s="127"/>
+      <c r="G144" s="127"/>
+      <c r="H144" s="127"/>
+      <c r="I144" s="127"/>
+      <c r="J144" s="127"/>
+      <c r="K144" s="127"/>
       <c r="L144" s="50"/>
     </row>
     <row r="145" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="129"/>
-      <c r="C145" s="129"/>
-      <c r="D145" s="134"/>
-      <c r="E145" s="134"/>
-      <c r="F145" s="134"/>
-      <c r="G145" s="134"/>
-      <c r="H145" s="134"/>
-      <c r="I145" s="134"/>
-      <c r="J145" s="134"/>
-      <c r="K145" s="134"/>
+      <c r="B145" s="134"/>
+      <c r="C145" s="134"/>
+      <c r="D145" s="127"/>
+      <c r="E145" s="127"/>
+      <c r="F145" s="127"/>
+      <c r="G145" s="127"/>
+      <c r="H145" s="127"/>
+      <c r="I145" s="127"/>
+      <c r="J145" s="127"/>
+      <c r="K145" s="127"/>
       <c r="L145" s="50"/>
     </row>
     <row r="146" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="129"/>
-      <c r="C146" s="129"/>
-      <c r="D146" s="134"/>
-      <c r="E146" s="134"/>
-      <c r="F146" s="134"/>
-      <c r="G146" s="134"/>
-      <c r="H146" s="134"/>
-      <c r="I146" s="134"/>
-      <c r="J146" s="134"/>
-      <c r="K146" s="134"/>
+      <c r="B146" s="134"/>
+      <c r="C146" s="134"/>
+      <c r="D146" s="127"/>
+      <c r="E146" s="127"/>
+      <c r="F146" s="127"/>
+      <c r="G146" s="127"/>
+      <c r="H146" s="127"/>
+      <c r="I146" s="127"/>
+      <c r="J146" s="127"/>
+      <c r="K146" s="127"/>
       <c r="L146" s="50"/>
     </row>
     <row r="147" spans="2:12" ht="20.100000000000001" customHeight="1">
@@ -4969,222 +4973,222 @@
       <c r="L148" s="50"/>
     </row>
     <row r="149" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="129" t="s">
+      <c r="B149" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="C149" s="129"/>
-      <c r="D149" s="128" t="s">
+      <c r="C149" s="134"/>
+      <c r="D149" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="E149" s="128"/>
-      <c r="F149" s="128" t="s">
+      <c r="E149" s="132"/>
+      <c r="F149" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="G149" s="128"/>
-      <c r="H149" s="128" t="s">
+      <c r="G149" s="132"/>
+      <c r="H149" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="I149" s="128"/>
-      <c r="J149" s="128" t="s">
+      <c r="I149" s="132"/>
+      <c r="J149" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="K149" s="128"/>
+      <c r="K149" s="132"/>
       <c r="L149" s="50"/>
     </row>
     <row r="150" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="129" t="s">
+      <c r="B150" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="C150" s="129"/>
-      <c r="D150" s="136" t="str">
+      <c r="C150" s="134"/>
+      <c r="D150" s="131" t="str">
         <f>記入!B29</f>
         <v>${ba1[0].deliverydate}</v>
       </c>
-      <c r="E150" s="128"/>
-      <c r="F150" s="136" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G150" s="128"/>
-      <c r="H150" s="136" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I150" s="128"/>
-      <c r="J150" s="136" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K150" s="128"/>
+      <c r="E150" s="132"/>
+      <c r="F150" s="131" t="str">
+        <f>記入!B30</f>
+        <v>${ba1[1].deliverydate}</v>
+      </c>
+      <c r="G150" s="132"/>
+      <c r="H150" s="131" t="str">
+        <f>記入!B31</f>
+        <v>${ba1[2].deliverydate}</v>
+      </c>
+      <c r="I150" s="132"/>
+      <c r="J150" s="131" t="str">
+        <f>記入!B32</f>
+        <v>${ba1[3].deliverydate}</v>
+      </c>
+      <c r="K150" s="132"/>
       <c r="L150" s="50"/>
     </row>
     <row r="151" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="129" t="s">
+      <c r="B151" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="C151" s="129"/>
-      <c r="D151" s="136" t="str">
+      <c r="C151" s="134"/>
+      <c r="D151" s="131" t="str">
         <f>記入!C29</f>
         <v>${ba1[0].completiondate}</v>
       </c>
-      <c r="E151" s="128"/>
-      <c r="F151" s="136" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G151" s="128"/>
-      <c r="H151" s="136" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I151" s="128"/>
-      <c r="J151" s="136" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K151" s="128"/>
+      <c r="E151" s="132"/>
+      <c r="F151" s="131" t="str">
+        <f>記入!C30</f>
+        <v>${ba1[1].completiondate}</v>
+      </c>
+      <c r="G151" s="132"/>
+      <c r="H151" s="131" t="str">
+        <f>記入!C31</f>
+        <v>${ba1[2].completiondate}</v>
+      </c>
+      <c r="I151" s="132"/>
+      <c r="J151" s="131" t="str">
+        <f>記入!C32</f>
+        <v>${ba1[3].completiondate}</v>
+      </c>
+      <c r="K151" s="132"/>
       <c r="L151" s="50"/>
     </row>
     <row r="152" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="129" t="s">
+      <c r="B152" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="C152" s="129"/>
-      <c r="D152" s="138" t="str">
+      <c r="C152" s="134"/>
+      <c r="D152" s="136" t="str">
         <f>記入!D29</f>
         <v>${ba1[0].claimdate}</v>
       </c>
-      <c r="E152" s="139"/>
-      <c r="F152" s="136" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G152" s="128"/>
-      <c r="H152" s="136" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I152" s="128"/>
-      <c r="J152" s="136" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K152" s="128"/>
+      <c r="E152" s="135"/>
+      <c r="F152" s="131" t="str">
+        <f>記入!D30</f>
+        <v>${ba1[1].claimdate}</v>
+      </c>
+      <c r="G152" s="132"/>
+      <c r="H152" s="131" t="str">
+        <f>記入!D31</f>
+        <v>${ba1[2].claimdate}</v>
+      </c>
+      <c r="I152" s="132"/>
+      <c r="J152" s="131" t="str">
+        <f>記入!D32</f>
+        <v>${ba1[3].claimdate}</v>
+      </c>
+      <c r="K152" s="132"/>
       <c r="L152" s="50"/>
     </row>
     <row r="153" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="129" t="s">
+      <c r="B153" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="C153" s="129"/>
-      <c r="D153" s="138" t="str">
+      <c r="C153" s="134"/>
+      <c r="D153" s="136" t="str">
         <f>記入!E29</f>
         <v>${ba1[0].supportdate}</v>
       </c>
-      <c r="E153" s="139"/>
-      <c r="F153" s="136" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G153" s="128"/>
-      <c r="H153" s="136" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I153" s="128"/>
-      <c r="J153" s="136" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K153" s="128"/>
+      <c r="E153" s="135"/>
+      <c r="F153" s="131" t="str">
+        <f>記入!E30</f>
+        <v>${ba1[1].supportdate}</v>
+      </c>
+      <c r="G153" s="132"/>
+      <c r="H153" s="131" t="str">
+        <f>記入!E31</f>
+        <v>${ba1[2].supportdate}</v>
+      </c>
+      <c r="I153" s="132"/>
+      <c r="J153" s="131" t="str">
+        <f>記入!E32</f>
+        <v>${ba1[3].supportdate}</v>
+      </c>
+      <c r="K153" s="132"/>
       <c r="L153" s="50"/>
     </row>
     <row r="154" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="129" t="s">
+      <c r="B154" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="C154" s="129"/>
-      <c r="D154" s="141" t="str">
+      <c r="C154" s="134"/>
+      <c r="D154" s="137" t="str">
         <f>記入!F29</f>
         <v>${ba1[0].claimamount}</v>
       </c>
-      <c r="E154" s="139"/>
-      <c r="F154" s="140" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G154" s="128"/>
-      <c r="H154" s="140" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I154" s="128"/>
-      <c r="J154" s="140" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K154" s="128"/>
+      <c r="E154" s="135"/>
+      <c r="F154" s="133" t="str">
+        <f>記入!F30</f>
+        <v>${ba1[1].claimamount}</v>
+      </c>
+      <c r="G154" s="132"/>
+      <c r="H154" s="133" t="str">
+        <f>記入!F31</f>
+        <v>${ba1[2].claimamount}</v>
+      </c>
+      <c r="I154" s="132"/>
+      <c r="J154" s="133" t="str">
+        <f>記入!F32</f>
+        <v>${ba1[3].claimamount}</v>
+      </c>
+      <c r="K154" s="132"/>
       <c r="L154" s="50"/>
     </row>
     <row r="155" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="129" t="s">
+      <c r="B155" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="C155" s="129"/>
-      <c r="D155" s="139" t="str">
+      <c r="C155" s="134"/>
+      <c r="D155" s="135" t="str">
         <f>記入!B12&amp;(-1)</f>
         <v>${cv.contractnumber}-1</v>
       </c>
-      <c r="E155" s="139"/>
-      <c r="F155" s="128" t="str">
+      <c r="E155" s="135"/>
+      <c r="F155" s="132" t="str">
         <f>記入!B12&amp;(-2)</f>
         <v>${cv.contractnumber}-2</v>
       </c>
-      <c r="G155" s="128"/>
-      <c r="H155" s="128" t="str">
+      <c r="G155" s="132"/>
+      <c r="H155" s="132" t="str">
         <f>記入!B12&amp;(-3)</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="I155" s="128"/>
-      <c r="J155" s="128" t="str">
+      <c r="I155" s="132"/>
+      <c r="J155" s="132" t="str">
         <f>記入!B12&amp;(-4)</f>
         <v>${cv.contractnumber}-4</v>
       </c>
-      <c r="K155" s="128"/>
+      <c r="K155" s="132"/>
       <c r="L155" s="50"/>
     </row>
     <row r="156" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="129" t="s">
+      <c r="B156" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="C156" s="129"/>
-      <c r="D156" s="128" t="s">
+      <c r="C156" s="134"/>
+      <c r="D156" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="E156" s="128"/>
-      <c r="F156" s="128"/>
-      <c r="G156" s="128"/>
-      <c r="H156" s="128"/>
-      <c r="I156" s="128"/>
-      <c r="J156" s="128"/>
-      <c r="K156" s="128"/>
+      <c r="E156" s="132"/>
+      <c r="F156" s="132"/>
+      <c r="G156" s="132"/>
+      <c r="H156" s="132"/>
+      <c r="I156" s="132"/>
+      <c r="J156" s="132"/>
+      <c r="K156" s="132"/>
       <c r="L156" s="50"/>
     </row>
     <row r="157" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="129" t="s">
+      <c r="B157" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="C157" s="129"/>
-      <c r="D157" s="128" t="s">
+      <c r="C157" s="134"/>
+      <c r="D157" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="E157" s="128"/>
-      <c r="F157" s="128"/>
-      <c r="G157" s="128"/>
-      <c r="H157" s="128"/>
-      <c r="I157" s="128"/>
-      <c r="J157" s="128"/>
-      <c r="K157" s="128"/>
+      <c r="E157" s="132"/>
+      <c r="F157" s="132"/>
+      <c r="G157" s="132"/>
+      <c r="H157" s="132"/>
+      <c r="I157" s="132"/>
+      <c r="J157" s="132"/>
+      <c r="K157" s="132"/>
       <c r="L157" s="50"/>
     </row>
     <row r="158" spans="2:12" ht="20.100000000000001" customHeight="1">
@@ -5216,59 +5220,59 @@
       <c r="L159" s="50"/>
     </row>
     <row r="160" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="144" t="s">
+      <c r="B160" s="128" t="s">
         <v>96</v>
       </c>
-      <c r="C160" s="144"/>
-      <c r="D160" s="144" t="s">
+      <c r="C160" s="128"/>
+      <c r="D160" s="128" t="s">
         <v>97</v>
       </c>
-      <c r="E160" s="144"/>
-      <c r="F160" s="144"/>
-      <c r="G160" s="144"/>
-      <c r="H160" s="144"/>
-      <c r="I160" s="144"/>
-      <c r="J160" s="144"/>
-      <c r="K160" s="144"/>
+      <c r="E160" s="128"/>
+      <c r="F160" s="128"/>
+      <c r="G160" s="128"/>
+      <c r="H160" s="128"/>
+      <c r="I160" s="128"/>
+      <c r="J160" s="128"/>
+      <c r="K160" s="128"/>
       <c r="L160" s="50"/>
     </row>
     <row r="161" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="145"/>
-      <c r="C161" s="145"/>
-      <c r="D161" s="145"/>
-      <c r="E161" s="145"/>
-      <c r="F161" s="145"/>
-      <c r="G161" s="145"/>
-      <c r="H161" s="145"/>
-      <c r="I161" s="145"/>
-      <c r="J161" s="145"/>
-      <c r="K161" s="145"/>
+      <c r="B161" s="129"/>
+      <c r="C161" s="129"/>
+      <c r="D161" s="129"/>
+      <c r="E161" s="129"/>
+      <c r="F161" s="129"/>
+      <c r="G161" s="129"/>
+      <c r="H161" s="129"/>
+      <c r="I161" s="129"/>
+      <c r="J161" s="129"/>
+      <c r="K161" s="129"/>
       <c r="L161" s="50"/>
     </row>
     <row r="162" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="145"/>
-      <c r="C162" s="145"/>
-      <c r="D162" s="145"/>
-      <c r="E162" s="145"/>
-      <c r="F162" s="145"/>
-      <c r="G162" s="145"/>
-      <c r="H162" s="145"/>
-      <c r="I162" s="145"/>
-      <c r="J162" s="145"/>
-      <c r="K162" s="145"/>
+      <c r="B162" s="129"/>
+      <c r="C162" s="129"/>
+      <c r="D162" s="129"/>
+      <c r="E162" s="129"/>
+      <c r="F162" s="129"/>
+      <c r="G162" s="129"/>
+      <c r="H162" s="129"/>
+      <c r="I162" s="129"/>
+      <c r="J162" s="129"/>
+      <c r="K162" s="129"/>
       <c r="L162" s="50"/>
     </row>
     <row r="163" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="146"/>
-      <c r="C163" s="146"/>
-      <c r="D163" s="146"/>
-      <c r="E163" s="146"/>
-      <c r="F163" s="146"/>
-      <c r="G163" s="146"/>
-      <c r="H163" s="146"/>
-      <c r="I163" s="146"/>
-      <c r="J163" s="146"/>
-      <c r="K163" s="146"/>
+      <c r="B163" s="130"/>
+      <c r="C163" s="130"/>
+      <c r="D163" s="130"/>
+      <c r="E163" s="130"/>
+      <c r="F163" s="130"/>
+      <c r="G163" s="130"/>
+      <c r="H163" s="130"/>
+      <c r="I163" s="130"/>
+      <c r="J163" s="130"/>
+      <c r="K163" s="130"/>
       <c r="L163" s="50"/>
     </row>
     <row r="164" spans="2:12" ht="14.25">
@@ -5626,6 +5630,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B11:L57"/>
+    <mergeCell ref="B60:L71"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="D142:K142"/>
+    <mergeCell ref="D143:K146"/>
+    <mergeCell ref="B142:C146"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C141"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="D131:K131"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:K156"/>
+    <mergeCell ref="D157:K157"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="F152:G152"/>
     <mergeCell ref="D132:K132"/>
     <mergeCell ref="D133:K133"/>
     <mergeCell ref="D134:K134"/>
@@ -5642,51 +5691,6 @@
     <mergeCell ref="F155:G155"/>
     <mergeCell ref="H150:I150"/>
     <mergeCell ref="H151:I151"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D156:K156"/>
-    <mergeCell ref="D157:K157"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="D142:K142"/>
-    <mergeCell ref="D143:K146"/>
-    <mergeCell ref="B142:C146"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C141"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="D131:K131"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B11:L57"/>
-    <mergeCell ref="B60:L71"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5708,8 +5712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A82" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A154" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5725,18 +5729,18 @@
       <c r="J2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="150" t="str">
+      <c r="K2" s="169" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="150"/>
+      <c r="L2" s="169"/>
     </row>
     <row r="3" spans="1:12" ht="20.25">
-      <c r="F3" s="151" t="s">
+      <c r="F3" s="170" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="27" t="s">
@@ -5796,11 +5800,11 @@
         <v>66</v>
       </c>
       <c r="C8" s="47"/>
-      <c r="D8" s="153" t="str">
+      <c r="D8" s="172" t="str">
         <f>記入!B37</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E8" s="154"/>
+      <c r="E8" s="173"/>
       <c r="F8" s="48" t="s">
         <v>64</v>
       </c>
@@ -5840,617 +5844,617 @@
       <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="171" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
-      <c r="L11" s="152"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="171"/>
+      <c r="L11" s="171"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="152"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="152"/>
+      <c r="B12" s="171"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="171"/>
+      <c r="E12" s="171"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="171"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="152"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="152"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="152"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="152"/>
+      <c r="B14" s="171"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="171"/>
+      <c r="E14" s="171"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="171"/>
+      <c r="L14" s="171"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="152"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="152"/>
-      <c r="L15" s="152"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="171"/>
+      <c r="L15" s="171"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="152"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="152"/>
-      <c r="L16" s="152"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="171"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="171"/>
+      <c r="L16" s="171"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="152"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="152"/>
-      <c r="H17" s="152"/>
-      <c r="I17" s="152"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="152"/>
-      <c r="L17" s="152"/>
+      <c r="B17" s="171"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="171"/>
+      <c r="L17" s="171"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="152"/>
-      <c r="L18" s="152"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="171"/>
+      <c r="D18" s="171"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="171"/>
+      <c r="L18" s="171"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="152"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="171"/>
+      <c r="L19" s="171"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="152"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="152"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="171"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="152"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="152"/>
-      <c r="L21" s="152"/>
+      <c r="B21" s="171"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="171"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="152"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="171"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="171"/>
+      <c r="K22" s="171"/>
+      <c r="L22" s="171"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="152"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="152"/>
-      <c r="L23" s="152"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="171"/>
+      <c r="L23" s="171"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="152"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="152"/>
-      <c r="L24" s="152"/>
+      <c r="B24" s="171"/>
+      <c r="C24" s="171"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="171"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="152"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="152"/>
-      <c r="L25" s="152"/>
+      <c r="B25" s="171"/>
+      <c r="C25" s="171"/>
+      <c r="D25" s="171"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="171"/>
+      <c r="L25" s="171"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="152"/>
+      <c r="B26" s="171"/>
+      <c r="C26" s="171"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="171"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="171"/>
+      <c r="L26" s="171"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="152"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="152"/>
-      <c r="L27" s="152"/>
+      <c r="B27" s="171"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="171"/>
+      <c r="L27" s="171"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="152"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="152"/>
-      <c r="L28" s="152"/>
+      <c r="B28" s="171"/>
+      <c r="C28" s="171"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="171"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="171"/>
+      <c r="K28" s="171"/>
+      <c r="L28" s="171"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="152"/>
-      <c r="L29" s="152"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="171"/>
+      <c r="L29" s="171"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="152"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="152"/>
-      <c r="L30" s="152"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="171"/>
+      <c r="K30" s="171"/>
+      <c r="L30" s="171"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="152"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="152"/>
-      <c r="K31" s="152"/>
-      <c r="L31" s="152"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="171"/>
+      <c r="K31" s="171"/>
+      <c r="L31" s="171"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="152"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="152"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="152"/>
-      <c r="K32" s="152"/>
-      <c r="L32" s="152"/>
+      <c r="B32" s="171"/>
+      <c r="C32" s="171"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="171"/>
+      <c r="K32" s="171"/>
+      <c r="L32" s="171"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="152"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="152"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="152"/>
-      <c r="L33" s="152"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="171"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="171"/>
+      <c r="L33" s="171"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="152"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="152"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="152"/>
-      <c r="G34" s="152"/>
-      <c r="H34" s="152"/>
-      <c r="I34" s="152"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="152"/>
-      <c r="L34" s="152"/>
+      <c r="B34" s="171"/>
+      <c r="C34" s="171"/>
+      <c r="D34" s="171"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="171"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="171"/>
+      <c r="K34" s="171"/>
+      <c r="L34" s="171"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="152"/>
-      <c r="L35" s="152"/>
+      <c r="B35" s="171"/>
+      <c r="C35" s="171"/>
+      <c r="D35" s="171"/>
+      <c r="E35" s="171"/>
+      <c r="F35" s="171"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="171"/>
+      <c r="K35" s="171"/>
+      <c r="L35" s="171"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="152"/>
-      <c r="C36" s="152"/>
-      <c r="D36" s="152"/>
-      <c r="E36" s="152"/>
-      <c r="F36" s="152"/>
-      <c r="G36" s="152"/>
-      <c r="H36" s="152"/>
-      <c r="I36" s="152"/>
-      <c r="J36" s="152"/>
-      <c r="K36" s="152"/>
-      <c r="L36" s="152"/>
+      <c r="B36" s="171"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="171"/>
+      <c r="H36" s="171"/>
+      <c r="I36" s="171"/>
+      <c r="J36" s="171"/>
+      <c r="K36" s="171"/>
+      <c r="L36" s="171"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="152"/>
-      <c r="C37" s="152"/>
-      <c r="D37" s="152"/>
-      <c r="E37" s="152"/>
-      <c r="F37" s="152"/>
-      <c r="G37" s="152"/>
-      <c r="H37" s="152"/>
-      <c r="I37" s="152"/>
-      <c r="J37" s="152"/>
-      <c r="K37" s="152"/>
-      <c r="L37" s="152"/>
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="171"/>
+      <c r="E37" s="171"/>
+      <c r="F37" s="171"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="171"/>
+      <c r="K37" s="171"/>
+      <c r="L37" s="171"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="152"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="152"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="152"/>
-      <c r="J38" s="152"/>
-      <c r="K38" s="152"/>
-      <c r="L38" s="152"/>
+      <c r="B38" s="171"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="171"/>
+      <c r="K38" s="171"/>
+      <c r="L38" s="171"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="152"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="152"/>
-      <c r="I39" s="152"/>
-      <c r="J39" s="152"/>
-      <c r="K39" s="152"/>
-      <c r="L39" s="152"/>
+      <c r="B39" s="171"/>
+      <c r="C39" s="171"/>
+      <c r="D39" s="171"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="171"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
+      <c r="K39" s="171"/>
+      <c r="L39" s="171"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="152"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152"/>
-      <c r="E40" s="152"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="152"/>
-      <c r="H40" s="152"/>
-      <c r="I40" s="152"/>
-      <c r="J40" s="152"/>
-      <c r="K40" s="152"/>
-      <c r="L40" s="152"/>
+      <c r="B40" s="171"/>
+      <c r="C40" s="171"/>
+      <c r="D40" s="171"/>
+      <c r="E40" s="171"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="171"/>
+      <c r="K40" s="171"/>
+      <c r="L40" s="171"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="152"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="152"/>
-      <c r="F41" s="152"/>
-      <c r="G41" s="152"/>
-      <c r="H41" s="152"/>
-      <c r="I41" s="152"/>
-      <c r="J41" s="152"/>
-      <c r="K41" s="152"/>
-      <c r="L41" s="152"/>
+      <c r="B41" s="171"/>
+      <c r="C41" s="171"/>
+      <c r="D41" s="171"/>
+      <c r="E41" s="171"/>
+      <c r="F41" s="171"/>
+      <c r="G41" s="171"/>
+      <c r="H41" s="171"/>
+      <c r="I41" s="171"/>
+      <c r="J41" s="171"/>
+      <c r="K41" s="171"/>
+      <c r="L41" s="171"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="152"/>
-      <c r="C42" s="152"/>
-      <c r="D42" s="152"/>
-      <c r="E42" s="152"/>
-      <c r="F42" s="152"/>
-      <c r="G42" s="152"/>
-      <c r="H42" s="152"/>
-      <c r="I42" s="152"/>
-      <c r="J42" s="152"/>
-      <c r="K42" s="152"/>
-      <c r="L42" s="152"/>
+      <c r="B42" s="171"/>
+      <c r="C42" s="171"/>
+      <c r="D42" s="171"/>
+      <c r="E42" s="171"/>
+      <c r="F42" s="171"/>
+      <c r="G42" s="171"/>
+      <c r="H42" s="171"/>
+      <c r="I42" s="171"/>
+      <c r="J42" s="171"/>
+      <c r="K42" s="171"/>
+      <c r="L42" s="171"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="152"/>
-      <c r="C43" s="152"/>
-      <c r="D43" s="152"/>
-      <c r="E43" s="152"/>
-      <c r="F43" s="152"/>
-      <c r="G43" s="152"/>
-      <c r="H43" s="152"/>
-      <c r="I43" s="152"/>
-      <c r="J43" s="152"/>
-      <c r="K43" s="152"/>
-      <c r="L43" s="152"/>
+      <c r="B43" s="171"/>
+      <c r="C43" s="171"/>
+      <c r="D43" s="171"/>
+      <c r="E43" s="171"/>
+      <c r="F43" s="171"/>
+      <c r="G43" s="171"/>
+      <c r="H43" s="171"/>
+      <c r="I43" s="171"/>
+      <c r="J43" s="171"/>
+      <c r="K43" s="171"/>
+      <c r="L43" s="171"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="152"/>
-      <c r="C44" s="152"/>
-      <c r="D44" s="152"/>
-      <c r="E44" s="152"/>
-      <c r="F44" s="152"/>
-      <c r="G44" s="152"/>
-      <c r="H44" s="152"/>
-      <c r="I44" s="152"/>
-      <c r="J44" s="152"/>
-      <c r="K44" s="152"/>
-      <c r="L44" s="152"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="171"/>
+      <c r="D44" s="171"/>
+      <c r="E44" s="171"/>
+      <c r="F44" s="171"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="171"/>
+      <c r="I44" s="171"/>
+      <c r="J44" s="171"/>
+      <c r="K44" s="171"/>
+      <c r="L44" s="171"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="152"/>
-      <c r="C45" s="152"/>
-      <c r="D45" s="152"/>
-      <c r="E45" s="152"/>
-      <c r="F45" s="152"/>
-      <c r="G45" s="152"/>
-      <c r="H45" s="152"/>
-      <c r="I45" s="152"/>
-      <c r="J45" s="152"/>
-      <c r="K45" s="152"/>
-      <c r="L45" s="152"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="171"/>
+      <c r="D45" s="171"/>
+      <c r="E45" s="171"/>
+      <c r="F45" s="171"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="171"/>
+      <c r="I45" s="171"/>
+      <c r="J45" s="171"/>
+      <c r="K45" s="171"/>
+      <c r="L45" s="171"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="152"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="152"/>
-      <c r="F46" s="152"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="152"/>
-      <c r="I46" s="152"/>
-      <c r="J46" s="152"/>
-      <c r="K46" s="152"/>
-      <c r="L46" s="152"/>
+      <c r="B46" s="171"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="171"/>
+      <c r="F46" s="171"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="171"/>
+      <c r="I46" s="171"/>
+      <c r="J46" s="171"/>
+      <c r="K46" s="171"/>
+      <c r="L46" s="171"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="152"/>
-      <c r="C47" s="152"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="152"/>
-      <c r="F47" s="152"/>
-      <c r="G47" s="152"/>
-      <c r="H47" s="152"/>
-      <c r="I47" s="152"/>
-      <c r="J47" s="152"/>
-      <c r="K47" s="152"/>
-      <c r="L47" s="152"/>
+      <c r="B47" s="171"/>
+      <c r="C47" s="171"/>
+      <c r="D47" s="171"/>
+      <c r="E47" s="171"/>
+      <c r="F47" s="171"/>
+      <c r="G47" s="171"/>
+      <c r="H47" s="171"/>
+      <c r="I47" s="171"/>
+      <c r="J47" s="171"/>
+      <c r="K47" s="171"/>
+      <c r="L47" s="171"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="152"/>
-      <c r="C48" s="152"/>
-      <c r="D48" s="152"/>
-      <c r="E48" s="152"/>
-      <c r="F48" s="152"/>
-      <c r="G48" s="152"/>
-      <c r="H48" s="152"/>
-      <c r="I48" s="152"/>
-      <c r="J48" s="152"/>
-      <c r="K48" s="152"/>
-      <c r="L48" s="152"/>
+      <c r="B48" s="171"/>
+      <c r="C48" s="171"/>
+      <c r="D48" s="171"/>
+      <c r="E48" s="171"/>
+      <c r="F48" s="171"/>
+      <c r="G48" s="171"/>
+      <c r="H48" s="171"/>
+      <c r="I48" s="171"/>
+      <c r="J48" s="171"/>
+      <c r="K48" s="171"/>
+      <c r="L48" s="171"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="152"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="152"/>
-      <c r="F49" s="152"/>
-      <c r="G49" s="152"/>
-      <c r="H49" s="152"/>
-      <c r="I49" s="152"/>
-      <c r="J49" s="152"/>
-      <c r="K49" s="152"/>
-      <c r="L49" s="152"/>
+      <c r="B49" s="171"/>
+      <c r="C49" s="171"/>
+      <c r="D49" s="171"/>
+      <c r="E49" s="171"/>
+      <c r="F49" s="171"/>
+      <c r="G49" s="171"/>
+      <c r="H49" s="171"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="171"/>
+      <c r="K49" s="171"/>
+      <c r="L49" s="171"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="152"/>
-      <c r="C50" s="152"/>
-      <c r="D50" s="152"/>
-      <c r="E50" s="152"/>
-      <c r="F50" s="152"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="152"/>
-      <c r="K50" s="152"/>
-      <c r="L50" s="152"/>
+      <c r="B50" s="171"/>
+      <c r="C50" s="171"/>
+      <c r="D50" s="171"/>
+      <c r="E50" s="171"/>
+      <c r="F50" s="171"/>
+      <c r="G50" s="171"/>
+      <c r="H50" s="171"/>
+      <c r="I50" s="171"/>
+      <c r="J50" s="171"/>
+      <c r="K50" s="171"/>
+      <c r="L50" s="171"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="152"/>
-      <c r="C51" s="152"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="152"/>
-      <c r="F51" s="152"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
-      <c r="I51" s="152"/>
-      <c r="J51" s="152"/>
-      <c r="K51" s="152"/>
-      <c r="L51" s="152"/>
+      <c r="B51" s="171"/>
+      <c r="C51" s="171"/>
+      <c r="D51" s="171"/>
+      <c r="E51" s="171"/>
+      <c r="F51" s="171"/>
+      <c r="G51" s="171"/>
+      <c r="H51" s="171"/>
+      <c r="I51" s="171"/>
+      <c r="J51" s="171"/>
+      <c r="K51" s="171"/>
+      <c r="L51" s="171"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="152"/>
-      <c r="C52" s="152"/>
-      <c r="D52" s="152"/>
-      <c r="E52" s="152"/>
-      <c r="F52" s="152"/>
-      <c r="G52" s="152"/>
-      <c r="H52" s="152"/>
-      <c r="I52" s="152"/>
-      <c r="J52" s="152"/>
-      <c r="K52" s="152"/>
-      <c r="L52" s="152"/>
+      <c r="B52" s="171"/>
+      <c r="C52" s="171"/>
+      <c r="D52" s="171"/>
+      <c r="E52" s="171"/>
+      <c r="F52" s="171"/>
+      <c r="G52" s="171"/>
+      <c r="H52" s="171"/>
+      <c r="I52" s="171"/>
+      <c r="J52" s="171"/>
+      <c r="K52" s="171"/>
+      <c r="L52" s="171"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="152"/>
-      <c r="C53" s="152"/>
-      <c r="D53" s="152"/>
-      <c r="E53" s="152"/>
-      <c r="F53" s="152"/>
-      <c r="G53" s="152"/>
-      <c r="H53" s="152"/>
-      <c r="I53" s="152"/>
-      <c r="J53" s="152"/>
-      <c r="K53" s="152"/>
-      <c r="L53" s="152"/>
+      <c r="B53" s="171"/>
+      <c r="C53" s="171"/>
+      <c r="D53" s="171"/>
+      <c r="E53" s="171"/>
+      <c r="F53" s="171"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="171"/>
+      <c r="I53" s="171"/>
+      <c r="J53" s="171"/>
+      <c r="K53" s="171"/>
+      <c r="L53" s="171"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="152"/>
-      <c r="C54" s="152"/>
-      <c r="D54" s="152"/>
-      <c r="E54" s="152"/>
-      <c r="F54" s="152"/>
-      <c r="G54" s="152"/>
-      <c r="H54" s="152"/>
-      <c r="I54" s="152"/>
-      <c r="J54" s="152"/>
-      <c r="K54" s="152"/>
-      <c r="L54" s="152"/>
+      <c r="B54" s="171"/>
+      <c r="C54" s="171"/>
+      <c r="D54" s="171"/>
+      <c r="E54" s="171"/>
+      <c r="F54" s="171"/>
+      <c r="G54" s="171"/>
+      <c r="H54" s="171"/>
+      <c r="I54" s="171"/>
+      <c r="J54" s="171"/>
+      <c r="K54" s="171"/>
+      <c r="L54" s="171"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="152"/>
-      <c r="C55" s="152"/>
-      <c r="D55" s="152"/>
-      <c r="E55" s="152"/>
-      <c r="F55" s="152"/>
-      <c r="G55" s="152"/>
-      <c r="H55" s="152"/>
-      <c r="I55" s="152"/>
-      <c r="J55" s="152"/>
-      <c r="K55" s="152"/>
-      <c r="L55" s="152"/>
+      <c r="B55" s="171"/>
+      <c r="C55" s="171"/>
+      <c r="D55" s="171"/>
+      <c r="E55" s="171"/>
+      <c r="F55" s="171"/>
+      <c r="G55" s="171"/>
+      <c r="H55" s="171"/>
+      <c r="I55" s="171"/>
+      <c r="J55" s="171"/>
+      <c r="K55" s="171"/>
+      <c r="L55" s="171"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="152"/>
-      <c r="C56" s="152"/>
-      <c r="D56" s="152"/>
-      <c r="E56" s="152"/>
-      <c r="F56" s="152"/>
-      <c r="G56" s="152"/>
-      <c r="H56" s="152"/>
-      <c r="I56" s="152"/>
-      <c r="J56" s="152"/>
-      <c r="K56" s="152"/>
-      <c r="L56" s="152"/>
+      <c r="B56" s="171"/>
+      <c r="C56" s="171"/>
+      <c r="D56" s="171"/>
+      <c r="E56" s="171"/>
+      <c r="F56" s="171"/>
+      <c r="G56" s="171"/>
+      <c r="H56" s="171"/>
+      <c r="I56" s="171"/>
+      <c r="J56" s="171"/>
+      <c r="K56" s="171"/>
+      <c r="L56" s="171"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="152"/>
-      <c r="C57" s="152"/>
-      <c r="D57" s="152"/>
-      <c r="E57" s="152"/>
-      <c r="F57" s="152"/>
-      <c r="G57" s="152"/>
-      <c r="H57" s="152"/>
-      <c r="I57" s="152"/>
-      <c r="J57" s="152"/>
-      <c r="K57" s="152"/>
-      <c r="L57" s="152"/>
+      <c r="B57" s="171"/>
+      <c r="C57" s="171"/>
+      <c r="D57" s="171"/>
+      <c r="E57" s="171"/>
+      <c r="F57" s="171"/>
+      <c r="G57" s="171"/>
+      <c r="H57" s="171"/>
+      <c r="I57" s="171"/>
+      <c r="J57" s="171"/>
+      <c r="K57" s="171"/>
+      <c r="L57" s="171"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
       <c r="B58" s="31"/>
@@ -6469,176 +6473,176 @@
       <c r="J59" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K59" s="150" t="str">
+      <c r="K59" s="169" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L59" s="150"/>
+      <c r="L59" s="169"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="148" t="s">
+      <c r="B60" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="149"/>
-      <c r="D60" s="149"/>
-      <c r="E60" s="149"/>
-      <c r="F60" s="149"/>
-      <c r="G60" s="149"/>
-      <c r="H60" s="149"/>
-      <c r="I60" s="149"/>
-      <c r="J60" s="149"/>
-      <c r="K60" s="149"/>
-      <c r="L60" s="149"/>
+      <c r="C60" s="168"/>
+      <c r="D60" s="168"/>
+      <c r="E60" s="168"/>
+      <c r="F60" s="168"/>
+      <c r="G60" s="168"/>
+      <c r="H60" s="168"/>
+      <c r="I60" s="168"/>
+      <c r="J60" s="168"/>
+      <c r="K60" s="168"/>
+      <c r="L60" s="168"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="149"/>
-      <c r="C61" s="149"/>
-      <c r="D61" s="149"/>
-      <c r="E61" s="149"/>
-      <c r="F61" s="149"/>
-      <c r="G61" s="149"/>
-      <c r="H61" s="149"/>
-      <c r="I61" s="149"/>
-      <c r="J61" s="149"/>
-      <c r="K61" s="149"/>
-      <c r="L61" s="149"/>
+      <c r="B61" s="168"/>
+      <c r="C61" s="168"/>
+      <c r="D61" s="168"/>
+      <c r="E61" s="168"/>
+      <c r="F61" s="168"/>
+      <c r="G61" s="168"/>
+      <c r="H61" s="168"/>
+      <c r="I61" s="168"/>
+      <c r="J61" s="168"/>
+      <c r="K61" s="168"/>
+      <c r="L61" s="168"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="149"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="149"/>
-      <c r="E62" s="149"/>
-      <c r="F62" s="149"/>
-      <c r="G62" s="149"/>
-      <c r="H62" s="149"/>
-      <c r="I62" s="149"/>
-      <c r="J62" s="149"/>
-      <c r="K62" s="149"/>
-      <c r="L62" s="149"/>
+      <c r="B62" s="168"/>
+      <c r="C62" s="168"/>
+      <c r="D62" s="168"/>
+      <c r="E62" s="168"/>
+      <c r="F62" s="168"/>
+      <c r="G62" s="168"/>
+      <c r="H62" s="168"/>
+      <c r="I62" s="168"/>
+      <c r="J62" s="168"/>
+      <c r="K62" s="168"/>
+      <c r="L62" s="168"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="149"/>
-      <c r="C63" s="149"/>
-      <c r="D63" s="149"/>
-      <c r="E63" s="149"/>
-      <c r="F63" s="149"/>
-      <c r="G63" s="149"/>
-      <c r="H63" s="149"/>
-      <c r="I63" s="149"/>
-      <c r="J63" s="149"/>
-      <c r="K63" s="149"/>
-      <c r="L63" s="149"/>
+      <c r="B63" s="168"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
+      <c r="E63" s="168"/>
+      <c r="F63" s="168"/>
+      <c r="G63" s="168"/>
+      <c r="H63" s="168"/>
+      <c r="I63" s="168"/>
+      <c r="J63" s="168"/>
+      <c r="K63" s="168"/>
+      <c r="L63" s="168"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="149"/>
-      <c r="C64" s="149"/>
-      <c r="D64" s="149"/>
-      <c r="E64" s="149"/>
-      <c r="F64" s="149"/>
-      <c r="G64" s="149"/>
-      <c r="H64" s="149"/>
-      <c r="I64" s="149"/>
-      <c r="J64" s="149"/>
-      <c r="K64" s="149"/>
-      <c r="L64" s="149"/>
+      <c r="B64" s="168"/>
+      <c r="C64" s="168"/>
+      <c r="D64" s="168"/>
+      <c r="E64" s="168"/>
+      <c r="F64" s="168"/>
+      <c r="G64" s="168"/>
+      <c r="H64" s="168"/>
+      <c r="I64" s="168"/>
+      <c r="J64" s="168"/>
+      <c r="K64" s="168"/>
+      <c r="L64" s="168"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="149"/>
-      <c r="C65" s="149"/>
-      <c r="D65" s="149"/>
-      <c r="E65" s="149"/>
-      <c r="F65" s="149"/>
-      <c r="G65" s="149"/>
-      <c r="H65" s="149"/>
-      <c r="I65" s="149"/>
-      <c r="J65" s="149"/>
-      <c r="K65" s="149"/>
-      <c r="L65" s="149"/>
+      <c r="B65" s="168"/>
+      <c r="C65" s="168"/>
+      <c r="D65" s="168"/>
+      <c r="E65" s="168"/>
+      <c r="F65" s="168"/>
+      <c r="G65" s="168"/>
+      <c r="H65" s="168"/>
+      <c r="I65" s="168"/>
+      <c r="J65" s="168"/>
+      <c r="K65" s="168"/>
+      <c r="L65" s="168"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="149"/>
-      <c r="C66" s="149"/>
-      <c r="D66" s="149"/>
-      <c r="E66" s="149"/>
-      <c r="F66" s="149"/>
-      <c r="G66" s="149"/>
-      <c r="H66" s="149"/>
-      <c r="I66" s="149"/>
-      <c r="J66" s="149"/>
-      <c r="K66" s="149"/>
-      <c r="L66" s="149"/>
+      <c r="B66" s="168"/>
+      <c r="C66" s="168"/>
+      <c r="D66" s="168"/>
+      <c r="E66" s="168"/>
+      <c r="F66" s="168"/>
+      <c r="G66" s="168"/>
+      <c r="H66" s="168"/>
+      <c r="I66" s="168"/>
+      <c r="J66" s="168"/>
+      <c r="K66" s="168"/>
+      <c r="L66" s="168"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="149"/>
-      <c r="C67" s="149"/>
-      <c r="D67" s="149"/>
-      <c r="E67" s="149"/>
-      <c r="F67" s="149"/>
-      <c r="G67" s="149"/>
-      <c r="H67" s="149"/>
-      <c r="I67" s="149"/>
-      <c r="J67" s="149"/>
-      <c r="K67" s="149"/>
-      <c r="L67" s="149"/>
+      <c r="B67" s="168"/>
+      <c r="C67" s="168"/>
+      <c r="D67" s="168"/>
+      <c r="E67" s="168"/>
+      <c r="F67" s="168"/>
+      <c r="G67" s="168"/>
+      <c r="H67" s="168"/>
+      <c r="I67" s="168"/>
+      <c r="J67" s="168"/>
+      <c r="K67" s="168"/>
+      <c r="L67" s="168"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="149"/>
-      <c r="C68" s="149"/>
-      <c r="D68" s="149"/>
-      <c r="E68" s="149"/>
-      <c r="F68" s="149"/>
-      <c r="G68" s="149"/>
-      <c r="H68" s="149"/>
-      <c r="I68" s="149"/>
-      <c r="J68" s="149"/>
-      <c r="K68" s="149"/>
-      <c r="L68" s="149"/>
+      <c r="B68" s="168"/>
+      <c r="C68" s="168"/>
+      <c r="D68" s="168"/>
+      <c r="E68" s="168"/>
+      <c r="F68" s="168"/>
+      <c r="G68" s="168"/>
+      <c r="H68" s="168"/>
+      <c r="I68" s="168"/>
+      <c r="J68" s="168"/>
+      <c r="K68" s="168"/>
+      <c r="L68" s="168"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="149"/>
-      <c r="C69" s="149"/>
-      <c r="D69" s="149"/>
-      <c r="E69" s="149"/>
-      <c r="F69" s="149"/>
-      <c r="G69" s="149"/>
-      <c r="H69" s="149"/>
-      <c r="I69" s="149"/>
-      <c r="J69" s="149"/>
-      <c r="K69" s="149"/>
-      <c r="L69" s="149"/>
+      <c r="B69" s="168"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="168"/>
+      <c r="E69" s="168"/>
+      <c r="F69" s="168"/>
+      <c r="G69" s="168"/>
+      <c r="H69" s="168"/>
+      <c r="I69" s="168"/>
+      <c r="J69" s="168"/>
+      <c r="K69" s="168"/>
+      <c r="L69" s="168"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="149"/>
-      <c r="C70" s="149"/>
-      <c r="D70" s="149"/>
-      <c r="E70" s="149"/>
-      <c r="F70" s="149"/>
-      <c r="G70" s="149"/>
-      <c r="H70" s="149"/>
-      <c r="I70" s="149"/>
-      <c r="J70" s="149"/>
-      <c r="K70" s="149"/>
-      <c r="L70" s="149"/>
+      <c r="B70" s="168"/>
+      <c r="C70" s="168"/>
+      <c r="D70" s="168"/>
+      <c r="E70" s="168"/>
+      <c r="F70" s="168"/>
+      <c r="G70" s="168"/>
+      <c r="H70" s="168"/>
+      <c r="I70" s="168"/>
+      <c r="J70" s="168"/>
+      <c r="K70" s="168"/>
+      <c r="L70" s="168"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="149"/>
-      <c r="C71" s="149"/>
-      <c r="D71" s="149"/>
-      <c r="E71" s="149"/>
-      <c r="F71" s="149"/>
-      <c r="G71" s="149"/>
-      <c r="H71" s="149"/>
-      <c r="I71" s="149"/>
-      <c r="J71" s="149"/>
-      <c r="K71" s="149"/>
-      <c r="L71" s="149"/>
+      <c r="B71" s="168"/>
+      <c r="C71" s="168"/>
+      <c r="D71" s="168"/>
+      <c r="E71" s="168"/>
+      <c r="F71" s="168"/>
+      <c r="G71" s="168"/>
+      <c r="H71" s="168"/>
+      <c r="I71" s="168"/>
+      <c r="J71" s="168"/>
+      <c r="K71" s="168"/>
+      <c r="L71" s="168"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
       <c r="B73" s="29" t="s">
         <v>48</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D73" s="29"/>
       <c r="E73" s="29"/>
@@ -6764,9 +6768,8 @@
     </row>
     <row r="86" spans="2:9" ht="14.25">
       <c r="B86" s="29"/>
-      <c r="C86" s="32" t="str">
-        <f>記入!B4</f>
-        <v>${cv.depositchinese}</v>
+      <c r="C86" s="32" t="s">
+        <v>178</v>
       </c>
       <c r="D86" s="29"/>
       <c r="E86" s="29"/>
@@ -6869,11 +6872,11 @@
       <c r="J127" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="K127" s="147" t="str">
+      <c r="K127" s="166" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L127" s="147"/>
+      <c r="L127" s="166"/>
     </row>
     <row r="128" spans="2:12" s="58" customFormat="1" ht="18.75">
       <c r="B128" s="60" t="s">
@@ -6917,245 +6920,245 @@
       <c r="L130" s="62"/>
     </row>
     <row r="131" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="155" t="s">
+      <c r="B131" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="C131" s="155"/>
-      <c r="D131" s="156" t="str">
+      <c r="C131" s="148"/>
+      <c r="D131" s="164" t="str">
         <f>記入!B11</f>
         <v>${cv.pjnamechinese}</v>
       </c>
-      <c r="E131" s="156"/>
-      <c r="F131" s="156"/>
-      <c r="G131" s="156"/>
-      <c r="H131" s="156"/>
-      <c r="I131" s="156"/>
-      <c r="J131" s="156"/>
-      <c r="K131" s="156"/>
+      <c r="E131" s="164"/>
+      <c r="F131" s="164"/>
+      <c r="G131" s="164"/>
+      <c r="H131" s="164"/>
+      <c r="I131" s="164"/>
+      <c r="J131" s="164"/>
+      <c r="K131" s="164"/>
       <c r="L131" s="63"/>
     </row>
     <row r="132" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="155" t="s">
+      <c r="B132" s="148" t="s">
         <v>102</v>
       </c>
-      <c r="C132" s="155"/>
-      <c r="D132" s="157" t="str">
+      <c r="C132" s="148"/>
+      <c r="D132" s="165" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E132" s="156"/>
-      <c r="F132" s="156"/>
-      <c r="G132" s="156"/>
-      <c r="H132" s="156"/>
-      <c r="I132" s="156"/>
-      <c r="J132" s="156"/>
-      <c r="K132" s="156"/>
+      <c r="E132" s="164"/>
+      <c r="F132" s="164"/>
+      <c r="G132" s="164"/>
+      <c r="H132" s="164"/>
+      <c r="I132" s="164"/>
+      <c r="J132" s="164"/>
+      <c r="K132" s="164"/>
       <c r="L132" s="64"/>
     </row>
     <row r="133" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B133" s="155" t="s">
+      <c r="B133" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="C133" s="155"/>
-      <c r="D133" s="157" t="str">
+      <c r="C133" s="148"/>
+      <c r="D133" s="165" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E133" s="156"/>
-      <c r="F133" s="156"/>
-      <c r="G133" s="156"/>
-      <c r="H133" s="156"/>
-      <c r="I133" s="156"/>
-      <c r="J133" s="156"/>
-      <c r="K133" s="156"/>
+      <c r="E133" s="164"/>
+      <c r="F133" s="164"/>
+      <c r="G133" s="164"/>
+      <c r="H133" s="164"/>
+      <c r="I133" s="164"/>
+      <c r="J133" s="164"/>
+      <c r="K133" s="164"/>
       <c r="L133" s="64"/>
     </row>
     <row r="134" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="155" t="s">
+      <c r="B134" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="C134" s="155"/>
-      <c r="D134" s="158" t="str">
+      <c r="C134" s="148"/>
+      <c r="D134" s="157" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="E134" s="158"/>
-      <c r="F134" s="158"/>
-      <c r="G134" s="158"/>
-      <c r="H134" s="158"/>
-      <c r="I134" s="158"/>
-      <c r="J134" s="158"/>
-      <c r="K134" s="158"/>
+      <c r="E134" s="157"/>
+      <c r="F134" s="157"/>
+      <c r="G134" s="157"/>
+      <c r="H134" s="157"/>
+      <c r="I134" s="157"/>
+      <c r="J134" s="157"/>
+      <c r="K134" s="157"/>
       <c r="L134" s="64"/>
     </row>
     <row r="135" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="159" t="s">
+      <c r="B135" s="158" t="s">
         <v>105</v>
       </c>
-      <c r="C135" s="155"/>
-      <c r="D135" s="160" t="str">
+      <c r="C135" s="148"/>
+      <c r="D135" s="159" t="str">
         <f>記入!B44</f>
         <v>${cv.technicalcontentchinese}</v>
       </c>
-      <c r="E135" s="161"/>
-      <c r="F135" s="161"/>
-      <c r="G135" s="161"/>
-      <c r="H135" s="161"/>
-      <c r="I135" s="161"/>
-      <c r="J135" s="161"/>
-      <c r="K135" s="161"/>
+      <c r="E135" s="160"/>
+      <c r="F135" s="160"/>
+      <c r="G135" s="160"/>
+      <c r="H135" s="160"/>
+      <c r="I135" s="160"/>
+      <c r="J135" s="160"/>
+      <c r="K135" s="160"/>
       <c r="L135" s="64"/>
     </row>
     <row r="136" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="155"/>
-      <c r="C136" s="155"/>
-      <c r="D136" s="161"/>
-      <c r="E136" s="161"/>
-      <c r="F136" s="161"/>
-      <c r="G136" s="161"/>
-      <c r="H136" s="161"/>
-      <c r="I136" s="161"/>
-      <c r="J136" s="161"/>
-      <c r="K136" s="161"/>
+      <c r="B136" s="148"/>
+      <c r="C136" s="148"/>
+      <c r="D136" s="160"/>
+      <c r="E136" s="160"/>
+      <c r="F136" s="160"/>
+      <c r="G136" s="160"/>
+      <c r="H136" s="160"/>
+      <c r="I136" s="160"/>
+      <c r="J136" s="160"/>
+      <c r="K136" s="160"/>
       <c r="L136" s="64"/>
     </row>
     <row r="137" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="155"/>
-      <c r="C137" s="155"/>
-      <c r="D137" s="161"/>
-      <c r="E137" s="161"/>
-      <c r="F137" s="161"/>
-      <c r="G137" s="161"/>
-      <c r="H137" s="161"/>
-      <c r="I137" s="161"/>
-      <c r="J137" s="161"/>
-      <c r="K137" s="161"/>
+      <c r="B137" s="148"/>
+      <c r="C137" s="148"/>
+      <c r="D137" s="160"/>
+      <c r="E137" s="160"/>
+      <c r="F137" s="160"/>
+      <c r="G137" s="160"/>
+      <c r="H137" s="160"/>
+      <c r="I137" s="160"/>
+      <c r="J137" s="160"/>
+      <c r="K137" s="160"/>
       <c r="L137" s="64"/>
     </row>
     <row r="138" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="155"/>
-      <c r="C138" s="155"/>
-      <c r="D138" s="161"/>
-      <c r="E138" s="161"/>
-      <c r="F138" s="161"/>
-      <c r="G138" s="161"/>
-      <c r="H138" s="161"/>
-      <c r="I138" s="161"/>
-      <c r="J138" s="161"/>
-      <c r="K138" s="161"/>
+      <c r="B138" s="148"/>
+      <c r="C138" s="148"/>
+      <c r="D138" s="160"/>
+      <c r="E138" s="160"/>
+      <c r="F138" s="160"/>
+      <c r="G138" s="160"/>
+      <c r="H138" s="160"/>
+      <c r="I138" s="160"/>
+      <c r="J138" s="160"/>
+      <c r="K138" s="160"/>
       <c r="L138" s="63"/>
     </row>
     <row r="139" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="155"/>
-      <c r="C139" s="155"/>
-      <c r="D139" s="161"/>
-      <c r="E139" s="161"/>
-      <c r="F139" s="161"/>
-      <c r="G139" s="161"/>
-      <c r="H139" s="161"/>
-      <c r="I139" s="161"/>
-      <c r="J139" s="161"/>
-      <c r="K139" s="161"/>
+      <c r="B139" s="148"/>
+      <c r="C139" s="148"/>
+      <c r="D139" s="160"/>
+      <c r="E139" s="160"/>
+      <c r="F139" s="160"/>
+      <c r="G139" s="160"/>
+      <c r="H139" s="160"/>
+      <c r="I139" s="160"/>
+      <c r="J139" s="160"/>
+      <c r="K139" s="160"/>
       <c r="L139" s="63"/>
     </row>
     <row r="140" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="155"/>
-      <c r="C140" s="155"/>
-      <c r="D140" s="161"/>
-      <c r="E140" s="161"/>
-      <c r="F140" s="161"/>
-      <c r="G140" s="161"/>
-      <c r="H140" s="161"/>
-      <c r="I140" s="161"/>
-      <c r="J140" s="161"/>
-      <c r="K140" s="161"/>
+      <c r="B140" s="148"/>
+      <c r="C140" s="148"/>
+      <c r="D140" s="160"/>
+      <c r="E140" s="160"/>
+      <c r="F140" s="160"/>
+      <c r="G140" s="160"/>
+      <c r="H140" s="160"/>
+      <c r="I140" s="160"/>
+      <c r="J140" s="160"/>
+      <c r="K140" s="160"/>
       <c r="L140" s="64"/>
     </row>
     <row r="141" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="155"/>
-      <c r="C141" s="155"/>
-      <c r="D141" s="161"/>
-      <c r="E141" s="161"/>
-      <c r="F141" s="161"/>
-      <c r="G141" s="161"/>
-      <c r="H141" s="161"/>
-      <c r="I141" s="161"/>
-      <c r="J141" s="161"/>
-      <c r="K141" s="161"/>
+      <c r="B141" s="148"/>
+      <c r="C141" s="148"/>
+      <c r="D141" s="160"/>
+      <c r="E141" s="160"/>
+      <c r="F141" s="160"/>
+      <c r="G141" s="160"/>
+      <c r="H141" s="160"/>
+      <c r="I141" s="160"/>
+      <c r="J141" s="160"/>
+      <c r="K141" s="160"/>
       <c r="L141" s="64"/>
     </row>
     <row r="142" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="155" t="s">
+      <c r="B142" s="148" t="s">
         <v>106</v>
       </c>
-      <c r="C142" s="155"/>
-      <c r="D142" s="162" t="str">
+      <c r="C142" s="148"/>
+      <c r="D142" s="161" t="str">
         <f>記入!B55</f>
         <v>${cv.subcontract}</v>
       </c>
-      <c r="E142" s="163"/>
-      <c r="F142" s="163"/>
-      <c r="G142" s="163"/>
-      <c r="H142" s="163"/>
-      <c r="I142" s="163"/>
-      <c r="J142" s="163"/>
-      <c r="K142" s="164"/>
+      <c r="E142" s="162"/>
+      <c r="F142" s="162"/>
+      <c r="G142" s="162"/>
+      <c r="H142" s="162"/>
+      <c r="I142" s="162"/>
+      <c r="J142" s="162"/>
+      <c r="K142" s="163"/>
       <c r="L142" s="63"/>
     </row>
     <row r="143" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="155"/>
-      <c r="C143" s="155"/>
-      <c r="D143" s="160" t="str">
+      <c r="B143" s="148"/>
+      <c r="C143" s="148"/>
+      <c r="D143" s="159" t="str">
         <f>記入!B56</f>
         <v>再委托公司：
 ${cv.subcontractcontent}</v>
       </c>
-      <c r="E143" s="161"/>
-      <c r="F143" s="161"/>
-      <c r="G143" s="161"/>
-      <c r="H143" s="161"/>
-      <c r="I143" s="161"/>
-      <c r="J143" s="161"/>
-      <c r="K143" s="161"/>
+      <c r="E143" s="160"/>
+      <c r="F143" s="160"/>
+      <c r="G143" s="160"/>
+      <c r="H143" s="160"/>
+      <c r="I143" s="160"/>
+      <c r="J143" s="160"/>
+      <c r="K143" s="160"/>
       <c r="L143" s="65"/>
     </row>
     <row r="144" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="155"/>
-      <c r="C144" s="155"/>
-      <c r="D144" s="161"/>
-      <c r="E144" s="161"/>
-      <c r="F144" s="161"/>
-      <c r="G144" s="161"/>
-      <c r="H144" s="161"/>
-      <c r="I144" s="161"/>
-      <c r="J144" s="161"/>
-      <c r="K144" s="161"/>
+      <c r="B144" s="148"/>
+      <c r="C144" s="148"/>
+      <c r="D144" s="160"/>
+      <c r="E144" s="160"/>
+      <c r="F144" s="160"/>
+      <c r="G144" s="160"/>
+      <c r="H144" s="160"/>
+      <c r="I144" s="160"/>
+      <c r="J144" s="160"/>
+      <c r="K144" s="160"/>
       <c r="L144" s="65"/>
     </row>
     <row r="145" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="155"/>
-      <c r="C145" s="155"/>
-      <c r="D145" s="161"/>
-      <c r="E145" s="161"/>
-      <c r="F145" s="161"/>
-      <c r="G145" s="161"/>
-      <c r="H145" s="161"/>
-      <c r="I145" s="161"/>
-      <c r="J145" s="161"/>
-      <c r="K145" s="161"/>
+      <c r="B145" s="148"/>
+      <c r="C145" s="148"/>
+      <c r="D145" s="160"/>
+      <c r="E145" s="160"/>
+      <c r="F145" s="160"/>
+      <c r="G145" s="160"/>
+      <c r="H145" s="160"/>
+      <c r="I145" s="160"/>
+      <c r="J145" s="160"/>
+      <c r="K145" s="160"/>
       <c r="L145" s="65"/>
     </row>
     <row r="146" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="155"/>
-      <c r="C146" s="155"/>
-      <c r="D146" s="161"/>
-      <c r="E146" s="161"/>
-      <c r="F146" s="161"/>
-      <c r="G146" s="161"/>
-      <c r="H146" s="161"/>
-      <c r="I146" s="161"/>
-      <c r="J146" s="161"/>
-      <c r="K146" s="161"/>
+      <c r="B146" s="148"/>
+      <c r="C146" s="148"/>
+      <c r="D146" s="160"/>
+      <c r="E146" s="160"/>
+      <c r="F146" s="160"/>
+      <c r="G146" s="160"/>
+      <c r="H146" s="160"/>
+      <c r="I146" s="160"/>
+      <c r="J146" s="160"/>
+      <c r="K146" s="160"/>
       <c r="L146" s="65"/>
     </row>
     <row r="147" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7187,222 +7190,222 @@
       <c r="L148" s="64"/>
     </row>
     <row r="149" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="155" t="s">
+      <c r="B149" s="148" t="s">
         <v>80</v>
       </c>
-      <c r="C149" s="155"/>
-      <c r="D149" s="165" t="s">
+      <c r="C149" s="148"/>
+      <c r="D149" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="E149" s="165"/>
-      <c r="F149" s="165" t="s">
+      <c r="E149" s="149"/>
+      <c r="F149" s="149" t="s">
         <v>109</v>
       </c>
-      <c r="G149" s="165"/>
-      <c r="H149" s="165" t="s">
+      <c r="G149" s="149"/>
+      <c r="H149" s="149" t="s">
         <v>110</v>
       </c>
-      <c r="I149" s="165"/>
-      <c r="J149" s="165" t="s">
+      <c r="I149" s="149"/>
+      <c r="J149" s="149" t="s">
         <v>111</v>
       </c>
-      <c r="K149" s="165"/>
+      <c r="K149" s="149"/>
       <c r="L149" s="64"/>
     </row>
     <row r="150" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="155" t="s">
+      <c r="B150" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="C150" s="155"/>
-      <c r="D150" s="166" t="str">
+      <c r="C150" s="148"/>
+      <c r="D150" s="156" t="str">
         <f>記入!B29</f>
         <v>${ba1[0].deliverydate}</v>
       </c>
-      <c r="E150" s="165"/>
-      <c r="F150" s="166" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G150" s="165"/>
-      <c r="H150" s="166" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I150" s="165"/>
-      <c r="J150" s="166" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K150" s="165"/>
+      <c r="E150" s="149"/>
+      <c r="F150" s="131" t="str">
+        <f>記入!B30</f>
+        <v>${ba1[1].deliverydate}</v>
+      </c>
+      <c r="G150" s="132"/>
+      <c r="H150" s="131" t="str">
+        <f>記入!B31</f>
+        <v>${ba1[2].deliverydate}</v>
+      </c>
+      <c r="I150" s="132"/>
+      <c r="J150" s="131" t="str">
+        <f>記入!B32</f>
+        <v>${ba1[3].deliverydate}</v>
+      </c>
+      <c r="K150" s="132"/>
       <c r="L150" s="65"/>
     </row>
     <row r="151" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="155" t="s">
+      <c r="B151" s="148" t="s">
         <v>113</v>
       </c>
-      <c r="C151" s="155"/>
-      <c r="D151" s="166" t="str">
+      <c r="C151" s="148"/>
+      <c r="D151" s="156" t="str">
         <f>記入!C29</f>
         <v>${ba1[0].completiondate}</v>
       </c>
-      <c r="E151" s="165"/>
-      <c r="F151" s="166" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G151" s="165"/>
-      <c r="H151" s="166" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I151" s="165"/>
-      <c r="J151" s="166" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K151" s="165"/>
+      <c r="E151" s="149"/>
+      <c r="F151" s="131" t="str">
+        <f>記入!C30</f>
+        <v>${ba1[1].completiondate}</v>
+      </c>
+      <c r="G151" s="132"/>
+      <c r="H151" s="131" t="str">
+        <f>記入!C31</f>
+        <v>${ba1[2].completiondate}</v>
+      </c>
+      <c r="I151" s="132"/>
+      <c r="J151" s="131" t="str">
+        <f>記入!C32</f>
+        <v>${ba1[3].completiondate}</v>
+      </c>
+      <c r="K151" s="132"/>
       <c r="L151" s="63"/>
     </row>
     <row r="152" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="155" t="s">
+      <c r="B152" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="C152" s="155"/>
-      <c r="D152" s="167" t="str">
+      <c r="C152" s="148"/>
+      <c r="D152" s="155" t="str">
         <f>記入!D29</f>
         <v>${ba1[0].claimdate}</v>
       </c>
-      <c r="E152" s="168"/>
-      <c r="F152" s="166" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G152" s="165"/>
-      <c r="H152" s="166" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I152" s="165"/>
-      <c r="J152" s="166" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K152" s="165"/>
+      <c r="E152" s="153"/>
+      <c r="F152" s="131" t="str">
+        <f>記入!D30</f>
+        <v>${ba1[1].claimdate}</v>
+      </c>
+      <c r="G152" s="132"/>
+      <c r="H152" s="131" t="str">
+        <f>記入!D31</f>
+        <v>${ba1[2].claimdate}</v>
+      </c>
+      <c r="I152" s="132"/>
+      <c r="J152" s="131" t="str">
+        <f>記入!D32</f>
+        <v>${ba1[3].claimdate}</v>
+      </c>
+      <c r="K152" s="132"/>
       <c r="L152" s="63"/>
     </row>
     <row r="153" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="155" t="s">
+      <c r="B153" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="C153" s="155"/>
-      <c r="D153" s="167" t="str">
+      <c r="C153" s="148"/>
+      <c r="D153" s="155" t="str">
         <f>記入!E29</f>
         <v>${ba1[0].supportdate}</v>
       </c>
-      <c r="E153" s="168"/>
-      <c r="F153" s="166" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G153" s="165"/>
-      <c r="H153" s="166" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I153" s="165"/>
-      <c r="J153" s="166" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K153" s="165"/>
+      <c r="E153" s="153"/>
+      <c r="F153" s="131" t="str">
+        <f>記入!E30</f>
+        <v>${ba1[1].supportdate}</v>
+      </c>
+      <c r="G153" s="132"/>
+      <c r="H153" s="131" t="str">
+        <f>記入!E31</f>
+        <v>${ba1[2].supportdate}</v>
+      </c>
+      <c r="I153" s="132"/>
+      <c r="J153" s="131" t="str">
+        <f>記入!E32</f>
+        <v>${ba1[3].supportdate}</v>
+      </c>
+      <c r="K153" s="132"/>
       <c r="L153" s="63"/>
     </row>
     <row r="154" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="155" t="s">
+      <c r="B154" s="148" t="s">
         <v>116</v>
       </c>
-      <c r="C154" s="155"/>
-      <c r="D154" s="169" t="str">
+      <c r="C154" s="148"/>
+      <c r="D154" s="154" t="str">
         <f>記入!F29</f>
         <v>${ba1[0].claimamount}</v>
       </c>
-      <c r="E154" s="168"/>
-      <c r="F154" s="170" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G154" s="165"/>
-      <c r="H154" s="170" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I154" s="165"/>
-      <c r="J154" s="170" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K154" s="165"/>
+      <c r="E154" s="153"/>
+      <c r="F154" s="133" t="str">
+        <f>記入!F30</f>
+        <v>${ba1[1].claimamount}</v>
+      </c>
+      <c r="G154" s="132"/>
+      <c r="H154" s="133" t="str">
+        <f>記入!F31</f>
+        <v>${ba1[2].claimamount}</v>
+      </c>
+      <c r="I154" s="132"/>
+      <c r="J154" s="133" t="str">
+        <f>記入!F32</f>
+        <v>${ba1[3].claimamount}</v>
+      </c>
+      <c r="K154" s="132"/>
       <c r="L154" s="63"/>
     </row>
     <row r="155" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="155" t="s">
+      <c r="B155" s="148" t="s">
         <v>117</v>
       </c>
-      <c r="C155" s="155"/>
-      <c r="D155" s="168" t="str">
+      <c r="C155" s="148"/>
+      <c r="D155" s="153" t="str">
         <f>記入!B12&amp;(-1)</f>
         <v>${cv.contractnumber}-1</v>
       </c>
-      <c r="E155" s="168"/>
-      <c r="F155" s="165" t="str">
+      <c r="E155" s="153"/>
+      <c r="F155" s="149" t="str">
         <f>記入!B12&amp;(-2)</f>
         <v>${cv.contractnumber}-2</v>
       </c>
-      <c r="G155" s="165"/>
-      <c r="H155" s="165" t="str">
+      <c r="G155" s="149"/>
+      <c r="H155" s="149" t="str">
         <f>記入!B12&amp;(-3)</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="I155" s="165"/>
-      <c r="J155" s="165" t="str">
+      <c r="I155" s="149"/>
+      <c r="J155" s="149" t="str">
         <f>記入!B12&amp;(-4)</f>
         <v>${cv.contractnumber}-4</v>
       </c>
-      <c r="K155" s="165"/>
+      <c r="K155" s="149"/>
       <c r="L155" s="63"/>
     </row>
     <row r="156" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="155" t="s">
+      <c r="B156" s="148" t="s">
         <v>91</v>
       </c>
-      <c r="C156" s="155"/>
-      <c r="D156" s="165" t="s">
+      <c r="C156" s="148"/>
+      <c r="D156" s="149" t="s">
         <v>119</v>
       </c>
-      <c r="E156" s="165"/>
-      <c r="F156" s="165"/>
-      <c r="G156" s="165"/>
-      <c r="H156" s="165"/>
-      <c r="I156" s="165"/>
-      <c r="J156" s="165"/>
-      <c r="K156" s="165"/>
+      <c r="E156" s="149"/>
+      <c r="F156" s="149"/>
+      <c r="G156" s="149"/>
+      <c r="H156" s="149"/>
+      <c r="I156" s="149"/>
+      <c r="J156" s="149"/>
+      <c r="K156" s="149"/>
       <c r="L156" s="64"/>
     </row>
     <row r="157" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="155" t="s">
+      <c r="B157" s="148" t="s">
         <v>118</v>
       </c>
-      <c r="C157" s="155"/>
-      <c r="D157" s="165" t="s">
+      <c r="C157" s="148"/>
+      <c r="D157" s="149" t="s">
         <v>120</v>
       </c>
-      <c r="E157" s="165"/>
-      <c r="F157" s="165"/>
-      <c r="G157" s="165"/>
-      <c r="H157" s="165"/>
-      <c r="I157" s="165"/>
-      <c r="J157" s="165"/>
-      <c r="K157" s="165"/>
+      <c r="E157" s="149"/>
+      <c r="F157" s="149"/>
+      <c r="G157" s="149"/>
+      <c r="H157" s="149"/>
+      <c r="I157" s="149"/>
+      <c r="J157" s="149"/>
+      <c r="K157" s="149"/>
       <c r="L157" s="64"/>
     </row>
     <row r="158" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7434,60 +7437,60 @@
       <c r="L159" s="65"/>
     </row>
     <row r="160" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="171" t="s">
+      <c r="B160" s="150" t="s">
         <v>122</v>
       </c>
-      <c r="C160" s="171"/>
-      <c r="D160" s="171" t="str">
+      <c r="C160" s="150"/>
+      <c r="D160" s="150" t="str">
         <f>記入!B63</f>
         <v>${cv.othertermschinese}</v>
       </c>
-      <c r="E160" s="171"/>
-      <c r="F160" s="171"/>
-      <c r="G160" s="171"/>
-      <c r="H160" s="171"/>
-      <c r="I160" s="171"/>
-      <c r="J160" s="171"/>
-      <c r="K160" s="171"/>
+      <c r="E160" s="150"/>
+      <c r="F160" s="150"/>
+      <c r="G160" s="150"/>
+      <c r="H160" s="150"/>
+      <c r="I160" s="150"/>
+      <c r="J160" s="150"/>
+      <c r="K160" s="150"/>
       <c r="L160" s="65"/>
     </row>
     <row r="161" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="172"/>
-      <c r="C161" s="172"/>
-      <c r="D161" s="172"/>
-      <c r="E161" s="172"/>
-      <c r="F161" s="172"/>
-      <c r="G161" s="172"/>
-      <c r="H161" s="172"/>
-      <c r="I161" s="172"/>
-      <c r="J161" s="172"/>
-      <c r="K161" s="172"/>
+      <c r="B161" s="151"/>
+      <c r="C161" s="151"/>
+      <c r="D161" s="151"/>
+      <c r="E161" s="151"/>
+      <c r="F161" s="151"/>
+      <c r="G161" s="151"/>
+      <c r="H161" s="151"/>
+      <c r="I161" s="151"/>
+      <c r="J161" s="151"/>
+      <c r="K161" s="151"/>
       <c r="L161" s="65"/>
     </row>
     <row r="162" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="172"/>
-      <c r="C162" s="172"/>
-      <c r="D162" s="172"/>
-      <c r="E162" s="172"/>
-      <c r="F162" s="172"/>
-      <c r="G162" s="172"/>
-      <c r="H162" s="172"/>
-      <c r="I162" s="172"/>
-      <c r="J162" s="172"/>
-      <c r="K162" s="172"/>
+      <c r="B162" s="151"/>
+      <c r="C162" s="151"/>
+      <c r="D162" s="151"/>
+      <c r="E162" s="151"/>
+      <c r="F162" s="151"/>
+      <c r="G162" s="151"/>
+      <c r="H162" s="151"/>
+      <c r="I162" s="151"/>
+      <c r="J162" s="151"/>
+      <c r="K162" s="151"/>
       <c r="L162" s="63"/>
     </row>
     <row r="163" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="173"/>
-      <c r="C163" s="173"/>
-      <c r="D163" s="173"/>
-      <c r="E163" s="173"/>
-      <c r="F163" s="173"/>
-      <c r="G163" s="173"/>
-      <c r="H163" s="173"/>
-      <c r="I163" s="173"/>
-      <c r="J163" s="173"/>
-      <c r="K163" s="173"/>
+      <c r="B163" s="152"/>
+      <c r="C163" s="152"/>
+      <c r="D163" s="152"/>
+      <c r="E163" s="152"/>
+      <c r="F163" s="152"/>
+      <c r="G163" s="152"/>
+      <c r="H163" s="152"/>
+      <c r="I163" s="152"/>
+      <c r="J163" s="152"/>
+      <c r="K163" s="152"/>
       <c r="L163" s="65"/>
     </row>
     <row r="164" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7718,47 +7721,19 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:K156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D157:K157"/>
-    <mergeCell ref="B160:C163"/>
-    <mergeCell ref="D160:K163"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="B60:L71"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B11:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="D131:K131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="D132:K132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:K133"/>
     <mergeCell ref="B134:C134"/>
     <mergeCell ref="D134:K134"/>
     <mergeCell ref="B135:C141"/>
@@ -7766,19 +7741,47 @@
     <mergeCell ref="B142:C146"/>
     <mergeCell ref="D142:K142"/>
     <mergeCell ref="D143:K146"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="D131:K131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="D132:K132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="D133:K133"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="B60:L71"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B11:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:K156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:K157"/>
+    <mergeCell ref="B160:C163"/>
+    <mergeCell ref="D160:K163"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="205">
   <si>
     <t>委託元（和文）</t>
     <rPh sb="4" eb="6">
@@ -1417,6 +1417,110 @@
   </si>
   <si>
     <t>${cv.depositchinese}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[0].deliverydate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[1].deliverydate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[2].deliverydate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[3].deliverydate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[0].completiondate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[1].completiondate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[2].completiondate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[3].completiondate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[0].claimdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[1].claimdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[2].claimdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[3].claimdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[0].supportdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[1].supportdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[2].supportdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[3].supportdate}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[0].claimamount}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[1].claimamount}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[2].claimamount}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${ba1[3].claimamount}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${cv.contractnumber}-1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${cv.contractnumber}-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${cv.contractnumber}-3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${cv.contractnumber}-4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${cv.contractnumber}-3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${cv.contractnumber}-4</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1912,7 +2016,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2013,7 +2117,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2098,6 +2201,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2323,18 +2430,6 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2385,6 +2480,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2699,8 +2800,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2717,14 +2818,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="G1" s="114" t="s">
+      <c r="B1" s="114"/>
+      <c r="G1" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="115"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="36" t="s">
@@ -2737,8 +2838,8 @@
         <v>15</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="37" t="s">
@@ -2748,8 +2849,8 @@
       <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="116"/>
-      <c r="H3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="36" t="s">
@@ -2761,8 +2862,8 @@
       <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="116"/>
-      <c r="H4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="118"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="36" t="s">
@@ -2772,8 +2873,8 @@
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="116"/>
-      <c r="H5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="118"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="38" t="s">
@@ -2785,8 +2886,8 @@
       <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="116"/>
-      <c r="H6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="118"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="38" t="s">
@@ -2798,8 +2899,8 @@
       <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="116"/>
-      <c r="H7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="118"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="36" t="s">
@@ -2809,8 +2910,8 @@
       <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="116"/>
-      <c r="H8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="118"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="37" t="s">
@@ -2822,8 +2923,8 @@
       <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="118"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="36" t="s">
@@ -2835,8 +2936,8 @@
       <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="118"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="36" t="s">
@@ -2848,8 +2949,8 @@
       <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="116"/>
-      <c r="H11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="118"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="36" t="s">
@@ -2861,8 +2962,8 @@
       <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="116"/>
-      <c r="H12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="118"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="36" t="s">
@@ -2872,8 +2973,8 @@
       <c r="C13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="116"/>
-      <c r="H13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="118"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="36" t="s">
@@ -2885,8 +2986,8 @@
       <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="118"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="36" t="s">
@@ -2898,8 +2999,8 @@
       <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="118"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="36" t="s">
@@ -2909,8 +3010,8 @@
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="116"/>
-      <c r="H16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="118"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="36" t="s">
@@ -2920,8 +3021,8 @@
       <c r="C17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="116"/>
-      <c r="H17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="36" t="s">
@@ -2931,8 +3032,8 @@
       <c r="C18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="116"/>
-      <c r="H18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="36" t="s">
@@ -2944,8 +3045,8 @@
       <c r="C19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="116"/>
-      <c r="H19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="36" t="s">
@@ -2957,8 +3058,8 @@
       <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="116"/>
-      <c r="H20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="36" t="s">
@@ -2968,8 +3069,8 @@
       <c r="C21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="116"/>
-      <c r="H21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="36" t="s">
@@ -2979,8 +3080,8 @@
       <c r="C22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="116"/>
-      <c r="H22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="37" t="s">
@@ -2990,8 +3091,8 @@
       <c r="C23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="116"/>
-      <c r="H23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A24" s="37" t="s">
@@ -3001,8 +3102,8 @@
       <c r="C24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="116"/>
-      <c r="H24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A25" s="37" t="s">
@@ -3014,8 +3115,8 @@
       <c r="C25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="116"/>
-      <c r="H25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="118"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="37" t="s">
@@ -3027,14 +3128,14 @@
       <c r="C26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="116"/>
-      <c r="H26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="118"/>
     </row>
     <row r="27" spans="1:8" ht="1.5" hidden="1" customHeight="1">
       <c r="A27" s="39"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="118"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="40" t="s">
@@ -3055,100 +3156,100 @@
       <c r="F28" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="116"/>
-      <c r="H28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="118"/>
     </row>
     <row r="29" spans="1:8" ht="13.5">
-      <c r="A29" s="77" t="str">
+      <c r="A29" s="76" t="str">
         <f>IF(B29="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="D29" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="E29" s="74" t="s">
+      <c r="E29" s="73" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="76" t="s">
+      <c r="F29" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="G29" s="118"/>
-      <c r="H29" s="117"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="118"/>
     </row>
     <row r="30" spans="1:8" ht="13.5">
-      <c r="A30" s="77" t="str">
+      <c r="A30" s="76" t="str">
         <f>IF(B30="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="73" t="s">
         <v>177</v>
       </c>
-      <c r="C30" s="75" t="s">
+      <c r="C30" s="74" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="74" t="s">
+      <c r="D30" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="E30" s="74" t="s">
+      <c r="E30" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="F30" s="76" t="s">
+      <c r="F30" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
     </row>
     <row r="31" spans="1:8" ht="13.5">
-      <c r="A31" s="77" t="str">
+      <c r="A31" s="76" t="str">
         <f>IF(B31="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="E31" s="74" t="s">
+      <c r="E31" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="F31" s="76" t="s">
+      <c r="F31" s="75" t="s">
         <v>158</v>
       </c>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
     </row>
     <row r="32" spans="1:8" ht="13.5">
-      <c r="A32" s="77" t="str">
+      <c r="A32" s="76" t="str">
         <f>IF(B32="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="E32" s="74" t="s">
+      <c r="E32" s="73" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="76" t="s">
+      <c r="F32" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
     </row>
     <row r="33" spans="1:6" ht="12" customHeight="1">
       <c r="A33" s="2"/>
@@ -3165,14 +3266,14 @@
       <c r="B35" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="119" t="s">
+      <c r="C35" s="120" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="120"/>
-      <c r="E35" s="121" t="s">
+      <c r="D35" s="121"/>
+      <c r="E35" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="F35" s="122"/>
+      <c r="F35" s="123"/>
     </row>
     <row r="36" spans="1:6" ht="13.5">
       <c r="A36" s="13" t="s">
@@ -3181,17 +3282,17 @@
       <c r="B36" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="119" t="s">
+      <c r="C36" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="120"/>
-      <c r="E36" s="121" t="s">
+      <c r="D36" s="121"/>
+      <c r="E36" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="122"/>
+      <c r="F36" s="123"/>
     </row>
     <row r="37" spans="1:6" ht="13.5">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="56" t="s">
         <v>61</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -3201,256 +3302,256 @@
       <c r="D37" s="43"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="87" t="s">
+      <c r="B38" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="90"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="83"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="92"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="93"/>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A40" s="83"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="92"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="93"/>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A41" s="83"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="92"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="93"/>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A42" s="83"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="92"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="93"/>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A43" s="84"/>
-      <c r="B43" s="93"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="95"/>
+      <c r="A43" s="85"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="96"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="108" t="s">
+      <c r="B44" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="109"/>
-      <c r="D44" s="109"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="109"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
     </row>
     <row r="45" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A45" s="110"/>
-      <c r="B45" s="109"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="109"/>
+      <c r="A45" s="111"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
     </row>
     <row r="46" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A46" s="110"/>
-      <c r="B46" s="109"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="110"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A47" s="110"/>
-      <c r="B47" s="109"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
+      <c r="A47" s="111"/>
+      <c r="B47" s="110"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A48" s="110"/>
-      <c r="B48" s="109"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="109"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="110"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A49" s="110"/>
-      <c r="B49" s="109"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A50" s="82" t="s">
+      <c r="A50" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="105" t="s">
+      <c r="B50" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="107"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="108"/>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A51" s="85"/>
-      <c r="B51" s="96" t="s">
+      <c r="A51" s="86"/>
+      <c r="B51" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="98"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="99"/>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A52" s="85"/>
-      <c r="B52" s="99"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="100"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="101"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="100"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="102"/>
     </row>
     <row r="53" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A53" s="85"/>
-      <c r="B53" s="99"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="101"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="100"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="102"/>
     </row>
     <row r="54" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A54" s="86"/>
-      <c r="B54" s="102"/>
-      <c r="C54" s="103"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="104"/>
+      <c r="A54" s="87"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="105"/>
     </row>
     <row r="55" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A55" s="111" t="s">
+      <c r="A55" s="112" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="105" t="s">
+      <c r="B55" s="106" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="106"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="107"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="108"/>
     </row>
     <row r="56" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A56" s="111"/>
-      <c r="B56" s="112" t="s">
+      <c r="A56" s="112"/>
+      <c r="B56" s="113" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="82"/>
+      <c r="E56" s="82"/>
+      <c r="F56" s="82"/>
     </row>
     <row r="57" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A57" s="111"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
+      <c r="A57" s="112"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
     </row>
     <row r="58" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A58" s="111"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
+      <c r="A58" s="112"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="111"/>
-      <c r="B59" s="81"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
+      <c r="A59" s="112"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="78" t="s">
+      <c r="A60" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="80" t="s">
+      <c r="B60" s="81" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="82"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="78"/>
-      <c r="B61" s="81"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
+      <c r="A61" s="79"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="82"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="78"/>
-      <c r="B62" s="81"/>
-      <c r="C62" s="81"/>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81"/>
+      <c r="A62" s="79"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="82"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="82"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="78" t="s">
+      <c r="A63" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="B63" s="80" t="s">
+      <c r="B63" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="79"/>
-      <c r="B64" s="81"/>
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
+      <c r="A64" s="80"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="79"/>
-      <c r="B65" s="81"/>
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="81"/>
+      <c r="A65" s="80"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -3495,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L190"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A145" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F150" sqref="F150:K154"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A142" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H153" sqref="H153:I153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3512,18 +3613,18 @@
       <c r="J2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="138" t="str">
+      <c r="K2" s="139" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="138"/>
+      <c r="L2" s="139"/>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="17" t="s">
@@ -3579,39 +3680,39 @@
       <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="147" t="str">
+      <c r="C8" s="44"/>
+      <c r="D8" s="148" t="str">
         <f>記入!B37</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E8" s="147"/>
-      <c r="F8" s="46" t="s">
+      <c r="E8" s="148"/>
+      <c r="F8" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="B10" s="18"/>
@@ -3627,617 +3728,617 @@
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="144" t="s">
+      <c r="B11" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="144"/>
-      <c r="C12" s="144"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="145"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="144"/>
-      <c r="C15" s="144"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="144"/>
-      <c r="C16" s="144"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="145"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="144"/>
-      <c r="C19" s="144"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="144"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="144"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="145"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="144"/>
-      <c r="C20" s="144"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="144"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="144"/>
-      <c r="C21" s="144"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="144"/>
-      <c r="C22" s="144"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="144"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="145"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="144"/>
-      <c r="C23" s="144"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="144"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="145"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="144"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="144"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="145"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="144"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="144"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="145"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="144"/>
-      <c r="C26" s="144"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="145"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="144"/>
-      <c r="C27" s="144"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="144"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="145"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="144"/>
-      <c r="C28" s="144"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="144"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="144"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="144"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="144"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="145"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="144"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="144"/>
-      <c r="E30" s="144"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="144"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="145"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="144"/>
-      <c r="C31" s="144"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="144"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="145"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="144"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="144"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="145"/>
+      <c r="L32" s="145"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="144"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="144"/>
-      <c r="L33" s="144"/>
+      <c r="B33" s="145"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="145"/>
+      <c r="L33" s="145"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="144"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="144"/>
-      <c r="K34" s="144"/>
-      <c r="L34" s="144"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="145"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="144"/>
-      <c r="C35" s="144"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="144"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="144"/>
-      <c r="K35" s="144"/>
-      <c r="L35" s="144"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="145"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="145"/>
+      <c r="L35" s="145"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="144"/>
-      <c r="C36" s="144"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="144"/>
-      <c r="K36" s="144"/>
-      <c r="L36" s="144"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="145"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="145"/>
+      <c r="L36" s="145"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="144"/>
-      <c r="C37" s="144"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="144"/>
-      <c r="I37" s="144"/>
-      <c r="J37" s="144"/>
-      <c r="K37" s="144"/>
-      <c r="L37" s="144"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="145"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="145"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
+      <c r="J37" s="145"/>
+      <c r="K37" s="145"/>
+      <c r="L37" s="145"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="144"/>
-      <c r="C38" s="144"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="144"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="144"/>
-      <c r="K38" s="144"/>
-      <c r="L38" s="144"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="145"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="145"/>
+      <c r="K38" s="145"/>
+      <c r="L38" s="145"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="144"/>
-      <c r="C39" s="144"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="144"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="144"/>
-      <c r="K39" s="144"/>
-      <c r="L39" s="144"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="145"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="145"/>
+      <c r="K39" s="145"/>
+      <c r="L39" s="145"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="144"/>
-      <c r="C40" s="144"/>
-      <c r="D40" s="144"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="144"/>
-      <c r="I40" s="144"/>
-      <c r="J40" s="144"/>
-      <c r="K40" s="144"/>
-      <c r="L40" s="144"/>
+      <c r="B40" s="145"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="145"/>
+      <c r="K40" s="145"/>
+      <c r="L40" s="145"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="144"/>
-      <c r="C41" s="144"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="144"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="144"/>
-      <c r="K41" s="144"/>
-      <c r="L41" s="144"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="145"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
+      <c r="K41" s="145"/>
+      <c r="L41" s="145"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="144"/>
-      <c r="C42" s="144"/>
-      <c r="D42" s="144"/>
-      <c r="E42" s="144"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="144"/>
-      <c r="H42" s="144"/>
-      <c r="I42" s="144"/>
-      <c r="J42" s="144"/>
-      <c r="K42" s="144"/>
-      <c r="L42" s="144"/>
+      <c r="B42" s="145"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="145"/>
+      <c r="K42" s="145"/>
+      <c r="L42" s="145"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="144"/>
-      <c r="C43" s="144"/>
-      <c r="D43" s="144"/>
-      <c r="E43" s="144"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="144"/>
-      <c r="H43" s="144"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="144"/>
-      <c r="K43" s="144"/>
-      <c r="L43" s="144"/>
+      <c r="B43" s="145"/>
+      <c r="C43" s="145"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="145"/>
+      <c r="I43" s="145"/>
+      <c r="J43" s="145"/>
+      <c r="K43" s="145"/>
+      <c r="L43" s="145"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="144"/>
-      <c r="C44" s="144"/>
-      <c r="D44" s="144"/>
-      <c r="E44" s="144"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="144"/>
-      <c r="H44" s="144"/>
-      <c r="I44" s="144"/>
-      <c r="J44" s="144"/>
-      <c r="K44" s="144"/>
-      <c r="L44" s="144"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
+      <c r="G44" s="145"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="145"/>
+      <c r="K44" s="145"/>
+      <c r="L44" s="145"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="144"/>
-      <c r="C45" s="144"/>
-      <c r="D45" s="144"/>
-      <c r="E45" s="144"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-      <c r="I45" s="144"/>
-      <c r="J45" s="144"/>
-      <c r="K45" s="144"/>
-      <c r="L45" s="144"/>
+      <c r="B45" s="145"/>
+      <c r="C45" s="145"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
+      <c r="G45" s="145"/>
+      <c r="H45" s="145"/>
+      <c r="I45" s="145"/>
+      <c r="J45" s="145"/>
+      <c r="K45" s="145"/>
+      <c r="L45" s="145"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="144"/>
-      <c r="C46" s="144"/>
-      <c r="D46" s="144"/>
-      <c r="E46" s="144"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="144"/>
-      <c r="H46" s="144"/>
-      <c r="I46" s="144"/>
-      <c r="J46" s="144"/>
-      <c r="K46" s="144"/>
-      <c r="L46" s="144"/>
+      <c r="B46" s="145"/>
+      <c r="C46" s="145"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="145"/>
+      <c r="I46" s="145"/>
+      <c r="J46" s="145"/>
+      <c r="K46" s="145"/>
+      <c r="L46" s="145"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="144"/>
-      <c r="C47" s="144"/>
-      <c r="D47" s="144"/>
-      <c r="E47" s="144"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="144"/>
-      <c r="H47" s="144"/>
-      <c r="I47" s="144"/>
-      <c r="J47" s="144"/>
-      <c r="K47" s="144"/>
-      <c r="L47" s="144"/>
+      <c r="B47" s="145"/>
+      <c r="C47" s="145"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+      <c r="G47" s="145"/>
+      <c r="H47" s="145"/>
+      <c r="I47" s="145"/>
+      <c r="J47" s="145"/>
+      <c r="K47" s="145"/>
+      <c r="L47" s="145"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="144"/>
-      <c r="C48" s="144"/>
-      <c r="D48" s="144"/>
-      <c r="E48" s="144"/>
-      <c r="F48" s="144"/>
-      <c r="G48" s="144"/>
-      <c r="H48" s="144"/>
-      <c r="I48" s="144"/>
-      <c r="J48" s="144"/>
-      <c r="K48" s="144"/>
-      <c r="L48" s="144"/>
+      <c r="B48" s="145"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="145"/>
+      <c r="I48" s="145"/>
+      <c r="J48" s="145"/>
+      <c r="K48" s="145"/>
+      <c r="L48" s="145"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="144"/>
-      <c r="C49" s="144"/>
-      <c r="D49" s="144"/>
-      <c r="E49" s="144"/>
-      <c r="F49" s="144"/>
-      <c r="G49" s="144"/>
-      <c r="H49" s="144"/>
-      <c r="I49" s="144"/>
-      <c r="J49" s="144"/>
-      <c r="K49" s="144"/>
-      <c r="L49" s="144"/>
+      <c r="B49" s="145"/>
+      <c r="C49" s="145"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
+      <c r="G49" s="145"/>
+      <c r="H49" s="145"/>
+      <c r="I49" s="145"/>
+      <c r="J49" s="145"/>
+      <c r="K49" s="145"/>
+      <c r="L49" s="145"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="144"/>
-      <c r="C50" s="144"/>
-      <c r="D50" s="144"/>
-      <c r="E50" s="144"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="144"/>
-      <c r="H50" s="144"/>
-      <c r="I50" s="144"/>
-      <c r="J50" s="144"/>
-      <c r="K50" s="144"/>
-      <c r="L50" s="144"/>
+      <c r="B50" s="145"/>
+      <c r="C50" s="145"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+      <c r="G50" s="145"/>
+      <c r="H50" s="145"/>
+      <c r="I50" s="145"/>
+      <c r="J50" s="145"/>
+      <c r="K50" s="145"/>
+      <c r="L50" s="145"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="144"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="144"/>
-      <c r="E51" s="144"/>
-      <c r="F51" s="144"/>
-      <c r="G51" s="144"/>
-      <c r="H51" s="144"/>
-      <c r="I51" s="144"/>
-      <c r="J51" s="144"/>
-      <c r="K51" s="144"/>
-      <c r="L51" s="144"/>
+      <c r="B51" s="145"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+      <c r="G51" s="145"/>
+      <c r="H51" s="145"/>
+      <c r="I51" s="145"/>
+      <c r="J51" s="145"/>
+      <c r="K51" s="145"/>
+      <c r="L51" s="145"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="144"/>
-      <c r="C52" s="144"/>
-      <c r="D52" s="144"/>
-      <c r="E52" s="144"/>
-      <c r="F52" s="144"/>
-      <c r="G52" s="144"/>
-      <c r="H52" s="144"/>
-      <c r="I52" s="144"/>
-      <c r="J52" s="144"/>
-      <c r="K52" s="144"/>
-      <c r="L52" s="144"/>
+      <c r="B52" s="145"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+      <c r="G52" s="145"/>
+      <c r="H52" s="145"/>
+      <c r="I52" s="145"/>
+      <c r="J52" s="145"/>
+      <c r="K52" s="145"/>
+      <c r="L52" s="145"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="144"/>
-      <c r="C53" s="144"/>
-      <c r="D53" s="144"/>
-      <c r="E53" s="144"/>
-      <c r="F53" s="144"/>
-      <c r="G53" s="144"/>
-      <c r="H53" s="144"/>
-      <c r="I53" s="144"/>
-      <c r="J53" s="144"/>
-      <c r="K53" s="144"/>
-      <c r="L53" s="144"/>
+      <c r="B53" s="145"/>
+      <c r="C53" s="145"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+      <c r="G53" s="145"/>
+      <c r="H53" s="145"/>
+      <c r="I53" s="145"/>
+      <c r="J53" s="145"/>
+      <c r="K53" s="145"/>
+      <c r="L53" s="145"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="144"/>
-      <c r="C54" s="144"/>
-      <c r="D54" s="144"/>
-      <c r="E54" s="144"/>
-      <c r="F54" s="144"/>
-      <c r="G54" s="144"/>
-      <c r="H54" s="144"/>
-      <c r="I54" s="144"/>
-      <c r="J54" s="144"/>
-      <c r="K54" s="144"/>
-      <c r="L54" s="144"/>
+      <c r="B54" s="145"/>
+      <c r="C54" s="145"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="145"/>
+      <c r="H54" s="145"/>
+      <c r="I54" s="145"/>
+      <c r="J54" s="145"/>
+      <c r="K54" s="145"/>
+      <c r="L54" s="145"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="144"/>
-      <c r="C55" s="144"/>
-      <c r="D55" s="144"/>
-      <c r="E55" s="144"/>
-      <c r="F55" s="144"/>
-      <c r="G55" s="144"/>
-      <c r="H55" s="144"/>
-      <c r="I55" s="144"/>
-      <c r="J55" s="144"/>
-      <c r="K55" s="144"/>
-      <c r="L55" s="144"/>
+      <c r="B55" s="145"/>
+      <c r="C55" s="145"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
+      <c r="G55" s="145"/>
+      <c r="H55" s="145"/>
+      <c r="I55" s="145"/>
+      <c r="J55" s="145"/>
+      <c r="K55" s="145"/>
+      <c r="L55" s="145"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="144"/>
-      <c r="C56" s="144"/>
-      <c r="D56" s="144"/>
-      <c r="E56" s="144"/>
-      <c r="F56" s="144"/>
-      <c r="G56" s="144"/>
-      <c r="H56" s="144"/>
-      <c r="I56" s="144"/>
-      <c r="J56" s="144"/>
-      <c r="K56" s="144"/>
-      <c r="L56" s="144"/>
+      <c r="B56" s="145"/>
+      <c r="C56" s="145"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
+      <c r="G56" s="145"/>
+      <c r="H56" s="145"/>
+      <c r="I56" s="145"/>
+      <c r="J56" s="145"/>
+      <c r="K56" s="145"/>
+      <c r="L56" s="145"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="144"/>
-      <c r="C57" s="144"/>
-      <c r="D57" s="144"/>
-      <c r="E57" s="144"/>
-      <c r="F57" s="144"/>
-      <c r="G57" s="144"/>
-      <c r="H57" s="144"/>
-      <c r="I57" s="144"/>
-      <c r="J57" s="144"/>
-      <c r="K57" s="144"/>
-      <c r="L57" s="144"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="145"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+      <c r="G57" s="145"/>
+      <c r="H57" s="145"/>
+      <c r="I57" s="145"/>
+      <c r="J57" s="145"/>
+      <c r="K57" s="145"/>
+      <c r="L57" s="145"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
       <c r="B58" s="20"/>
@@ -4256,169 +4357,169 @@
       <c r="J59" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K59" s="138" t="str">
+      <c r="K59" s="139" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L59" s="138"/>
+      <c r="L59" s="139"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="145" t="s">
+      <c r="B60" s="146" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="146"/>
-      <c r="D60" s="146"/>
-      <c r="E60" s="146"/>
-      <c r="F60" s="146"/>
-      <c r="G60" s="146"/>
-      <c r="H60" s="146"/>
-      <c r="I60" s="146"/>
-      <c r="J60" s="146"/>
-      <c r="K60" s="146"/>
-      <c r="L60" s="146"/>
+      <c r="C60" s="147"/>
+      <c r="D60" s="147"/>
+      <c r="E60" s="147"/>
+      <c r="F60" s="147"/>
+      <c r="G60" s="147"/>
+      <c r="H60" s="147"/>
+      <c r="I60" s="147"/>
+      <c r="J60" s="147"/>
+      <c r="K60" s="147"/>
+      <c r="L60" s="147"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="146"/>
-      <c r="C61" s="146"/>
-      <c r="D61" s="146"/>
-      <c r="E61" s="146"/>
-      <c r="F61" s="146"/>
-      <c r="G61" s="146"/>
-      <c r="H61" s="146"/>
-      <c r="I61" s="146"/>
-      <c r="J61" s="146"/>
-      <c r="K61" s="146"/>
-      <c r="L61" s="146"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="147"/>
+      <c r="E61" s="147"/>
+      <c r="F61" s="147"/>
+      <c r="G61" s="147"/>
+      <c r="H61" s="147"/>
+      <c r="I61" s="147"/>
+      <c r="J61" s="147"/>
+      <c r="K61" s="147"/>
+      <c r="L61" s="147"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="146"/>
-      <c r="C62" s="146"/>
-      <c r="D62" s="146"/>
-      <c r="E62" s="146"/>
-      <c r="F62" s="146"/>
-      <c r="G62" s="146"/>
-      <c r="H62" s="146"/>
-      <c r="I62" s="146"/>
-      <c r="J62" s="146"/>
-      <c r="K62" s="146"/>
-      <c r="L62" s="146"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="147"/>
+      <c r="D62" s="147"/>
+      <c r="E62" s="147"/>
+      <c r="F62" s="147"/>
+      <c r="G62" s="147"/>
+      <c r="H62" s="147"/>
+      <c r="I62" s="147"/>
+      <c r="J62" s="147"/>
+      <c r="K62" s="147"/>
+      <c r="L62" s="147"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="146"/>
-      <c r="C63" s="146"/>
-      <c r="D63" s="146"/>
-      <c r="E63" s="146"/>
-      <c r="F63" s="146"/>
-      <c r="G63" s="146"/>
-      <c r="H63" s="146"/>
-      <c r="I63" s="146"/>
-      <c r="J63" s="146"/>
-      <c r="K63" s="146"/>
-      <c r="L63" s="146"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="147"/>
+      <c r="D63" s="147"/>
+      <c r="E63" s="147"/>
+      <c r="F63" s="147"/>
+      <c r="G63" s="147"/>
+      <c r="H63" s="147"/>
+      <c r="I63" s="147"/>
+      <c r="J63" s="147"/>
+      <c r="K63" s="147"/>
+      <c r="L63" s="147"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="146"/>
-      <c r="C64" s="146"/>
-      <c r="D64" s="146"/>
-      <c r="E64" s="146"/>
-      <c r="F64" s="146"/>
-      <c r="G64" s="146"/>
-      <c r="H64" s="146"/>
-      <c r="I64" s="146"/>
-      <c r="J64" s="146"/>
-      <c r="K64" s="146"/>
-      <c r="L64" s="146"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="147"/>
+      <c r="D64" s="147"/>
+      <c r="E64" s="147"/>
+      <c r="F64" s="147"/>
+      <c r="G64" s="147"/>
+      <c r="H64" s="147"/>
+      <c r="I64" s="147"/>
+      <c r="J64" s="147"/>
+      <c r="K64" s="147"/>
+      <c r="L64" s="147"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="146"/>
-      <c r="C65" s="146"/>
-      <c r="D65" s="146"/>
-      <c r="E65" s="146"/>
-      <c r="F65" s="146"/>
-      <c r="G65" s="146"/>
-      <c r="H65" s="146"/>
-      <c r="I65" s="146"/>
-      <c r="J65" s="146"/>
-      <c r="K65" s="146"/>
-      <c r="L65" s="146"/>
+      <c r="B65" s="147"/>
+      <c r="C65" s="147"/>
+      <c r="D65" s="147"/>
+      <c r="E65" s="147"/>
+      <c r="F65" s="147"/>
+      <c r="G65" s="147"/>
+      <c r="H65" s="147"/>
+      <c r="I65" s="147"/>
+      <c r="J65" s="147"/>
+      <c r="K65" s="147"/>
+      <c r="L65" s="147"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="146"/>
-      <c r="C66" s="146"/>
-      <c r="D66" s="146"/>
-      <c r="E66" s="146"/>
-      <c r="F66" s="146"/>
-      <c r="G66" s="146"/>
-      <c r="H66" s="146"/>
-      <c r="I66" s="146"/>
-      <c r="J66" s="146"/>
-      <c r="K66" s="146"/>
-      <c r="L66" s="146"/>
+      <c r="B66" s="147"/>
+      <c r="C66" s="147"/>
+      <c r="D66" s="147"/>
+      <c r="E66" s="147"/>
+      <c r="F66" s="147"/>
+      <c r="G66" s="147"/>
+      <c r="H66" s="147"/>
+      <c r="I66" s="147"/>
+      <c r="J66" s="147"/>
+      <c r="K66" s="147"/>
+      <c r="L66" s="147"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="146"/>
-      <c r="C67" s="146"/>
-      <c r="D67" s="146"/>
-      <c r="E67" s="146"/>
-      <c r="F67" s="146"/>
-      <c r="G67" s="146"/>
-      <c r="H67" s="146"/>
-      <c r="I67" s="146"/>
-      <c r="J67" s="146"/>
-      <c r="K67" s="146"/>
-      <c r="L67" s="146"/>
+      <c r="B67" s="147"/>
+      <c r="C67" s="147"/>
+      <c r="D67" s="147"/>
+      <c r="E67" s="147"/>
+      <c r="F67" s="147"/>
+      <c r="G67" s="147"/>
+      <c r="H67" s="147"/>
+      <c r="I67" s="147"/>
+      <c r="J67" s="147"/>
+      <c r="K67" s="147"/>
+      <c r="L67" s="147"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="146"/>
-      <c r="C68" s="146"/>
-      <c r="D68" s="146"/>
-      <c r="E68" s="146"/>
-      <c r="F68" s="146"/>
-      <c r="G68" s="146"/>
-      <c r="H68" s="146"/>
-      <c r="I68" s="146"/>
-      <c r="J68" s="146"/>
-      <c r="K68" s="146"/>
-      <c r="L68" s="146"/>
+      <c r="B68" s="147"/>
+      <c r="C68" s="147"/>
+      <c r="D68" s="147"/>
+      <c r="E68" s="147"/>
+      <c r="F68" s="147"/>
+      <c r="G68" s="147"/>
+      <c r="H68" s="147"/>
+      <c r="I68" s="147"/>
+      <c r="J68" s="147"/>
+      <c r="K68" s="147"/>
+      <c r="L68" s="147"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="146"/>
-      <c r="C69" s="146"/>
-      <c r="D69" s="146"/>
-      <c r="E69" s="146"/>
-      <c r="F69" s="146"/>
-      <c r="G69" s="146"/>
-      <c r="H69" s="146"/>
-      <c r="I69" s="146"/>
-      <c r="J69" s="146"/>
-      <c r="K69" s="146"/>
-      <c r="L69" s="146"/>
+      <c r="B69" s="147"/>
+      <c r="C69" s="147"/>
+      <c r="D69" s="147"/>
+      <c r="E69" s="147"/>
+      <c r="F69" s="147"/>
+      <c r="G69" s="147"/>
+      <c r="H69" s="147"/>
+      <c r="I69" s="147"/>
+      <c r="J69" s="147"/>
+      <c r="K69" s="147"/>
+      <c r="L69" s="147"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="146"/>
-      <c r="C70" s="146"/>
-      <c r="D70" s="146"/>
-      <c r="E70" s="146"/>
-      <c r="F70" s="146"/>
-      <c r="G70" s="146"/>
-      <c r="H70" s="146"/>
-      <c r="I70" s="146"/>
-      <c r="J70" s="146"/>
-      <c r="K70" s="146"/>
-      <c r="L70" s="146"/>
+      <c r="B70" s="147"/>
+      <c r="C70" s="147"/>
+      <c r="D70" s="147"/>
+      <c r="E70" s="147"/>
+      <c r="F70" s="147"/>
+      <c r="G70" s="147"/>
+      <c r="H70" s="147"/>
+      <c r="I70" s="147"/>
+      <c r="J70" s="147"/>
+      <c r="K70" s="147"/>
+      <c r="L70" s="147"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="146"/>
-      <c r="C71" s="146"/>
-      <c r="D71" s="146"/>
-      <c r="E71" s="146"/>
-      <c r="F71" s="146"/>
-      <c r="G71" s="146"/>
-      <c r="H71" s="146"/>
-      <c r="I71" s="146"/>
-      <c r="J71" s="146"/>
-      <c r="K71" s="146"/>
-      <c r="L71" s="146"/>
+      <c r="B71" s="147"/>
+      <c r="C71" s="147"/>
+      <c r="D71" s="147"/>
+      <c r="E71" s="147"/>
+      <c r="F71" s="147"/>
+      <c r="G71" s="147"/>
+      <c r="H71" s="147"/>
+      <c r="I71" s="147"/>
+      <c r="J71" s="147"/>
+      <c r="K71" s="147"/>
+      <c r="L71" s="147"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
       <c r="B73" s="18" t="s">
@@ -4511,7 +4612,7 @@
       <c r="H80" s="18"/>
       <c r="I80" s="18"/>
     </row>
-    <row r="81" spans="2:9" ht="14.25">
+    <row r="81" spans="2:10" ht="14.25">
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
@@ -4521,7 +4622,7 @@
       <c r="H81" s="18"/>
       <c r="I81" s="18"/>
     </row>
-    <row r="82" spans="2:9" ht="14.25">
+    <row r="82" spans="2:10" ht="14.25">
       <c r="B82" s="18"/>
       <c r="C82" s="18" t="s">
         <v>55</v>
@@ -4533,7 +4634,7 @@
       <c r="H82" s="18"/>
       <c r="I82" s="18"/>
     </row>
-    <row r="85" spans="2:9" ht="14.25">
+    <row r="85" spans="2:10" ht="14.25">
       <c r="B85" s="18" t="s">
         <v>43</v>
       </c>
@@ -4548,7 +4649,7 @@
       <c r="H85" s="18"/>
       <c r="I85" s="18"/>
     </row>
-    <row r="86" spans="2:9" ht="14.25">
+    <row r="86" spans="2:10" ht="14.25">
       <c r="B86" s="18"/>
       <c r="C86" s="26" t="s">
         <v>176</v>
@@ -4560,7 +4661,7 @@
       <c r="H86" s="18"/>
       <c r="I86" s="18"/>
     </row>
-    <row r="87" spans="2:9" ht="14.25">
+    <row r="87" spans="2:10" ht="14.25">
       <c r="B87" s="18" t="s">
         <v>40</v>
       </c>
@@ -4572,7 +4673,7 @@
       <c r="H87" s="18"/>
       <c r="I87" s="18"/>
     </row>
-    <row r="88" spans="2:9" ht="14.25">
+    <row r="88" spans="2:10" ht="14.25">
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
@@ -4582,7 +4683,7 @@
       <c r="H88" s="18"/>
       <c r="I88" s="18"/>
     </row>
-    <row r="89" spans="2:9" ht="14.25">
+    <row r="89" spans="2:10" ht="14.25">
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
@@ -4592,52 +4693,56 @@
       <c r="H89" s="18"/>
       <c r="I89" s="18"/>
     </row>
-    <row r="90" spans="2:9" ht="14.25">
+    <row r="90" spans="2:10" ht="14.25">
       <c r="B90" s="18"/>
-      <c r="C90" s="23" t="str">
+      <c r="C90" s="78" t="str">
         <f>記入!B35</f>
         <v>${cv.prplacepositionjapanese}</v>
       </c>
-      <c r="E90" s="23" t="str">
+      <c r="D90" s="78"/>
+      <c r="E90" s="78" t="str">
         <f>記入!E35</f>
         <v>${cv.namejapanese}</v>
       </c>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-    </row>
-    <row r="91" spans="2:9" ht="14.25">
+      <c r="F90" s="78"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="45"/>
+    </row>
+    <row r="91" spans="2:10" ht="14.25">
       <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-    </row>
-    <row r="92" spans="2:9" ht="14.25">
+      <c r="C91" s="78"/>
+      <c r="D91" s="78"/>
+      <c r="E91" s="78"/>
+      <c r="F91" s="78"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
+    </row>
+    <row r="92" spans="2:10" ht="14.25">
       <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-    </row>
-    <row r="93" spans="2:9" ht="14.25">
+      <c r="C92" s="78"/>
+      <c r="D92" s="78"/>
+      <c r="E92" s="78"/>
+      <c r="F92" s="78"/>
+      <c r="G92" s="45"/>
+      <c r="H92" s="45"/>
+      <c r="I92" s="45"/>
+      <c r="J92" s="45"/>
+    </row>
+    <row r="93" spans="2:10" ht="14.25">
       <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
+      <c r="C93" s="77"/>
+      <c r="D93" s="77"/>
       <c r="E93" s="18"/>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
       <c r="H93" s="18"/>
       <c r="I93" s="18"/>
     </row>
-    <row r="94" spans="2:9" ht="14.25">
+    <row r="94" spans="2:10" ht="14.25">
       <c r="B94" s="18"/>
       <c r="C94" s="18" t="s">
         <v>55</v>
@@ -4653,14 +4758,14 @@
       <c r="J127" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K127" s="138" t="str">
+      <c r="K127" s="139" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L127" s="138"/>
+      <c r="L127" s="139"/>
     </row>
     <row r="128" spans="2:12" ht="17.25">
-      <c r="B128" s="51" t="s">
+      <c r="B128" s="50" t="s">
         <v>45</v>
       </c>
       <c r="C128" s="21"/>
@@ -4688,932 +4793,908 @@
       <c r="L129" s="21"/>
     </row>
     <row r="130" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B130" s="52" t="s">
+      <c r="B130" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C130" s="52"/>
-      <c r="D130" s="52"/>
-      <c r="E130" s="52"/>
-      <c r="F130" s="52"/>
-      <c r="G130" s="52"/>
-      <c r="H130" s="52"/>
-      <c r="I130" s="52"/>
-      <c r="J130" s="52"/>
-      <c r="K130" s="52"/>
-      <c r="L130" s="52"/>
+      <c r="C130" s="51"/>
+      <c r="D130" s="51"/>
+      <c r="E130" s="51"/>
+      <c r="F130" s="51"/>
+      <c r="G130" s="51"/>
+      <c r="H130" s="51"/>
+      <c r="I130" s="51"/>
+      <c r="J130" s="51"/>
+      <c r="K130" s="51"/>
+      <c r="L130" s="51"/>
     </row>
     <row r="131" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="134" t="s">
+      <c r="B131" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="C131" s="134"/>
-      <c r="D131" s="124" t="str">
+      <c r="C131" s="135"/>
+      <c r="D131" s="125" t="str">
         <f>記入!B10</f>
         <v>${cv.pjnamejapanese}</v>
       </c>
-      <c r="E131" s="124"/>
-      <c r="F131" s="124"/>
-      <c r="G131" s="124"/>
-      <c r="H131" s="124"/>
-      <c r="I131" s="124"/>
-      <c r="J131" s="124"/>
-      <c r="K131" s="124"/>
-      <c r="L131" s="50"/>
+      <c r="E131" s="125"/>
+      <c r="F131" s="125"/>
+      <c r="G131" s="125"/>
+      <c r="H131" s="125"/>
+      <c r="I131" s="125"/>
+      <c r="J131" s="125"/>
+      <c r="K131" s="125"/>
+      <c r="L131" s="49"/>
     </row>
     <row r="132" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="134" t="s">
+      <c r="B132" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="C132" s="134"/>
-      <c r="D132" s="123" t="str">
+      <c r="C132" s="135"/>
+      <c r="D132" s="124" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E132" s="124"/>
-      <c r="F132" s="124"/>
-      <c r="G132" s="124"/>
-      <c r="H132" s="124"/>
-      <c r="I132" s="124"/>
-      <c r="J132" s="124"/>
-      <c r="K132" s="124"/>
-      <c r="L132" s="50"/>
+      <c r="E132" s="125"/>
+      <c r="F132" s="125"/>
+      <c r="G132" s="125"/>
+      <c r="H132" s="125"/>
+      <c r="I132" s="125"/>
+      <c r="J132" s="125"/>
+      <c r="K132" s="125"/>
+      <c r="L132" s="49"/>
     </row>
     <row r="133" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B133" s="134" t="s">
+      <c r="B133" s="135" t="s">
         <v>75</v>
       </c>
-      <c r="C133" s="134"/>
-      <c r="D133" s="123" t="str">
+      <c r="C133" s="135"/>
+      <c r="D133" s="124" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E133" s="124"/>
-      <c r="F133" s="124"/>
-      <c r="G133" s="124"/>
-      <c r="H133" s="124"/>
-      <c r="I133" s="124"/>
-      <c r="J133" s="124"/>
-      <c r="K133" s="124"/>
-      <c r="L133" s="50"/>
+      <c r="E133" s="125"/>
+      <c r="F133" s="125"/>
+      <c r="G133" s="125"/>
+      <c r="H133" s="125"/>
+      <c r="I133" s="125"/>
+      <c r="J133" s="125"/>
+      <c r="K133" s="125"/>
+      <c r="L133" s="49"/>
     </row>
     <row r="134" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="134" t="s">
+      <c r="B134" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="C134" s="134"/>
-      <c r="D134" s="125" t="str">
+      <c r="C134" s="135"/>
+      <c r="D134" s="126" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="E134" s="125"/>
-      <c r="F134" s="125"/>
-      <c r="G134" s="125"/>
-      <c r="H134" s="125"/>
-      <c r="I134" s="125"/>
-      <c r="J134" s="125"/>
-      <c r="K134" s="125"/>
-      <c r="L134" s="50"/>
+      <c r="E134" s="126"/>
+      <c r="F134" s="126"/>
+      <c r="G134" s="126"/>
+      <c r="H134" s="126"/>
+      <c r="I134" s="126"/>
+      <c r="J134" s="126"/>
+      <c r="K134" s="126"/>
+      <c r="L134" s="49"/>
     </row>
     <row r="135" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="142" t="s">
+      <c r="B135" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="C135" s="134"/>
-      <c r="D135" s="126" t="str">
+      <c r="C135" s="135"/>
+      <c r="D135" s="127" t="str">
         <f>記入!B38</f>
         <v>${cv.technicalcontentjapanese}</v>
       </c>
-      <c r="E135" s="127"/>
-      <c r="F135" s="127"/>
-      <c r="G135" s="127"/>
-      <c r="H135" s="127"/>
-      <c r="I135" s="127"/>
-      <c r="J135" s="127"/>
-      <c r="K135" s="127"/>
-      <c r="L135" s="50"/>
+      <c r="E135" s="128"/>
+      <c r="F135" s="128"/>
+      <c r="G135" s="128"/>
+      <c r="H135" s="128"/>
+      <c r="I135" s="128"/>
+      <c r="J135" s="128"/>
+      <c r="K135" s="128"/>
+      <c r="L135" s="49"/>
     </row>
     <row r="136" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="134"/>
-      <c r="C136" s="134"/>
-      <c r="D136" s="127"/>
-      <c r="E136" s="127"/>
-      <c r="F136" s="127"/>
-      <c r="G136" s="127"/>
-      <c r="H136" s="127"/>
-      <c r="I136" s="127"/>
-      <c r="J136" s="127"/>
-      <c r="K136" s="127"/>
-      <c r="L136" s="50"/>
+      <c r="B136" s="135"/>
+      <c r="C136" s="135"/>
+      <c r="D136" s="128"/>
+      <c r="E136" s="128"/>
+      <c r="F136" s="128"/>
+      <c r="G136" s="128"/>
+      <c r="H136" s="128"/>
+      <c r="I136" s="128"/>
+      <c r="J136" s="128"/>
+      <c r="K136" s="128"/>
+      <c r="L136" s="49"/>
     </row>
     <row r="137" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="134"/>
-      <c r="C137" s="134"/>
-      <c r="D137" s="127"/>
-      <c r="E137" s="127"/>
-      <c r="F137" s="127"/>
-      <c r="G137" s="127"/>
-      <c r="H137" s="127"/>
-      <c r="I137" s="127"/>
-      <c r="J137" s="127"/>
-      <c r="K137" s="127"/>
-      <c r="L137" s="50"/>
+      <c r="B137" s="135"/>
+      <c r="C137" s="135"/>
+      <c r="D137" s="128"/>
+      <c r="E137" s="128"/>
+      <c r="F137" s="128"/>
+      <c r="G137" s="128"/>
+      <c r="H137" s="128"/>
+      <c r="I137" s="128"/>
+      <c r="J137" s="128"/>
+      <c r="K137" s="128"/>
+      <c r="L137" s="49"/>
     </row>
     <row r="138" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="134"/>
-      <c r="C138" s="134"/>
-      <c r="D138" s="127"/>
-      <c r="E138" s="127"/>
-      <c r="F138" s="127"/>
-      <c r="G138" s="127"/>
-      <c r="H138" s="127"/>
-      <c r="I138" s="127"/>
-      <c r="J138" s="127"/>
-      <c r="K138" s="127"/>
-      <c r="L138" s="50"/>
+      <c r="B138" s="135"/>
+      <c r="C138" s="135"/>
+      <c r="D138" s="128"/>
+      <c r="E138" s="128"/>
+      <c r="F138" s="128"/>
+      <c r="G138" s="128"/>
+      <c r="H138" s="128"/>
+      <c r="I138" s="128"/>
+      <c r="J138" s="128"/>
+      <c r="K138" s="128"/>
+      <c r="L138" s="49"/>
     </row>
     <row r="139" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="134"/>
-      <c r="C139" s="134"/>
-      <c r="D139" s="127"/>
-      <c r="E139" s="127"/>
-      <c r="F139" s="127"/>
-      <c r="G139" s="127"/>
-      <c r="H139" s="127"/>
-      <c r="I139" s="127"/>
-      <c r="J139" s="127"/>
-      <c r="K139" s="127"/>
-      <c r="L139" s="50"/>
+      <c r="B139" s="135"/>
+      <c r="C139" s="135"/>
+      <c r="D139" s="128"/>
+      <c r="E139" s="128"/>
+      <c r="F139" s="128"/>
+      <c r="G139" s="128"/>
+      <c r="H139" s="128"/>
+      <c r="I139" s="128"/>
+      <c r="J139" s="128"/>
+      <c r="K139" s="128"/>
+      <c r="L139" s="49"/>
     </row>
     <row r="140" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="134"/>
-      <c r="C140" s="134"/>
-      <c r="D140" s="127"/>
-      <c r="E140" s="127"/>
-      <c r="F140" s="127"/>
-      <c r="G140" s="127"/>
-      <c r="H140" s="127"/>
-      <c r="I140" s="127"/>
-      <c r="J140" s="127"/>
-      <c r="K140" s="127"/>
-      <c r="L140" s="50"/>
+      <c r="B140" s="135"/>
+      <c r="C140" s="135"/>
+      <c r="D140" s="128"/>
+      <c r="E140" s="128"/>
+      <c r="F140" s="128"/>
+      <c r="G140" s="128"/>
+      <c r="H140" s="128"/>
+      <c r="I140" s="128"/>
+      <c r="J140" s="128"/>
+      <c r="K140" s="128"/>
+      <c r="L140" s="49"/>
     </row>
     <row r="141" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="134"/>
-      <c r="C141" s="134"/>
-      <c r="D141" s="127"/>
-      <c r="E141" s="127"/>
-      <c r="F141" s="127"/>
-      <c r="G141" s="127"/>
-      <c r="H141" s="127"/>
-      <c r="I141" s="127"/>
-      <c r="J141" s="127"/>
-      <c r="K141" s="127"/>
-      <c r="L141" s="50"/>
+      <c r="B141" s="135"/>
+      <c r="C141" s="135"/>
+      <c r="D141" s="128"/>
+      <c r="E141" s="128"/>
+      <c r="F141" s="128"/>
+      <c r="G141" s="128"/>
+      <c r="H141" s="128"/>
+      <c r="I141" s="128"/>
+      <c r="J141" s="128"/>
+      <c r="K141" s="128"/>
+      <c r="L141" s="49"/>
     </row>
     <row r="142" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="134" t="s">
+      <c r="B142" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="C142" s="134"/>
-      <c r="D142" s="139" t="str">
+      <c r="C142" s="135"/>
+      <c r="D142" s="140" t="str">
         <f>記入!B50</f>
         <v>${cv.redelegate}</v>
       </c>
-      <c r="E142" s="140"/>
-      <c r="F142" s="140"/>
-      <c r="G142" s="140"/>
-      <c r="H142" s="140"/>
-      <c r="I142" s="140"/>
-      <c r="J142" s="140"/>
-      <c r="K142" s="141"/>
-      <c r="L142" s="50"/>
+      <c r="E142" s="141"/>
+      <c r="F142" s="141"/>
+      <c r="G142" s="141"/>
+      <c r="H142" s="141"/>
+      <c r="I142" s="141"/>
+      <c r="J142" s="141"/>
+      <c r="K142" s="142"/>
+      <c r="L142" s="49"/>
     </row>
     <row r="143" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="134"/>
-      <c r="C143" s="134"/>
-      <c r="D143" s="126" t="str">
+      <c r="B143" s="135"/>
+      <c r="C143" s="135"/>
+      <c r="D143" s="127" t="str">
         <f>記入!B51</f>
         <v>再委託先：
 ${cv.redelegatecontent}</v>
       </c>
-      <c r="E143" s="127"/>
-      <c r="F143" s="127"/>
-      <c r="G143" s="127"/>
-      <c r="H143" s="127"/>
-      <c r="I143" s="127"/>
-      <c r="J143" s="127"/>
-      <c r="K143" s="127"/>
-      <c r="L143" s="50"/>
+      <c r="E143" s="128"/>
+      <c r="F143" s="128"/>
+      <c r="G143" s="128"/>
+      <c r="H143" s="128"/>
+      <c r="I143" s="128"/>
+      <c r="J143" s="128"/>
+      <c r="K143" s="128"/>
+      <c r="L143" s="49"/>
     </row>
     <row r="144" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="134"/>
-      <c r="C144" s="134"/>
-      <c r="D144" s="127"/>
-      <c r="E144" s="127"/>
-      <c r="F144" s="127"/>
-      <c r="G144" s="127"/>
-      <c r="H144" s="127"/>
-      <c r="I144" s="127"/>
-      <c r="J144" s="127"/>
-      <c r="K144" s="127"/>
-      <c r="L144" s="50"/>
+      <c r="B144" s="135"/>
+      <c r="C144" s="135"/>
+      <c r="D144" s="128"/>
+      <c r="E144" s="128"/>
+      <c r="F144" s="128"/>
+      <c r="G144" s="128"/>
+      <c r="H144" s="128"/>
+      <c r="I144" s="128"/>
+      <c r="J144" s="128"/>
+      <c r="K144" s="128"/>
+      <c r="L144" s="49"/>
     </row>
     <row r="145" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="134"/>
-      <c r="C145" s="134"/>
-      <c r="D145" s="127"/>
-      <c r="E145" s="127"/>
-      <c r="F145" s="127"/>
-      <c r="G145" s="127"/>
-      <c r="H145" s="127"/>
-      <c r="I145" s="127"/>
-      <c r="J145" s="127"/>
-      <c r="K145" s="127"/>
-      <c r="L145" s="50"/>
+      <c r="B145" s="135"/>
+      <c r="C145" s="135"/>
+      <c r="D145" s="128"/>
+      <c r="E145" s="128"/>
+      <c r="F145" s="128"/>
+      <c r="G145" s="128"/>
+      <c r="H145" s="128"/>
+      <c r="I145" s="128"/>
+      <c r="J145" s="128"/>
+      <c r="K145" s="128"/>
+      <c r="L145" s="49"/>
     </row>
     <row r="146" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="134"/>
-      <c r="C146" s="134"/>
-      <c r="D146" s="127"/>
-      <c r="E146" s="127"/>
-      <c r="F146" s="127"/>
-      <c r="G146" s="127"/>
-      <c r="H146" s="127"/>
-      <c r="I146" s="127"/>
-      <c r="J146" s="127"/>
-      <c r="K146" s="127"/>
-      <c r="L146" s="50"/>
+      <c r="B146" s="135"/>
+      <c r="C146" s="135"/>
+      <c r="D146" s="128"/>
+      <c r="E146" s="128"/>
+      <c r="F146" s="128"/>
+      <c r="G146" s="128"/>
+      <c r="H146" s="128"/>
+      <c r="I146" s="128"/>
+      <c r="J146" s="128"/>
+      <c r="K146" s="128"/>
+      <c r="L146" s="49"/>
     </row>
     <row r="147" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B147" s="50"/>
-      <c r="C147" s="50"/>
-      <c r="D147" s="50"/>
-      <c r="E147" s="50"/>
-      <c r="F147" s="50"/>
-      <c r="G147" s="50"/>
-      <c r="H147" s="50"/>
-      <c r="I147" s="50"/>
-      <c r="J147" s="50"/>
-      <c r="K147" s="50"/>
-      <c r="L147" s="50"/>
+      <c r="B147" s="49"/>
+      <c r="C147" s="49"/>
+      <c r="D147" s="49"/>
+      <c r="E147" s="49"/>
+      <c r="F147" s="49"/>
+      <c r="G147" s="49"/>
+      <c r="H147" s="49"/>
+      <c r="I147" s="49"/>
+      <c r="J147" s="49"/>
+      <c r="K147" s="49"/>
+      <c r="L147" s="49"/>
     </row>
     <row r="148" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B148" s="50" t="s">
+      <c r="B148" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="C148" s="50"/>
-      <c r="D148" s="50"/>
-      <c r="E148" s="50"/>
-      <c r="F148" s="50"/>
-      <c r="G148" s="50"/>
-      <c r="H148" s="50"/>
-      <c r="I148" s="50"/>
-      <c r="J148" s="50"/>
-      <c r="K148" s="54"/>
-      <c r="L148" s="50"/>
+      <c r="C148" s="49"/>
+      <c r="D148" s="49"/>
+      <c r="E148" s="49"/>
+      <c r="F148" s="49"/>
+      <c r="G148" s="49"/>
+      <c r="H148" s="49"/>
+      <c r="I148" s="49"/>
+      <c r="J148" s="49"/>
+      <c r="K148" s="53"/>
+      <c r="L148" s="49"/>
     </row>
     <row r="149" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="134" t="s">
+      <c r="B149" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="C149" s="134"/>
-      <c r="D149" s="132" t="s">
+      <c r="C149" s="135"/>
+      <c r="D149" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="E149" s="132"/>
-      <c r="F149" s="132" t="s">
+      <c r="E149" s="133"/>
+      <c r="F149" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="G149" s="132"/>
-      <c r="H149" s="132" t="s">
+      <c r="G149" s="133"/>
+      <c r="H149" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="I149" s="132"/>
-      <c r="J149" s="132" t="s">
+      <c r="I149" s="133"/>
+      <c r="J149" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="K149" s="132"/>
-      <c r="L149" s="50"/>
+      <c r="K149" s="133"/>
+      <c r="L149" s="49"/>
     </row>
     <row r="150" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="134" t="s">
+      <c r="B150" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="C150" s="134"/>
-      <c r="D150" s="131" t="str">
-        <f>記入!B29</f>
-        <v>${ba1[0].deliverydate}</v>
-      </c>
-      <c r="E150" s="132"/>
-      <c r="F150" s="131" t="str">
-        <f>記入!B30</f>
-        <v>${ba1[1].deliverydate}</v>
-      </c>
-      <c r="G150" s="132"/>
-      <c r="H150" s="131" t="str">
-        <f>記入!B31</f>
-        <v>${ba1[2].deliverydate}</v>
-      </c>
-      <c r="I150" s="132"/>
-      <c r="J150" s="131" t="str">
-        <f>記入!B32</f>
-        <v>${ba1[3].deliverydate}</v>
-      </c>
-      <c r="K150" s="132"/>
-      <c r="L150" s="50"/>
+      <c r="C150" s="135"/>
+      <c r="D150" s="132" t="s">
+        <v>179</v>
+      </c>
+      <c r="E150" s="133"/>
+      <c r="F150" s="132" t="s">
+        <v>180</v>
+      </c>
+      <c r="G150" s="133"/>
+      <c r="H150" s="132" t="s">
+        <v>181</v>
+      </c>
+      <c r="I150" s="133"/>
+      <c r="J150" s="132" t="s">
+        <v>182</v>
+      </c>
+      <c r="K150" s="133"/>
+      <c r="L150" s="49"/>
     </row>
     <row r="151" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="134" t="s">
+      <c r="B151" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="C151" s="134"/>
-      <c r="D151" s="131" t="str">
-        <f>記入!C29</f>
-        <v>${ba1[0].completiondate}</v>
-      </c>
-      <c r="E151" s="132"/>
-      <c r="F151" s="131" t="str">
-        <f>記入!C30</f>
-        <v>${ba1[1].completiondate}</v>
-      </c>
-      <c r="G151" s="132"/>
-      <c r="H151" s="131" t="str">
-        <f>記入!C31</f>
-        <v>${ba1[2].completiondate}</v>
-      </c>
-      <c r="I151" s="132"/>
-      <c r="J151" s="131" t="str">
-        <f>記入!C32</f>
-        <v>${ba1[3].completiondate}</v>
-      </c>
-      <c r="K151" s="132"/>
-      <c r="L151" s="50"/>
+      <c r="C151" s="135"/>
+      <c r="D151" s="132" t="s">
+        <v>183</v>
+      </c>
+      <c r="E151" s="133"/>
+      <c r="F151" s="132" t="s">
+        <v>184</v>
+      </c>
+      <c r="G151" s="133"/>
+      <c r="H151" s="132" t="s">
+        <v>185</v>
+      </c>
+      <c r="I151" s="133"/>
+      <c r="J151" s="132" t="s">
+        <v>186</v>
+      </c>
+      <c r="K151" s="133"/>
+      <c r="L151" s="49"/>
     </row>
     <row r="152" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="134" t="s">
+      <c r="B152" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="C152" s="134"/>
-      <c r="D152" s="136" t="str">
-        <f>記入!D29</f>
-        <v>${ba1[0].claimdate}</v>
-      </c>
-      <c r="E152" s="135"/>
-      <c r="F152" s="131" t="str">
-        <f>記入!D30</f>
-        <v>${ba1[1].claimdate}</v>
-      </c>
-      <c r="G152" s="132"/>
-      <c r="H152" s="131" t="str">
-        <f>記入!D31</f>
-        <v>${ba1[2].claimdate}</v>
-      </c>
-      <c r="I152" s="132"/>
-      <c r="J152" s="131" t="str">
-        <f>記入!D32</f>
-        <v>${ba1[3].claimdate}</v>
-      </c>
-      <c r="K152" s="132"/>
-      <c r="L152" s="50"/>
+      <c r="C152" s="135"/>
+      <c r="D152" s="137" t="s">
+        <v>187</v>
+      </c>
+      <c r="E152" s="136"/>
+      <c r="F152" s="132" t="s">
+        <v>188</v>
+      </c>
+      <c r="G152" s="133"/>
+      <c r="H152" s="132" t="s">
+        <v>189</v>
+      </c>
+      <c r="I152" s="133"/>
+      <c r="J152" s="132" t="s">
+        <v>190</v>
+      </c>
+      <c r="K152" s="133"/>
+      <c r="L152" s="49"/>
     </row>
     <row r="153" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="134" t="s">
+      <c r="B153" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="C153" s="134"/>
-      <c r="D153" s="136" t="str">
-        <f>記入!E29</f>
-        <v>${ba1[0].supportdate}</v>
-      </c>
-      <c r="E153" s="135"/>
-      <c r="F153" s="131" t="str">
-        <f>記入!E30</f>
-        <v>${ba1[1].supportdate}</v>
-      </c>
-      <c r="G153" s="132"/>
-      <c r="H153" s="131" t="str">
-        <f>記入!E31</f>
-        <v>${ba1[2].supportdate}</v>
-      </c>
-      <c r="I153" s="132"/>
-      <c r="J153" s="131" t="str">
-        <f>記入!E32</f>
-        <v>${ba1[3].supportdate}</v>
-      </c>
-      <c r="K153" s="132"/>
-      <c r="L153" s="50"/>
+      <c r="C153" s="135"/>
+      <c r="D153" s="137" t="s">
+        <v>191</v>
+      </c>
+      <c r="E153" s="136"/>
+      <c r="F153" s="132" t="s">
+        <v>192</v>
+      </c>
+      <c r="G153" s="133"/>
+      <c r="H153" s="132" t="s">
+        <v>193</v>
+      </c>
+      <c r="I153" s="133"/>
+      <c r="J153" s="132" t="s">
+        <v>194</v>
+      </c>
+      <c r="K153" s="133"/>
+      <c r="L153" s="49"/>
     </row>
     <row r="154" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="134" t="s">
+      <c r="B154" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="C154" s="134"/>
-      <c r="D154" s="137" t="str">
-        <f>記入!F29</f>
-        <v>${ba1[0].claimamount}</v>
-      </c>
-      <c r="E154" s="135"/>
-      <c r="F154" s="133" t="str">
-        <f>記入!F30</f>
-        <v>${ba1[1].claimamount}</v>
-      </c>
-      <c r="G154" s="132"/>
-      <c r="H154" s="133" t="str">
-        <f>記入!F31</f>
-        <v>${ba1[2].claimamount}</v>
-      </c>
-      <c r="I154" s="132"/>
-      <c r="J154" s="133" t="str">
-        <f>記入!F32</f>
-        <v>${ba1[3].claimamount}</v>
-      </c>
-      <c r="K154" s="132"/>
-      <c r="L154" s="50"/>
+      <c r="C154" s="135"/>
+      <c r="D154" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="E154" s="136"/>
+      <c r="F154" s="134" t="s">
+        <v>196</v>
+      </c>
+      <c r="G154" s="133"/>
+      <c r="H154" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="I154" s="133"/>
+      <c r="J154" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="K154" s="133"/>
+      <c r="L154" s="49"/>
     </row>
     <row r="155" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="134" t="s">
+      <c r="B155" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="C155" s="134"/>
-      <c r="D155" s="135" t="str">
-        <f>記入!B12&amp;(-1)</f>
-        <v>${cv.contractnumber}-1</v>
-      </c>
-      <c r="E155" s="135"/>
-      <c r="F155" s="132" t="str">
-        <f>記入!B12&amp;(-2)</f>
-        <v>${cv.contractnumber}-2</v>
-      </c>
-      <c r="G155" s="132"/>
-      <c r="H155" s="132" t="str">
-        <f>記入!B12&amp;(-3)</f>
-        <v>${cv.contractnumber}-3</v>
-      </c>
-      <c r="I155" s="132"/>
-      <c r="J155" s="132" t="str">
-        <f>記入!B12&amp;(-4)</f>
-        <v>${cv.contractnumber}-4</v>
-      </c>
-      <c r="K155" s="132"/>
-      <c r="L155" s="50"/>
+      <c r="C155" s="135"/>
+      <c r="D155" s="136" t="s">
+        <v>199</v>
+      </c>
+      <c r="E155" s="136"/>
+      <c r="F155" s="133" t="s">
+        <v>200</v>
+      </c>
+      <c r="G155" s="133"/>
+      <c r="H155" s="133" t="s">
+        <v>201</v>
+      </c>
+      <c r="I155" s="133"/>
+      <c r="J155" s="133" t="s">
+        <v>202</v>
+      </c>
+      <c r="K155" s="133"/>
+      <c r="L155" s="49"/>
     </row>
     <row r="156" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="134" t="s">
+      <c r="B156" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="C156" s="134"/>
-      <c r="D156" s="132" t="s">
+      <c r="C156" s="135"/>
+      <c r="D156" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="E156" s="132"/>
-      <c r="F156" s="132"/>
-      <c r="G156" s="132"/>
-      <c r="H156" s="132"/>
-      <c r="I156" s="132"/>
-      <c r="J156" s="132"/>
-      <c r="K156" s="132"/>
-      <c r="L156" s="50"/>
+      <c r="E156" s="133"/>
+      <c r="F156" s="133"/>
+      <c r="G156" s="133"/>
+      <c r="H156" s="133"/>
+      <c r="I156" s="133"/>
+      <c r="J156" s="133"/>
+      <c r="K156" s="133"/>
+      <c r="L156" s="49"/>
     </row>
     <row r="157" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="134" t="s">
+      <c r="B157" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="C157" s="134"/>
-      <c r="D157" s="132" t="s">
+      <c r="C157" s="135"/>
+      <c r="D157" s="133" t="s">
         <v>94</v>
       </c>
-      <c r="E157" s="132"/>
-      <c r="F157" s="132"/>
-      <c r="G157" s="132"/>
-      <c r="H157" s="132"/>
-      <c r="I157" s="132"/>
-      <c r="J157" s="132"/>
-      <c r="K157" s="132"/>
-      <c r="L157" s="50"/>
+      <c r="E157" s="133"/>
+      <c r="F157" s="133"/>
+      <c r="G157" s="133"/>
+      <c r="H157" s="133"/>
+      <c r="I157" s="133"/>
+      <c r="J157" s="133"/>
+      <c r="K157" s="133"/>
+      <c r="L157" s="49"/>
     </row>
     <row r="158" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B158" s="50"/>
-      <c r="C158" s="50"/>
-      <c r="D158" s="50"/>
-      <c r="E158" s="50"/>
-      <c r="F158" s="50"/>
-      <c r="G158" s="50"/>
-      <c r="H158" s="50"/>
-      <c r="I158" s="50"/>
-      <c r="J158" s="50"/>
-      <c r="K158" s="50"/>
-      <c r="L158" s="50"/>
+      <c r="B158" s="49"/>
+      <c r="C158" s="49"/>
+      <c r="D158" s="49"/>
+      <c r="E158" s="49"/>
+      <c r="F158" s="49"/>
+      <c r="G158" s="49"/>
+      <c r="H158" s="49"/>
+      <c r="I158" s="49"/>
+      <c r="J158" s="49"/>
+      <c r="K158" s="49"/>
+      <c r="L158" s="49"/>
     </row>
     <row r="159" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B159" s="50" t="s">
+      <c r="B159" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C159" s="50"/>
-      <c r="D159" s="50"/>
-      <c r="E159" s="55"/>
-      <c r="F159" s="50"/>
-      <c r="G159" s="50"/>
-      <c r="H159" s="50"/>
-      <c r="I159" s="50"/>
-      <c r="J159" s="50"/>
-      <c r="K159" s="50"/>
-      <c r="L159" s="50"/>
+      <c r="C159" s="49"/>
+      <c r="D159" s="49"/>
+      <c r="E159" s="54"/>
+      <c r="F159" s="49"/>
+      <c r="G159" s="49"/>
+      <c r="H159" s="49"/>
+      <c r="I159" s="49"/>
+      <c r="J159" s="49"/>
+      <c r="K159" s="49"/>
+      <c r="L159" s="49"/>
     </row>
     <row r="160" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="128" t="s">
+      <c r="B160" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="C160" s="128"/>
-      <c r="D160" s="128" t="s">
+      <c r="C160" s="129"/>
+      <c r="D160" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="E160" s="128"/>
-      <c r="F160" s="128"/>
-      <c r="G160" s="128"/>
-      <c r="H160" s="128"/>
-      <c r="I160" s="128"/>
-      <c r="J160" s="128"/>
-      <c r="K160" s="128"/>
-      <c r="L160" s="50"/>
+      <c r="E160" s="129"/>
+      <c r="F160" s="129"/>
+      <c r="G160" s="129"/>
+      <c r="H160" s="129"/>
+      <c r="I160" s="129"/>
+      <c r="J160" s="129"/>
+      <c r="K160" s="129"/>
+      <c r="L160" s="49"/>
     </row>
     <row r="161" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="129"/>
-      <c r="C161" s="129"/>
-      <c r="D161" s="129"/>
-      <c r="E161" s="129"/>
-      <c r="F161" s="129"/>
-      <c r="G161" s="129"/>
-      <c r="H161" s="129"/>
-      <c r="I161" s="129"/>
-      <c r="J161" s="129"/>
-      <c r="K161" s="129"/>
-      <c r="L161" s="50"/>
+      <c r="B161" s="130"/>
+      <c r="C161" s="130"/>
+      <c r="D161" s="130"/>
+      <c r="E161" s="130"/>
+      <c r="F161" s="130"/>
+      <c r="G161" s="130"/>
+      <c r="H161" s="130"/>
+      <c r="I161" s="130"/>
+      <c r="J161" s="130"/>
+      <c r="K161" s="130"/>
+      <c r="L161" s="49"/>
     </row>
     <row r="162" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="129"/>
-      <c r="C162" s="129"/>
-      <c r="D162" s="129"/>
-      <c r="E162" s="129"/>
-      <c r="F162" s="129"/>
-      <c r="G162" s="129"/>
-      <c r="H162" s="129"/>
-      <c r="I162" s="129"/>
-      <c r="J162" s="129"/>
-      <c r="K162" s="129"/>
-      <c r="L162" s="50"/>
+      <c r="B162" s="130"/>
+      <c r="C162" s="130"/>
+      <c r="D162" s="130"/>
+      <c r="E162" s="130"/>
+      <c r="F162" s="130"/>
+      <c r="G162" s="130"/>
+      <c r="H162" s="130"/>
+      <c r="I162" s="130"/>
+      <c r="J162" s="130"/>
+      <c r="K162" s="130"/>
+      <c r="L162" s="49"/>
     </row>
     <row r="163" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="130"/>
-      <c r="C163" s="130"/>
-      <c r="D163" s="130"/>
-      <c r="E163" s="130"/>
-      <c r="F163" s="130"/>
-      <c r="G163" s="130"/>
-      <c r="H163" s="130"/>
-      <c r="I163" s="130"/>
-      <c r="J163" s="130"/>
-      <c r="K163" s="130"/>
-      <c r="L163" s="50"/>
+      <c r="B163" s="131"/>
+      <c r="C163" s="131"/>
+      <c r="D163" s="131"/>
+      <c r="E163" s="131"/>
+      <c r="F163" s="131"/>
+      <c r="G163" s="131"/>
+      <c r="H163" s="131"/>
+      <c r="I163" s="131"/>
+      <c r="J163" s="131"/>
+      <c r="K163" s="131"/>
+      <c r="L163" s="49"/>
     </row>
     <row r="164" spans="2:12" ht="14.25">
-      <c r="B164" s="50"/>
-      <c r="C164" s="50"/>
-      <c r="D164" s="50"/>
-      <c r="E164" s="50"/>
-      <c r="F164" s="50"/>
-      <c r="G164" s="50"/>
-      <c r="H164" s="50"/>
-      <c r="I164" s="50"/>
-      <c r="J164" s="50"/>
-      <c r="K164" s="50"/>
-      <c r="L164" s="50"/>
+      <c r="B164" s="49"/>
+      <c r="C164" s="49"/>
+      <c r="D164" s="49"/>
+      <c r="E164" s="49"/>
+      <c r="F164" s="49"/>
+      <c r="G164" s="49"/>
+      <c r="H164" s="49"/>
+      <c r="I164" s="49"/>
+      <c r="J164" s="49"/>
+      <c r="K164" s="49"/>
+      <c r="L164" s="49"/>
     </row>
     <row r="165" spans="2:12" ht="14.25">
-      <c r="B165" s="50"/>
-      <c r="C165" s="50"/>
-      <c r="D165" s="50"/>
-      <c r="E165" s="50"/>
-      <c r="F165" s="50"/>
-      <c r="G165" s="50"/>
-      <c r="H165" s="50"/>
-      <c r="I165" s="50"/>
-      <c r="J165" s="50"/>
-      <c r="K165" s="50"/>
-      <c r="L165" s="50"/>
+      <c r="B165" s="49"/>
+      <c r="C165" s="49"/>
+      <c r="D165" s="49"/>
+      <c r="E165" s="49"/>
+      <c r="F165" s="49"/>
+      <c r="G165" s="49"/>
+      <c r="H165" s="49"/>
+      <c r="I165" s="49"/>
+      <c r="J165" s="49"/>
+      <c r="K165" s="49"/>
+      <c r="L165" s="49"/>
     </row>
     <row r="166" spans="2:12" ht="14.25">
-      <c r="B166" s="50"/>
-      <c r="C166" s="50"/>
-      <c r="D166" s="50"/>
-      <c r="E166" s="50"/>
-      <c r="F166" s="50"/>
-      <c r="G166" s="50"/>
-      <c r="H166" s="50"/>
-      <c r="I166" s="50"/>
-      <c r="J166" s="50"/>
-      <c r="K166" s="50"/>
-      <c r="L166" s="50"/>
+      <c r="B166" s="49"/>
+      <c r="C166" s="49"/>
+      <c r="D166" s="49"/>
+      <c r="E166" s="49"/>
+      <c r="F166" s="49"/>
+      <c r="G166" s="49"/>
+      <c r="H166" s="49"/>
+      <c r="I166" s="49"/>
+      <c r="J166" s="49"/>
+      <c r="K166" s="49"/>
+      <c r="L166" s="49"/>
     </row>
     <row r="167" spans="2:12" ht="14.25">
-      <c r="B167" s="50"/>
-      <c r="C167" s="50"/>
-      <c r="D167" s="50"/>
-      <c r="E167" s="55"/>
-      <c r="F167" s="50"/>
-      <c r="G167" s="50"/>
-      <c r="H167" s="50"/>
-      <c r="I167" s="50"/>
-      <c r="J167" s="50"/>
-      <c r="K167" s="50"/>
-      <c r="L167" s="50"/>
+      <c r="B167" s="49"/>
+      <c r="C167" s="49"/>
+      <c r="D167" s="49"/>
+      <c r="E167" s="54"/>
+      <c r="F167" s="49"/>
+      <c r="G167" s="49"/>
+      <c r="H167" s="49"/>
+      <c r="I167" s="49"/>
+      <c r="J167" s="49"/>
+      <c r="K167" s="49"/>
+      <c r="L167" s="49"/>
     </row>
     <row r="168" spans="2:12" ht="14.25">
-      <c r="B168" s="50"/>
-      <c r="C168" s="50"/>
-      <c r="D168" s="50"/>
-      <c r="E168" s="53"/>
-      <c r="F168" s="50"/>
-      <c r="G168" s="50"/>
-      <c r="H168" s="50"/>
-      <c r="I168" s="50"/>
-      <c r="J168" s="50"/>
-      <c r="K168" s="50"/>
-      <c r="L168" s="50"/>
+      <c r="B168" s="49"/>
+      <c r="C168" s="49"/>
+      <c r="D168" s="49"/>
+      <c r="E168" s="52"/>
+      <c r="F168" s="49"/>
+      <c r="G168" s="49"/>
+      <c r="H168" s="49"/>
+      <c r="I168" s="49"/>
+      <c r="J168" s="49"/>
+      <c r="K168" s="49"/>
+      <c r="L168" s="49"/>
     </row>
     <row r="169" spans="2:12" ht="14.25">
-      <c r="B169" s="50"/>
-      <c r="C169" s="50"/>
-      <c r="D169" s="50"/>
-      <c r="E169" s="53"/>
-      <c r="F169" s="50"/>
-      <c r="G169" s="50"/>
-      <c r="H169" s="50"/>
-      <c r="I169" s="50"/>
-      <c r="J169" s="50"/>
-      <c r="K169" s="50" t="s">
+      <c r="B169" s="49"/>
+      <c r="C169" s="49"/>
+      <c r="D169" s="49"/>
+      <c r="E169" s="52"/>
+      <c r="F169" s="49"/>
+      <c r="G169" s="49"/>
+      <c r="H169" s="49"/>
+      <c r="I169" s="49"/>
+      <c r="J169" s="49"/>
+      <c r="K169" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="L169" s="50"/>
+      <c r="L169" s="49"/>
     </row>
     <row r="170" spans="2:12" ht="14.25">
-      <c r="B170" s="50"/>
-      <c r="C170" s="50"/>
-      <c r="D170" s="50"/>
-      <c r="E170" s="50"/>
-      <c r="F170" s="50"/>
-      <c r="G170" s="50"/>
-      <c r="H170" s="50"/>
-      <c r="I170" s="50"/>
-      <c r="J170" s="50"/>
-      <c r="K170" s="50"/>
-      <c r="L170" s="50"/>
+      <c r="B170" s="49"/>
+      <c r="C170" s="49"/>
+      <c r="D170" s="49"/>
+      <c r="E170" s="49"/>
+      <c r="F170" s="49"/>
+      <c r="G170" s="49"/>
+      <c r="H170" s="49"/>
+      <c r="I170" s="49"/>
+      <c r="J170" s="49"/>
+      <c r="K170" s="49"/>
+      <c r="L170" s="49"/>
     </row>
     <row r="171" spans="2:12" ht="14.25">
-      <c r="B171" s="50"/>
-      <c r="C171" s="50"/>
-      <c r="D171" s="50"/>
-      <c r="E171" s="50"/>
-      <c r="F171" s="50"/>
-      <c r="G171" s="50"/>
-      <c r="H171" s="50"/>
-      <c r="I171" s="50"/>
-      <c r="J171" s="50"/>
-      <c r="K171" s="50"/>
-      <c r="L171" s="50"/>
+      <c r="B171" s="49"/>
+      <c r="C171" s="49"/>
+      <c r="D171" s="49"/>
+      <c r="E171" s="49"/>
+      <c r="F171" s="49"/>
+      <c r="G171" s="49"/>
+      <c r="H171" s="49"/>
+      <c r="I171" s="49"/>
+      <c r="J171" s="49"/>
+      <c r="K171" s="49"/>
+      <c r="L171" s="49"/>
     </row>
     <row r="172" spans="2:12" ht="14.25">
-      <c r="B172" s="50"/>
-      <c r="C172" s="50"/>
-      <c r="D172" s="50"/>
-      <c r="E172" s="50"/>
-      <c r="F172" s="50"/>
-      <c r="G172" s="50"/>
-      <c r="H172" s="50"/>
-      <c r="I172" s="50"/>
-      <c r="J172" s="50"/>
-      <c r="K172" s="50"/>
-      <c r="L172" s="50"/>
+      <c r="B172" s="49"/>
+      <c r="C172" s="49"/>
+      <c r="D172" s="49"/>
+      <c r="E172" s="49"/>
+      <c r="F172" s="49"/>
+      <c r="G172" s="49"/>
+      <c r="H172" s="49"/>
+      <c r="I172" s="49"/>
+      <c r="J172" s="49"/>
+      <c r="K172" s="49"/>
+      <c r="L172" s="49"/>
     </row>
     <row r="173" spans="2:12">
-      <c r="B173" s="49"/>
-      <c r="C173" s="49"/>
-      <c r="D173" s="49"/>
-      <c r="E173" s="49"/>
-      <c r="F173" s="49"/>
-      <c r="G173" s="49"/>
-      <c r="H173" s="49"/>
-      <c r="I173" s="49"/>
-      <c r="J173" s="49"/>
-      <c r="K173" s="49"/>
-      <c r="L173" s="49"/>
+      <c r="B173" s="48"/>
+      <c r="C173" s="48"/>
+      <c r="D173" s="48"/>
+      <c r="E173" s="48"/>
+      <c r="F173" s="48"/>
+      <c r="G173" s="48"/>
+      <c r="H173" s="48"/>
+      <c r="I173" s="48"/>
+      <c r="J173" s="48"/>
+      <c r="K173" s="48"/>
+      <c r="L173" s="48"/>
     </row>
     <row r="174" spans="2:12" ht="14.25">
-      <c r="B174" s="50"/>
-      <c r="C174" s="50"/>
-      <c r="D174" s="50"/>
-      <c r="E174" s="50"/>
-      <c r="F174" s="50"/>
-      <c r="G174" s="50"/>
-      <c r="H174" s="50"/>
-      <c r="I174" s="50"/>
-      <c r="J174" s="50"/>
-      <c r="K174" s="50"/>
-      <c r="L174" s="50"/>
+      <c r="B174" s="49"/>
+      <c r="C174" s="49"/>
+      <c r="D174" s="49"/>
+      <c r="E174" s="49"/>
+      <c r="F174" s="49"/>
+      <c r="G174" s="49"/>
+      <c r="H174" s="49"/>
+      <c r="I174" s="49"/>
+      <c r="J174" s="49"/>
+      <c r="K174" s="49"/>
+      <c r="L174" s="49"/>
     </row>
     <row r="175" spans="2:12" ht="14.25">
-      <c r="B175" s="50"/>
-      <c r="C175" s="50"/>
-      <c r="D175" s="50"/>
-      <c r="E175" s="55"/>
-      <c r="F175" s="50"/>
-      <c r="G175" s="50"/>
-      <c r="H175" s="50"/>
-      <c r="I175" s="50"/>
-      <c r="J175" s="50"/>
-      <c r="K175" s="50"/>
-      <c r="L175" s="50"/>
+      <c r="B175" s="49"/>
+      <c r="C175" s="49"/>
+      <c r="D175" s="49"/>
+      <c r="E175" s="54"/>
+      <c r="F175" s="49"/>
+      <c r="G175" s="49"/>
+      <c r="H175" s="49"/>
+      <c r="I175" s="49"/>
+      <c r="J175" s="49"/>
+      <c r="K175" s="49"/>
+      <c r="L175" s="49"/>
     </row>
     <row r="176" spans="2:12" ht="14.25">
-      <c r="B176" s="50"/>
-      <c r="C176" s="50"/>
-      <c r="D176" s="50"/>
-      <c r="E176" s="53"/>
-      <c r="F176" s="50"/>
-      <c r="G176" s="50"/>
-      <c r="H176" s="50"/>
-      <c r="I176" s="50"/>
-      <c r="J176" s="50"/>
-      <c r="K176" s="50"/>
-      <c r="L176" s="50"/>
+      <c r="B176" s="49"/>
+      <c r="C176" s="49"/>
+      <c r="D176" s="49"/>
+      <c r="E176" s="52"/>
+      <c r="F176" s="49"/>
+      <c r="G176" s="49"/>
+      <c r="H176" s="49"/>
+      <c r="I176" s="49"/>
+      <c r="J176" s="49"/>
+      <c r="K176" s="49"/>
+      <c r="L176" s="49"/>
     </row>
     <row r="177" spans="2:12" ht="14.25">
-      <c r="B177" s="50"/>
-      <c r="C177" s="50"/>
-      <c r="D177" s="50"/>
-      <c r="E177" s="53"/>
-      <c r="F177" s="50"/>
-      <c r="G177" s="50"/>
-      <c r="H177" s="50"/>
-      <c r="I177" s="50"/>
-      <c r="J177" s="50"/>
-      <c r="K177" s="50"/>
-      <c r="L177" s="50"/>
+      <c r="B177" s="49"/>
+      <c r="C177" s="49"/>
+      <c r="D177" s="49"/>
+      <c r="E177" s="52"/>
+      <c r="F177" s="49"/>
+      <c r="G177" s="49"/>
+      <c r="H177" s="49"/>
+      <c r="I177" s="49"/>
+      <c r="J177" s="49"/>
+      <c r="K177" s="49"/>
+      <c r="L177" s="49"/>
     </row>
     <row r="178" spans="2:12" ht="14.25">
-      <c r="B178" s="50"/>
-      <c r="C178" s="50"/>
-      <c r="D178" s="50"/>
-      <c r="E178" s="50"/>
-      <c r="F178" s="50"/>
-      <c r="G178" s="50"/>
-      <c r="H178" s="50"/>
-      <c r="I178" s="50"/>
-      <c r="J178" s="50"/>
-      <c r="K178" s="50"/>
-      <c r="L178" s="50"/>
+      <c r="B178" s="49"/>
+      <c r="C178" s="49"/>
+      <c r="D178" s="49"/>
+      <c r="E178" s="49"/>
+      <c r="F178" s="49"/>
+      <c r="G178" s="49"/>
+      <c r="H178" s="49"/>
+      <c r="I178" s="49"/>
+      <c r="J178" s="49"/>
+      <c r="K178" s="49"/>
+      <c r="L178" s="49"/>
     </row>
     <row r="179" spans="2:12" ht="14.25">
-      <c r="B179" s="50"/>
-      <c r="C179" s="50"/>
-      <c r="D179" s="50"/>
-      <c r="E179" s="50"/>
-      <c r="F179" s="50"/>
-      <c r="G179" s="50"/>
-      <c r="H179" s="50"/>
-      <c r="I179" s="50"/>
-      <c r="J179" s="50"/>
-      <c r="K179" s="50"/>
-      <c r="L179" s="50"/>
+      <c r="B179" s="49"/>
+      <c r="C179" s="49"/>
+      <c r="D179" s="49"/>
+      <c r="E179" s="49"/>
+      <c r="F179" s="49"/>
+      <c r="G179" s="49"/>
+      <c r="H179" s="49"/>
+      <c r="I179" s="49"/>
+      <c r="J179" s="49"/>
+      <c r="K179" s="49"/>
+      <c r="L179" s="49"/>
     </row>
     <row r="180" spans="2:12" ht="14.25">
-      <c r="B180" s="50"/>
-      <c r="C180" s="50"/>
-      <c r="D180" s="50"/>
-      <c r="E180" s="50"/>
-      <c r="F180" s="50"/>
-      <c r="G180" s="50"/>
-      <c r="H180" s="50"/>
-      <c r="I180" s="50"/>
-      <c r="J180" s="50"/>
-      <c r="K180" s="50"/>
-      <c r="L180" s="50"/>
+      <c r="B180" s="49"/>
+      <c r="C180" s="49"/>
+      <c r="D180" s="49"/>
+      <c r="E180" s="49"/>
+      <c r="F180" s="49"/>
+      <c r="G180" s="49"/>
+      <c r="H180" s="49"/>
+      <c r="I180" s="49"/>
+      <c r="J180" s="49"/>
+      <c r="K180" s="49"/>
+      <c r="L180" s="49"/>
     </row>
     <row r="181" spans="2:12">
-      <c r="B181" s="49"/>
-      <c r="C181" s="49"/>
-      <c r="D181" s="49"/>
-      <c r="E181" s="49"/>
-      <c r="F181" s="49"/>
-      <c r="G181" s="49"/>
-      <c r="H181" s="49"/>
-      <c r="I181" s="49"/>
-      <c r="J181" s="49"/>
-      <c r="K181" s="49"/>
-      <c r="L181" s="49"/>
+      <c r="B181" s="48"/>
+      <c r="C181" s="48"/>
+      <c r="D181" s="48"/>
+      <c r="E181" s="48"/>
+      <c r="F181" s="48"/>
+      <c r="G181" s="48"/>
+      <c r="H181" s="48"/>
+      <c r="I181" s="48"/>
+      <c r="J181" s="48"/>
+      <c r="K181" s="48"/>
+      <c r="L181" s="48"/>
     </row>
     <row r="182" spans="2:12" ht="14.25">
-      <c r="B182" s="50"/>
-      <c r="C182" s="50"/>
-      <c r="D182" s="50"/>
-      <c r="E182" s="50"/>
-      <c r="F182" s="50"/>
-      <c r="G182" s="50"/>
-      <c r="H182" s="50"/>
-      <c r="I182" s="50"/>
-      <c r="J182" s="50"/>
-      <c r="K182" s="50"/>
-      <c r="L182" s="50"/>
+      <c r="B182" s="49"/>
+      <c r="C182" s="49"/>
+      <c r="D182" s="49"/>
+      <c r="E182" s="49"/>
+      <c r="F182" s="49"/>
+      <c r="G182" s="49"/>
+      <c r="H182" s="49"/>
+      <c r="I182" s="49"/>
+      <c r="J182" s="49"/>
+      <c r="K182" s="49"/>
+      <c r="L182" s="49"/>
     </row>
     <row r="183" spans="2:12" ht="14.25">
-      <c r="B183" s="50"/>
-      <c r="C183" s="50"/>
-      <c r="D183" s="50"/>
-      <c r="E183" s="55"/>
-      <c r="F183" s="50"/>
-      <c r="G183" s="50"/>
-      <c r="H183" s="50"/>
-      <c r="I183" s="50"/>
-      <c r="J183" s="50"/>
-      <c r="K183" s="50"/>
-      <c r="L183" s="50"/>
+      <c r="B183" s="49"/>
+      <c r="C183" s="49"/>
+      <c r="D183" s="49"/>
+      <c r="E183" s="54"/>
+      <c r="F183" s="49"/>
+      <c r="G183" s="49"/>
+      <c r="H183" s="49"/>
+      <c r="I183" s="49"/>
+      <c r="J183" s="49"/>
+      <c r="K183" s="49"/>
+      <c r="L183" s="49"/>
     </row>
     <row r="184" spans="2:12" ht="14.25">
-      <c r="B184" s="50"/>
-      <c r="C184" s="50"/>
-      <c r="D184" s="50"/>
-      <c r="E184" s="53"/>
-      <c r="F184" s="50"/>
-      <c r="G184" s="50"/>
-      <c r="H184" s="50"/>
-      <c r="I184" s="50"/>
-      <c r="J184" s="50"/>
-      <c r="K184" s="50"/>
-      <c r="L184" s="50"/>
+      <c r="B184" s="49"/>
+      <c r="C184" s="49"/>
+      <c r="D184" s="49"/>
+      <c r="E184" s="52"/>
+      <c r="F184" s="49"/>
+      <c r="G184" s="49"/>
+      <c r="H184" s="49"/>
+      <c r="I184" s="49"/>
+      <c r="J184" s="49"/>
+      <c r="K184" s="49"/>
+      <c r="L184" s="49"/>
     </row>
     <row r="185" spans="2:12" ht="14.25">
-      <c r="B185" s="50"/>
-      <c r="C185" s="50"/>
-      <c r="D185" s="50"/>
-      <c r="E185" s="53"/>
-      <c r="F185" s="50"/>
-      <c r="G185" s="50"/>
-      <c r="H185" s="50"/>
-      <c r="I185" s="50"/>
-      <c r="J185" s="50"/>
-      <c r="K185" s="50"/>
-      <c r="L185" s="50"/>
+      <c r="B185" s="49"/>
+      <c r="C185" s="49"/>
+      <c r="D185" s="49"/>
+      <c r="E185" s="52"/>
+      <c r="F185" s="49"/>
+      <c r="G185" s="49"/>
+      <c r="H185" s="49"/>
+      <c r="I185" s="49"/>
+      <c r="J185" s="49"/>
+      <c r="K185" s="49"/>
+      <c r="L185" s="49"/>
     </row>
     <row r="186" spans="2:12" ht="14.25">
-      <c r="B186" s="50"/>
-      <c r="C186" s="50"/>
-      <c r="D186" s="50"/>
-      <c r="E186" s="50"/>
-      <c r="F186" s="50"/>
-      <c r="G186" s="50"/>
-      <c r="H186" s="50"/>
-      <c r="I186" s="50"/>
-      <c r="J186" s="50"/>
-      <c r="K186" s="50"/>
-      <c r="L186" s="50"/>
+      <c r="B186" s="49"/>
+      <c r="C186" s="49"/>
+      <c r="D186" s="49"/>
+      <c r="E186" s="49"/>
+      <c r="F186" s="49"/>
+      <c r="G186" s="49"/>
+      <c r="H186" s="49"/>
+      <c r="I186" s="49"/>
+      <c r="J186" s="49"/>
+      <c r="K186" s="49"/>
+      <c r="L186" s="49"/>
     </row>
     <row r="187" spans="2:12" ht="14.25">
-      <c r="B187" s="50"/>
-      <c r="C187" s="50"/>
-      <c r="D187" s="50"/>
-      <c r="E187" s="50"/>
-      <c r="F187" s="50"/>
-      <c r="G187" s="50"/>
-      <c r="H187" s="50"/>
-      <c r="I187" s="50"/>
-      <c r="J187" s="50"/>
-      <c r="K187" s="50"/>
-      <c r="L187" s="50"/>
+      <c r="B187" s="49"/>
+      <c r="C187" s="49"/>
+      <c r="D187" s="49"/>
+      <c r="E187" s="49"/>
+      <c r="F187" s="49"/>
+      <c r="G187" s="49"/>
+      <c r="H187" s="49"/>
+      <c r="I187" s="49"/>
+      <c r="J187" s="49"/>
+      <c r="K187" s="49"/>
+      <c r="L187" s="49"/>
     </row>
     <row r="188" spans="2:12" ht="14.25">
-      <c r="B188" s="50"/>
-      <c r="C188" s="50"/>
-      <c r="D188" s="50"/>
-      <c r="E188" s="50"/>
-      <c r="F188" s="50"/>
-      <c r="G188" s="50"/>
-      <c r="H188" s="50"/>
-      <c r="I188" s="50"/>
-      <c r="J188" s="50"/>
-      <c r="K188" s="50"/>
-      <c r="L188" s="50"/>
+      <c r="B188" s="49"/>
+      <c r="C188" s="49"/>
+      <c r="D188" s="49"/>
+      <c r="E188" s="49"/>
+      <c r="F188" s="49"/>
+      <c r="G188" s="49"/>
+      <c r="H188" s="49"/>
+      <c r="I188" s="49"/>
+      <c r="J188" s="49"/>
+      <c r="K188" s="49"/>
+      <c r="L188" s="49"/>
     </row>
     <row r="189" spans="2:12">
-      <c r="B189" s="49"/>
-      <c r="C189" s="49"/>
-      <c r="D189" s="49"/>
-      <c r="E189" s="49"/>
-      <c r="F189" s="49"/>
-      <c r="G189" s="49"/>
-      <c r="H189" s="49"/>
-      <c r="I189" s="49"/>
-      <c r="J189" s="49"/>
-      <c r="K189" s="49"/>
-      <c r="L189" s="49"/>
+      <c r="B189" s="48"/>
+      <c r="C189" s="48"/>
+      <c r="D189" s="48"/>
+      <c r="E189" s="48"/>
+      <c r="F189" s="48"/>
+      <c r="G189" s="48"/>
+      <c r="H189" s="48"/>
+      <c r="I189" s="48"/>
+      <c r="J189" s="48"/>
+      <c r="K189" s="48"/>
+      <c r="L189" s="48"/>
     </row>
     <row r="190" spans="2:12" ht="14.25">
       <c r="B190" s="21"/>
@@ -5626,7 +5707,7 @@
       <c r="I190" s="21"/>
       <c r="J190" s="21"/>
       <c r="K190" s="21"/>
-      <c r="L190" s="56"/>
+      <c r="L190" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="61">
@@ -5652,6 +5733,7 @@
     <mergeCell ref="F150:G150"/>
     <mergeCell ref="F151:G151"/>
     <mergeCell ref="D131:K131"/>
+    <mergeCell ref="F152:G152"/>
     <mergeCell ref="B149:C149"/>
     <mergeCell ref="D149:E149"/>
     <mergeCell ref="F149:G149"/>
@@ -5659,25 +5741,18 @@
     <mergeCell ref="D150:E150"/>
     <mergeCell ref="D151:E151"/>
     <mergeCell ref="D152:E152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B153:C153"/>
     <mergeCell ref="B156:C156"/>
     <mergeCell ref="B157:C157"/>
     <mergeCell ref="D155:E155"/>
     <mergeCell ref="D156:K156"/>
     <mergeCell ref="D157:K157"/>
     <mergeCell ref="J155:K155"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="D132:K132"/>
-    <mergeCell ref="D133:K133"/>
-    <mergeCell ref="D134:K134"/>
     <mergeCell ref="D135:K141"/>
     <mergeCell ref="B160:C163"/>
     <mergeCell ref="D160:K163"/>
@@ -5691,6 +5766,12 @@
     <mergeCell ref="F155:G155"/>
     <mergeCell ref="H150:I150"/>
     <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="D132:K132"/>
+    <mergeCell ref="D133:K133"/>
+    <mergeCell ref="D134:K134"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5712,8 +5793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A154" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G159" sqref="G159"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A68" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5729,18 +5810,18 @@
       <c r="J2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="169" t="str">
+      <c r="K2" s="166" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="169"/>
+      <c r="L2" s="166"/>
     </row>
     <row r="3" spans="1:12" ht="20.25">
-      <c r="F3" s="170" t="s">
+      <c r="F3" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="27" t="s">
@@ -5796,39 +5877,39 @@
       <c r="L7" s="30"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="172" t="str">
+      <c r="C8" s="46"/>
+      <c r="D8" s="169" t="str">
         <f>記入!B37</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E8" s="173"/>
-      <c r="F8" s="48" t="s">
+      <c r="E8" s="170"/>
+      <c r="F8" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="B10" s="29"/>
@@ -5844,617 +5925,617 @@
       <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="171"/>
-      <c r="K11" s="171"/>
-      <c r="L11" s="171"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="168"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="171"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="171"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="171"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="168"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="171"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="171"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="168"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="171"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="171"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="171"/>
-      <c r="G14" s="171"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="171"/>
-      <c r="K14" s="171"/>
-      <c r="L14" s="171"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="168"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="168"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="171"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="171"/>
-      <c r="K15" s="171"/>
-      <c r="L15" s="171"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="168"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="168"/>
+      <c r="K15" s="168"/>
+      <c r="L15" s="168"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="171"/>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="171"/>
-      <c r="G16" s="171"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="171"/>
-      <c r="K16" s="171"/>
-      <c r="L16" s="171"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="168"/>
+      <c r="J16" s="168"/>
+      <c r="K16" s="168"/>
+      <c r="L16" s="168"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="171"/>
-      <c r="K17" s="171"/>
-      <c r="L17" s="171"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="168"/>
+      <c r="L17" s="168"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="171"/>
-      <c r="C18" s="171"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="171"/>
-      <c r="K18" s="171"/>
-      <c r="L18" s="171"/>
+      <c r="B18" s="168"/>
+      <c r="C18" s="168"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="168"/>
+      <c r="L18" s="168"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="171"/>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="171"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="171"/>
-      <c r="K19" s="171"/>
-      <c r="L19" s="171"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="168"/>
+      <c r="K19" s="168"/>
+      <c r="L19" s="168"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="171"/>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="171"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="171"/>
-      <c r="K20" s="171"/>
-      <c r="L20" s="171"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="168"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="168"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="171"/>
-      <c r="C21" s="171"/>
-      <c r="D21" s="171"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="171"/>
-      <c r="G21" s="171"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="171"/>
-      <c r="K21" s="171"/>
-      <c r="L21" s="171"/>
+      <c r="B21" s="168"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="168"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="168"/>
+      <c r="K21" s="168"/>
+      <c r="L21" s="168"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="171"/>
-      <c r="C22" s="171"/>
-      <c r="D22" s="171"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="171"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="171"/>
-      <c r="K22" s="171"/>
-      <c r="L22" s="171"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="168"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="168"/>
+      <c r="K22" s="168"/>
+      <c r="L22" s="168"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="171"/>
-      <c r="C23" s="171"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="171"/>
-      <c r="K23" s="171"/>
-      <c r="L23" s="171"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="168"/>
+      <c r="L23" s="168"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="171"/>
-      <c r="C24" s="171"/>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="171"/>
-      <c r="K24" s="171"/>
-      <c r="L24" s="171"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="168"/>
+      <c r="L24" s="168"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="171"/>
-      <c r="C25" s="171"/>
-      <c r="D25" s="171"/>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
-      <c r="K25" s="171"/>
-      <c r="L25" s="171"/>
+      <c r="B25" s="168"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="168"/>
+      <c r="K25" s="168"/>
+      <c r="L25" s="168"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="171"/>
-      <c r="C26" s="171"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="171"/>
-      <c r="G26" s="171"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="171"/>
-      <c r="K26" s="171"/>
-      <c r="L26" s="171"/>
+      <c r="B26" s="168"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="168"/>
+      <c r="L26" s="168"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="171"/>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="171"/>
-      <c r="G27" s="171"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="171"/>
-      <c r="K27" s="171"/>
-      <c r="L27" s="171"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="168"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="168"/>
+      <c r="J27" s="168"/>
+      <c r="K27" s="168"/>
+      <c r="L27" s="168"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="171"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="171"/>
-      <c r="G28" s="171"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="171"/>
-      <c r="K28" s="171"/>
-      <c r="L28" s="171"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="168"/>
+      <c r="J28" s="168"/>
+      <c r="K28" s="168"/>
+      <c r="L28" s="168"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="171"/>
-      <c r="C29" s="171"/>
-      <c r="D29" s="171"/>
-      <c r="E29" s="171"/>
-      <c r="F29" s="171"/>
-      <c r="G29" s="171"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="171"/>
-      <c r="K29" s="171"/>
-      <c r="L29" s="171"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="168"/>
+      <c r="K29" s="168"/>
+      <c r="L29" s="168"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="171"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="171"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="171"/>
-      <c r="K30" s="171"/>
-      <c r="L30" s="171"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="168"/>
+      <c r="K30" s="168"/>
+      <c r="L30" s="168"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="171"/>
-      <c r="C31" s="171"/>
-      <c r="D31" s="171"/>
-      <c r="E31" s="171"/>
-      <c r="F31" s="171"/>
-      <c r="G31" s="171"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="171"/>
-      <c r="K31" s="171"/>
-      <c r="L31" s="171"/>
+      <c r="B31" s="168"/>
+      <c r="C31" s="168"/>
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="168"/>
+      <c r="L31" s="168"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="171"/>
-      <c r="C32" s="171"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="171"/>
-      <c r="K32" s="171"/>
-      <c r="L32" s="171"/>
+      <c r="B32" s="168"/>
+      <c r="C32" s="168"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="168"/>
+      <c r="K32" s="168"/>
+      <c r="L32" s="168"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="171"/>
-      <c r="C33" s="171"/>
-      <c r="D33" s="171"/>
-      <c r="E33" s="171"/>
-      <c r="F33" s="171"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="171"/>
-      <c r="K33" s="171"/>
-      <c r="L33" s="171"/>
+      <c r="B33" s="168"/>
+      <c r="C33" s="168"/>
+      <c r="D33" s="168"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="168"/>
+      <c r="J33" s="168"/>
+      <c r="K33" s="168"/>
+      <c r="L33" s="168"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="171"/>
-      <c r="C34" s="171"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="171"/>
-      <c r="G34" s="171"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="171"/>
-      <c r="K34" s="171"/>
-      <c r="L34" s="171"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="168"/>
+      <c r="F34" s="168"/>
+      <c r="G34" s="168"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="168"/>
+      <c r="J34" s="168"/>
+      <c r="K34" s="168"/>
+      <c r="L34" s="168"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="171"/>
-      <c r="C35" s="171"/>
-      <c r="D35" s="171"/>
-      <c r="E35" s="171"/>
-      <c r="F35" s="171"/>
-      <c r="G35" s="171"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="171"/>
-      <c r="K35" s="171"/>
-      <c r="L35" s="171"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="168"/>
+      <c r="H35" s="168"/>
+      <c r="I35" s="168"/>
+      <c r="J35" s="168"/>
+      <c r="K35" s="168"/>
+      <c r="L35" s="168"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="171"/>
-      <c r="C36" s="171"/>
-      <c r="D36" s="171"/>
-      <c r="E36" s="171"/>
-      <c r="F36" s="171"/>
-      <c r="G36" s="171"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="171"/>
-      <c r="K36" s="171"/>
-      <c r="L36" s="171"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="168"/>
+      <c r="I36" s="168"/>
+      <c r="J36" s="168"/>
+      <c r="K36" s="168"/>
+      <c r="L36" s="168"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="171"/>
-      <c r="C37" s="171"/>
-      <c r="D37" s="171"/>
-      <c r="E37" s="171"/>
-      <c r="F37" s="171"/>
-      <c r="G37" s="171"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="171"/>
-      <c r="K37" s="171"/>
-      <c r="L37" s="171"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="168"/>
+      <c r="G37" s="168"/>
+      <c r="H37" s="168"/>
+      <c r="I37" s="168"/>
+      <c r="J37" s="168"/>
+      <c r="K37" s="168"/>
+      <c r="L37" s="168"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="171"/>
-      <c r="C38" s="171"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
-      <c r="G38" s="171"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="171"/>
-      <c r="K38" s="171"/>
-      <c r="L38" s="171"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
+      <c r="E38" s="168"/>
+      <c r="F38" s="168"/>
+      <c r="G38" s="168"/>
+      <c r="H38" s="168"/>
+      <c r="I38" s="168"/>
+      <c r="J38" s="168"/>
+      <c r="K38" s="168"/>
+      <c r="L38" s="168"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="171"/>
-      <c r="C39" s="171"/>
-      <c r="D39" s="171"/>
-      <c r="E39" s="171"/>
-      <c r="F39" s="171"/>
-      <c r="G39" s="171"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="171"/>
-      <c r="K39" s="171"/>
-      <c r="L39" s="171"/>
+      <c r="B39" s="168"/>
+      <c r="C39" s="168"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="168"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="168"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="168"/>
+      <c r="K39" s="168"/>
+      <c r="L39" s="168"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="171"/>
-      <c r="C40" s="171"/>
-      <c r="D40" s="171"/>
-      <c r="E40" s="171"/>
-      <c r="F40" s="171"/>
-      <c r="G40" s="171"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="171"/>
-      <c r="K40" s="171"/>
-      <c r="L40" s="171"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="168"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="168"/>
+      <c r="H40" s="168"/>
+      <c r="I40" s="168"/>
+      <c r="J40" s="168"/>
+      <c r="K40" s="168"/>
+      <c r="L40" s="168"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="171"/>
-      <c r="C41" s="171"/>
-      <c r="D41" s="171"/>
-      <c r="E41" s="171"/>
-      <c r="F41" s="171"/>
-      <c r="G41" s="171"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="171"/>
-      <c r="K41" s="171"/>
-      <c r="L41" s="171"/>
+      <c r="B41" s="168"/>
+      <c r="C41" s="168"/>
+      <c r="D41" s="168"/>
+      <c r="E41" s="168"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="168"/>
+      <c r="H41" s="168"/>
+      <c r="I41" s="168"/>
+      <c r="J41" s="168"/>
+      <c r="K41" s="168"/>
+      <c r="L41" s="168"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="171"/>
-      <c r="C42" s="171"/>
-      <c r="D42" s="171"/>
-      <c r="E42" s="171"/>
-      <c r="F42" s="171"/>
-      <c r="G42" s="171"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="171"/>
-      <c r="K42" s="171"/>
-      <c r="L42" s="171"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="168"/>
+      <c r="F42" s="168"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="168"/>
+      <c r="I42" s="168"/>
+      <c r="J42" s="168"/>
+      <c r="K42" s="168"/>
+      <c r="L42" s="168"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="171"/>
-      <c r="C43" s="171"/>
-      <c r="D43" s="171"/>
-      <c r="E43" s="171"/>
-      <c r="F43" s="171"/>
-      <c r="G43" s="171"/>
-      <c r="H43" s="171"/>
-      <c r="I43" s="171"/>
-      <c r="J43" s="171"/>
-      <c r="K43" s="171"/>
-      <c r="L43" s="171"/>
+      <c r="B43" s="168"/>
+      <c r="C43" s="168"/>
+      <c r="D43" s="168"/>
+      <c r="E43" s="168"/>
+      <c r="F43" s="168"/>
+      <c r="G43" s="168"/>
+      <c r="H43" s="168"/>
+      <c r="I43" s="168"/>
+      <c r="J43" s="168"/>
+      <c r="K43" s="168"/>
+      <c r="L43" s="168"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="171"/>
-      <c r="C44" s="171"/>
-      <c r="D44" s="171"/>
-      <c r="E44" s="171"/>
-      <c r="F44" s="171"/>
-      <c r="G44" s="171"/>
-      <c r="H44" s="171"/>
-      <c r="I44" s="171"/>
-      <c r="J44" s="171"/>
-      <c r="K44" s="171"/>
-      <c r="L44" s="171"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="168"/>
+      <c r="F44" s="168"/>
+      <c r="G44" s="168"/>
+      <c r="H44" s="168"/>
+      <c r="I44" s="168"/>
+      <c r="J44" s="168"/>
+      <c r="K44" s="168"/>
+      <c r="L44" s="168"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="171"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="171"/>
-      <c r="E45" s="171"/>
-      <c r="F45" s="171"/>
-      <c r="G45" s="171"/>
-      <c r="H45" s="171"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="171"/>
-      <c r="K45" s="171"/>
-      <c r="L45" s="171"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="168"/>
+      <c r="D45" s="168"/>
+      <c r="E45" s="168"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="168"/>
+      <c r="H45" s="168"/>
+      <c r="I45" s="168"/>
+      <c r="J45" s="168"/>
+      <c r="K45" s="168"/>
+      <c r="L45" s="168"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="171"/>
-      <c r="C46" s="171"/>
-      <c r="D46" s="171"/>
-      <c r="E46" s="171"/>
-      <c r="F46" s="171"/>
-      <c r="G46" s="171"/>
-      <c r="H46" s="171"/>
-      <c r="I46" s="171"/>
-      <c r="J46" s="171"/>
-      <c r="K46" s="171"/>
-      <c r="L46" s="171"/>
+      <c r="B46" s="168"/>
+      <c r="C46" s="168"/>
+      <c r="D46" s="168"/>
+      <c r="E46" s="168"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="168"/>
+      <c r="H46" s="168"/>
+      <c r="I46" s="168"/>
+      <c r="J46" s="168"/>
+      <c r="K46" s="168"/>
+      <c r="L46" s="168"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="171"/>
-      <c r="C47" s="171"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="171"/>
-      <c r="F47" s="171"/>
-      <c r="G47" s="171"/>
-      <c r="H47" s="171"/>
-      <c r="I47" s="171"/>
-      <c r="J47" s="171"/>
-      <c r="K47" s="171"/>
-      <c r="L47" s="171"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="168"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="168"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="168"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="168"/>
+      <c r="K47" s="168"/>
+      <c r="L47" s="168"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="171"/>
-      <c r="C48" s="171"/>
-      <c r="D48" s="171"/>
-      <c r="E48" s="171"/>
-      <c r="F48" s="171"/>
-      <c r="G48" s="171"/>
-      <c r="H48" s="171"/>
-      <c r="I48" s="171"/>
-      <c r="J48" s="171"/>
-      <c r="K48" s="171"/>
-      <c r="L48" s="171"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="168"/>
+      <c r="I48" s="168"/>
+      <c r="J48" s="168"/>
+      <c r="K48" s="168"/>
+      <c r="L48" s="168"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="171"/>
-      <c r="C49" s="171"/>
-      <c r="D49" s="171"/>
-      <c r="E49" s="171"/>
-      <c r="F49" s="171"/>
-      <c r="G49" s="171"/>
-      <c r="H49" s="171"/>
-      <c r="I49" s="171"/>
-      <c r="J49" s="171"/>
-      <c r="K49" s="171"/>
-      <c r="L49" s="171"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="168"/>
+      <c r="D49" s="168"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="168"/>
+      <c r="H49" s="168"/>
+      <c r="I49" s="168"/>
+      <c r="J49" s="168"/>
+      <c r="K49" s="168"/>
+      <c r="L49" s="168"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="171"/>
-      <c r="C50" s="171"/>
-      <c r="D50" s="171"/>
-      <c r="E50" s="171"/>
-      <c r="F50" s="171"/>
-      <c r="G50" s="171"/>
-      <c r="H50" s="171"/>
-      <c r="I50" s="171"/>
-      <c r="J50" s="171"/>
-      <c r="K50" s="171"/>
-      <c r="L50" s="171"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="168"/>
+      <c r="D50" s="168"/>
+      <c r="E50" s="168"/>
+      <c r="F50" s="168"/>
+      <c r="G50" s="168"/>
+      <c r="H50" s="168"/>
+      <c r="I50" s="168"/>
+      <c r="J50" s="168"/>
+      <c r="K50" s="168"/>
+      <c r="L50" s="168"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="171"/>
-      <c r="C51" s="171"/>
-      <c r="D51" s="171"/>
-      <c r="E51" s="171"/>
-      <c r="F51" s="171"/>
-      <c r="G51" s="171"/>
-      <c r="H51" s="171"/>
-      <c r="I51" s="171"/>
-      <c r="J51" s="171"/>
-      <c r="K51" s="171"/>
-      <c r="L51" s="171"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="168"/>
+      <c r="D51" s="168"/>
+      <c r="E51" s="168"/>
+      <c r="F51" s="168"/>
+      <c r="G51" s="168"/>
+      <c r="H51" s="168"/>
+      <c r="I51" s="168"/>
+      <c r="J51" s="168"/>
+      <c r="K51" s="168"/>
+      <c r="L51" s="168"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="171"/>
-      <c r="C52" s="171"/>
-      <c r="D52" s="171"/>
-      <c r="E52" s="171"/>
-      <c r="F52" s="171"/>
-      <c r="G52" s="171"/>
-      <c r="H52" s="171"/>
-      <c r="I52" s="171"/>
-      <c r="J52" s="171"/>
-      <c r="K52" s="171"/>
-      <c r="L52" s="171"/>
+      <c r="B52" s="168"/>
+      <c r="C52" s="168"/>
+      <c r="D52" s="168"/>
+      <c r="E52" s="168"/>
+      <c r="F52" s="168"/>
+      <c r="G52" s="168"/>
+      <c r="H52" s="168"/>
+      <c r="I52" s="168"/>
+      <c r="J52" s="168"/>
+      <c r="K52" s="168"/>
+      <c r="L52" s="168"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="171"/>
-      <c r="C53" s="171"/>
-      <c r="D53" s="171"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="171"/>
-      <c r="G53" s="171"/>
-      <c r="H53" s="171"/>
-      <c r="I53" s="171"/>
-      <c r="J53" s="171"/>
-      <c r="K53" s="171"/>
-      <c r="L53" s="171"/>
+      <c r="B53" s="168"/>
+      <c r="C53" s="168"/>
+      <c r="D53" s="168"/>
+      <c r="E53" s="168"/>
+      <c r="F53" s="168"/>
+      <c r="G53" s="168"/>
+      <c r="H53" s="168"/>
+      <c r="I53" s="168"/>
+      <c r="J53" s="168"/>
+      <c r="K53" s="168"/>
+      <c r="L53" s="168"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="171"/>
-      <c r="C54" s="171"/>
-      <c r="D54" s="171"/>
-      <c r="E54" s="171"/>
-      <c r="F54" s="171"/>
-      <c r="G54" s="171"/>
-      <c r="H54" s="171"/>
-      <c r="I54" s="171"/>
-      <c r="J54" s="171"/>
-      <c r="K54" s="171"/>
-      <c r="L54" s="171"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
+      <c r="E54" s="168"/>
+      <c r="F54" s="168"/>
+      <c r="G54" s="168"/>
+      <c r="H54" s="168"/>
+      <c r="I54" s="168"/>
+      <c r="J54" s="168"/>
+      <c r="K54" s="168"/>
+      <c r="L54" s="168"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="171"/>
-      <c r="C55" s="171"/>
-      <c r="D55" s="171"/>
-      <c r="E55" s="171"/>
-      <c r="F55" s="171"/>
-      <c r="G55" s="171"/>
-      <c r="H55" s="171"/>
-      <c r="I55" s="171"/>
-      <c r="J55" s="171"/>
-      <c r="K55" s="171"/>
-      <c r="L55" s="171"/>
+      <c r="B55" s="168"/>
+      <c r="C55" s="168"/>
+      <c r="D55" s="168"/>
+      <c r="E55" s="168"/>
+      <c r="F55" s="168"/>
+      <c r="G55" s="168"/>
+      <c r="H55" s="168"/>
+      <c r="I55" s="168"/>
+      <c r="J55" s="168"/>
+      <c r="K55" s="168"/>
+      <c r="L55" s="168"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="171"/>
-      <c r="C56" s="171"/>
-      <c r="D56" s="171"/>
-      <c r="E56" s="171"/>
-      <c r="F56" s="171"/>
-      <c r="G56" s="171"/>
-      <c r="H56" s="171"/>
-      <c r="I56" s="171"/>
-      <c r="J56" s="171"/>
-      <c r="K56" s="171"/>
-      <c r="L56" s="171"/>
+      <c r="B56" s="168"/>
+      <c r="C56" s="168"/>
+      <c r="D56" s="168"/>
+      <c r="E56" s="168"/>
+      <c r="F56" s="168"/>
+      <c r="G56" s="168"/>
+      <c r="H56" s="168"/>
+      <c r="I56" s="168"/>
+      <c r="J56" s="168"/>
+      <c r="K56" s="168"/>
+      <c r="L56" s="168"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="171"/>
-      <c r="C57" s="171"/>
-      <c r="D57" s="171"/>
-      <c r="E57" s="171"/>
-      <c r="F57" s="171"/>
-      <c r="G57" s="171"/>
-      <c r="H57" s="171"/>
-      <c r="I57" s="171"/>
-      <c r="J57" s="171"/>
-      <c r="K57" s="171"/>
-      <c r="L57" s="171"/>
+      <c r="B57" s="168"/>
+      <c r="C57" s="168"/>
+      <c r="D57" s="168"/>
+      <c r="E57" s="168"/>
+      <c r="F57" s="168"/>
+      <c r="G57" s="168"/>
+      <c r="H57" s="168"/>
+      <c r="I57" s="168"/>
+      <c r="J57" s="168"/>
+      <c r="K57" s="168"/>
+      <c r="L57" s="168"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
       <c r="B58" s="31"/>
@@ -6473,169 +6554,169 @@
       <c r="J59" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K59" s="169" t="str">
+      <c r="K59" s="166" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L59" s="169"/>
+      <c r="L59" s="166"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="167" t="s">
+      <c r="B60" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="168"/>
-      <c r="D60" s="168"/>
-      <c r="E60" s="168"/>
-      <c r="F60" s="168"/>
-      <c r="G60" s="168"/>
-      <c r="H60" s="168"/>
-      <c r="I60" s="168"/>
-      <c r="J60" s="168"/>
-      <c r="K60" s="168"/>
-      <c r="L60" s="168"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
+      <c r="E60" s="165"/>
+      <c r="F60" s="165"/>
+      <c r="G60" s="165"/>
+      <c r="H60" s="165"/>
+      <c r="I60" s="165"/>
+      <c r="J60" s="165"/>
+      <c r="K60" s="165"/>
+      <c r="L60" s="165"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="168"/>
-      <c r="C61" s="168"/>
-      <c r="D61" s="168"/>
-      <c r="E61" s="168"/>
-      <c r="F61" s="168"/>
-      <c r="G61" s="168"/>
-      <c r="H61" s="168"/>
-      <c r="I61" s="168"/>
-      <c r="J61" s="168"/>
-      <c r="K61" s="168"/>
-      <c r="L61" s="168"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
+      <c r="E61" s="165"/>
+      <c r="F61" s="165"/>
+      <c r="G61" s="165"/>
+      <c r="H61" s="165"/>
+      <c r="I61" s="165"/>
+      <c r="J61" s="165"/>
+      <c r="K61" s="165"/>
+      <c r="L61" s="165"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="168"/>
-      <c r="C62" s="168"/>
-      <c r="D62" s="168"/>
-      <c r="E62" s="168"/>
-      <c r="F62" s="168"/>
-      <c r="G62" s="168"/>
-      <c r="H62" s="168"/>
-      <c r="I62" s="168"/>
-      <c r="J62" s="168"/>
-      <c r="K62" s="168"/>
-      <c r="L62" s="168"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
+      <c r="E62" s="165"/>
+      <c r="F62" s="165"/>
+      <c r="G62" s="165"/>
+      <c r="H62" s="165"/>
+      <c r="I62" s="165"/>
+      <c r="J62" s="165"/>
+      <c r="K62" s="165"/>
+      <c r="L62" s="165"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="168"/>
-      <c r="C63" s="168"/>
-      <c r="D63" s="168"/>
-      <c r="E63" s="168"/>
-      <c r="F63" s="168"/>
-      <c r="G63" s="168"/>
-      <c r="H63" s="168"/>
-      <c r="I63" s="168"/>
-      <c r="J63" s="168"/>
-      <c r="K63" s="168"/>
-      <c r="L63" s="168"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="165"/>
+      <c r="F63" s="165"/>
+      <c r="G63" s="165"/>
+      <c r="H63" s="165"/>
+      <c r="I63" s="165"/>
+      <c r="J63" s="165"/>
+      <c r="K63" s="165"/>
+      <c r="L63" s="165"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="168"/>
-      <c r="C64" s="168"/>
-      <c r="D64" s="168"/>
-      <c r="E64" s="168"/>
-      <c r="F64" s="168"/>
-      <c r="G64" s="168"/>
-      <c r="H64" s="168"/>
-      <c r="I64" s="168"/>
-      <c r="J64" s="168"/>
-      <c r="K64" s="168"/>
-      <c r="L64" s="168"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
+      <c r="E64" s="165"/>
+      <c r="F64" s="165"/>
+      <c r="G64" s="165"/>
+      <c r="H64" s="165"/>
+      <c r="I64" s="165"/>
+      <c r="J64" s="165"/>
+      <c r="K64" s="165"/>
+      <c r="L64" s="165"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="168"/>
-      <c r="C65" s="168"/>
-      <c r="D65" s="168"/>
-      <c r="E65" s="168"/>
-      <c r="F65" s="168"/>
-      <c r="G65" s="168"/>
-      <c r="H65" s="168"/>
-      <c r="I65" s="168"/>
-      <c r="J65" s="168"/>
-      <c r="K65" s="168"/>
-      <c r="L65" s="168"/>
+      <c r="B65" s="165"/>
+      <c r="C65" s="165"/>
+      <c r="D65" s="165"/>
+      <c r="E65" s="165"/>
+      <c r="F65" s="165"/>
+      <c r="G65" s="165"/>
+      <c r="H65" s="165"/>
+      <c r="I65" s="165"/>
+      <c r="J65" s="165"/>
+      <c r="K65" s="165"/>
+      <c r="L65" s="165"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="168"/>
-      <c r="C66" s="168"/>
-      <c r="D66" s="168"/>
-      <c r="E66" s="168"/>
-      <c r="F66" s="168"/>
-      <c r="G66" s="168"/>
-      <c r="H66" s="168"/>
-      <c r="I66" s="168"/>
-      <c r="J66" s="168"/>
-      <c r="K66" s="168"/>
-      <c r="L66" s="168"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
+      <c r="E66" s="165"/>
+      <c r="F66" s="165"/>
+      <c r="G66" s="165"/>
+      <c r="H66" s="165"/>
+      <c r="I66" s="165"/>
+      <c r="J66" s="165"/>
+      <c r="K66" s="165"/>
+      <c r="L66" s="165"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="168"/>
-      <c r="C67" s="168"/>
-      <c r="D67" s="168"/>
-      <c r="E67" s="168"/>
-      <c r="F67" s="168"/>
-      <c r="G67" s="168"/>
-      <c r="H67" s="168"/>
-      <c r="I67" s="168"/>
-      <c r="J67" s="168"/>
-      <c r="K67" s="168"/>
-      <c r="L67" s="168"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
+      <c r="E67" s="165"/>
+      <c r="F67" s="165"/>
+      <c r="G67" s="165"/>
+      <c r="H67" s="165"/>
+      <c r="I67" s="165"/>
+      <c r="J67" s="165"/>
+      <c r="K67" s="165"/>
+      <c r="L67" s="165"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="168"/>
-      <c r="C68" s="168"/>
-      <c r="D68" s="168"/>
-      <c r="E68" s="168"/>
-      <c r="F68" s="168"/>
-      <c r="G68" s="168"/>
-      <c r="H68" s="168"/>
-      <c r="I68" s="168"/>
-      <c r="J68" s="168"/>
-      <c r="K68" s="168"/>
-      <c r="L68" s="168"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="165"/>
+      <c r="D68" s="165"/>
+      <c r="E68" s="165"/>
+      <c r="F68" s="165"/>
+      <c r="G68" s="165"/>
+      <c r="H68" s="165"/>
+      <c r="I68" s="165"/>
+      <c r="J68" s="165"/>
+      <c r="K68" s="165"/>
+      <c r="L68" s="165"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="168"/>
-      <c r="C69" s="168"/>
-      <c r="D69" s="168"/>
-      <c r="E69" s="168"/>
-      <c r="F69" s="168"/>
-      <c r="G69" s="168"/>
-      <c r="H69" s="168"/>
-      <c r="I69" s="168"/>
-      <c r="J69" s="168"/>
-      <c r="K69" s="168"/>
-      <c r="L69" s="168"/>
+      <c r="B69" s="165"/>
+      <c r="C69" s="165"/>
+      <c r="D69" s="165"/>
+      <c r="E69" s="165"/>
+      <c r="F69" s="165"/>
+      <c r="G69" s="165"/>
+      <c r="H69" s="165"/>
+      <c r="I69" s="165"/>
+      <c r="J69" s="165"/>
+      <c r="K69" s="165"/>
+      <c r="L69" s="165"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="168"/>
-      <c r="C70" s="168"/>
-      <c r="D70" s="168"/>
-      <c r="E70" s="168"/>
-      <c r="F70" s="168"/>
-      <c r="G70" s="168"/>
-      <c r="H70" s="168"/>
-      <c r="I70" s="168"/>
-      <c r="J70" s="168"/>
-      <c r="K70" s="168"/>
-      <c r="L70" s="168"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="165"/>
+      <c r="D70" s="165"/>
+      <c r="E70" s="165"/>
+      <c r="F70" s="165"/>
+      <c r="G70" s="165"/>
+      <c r="H70" s="165"/>
+      <c r="I70" s="165"/>
+      <c r="J70" s="165"/>
+      <c r="K70" s="165"/>
+      <c r="L70" s="165"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="168"/>
-      <c r="C71" s="168"/>
-      <c r="D71" s="168"/>
-      <c r="E71" s="168"/>
-      <c r="F71" s="168"/>
-      <c r="G71" s="168"/>
-      <c r="H71" s="168"/>
-      <c r="I71" s="168"/>
-      <c r="J71" s="168"/>
-      <c r="K71" s="168"/>
-      <c r="L71" s="168"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="165"/>
+      <c r="D71" s="165"/>
+      <c r="E71" s="165"/>
+      <c r="F71" s="165"/>
+      <c r="G71" s="165"/>
+      <c r="H71" s="165"/>
+      <c r="I71" s="165"/>
+      <c r="J71" s="165"/>
+      <c r="K71" s="165"/>
+      <c r="L71" s="165"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
       <c r="B73" s="29" t="s">
@@ -6729,7 +6810,7 @@
       <c r="H80" s="29"/>
       <c r="I80" s="29"/>
     </row>
-    <row r="81" spans="2:9" ht="14.25">
+    <row r="81" spans="2:11" ht="14.25">
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
       <c r="D81" s="29"/>
@@ -6739,7 +6820,7 @@
       <c r="H81" s="29"/>
       <c r="I81" s="29"/>
     </row>
-    <row r="82" spans="2:9" ht="14.25">
+    <row r="82" spans="2:11" ht="14.25">
       <c r="B82" s="29"/>
       <c r="C82" s="29" t="s">
         <v>54</v>
@@ -6751,7 +6832,7 @@
       <c r="H82" s="29"/>
       <c r="I82" s="29"/>
     </row>
-    <row r="85" spans="2:9" ht="14.25">
+    <row r="85" spans="2:11" ht="14.25">
       <c r="B85" s="29" t="s">
         <v>49</v>
       </c>
@@ -6766,7 +6847,7 @@
       <c r="H85" s="29"/>
       <c r="I85" s="29"/>
     </row>
-    <row r="86" spans="2:9" ht="14.25">
+    <row r="86" spans="2:11" ht="14.25">
       <c r="B86" s="29"/>
       <c r="C86" s="32" t="s">
         <v>178</v>
@@ -6778,7 +6859,7 @@
       <c r="H86" s="29"/>
       <c r="I86" s="29"/>
     </row>
-    <row r="87" spans="2:9" ht="14.25">
+    <row r="87" spans="2:11" ht="14.25">
       <c r="B87" s="29" t="s">
         <v>40</v>
       </c>
@@ -6790,7 +6871,7 @@
       <c r="H87" s="29"/>
       <c r="I87" s="29"/>
     </row>
-    <row r="88" spans="2:9" ht="14.25">
+    <row r="88" spans="2:11" ht="14.25">
       <c r="B88" s="29"/>
       <c r="C88" s="29"/>
       <c r="D88" s="29"/>
@@ -6800,7 +6881,7 @@
       <c r="H88" s="29"/>
       <c r="I88" s="29"/>
     </row>
-    <row r="89" spans="2:9" ht="14.25">
+    <row r="89" spans="2:11" ht="14.25">
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
       <c r="D89" s="29"/>
@@ -6810,43 +6891,49 @@
       <c r="H89" s="29"/>
       <c r="I89" s="29"/>
     </row>
-    <row r="90" spans="2:9" ht="14.25">
+    <row r="90" spans="2:11" ht="14.25">
       <c r="B90" s="29"/>
-      <c r="C90" s="44" t="str">
+      <c r="C90" s="171" t="str">
         <f>記入!B36</f>
         <v>${cv.prplacepositionchinese}</v>
       </c>
-      <c r="D90" s="33" t="str">
+      <c r="D90" s="171" t="str">
         <f>記入!E36</f>
         <v>${cv.namechinese}</v>
       </c>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
+      <c r="E90" s="171"/>
+      <c r="F90" s="171"/>
       <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-    </row>
-    <row r="91" spans="2:9" ht="14.25">
+      <c r="H90" s="172"/>
+      <c r="I90" s="172"/>
+      <c r="J90" s="172"/>
+      <c r="K90" s="172"/>
+    </row>
+    <row r="91" spans="2:11" ht="14.25">
       <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="29"/>
+      <c r="C91" s="171"/>
+      <c r="D91" s="171"/>
+      <c r="E91" s="171"/>
+      <c r="F91" s="171"/>
       <c r="G91" s="29"/>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-    </row>
-    <row r="92" spans="2:9" ht="14.25">
+      <c r="H91" s="172"/>
+      <c r="I91" s="172"/>
+      <c r="J91" s="172"/>
+      <c r="K91" s="172"/>
+    </row>
+    <row r="92" spans="2:11" ht="14.25">
       <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
+      <c r="C92" s="171"/>
+      <c r="D92" s="171"/>
+      <c r="E92" s="171"/>
+      <c r="F92" s="171"/>
       <c r="G92" s="29"/>
-      <c r="H92" s="29"/>
-      <c r="I92" s="29"/>
-    </row>
-    <row r="93" spans="2:9" ht="14.25">
+      <c r="H92" s="172"/>
+      <c r="I92" s="172"/>
+      <c r="J92" s="172"/>
+      <c r="K92" s="172"/>
+    </row>
+    <row r="93" spans="2:11" ht="14.25">
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
       <c r="D93" s="29"/>
@@ -6856,7 +6943,7 @@
       <c r="H93" s="29"/>
       <c r="I93" s="29"/>
     </row>
-    <row r="94" spans="2:9" ht="14.25">
+    <row r="94" spans="2:11" ht="14.25">
       <c r="B94" s="29"/>
       <c r="C94" s="29" t="s">
         <v>54</v>
@@ -6868,856 +6955,832 @@
       <c r="H94" s="29"/>
       <c r="I94" s="29"/>
     </row>
-    <row r="127" spans="2:12" s="58" customFormat="1" ht="24.75" customHeight="1">
-      <c r="J127" s="59" t="s">
+    <row r="127" spans="2:12" s="57" customFormat="1" ht="24.75" customHeight="1">
+      <c r="J127" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="K127" s="166" t="str">
+      <c r="K127" s="163" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L127" s="166"/>
-    </row>
-    <row r="128" spans="2:12" s="58" customFormat="1" ht="18.75">
-      <c r="B128" s="60" t="s">
+      <c r="L127" s="163"/>
+    </row>
+    <row r="128" spans="2:12" s="57" customFormat="1" ht="18.75">
+      <c r="B128" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C128" s="59"/>
-      <c r="D128" s="59"/>
-      <c r="E128" s="59"/>
-      <c r="F128" s="59"/>
-      <c r="G128" s="59"/>
-      <c r="H128" s="59"/>
-      <c r="I128" s="59"/>
-      <c r="J128" s="59"/>
-      <c r="K128" s="59"/>
-    </row>
-    <row r="129" spans="2:12" s="58" customFormat="1">
-      <c r="B129" s="59"/>
-      <c r="C129" s="59"/>
-      <c r="D129" s="59"/>
-      <c r="E129" s="59"/>
-      <c r="F129" s="59"/>
-      <c r="G129" s="59"/>
-      <c r="H129" s="59"/>
-      <c r="I129" s="59"/>
-      <c r="J129" s="59"/>
-      <c r="K129" s="59"/>
-    </row>
-    <row r="130" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B130" s="61" t="s">
+      <c r="C128" s="58"/>
+      <c r="D128" s="58"/>
+      <c r="E128" s="58"/>
+      <c r="F128" s="58"/>
+      <c r="G128" s="58"/>
+      <c r="H128" s="58"/>
+      <c r="I128" s="58"/>
+      <c r="J128" s="58"/>
+      <c r="K128" s="58"/>
+    </row>
+    <row r="129" spans="2:12" s="57" customFormat="1">
+      <c r="B129" s="58"/>
+      <c r="C129" s="58"/>
+      <c r="D129" s="58"/>
+      <c r="E129" s="58"/>
+      <c r="F129" s="58"/>
+      <c r="G129" s="58"/>
+      <c r="H129" s="58"/>
+      <c r="I129" s="58"/>
+      <c r="J129" s="58"/>
+      <c r="K129" s="58"/>
+    </row>
+    <row r="130" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B130" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="C130" s="61"/>
-      <c r="D130" s="61"/>
-      <c r="E130" s="61"/>
-      <c r="F130" s="61"/>
-      <c r="G130" s="61"/>
-      <c r="H130" s="61"/>
-      <c r="I130" s="61"/>
-      <c r="J130" s="61"/>
-      <c r="K130" s="61"/>
-      <c r="L130" s="62"/>
-    </row>
-    <row r="131" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="148" t="s">
+      <c r="C130" s="60"/>
+      <c r="D130" s="60"/>
+      <c r="E130" s="60"/>
+      <c r="F130" s="60"/>
+      <c r="G130" s="60"/>
+      <c r="H130" s="60"/>
+      <c r="I130" s="60"/>
+      <c r="J130" s="60"/>
+      <c r="K130" s="60"/>
+      <c r="L130" s="61"/>
+    </row>
+    <row r="131" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B131" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C131" s="148"/>
-      <c r="D131" s="164" t="str">
+      <c r="C131" s="149"/>
+      <c r="D131" s="161" t="str">
         <f>記入!B11</f>
         <v>${cv.pjnamechinese}</v>
       </c>
-      <c r="E131" s="164"/>
-      <c r="F131" s="164"/>
-      <c r="G131" s="164"/>
-      <c r="H131" s="164"/>
-      <c r="I131" s="164"/>
-      <c r="J131" s="164"/>
-      <c r="K131" s="164"/>
-      <c r="L131" s="63"/>
-    </row>
-    <row r="132" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="148" t="s">
+      <c r="E131" s="161"/>
+      <c r="F131" s="161"/>
+      <c r="G131" s="161"/>
+      <c r="H131" s="161"/>
+      <c r="I131" s="161"/>
+      <c r="J131" s="161"/>
+      <c r="K131" s="161"/>
+      <c r="L131" s="62"/>
+    </row>
+    <row r="132" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B132" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="C132" s="148"/>
-      <c r="D132" s="165" t="str">
+      <c r="C132" s="149"/>
+      <c r="D132" s="162" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E132" s="164"/>
-      <c r="F132" s="164"/>
-      <c r="G132" s="164"/>
-      <c r="H132" s="164"/>
-      <c r="I132" s="164"/>
-      <c r="J132" s="164"/>
-      <c r="K132" s="164"/>
-      <c r="L132" s="64"/>
-    </row>
-    <row r="133" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B133" s="148" t="s">
+      <c r="E132" s="161"/>
+      <c r="F132" s="161"/>
+      <c r="G132" s="161"/>
+      <c r="H132" s="161"/>
+      <c r="I132" s="161"/>
+      <c r="J132" s="161"/>
+      <c r="K132" s="161"/>
+      <c r="L132" s="63"/>
+    </row>
+    <row r="133" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B133" s="149" t="s">
         <v>103</v>
       </c>
-      <c r="C133" s="148"/>
-      <c r="D133" s="165" t="str">
+      <c r="C133" s="149"/>
+      <c r="D133" s="162" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E133" s="164"/>
-      <c r="F133" s="164"/>
-      <c r="G133" s="164"/>
-      <c r="H133" s="164"/>
-      <c r="I133" s="164"/>
-      <c r="J133" s="164"/>
-      <c r="K133" s="164"/>
-      <c r="L133" s="64"/>
-    </row>
-    <row r="134" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="148" t="s">
+      <c r="E133" s="161"/>
+      <c r="F133" s="161"/>
+      <c r="G133" s="161"/>
+      <c r="H133" s="161"/>
+      <c r="I133" s="161"/>
+      <c r="J133" s="161"/>
+      <c r="K133" s="161"/>
+      <c r="L133" s="63"/>
+    </row>
+    <row r="134" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B134" s="149" t="s">
         <v>104</v>
       </c>
-      <c r="C134" s="148"/>
-      <c r="D134" s="157" t="str">
+      <c r="C134" s="149"/>
+      <c r="D134" s="154" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="E134" s="157"/>
-      <c r="F134" s="157"/>
-      <c r="G134" s="157"/>
-      <c r="H134" s="157"/>
-      <c r="I134" s="157"/>
-      <c r="J134" s="157"/>
-      <c r="K134" s="157"/>
-      <c r="L134" s="64"/>
-    </row>
-    <row r="135" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="158" t="s">
+      <c r="E134" s="154"/>
+      <c r="F134" s="154"/>
+      <c r="G134" s="154"/>
+      <c r="H134" s="154"/>
+      <c r="I134" s="154"/>
+      <c r="J134" s="154"/>
+      <c r="K134" s="154"/>
+      <c r="L134" s="63"/>
+    </row>
+    <row r="135" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B135" s="155" t="s">
         <v>105</v>
       </c>
-      <c r="C135" s="148"/>
-      <c r="D135" s="159" t="str">
+      <c r="C135" s="149"/>
+      <c r="D135" s="156" t="str">
         <f>記入!B44</f>
         <v>${cv.technicalcontentchinese}</v>
       </c>
-      <c r="E135" s="160"/>
-      <c r="F135" s="160"/>
-      <c r="G135" s="160"/>
-      <c r="H135" s="160"/>
-      <c r="I135" s="160"/>
-      <c r="J135" s="160"/>
-      <c r="K135" s="160"/>
-      <c r="L135" s="64"/>
-    </row>
-    <row r="136" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="148"/>
-      <c r="C136" s="148"/>
-      <c r="D136" s="160"/>
-      <c r="E136" s="160"/>
-      <c r="F136" s="160"/>
-      <c r="G136" s="160"/>
-      <c r="H136" s="160"/>
-      <c r="I136" s="160"/>
-      <c r="J136" s="160"/>
-      <c r="K136" s="160"/>
-      <c r="L136" s="64"/>
-    </row>
-    <row r="137" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="148"/>
-      <c r="C137" s="148"/>
-      <c r="D137" s="160"/>
-      <c r="E137" s="160"/>
-      <c r="F137" s="160"/>
-      <c r="G137" s="160"/>
-      <c r="H137" s="160"/>
-      <c r="I137" s="160"/>
-      <c r="J137" s="160"/>
-      <c r="K137" s="160"/>
-      <c r="L137" s="64"/>
-    </row>
-    <row r="138" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="148"/>
-      <c r="C138" s="148"/>
-      <c r="D138" s="160"/>
-      <c r="E138" s="160"/>
-      <c r="F138" s="160"/>
-      <c r="G138" s="160"/>
-      <c r="H138" s="160"/>
-      <c r="I138" s="160"/>
-      <c r="J138" s="160"/>
-      <c r="K138" s="160"/>
-      <c r="L138" s="63"/>
-    </row>
-    <row r="139" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="148"/>
-      <c r="C139" s="148"/>
-      <c r="D139" s="160"/>
-      <c r="E139" s="160"/>
-      <c r="F139" s="160"/>
-      <c r="G139" s="160"/>
-      <c r="H139" s="160"/>
-      <c r="I139" s="160"/>
-      <c r="J139" s="160"/>
-      <c r="K139" s="160"/>
-      <c r="L139" s="63"/>
-    </row>
-    <row r="140" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="148"/>
-      <c r="C140" s="148"/>
-      <c r="D140" s="160"/>
-      <c r="E140" s="160"/>
-      <c r="F140" s="160"/>
-      <c r="G140" s="160"/>
-      <c r="H140" s="160"/>
-      <c r="I140" s="160"/>
-      <c r="J140" s="160"/>
-      <c r="K140" s="160"/>
-      <c r="L140" s="64"/>
-    </row>
-    <row r="141" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="148"/>
-      <c r="C141" s="148"/>
-      <c r="D141" s="160"/>
-      <c r="E141" s="160"/>
-      <c r="F141" s="160"/>
-      <c r="G141" s="160"/>
-      <c r="H141" s="160"/>
-      <c r="I141" s="160"/>
-      <c r="J141" s="160"/>
-      <c r="K141" s="160"/>
-      <c r="L141" s="64"/>
-    </row>
-    <row r="142" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="148" t="s">
+      <c r="E135" s="157"/>
+      <c r="F135" s="157"/>
+      <c r="G135" s="157"/>
+      <c r="H135" s="157"/>
+      <c r="I135" s="157"/>
+      <c r="J135" s="157"/>
+      <c r="K135" s="157"/>
+      <c r="L135" s="63"/>
+    </row>
+    <row r="136" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B136" s="149"/>
+      <c r="C136" s="149"/>
+      <c r="D136" s="157"/>
+      <c r="E136" s="157"/>
+      <c r="F136" s="157"/>
+      <c r="G136" s="157"/>
+      <c r="H136" s="157"/>
+      <c r="I136" s="157"/>
+      <c r="J136" s="157"/>
+      <c r="K136" s="157"/>
+      <c r="L136" s="63"/>
+    </row>
+    <row r="137" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B137" s="149"/>
+      <c r="C137" s="149"/>
+      <c r="D137" s="157"/>
+      <c r="E137" s="157"/>
+      <c r="F137" s="157"/>
+      <c r="G137" s="157"/>
+      <c r="H137" s="157"/>
+      <c r="I137" s="157"/>
+      <c r="J137" s="157"/>
+      <c r="K137" s="157"/>
+      <c r="L137" s="63"/>
+    </row>
+    <row r="138" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B138" s="149"/>
+      <c r="C138" s="149"/>
+      <c r="D138" s="157"/>
+      <c r="E138" s="157"/>
+      <c r="F138" s="157"/>
+      <c r="G138" s="157"/>
+      <c r="H138" s="157"/>
+      <c r="I138" s="157"/>
+      <c r="J138" s="157"/>
+      <c r="K138" s="157"/>
+      <c r="L138" s="62"/>
+    </row>
+    <row r="139" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B139" s="149"/>
+      <c r="C139" s="149"/>
+      <c r="D139" s="157"/>
+      <c r="E139" s="157"/>
+      <c r="F139" s="157"/>
+      <c r="G139" s="157"/>
+      <c r="H139" s="157"/>
+      <c r="I139" s="157"/>
+      <c r="J139" s="157"/>
+      <c r="K139" s="157"/>
+      <c r="L139" s="62"/>
+    </row>
+    <row r="140" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B140" s="149"/>
+      <c r="C140" s="149"/>
+      <c r="D140" s="157"/>
+      <c r="E140" s="157"/>
+      <c r="F140" s="157"/>
+      <c r="G140" s="157"/>
+      <c r="H140" s="157"/>
+      <c r="I140" s="157"/>
+      <c r="J140" s="157"/>
+      <c r="K140" s="157"/>
+      <c r="L140" s="63"/>
+    </row>
+    <row r="141" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B141" s="149"/>
+      <c r="C141" s="149"/>
+      <c r="D141" s="157"/>
+      <c r="E141" s="157"/>
+      <c r="F141" s="157"/>
+      <c r="G141" s="157"/>
+      <c r="H141" s="157"/>
+      <c r="I141" s="157"/>
+      <c r="J141" s="157"/>
+      <c r="K141" s="157"/>
+      <c r="L141" s="63"/>
+    </row>
+    <row r="142" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B142" s="149" t="s">
         <v>106</v>
       </c>
-      <c r="C142" s="148"/>
-      <c r="D142" s="161" t="str">
+      <c r="C142" s="149"/>
+      <c r="D142" s="158" t="str">
         <f>記入!B55</f>
         <v>${cv.subcontract}</v>
       </c>
-      <c r="E142" s="162"/>
-      <c r="F142" s="162"/>
-      <c r="G142" s="162"/>
-      <c r="H142" s="162"/>
-      <c r="I142" s="162"/>
-      <c r="J142" s="162"/>
-      <c r="K142" s="163"/>
-      <c r="L142" s="63"/>
-    </row>
-    <row r="143" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="148"/>
-      <c r="C143" s="148"/>
-      <c r="D143" s="159" t="str">
+      <c r="E142" s="159"/>
+      <c r="F142" s="159"/>
+      <c r="G142" s="159"/>
+      <c r="H142" s="159"/>
+      <c r="I142" s="159"/>
+      <c r="J142" s="159"/>
+      <c r="K142" s="160"/>
+      <c r="L142" s="62"/>
+    </row>
+    <row r="143" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B143" s="149"/>
+      <c r="C143" s="149"/>
+      <c r="D143" s="156" t="str">
         <f>記入!B56</f>
         <v>再委托公司：
 ${cv.subcontractcontent}</v>
       </c>
-      <c r="E143" s="160"/>
-      <c r="F143" s="160"/>
-      <c r="G143" s="160"/>
-      <c r="H143" s="160"/>
-      <c r="I143" s="160"/>
-      <c r="J143" s="160"/>
-      <c r="K143" s="160"/>
-      <c r="L143" s="65"/>
-    </row>
-    <row r="144" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="148"/>
-      <c r="C144" s="148"/>
-      <c r="D144" s="160"/>
-      <c r="E144" s="160"/>
-      <c r="F144" s="160"/>
-      <c r="G144" s="160"/>
-      <c r="H144" s="160"/>
-      <c r="I144" s="160"/>
-      <c r="J144" s="160"/>
-      <c r="K144" s="160"/>
-      <c r="L144" s="65"/>
-    </row>
-    <row r="145" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="148"/>
-      <c r="C145" s="148"/>
-      <c r="D145" s="160"/>
-      <c r="E145" s="160"/>
-      <c r="F145" s="160"/>
-      <c r="G145" s="160"/>
-      <c r="H145" s="160"/>
-      <c r="I145" s="160"/>
-      <c r="J145" s="160"/>
-      <c r="K145" s="160"/>
-      <c r="L145" s="65"/>
-    </row>
-    <row r="146" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="148"/>
-      <c r="C146" s="148"/>
-      <c r="D146" s="160"/>
-      <c r="E146" s="160"/>
-      <c r="F146" s="160"/>
-      <c r="G146" s="160"/>
-      <c r="H146" s="160"/>
-      <c r="I146" s="160"/>
-      <c r="J146" s="160"/>
-      <c r="K146" s="160"/>
-      <c r="L146" s="65"/>
-    </row>
-    <row r="147" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B147" s="65"/>
-      <c r="C147" s="65"/>
-      <c r="D147" s="65"/>
-      <c r="E147" s="65"/>
-      <c r="F147" s="65"/>
-      <c r="G147" s="65"/>
-      <c r="H147" s="65"/>
-      <c r="I147" s="65"/>
-      <c r="J147" s="65"/>
-      <c r="K147" s="65"/>
-      <c r="L147" s="64"/>
-    </row>
-    <row r="148" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B148" s="65" t="s">
+      <c r="E143" s="157"/>
+      <c r="F143" s="157"/>
+      <c r="G143" s="157"/>
+      <c r="H143" s="157"/>
+      <c r="I143" s="157"/>
+      <c r="J143" s="157"/>
+      <c r="K143" s="157"/>
+      <c r="L143" s="64"/>
+    </row>
+    <row r="144" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B144" s="149"/>
+      <c r="C144" s="149"/>
+      <c r="D144" s="157"/>
+      <c r="E144" s="157"/>
+      <c r="F144" s="157"/>
+      <c r="G144" s="157"/>
+      <c r="H144" s="157"/>
+      <c r="I144" s="157"/>
+      <c r="J144" s="157"/>
+      <c r="K144" s="157"/>
+      <c r="L144" s="64"/>
+    </row>
+    <row r="145" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B145" s="149"/>
+      <c r="C145" s="149"/>
+      <c r="D145" s="157"/>
+      <c r="E145" s="157"/>
+      <c r="F145" s="157"/>
+      <c r="G145" s="157"/>
+      <c r="H145" s="157"/>
+      <c r="I145" s="157"/>
+      <c r="J145" s="157"/>
+      <c r="K145" s="157"/>
+      <c r="L145" s="64"/>
+    </row>
+    <row r="146" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B146" s="149"/>
+      <c r="C146" s="149"/>
+      <c r="D146" s="157"/>
+      <c r="E146" s="157"/>
+      <c r="F146" s="157"/>
+      <c r="G146" s="157"/>
+      <c r="H146" s="157"/>
+      <c r="I146" s="157"/>
+      <c r="J146" s="157"/>
+      <c r="K146" s="157"/>
+      <c r="L146" s="64"/>
+    </row>
+    <row r="147" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B147" s="64"/>
+      <c r="C147" s="64"/>
+      <c r="D147" s="64"/>
+      <c r="E147" s="64"/>
+      <c r="F147" s="64"/>
+      <c r="G147" s="64"/>
+      <c r="H147" s="64"/>
+      <c r="I147" s="64"/>
+      <c r="J147" s="64"/>
+      <c r="K147" s="64"/>
+      <c r="L147" s="63"/>
+    </row>
+    <row r="148" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B148" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="C148" s="65"/>
-      <c r="D148" s="65"/>
-      <c r="E148" s="65"/>
-      <c r="F148" s="65"/>
-      <c r="G148" s="65"/>
-      <c r="H148" s="65"/>
-      <c r="I148" s="65"/>
-      <c r="J148" s="65"/>
-      <c r="K148" s="66"/>
-      <c r="L148" s="64"/>
-    </row>
-    <row r="149" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="148" t="s">
+      <c r="C148" s="64"/>
+      <c r="D148" s="64"/>
+      <c r="E148" s="64"/>
+      <c r="F148" s="64"/>
+      <c r="G148" s="64"/>
+      <c r="H148" s="64"/>
+      <c r="I148" s="64"/>
+      <c r="J148" s="64"/>
+      <c r="K148" s="65"/>
+      <c r="L148" s="63"/>
+    </row>
+    <row r="149" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B149" s="149" t="s">
         <v>80</v>
       </c>
-      <c r="C149" s="148"/>
-      <c r="D149" s="149" t="s">
+      <c r="C149" s="149"/>
+      <c r="D149" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="E149" s="149"/>
-      <c r="F149" s="149" t="s">
+      <c r="E149" s="150"/>
+      <c r="F149" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="G149" s="149"/>
-      <c r="H149" s="149" t="s">
+      <c r="G149" s="150"/>
+      <c r="H149" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="I149" s="149"/>
-      <c r="J149" s="149" t="s">
+      <c r="I149" s="150"/>
+      <c r="J149" s="150" t="s">
         <v>111</v>
       </c>
-      <c r="K149" s="149"/>
-      <c r="L149" s="64"/>
-    </row>
-    <row r="150" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="148" t="s">
+      <c r="K149" s="150"/>
+      <c r="L149" s="63"/>
+    </row>
+    <row r="150" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B150" s="149" t="s">
         <v>112</v>
       </c>
-      <c r="C150" s="148"/>
-      <c r="D150" s="156" t="str">
-        <f>記入!B29</f>
-        <v>${ba1[0].deliverydate}</v>
-      </c>
-      <c r="E150" s="149"/>
-      <c r="F150" s="131" t="str">
-        <f>記入!B30</f>
-        <v>${ba1[1].deliverydate}</v>
-      </c>
-      <c r="G150" s="132"/>
-      <c r="H150" s="131" t="str">
-        <f>記入!B31</f>
-        <v>${ba1[2].deliverydate}</v>
-      </c>
-      <c r="I150" s="132"/>
-      <c r="J150" s="131" t="str">
-        <f>記入!B32</f>
-        <v>${ba1[3].deliverydate}</v>
-      </c>
-      <c r="K150" s="132"/>
-      <c r="L150" s="65"/>
-    </row>
-    <row r="151" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="148" t="s">
+      <c r="C150" s="149"/>
+      <c r="D150" s="132" t="s">
+        <v>179</v>
+      </c>
+      <c r="E150" s="133"/>
+      <c r="F150" s="132" t="s">
+        <v>180</v>
+      </c>
+      <c r="G150" s="133"/>
+      <c r="H150" s="132" t="s">
+        <v>181</v>
+      </c>
+      <c r="I150" s="133"/>
+      <c r="J150" s="132" t="s">
+        <v>182</v>
+      </c>
+      <c r="K150" s="133"/>
+      <c r="L150" s="64"/>
+    </row>
+    <row r="151" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B151" s="149" t="s">
         <v>113</v>
       </c>
-      <c r="C151" s="148"/>
-      <c r="D151" s="156" t="str">
-        <f>記入!C29</f>
-        <v>${ba1[0].completiondate}</v>
-      </c>
-      <c r="E151" s="149"/>
-      <c r="F151" s="131" t="str">
-        <f>記入!C30</f>
-        <v>${ba1[1].completiondate}</v>
-      </c>
-      <c r="G151" s="132"/>
-      <c r="H151" s="131" t="str">
-        <f>記入!C31</f>
-        <v>${ba1[2].completiondate}</v>
-      </c>
-      <c r="I151" s="132"/>
-      <c r="J151" s="131" t="str">
-        <f>記入!C32</f>
-        <v>${ba1[3].completiondate}</v>
-      </c>
-      <c r="K151" s="132"/>
-      <c r="L151" s="63"/>
-    </row>
-    <row r="152" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="148" t="s">
+      <c r="C151" s="149"/>
+      <c r="D151" s="132" t="s">
+        <v>183</v>
+      </c>
+      <c r="E151" s="133"/>
+      <c r="F151" s="132" t="s">
+        <v>184</v>
+      </c>
+      <c r="G151" s="133"/>
+      <c r="H151" s="132" t="s">
+        <v>185</v>
+      </c>
+      <c r="I151" s="133"/>
+      <c r="J151" s="132" t="s">
+        <v>186</v>
+      </c>
+      <c r="K151" s="133"/>
+      <c r="L151" s="62"/>
+    </row>
+    <row r="152" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B152" s="149" t="s">
         <v>114</v>
       </c>
-      <c r="C152" s="148"/>
-      <c r="D152" s="155" t="str">
-        <f>記入!D29</f>
-        <v>${ba1[0].claimdate}</v>
-      </c>
-      <c r="E152" s="153"/>
-      <c r="F152" s="131" t="str">
-        <f>記入!D30</f>
-        <v>${ba1[1].claimdate}</v>
-      </c>
-      <c r="G152" s="132"/>
-      <c r="H152" s="131" t="str">
-        <f>記入!D31</f>
-        <v>${ba1[2].claimdate}</v>
-      </c>
-      <c r="I152" s="132"/>
-      <c r="J152" s="131" t="str">
-        <f>記入!D32</f>
-        <v>${ba1[3].claimdate}</v>
-      </c>
-      <c r="K152" s="132"/>
-      <c r="L152" s="63"/>
-    </row>
-    <row r="153" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="148" t="s">
+      <c r="C152" s="149"/>
+      <c r="D152" s="137" t="s">
+        <v>187</v>
+      </c>
+      <c r="E152" s="136"/>
+      <c r="F152" s="132" t="s">
+        <v>188</v>
+      </c>
+      <c r="G152" s="133"/>
+      <c r="H152" s="132" t="s">
+        <v>189</v>
+      </c>
+      <c r="I152" s="133"/>
+      <c r="J152" s="132" t="s">
+        <v>190</v>
+      </c>
+      <c r="K152" s="133"/>
+      <c r="L152" s="62"/>
+    </row>
+    <row r="153" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B153" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="C153" s="148"/>
-      <c r="D153" s="155" t="str">
-        <f>記入!E29</f>
-        <v>${ba1[0].supportdate}</v>
-      </c>
-      <c r="E153" s="153"/>
-      <c r="F153" s="131" t="str">
-        <f>記入!E30</f>
-        <v>${ba1[1].supportdate}</v>
-      </c>
-      <c r="G153" s="132"/>
-      <c r="H153" s="131" t="str">
-        <f>記入!E31</f>
-        <v>${ba1[2].supportdate}</v>
-      </c>
-      <c r="I153" s="132"/>
-      <c r="J153" s="131" t="str">
-        <f>記入!E32</f>
-        <v>${ba1[3].supportdate}</v>
-      </c>
-      <c r="K153" s="132"/>
-      <c r="L153" s="63"/>
-    </row>
-    <row r="154" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="148" t="s">
+      <c r="C153" s="149"/>
+      <c r="D153" s="137" t="s">
+        <v>191</v>
+      </c>
+      <c r="E153" s="136"/>
+      <c r="F153" s="132" t="s">
+        <v>192</v>
+      </c>
+      <c r="G153" s="133"/>
+      <c r="H153" s="132" t="s">
+        <v>193</v>
+      </c>
+      <c r="I153" s="133"/>
+      <c r="J153" s="132" t="s">
+        <v>194</v>
+      </c>
+      <c r="K153" s="133"/>
+      <c r="L153" s="62"/>
+    </row>
+    <row r="154" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B154" s="149" t="s">
         <v>116</v>
       </c>
-      <c r="C154" s="148"/>
-      <c r="D154" s="154" t="str">
-        <f>記入!F29</f>
-        <v>${ba1[0].claimamount}</v>
-      </c>
-      <c r="E154" s="153"/>
-      <c r="F154" s="133" t="str">
-        <f>記入!F30</f>
-        <v>${ba1[1].claimamount}</v>
-      </c>
-      <c r="G154" s="132"/>
-      <c r="H154" s="133" t="str">
-        <f>記入!F31</f>
-        <v>${ba1[2].claimamount}</v>
-      </c>
-      <c r="I154" s="132"/>
-      <c r="J154" s="133" t="str">
-        <f>記入!F32</f>
-        <v>${ba1[3].claimamount}</v>
-      </c>
-      <c r="K154" s="132"/>
-      <c r="L154" s="63"/>
-    </row>
-    <row r="155" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="148" t="s">
+      <c r="C154" s="149"/>
+      <c r="D154" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="E154" s="136"/>
+      <c r="F154" s="134" t="s">
+        <v>196</v>
+      </c>
+      <c r="G154" s="133"/>
+      <c r="H154" s="134" t="s">
+        <v>197</v>
+      </c>
+      <c r="I154" s="133"/>
+      <c r="J154" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="K154" s="133"/>
+      <c r="L154" s="62"/>
+    </row>
+    <row r="155" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B155" s="149" t="s">
         <v>117</v>
       </c>
-      <c r="C155" s="148"/>
-      <c r="D155" s="153" t="str">
-        <f>記入!B12&amp;(-1)</f>
-        <v>${cv.contractnumber}-1</v>
-      </c>
-      <c r="E155" s="153"/>
-      <c r="F155" s="149" t="str">
-        <f>記入!B12&amp;(-2)</f>
-        <v>${cv.contractnumber}-2</v>
-      </c>
-      <c r="G155" s="149"/>
-      <c r="H155" s="149" t="str">
-        <f>記入!B12&amp;(-3)</f>
-        <v>${cv.contractnumber}-3</v>
-      </c>
-      <c r="I155" s="149"/>
-      <c r="J155" s="149" t="str">
-        <f>記入!B12&amp;(-4)</f>
-        <v>${cv.contractnumber}-4</v>
-      </c>
-      <c r="K155" s="149"/>
-      <c r="L155" s="63"/>
-    </row>
-    <row r="156" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="148" t="s">
+      <c r="C155" s="149"/>
+      <c r="D155" s="136" t="s">
+        <v>199</v>
+      </c>
+      <c r="E155" s="136"/>
+      <c r="F155" s="133" t="s">
+        <v>200</v>
+      </c>
+      <c r="G155" s="133"/>
+      <c r="H155" s="133" t="s">
+        <v>203</v>
+      </c>
+      <c r="I155" s="133"/>
+      <c r="J155" s="133" t="s">
+        <v>204</v>
+      </c>
+      <c r="K155" s="133"/>
+      <c r="L155" s="62"/>
+    </row>
+    <row r="156" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B156" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="C156" s="148"/>
-      <c r="D156" s="149" t="s">
+      <c r="C156" s="149"/>
+      <c r="D156" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="E156" s="149"/>
-      <c r="F156" s="149"/>
-      <c r="G156" s="149"/>
-      <c r="H156" s="149"/>
-      <c r="I156" s="149"/>
-      <c r="J156" s="149"/>
-      <c r="K156" s="149"/>
-      <c r="L156" s="64"/>
-    </row>
-    <row r="157" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="148" t="s">
+      <c r="E156" s="150"/>
+      <c r="F156" s="150"/>
+      <c r="G156" s="150"/>
+      <c r="H156" s="150"/>
+      <c r="I156" s="150"/>
+      <c r="J156" s="150"/>
+      <c r="K156" s="150"/>
+      <c r="L156" s="63"/>
+    </row>
+    <row r="157" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B157" s="149" t="s">
         <v>118</v>
       </c>
-      <c r="C157" s="148"/>
-      <c r="D157" s="149" t="s">
+      <c r="C157" s="149"/>
+      <c r="D157" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="E157" s="149"/>
-      <c r="F157" s="149"/>
-      <c r="G157" s="149"/>
-      <c r="H157" s="149"/>
-      <c r="I157" s="149"/>
-      <c r="J157" s="149"/>
-      <c r="K157" s="149"/>
-      <c r="L157" s="64"/>
-    </row>
-    <row r="158" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B158" s="65"/>
-      <c r="C158" s="65"/>
-      <c r="D158" s="65"/>
-      <c r="E158" s="65"/>
-      <c r="F158" s="65"/>
-      <c r="G158" s="65"/>
-      <c r="H158" s="65"/>
-      <c r="I158" s="65"/>
-      <c r="J158" s="65"/>
-      <c r="K158" s="65"/>
-      <c r="L158" s="65"/>
-    </row>
-    <row r="159" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B159" s="65" t="s">
+      <c r="E157" s="150"/>
+      <c r="F157" s="150"/>
+      <c r="G157" s="150"/>
+      <c r="H157" s="150"/>
+      <c r="I157" s="150"/>
+      <c r="J157" s="150"/>
+      <c r="K157" s="150"/>
+      <c r="L157" s="63"/>
+    </row>
+    <row r="158" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B158" s="64"/>
+      <c r="C158" s="64"/>
+      <c r="D158" s="64"/>
+      <c r="E158" s="64"/>
+      <c r="F158" s="64"/>
+      <c r="G158" s="64"/>
+      <c r="H158" s="64"/>
+      <c r="I158" s="64"/>
+      <c r="J158" s="64"/>
+      <c r="K158" s="64"/>
+      <c r="L158" s="64"/>
+    </row>
+    <row r="159" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B159" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C159" s="65"/>
-      <c r="D159" s="65"/>
-      <c r="E159" s="67"/>
-      <c r="F159" s="65"/>
-      <c r="G159" s="65"/>
-      <c r="H159" s="65"/>
-      <c r="I159" s="65"/>
-      <c r="J159" s="65"/>
-      <c r="K159" s="65"/>
-      <c r="L159" s="65"/>
-    </row>
-    <row r="160" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="150" t="s">
+      <c r="C159" s="64"/>
+      <c r="D159" s="64"/>
+      <c r="E159" s="66"/>
+      <c r="F159" s="64"/>
+      <c r="G159" s="64"/>
+      <c r="H159" s="64"/>
+      <c r="I159" s="64"/>
+      <c r="J159" s="64"/>
+      <c r="K159" s="64"/>
+      <c r="L159" s="64"/>
+    </row>
+    <row r="160" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B160" s="151" t="s">
         <v>122</v>
       </c>
-      <c r="C160" s="150"/>
-      <c r="D160" s="150" t="str">
+      <c r="C160" s="151"/>
+      <c r="D160" s="151" t="str">
         <f>記入!B63</f>
         <v>${cv.othertermschinese}</v>
       </c>
-      <c r="E160" s="150"/>
-      <c r="F160" s="150"/>
-      <c r="G160" s="150"/>
-      <c r="H160" s="150"/>
-      <c r="I160" s="150"/>
-      <c r="J160" s="150"/>
-      <c r="K160" s="150"/>
-      <c r="L160" s="65"/>
-    </row>
-    <row r="161" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="151"/>
-      <c r="C161" s="151"/>
-      <c r="D161" s="151"/>
-      <c r="E161" s="151"/>
-      <c r="F161" s="151"/>
-      <c r="G161" s="151"/>
-      <c r="H161" s="151"/>
-      <c r="I161" s="151"/>
-      <c r="J161" s="151"/>
-      <c r="K161" s="151"/>
-      <c r="L161" s="65"/>
-    </row>
-    <row r="162" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="151"/>
-      <c r="C162" s="151"/>
-      <c r="D162" s="151"/>
-      <c r="E162" s="151"/>
-      <c r="F162" s="151"/>
-      <c r="G162" s="151"/>
-      <c r="H162" s="151"/>
-      <c r="I162" s="151"/>
-      <c r="J162" s="151"/>
-      <c r="K162" s="151"/>
-      <c r="L162" s="63"/>
-    </row>
-    <row r="163" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="152"/>
-      <c r="C163" s="152"/>
-      <c r="D163" s="152"/>
-      <c r="E163" s="152"/>
-      <c r="F163" s="152"/>
-      <c r="G163" s="152"/>
-      <c r="H163" s="152"/>
-      <c r="I163" s="152"/>
-      <c r="J163" s="152"/>
-      <c r="K163" s="152"/>
-      <c r="L163" s="65"/>
-    </row>
-    <row r="164" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B164" s="68"/>
-      <c r="C164" s="68"/>
-      <c r="D164" s="68"/>
-      <c r="E164" s="69"/>
-      <c r="F164" s="69"/>
-      <c r="G164" s="69"/>
-      <c r="H164" s="69"/>
-      <c r="I164" s="69"/>
-      <c r="J164" s="69"/>
-      <c r="K164" s="69"/>
-      <c r="L164" s="69"/>
-    </row>
-    <row r="165" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B165" s="64"/>
-      <c r="C165" s="64"/>
-      <c r="D165" s="64"/>
-      <c r="E165" s="65"/>
-      <c r="F165" s="65"/>
-      <c r="G165" s="65"/>
-      <c r="H165" s="65"/>
-      <c r="I165" s="65"/>
-      <c r="J165" s="65"/>
-      <c r="K165" s="65"/>
-      <c r="L165" s="65"/>
-    </row>
-    <row r="166" spans="2:12" s="58" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B166" s="64"/>
-      <c r="C166" s="65"/>
-      <c r="D166" s="65"/>
-      <c r="E166" s="67"/>
-      <c r="F166" s="65"/>
-      <c r="G166" s="65"/>
-      <c r="H166" s="65"/>
-      <c r="I166" s="65"/>
-      <c r="J166" s="65"/>
-      <c r="K166" s="65" t="s">
+      <c r="E160" s="151"/>
+      <c r="F160" s="151"/>
+      <c r="G160" s="151"/>
+      <c r="H160" s="151"/>
+      <c r="I160" s="151"/>
+      <c r="J160" s="151"/>
+      <c r="K160" s="151"/>
+      <c r="L160" s="64"/>
+    </row>
+    <row r="161" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B161" s="152"/>
+      <c r="C161" s="152"/>
+      <c r="D161" s="152"/>
+      <c r="E161" s="152"/>
+      <c r="F161" s="152"/>
+      <c r="G161" s="152"/>
+      <c r="H161" s="152"/>
+      <c r="I161" s="152"/>
+      <c r="J161" s="152"/>
+      <c r="K161" s="152"/>
+      <c r="L161" s="64"/>
+    </row>
+    <row r="162" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B162" s="152"/>
+      <c r="C162" s="152"/>
+      <c r="D162" s="152"/>
+      <c r="E162" s="152"/>
+      <c r="F162" s="152"/>
+      <c r="G162" s="152"/>
+      <c r="H162" s="152"/>
+      <c r="I162" s="152"/>
+      <c r="J162" s="152"/>
+      <c r="K162" s="152"/>
+      <c r="L162" s="62"/>
+    </row>
+    <row r="163" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B163" s="153"/>
+      <c r="C163" s="153"/>
+      <c r="D163" s="153"/>
+      <c r="E163" s="153"/>
+      <c r="F163" s="153"/>
+      <c r="G163" s="153"/>
+      <c r="H163" s="153"/>
+      <c r="I163" s="153"/>
+      <c r="J163" s="153"/>
+      <c r="K163" s="153"/>
+      <c r="L163" s="64"/>
+    </row>
+    <row r="164" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B164" s="67"/>
+      <c r="C164" s="67"/>
+      <c r="D164" s="67"/>
+      <c r="E164" s="68"/>
+      <c r="F164" s="68"/>
+      <c r="G164" s="68"/>
+      <c r="H164" s="68"/>
+      <c r="I164" s="68"/>
+      <c r="J164" s="68"/>
+      <c r="K164" s="68"/>
+      <c r="L164" s="68"/>
+    </row>
+    <row r="165" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B165" s="63"/>
+      <c r="C165" s="63"/>
+      <c r="D165" s="63"/>
+      <c r="E165" s="64"/>
+      <c r="F165" s="64"/>
+      <c r="G165" s="64"/>
+      <c r="H165" s="64"/>
+      <c r="I165" s="64"/>
+      <c r="J165" s="64"/>
+      <c r="K165" s="64"/>
+      <c r="L165" s="64"/>
+    </row>
+    <row r="166" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B166" s="63"/>
+      <c r="C166" s="64"/>
+      <c r="D166" s="64"/>
+      <c r="E166" s="66"/>
+      <c r="F166" s="64"/>
+      <c r="G166" s="64"/>
+      <c r="H166" s="64"/>
+      <c r="I166" s="64"/>
+      <c r="J166" s="64"/>
+      <c r="K166" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="L166" s="65"/>
-    </row>
-    <row r="167" spans="2:12" s="58" customFormat="1" ht="14.25">
-      <c r="B167" s="64"/>
-      <c r="C167" s="65"/>
-      <c r="D167" s="65"/>
-      <c r="E167" s="70"/>
-      <c r="F167" s="65"/>
-      <c r="G167" s="65"/>
-      <c r="H167" s="65"/>
-      <c r="I167" s="65"/>
-      <c r="J167" s="65"/>
-      <c r="K167" s="65"/>
-      <c r="L167" s="65"/>
-    </row>
-    <row r="168" spans="2:12" s="58" customFormat="1" ht="14.25">
-      <c r="B168" s="64"/>
-      <c r="C168" s="65"/>
-      <c r="D168" s="65"/>
-      <c r="E168" s="70"/>
-      <c r="F168" s="65"/>
-      <c r="G168" s="65"/>
-      <c r="H168" s="65"/>
-      <c r="I168" s="65"/>
-      <c r="J168" s="65"/>
-      <c r="K168" s="65"/>
-      <c r="L168" s="65"/>
-    </row>
-    <row r="169" spans="2:12" s="58" customFormat="1" ht="14.25">
-      <c r="B169" s="64"/>
-      <c r="C169" s="65"/>
-      <c r="D169" s="65"/>
-      <c r="E169" s="65"/>
-      <c r="F169" s="65"/>
-      <c r="G169" s="65"/>
-      <c r="H169" s="65"/>
-      <c r="I169" s="65"/>
-      <c r="J169" s="65"/>
-      <c r="K169" s="65"/>
-      <c r="L169" s="65"/>
-    </row>
-    <row r="170" spans="2:12" s="58" customFormat="1" ht="14.25">
-      <c r="B170" s="64"/>
-      <c r="C170" s="65"/>
-      <c r="D170" s="65"/>
-      <c r="E170" s="63"/>
-      <c r="F170" s="63"/>
-      <c r="G170" s="63"/>
-      <c r="H170" s="63"/>
-      <c r="I170" s="63"/>
-      <c r="J170" s="63"/>
-      <c r="K170" s="63"/>
-      <c r="L170" s="63"/>
-    </row>
-    <row r="171" spans="2:12" s="58" customFormat="1" ht="14.25">
-      <c r="B171" s="64"/>
-      <c r="C171" s="65"/>
-      <c r="D171" s="65"/>
-      <c r="E171" s="65"/>
-      <c r="F171" s="65"/>
-      <c r="G171" s="65"/>
-      <c r="H171" s="65"/>
-      <c r="I171" s="65"/>
-      <c r="J171" s="65"/>
-      <c r="K171" s="65"/>
-      <c r="L171" s="65"/>
-    </row>
-    <row r="172" spans="2:12" s="58" customFormat="1">
-      <c r="B172" s="68"/>
-      <c r="C172" s="68"/>
-      <c r="D172" s="68"/>
-      <c r="E172" s="69"/>
-      <c r="F172" s="69"/>
-      <c r="G172" s="69"/>
-      <c r="H172" s="69"/>
-      <c r="I172" s="69"/>
-      <c r="J172" s="69"/>
-      <c r="K172" s="69"/>
-      <c r="L172" s="69"/>
-    </row>
-    <row r="173" spans="2:12" s="58" customFormat="1" ht="14.25">
-      <c r="B173" s="64"/>
-      <c r="C173" s="64"/>
-      <c r="D173" s="64"/>
-      <c r="E173" s="65"/>
-      <c r="F173" s="65"/>
-      <c r="G173" s="65"/>
-      <c r="H173" s="65"/>
-      <c r="I173" s="65"/>
-      <c r="J173" s="65"/>
-      <c r="K173" s="65"/>
-      <c r="L173" s="65"/>
-    </row>
-    <row r="174" spans="2:12" s="58" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B174" s="64"/>
-      <c r="C174" s="65"/>
-      <c r="D174" s="65"/>
-      <c r="E174" s="67"/>
-      <c r="F174" s="65"/>
-      <c r="G174" s="65"/>
-      <c r="H174" s="65"/>
-      <c r="I174" s="65"/>
-      <c r="J174" s="65"/>
-      <c r="K174" s="65"/>
-      <c r="L174" s="65"/>
-    </row>
-    <row r="175" spans="2:12" s="58" customFormat="1" ht="14.25">
-      <c r="B175" s="64"/>
-      <c r="C175" s="65"/>
-      <c r="D175" s="65"/>
-      <c r="E175" s="70"/>
-      <c r="F175" s="65"/>
-      <c r="G175" s="65"/>
-      <c r="H175" s="65"/>
-      <c r="I175" s="65"/>
-      <c r="J175" s="65"/>
-      <c r="K175" s="65"/>
-      <c r="L175" s="65"/>
-    </row>
-    <row r="176" spans="2:12" s="58" customFormat="1" ht="14.25">
-      <c r="B176" s="64"/>
-      <c r="C176" s="65"/>
-      <c r="D176" s="65"/>
-      <c r="E176" s="70"/>
-      <c r="F176" s="65"/>
-      <c r="G176" s="65"/>
-      <c r="H176" s="65"/>
-      <c r="I176" s="65"/>
-      <c r="J176" s="65"/>
-      <c r="K176" s="65"/>
-      <c r="L176" s="65"/>
-    </row>
-    <row r="177" spans="2:12" s="58" customFormat="1" ht="14.25">
-      <c r="B177" s="64"/>
-      <c r="C177" s="65"/>
-      <c r="D177" s="65"/>
-      <c r="E177" s="65"/>
-      <c r="F177" s="65"/>
-      <c r="G177" s="65"/>
-      <c r="H177" s="65"/>
-      <c r="I177" s="65"/>
-      <c r="J177" s="65"/>
-      <c r="K177" s="65"/>
-      <c r="L177" s="65"/>
-    </row>
-    <row r="178" spans="2:12" s="58" customFormat="1" ht="14.25">
-      <c r="B178" s="64"/>
-      <c r="C178" s="65"/>
-      <c r="D178" s="65"/>
-      <c r="E178" s="63"/>
-      <c r="F178" s="63"/>
-      <c r="G178" s="63"/>
-      <c r="H178" s="63"/>
-      <c r="I178" s="63"/>
-      <c r="J178" s="63"/>
-      <c r="K178" s="63"/>
-      <c r="L178" s="63"/>
-    </row>
-    <row r="179" spans="2:12" s="58" customFormat="1" ht="14.25">
-      <c r="B179" s="64"/>
-      <c r="C179" s="65"/>
-      <c r="D179" s="65"/>
-      <c r="E179" s="65"/>
-      <c r="F179" s="65"/>
-      <c r="G179" s="65"/>
-      <c r="H179" s="65"/>
-      <c r="I179" s="65"/>
-      <c r="J179" s="65"/>
-      <c r="K179" s="65"/>
-      <c r="L179" s="65"/>
-    </row>
-    <row r="180" spans="2:12" s="58" customFormat="1">
-      <c r="B180" s="71"/>
-      <c r="C180" s="71"/>
-      <c r="D180" s="71"/>
-      <c r="E180" s="71"/>
-      <c r="F180" s="71"/>
-      <c r="G180" s="71"/>
-      <c r="H180" s="71"/>
-      <c r="I180" s="71"/>
-      <c r="J180" s="71"/>
-      <c r="K180" s="71"/>
-      <c r="L180" s="71"/>
-    </row>
-    <row r="181" spans="2:12" s="58" customFormat="1" ht="14.25">
-      <c r="L181" s="72"/>
+      <c r="L166" s="64"/>
+    </row>
+    <row r="167" spans="2:12" s="57" customFormat="1" ht="14.25">
+      <c r="B167" s="63"/>
+      <c r="C167" s="64"/>
+      <c r="D167" s="64"/>
+      <c r="E167" s="69"/>
+      <c r="F167" s="64"/>
+      <c r="G167" s="64"/>
+      <c r="H167" s="64"/>
+      <c r="I167" s="64"/>
+      <c r="J167" s="64"/>
+      <c r="K167" s="64"/>
+      <c r="L167" s="64"/>
+    </row>
+    <row r="168" spans="2:12" s="57" customFormat="1" ht="14.25">
+      <c r="B168" s="63"/>
+      <c r="C168" s="64"/>
+      <c r="D168" s="64"/>
+      <c r="E168" s="69"/>
+      <c r="F168" s="64"/>
+      <c r="G168" s="64"/>
+      <c r="H168" s="64"/>
+      <c r="I168" s="64"/>
+      <c r="J168" s="64"/>
+      <c r="K168" s="64"/>
+      <c r="L168" s="64"/>
+    </row>
+    <row r="169" spans="2:12" s="57" customFormat="1" ht="14.25">
+      <c r="B169" s="63"/>
+      <c r="C169" s="64"/>
+      <c r="D169" s="64"/>
+      <c r="E169" s="64"/>
+      <c r="F169" s="64"/>
+      <c r="G169" s="64"/>
+      <c r="H169" s="64"/>
+      <c r="I169" s="64"/>
+      <c r="J169" s="64"/>
+      <c r="K169" s="64"/>
+      <c r="L169" s="64"/>
+    </row>
+    <row r="170" spans="2:12" s="57" customFormat="1" ht="14.25">
+      <c r="B170" s="63"/>
+      <c r="C170" s="64"/>
+      <c r="D170" s="64"/>
+      <c r="E170" s="62"/>
+      <c r="F170" s="62"/>
+      <c r="G170" s="62"/>
+      <c r="H170" s="62"/>
+      <c r="I170" s="62"/>
+      <c r="J170" s="62"/>
+      <c r="K170" s="62"/>
+      <c r="L170" s="62"/>
+    </row>
+    <row r="171" spans="2:12" s="57" customFormat="1" ht="14.25">
+      <c r="B171" s="63"/>
+      <c r="C171" s="64"/>
+      <c r="D171" s="64"/>
+      <c r="E171" s="64"/>
+      <c r="F171" s="64"/>
+      <c r="G171" s="64"/>
+      <c r="H171" s="64"/>
+      <c r="I171" s="64"/>
+      <c r="J171" s="64"/>
+      <c r="K171" s="64"/>
+      <c r="L171" s="64"/>
+    </row>
+    <row r="172" spans="2:12" s="57" customFormat="1">
+      <c r="B172" s="67"/>
+      <c r="C172" s="67"/>
+      <c r="D172" s="67"/>
+      <c r="E172" s="68"/>
+      <c r="F172" s="68"/>
+      <c r="G172" s="68"/>
+      <c r="H172" s="68"/>
+      <c r="I172" s="68"/>
+      <c r="J172" s="68"/>
+      <c r="K172" s="68"/>
+      <c r="L172" s="68"/>
+    </row>
+    <row r="173" spans="2:12" s="57" customFormat="1" ht="14.25">
+      <c r="B173" s="63"/>
+      <c r="C173" s="63"/>
+      <c r="D173" s="63"/>
+      <c r="E173" s="64"/>
+      <c r="F173" s="64"/>
+      <c r="G173" s="64"/>
+      <c r="H173" s="64"/>
+      <c r="I173" s="64"/>
+      <c r="J173" s="64"/>
+      <c r="K173" s="64"/>
+      <c r="L173" s="64"/>
+    </row>
+    <row r="174" spans="2:12" s="57" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B174" s="63"/>
+      <c r="C174" s="64"/>
+      <c r="D174" s="64"/>
+      <c r="E174" s="66"/>
+      <c r="F174" s="64"/>
+      <c r="G174" s="64"/>
+      <c r="H174" s="64"/>
+      <c r="I174" s="64"/>
+      <c r="J174" s="64"/>
+      <c r="K174" s="64"/>
+      <c r="L174" s="64"/>
+    </row>
+    <row r="175" spans="2:12" s="57" customFormat="1" ht="14.25">
+      <c r="B175" s="63"/>
+      <c r="C175" s="64"/>
+      <c r="D175" s="64"/>
+      <c r="E175" s="69"/>
+      <c r="F175" s="64"/>
+      <c r="G175" s="64"/>
+      <c r="H175" s="64"/>
+      <c r="I175" s="64"/>
+      <c r="J175" s="64"/>
+      <c r="K175" s="64"/>
+      <c r="L175" s="64"/>
+    </row>
+    <row r="176" spans="2:12" s="57" customFormat="1" ht="14.25">
+      <c r="B176" s="63"/>
+      <c r="C176" s="64"/>
+      <c r="D176" s="64"/>
+      <c r="E176" s="69"/>
+      <c r="F176" s="64"/>
+      <c r="G176" s="64"/>
+      <c r="H176" s="64"/>
+      <c r="I176" s="64"/>
+      <c r="J176" s="64"/>
+      <c r="K176" s="64"/>
+      <c r="L176" s="64"/>
+    </row>
+    <row r="177" spans="2:12" s="57" customFormat="1" ht="14.25">
+      <c r="B177" s="63"/>
+      <c r="C177" s="64"/>
+      <c r="D177" s="64"/>
+      <c r="E177" s="64"/>
+      <c r="F177" s="64"/>
+      <c r="G177" s="64"/>
+      <c r="H177" s="64"/>
+      <c r="I177" s="64"/>
+      <c r="J177" s="64"/>
+      <c r="K177" s="64"/>
+      <c r="L177" s="64"/>
+    </row>
+    <row r="178" spans="2:12" s="57" customFormat="1" ht="14.25">
+      <c r="B178" s="63"/>
+      <c r="C178" s="64"/>
+      <c r="D178" s="64"/>
+      <c r="E178" s="62"/>
+      <c r="F178" s="62"/>
+      <c r="G178" s="62"/>
+      <c r="H178" s="62"/>
+      <c r="I178" s="62"/>
+      <c r="J178" s="62"/>
+      <c r="K178" s="62"/>
+      <c r="L178" s="62"/>
+    </row>
+    <row r="179" spans="2:12" s="57" customFormat="1" ht="14.25">
+      <c r="B179" s="63"/>
+      <c r="C179" s="64"/>
+      <c r="D179" s="64"/>
+      <c r="E179" s="64"/>
+      <c r="F179" s="64"/>
+      <c r="G179" s="64"/>
+      <c r="H179" s="64"/>
+      <c r="I179" s="64"/>
+      <c r="J179" s="64"/>
+      <c r="K179" s="64"/>
+      <c r="L179" s="64"/>
+    </row>
+    <row r="180" spans="2:12" s="57" customFormat="1">
+      <c r="B180" s="70"/>
+      <c r="C180" s="70"/>
+      <c r="D180" s="70"/>
+      <c r="E180" s="70"/>
+      <c r="F180" s="70"/>
+      <c r="G180" s="70"/>
+      <c r="H180" s="70"/>
+      <c r="I180" s="70"/>
+      <c r="J180" s="70"/>
+      <c r="K180" s="70"/>
+      <c r="L180" s="70"/>
+    </row>
+    <row r="181" spans="2:12" s="57" customFormat="1" ht="14.25">
+      <c r="L181" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="61">

--- a/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="199">
   <si>
     <t>委託元（和文）</t>
     <rPh sb="4" eb="6">
@@ -1497,30 +1497,6 @@
   </si>
   <si>
     <t>${ba1[3].claimamount}</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${cv.contractnumber}-1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${cv.contractnumber}-2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${cv.contractnumber}-3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${cv.contractnumber}-4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${cv.contractnumber}-3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>${cv.contractnumber}-4</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2205,6 +2181,42 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2310,51 +2322,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2364,61 +2397,61 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2429,63 +2462,6 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2800,7 +2776,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B38" sqref="B38:F43"/>
     </sheetView>
   </sheetViews>
@@ -2818,14 +2794,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="G1" s="115" t="s">
+      <c r="B1" s="81"/>
+      <c r="G1" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="116"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="36" t="s">
@@ -2838,8 +2814,8 @@
         <v>15</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="118"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="37" t="s">
@@ -2849,8 +2825,8 @@
       <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="36" t="s">
@@ -2862,8 +2838,8 @@
       <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="117"/>
-      <c r="H4" s="118"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="36" t="s">
@@ -2873,8 +2849,8 @@
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="117"/>
-      <c r="H5" s="118"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="38" t="s">
@@ -2886,8 +2862,8 @@
       <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="117"/>
-      <c r="H6" s="118"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="85"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="38" t="s">
@@ -2899,8 +2875,8 @@
       <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="117"/>
-      <c r="H7" s="118"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="36" t="s">
@@ -2910,8 +2886,8 @@
       <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="117"/>
-      <c r="H8" s="118"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="85"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="37" t="s">
@@ -2923,8 +2899,8 @@
       <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="118"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="85"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="36" t="s">
@@ -2936,8 +2912,8 @@
       <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="85"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="36" t="s">
@@ -2949,8 +2925,8 @@
       <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="36" t="s">
@@ -2962,8 +2938,8 @@
       <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="36" t="s">
@@ -2973,8 +2949,8 @@
       <c r="C13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="85"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="36" t="s">
@@ -2986,8 +2962,8 @@
       <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="36" t="s">
@@ -2999,8 +2975,8 @@
       <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="85"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="36" t="s">
@@ -3010,8 +2986,8 @@
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="85"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="36" t="s">
@@ -3021,8 +2997,8 @@
       <c r="C17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="85"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="36" t="s">
@@ -3032,8 +3008,8 @@
       <c r="C18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="85"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="36" t="s">
@@ -3045,8 +3021,8 @@
       <c r="C19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="85"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="36" t="s">
@@ -3058,8 +3034,8 @@
       <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="85"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="36" t="s">
@@ -3069,8 +3045,8 @@
       <c r="C21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="85"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="36" t="s">
@@ -3080,8 +3056,8 @@
       <c r="C22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="85"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="37" t="s">
@@ -3091,8 +3067,8 @@
       <c r="C23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="85"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A24" s="37" t="s">
@@ -3102,8 +3078,8 @@
       <c r="C24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="85"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A25" s="37" t="s">
@@ -3115,8 +3091,8 @@
       <c r="C25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="117"/>
-      <c r="H25" s="118"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="85"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="37" t="s">
@@ -3128,14 +3104,14 @@
       <c r="C26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="117"/>
-      <c r="H26" s="118"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="85"/>
     </row>
     <row r="27" spans="1:8" ht="1.5" hidden="1" customHeight="1">
       <c r="A27" s="39"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="118"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="85"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="40" t="s">
@@ -3156,8 +3132,8 @@
       <c r="F28" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="85"/>
     </row>
     <row r="29" spans="1:8" ht="13.5">
       <c r="A29" s="76" t="str">
@@ -3179,8 +3155,8 @@
       <c r="F29" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="G29" s="119"/>
-      <c r="H29" s="118"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="85"/>
     </row>
     <row r="30" spans="1:8" ht="13.5">
       <c r="A30" s="76" t="str">
@@ -3266,14 +3242,14 @@
       <c r="B35" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="120" t="s">
+      <c r="C35" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="121"/>
-      <c r="E35" s="122" t="s">
+      <c r="D35" s="88"/>
+      <c r="E35" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="F35" s="123"/>
+      <c r="F35" s="90"/>
     </row>
     <row r="36" spans="1:6" ht="13.5">
       <c r="A36" s="13" t="s">
@@ -3282,14 +3258,14 @@
       <c r="B36" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="120" t="s">
+      <c r="C36" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="121"/>
-      <c r="E36" s="122" t="s">
+      <c r="D36" s="88"/>
+      <c r="E36" s="89" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="123"/>
+      <c r="F36" s="90"/>
     </row>
     <row r="37" spans="1:6" ht="13.5">
       <c r="A37" s="56" t="s">
@@ -3302,265 +3278,259 @@
       <c r="D37" s="43"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A38" s="83" t="s">
+      <c r="A38" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="88" t="s">
+      <c r="B38" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="90"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="102"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="84"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="93"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="105"/>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A40" s="84"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="93"/>
+      <c r="A40" s="96"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="105"/>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A41" s="84"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="93"/>
+      <c r="A41" s="96"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="105"/>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A42" s="84"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="93"/>
+      <c r="A42" s="96"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="105"/>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A43" s="85"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="96"/>
+      <c r="A43" s="97"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="108"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="111" t="s">
+      <c r="A44" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="109" t="s">
+      <c r="B44" s="121" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
-      <c r="F44" s="110"/>
+      <c r="C44" s="122"/>
+      <c r="D44" s="122"/>
+      <c r="E44" s="122"/>
+      <c r="F44" s="122"/>
     </row>
     <row r="45" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A45" s="111"/>
-      <c r="B45" s="110"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
-      <c r="F45" s="110"/>
+      <c r="A45" s="123"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="122"/>
+      <c r="D45" s="122"/>
+      <c r="E45" s="122"/>
+      <c r="F45" s="122"/>
     </row>
     <row r="46" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A46" s="111"/>
-      <c r="B46" s="110"/>
-      <c r="C46" s="110"/>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110"/>
+      <c r="A46" s="123"/>
+      <c r="B46" s="122"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A47" s="111"/>
-      <c r="B47" s="110"/>
-      <c r="C47" s="110"/>
-      <c r="D47" s="110"/>
-      <c r="E47" s="110"/>
-      <c r="F47" s="110"/>
+      <c r="A47" s="123"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="122"/>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A48" s="111"/>
-      <c r="B48" s="110"/>
-      <c r="C48" s="110"/>
-      <c r="D48" s="110"/>
-      <c r="E48" s="110"/>
-      <c r="F48" s="110"/>
+      <c r="A48" s="123"/>
+      <c r="B48" s="122"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A49" s="111"/>
-      <c r="B49" s="110"/>
-      <c r="C49" s="110"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
+      <c r="A49" s="123"/>
+      <c r="B49" s="122"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="122"/>
+      <c r="E49" s="122"/>
+      <c r="F49" s="122"/>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A50" s="83" t="s">
+      <c r="A50" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="106" t="s">
+      <c r="B50" s="118" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="107"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="108"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="120"/>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A51" s="86"/>
-      <c r="B51" s="97" t="s">
+      <c r="A51" s="98"/>
+      <c r="B51" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
-      <c r="F51" s="99"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="111"/>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A52" s="86"/>
-      <c r="B52" s="100"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="102"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="112"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="114"/>
     </row>
     <row r="53" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A53" s="86"/>
-      <c r="B53" s="100"/>
-      <c r="C53" s="101"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="102"/>
+      <c r="A53" s="98"/>
+      <c r="B53" s="112"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="114"/>
     </row>
     <row r="54" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A54" s="87"/>
-      <c r="B54" s="103"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="104"/>
-      <c r="F54" s="105"/>
+      <c r="A54" s="99"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="116"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="117"/>
     </row>
     <row r="55" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A55" s="112" t="s">
+      <c r="A55" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="106" t="s">
+      <c r="B55" s="118" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="107"/>
-      <c r="D55" s="107"/>
-      <c r="E55" s="107"/>
-      <c r="F55" s="108"/>
+      <c r="C55" s="119"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="119"/>
+      <c r="F55" s="120"/>
     </row>
     <row r="56" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A56" s="112"/>
-      <c r="B56" s="113" t="s">
+      <c r="A56" s="124"/>
+      <c r="B56" s="125" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="82"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="82"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
+      <c r="F56" s="94"/>
     </row>
     <row r="57" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A57" s="112"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="82"/>
+      <c r="A57" s="124"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="94"/>
+      <c r="E57" s="94"/>
+      <c r="F57" s="94"/>
     </row>
     <row r="58" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A58" s="112"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="82"/>
-      <c r="D58" s="82"/>
-      <c r="E58" s="82"/>
-      <c r="F58" s="82"/>
+      <c r="A58" s="124"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="112"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
+      <c r="A59" s="124"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="94"/>
+      <c r="E59" s="94"/>
+      <c r="F59" s="94"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="79" t="s">
+      <c r="A60" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="81" t="s">
+      <c r="B60" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="82"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="82"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="94"/>
+      <c r="E60" s="94"/>
+      <c r="F60" s="94"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="79"/>
-      <c r="B61" s="82"/>
-      <c r="C61" s="82"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="82"/>
+      <c r="A61" s="91"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="94"/>
+      <c r="F61" s="94"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="79"/>
-      <c r="B62" s="82"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="82"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
+      <c r="A62" s="91"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="94"/>
+      <c r="E62" s="94"/>
+      <c r="F62" s="94"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="79" t="s">
+      <c r="A63" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="B63" s="81" t="s">
+      <c r="B63" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="82"/>
-      <c r="D63" s="82"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="82"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="94"/>
+      <c r="E63" s="94"/>
+      <c r="F63" s="94"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="80"/>
-      <c r="B64" s="82"/>
-      <c r="C64" s="82"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
+      <c r="A64" s="92"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="94"/>
+      <c r="E64" s="94"/>
+      <c r="F64" s="94"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="80"/>
-      <c r="B65" s="82"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
+      <c r="A65" s="92"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="94"/>
+      <c r="E65" s="94"/>
+      <c r="F65" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G1:H29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="B60:F62"/>
@@ -3575,6 +3545,12 @@
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="B55:F55"/>
     <mergeCell ref="B56:F59"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:H29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="2">
@@ -3596,8 +3572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L190"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A142" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H153" sqref="H153:I153"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A136" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156:K156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3613,18 +3589,18 @@
       <c r="J2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="139" t="str">
+      <c r="K2" s="126" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="139"/>
+      <c r="L2" s="126"/>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="F3" s="144" t="s">
+      <c r="F3" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="17" t="s">
@@ -3684,11 +3660,11 @@
         <v>67</v>
       </c>
       <c r="C8" s="44"/>
-      <c r="D8" s="148" t="str">
+      <c r="D8" s="131" t="str">
         <f>記入!B37</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E8" s="148"/>
+      <c r="E8" s="131"/>
       <c r="F8" s="45" t="s">
         <v>62</v>
       </c>
@@ -3728,617 +3704,617 @@
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="145"/>
-      <c r="C12" s="145"/>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="145"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="128"/>
+      <c r="L12" s="128"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="145"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="128"/>
+      <c r="L13" s="128"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="128"/>
+      <c r="L14" s="128"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="145"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="128"/>
+      <c r="L15" s="128"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="145"/>
-      <c r="C16" s="145"/>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="145"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="128"/>
+      <c r="L16" s="128"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="145"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="145"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="145"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="128"/>
+      <c r="L18" s="128"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="145"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="128"/>
+      <c r="L19" s="128"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="145"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="145"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="145"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="128"/>
+      <c r="L20" s="128"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="145"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="145"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="128"/>
+      <c r="L21" s="128"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="145"/>
-      <c r="C22" s="145"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="145"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="128"/>
+      <c r="L22" s="128"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="145"/>
-      <c r="C23" s="145"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="145"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="128"/>
+      <c r="L23" s="128"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="145"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="145"/>
-      <c r="L24" s="145"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="128"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="145"/>
-      <c r="C25" s="145"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="145"/>
-      <c r="L25" s="145"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="128"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="145"/>
-      <c r="C26" s="145"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="145"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="128"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="145"/>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="145"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="128"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="145"/>
-      <c r="C28" s="145"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="128"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="145"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="145"/>
-      <c r="L29" s="145"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="128"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="128"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="145"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="145"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="128"/>
+      <c r="L30" s="128"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="145"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="145"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="128"/>
+      <c r="L31" s="128"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="145"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="145"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="128"/>
+      <c r="L32" s="128"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="145"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="145"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="128"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="145"/>
-      <c r="C34" s="145"/>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="145"/>
-      <c r="K34" s="145"/>
-      <c r="L34" s="145"/>
+      <c r="B34" s="128"/>
+      <c r="C34" s="128"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="128"/>
+      <c r="L34" s="128"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="145"/>
-      <c r="C35" s="145"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="145"/>
-      <c r="L35" s="145"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="128"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="145"/>
-      <c r="C36" s="145"/>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="145"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="145"/>
-      <c r="L36" s="145"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="128"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="145"/>
-      <c r="C37" s="145"/>
-      <c r="D37" s="145"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="145"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="145"/>
-      <c r="K37" s="145"/>
-      <c r="L37" s="145"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="128"/>
+      <c r="D37" s="128"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="128"/>
+      <c r="L37" s="128"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="145"/>
-      <c r="C38" s="145"/>
-      <c r="D38" s="145"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="145"/>
-      <c r="K38" s="145"/>
-      <c r="L38" s="145"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="128"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="128"/>
+      <c r="K38" s="128"/>
+      <c r="L38" s="128"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="145"/>
-      <c r="C39" s="145"/>
-      <c r="D39" s="145"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="145"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="145"/>
-      <c r="K39" s="145"/>
-      <c r="L39" s="145"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="128"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="128"/>
+      <c r="K39" s="128"/>
+      <c r="L39" s="128"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="145"/>
-      <c r="C40" s="145"/>
-      <c r="D40" s="145"/>
-      <c r="E40" s="145"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="145"/>
-      <c r="H40" s="145"/>
-      <c r="I40" s="145"/>
-      <c r="J40" s="145"/>
-      <c r="K40" s="145"/>
-      <c r="L40" s="145"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="128"/>
+      <c r="K40" s="128"/>
+      <c r="L40" s="128"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="145"/>
-      <c r="C41" s="145"/>
-      <c r="D41" s="145"/>
-      <c r="E41" s="145"/>
-      <c r="F41" s="145"/>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="145"/>
-      <c r="K41" s="145"/>
-      <c r="L41" s="145"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="128"/>
+      <c r="D41" s="128"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="128"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="145"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="145"/>
-      <c r="E42" s="145"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="145"/>
-      <c r="K42" s="145"/>
-      <c r="L42" s="145"/>
+      <c r="B42" s="128"/>
+      <c r="C42" s="128"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="128"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="145"/>
-      <c r="C43" s="145"/>
-      <c r="D43" s="145"/>
-      <c r="E43" s="145"/>
-      <c r="F43" s="145"/>
-      <c r="G43" s="145"/>
-      <c r="H43" s="145"/>
-      <c r="I43" s="145"/>
-      <c r="J43" s="145"/>
-      <c r="K43" s="145"/>
-      <c r="L43" s="145"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="128"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="145"/>
-      <c r="C44" s="145"/>
-      <c r="D44" s="145"/>
-      <c r="E44" s="145"/>
-      <c r="F44" s="145"/>
-      <c r="G44" s="145"/>
-      <c r="H44" s="145"/>
-      <c r="I44" s="145"/>
-      <c r="J44" s="145"/>
-      <c r="K44" s="145"/>
-      <c r="L44" s="145"/>
+      <c r="B44" s="128"/>
+      <c r="C44" s="128"/>
+      <c r="D44" s="128"/>
+      <c r="E44" s="128"/>
+      <c r="F44" s="128"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
+      <c r="J44" s="128"/>
+      <c r="K44" s="128"/>
+      <c r="L44" s="128"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="145"/>
-      <c r="C45" s="145"/>
-      <c r="D45" s="145"/>
-      <c r="E45" s="145"/>
-      <c r="F45" s="145"/>
-      <c r="G45" s="145"/>
-      <c r="H45" s="145"/>
-      <c r="I45" s="145"/>
-      <c r="J45" s="145"/>
-      <c r="K45" s="145"/>
-      <c r="L45" s="145"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="128"/>
+      <c r="I45" s="128"/>
+      <c r="J45" s="128"/>
+      <c r="K45" s="128"/>
+      <c r="L45" s="128"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="145"/>
-      <c r="C46" s="145"/>
-      <c r="D46" s="145"/>
-      <c r="E46" s="145"/>
-      <c r="F46" s="145"/>
-      <c r="G46" s="145"/>
-      <c r="H46" s="145"/>
-      <c r="I46" s="145"/>
-      <c r="J46" s="145"/>
-      <c r="K46" s="145"/>
-      <c r="L46" s="145"/>
+      <c r="B46" s="128"/>
+      <c r="C46" s="128"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="128"/>
+      <c r="F46" s="128"/>
+      <c r="G46" s="128"/>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="128"/>
+      <c r="L46" s="128"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="145"/>
-      <c r="C47" s="145"/>
-      <c r="D47" s="145"/>
-      <c r="E47" s="145"/>
-      <c r="F47" s="145"/>
-      <c r="G47" s="145"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145"/>
-      <c r="J47" s="145"/>
-      <c r="K47" s="145"/>
-      <c r="L47" s="145"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="128"/>
+      <c r="F47" s="128"/>
+      <c r="G47" s="128"/>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
+      <c r="J47" s="128"/>
+      <c r="K47" s="128"/>
+      <c r="L47" s="128"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="145"/>
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
-      <c r="E48" s="145"/>
-      <c r="F48" s="145"/>
-      <c r="G48" s="145"/>
-      <c r="H48" s="145"/>
-      <c r="I48" s="145"/>
-      <c r="J48" s="145"/>
-      <c r="K48" s="145"/>
-      <c r="L48" s="145"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="128"/>
+      <c r="D48" s="128"/>
+      <c r="E48" s="128"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="128"/>
+      <c r="H48" s="128"/>
+      <c r="I48" s="128"/>
+      <c r="J48" s="128"/>
+      <c r="K48" s="128"/>
+      <c r="L48" s="128"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="145"/>
-      <c r="C49" s="145"/>
-      <c r="D49" s="145"/>
-      <c r="E49" s="145"/>
-      <c r="F49" s="145"/>
-      <c r="G49" s="145"/>
-      <c r="H49" s="145"/>
-      <c r="I49" s="145"/>
-      <c r="J49" s="145"/>
-      <c r="K49" s="145"/>
-      <c r="L49" s="145"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="128"/>
+      <c r="I49" s="128"/>
+      <c r="J49" s="128"/>
+      <c r="K49" s="128"/>
+      <c r="L49" s="128"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="145"/>
-      <c r="C50" s="145"/>
-      <c r="D50" s="145"/>
-      <c r="E50" s="145"/>
-      <c r="F50" s="145"/>
-      <c r="G50" s="145"/>
-      <c r="H50" s="145"/>
-      <c r="I50" s="145"/>
-      <c r="J50" s="145"/>
-      <c r="K50" s="145"/>
-      <c r="L50" s="145"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="128"/>
+      <c r="L50" s="128"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="145"/>
-      <c r="C51" s="145"/>
-      <c r="D51" s="145"/>
-      <c r="E51" s="145"/>
-      <c r="F51" s="145"/>
-      <c r="G51" s="145"/>
-      <c r="H51" s="145"/>
-      <c r="I51" s="145"/>
-      <c r="J51" s="145"/>
-      <c r="K51" s="145"/>
-      <c r="L51" s="145"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="128"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="128"/>
+      <c r="F51" s="128"/>
+      <c r="G51" s="128"/>
+      <c r="H51" s="128"/>
+      <c r="I51" s="128"/>
+      <c r="J51" s="128"/>
+      <c r="K51" s="128"/>
+      <c r="L51" s="128"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="145"/>
-      <c r="C52" s="145"/>
-      <c r="D52" s="145"/>
-      <c r="E52" s="145"/>
-      <c r="F52" s="145"/>
-      <c r="G52" s="145"/>
-      <c r="H52" s="145"/>
-      <c r="I52" s="145"/>
-      <c r="J52" s="145"/>
-      <c r="K52" s="145"/>
-      <c r="L52" s="145"/>
+      <c r="B52" s="128"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="128"/>
+      <c r="H52" s="128"/>
+      <c r="I52" s="128"/>
+      <c r="J52" s="128"/>
+      <c r="K52" s="128"/>
+      <c r="L52" s="128"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="145"/>
-      <c r="C53" s="145"/>
-      <c r="D53" s="145"/>
-      <c r="E53" s="145"/>
-      <c r="F53" s="145"/>
-      <c r="G53" s="145"/>
-      <c r="H53" s="145"/>
-      <c r="I53" s="145"/>
-      <c r="J53" s="145"/>
-      <c r="K53" s="145"/>
-      <c r="L53" s="145"/>
+      <c r="B53" s="128"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="128"/>
+      <c r="H53" s="128"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="128"/>
+      <c r="L53" s="128"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="145"/>
-      <c r="C54" s="145"/>
-      <c r="D54" s="145"/>
-      <c r="E54" s="145"/>
-      <c r="F54" s="145"/>
-      <c r="G54" s="145"/>
-      <c r="H54" s="145"/>
-      <c r="I54" s="145"/>
-      <c r="J54" s="145"/>
-      <c r="K54" s="145"/>
-      <c r="L54" s="145"/>
+      <c r="B54" s="128"/>
+      <c r="C54" s="128"/>
+      <c r="D54" s="128"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
+      <c r="G54" s="128"/>
+      <c r="H54" s="128"/>
+      <c r="I54" s="128"/>
+      <c r="J54" s="128"/>
+      <c r="K54" s="128"/>
+      <c r="L54" s="128"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="145"/>
-      <c r="C55" s="145"/>
-      <c r="D55" s="145"/>
-      <c r="E55" s="145"/>
-      <c r="F55" s="145"/>
-      <c r="G55" s="145"/>
-      <c r="H55" s="145"/>
-      <c r="I55" s="145"/>
-      <c r="J55" s="145"/>
-      <c r="K55" s="145"/>
-      <c r="L55" s="145"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="128"/>
+      <c r="D55" s="128"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="128"/>
+      <c r="H55" s="128"/>
+      <c r="I55" s="128"/>
+      <c r="J55" s="128"/>
+      <c r="K55" s="128"/>
+      <c r="L55" s="128"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="145"/>
-      <c r="C56" s="145"/>
-      <c r="D56" s="145"/>
-      <c r="E56" s="145"/>
-      <c r="F56" s="145"/>
-      <c r="G56" s="145"/>
-      <c r="H56" s="145"/>
-      <c r="I56" s="145"/>
-      <c r="J56" s="145"/>
-      <c r="K56" s="145"/>
-      <c r="L56" s="145"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
+      <c r="G56" s="128"/>
+      <c r="H56" s="128"/>
+      <c r="I56" s="128"/>
+      <c r="J56" s="128"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="128"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="145"/>
-      <c r="C57" s="145"/>
-      <c r="D57" s="145"/>
-      <c r="E57" s="145"/>
-      <c r="F57" s="145"/>
-      <c r="G57" s="145"/>
-      <c r="H57" s="145"/>
-      <c r="I57" s="145"/>
-      <c r="J57" s="145"/>
-      <c r="K57" s="145"/>
-      <c r="L57" s="145"/>
+      <c r="B57" s="128"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
+      <c r="G57" s="128"/>
+      <c r="H57" s="128"/>
+      <c r="I57" s="128"/>
+      <c r="J57" s="128"/>
+      <c r="K57" s="128"/>
+      <c r="L57" s="128"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
       <c r="B58" s="20"/>
@@ -4357,169 +4333,169 @@
       <c r="J59" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K59" s="139" t="str">
+      <c r="K59" s="126" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L59" s="139"/>
+      <c r="L59" s="126"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="146" t="s">
+      <c r="B60" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="147"/>
-      <c r="D60" s="147"/>
-      <c r="E60" s="147"/>
-      <c r="F60" s="147"/>
-      <c r="G60" s="147"/>
-      <c r="H60" s="147"/>
-      <c r="I60" s="147"/>
-      <c r="J60" s="147"/>
-      <c r="K60" s="147"/>
-      <c r="L60" s="147"/>
+      <c r="C60" s="130"/>
+      <c r="D60" s="130"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="130"/>
+      <c r="G60" s="130"/>
+      <c r="H60" s="130"/>
+      <c r="I60" s="130"/>
+      <c r="J60" s="130"/>
+      <c r="K60" s="130"/>
+      <c r="L60" s="130"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="147"/>
-      <c r="C61" s="147"/>
-      <c r="D61" s="147"/>
-      <c r="E61" s="147"/>
-      <c r="F61" s="147"/>
-      <c r="G61" s="147"/>
-      <c r="H61" s="147"/>
-      <c r="I61" s="147"/>
-      <c r="J61" s="147"/>
-      <c r="K61" s="147"/>
-      <c r="L61" s="147"/>
+      <c r="B61" s="130"/>
+      <c r="C61" s="130"/>
+      <c r="D61" s="130"/>
+      <c r="E61" s="130"/>
+      <c r="F61" s="130"/>
+      <c r="G61" s="130"/>
+      <c r="H61" s="130"/>
+      <c r="I61" s="130"/>
+      <c r="J61" s="130"/>
+      <c r="K61" s="130"/>
+      <c r="L61" s="130"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="147"/>
-      <c r="C62" s="147"/>
-      <c r="D62" s="147"/>
-      <c r="E62" s="147"/>
-      <c r="F62" s="147"/>
-      <c r="G62" s="147"/>
-      <c r="H62" s="147"/>
-      <c r="I62" s="147"/>
-      <c r="J62" s="147"/>
-      <c r="K62" s="147"/>
-      <c r="L62" s="147"/>
+      <c r="B62" s="130"/>
+      <c r="C62" s="130"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="130"/>
+      <c r="J62" s="130"/>
+      <c r="K62" s="130"/>
+      <c r="L62" s="130"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="147"/>
-      <c r="C63" s="147"/>
-      <c r="D63" s="147"/>
-      <c r="E63" s="147"/>
-      <c r="F63" s="147"/>
-      <c r="G63" s="147"/>
-      <c r="H63" s="147"/>
-      <c r="I63" s="147"/>
-      <c r="J63" s="147"/>
-      <c r="K63" s="147"/>
-      <c r="L63" s="147"/>
+      <c r="B63" s="130"/>
+      <c r="C63" s="130"/>
+      <c r="D63" s="130"/>
+      <c r="E63" s="130"/>
+      <c r="F63" s="130"/>
+      <c r="G63" s="130"/>
+      <c r="H63" s="130"/>
+      <c r="I63" s="130"/>
+      <c r="J63" s="130"/>
+      <c r="K63" s="130"/>
+      <c r="L63" s="130"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="147"/>
-      <c r="C64" s="147"/>
-      <c r="D64" s="147"/>
-      <c r="E64" s="147"/>
-      <c r="F64" s="147"/>
-      <c r="G64" s="147"/>
-      <c r="H64" s="147"/>
-      <c r="I64" s="147"/>
-      <c r="J64" s="147"/>
-      <c r="K64" s="147"/>
-      <c r="L64" s="147"/>
+      <c r="B64" s="130"/>
+      <c r="C64" s="130"/>
+      <c r="D64" s="130"/>
+      <c r="E64" s="130"/>
+      <c r="F64" s="130"/>
+      <c r="G64" s="130"/>
+      <c r="H64" s="130"/>
+      <c r="I64" s="130"/>
+      <c r="J64" s="130"/>
+      <c r="K64" s="130"/>
+      <c r="L64" s="130"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="147"/>
-      <c r="C65" s="147"/>
-      <c r="D65" s="147"/>
-      <c r="E65" s="147"/>
-      <c r="F65" s="147"/>
-      <c r="G65" s="147"/>
-      <c r="H65" s="147"/>
-      <c r="I65" s="147"/>
-      <c r="J65" s="147"/>
-      <c r="K65" s="147"/>
-      <c r="L65" s="147"/>
+      <c r="B65" s="130"/>
+      <c r="C65" s="130"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="130"/>
+      <c r="G65" s="130"/>
+      <c r="H65" s="130"/>
+      <c r="I65" s="130"/>
+      <c r="J65" s="130"/>
+      <c r="K65" s="130"/>
+      <c r="L65" s="130"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="147"/>
-      <c r="C66" s="147"/>
-      <c r="D66" s="147"/>
-      <c r="E66" s="147"/>
-      <c r="F66" s="147"/>
-      <c r="G66" s="147"/>
-      <c r="H66" s="147"/>
-      <c r="I66" s="147"/>
-      <c r="J66" s="147"/>
-      <c r="K66" s="147"/>
-      <c r="L66" s="147"/>
+      <c r="B66" s="130"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="130"/>
+      <c r="G66" s="130"/>
+      <c r="H66" s="130"/>
+      <c r="I66" s="130"/>
+      <c r="J66" s="130"/>
+      <c r="K66" s="130"/>
+      <c r="L66" s="130"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="147"/>
-      <c r="C67" s="147"/>
-      <c r="D67" s="147"/>
-      <c r="E67" s="147"/>
-      <c r="F67" s="147"/>
-      <c r="G67" s="147"/>
-      <c r="H67" s="147"/>
-      <c r="I67" s="147"/>
-      <c r="J67" s="147"/>
-      <c r="K67" s="147"/>
-      <c r="L67" s="147"/>
+      <c r="B67" s="130"/>
+      <c r="C67" s="130"/>
+      <c r="D67" s="130"/>
+      <c r="E67" s="130"/>
+      <c r="F67" s="130"/>
+      <c r="G67" s="130"/>
+      <c r="H67" s="130"/>
+      <c r="I67" s="130"/>
+      <c r="J67" s="130"/>
+      <c r="K67" s="130"/>
+      <c r="L67" s="130"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="147"/>
-      <c r="C68" s="147"/>
-      <c r="D68" s="147"/>
-      <c r="E68" s="147"/>
-      <c r="F68" s="147"/>
-      <c r="G68" s="147"/>
-      <c r="H68" s="147"/>
-      <c r="I68" s="147"/>
-      <c r="J68" s="147"/>
-      <c r="K68" s="147"/>
-      <c r="L68" s="147"/>
+      <c r="B68" s="130"/>
+      <c r="C68" s="130"/>
+      <c r="D68" s="130"/>
+      <c r="E68" s="130"/>
+      <c r="F68" s="130"/>
+      <c r="G68" s="130"/>
+      <c r="H68" s="130"/>
+      <c r="I68" s="130"/>
+      <c r="J68" s="130"/>
+      <c r="K68" s="130"/>
+      <c r="L68" s="130"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="147"/>
-      <c r="C69" s="147"/>
-      <c r="D69" s="147"/>
-      <c r="E69" s="147"/>
-      <c r="F69" s="147"/>
-      <c r="G69" s="147"/>
-      <c r="H69" s="147"/>
-      <c r="I69" s="147"/>
-      <c r="J69" s="147"/>
-      <c r="K69" s="147"/>
-      <c r="L69" s="147"/>
+      <c r="B69" s="130"/>
+      <c r="C69" s="130"/>
+      <c r="D69" s="130"/>
+      <c r="E69" s="130"/>
+      <c r="F69" s="130"/>
+      <c r="G69" s="130"/>
+      <c r="H69" s="130"/>
+      <c r="I69" s="130"/>
+      <c r="J69" s="130"/>
+      <c r="K69" s="130"/>
+      <c r="L69" s="130"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="147"/>
-      <c r="C70" s="147"/>
-      <c r="D70" s="147"/>
-      <c r="E70" s="147"/>
-      <c r="F70" s="147"/>
-      <c r="G70" s="147"/>
-      <c r="H70" s="147"/>
-      <c r="I70" s="147"/>
-      <c r="J70" s="147"/>
-      <c r="K70" s="147"/>
-      <c r="L70" s="147"/>
+      <c r="B70" s="130"/>
+      <c r="C70" s="130"/>
+      <c r="D70" s="130"/>
+      <c r="E70" s="130"/>
+      <c r="F70" s="130"/>
+      <c r="G70" s="130"/>
+      <c r="H70" s="130"/>
+      <c r="I70" s="130"/>
+      <c r="J70" s="130"/>
+      <c r="K70" s="130"/>
+      <c r="L70" s="130"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="147"/>
-      <c r="C71" s="147"/>
-      <c r="D71" s="147"/>
-      <c r="E71" s="147"/>
-      <c r="F71" s="147"/>
-      <c r="G71" s="147"/>
-      <c r="H71" s="147"/>
-      <c r="I71" s="147"/>
-      <c r="J71" s="147"/>
-      <c r="K71" s="147"/>
-      <c r="L71" s="147"/>
+      <c r="B71" s="130"/>
+      <c r="C71" s="130"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="130"/>
+      <c r="F71" s="130"/>
+      <c r="G71" s="130"/>
+      <c r="H71" s="130"/>
+      <c r="I71" s="130"/>
+      <c r="J71" s="130"/>
+      <c r="K71" s="130"/>
+      <c r="L71" s="130"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
       <c r="B73" s="18" t="s">
@@ -4758,11 +4734,11 @@
       <c r="J127" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K127" s="139" t="str">
+      <c r="K127" s="126" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L127" s="139"/>
+      <c r="L127" s="126"/>
     </row>
     <row r="128" spans="2:12" ht="17.25">
       <c r="B128" s="50" t="s">
@@ -4808,245 +4784,245 @@
       <c r="L130" s="51"/>
     </row>
     <row r="131" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="135" t="s">
+      <c r="B131" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="C131" s="135"/>
-      <c r="D131" s="125" t="str">
+      <c r="C131" s="133"/>
+      <c r="D131" s="141" t="str">
         <f>記入!B10</f>
         <v>${cv.pjnamejapanese}</v>
       </c>
-      <c r="E131" s="125"/>
-      <c r="F131" s="125"/>
-      <c r="G131" s="125"/>
-      <c r="H131" s="125"/>
-      <c r="I131" s="125"/>
-      <c r="J131" s="125"/>
-      <c r="K131" s="125"/>
+      <c r="E131" s="141"/>
+      <c r="F131" s="141"/>
+      <c r="G131" s="141"/>
+      <c r="H131" s="141"/>
+      <c r="I131" s="141"/>
+      <c r="J131" s="141"/>
+      <c r="K131" s="141"/>
       <c r="L131" s="49"/>
     </row>
     <row r="132" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="135" t="s">
+      <c r="B132" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="C132" s="135"/>
-      <c r="D132" s="124" t="str">
+      <c r="C132" s="133"/>
+      <c r="D132" s="146" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E132" s="125"/>
-      <c r="F132" s="125"/>
-      <c r="G132" s="125"/>
-      <c r="H132" s="125"/>
-      <c r="I132" s="125"/>
-      <c r="J132" s="125"/>
-      <c r="K132" s="125"/>
+      <c r="E132" s="141"/>
+      <c r="F132" s="141"/>
+      <c r="G132" s="141"/>
+      <c r="H132" s="141"/>
+      <c r="I132" s="141"/>
+      <c r="J132" s="141"/>
+      <c r="K132" s="141"/>
       <c r="L132" s="49"/>
     </row>
     <row r="133" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B133" s="135" t="s">
+      <c r="B133" s="133" t="s">
         <v>75</v>
       </c>
-      <c r="C133" s="135"/>
-      <c r="D133" s="124" t="str">
+      <c r="C133" s="133"/>
+      <c r="D133" s="146" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E133" s="125"/>
-      <c r="F133" s="125"/>
-      <c r="G133" s="125"/>
-      <c r="H133" s="125"/>
-      <c r="I133" s="125"/>
-      <c r="J133" s="125"/>
-      <c r="K133" s="125"/>
+      <c r="E133" s="141"/>
+      <c r="F133" s="141"/>
+      <c r="G133" s="141"/>
+      <c r="H133" s="141"/>
+      <c r="I133" s="141"/>
+      <c r="J133" s="141"/>
+      <c r="K133" s="141"/>
       <c r="L133" s="49"/>
     </row>
     <row r="134" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="135" t="s">
+      <c r="B134" s="133" t="s">
         <v>76</v>
       </c>
-      <c r="C134" s="135"/>
-      <c r="D134" s="126" t="str">
+      <c r="C134" s="133"/>
+      <c r="D134" s="147" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="E134" s="126"/>
-      <c r="F134" s="126"/>
-      <c r="G134" s="126"/>
-      <c r="H134" s="126"/>
-      <c r="I134" s="126"/>
-      <c r="J134" s="126"/>
-      <c r="K134" s="126"/>
+      <c r="E134" s="147"/>
+      <c r="F134" s="147"/>
+      <c r="G134" s="147"/>
+      <c r="H134" s="147"/>
+      <c r="I134" s="147"/>
+      <c r="J134" s="147"/>
+      <c r="K134" s="147"/>
       <c r="L134" s="49"/>
     </row>
     <row r="135" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="143" t="s">
+      <c r="B135" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="C135" s="135"/>
-      <c r="D135" s="127" t="str">
+      <c r="C135" s="133"/>
+      <c r="D135" s="137" t="str">
         <f>記入!B38</f>
         <v>${cv.technicalcontentjapanese}</v>
       </c>
-      <c r="E135" s="128"/>
-      <c r="F135" s="128"/>
-      <c r="G135" s="128"/>
-      <c r="H135" s="128"/>
-      <c r="I135" s="128"/>
-      <c r="J135" s="128"/>
-      <c r="K135" s="128"/>
+      <c r="E135" s="138"/>
+      <c r="F135" s="138"/>
+      <c r="G135" s="138"/>
+      <c r="H135" s="138"/>
+      <c r="I135" s="138"/>
+      <c r="J135" s="138"/>
+      <c r="K135" s="138"/>
       <c r="L135" s="49"/>
     </row>
     <row r="136" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="135"/>
-      <c r="C136" s="135"/>
-      <c r="D136" s="128"/>
-      <c r="E136" s="128"/>
-      <c r="F136" s="128"/>
-      <c r="G136" s="128"/>
-      <c r="H136" s="128"/>
-      <c r="I136" s="128"/>
-      <c r="J136" s="128"/>
-      <c r="K136" s="128"/>
+      <c r="B136" s="133"/>
+      <c r="C136" s="133"/>
+      <c r="D136" s="138"/>
+      <c r="E136" s="138"/>
+      <c r="F136" s="138"/>
+      <c r="G136" s="138"/>
+      <c r="H136" s="138"/>
+      <c r="I136" s="138"/>
+      <c r="J136" s="138"/>
+      <c r="K136" s="138"/>
       <c r="L136" s="49"/>
     </row>
     <row r="137" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="135"/>
-      <c r="C137" s="135"/>
-      <c r="D137" s="128"/>
-      <c r="E137" s="128"/>
-      <c r="F137" s="128"/>
-      <c r="G137" s="128"/>
-      <c r="H137" s="128"/>
-      <c r="I137" s="128"/>
-      <c r="J137" s="128"/>
-      <c r="K137" s="128"/>
+      <c r="B137" s="133"/>
+      <c r="C137" s="133"/>
+      <c r="D137" s="138"/>
+      <c r="E137" s="138"/>
+      <c r="F137" s="138"/>
+      <c r="G137" s="138"/>
+      <c r="H137" s="138"/>
+      <c r="I137" s="138"/>
+      <c r="J137" s="138"/>
+      <c r="K137" s="138"/>
       <c r="L137" s="49"/>
     </row>
     <row r="138" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="135"/>
-      <c r="C138" s="135"/>
-      <c r="D138" s="128"/>
-      <c r="E138" s="128"/>
-      <c r="F138" s="128"/>
-      <c r="G138" s="128"/>
-      <c r="H138" s="128"/>
-      <c r="I138" s="128"/>
-      <c r="J138" s="128"/>
-      <c r="K138" s="128"/>
+      <c r="B138" s="133"/>
+      <c r="C138" s="133"/>
+      <c r="D138" s="138"/>
+      <c r="E138" s="138"/>
+      <c r="F138" s="138"/>
+      <c r="G138" s="138"/>
+      <c r="H138" s="138"/>
+      <c r="I138" s="138"/>
+      <c r="J138" s="138"/>
+      <c r="K138" s="138"/>
       <c r="L138" s="49"/>
     </row>
     <row r="139" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="135"/>
-      <c r="C139" s="135"/>
-      <c r="D139" s="128"/>
-      <c r="E139" s="128"/>
-      <c r="F139" s="128"/>
-      <c r="G139" s="128"/>
-      <c r="H139" s="128"/>
-      <c r="I139" s="128"/>
-      <c r="J139" s="128"/>
-      <c r="K139" s="128"/>
+      <c r="B139" s="133"/>
+      <c r="C139" s="133"/>
+      <c r="D139" s="138"/>
+      <c r="E139" s="138"/>
+      <c r="F139" s="138"/>
+      <c r="G139" s="138"/>
+      <c r="H139" s="138"/>
+      <c r="I139" s="138"/>
+      <c r="J139" s="138"/>
+      <c r="K139" s="138"/>
       <c r="L139" s="49"/>
     </row>
     <row r="140" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="135"/>
-      <c r="C140" s="135"/>
-      <c r="D140" s="128"/>
-      <c r="E140" s="128"/>
-      <c r="F140" s="128"/>
-      <c r="G140" s="128"/>
-      <c r="H140" s="128"/>
-      <c r="I140" s="128"/>
-      <c r="J140" s="128"/>
-      <c r="K140" s="128"/>
+      <c r="B140" s="133"/>
+      <c r="C140" s="133"/>
+      <c r="D140" s="138"/>
+      <c r="E140" s="138"/>
+      <c r="F140" s="138"/>
+      <c r="G140" s="138"/>
+      <c r="H140" s="138"/>
+      <c r="I140" s="138"/>
+      <c r="J140" s="138"/>
+      <c r="K140" s="138"/>
       <c r="L140" s="49"/>
     </row>
     <row r="141" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="135"/>
-      <c r="C141" s="135"/>
-      <c r="D141" s="128"/>
-      <c r="E141" s="128"/>
-      <c r="F141" s="128"/>
-      <c r="G141" s="128"/>
-      <c r="H141" s="128"/>
-      <c r="I141" s="128"/>
-      <c r="J141" s="128"/>
-      <c r="K141" s="128"/>
+      <c r="B141" s="133"/>
+      <c r="C141" s="133"/>
+      <c r="D141" s="138"/>
+      <c r="E141" s="138"/>
+      <c r="F141" s="138"/>
+      <c r="G141" s="138"/>
+      <c r="H141" s="138"/>
+      <c r="I141" s="138"/>
+      <c r="J141" s="138"/>
+      <c r="K141" s="138"/>
       <c r="L141" s="49"/>
     </row>
     <row r="142" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="135" t="s">
+      <c r="B142" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="C142" s="135"/>
-      <c r="D142" s="140" t="str">
+      <c r="C142" s="133"/>
+      <c r="D142" s="134" t="str">
         <f>記入!B50</f>
         <v>${cv.redelegate}</v>
       </c>
-      <c r="E142" s="141"/>
-      <c r="F142" s="141"/>
-      <c r="G142" s="141"/>
-      <c r="H142" s="141"/>
-      <c r="I142" s="141"/>
-      <c r="J142" s="141"/>
-      <c r="K142" s="142"/>
+      <c r="E142" s="135"/>
+      <c r="F142" s="135"/>
+      <c r="G142" s="135"/>
+      <c r="H142" s="135"/>
+      <c r="I142" s="135"/>
+      <c r="J142" s="135"/>
+      <c r="K142" s="136"/>
       <c r="L142" s="49"/>
     </row>
     <row r="143" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="135"/>
-      <c r="C143" s="135"/>
-      <c r="D143" s="127" t="str">
+      <c r="B143" s="133"/>
+      <c r="C143" s="133"/>
+      <c r="D143" s="137" t="str">
         <f>記入!B51</f>
         <v>再委託先：
 ${cv.redelegatecontent}</v>
       </c>
-      <c r="E143" s="128"/>
-      <c r="F143" s="128"/>
-      <c r="G143" s="128"/>
-      <c r="H143" s="128"/>
-      <c r="I143" s="128"/>
-      <c r="J143" s="128"/>
-      <c r="K143" s="128"/>
+      <c r="E143" s="138"/>
+      <c r="F143" s="138"/>
+      <c r="G143" s="138"/>
+      <c r="H143" s="138"/>
+      <c r="I143" s="138"/>
+      <c r="J143" s="138"/>
+      <c r="K143" s="138"/>
       <c r="L143" s="49"/>
     </row>
     <row r="144" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="135"/>
-      <c r="C144" s="135"/>
-      <c r="D144" s="128"/>
-      <c r="E144" s="128"/>
-      <c r="F144" s="128"/>
-      <c r="G144" s="128"/>
-      <c r="H144" s="128"/>
-      <c r="I144" s="128"/>
-      <c r="J144" s="128"/>
-      <c r="K144" s="128"/>
+      <c r="B144" s="133"/>
+      <c r="C144" s="133"/>
+      <c r="D144" s="138"/>
+      <c r="E144" s="138"/>
+      <c r="F144" s="138"/>
+      <c r="G144" s="138"/>
+      <c r="H144" s="138"/>
+      <c r="I144" s="138"/>
+      <c r="J144" s="138"/>
+      <c r="K144" s="138"/>
       <c r="L144" s="49"/>
     </row>
     <row r="145" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="135"/>
-      <c r="C145" s="135"/>
-      <c r="D145" s="128"/>
-      <c r="E145" s="128"/>
-      <c r="F145" s="128"/>
-      <c r="G145" s="128"/>
-      <c r="H145" s="128"/>
-      <c r="I145" s="128"/>
-      <c r="J145" s="128"/>
-      <c r="K145" s="128"/>
+      <c r="B145" s="133"/>
+      <c r="C145" s="133"/>
+      <c r="D145" s="138"/>
+      <c r="E145" s="138"/>
+      <c r="F145" s="138"/>
+      <c r="G145" s="138"/>
+      <c r="H145" s="138"/>
+      <c r="I145" s="138"/>
+      <c r="J145" s="138"/>
+      <c r="K145" s="138"/>
       <c r="L145" s="49"/>
     </row>
     <row r="146" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="135"/>
-      <c r="C146" s="135"/>
-      <c r="D146" s="128"/>
-      <c r="E146" s="128"/>
-      <c r="F146" s="128"/>
-      <c r="G146" s="128"/>
-      <c r="H146" s="128"/>
-      <c r="I146" s="128"/>
-      <c r="J146" s="128"/>
-      <c r="K146" s="128"/>
+      <c r="B146" s="133"/>
+      <c r="C146" s="133"/>
+      <c r="D146" s="138"/>
+      <c r="E146" s="138"/>
+      <c r="F146" s="138"/>
+      <c r="G146" s="138"/>
+      <c r="H146" s="138"/>
+      <c r="I146" s="138"/>
+      <c r="J146" s="138"/>
+      <c r="K146" s="138"/>
       <c r="L146" s="49"/>
     </row>
     <row r="147" spans="2:12" ht="20.100000000000001" customHeight="1">
@@ -5078,198 +5054,202 @@
       <c r="L148" s="49"/>
     </row>
     <row r="149" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="135" t="s">
+      <c r="B149" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="C149" s="135"/>
-      <c r="D149" s="133" t="s">
+      <c r="C149" s="133"/>
+      <c r="D149" s="132" t="s">
         <v>81</v>
       </c>
-      <c r="E149" s="133"/>
-      <c r="F149" s="133" t="s">
+      <c r="E149" s="132"/>
+      <c r="F149" s="132" t="s">
         <v>82</v>
       </c>
-      <c r="G149" s="133"/>
-      <c r="H149" s="133" t="s">
+      <c r="G149" s="132"/>
+      <c r="H149" s="132" t="s">
         <v>83</v>
       </c>
-      <c r="I149" s="133"/>
-      <c r="J149" s="133" t="s">
+      <c r="I149" s="132"/>
+      <c r="J149" s="132" t="s">
         <v>84</v>
       </c>
-      <c r="K149" s="133"/>
+      <c r="K149" s="132"/>
       <c r="L149" s="49"/>
     </row>
     <row r="150" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="135" t="s">
+      <c r="B150" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="C150" s="135"/>
-      <c r="D150" s="132" t="s">
+      <c r="C150" s="133"/>
+      <c r="D150" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="E150" s="133"/>
-      <c r="F150" s="132" t="s">
+      <c r="E150" s="132"/>
+      <c r="F150" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="G150" s="133"/>
-      <c r="H150" s="132" t="s">
+      <c r="G150" s="132"/>
+      <c r="H150" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="I150" s="133"/>
-      <c r="J150" s="132" t="s">
+      <c r="I150" s="132"/>
+      <c r="J150" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="K150" s="133"/>
+      <c r="K150" s="132"/>
       <c r="L150" s="49"/>
     </row>
     <row r="151" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="135" t="s">
+      <c r="B151" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="C151" s="135"/>
-      <c r="D151" s="132" t="s">
+      <c r="C151" s="133"/>
+      <c r="D151" s="140" t="s">
         <v>183</v>
       </c>
-      <c r="E151" s="133"/>
-      <c r="F151" s="132" t="s">
+      <c r="E151" s="132"/>
+      <c r="F151" s="140" t="s">
         <v>184</v>
       </c>
-      <c r="G151" s="133"/>
-      <c r="H151" s="132" t="s">
+      <c r="G151" s="132"/>
+      <c r="H151" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="I151" s="133"/>
-      <c r="J151" s="132" t="s">
+      <c r="I151" s="132"/>
+      <c r="J151" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="K151" s="133"/>
+      <c r="K151" s="132"/>
       <c r="L151" s="49"/>
     </row>
     <row r="152" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="135" t="s">
+      <c r="B152" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="C152" s="135"/>
-      <c r="D152" s="137" t="s">
+      <c r="C152" s="133"/>
+      <c r="D152" s="142" t="s">
         <v>187</v>
       </c>
-      <c r="E152" s="136"/>
-      <c r="F152" s="132" t="s">
+      <c r="E152" s="143"/>
+      <c r="F152" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G152" s="133"/>
-      <c r="H152" s="132" t="s">
+      <c r="G152" s="132"/>
+      <c r="H152" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="I152" s="133"/>
-      <c r="J152" s="132" t="s">
+      <c r="I152" s="132"/>
+      <c r="J152" s="140" t="s">
         <v>190</v>
       </c>
-      <c r="K152" s="133"/>
+      <c r="K152" s="132"/>
       <c r="L152" s="49"/>
     </row>
     <row r="153" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="135" t="s">
+      <c r="B153" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="C153" s="135"/>
-      <c r="D153" s="137" t="s">
+      <c r="C153" s="133"/>
+      <c r="D153" s="142" t="s">
         <v>191</v>
       </c>
-      <c r="E153" s="136"/>
-      <c r="F153" s="132" t="s">
+      <c r="E153" s="143"/>
+      <c r="F153" s="140" t="s">
         <v>192</v>
       </c>
-      <c r="G153" s="133"/>
-      <c r="H153" s="132" t="s">
+      <c r="G153" s="132"/>
+      <c r="H153" s="140" t="s">
         <v>193</v>
       </c>
-      <c r="I153" s="133"/>
-      <c r="J153" s="132" t="s">
+      <c r="I153" s="132"/>
+      <c r="J153" s="140" t="s">
         <v>194</v>
       </c>
-      <c r="K153" s="133"/>
+      <c r="K153" s="132"/>
       <c r="L153" s="49"/>
     </row>
     <row r="154" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="135" t="s">
+      <c r="B154" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="C154" s="135"/>
-      <c r="D154" s="138" t="s">
+      <c r="C154" s="133"/>
+      <c r="D154" s="145" t="s">
         <v>195</v>
       </c>
-      <c r="E154" s="136"/>
-      <c r="F154" s="134" t="s">
+      <c r="E154" s="143"/>
+      <c r="F154" s="144" t="s">
         <v>196</v>
       </c>
-      <c r="G154" s="133"/>
-      <c r="H154" s="134" t="s">
+      <c r="G154" s="132"/>
+      <c r="H154" s="144" t="s">
         <v>197</v>
       </c>
-      <c r="I154" s="133"/>
-      <c r="J154" s="134" t="s">
+      <c r="I154" s="132"/>
+      <c r="J154" s="144" t="s">
         <v>198</v>
       </c>
-      <c r="K154" s="133"/>
+      <c r="K154" s="132"/>
       <c r="L154" s="49"/>
     </row>
     <row r="155" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="135" t="s">
+      <c r="B155" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="C155" s="135"/>
-      <c r="D155" s="136" t="s">
-        <v>199</v>
-      </c>
-      <c r="E155" s="136"/>
-      <c r="F155" s="133" t="s">
-        <v>200</v>
-      </c>
-      <c r="G155" s="133"/>
-      <c r="H155" s="133" t="s">
-        <v>201</v>
-      </c>
-      <c r="I155" s="133"/>
-      <c r="J155" s="133" t="s">
-        <v>202</v>
-      </c>
-      <c r="K155" s="133"/>
+      <c r="C155" s="133"/>
+      <c r="D155" s="143" t="str">
+        <f>IF(記入!B29="","-",記入!B12)</f>
+        <v>${cv.contractnumber}</v>
+      </c>
+      <c r="E155" s="143"/>
+      <c r="F155" s="132" t="str">
+        <f>IF(記入!B29="","-",記入!B12)</f>
+        <v>${cv.contractnumber}</v>
+      </c>
+      <c r="G155" s="132"/>
+      <c r="H155" s="132" t="str">
+        <f>IF(記入!B29="","-",記入!B12)</f>
+        <v>${cv.contractnumber}</v>
+      </c>
+      <c r="I155" s="132"/>
+      <c r="J155" s="132" t="str">
+        <f>IF(記入!B29="","-",記入!B12)</f>
+        <v>${cv.contractnumber}</v>
+      </c>
+      <c r="K155" s="132"/>
       <c r="L155" s="49"/>
     </row>
     <row r="156" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="135" t="s">
+      <c r="B156" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="C156" s="135"/>
-      <c r="D156" s="133" t="s">
+      <c r="C156" s="133"/>
+      <c r="D156" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="E156" s="133"/>
-      <c r="F156" s="133"/>
-      <c r="G156" s="133"/>
-      <c r="H156" s="133"/>
-      <c r="I156" s="133"/>
-      <c r="J156" s="133"/>
-      <c r="K156" s="133"/>
+      <c r="E156" s="132"/>
+      <c r="F156" s="132"/>
+      <c r="G156" s="132"/>
+      <c r="H156" s="132"/>
+      <c r="I156" s="132"/>
+      <c r="J156" s="132"/>
+      <c r="K156" s="132"/>
       <c r="L156" s="49"/>
     </row>
     <row r="157" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="135" t="s">
+      <c r="B157" s="133" t="s">
         <v>92</v>
       </c>
-      <c r="C157" s="135"/>
-      <c r="D157" s="133" t="s">
+      <c r="C157" s="133"/>
+      <c r="D157" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="E157" s="133"/>
-      <c r="F157" s="133"/>
-      <c r="G157" s="133"/>
-      <c r="H157" s="133"/>
-      <c r="I157" s="133"/>
-      <c r="J157" s="133"/>
-      <c r="K157" s="133"/>
+      <c r="E157" s="132"/>
+      <c r="F157" s="132"/>
+      <c r="G157" s="132"/>
+      <c r="H157" s="132"/>
+      <c r="I157" s="132"/>
+      <c r="J157" s="132"/>
+      <c r="K157" s="132"/>
       <c r="L157" s="49"/>
     </row>
     <row r="158" spans="2:12" ht="20.100000000000001" customHeight="1">
@@ -5301,59 +5281,59 @@
       <c r="L159" s="49"/>
     </row>
     <row r="160" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="129" t="s">
+      <c r="B160" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="C160" s="129"/>
-      <c r="D160" s="129" t="s">
+      <c r="C160" s="148"/>
+      <c r="D160" s="148" t="s">
         <v>97</v>
       </c>
-      <c r="E160" s="129"/>
-      <c r="F160" s="129"/>
-      <c r="G160" s="129"/>
-      <c r="H160" s="129"/>
-      <c r="I160" s="129"/>
-      <c r="J160" s="129"/>
-      <c r="K160" s="129"/>
+      <c r="E160" s="148"/>
+      <c r="F160" s="148"/>
+      <c r="G160" s="148"/>
+      <c r="H160" s="148"/>
+      <c r="I160" s="148"/>
+      <c r="J160" s="148"/>
+      <c r="K160" s="148"/>
       <c r="L160" s="49"/>
     </row>
     <row r="161" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="130"/>
-      <c r="C161" s="130"/>
-      <c r="D161" s="130"/>
-      <c r="E161" s="130"/>
-      <c r="F161" s="130"/>
-      <c r="G161" s="130"/>
-      <c r="H161" s="130"/>
-      <c r="I161" s="130"/>
-      <c r="J161" s="130"/>
-      <c r="K161" s="130"/>
+      <c r="B161" s="149"/>
+      <c r="C161" s="149"/>
+      <c r="D161" s="149"/>
+      <c r="E161" s="149"/>
+      <c r="F161" s="149"/>
+      <c r="G161" s="149"/>
+      <c r="H161" s="149"/>
+      <c r="I161" s="149"/>
+      <c r="J161" s="149"/>
+      <c r="K161" s="149"/>
       <c r="L161" s="49"/>
     </row>
     <row r="162" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="130"/>
-      <c r="C162" s="130"/>
-      <c r="D162" s="130"/>
-      <c r="E162" s="130"/>
-      <c r="F162" s="130"/>
-      <c r="G162" s="130"/>
-      <c r="H162" s="130"/>
-      <c r="I162" s="130"/>
-      <c r="J162" s="130"/>
-      <c r="K162" s="130"/>
+      <c r="B162" s="149"/>
+      <c r="C162" s="149"/>
+      <c r="D162" s="149"/>
+      <c r="E162" s="149"/>
+      <c r="F162" s="149"/>
+      <c r="G162" s="149"/>
+      <c r="H162" s="149"/>
+      <c r="I162" s="149"/>
+      <c r="J162" s="149"/>
+      <c r="K162" s="149"/>
       <c r="L162" s="49"/>
     </row>
     <row r="163" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="131"/>
-      <c r="C163" s="131"/>
-      <c r="D163" s="131"/>
-      <c r="E163" s="131"/>
-      <c r="F163" s="131"/>
-      <c r="G163" s="131"/>
-      <c r="H163" s="131"/>
-      <c r="I163" s="131"/>
-      <c r="J163" s="131"/>
-      <c r="K163" s="131"/>
+      <c r="B163" s="150"/>
+      <c r="C163" s="150"/>
+      <c r="D163" s="150"/>
+      <c r="E163" s="150"/>
+      <c r="F163" s="150"/>
+      <c r="G163" s="150"/>
+      <c r="H163" s="150"/>
+      <c r="I163" s="150"/>
+      <c r="J163" s="150"/>
+      <c r="K163" s="150"/>
       <c r="L163" s="49"/>
     </row>
     <row r="164" spans="2:12" ht="14.25">
@@ -5711,12 +5691,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B11:L57"/>
-    <mergeCell ref="B60:L71"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D132:K132"/>
+    <mergeCell ref="D133:K133"/>
+    <mergeCell ref="D134:K134"/>
+    <mergeCell ref="D135:K141"/>
+    <mergeCell ref="B160:C163"/>
+    <mergeCell ref="D160:K163"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:K156"/>
+    <mergeCell ref="D157:K157"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
     <mergeCell ref="J149:K149"/>
     <mergeCell ref="B150:C150"/>
     <mergeCell ref="B151:C151"/>
@@ -5733,45 +5746,12 @@
     <mergeCell ref="F150:G150"/>
     <mergeCell ref="F151:G151"/>
     <mergeCell ref="D131:K131"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D156:K156"/>
-    <mergeCell ref="D157:K157"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="D135:K141"/>
-    <mergeCell ref="B160:C163"/>
-    <mergeCell ref="D160:K163"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="D132:K132"/>
-    <mergeCell ref="D133:K133"/>
-    <mergeCell ref="D134:K134"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B11:L57"/>
+    <mergeCell ref="B60:L71"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5793,8 +5773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A68" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A140" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156:K156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5810,18 +5790,18 @@
       <c r="J2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="166" t="str">
+      <c r="K2" s="154" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="166"/>
+      <c r="L2" s="154"/>
     </row>
     <row r="3" spans="1:12" ht="20.25">
-      <c r="F3" s="167" t="s">
+      <c r="F3" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="27" t="s">
@@ -5881,11 +5861,11 @@
         <v>66</v>
       </c>
       <c r="C8" s="46"/>
-      <c r="D8" s="169" t="str">
+      <c r="D8" s="157" t="str">
         <f>記入!B37</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E8" s="170"/>
+      <c r="E8" s="158"/>
       <c r="F8" s="47" t="s">
         <v>64</v>
       </c>
@@ -5925,617 +5905,617 @@
       <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="168" t="s">
+      <c r="B11" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="168"/>
-      <c r="L11" s="168"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
+      <c r="K11" s="156"/>
+      <c r="L11" s="156"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="168"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="168"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="168"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="168"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
+      <c r="K12" s="156"/>
+      <c r="L12" s="156"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="168"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="168"/>
-      <c r="J13" s="168"/>
-      <c r="K13" s="168"/>
-      <c r="L13" s="168"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="156"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="168"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="168"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="168"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="168"/>
-      <c r="L15" s="168"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="156"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="168"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="168"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="156"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="168"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="168"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="156"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="168"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="168"/>
-      <c r="L18" s="168"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="156"/>
+      <c r="L18" s="156"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="168"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="168"/>
-      <c r="K19" s="168"/>
-      <c r="L19" s="168"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="156"/>
+      <c r="L19" s="156"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="168"/>
-      <c r="K20" s="168"/>
-      <c r="L20" s="168"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="156"/>
+      <c r="L20" s="156"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="168"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="168"/>
-      <c r="K21" s="168"/>
-      <c r="L21" s="168"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="156"/>
+      <c r="L21" s="156"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="168"/>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="168"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="156"/>
+      <c r="L22" s="156"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="168"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="168"/>
-      <c r="K23" s="168"/>
-      <c r="L23" s="168"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="156"/>
+      <c r="L23" s="156"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="168"/>
-      <c r="C24" s="168"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="168"/>
-      <c r="K24" s="168"/>
-      <c r="L24" s="168"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="156"/>
+      <c r="L24" s="156"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="168"/>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="168"/>
-      <c r="K25" s="168"/>
-      <c r="L25" s="168"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="156"/>
+      <c r="L25" s="156"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="168"/>
-      <c r="C26" s="168"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="168"/>
-      <c r="K26" s="168"/>
-      <c r="L26" s="168"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="168"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="168"/>
-      <c r="L27" s="168"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="156"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="168"/>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="168"/>
-      <c r="L28" s="168"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="168"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="168"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="168"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="168"/>
-      <c r="K30" s="168"/>
-      <c r="L30" s="168"/>
+      <c r="B30" s="156"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="156"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="156"/>
+      <c r="L30" s="156"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="168"/>
-      <c r="K31" s="168"/>
-      <c r="L31" s="168"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="168"/>
-      <c r="C32" s="168"/>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="168"/>
-      <c r="I32" s="168"/>
-      <c r="J32" s="168"/>
-      <c r="K32" s="168"/>
-      <c r="L32" s="168"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="168"/>
-      <c r="C33" s="168"/>
-      <c r="D33" s="168"/>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="168"/>
-      <c r="K33" s="168"/>
-      <c r="L33" s="168"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="156"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="156"/>
+      <c r="L33" s="156"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="168"/>
-      <c r="C34" s="168"/>
-      <c r="D34" s="168"/>
-      <c r="E34" s="168"/>
-      <c r="F34" s="168"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="168"/>
-      <c r="I34" s="168"/>
-      <c r="J34" s="168"/>
-      <c r="K34" s="168"/>
-      <c r="L34" s="168"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="156"/>
+      <c r="L34" s="156"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="168"/>
-      <c r="C35" s="168"/>
-      <c r="D35" s="168"/>
-      <c r="E35" s="168"/>
-      <c r="F35" s="168"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="168"/>
-      <c r="I35" s="168"/>
-      <c r="J35" s="168"/>
-      <c r="K35" s="168"/>
-      <c r="L35" s="168"/>
+      <c r="B35" s="156"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="156"/>
+      <c r="L35" s="156"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="168"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="168"/>
-      <c r="I36" s="168"/>
-      <c r="J36" s="168"/>
-      <c r="K36" s="168"/>
-      <c r="L36" s="168"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="156"/>
+      <c r="L36" s="156"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="168"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
-      <c r="E37" s="168"/>
-      <c r="F37" s="168"/>
-      <c r="G37" s="168"/>
-      <c r="H37" s="168"/>
-      <c r="I37" s="168"/>
-      <c r="J37" s="168"/>
-      <c r="K37" s="168"/>
-      <c r="L37" s="168"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="156"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="168"/>
-      <c r="C38" s="168"/>
-      <c r="D38" s="168"/>
-      <c r="E38" s="168"/>
-      <c r="F38" s="168"/>
-      <c r="G38" s="168"/>
-      <c r="H38" s="168"/>
-      <c r="I38" s="168"/>
-      <c r="J38" s="168"/>
-      <c r="K38" s="168"/>
-      <c r="L38" s="168"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="156"/>
+      <c r="F38" s="156"/>
+      <c r="G38" s="156"/>
+      <c r="H38" s="156"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="156"/>
+      <c r="K38" s="156"/>
+      <c r="L38" s="156"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="168"/>
-      <c r="C39" s="168"/>
-      <c r="D39" s="168"/>
-      <c r="E39" s="168"/>
-      <c r="F39" s="168"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="168"/>
-      <c r="I39" s="168"/>
-      <c r="J39" s="168"/>
-      <c r="K39" s="168"/>
-      <c r="L39" s="168"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="156"/>
+      <c r="D39" s="156"/>
+      <c r="E39" s="156"/>
+      <c r="F39" s="156"/>
+      <c r="G39" s="156"/>
+      <c r="H39" s="156"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="156"/>
+      <c r="K39" s="156"/>
+      <c r="L39" s="156"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="168"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="168"/>
-      <c r="E40" s="168"/>
-      <c r="F40" s="168"/>
-      <c r="G40" s="168"/>
-      <c r="H40" s="168"/>
-      <c r="I40" s="168"/>
-      <c r="J40" s="168"/>
-      <c r="K40" s="168"/>
-      <c r="L40" s="168"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="156"/>
+      <c r="I40" s="156"/>
+      <c r="J40" s="156"/>
+      <c r="K40" s="156"/>
+      <c r="L40" s="156"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="168"/>
-      <c r="C41" s="168"/>
-      <c r="D41" s="168"/>
-      <c r="E41" s="168"/>
-      <c r="F41" s="168"/>
-      <c r="G41" s="168"/>
-      <c r="H41" s="168"/>
-      <c r="I41" s="168"/>
-      <c r="J41" s="168"/>
-      <c r="K41" s="168"/>
-      <c r="L41" s="168"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="156"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="156"/>
+      <c r="K41" s="156"/>
+      <c r="L41" s="156"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="168"/>
-      <c r="E42" s="168"/>
-      <c r="F42" s="168"/>
-      <c r="G42" s="168"/>
-      <c r="H42" s="168"/>
-      <c r="I42" s="168"/>
-      <c r="J42" s="168"/>
-      <c r="K42" s="168"/>
-      <c r="L42" s="168"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="156"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="156"/>
+      <c r="K42" s="156"/>
+      <c r="L42" s="156"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="168"/>
-      <c r="C43" s="168"/>
-      <c r="D43" s="168"/>
-      <c r="E43" s="168"/>
-      <c r="F43" s="168"/>
-      <c r="G43" s="168"/>
-      <c r="H43" s="168"/>
-      <c r="I43" s="168"/>
-      <c r="J43" s="168"/>
-      <c r="K43" s="168"/>
-      <c r="L43" s="168"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="156"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="156"/>
+      <c r="K43" s="156"/>
+      <c r="L43" s="156"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="168"/>
-      <c r="C44" s="168"/>
-      <c r="D44" s="168"/>
-      <c r="E44" s="168"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="168"/>
-      <c r="H44" s="168"/>
-      <c r="I44" s="168"/>
-      <c r="J44" s="168"/>
-      <c r="K44" s="168"/>
-      <c r="L44" s="168"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="156"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="156"/>
+      <c r="K44" s="156"/>
+      <c r="L44" s="156"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="168"/>
-      <c r="C45" s="168"/>
-      <c r="D45" s="168"/>
-      <c r="E45" s="168"/>
-      <c r="F45" s="168"/>
-      <c r="G45" s="168"/>
-      <c r="H45" s="168"/>
-      <c r="I45" s="168"/>
-      <c r="J45" s="168"/>
-      <c r="K45" s="168"/>
-      <c r="L45" s="168"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="156"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="156"/>
+      <c r="J45" s="156"/>
+      <c r="K45" s="156"/>
+      <c r="L45" s="156"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="168"/>
-      <c r="C46" s="168"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="168"/>
-      <c r="F46" s="168"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="168"/>
-      <c r="I46" s="168"/>
-      <c r="J46" s="168"/>
-      <c r="K46" s="168"/>
-      <c r="L46" s="168"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="156"/>
+      <c r="F46" s="156"/>
+      <c r="G46" s="156"/>
+      <c r="H46" s="156"/>
+      <c r="I46" s="156"/>
+      <c r="J46" s="156"/>
+      <c r="K46" s="156"/>
+      <c r="L46" s="156"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="168"/>
-      <c r="C47" s="168"/>
-      <c r="D47" s="168"/>
-      <c r="E47" s="168"/>
-      <c r="F47" s="168"/>
-      <c r="G47" s="168"/>
-      <c r="H47" s="168"/>
-      <c r="I47" s="168"/>
-      <c r="J47" s="168"/>
-      <c r="K47" s="168"/>
-      <c r="L47" s="168"/>
+      <c r="B47" s="156"/>
+      <c r="C47" s="156"/>
+      <c r="D47" s="156"/>
+      <c r="E47" s="156"/>
+      <c r="F47" s="156"/>
+      <c r="G47" s="156"/>
+      <c r="H47" s="156"/>
+      <c r="I47" s="156"/>
+      <c r="J47" s="156"/>
+      <c r="K47" s="156"/>
+      <c r="L47" s="156"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="168"/>
-      <c r="C48" s="168"/>
-      <c r="D48" s="168"/>
-      <c r="E48" s="168"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="168"/>
-      <c r="I48" s="168"/>
-      <c r="J48" s="168"/>
-      <c r="K48" s="168"/>
-      <c r="L48" s="168"/>
+      <c r="B48" s="156"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="156"/>
+      <c r="E48" s="156"/>
+      <c r="F48" s="156"/>
+      <c r="G48" s="156"/>
+      <c r="H48" s="156"/>
+      <c r="I48" s="156"/>
+      <c r="J48" s="156"/>
+      <c r="K48" s="156"/>
+      <c r="L48" s="156"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="168"/>
-      <c r="C49" s="168"/>
-      <c r="D49" s="168"/>
-      <c r="E49" s="168"/>
-      <c r="F49" s="168"/>
-      <c r="G49" s="168"/>
-      <c r="H49" s="168"/>
-      <c r="I49" s="168"/>
-      <c r="J49" s="168"/>
-      <c r="K49" s="168"/>
-      <c r="L49" s="168"/>
+      <c r="B49" s="156"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="156"/>
+      <c r="E49" s="156"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="156"/>
+      <c r="H49" s="156"/>
+      <c r="I49" s="156"/>
+      <c r="J49" s="156"/>
+      <c r="K49" s="156"/>
+      <c r="L49" s="156"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="168"/>
-      <c r="C50" s="168"/>
-      <c r="D50" s="168"/>
-      <c r="E50" s="168"/>
-      <c r="F50" s="168"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="168"/>
-      <c r="I50" s="168"/>
-      <c r="J50" s="168"/>
-      <c r="K50" s="168"/>
-      <c r="L50" s="168"/>
+      <c r="B50" s="156"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="156"/>
+      <c r="K50" s="156"/>
+      <c r="L50" s="156"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="168"/>
-      <c r="C51" s="168"/>
-      <c r="D51" s="168"/>
-      <c r="E51" s="168"/>
-      <c r="F51" s="168"/>
-      <c r="G51" s="168"/>
-      <c r="H51" s="168"/>
-      <c r="I51" s="168"/>
-      <c r="J51" s="168"/>
-      <c r="K51" s="168"/>
-      <c r="L51" s="168"/>
+      <c r="B51" s="156"/>
+      <c r="C51" s="156"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="156"/>
+      <c r="G51" s="156"/>
+      <c r="H51" s="156"/>
+      <c r="I51" s="156"/>
+      <c r="J51" s="156"/>
+      <c r="K51" s="156"/>
+      <c r="L51" s="156"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="168"/>
-      <c r="C52" s="168"/>
-      <c r="D52" s="168"/>
-      <c r="E52" s="168"/>
-      <c r="F52" s="168"/>
-      <c r="G52" s="168"/>
-      <c r="H52" s="168"/>
-      <c r="I52" s="168"/>
-      <c r="J52" s="168"/>
-      <c r="K52" s="168"/>
-      <c r="L52" s="168"/>
+      <c r="B52" s="156"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="156"/>
+      <c r="E52" s="156"/>
+      <c r="F52" s="156"/>
+      <c r="G52" s="156"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="156"/>
+      <c r="K52" s="156"/>
+      <c r="L52" s="156"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="168"/>
-      <c r="C53" s="168"/>
-      <c r="D53" s="168"/>
-      <c r="E53" s="168"/>
-      <c r="F53" s="168"/>
-      <c r="G53" s="168"/>
-      <c r="H53" s="168"/>
-      <c r="I53" s="168"/>
-      <c r="J53" s="168"/>
-      <c r="K53" s="168"/>
-      <c r="L53" s="168"/>
+      <c r="B53" s="156"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="156"/>
+      <c r="F53" s="156"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="156"/>
+      <c r="J53" s="156"/>
+      <c r="K53" s="156"/>
+      <c r="L53" s="156"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="168"/>
-      <c r="C54" s="168"/>
-      <c r="D54" s="168"/>
-      <c r="E54" s="168"/>
-      <c r="F54" s="168"/>
-      <c r="G54" s="168"/>
-      <c r="H54" s="168"/>
-      <c r="I54" s="168"/>
-      <c r="J54" s="168"/>
-      <c r="K54" s="168"/>
-      <c r="L54" s="168"/>
+      <c r="B54" s="156"/>
+      <c r="C54" s="156"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="156"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="156"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="156"/>
+      <c r="K54" s="156"/>
+      <c r="L54" s="156"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="168"/>
-      <c r="C55" s="168"/>
-      <c r="D55" s="168"/>
-      <c r="E55" s="168"/>
-      <c r="F55" s="168"/>
-      <c r="G55" s="168"/>
-      <c r="H55" s="168"/>
-      <c r="I55" s="168"/>
-      <c r="J55" s="168"/>
-      <c r="K55" s="168"/>
-      <c r="L55" s="168"/>
+      <c r="B55" s="156"/>
+      <c r="C55" s="156"/>
+      <c r="D55" s="156"/>
+      <c r="E55" s="156"/>
+      <c r="F55" s="156"/>
+      <c r="G55" s="156"/>
+      <c r="H55" s="156"/>
+      <c r="I55" s="156"/>
+      <c r="J55" s="156"/>
+      <c r="K55" s="156"/>
+      <c r="L55" s="156"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="168"/>
-      <c r="C56" s="168"/>
-      <c r="D56" s="168"/>
-      <c r="E56" s="168"/>
-      <c r="F56" s="168"/>
-      <c r="G56" s="168"/>
-      <c r="H56" s="168"/>
-      <c r="I56" s="168"/>
-      <c r="J56" s="168"/>
-      <c r="K56" s="168"/>
-      <c r="L56" s="168"/>
+      <c r="B56" s="156"/>
+      <c r="C56" s="156"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="156"/>
+      <c r="F56" s="156"/>
+      <c r="G56" s="156"/>
+      <c r="H56" s="156"/>
+      <c r="I56" s="156"/>
+      <c r="J56" s="156"/>
+      <c r="K56" s="156"/>
+      <c r="L56" s="156"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="168"/>
-      <c r="C57" s="168"/>
-      <c r="D57" s="168"/>
-      <c r="E57" s="168"/>
-      <c r="F57" s="168"/>
-      <c r="G57" s="168"/>
-      <c r="H57" s="168"/>
-      <c r="I57" s="168"/>
-      <c r="J57" s="168"/>
-      <c r="K57" s="168"/>
-      <c r="L57" s="168"/>
+      <c r="B57" s="156"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="156"/>
+      <c r="F57" s="156"/>
+      <c r="G57" s="156"/>
+      <c r="H57" s="156"/>
+      <c r="I57" s="156"/>
+      <c r="J57" s="156"/>
+      <c r="K57" s="156"/>
+      <c r="L57" s="156"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
       <c r="B58" s="31"/>
@@ -6554,169 +6534,169 @@
       <c r="J59" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K59" s="166" t="str">
+      <c r="K59" s="154" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L59" s="166"/>
+      <c r="L59" s="154"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="164" t="s">
+      <c r="B60" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
-      <c r="E60" s="165"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="165"/>
-      <c r="H60" s="165"/>
-      <c r="I60" s="165"/>
-      <c r="J60" s="165"/>
-      <c r="K60" s="165"/>
-      <c r="L60" s="165"/>
+      <c r="C60" s="153"/>
+      <c r="D60" s="153"/>
+      <c r="E60" s="153"/>
+      <c r="F60" s="153"/>
+      <c r="G60" s="153"/>
+      <c r="H60" s="153"/>
+      <c r="I60" s="153"/>
+      <c r="J60" s="153"/>
+      <c r="K60" s="153"/>
+      <c r="L60" s="153"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="165"/>
-      <c r="F61" s="165"/>
-      <c r="G61" s="165"/>
-      <c r="H61" s="165"/>
-      <c r="I61" s="165"/>
-      <c r="J61" s="165"/>
-      <c r="K61" s="165"/>
-      <c r="L61" s="165"/>
+      <c r="B61" s="153"/>
+      <c r="C61" s="153"/>
+      <c r="D61" s="153"/>
+      <c r="E61" s="153"/>
+      <c r="F61" s="153"/>
+      <c r="G61" s="153"/>
+      <c r="H61" s="153"/>
+      <c r="I61" s="153"/>
+      <c r="J61" s="153"/>
+      <c r="K61" s="153"/>
+      <c r="L61" s="153"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
-      <c r="E62" s="165"/>
-      <c r="F62" s="165"/>
-      <c r="G62" s="165"/>
-      <c r="H62" s="165"/>
-      <c r="I62" s="165"/>
-      <c r="J62" s="165"/>
-      <c r="K62" s="165"/>
-      <c r="L62" s="165"/>
+      <c r="B62" s="153"/>
+      <c r="C62" s="153"/>
+      <c r="D62" s="153"/>
+      <c r="E62" s="153"/>
+      <c r="F62" s="153"/>
+      <c r="G62" s="153"/>
+      <c r="H62" s="153"/>
+      <c r="I62" s="153"/>
+      <c r="J62" s="153"/>
+      <c r="K62" s="153"/>
+      <c r="L62" s="153"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="165"/>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="165"/>
-      <c r="F63" s="165"/>
-      <c r="G63" s="165"/>
-      <c r="H63" s="165"/>
-      <c r="I63" s="165"/>
-      <c r="J63" s="165"/>
-      <c r="K63" s="165"/>
-      <c r="L63" s="165"/>
+      <c r="B63" s="153"/>
+      <c r="C63" s="153"/>
+      <c r="D63" s="153"/>
+      <c r="E63" s="153"/>
+      <c r="F63" s="153"/>
+      <c r="G63" s="153"/>
+      <c r="H63" s="153"/>
+      <c r="I63" s="153"/>
+      <c r="J63" s="153"/>
+      <c r="K63" s="153"/>
+      <c r="L63" s="153"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="165"/>
-      <c r="C64" s="165"/>
-      <c r="D64" s="165"/>
-      <c r="E64" s="165"/>
-      <c r="F64" s="165"/>
-      <c r="G64" s="165"/>
-      <c r="H64" s="165"/>
-      <c r="I64" s="165"/>
-      <c r="J64" s="165"/>
-      <c r="K64" s="165"/>
-      <c r="L64" s="165"/>
+      <c r="B64" s="153"/>
+      <c r="C64" s="153"/>
+      <c r="D64" s="153"/>
+      <c r="E64" s="153"/>
+      <c r="F64" s="153"/>
+      <c r="G64" s="153"/>
+      <c r="H64" s="153"/>
+      <c r="I64" s="153"/>
+      <c r="J64" s="153"/>
+      <c r="K64" s="153"/>
+      <c r="L64" s="153"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="165"/>
-      <c r="C65" s="165"/>
-      <c r="D65" s="165"/>
-      <c r="E65" s="165"/>
-      <c r="F65" s="165"/>
-      <c r="G65" s="165"/>
-      <c r="H65" s="165"/>
-      <c r="I65" s="165"/>
-      <c r="J65" s="165"/>
-      <c r="K65" s="165"/>
-      <c r="L65" s="165"/>
+      <c r="B65" s="153"/>
+      <c r="C65" s="153"/>
+      <c r="D65" s="153"/>
+      <c r="E65" s="153"/>
+      <c r="F65" s="153"/>
+      <c r="G65" s="153"/>
+      <c r="H65" s="153"/>
+      <c r="I65" s="153"/>
+      <c r="J65" s="153"/>
+      <c r="K65" s="153"/>
+      <c r="L65" s="153"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="165"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="165"/>
-      <c r="E66" s="165"/>
-      <c r="F66" s="165"/>
-      <c r="G66" s="165"/>
-      <c r="H66" s="165"/>
-      <c r="I66" s="165"/>
-      <c r="J66" s="165"/>
-      <c r="K66" s="165"/>
-      <c r="L66" s="165"/>
+      <c r="B66" s="153"/>
+      <c r="C66" s="153"/>
+      <c r="D66" s="153"/>
+      <c r="E66" s="153"/>
+      <c r="F66" s="153"/>
+      <c r="G66" s="153"/>
+      <c r="H66" s="153"/>
+      <c r="I66" s="153"/>
+      <c r="J66" s="153"/>
+      <c r="K66" s="153"/>
+      <c r="L66" s="153"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="165"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
-      <c r="E67" s="165"/>
-      <c r="F67" s="165"/>
-      <c r="G67" s="165"/>
-      <c r="H67" s="165"/>
-      <c r="I67" s="165"/>
-      <c r="J67" s="165"/>
-      <c r="K67" s="165"/>
-      <c r="L67" s="165"/>
+      <c r="B67" s="153"/>
+      <c r="C67" s="153"/>
+      <c r="D67" s="153"/>
+      <c r="E67" s="153"/>
+      <c r="F67" s="153"/>
+      <c r="G67" s="153"/>
+      <c r="H67" s="153"/>
+      <c r="I67" s="153"/>
+      <c r="J67" s="153"/>
+      <c r="K67" s="153"/>
+      <c r="L67" s="153"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="165"/>
-      <c r="C68" s="165"/>
-      <c r="D68" s="165"/>
-      <c r="E68" s="165"/>
-      <c r="F68" s="165"/>
-      <c r="G68" s="165"/>
-      <c r="H68" s="165"/>
-      <c r="I68" s="165"/>
-      <c r="J68" s="165"/>
-      <c r="K68" s="165"/>
-      <c r="L68" s="165"/>
+      <c r="B68" s="153"/>
+      <c r="C68" s="153"/>
+      <c r="D68" s="153"/>
+      <c r="E68" s="153"/>
+      <c r="F68" s="153"/>
+      <c r="G68" s="153"/>
+      <c r="H68" s="153"/>
+      <c r="I68" s="153"/>
+      <c r="J68" s="153"/>
+      <c r="K68" s="153"/>
+      <c r="L68" s="153"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="165"/>
-      <c r="C69" s="165"/>
-      <c r="D69" s="165"/>
-      <c r="E69" s="165"/>
-      <c r="F69" s="165"/>
-      <c r="G69" s="165"/>
-      <c r="H69" s="165"/>
-      <c r="I69" s="165"/>
-      <c r="J69" s="165"/>
-      <c r="K69" s="165"/>
-      <c r="L69" s="165"/>
+      <c r="B69" s="153"/>
+      <c r="C69" s="153"/>
+      <c r="D69" s="153"/>
+      <c r="E69" s="153"/>
+      <c r="F69" s="153"/>
+      <c r="G69" s="153"/>
+      <c r="H69" s="153"/>
+      <c r="I69" s="153"/>
+      <c r="J69" s="153"/>
+      <c r="K69" s="153"/>
+      <c r="L69" s="153"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="165"/>
-      <c r="C70" s="165"/>
-      <c r="D70" s="165"/>
-      <c r="E70" s="165"/>
-      <c r="F70" s="165"/>
-      <c r="G70" s="165"/>
-      <c r="H70" s="165"/>
-      <c r="I70" s="165"/>
-      <c r="J70" s="165"/>
-      <c r="K70" s="165"/>
-      <c r="L70" s="165"/>
+      <c r="B70" s="153"/>
+      <c r="C70" s="153"/>
+      <c r="D70" s="153"/>
+      <c r="E70" s="153"/>
+      <c r="F70" s="153"/>
+      <c r="G70" s="153"/>
+      <c r="H70" s="153"/>
+      <c r="I70" s="153"/>
+      <c r="J70" s="153"/>
+      <c r="K70" s="153"/>
+      <c r="L70" s="153"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="165"/>
-      <c r="C71" s="165"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="165"/>
-      <c r="F71" s="165"/>
-      <c r="G71" s="165"/>
-      <c r="H71" s="165"/>
-      <c r="I71" s="165"/>
-      <c r="J71" s="165"/>
-      <c r="K71" s="165"/>
-      <c r="L71" s="165"/>
+      <c r="B71" s="153"/>
+      <c r="C71" s="153"/>
+      <c r="D71" s="153"/>
+      <c r="E71" s="153"/>
+      <c r="F71" s="153"/>
+      <c r="G71" s="153"/>
+      <c r="H71" s="153"/>
+      <c r="I71" s="153"/>
+      <c r="J71" s="153"/>
+      <c r="K71" s="153"/>
+      <c r="L71" s="153"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
       <c r="B73" s="29" t="s">
@@ -6893,45 +6873,45 @@
     </row>
     <row r="90" spans="2:11" ht="14.25">
       <c r="B90" s="29"/>
-      <c r="C90" s="171" t="str">
+      <c r="C90" s="79" t="str">
         <f>記入!B36</f>
         <v>${cv.prplacepositionchinese}</v>
       </c>
-      <c r="D90" s="171" t="str">
+      <c r="D90" s="79" t="str">
         <f>記入!E36</f>
         <v>${cv.namechinese}</v>
       </c>
-      <c r="E90" s="171"/>
-      <c r="F90" s="171"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="79"/>
       <c r="G90" s="29"/>
-      <c r="H90" s="172"/>
-      <c r="I90" s="172"/>
-      <c r="J90" s="172"/>
-      <c r="K90" s="172"/>
+      <c r="H90" s="80"/>
+      <c r="I90" s="80"/>
+      <c r="J90" s="80"/>
+      <c r="K90" s="80"/>
     </row>
     <row r="91" spans="2:11" ht="14.25">
       <c r="B91" s="29"/>
-      <c r="C91" s="171"/>
-      <c r="D91" s="171"/>
-      <c r="E91" s="171"/>
-      <c r="F91" s="171"/>
+      <c r="C91" s="79"/>
+      <c r="D91" s="79"/>
+      <c r="E91" s="79"/>
+      <c r="F91" s="79"/>
       <c r="G91" s="29"/>
-      <c r="H91" s="172"/>
-      <c r="I91" s="172"/>
-      <c r="J91" s="172"/>
-      <c r="K91" s="172"/>
+      <c r="H91" s="80"/>
+      <c r="I91" s="80"/>
+      <c r="J91" s="80"/>
+      <c r="K91" s="80"/>
     </row>
     <row r="92" spans="2:11" ht="14.25">
       <c r="B92" s="29"/>
-      <c r="C92" s="171"/>
-      <c r="D92" s="171"/>
-      <c r="E92" s="171"/>
-      <c r="F92" s="171"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="79"/>
       <c r="G92" s="29"/>
-      <c r="H92" s="172"/>
-      <c r="I92" s="172"/>
-      <c r="J92" s="172"/>
-      <c r="K92" s="172"/>
+      <c r="H92" s="80"/>
+      <c r="I92" s="80"/>
+      <c r="J92" s="80"/>
+      <c r="K92" s="80"/>
     </row>
     <row r="93" spans="2:11" ht="14.25">
       <c r="B93" s="29"/>
@@ -6959,11 +6939,11 @@
       <c r="J127" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="K127" s="163" t="str">
+      <c r="K127" s="151" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L127" s="163"/>
+      <c r="L127" s="151"/>
     </row>
     <row r="128" spans="2:12" s="57" customFormat="1" ht="18.75">
       <c r="B128" s="59" t="s">
@@ -7007,245 +6987,245 @@
       <c r="L130" s="61"/>
     </row>
     <row r="131" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="149" t="s">
+      <c r="B131" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="C131" s="149"/>
-      <c r="D131" s="161" t="str">
+      <c r="C131" s="159"/>
+      <c r="D131" s="160" t="str">
         <f>記入!B11</f>
         <v>${cv.pjnamechinese}</v>
       </c>
-      <c r="E131" s="161"/>
-      <c r="F131" s="161"/>
-      <c r="G131" s="161"/>
-      <c r="H131" s="161"/>
-      <c r="I131" s="161"/>
-      <c r="J131" s="161"/>
-      <c r="K131" s="161"/>
+      <c r="E131" s="160"/>
+      <c r="F131" s="160"/>
+      <c r="G131" s="160"/>
+      <c r="H131" s="160"/>
+      <c r="I131" s="160"/>
+      <c r="J131" s="160"/>
+      <c r="K131" s="160"/>
       <c r="L131" s="62"/>
     </row>
     <row r="132" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="149" t="s">
+      <c r="B132" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="C132" s="149"/>
-      <c r="D132" s="162" t="str">
+      <c r="C132" s="159"/>
+      <c r="D132" s="161" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E132" s="161"/>
-      <c r="F132" s="161"/>
-      <c r="G132" s="161"/>
-      <c r="H132" s="161"/>
-      <c r="I132" s="161"/>
-      <c r="J132" s="161"/>
-      <c r="K132" s="161"/>
+      <c r="E132" s="160"/>
+      <c r="F132" s="160"/>
+      <c r="G132" s="160"/>
+      <c r="H132" s="160"/>
+      <c r="I132" s="160"/>
+      <c r="J132" s="160"/>
+      <c r="K132" s="160"/>
       <c r="L132" s="63"/>
     </row>
     <row r="133" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B133" s="149" t="s">
+      <c r="B133" s="159" t="s">
         <v>103</v>
       </c>
-      <c r="C133" s="149"/>
-      <c r="D133" s="162" t="str">
+      <c r="C133" s="159"/>
+      <c r="D133" s="161" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E133" s="161"/>
-      <c r="F133" s="161"/>
-      <c r="G133" s="161"/>
-      <c r="H133" s="161"/>
-      <c r="I133" s="161"/>
-      <c r="J133" s="161"/>
-      <c r="K133" s="161"/>
+      <c r="E133" s="160"/>
+      <c r="F133" s="160"/>
+      <c r="G133" s="160"/>
+      <c r="H133" s="160"/>
+      <c r="I133" s="160"/>
+      <c r="J133" s="160"/>
+      <c r="K133" s="160"/>
       <c r="L133" s="63"/>
     </row>
     <row r="134" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="149" t="s">
+      <c r="B134" s="159" t="s">
         <v>104</v>
       </c>
-      <c r="C134" s="149"/>
-      <c r="D134" s="154" t="str">
+      <c r="C134" s="159"/>
+      <c r="D134" s="162" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="E134" s="154"/>
-      <c r="F134" s="154"/>
-      <c r="G134" s="154"/>
-      <c r="H134" s="154"/>
-      <c r="I134" s="154"/>
-      <c r="J134" s="154"/>
-      <c r="K134" s="154"/>
+      <c r="E134" s="162"/>
+      <c r="F134" s="162"/>
+      <c r="G134" s="162"/>
+      <c r="H134" s="162"/>
+      <c r="I134" s="162"/>
+      <c r="J134" s="162"/>
+      <c r="K134" s="162"/>
       <c r="L134" s="63"/>
     </row>
     <row r="135" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="155" t="s">
+      <c r="B135" s="163" t="s">
         <v>105</v>
       </c>
-      <c r="C135" s="149"/>
-      <c r="D135" s="156" t="str">
+      <c r="C135" s="159"/>
+      <c r="D135" s="164" t="str">
         <f>記入!B44</f>
         <v>${cv.technicalcontentchinese}</v>
       </c>
-      <c r="E135" s="157"/>
-      <c r="F135" s="157"/>
-      <c r="G135" s="157"/>
-      <c r="H135" s="157"/>
-      <c r="I135" s="157"/>
-      <c r="J135" s="157"/>
-      <c r="K135" s="157"/>
+      <c r="E135" s="165"/>
+      <c r="F135" s="165"/>
+      <c r="G135" s="165"/>
+      <c r="H135" s="165"/>
+      <c r="I135" s="165"/>
+      <c r="J135" s="165"/>
+      <c r="K135" s="165"/>
       <c r="L135" s="63"/>
     </row>
     <row r="136" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="149"/>
-      <c r="C136" s="149"/>
-      <c r="D136" s="157"/>
-      <c r="E136" s="157"/>
-      <c r="F136" s="157"/>
-      <c r="G136" s="157"/>
-      <c r="H136" s="157"/>
-      <c r="I136" s="157"/>
-      <c r="J136" s="157"/>
-      <c r="K136" s="157"/>
+      <c r="B136" s="159"/>
+      <c r="C136" s="159"/>
+      <c r="D136" s="165"/>
+      <c r="E136" s="165"/>
+      <c r="F136" s="165"/>
+      <c r="G136" s="165"/>
+      <c r="H136" s="165"/>
+      <c r="I136" s="165"/>
+      <c r="J136" s="165"/>
+      <c r="K136" s="165"/>
       <c r="L136" s="63"/>
     </row>
     <row r="137" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="149"/>
-      <c r="C137" s="149"/>
-      <c r="D137" s="157"/>
-      <c r="E137" s="157"/>
-      <c r="F137" s="157"/>
-      <c r="G137" s="157"/>
-      <c r="H137" s="157"/>
-      <c r="I137" s="157"/>
-      <c r="J137" s="157"/>
-      <c r="K137" s="157"/>
+      <c r="B137" s="159"/>
+      <c r="C137" s="159"/>
+      <c r="D137" s="165"/>
+      <c r="E137" s="165"/>
+      <c r="F137" s="165"/>
+      <c r="G137" s="165"/>
+      <c r="H137" s="165"/>
+      <c r="I137" s="165"/>
+      <c r="J137" s="165"/>
+      <c r="K137" s="165"/>
       <c r="L137" s="63"/>
     </row>
     <row r="138" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="149"/>
-      <c r="C138" s="149"/>
-      <c r="D138" s="157"/>
-      <c r="E138" s="157"/>
-      <c r="F138" s="157"/>
-      <c r="G138" s="157"/>
-      <c r="H138" s="157"/>
-      <c r="I138" s="157"/>
-      <c r="J138" s="157"/>
-      <c r="K138" s="157"/>
+      <c r="B138" s="159"/>
+      <c r="C138" s="159"/>
+      <c r="D138" s="165"/>
+      <c r="E138" s="165"/>
+      <c r="F138" s="165"/>
+      <c r="G138" s="165"/>
+      <c r="H138" s="165"/>
+      <c r="I138" s="165"/>
+      <c r="J138" s="165"/>
+      <c r="K138" s="165"/>
       <c r="L138" s="62"/>
     </row>
     <row r="139" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="149"/>
-      <c r="C139" s="149"/>
-      <c r="D139" s="157"/>
-      <c r="E139" s="157"/>
-      <c r="F139" s="157"/>
-      <c r="G139" s="157"/>
-      <c r="H139" s="157"/>
-      <c r="I139" s="157"/>
-      <c r="J139" s="157"/>
-      <c r="K139" s="157"/>
+      <c r="B139" s="159"/>
+      <c r="C139" s="159"/>
+      <c r="D139" s="165"/>
+      <c r="E139" s="165"/>
+      <c r="F139" s="165"/>
+      <c r="G139" s="165"/>
+      <c r="H139" s="165"/>
+      <c r="I139" s="165"/>
+      <c r="J139" s="165"/>
+      <c r="K139" s="165"/>
       <c r="L139" s="62"/>
     </row>
     <row r="140" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="149"/>
-      <c r="C140" s="149"/>
-      <c r="D140" s="157"/>
-      <c r="E140" s="157"/>
-      <c r="F140" s="157"/>
-      <c r="G140" s="157"/>
-      <c r="H140" s="157"/>
-      <c r="I140" s="157"/>
-      <c r="J140" s="157"/>
-      <c r="K140" s="157"/>
+      <c r="B140" s="159"/>
+      <c r="C140" s="159"/>
+      <c r="D140" s="165"/>
+      <c r="E140" s="165"/>
+      <c r="F140" s="165"/>
+      <c r="G140" s="165"/>
+      <c r="H140" s="165"/>
+      <c r="I140" s="165"/>
+      <c r="J140" s="165"/>
+      <c r="K140" s="165"/>
       <c r="L140" s="63"/>
     </row>
     <row r="141" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="149"/>
-      <c r="C141" s="149"/>
-      <c r="D141" s="157"/>
-      <c r="E141" s="157"/>
-      <c r="F141" s="157"/>
-      <c r="G141" s="157"/>
-      <c r="H141" s="157"/>
-      <c r="I141" s="157"/>
-      <c r="J141" s="157"/>
-      <c r="K141" s="157"/>
+      <c r="B141" s="159"/>
+      <c r="C141" s="159"/>
+      <c r="D141" s="165"/>
+      <c r="E141" s="165"/>
+      <c r="F141" s="165"/>
+      <c r="G141" s="165"/>
+      <c r="H141" s="165"/>
+      <c r="I141" s="165"/>
+      <c r="J141" s="165"/>
+      <c r="K141" s="165"/>
       <c r="L141" s="63"/>
     </row>
     <row r="142" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="149" t="s">
+      <c r="B142" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="C142" s="149"/>
-      <c r="D142" s="158" t="str">
+      <c r="C142" s="159"/>
+      <c r="D142" s="166" t="str">
         <f>記入!B55</f>
         <v>${cv.subcontract}</v>
       </c>
-      <c r="E142" s="159"/>
-      <c r="F142" s="159"/>
-      <c r="G142" s="159"/>
-      <c r="H142" s="159"/>
-      <c r="I142" s="159"/>
-      <c r="J142" s="159"/>
-      <c r="K142" s="160"/>
+      <c r="E142" s="167"/>
+      <c r="F142" s="167"/>
+      <c r="G142" s="167"/>
+      <c r="H142" s="167"/>
+      <c r="I142" s="167"/>
+      <c r="J142" s="167"/>
+      <c r="K142" s="168"/>
       <c r="L142" s="62"/>
     </row>
     <row r="143" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="149"/>
-      <c r="C143" s="149"/>
-      <c r="D143" s="156" t="str">
+      <c r="B143" s="159"/>
+      <c r="C143" s="159"/>
+      <c r="D143" s="164" t="str">
         <f>記入!B56</f>
         <v>再委托公司：
 ${cv.subcontractcontent}</v>
       </c>
-      <c r="E143" s="157"/>
-      <c r="F143" s="157"/>
-      <c r="G143" s="157"/>
-      <c r="H143" s="157"/>
-      <c r="I143" s="157"/>
-      <c r="J143" s="157"/>
-      <c r="K143" s="157"/>
+      <c r="E143" s="165"/>
+      <c r="F143" s="165"/>
+      <c r="G143" s="165"/>
+      <c r="H143" s="165"/>
+      <c r="I143" s="165"/>
+      <c r="J143" s="165"/>
+      <c r="K143" s="165"/>
       <c r="L143" s="64"/>
     </row>
     <row r="144" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="149"/>
-      <c r="C144" s="149"/>
-      <c r="D144" s="157"/>
-      <c r="E144" s="157"/>
-      <c r="F144" s="157"/>
-      <c r="G144" s="157"/>
-      <c r="H144" s="157"/>
-      <c r="I144" s="157"/>
-      <c r="J144" s="157"/>
-      <c r="K144" s="157"/>
+      <c r="B144" s="159"/>
+      <c r="C144" s="159"/>
+      <c r="D144" s="165"/>
+      <c r="E144" s="165"/>
+      <c r="F144" s="165"/>
+      <c r="G144" s="165"/>
+      <c r="H144" s="165"/>
+      <c r="I144" s="165"/>
+      <c r="J144" s="165"/>
+      <c r="K144" s="165"/>
       <c r="L144" s="64"/>
     </row>
     <row r="145" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="149"/>
-      <c r="C145" s="149"/>
-      <c r="D145" s="157"/>
-      <c r="E145" s="157"/>
-      <c r="F145" s="157"/>
-      <c r="G145" s="157"/>
-      <c r="H145" s="157"/>
-      <c r="I145" s="157"/>
-      <c r="J145" s="157"/>
-      <c r="K145" s="157"/>
+      <c r="B145" s="159"/>
+      <c r="C145" s="159"/>
+      <c r="D145" s="165"/>
+      <c r="E145" s="165"/>
+      <c r="F145" s="165"/>
+      <c r="G145" s="165"/>
+      <c r="H145" s="165"/>
+      <c r="I145" s="165"/>
+      <c r="J145" s="165"/>
+      <c r="K145" s="165"/>
       <c r="L145" s="64"/>
     </row>
     <row r="146" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="149"/>
-      <c r="C146" s="149"/>
-      <c r="D146" s="157"/>
-      <c r="E146" s="157"/>
-      <c r="F146" s="157"/>
-      <c r="G146" s="157"/>
-      <c r="H146" s="157"/>
-      <c r="I146" s="157"/>
-      <c r="J146" s="157"/>
-      <c r="K146" s="157"/>
+      <c r="B146" s="159"/>
+      <c r="C146" s="159"/>
+      <c r="D146" s="165"/>
+      <c r="E146" s="165"/>
+      <c r="F146" s="165"/>
+      <c r="G146" s="165"/>
+      <c r="H146" s="165"/>
+      <c r="I146" s="165"/>
+      <c r="J146" s="165"/>
+      <c r="K146" s="165"/>
       <c r="L146" s="64"/>
     </row>
     <row r="147" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7277,198 +7257,202 @@
       <c r="L148" s="63"/>
     </row>
     <row r="149" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="149" t="s">
+      <c r="B149" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="C149" s="149"/>
-      <c r="D149" s="150" t="s">
+      <c r="C149" s="159"/>
+      <c r="D149" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="E149" s="150"/>
-      <c r="F149" s="150" t="s">
+      <c r="E149" s="169"/>
+      <c r="F149" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="G149" s="150"/>
-      <c r="H149" s="150" t="s">
+      <c r="G149" s="169"/>
+      <c r="H149" s="169" t="s">
         <v>110</v>
       </c>
-      <c r="I149" s="150"/>
-      <c r="J149" s="150" t="s">
+      <c r="I149" s="169"/>
+      <c r="J149" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="K149" s="150"/>
+      <c r="K149" s="169"/>
       <c r="L149" s="63"/>
     </row>
     <row r="150" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="149" t="s">
+      <c r="B150" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="C150" s="149"/>
-      <c r="D150" s="132" t="s">
+      <c r="C150" s="159"/>
+      <c r="D150" s="140" t="s">
         <v>179</v>
       </c>
-      <c r="E150" s="133"/>
-      <c r="F150" s="132" t="s">
+      <c r="E150" s="132"/>
+      <c r="F150" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="G150" s="133"/>
-      <c r="H150" s="132" t="s">
+      <c r="G150" s="132"/>
+      <c r="H150" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="I150" s="133"/>
-      <c r="J150" s="132" t="s">
+      <c r="I150" s="132"/>
+      <c r="J150" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="K150" s="133"/>
+      <c r="K150" s="132"/>
       <c r="L150" s="64"/>
     </row>
     <row r="151" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="149" t="s">
+      <c r="B151" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="C151" s="149"/>
-      <c r="D151" s="132" t="s">
+      <c r="C151" s="159"/>
+      <c r="D151" s="140" t="s">
         <v>183</v>
       </c>
-      <c r="E151" s="133"/>
-      <c r="F151" s="132" t="s">
+      <c r="E151" s="132"/>
+      <c r="F151" s="140" t="s">
         <v>184</v>
       </c>
-      <c r="G151" s="133"/>
-      <c r="H151" s="132" t="s">
+      <c r="G151" s="132"/>
+      <c r="H151" s="140" t="s">
         <v>185</v>
       </c>
-      <c r="I151" s="133"/>
-      <c r="J151" s="132" t="s">
+      <c r="I151" s="132"/>
+      <c r="J151" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="K151" s="133"/>
+      <c r="K151" s="132"/>
       <c r="L151" s="62"/>
     </row>
     <row r="152" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="149" t="s">
+      <c r="B152" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="C152" s="149"/>
-      <c r="D152" s="137" t="s">
+      <c r="C152" s="159"/>
+      <c r="D152" s="142" t="s">
         <v>187</v>
       </c>
-      <c r="E152" s="136"/>
-      <c r="F152" s="132" t="s">
+      <c r="E152" s="143"/>
+      <c r="F152" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G152" s="133"/>
-      <c r="H152" s="132" t="s">
+      <c r="G152" s="132"/>
+      <c r="H152" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="I152" s="133"/>
-      <c r="J152" s="132" t="s">
+      <c r="I152" s="132"/>
+      <c r="J152" s="140" t="s">
         <v>190</v>
       </c>
-      <c r="K152" s="133"/>
+      <c r="K152" s="132"/>
       <c r="L152" s="62"/>
     </row>
     <row r="153" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="149" t="s">
+      <c r="B153" s="159" t="s">
         <v>115</v>
       </c>
-      <c r="C153" s="149"/>
-      <c r="D153" s="137" t="s">
+      <c r="C153" s="159"/>
+      <c r="D153" s="142" t="s">
         <v>191</v>
       </c>
-      <c r="E153" s="136"/>
-      <c r="F153" s="132" t="s">
+      <c r="E153" s="143"/>
+      <c r="F153" s="140" t="s">
         <v>192</v>
       </c>
-      <c r="G153" s="133"/>
-      <c r="H153" s="132" t="s">
+      <c r="G153" s="132"/>
+      <c r="H153" s="140" t="s">
         <v>193</v>
       </c>
-      <c r="I153" s="133"/>
-      <c r="J153" s="132" t="s">
+      <c r="I153" s="132"/>
+      <c r="J153" s="140" t="s">
         <v>194</v>
       </c>
-      <c r="K153" s="133"/>
+      <c r="K153" s="132"/>
       <c r="L153" s="62"/>
     </row>
     <row r="154" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="149" t="s">
+      <c r="B154" s="159" t="s">
         <v>116</v>
       </c>
-      <c r="C154" s="149"/>
-      <c r="D154" s="138" t="s">
+      <c r="C154" s="159"/>
+      <c r="D154" s="145" t="s">
         <v>195</v>
       </c>
-      <c r="E154" s="136"/>
-      <c r="F154" s="134" t="s">
+      <c r="E154" s="143"/>
+      <c r="F154" s="144" t="s">
         <v>196</v>
       </c>
-      <c r="G154" s="133"/>
-      <c r="H154" s="134" t="s">
+      <c r="G154" s="132"/>
+      <c r="H154" s="144" t="s">
         <v>197</v>
       </c>
-      <c r="I154" s="133"/>
-      <c r="J154" s="134" t="s">
+      <c r="I154" s="132"/>
+      <c r="J154" s="144" t="s">
         <v>198</v>
       </c>
-      <c r="K154" s="133"/>
+      <c r="K154" s="132"/>
       <c r="L154" s="62"/>
     </row>
     <row r="155" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="149" t="s">
+      <c r="B155" s="159" t="s">
         <v>117</v>
       </c>
-      <c r="C155" s="149"/>
-      <c r="D155" s="136" t="s">
-        <v>199</v>
-      </c>
-      <c r="E155" s="136"/>
-      <c r="F155" s="133" t="s">
-        <v>200</v>
-      </c>
-      <c r="G155" s="133"/>
-      <c r="H155" s="133" t="s">
-        <v>203</v>
-      </c>
-      <c r="I155" s="133"/>
-      <c r="J155" s="133" t="s">
-        <v>204</v>
-      </c>
-      <c r="K155" s="133"/>
+      <c r="C155" s="159"/>
+      <c r="D155" s="143" t="str">
+        <f>IF(記入!B29="","-",記入!B12)</f>
+        <v>${cv.contractnumber}</v>
+      </c>
+      <c r="E155" s="143"/>
+      <c r="F155" s="132" t="str">
+        <f>IF(記入!B29="","-",記入!B12)</f>
+        <v>${cv.contractnumber}</v>
+      </c>
+      <c r="G155" s="132"/>
+      <c r="H155" s="132" t="str">
+        <f>IF(記入!B29="","-",記入!B12)</f>
+        <v>${cv.contractnumber}</v>
+      </c>
+      <c r="I155" s="132"/>
+      <c r="J155" s="132" t="str">
+        <f>IF(記入!B29="","-",記入!B12)</f>
+        <v>${cv.contractnumber}</v>
+      </c>
+      <c r="K155" s="132"/>
       <c r="L155" s="62"/>
     </row>
     <row r="156" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="149" t="s">
+      <c r="B156" s="159" t="s">
         <v>91</v>
       </c>
-      <c r="C156" s="149"/>
-      <c r="D156" s="150" t="s">
+      <c r="C156" s="159"/>
+      <c r="D156" s="169" t="s">
         <v>119</v>
       </c>
-      <c r="E156" s="150"/>
-      <c r="F156" s="150"/>
-      <c r="G156" s="150"/>
-      <c r="H156" s="150"/>
-      <c r="I156" s="150"/>
-      <c r="J156" s="150"/>
-      <c r="K156" s="150"/>
+      <c r="E156" s="169"/>
+      <c r="F156" s="169"/>
+      <c r="G156" s="169"/>
+      <c r="H156" s="169"/>
+      <c r="I156" s="169"/>
+      <c r="J156" s="169"/>
+      <c r="K156" s="169"/>
       <c r="L156" s="63"/>
     </row>
     <row r="157" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="149" t="s">
+      <c r="B157" s="159" t="s">
         <v>118</v>
       </c>
-      <c r="C157" s="149"/>
-      <c r="D157" s="150" t="s">
+      <c r="C157" s="159"/>
+      <c r="D157" s="169" t="s">
         <v>120</v>
       </c>
-      <c r="E157" s="150"/>
-      <c r="F157" s="150"/>
-      <c r="G157" s="150"/>
-      <c r="H157" s="150"/>
-      <c r="I157" s="150"/>
-      <c r="J157" s="150"/>
-      <c r="K157" s="150"/>
+      <c r="E157" s="169"/>
+      <c r="F157" s="169"/>
+      <c r="G157" s="169"/>
+      <c r="H157" s="169"/>
+      <c r="I157" s="169"/>
+      <c r="J157" s="169"/>
+      <c r="K157" s="169"/>
       <c r="L157" s="63"/>
     </row>
     <row r="158" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7500,60 +7484,60 @@
       <c r="L159" s="64"/>
     </row>
     <row r="160" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="151" t="s">
+      <c r="B160" s="170" t="s">
         <v>122</v>
       </c>
-      <c r="C160" s="151"/>
-      <c r="D160" s="151" t="str">
+      <c r="C160" s="170"/>
+      <c r="D160" s="170" t="str">
         <f>記入!B63</f>
         <v>${cv.othertermschinese}</v>
       </c>
-      <c r="E160" s="151"/>
-      <c r="F160" s="151"/>
-      <c r="G160" s="151"/>
-      <c r="H160" s="151"/>
-      <c r="I160" s="151"/>
-      <c r="J160" s="151"/>
-      <c r="K160" s="151"/>
+      <c r="E160" s="170"/>
+      <c r="F160" s="170"/>
+      <c r="G160" s="170"/>
+      <c r="H160" s="170"/>
+      <c r="I160" s="170"/>
+      <c r="J160" s="170"/>
+      <c r="K160" s="170"/>
       <c r="L160" s="64"/>
     </row>
     <row r="161" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="152"/>
-      <c r="C161" s="152"/>
-      <c r="D161" s="152"/>
-      <c r="E161" s="152"/>
-      <c r="F161" s="152"/>
-      <c r="G161" s="152"/>
-      <c r="H161" s="152"/>
-      <c r="I161" s="152"/>
-      <c r="J161" s="152"/>
-      <c r="K161" s="152"/>
+      <c r="B161" s="171"/>
+      <c r="C161" s="171"/>
+      <c r="D161" s="171"/>
+      <c r="E161" s="171"/>
+      <c r="F161" s="171"/>
+      <c r="G161" s="171"/>
+      <c r="H161" s="171"/>
+      <c r="I161" s="171"/>
+      <c r="J161" s="171"/>
+      <c r="K161" s="171"/>
       <c r="L161" s="64"/>
     </row>
     <row r="162" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="152"/>
-      <c r="C162" s="152"/>
-      <c r="D162" s="152"/>
-      <c r="E162" s="152"/>
-      <c r="F162" s="152"/>
-      <c r="G162" s="152"/>
-      <c r="H162" s="152"/>
-      <c r="I162" s="152"/>
-      <c r="J162" s="152"/>
-      <c r="K162" s="152"/>
+      <c r="B162" s="171"/>
+      <c r="C162" s="171"/>
+      <c r="D162" s="171"/>
+      <c r="E162" s="171"/>
+      <c r="F162" s="171"/>
+      <c r="G162" s="171"/>
+      <c r="H162" s="171"/>
+      <c r="I162" s="171"/>
+      <c r="J162" s="171"/>
+      <c r="K162" s="171"/>
       <c r="L162" s="62"/>
     </row>
     <row r="163" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="153"/>
-      <c r="C163" s="153"/>
-      <c r="D163" s="153"/>
-      <c r="E163" s="153"/>
-      <c r="F163" s="153"/>
-      <c r="G163" s="153"/>
-      <c r="H163" s="153"/>
-      <c r="I163" s="153"/>
-      <c r="J163" s="153"/>
-      <c r="K163" s="153"/>
+      <c r="B163" s="172"/>
+      <c r="C163" s="172"/>
+      <c r="D163" s="172"/>
+      <c r="E163" s="172"/>
+      <c r="F163" s="172"/>
+      <c r="G163" s="172"/>
+      <c r="H163" s="172"/>
+      <c r="I163" s="172"/>
+      <c r="J163" s="172"/>
+      <c r="K163" s="172"/>
       <c r="L163" s="64"/>
     </row>
     <row r="164" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7784,6 +7768,60 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:K156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:K157"/>
+    <mergeCell ref="B160:C163"/>
+    <mergeCell ref="D160:K163"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="D134:K134"/>
+    <mergeCell ref="B135:C141"/>
+    <mergeCell ref="D135:K141"/>
+    <mergeCell ref="B142:C146"/>
+    <mergeCell ref="D142:K142"/>
+    <mergeCell ref="D143:K146"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="D131:K131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="D132:K132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:K133"/>
     <mergeCell ref="K127:L127"/>
     <mergeCell ref="B60:L71"/>
     <mergeCell ref="K2:L2"/>
@@ -7791,60 +7829,6 @@
     <mergeCell ref="B11:L57"/>
     <mergeCell ref="K59:L59"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="D131:K131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="D132:K132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="D133:K133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="D134:K134"/>
-    <mergeCell ref="B135:C141"/>
-    <mergeCell ref="D135:K141"/>
-    <mergeCell ref="B142:C146"/>
-    <mergeCell ref="D142:K142"/>
-    <mergeCell ref="D143:K146"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:K156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D157:K157"/>
-    <mergeCell ref="B160:C163"/>
-    <mergeCell ref="D160:K163"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570" activeTab="2"/>
+    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="200">
   <si>
     <t>委託元（和文）</t>
     <rPh sb="4" eb="6">
@@ -1497,6 +1497,10 @@
   </si>
   <si>
     <t>${ba1[3].claimamount}</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>${cv.depositjapanese}</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2187,6 +2191,111 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2217,114 +2326,66 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2340,62 +2401,47 @@
     <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2420,48 +2466,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2777,7 +2781,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:F43"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2794,14 +2798,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="G1" s="82" t="s">
+      <c r="B1" s="116"/>
+      <c r="G1" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="83"/>
+      <c r="H1" s="118"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="36" t="s">
@@ -2814,8 +2818,8 @@
         <v>15</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="120"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="37" t="s">
@@ -2825,8 +2829,8 @@
       <c r="C3" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="36" t="s">
@@ -2838,8 +2842,8 @@
       <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="120"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="36" t="s">
@@ -2849,8 +2853,8 @@
       <c r="C5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="85"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="38" t="s">
@@ -2862,8 +2866,8 @@
       <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="84"/>
-      <c r="H6" s="85"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="120"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="38" t="s">
@@ -2875,8 +2879,8 @@
       <c r="C7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="85"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="120"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="36" t="s">
@@ -2886,8 +2890,8 @@
       <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="85"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="120"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="37" t="s">
@@ -2899,8 +2903,8 @@
       <c r="C9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
+      <c r="G9" s="119"/>
+      <c r="H9" s="120"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="36" t="s">
@@ -2912,8 +2916,8 @@
       <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="85"/>
+      <c r="G10" s="119"/>
+      <c r="H10" s="120"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="36" t="s">
@@ -2925,8 +2929,8 @@
       <c r="C11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="85"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="36" t="s">
@@ -2938,8 +2942,8 @@
       <c r="C12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
+      <c r="G12" s="119"/>
+      <c r="H12" s="120"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="36" t="s">
@@ -2949,8 +2953,8 @@
       <c r="C13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="85"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="120"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="36" t="s">
@@ -2962,8 +2966,8 @@
       <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="36" t="s">
@@ -2975,8 +2979,8 @@
       <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="85"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="120"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="36" t="s">
@@ -2986,8 +2990,8 @@
       <c r="C16" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="85"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="120"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="36" t="s">
@@ -2997,8 +3001,8 @@
       <c r="C17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="85"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="120"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="36" t="s">
@@ -3008,8 +3012,8 @@
       <c r="C18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="85"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="120"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="36" t="s">
@@ -3021,8 +3025,8 @@
       <c r="C19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="84"/>
-      <c r="H19" s="85"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="36" t="s">
@@ -3034,8 +3038,8 @@
       <c r="C20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="85"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="120"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="36" t="s">
@@ -3045,8 +3049,8 @@
       <c r="C21" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="84"/>
-      <c r="H21" s="85"/>
+      <c r="G21" s="119"/>
+      <c r="H21" s="120"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="36" t="s">
@@ -3056,8 +3060,8 @@
       <c r="C22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="84"/>
-      <c r="H22" s="85"/>
+      <c r="G22" s="119"/>
+      <c r="H22" s="120"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="37" t="s">
@@ -3067,8 +3071,8 @@
       <c r="C23" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="84"/>
-      <c r="H23" s="85"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="120"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A24" s="37" t="s">
@@ -3078,8 +3082,8 @@
       <c r="C24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="120"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A25" s="37" t="s">
@@ -3091,8 +3095,8 @@
       <c r="C25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="84"/>
-      <c r="H25" s="85"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="120"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="37" t="s">
@@ -3104,14 +3108,14 @@
       <c r="C26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="84"/>
-      <c r="H26" s="85"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="120"/>
     </row>
     <row r="27" spans="1:8" ht="1.5" hidden="1" customHeight="1">
       <c r="A27" s="39"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="85"/>
+      <c r="G27" s="119"/>
+      <c r="H27" s="120"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="40" t="s">
@@ -3132,8 +3136,8 @@
       <c r="F28" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="84"/>
-      <c r="H28" s="85"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="120"/>
     </row>
     <row r="29" spans="1:8" ht="13.5">
       <c r="A29" s="76" t="str">
@@ -3155,8 +3159,8 @@
       <c r="F29" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="G29" s="86"/>
-      <c r="H29" s="85"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="120"/>
     </row>
     <row r="30" spans="1:8" ht="13.5">
       <c r="A30" s="76" t="str">
@@ -3242,14 +3246,14 @@
       <c r="B35" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="87" t="s">
+      <c r="C35" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="89" t="s">
+      <c r="D35" s="123"/>
+      <c r="E35" s="124" t="s">
         <v>142</v>
       </c>
-      <c r="F35" s="90"/>
+      <c r="F35" s="125"/>
     </row>
     <row r="36" spans="1:6" ht="13.5">
       <c r="A36" s="13" t="s">
@@ -3258,14 +3262,14 @@
       <c r="B36" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="87" t="s">
+      <c r="C36" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="88"/>
-      <c r="E36" s="89" t="s">
+      <c r="D36" s="123"/>
+      <c r="E36" s="124" t="s">
         <v>143</v>
       </c>
-      <c r="F36" s="90"/>
+      <c r="F36" s="125"/>
     </row>
     <row r="37" spans="1:6" ht="13.5">
       <c r="A37" s="56" t="s">
@@ -3278,259 +3282,265 @@
       <c r="D37" s="43"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A38" s="95" t="s">
+      <c r="A38" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="100" t="s">
+      <c r="B38" s="90" t="s">
         <v>144</v>
       </c>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101"/>
-      <c r="F38" s="102"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="92"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="96"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="104"/>
-      <c r="D39" s="104"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="105"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="95"/>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A40" s="96"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="105"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="94"/>
+      <c r="E40" s="94"/>
+      <c r="F40" s="95"/>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A41" s="96"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="105"/>
+      <c r="A41" s="86"/>
+      <c r="B41" s="93"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="94"/>
+      <c r="E41" s="94"/>
+      <c r="F41" s="95"/>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A42" s="96"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="105"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="93"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="95"/>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A43" s="97"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="107"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="108"/>
+      <c r="A43" s="87"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="98"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="123" t="s">
+      <c r="A44" s="113" t="s">
         <v>125</v>
       </c>
-      <c r="B44" s="121" t="s">
+      <c r="B44" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="C44" s="122"/>
-      <c r="D44" s="122"/>
-      <c r="E44" s="122"/>
-      <c r="F44" s="122"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
     </row>
     <row r="45" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A45" s="123"/>
-      <c r="B45" s="122"/>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="122"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
     </row>
     <row r="46" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A46" s="123"/>
-      <c r="B46" s="122"/>
-      <c r="C46" s="122"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
+      <c r="A46" s="113"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A47" s="123"/>
-      <c r="B47" s="122"/>
-      <c r="C47" s="122"/>
-      <c r="D47" s="122"/>
-      <c r="E47" s="122"/>
-      <c r="F47" s="122"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="112"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A48" s="123"/>
-      <c r="B48" s="122"/>
-      <c r="C48" s="122"/>
-      <c r="D48" s="122"/>
-      <c r="E48" s="122"/>
-      <c r="F48" s="122"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="112"/>
+      <c r="D48" s="112"/>
+      <c r="E48" s="112"/>
+      <c r="F48" s="112"/>
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A49" s="123"/>
-      <c r="B49" s="122"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="122"/>
-      <c r="E49" s="122"/>
-      <c r="F49" s="122"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="112"/>
+      <c r="D49" s="112"/>
+      <c r="E49" s="112"/>
+      <c r="F49" s="112"/>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A50" s="95" t="s">
+      <c r="A50" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="118" t="s">
+      <c r="B50" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="120"/>
+      <c r="C50" s="109"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="110"/>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A51" s="98"/>
-      <c r="B51" s="109" t="s">
+      <c r="A51" s="88"/>
+      <c r="B51" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="C51" s="110"/>
-      <c r="D51" s="110"/>
-      <c r="E51" s="110"/>
-      <c r="F51" s="111"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="101"/>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A52" s="98"/>
-      <c r="B52" s="112"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="114"/>
+      <c r="A52" s="88"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="104"/>
     </row>
     <row r="53" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A53" s="98"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="114"/>
+      <c r="A53" s="88"/>
+      <c r="B53" s="102"/>
+      <c r="C53" s="103"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="103"/>
+      <c r="F53" s="104"/>
     </row>
     <row r="54" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A54" s="99"/>
-      <c r="B54" s="115"/>
-      <c r="C54" s="116"/>
-      <c r="D54" s="116"/>
-      <c r="E54" s="116"/>
-      <c r="F54" s="117"/>
+      <c r="A54" s="89"/>
+      <c r="B54" s="105"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="107"/>
     </row>
     <row r="55" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A55" s="124" t="s">
+      <c r="A55" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="B55" s="118" t="s">
+      <c r="B55" s="108" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="119"/>
-      <c r="D55" s="119"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="120"/>
+      <c r="C55" s="109"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="110"/>
     </row>
     <row r="56" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A56" s="124"/>
-      <c r="B56" s="125" t="s">
+      <c r="A56" s="114"/>
+      <c r="B56" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="94"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
     </row>
     <row r="57" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A57" s="124"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
+      <c r="A57" s="114"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
     </row>
     <row r="58" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A58" s="124"/>
-      <c r="B58" s="94"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="94"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="124"/>
-      <c r="B59" s="94"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="94"/>
-      <c r="F59" s="94"/>
+      <c r="A59" s="114"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="91" t="s">
+      <c r="A60" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="93" t="s">
+      <c r="B60" s="83" t="s">
         <v>152</v>
       </c>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="94"/>
-      <c r="F60" s="94"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="91"/>
-      <c r="B61" s="94"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="94"/>
-      <c r="F61" s="94"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84"/>
+      <c r="F61" s="84"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="91"/>
-      <c r="B62" s="94"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="94"/>
+      <c r="A62" s="81"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="84"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="91" t="s">
+      <c r="A63" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="B63" s="93" t="s">
+      <c r="B63" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="94"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="92"/>
-      <c r="B64" s="94"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="94"/>
-      <c r="F64" s="94"/>
+      <c r="A64" s="82"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="92"/>
-      <c r="B65" s="94"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="94"/>
-      <c r="E65" s="94"/>
-      <c r="F65" s="94"/>
+      <c r="A65" s="82"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:H29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="B60:F62"/>
@@ -3545,12 +3555,6 @@
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="B55:F55"/>
     <mergeCell ref="B56:F59"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G1:H29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="2">
@@ -3572,8 +3576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L190"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A136" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156:K156"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3589,18 +3593,18 @@
       <c r="J2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="126" t="str">
+      <c r="K2" s="141" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="126"/>
+      <c r="L2" s="141"/>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="F3" s="127" t="s">
+      <c r="F3" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="127"/>
-      <c r="H3" s="127"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="17" t="s">
@@ -3628,9 +3632,8 @@
       <c r="B6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="25" t="str">
-        <f>記入!B2</f>
-        <v>${cv.depositjapanese}</v>
+      <c r="C6" s="25" t="s">
+        <v>199</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -3660,11 +3663,11 @@
         <v>67</v>
       </c>
       <c r="C8" s="44"/>
-      <c r="D8" s="131" t="str">
+      <c r="D8" s="150" t="str">
         <f>記入!B37</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E8" s="131"/>
+      <c r="E8" s="150"/>
       <c r="F8" s="45" t="s">
         <v>62</v>
       </c>
@@ -3704,617 +3707,617 @@
       <c r="L10" s="18"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="147"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="128"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="128"/>
+      <c r="B12" s="147"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="147"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="128"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="128"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="128"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="147"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="128"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
+      <c r="B14" s="147"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="147"/>
+      <c r="L14" s="147"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="128"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
-      <c r="K15" s="128"/>
-      <c r="L15" s="128"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="147"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="147"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="128"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
-      <c r="K16" s="128"/>
-      <c r="L16" s="128"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
-      <c r="K17" s="128"/>
-      <c r="L17" s="128"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="147"/>
+      <c r="L17" s="147"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
-      <c r="K18" s="128"/>
-      <c r="L18" s="128"/>
+      <c r="B18" s="147"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="128"/>
-      <c r="C19" s="128"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
-      <c r="K19" s="128"/>
-      <c r="L19" s="128"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="147"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="128"/>
-      <c r="C20" s="128"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="128"/>
-      <c r="K20" s="128"/>
-      <c r="L20" s="128"/>
+      <c r="B20" s="147"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="128"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
-      <c r="K21" s="128"/>
-      <c r="L21" s="128"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="147"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="128"/>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="128"/>
+      <c r="B22" s="147"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="147"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="128"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="128"/>
+      <c r="B23" s="147"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="147"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="128"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="128"/>
+      <c r="B24" s="147"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="147"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="128"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="128"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="128"/>
-      <c r="C26" s="128"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="128"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="147"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="128"/>
-      <c r="C27" s="128"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="147"/>
+      <c r="L27" s="147"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="128"/>
-      <c r="C28" s="128"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="147"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="128"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="128"/>
+      <c r="B29" s="147"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="147"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="128"/>
-      <c r="C30" s="128"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="147"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="128"/>
-      <c r="C31" s="128"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="128"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="147"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="128"/>
-      <c r="C32" s="128"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="128"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="128"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="128"/>
+      <c r="B33" s="147"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="147"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="128"/>
-      <c r="C34" s="128"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="128"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="128"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
+      <c r="K34" s="147"/>
+      <c r="L34" s="147"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="128"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="128"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="128"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="147"/>
+      <c r="L35" s="147"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="128"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="147"/>
+      <c r="K36" s="147"/>
+      <c r="L36" s="147"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="128"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="128"/>
-      <c r="K37" s="128"/>
-      <c r="L37" s="128"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="147"/>
+      <c r="D37" s="147"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="147"/>
+      <c r="K37" s="147"/>
+      <c r="L37" s="147"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="128"/>
-      <c r="C38" s="128"/>
-      <c r="D38" s="128"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="128"/>
-      <c r="K38" s="128"/>
-      <c r="L38" s="128"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="147"/>
+      <c r="D38" s="147"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="147"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="128"/>
-      <c r="C39" s="128"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="128"/>
-      <c r="K39" s="128"/>
-      <c r="L39" s="128"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="147"/>
+      <c r="D39" s="147"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="147"/>
+      <c r="K39" s="147"/>
+      <c r="L39" s="147"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="128"/>
-      <c r="L40" s="128"/>
+      <c r="B40" s="147"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
+      <c r="K40" s="147"/>
+      <c r="L40" s="147"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="128"/>
-      <c r="C41" s="128"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="128"/>
-      <c r="L41" s="128"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="147"/>
+      <c r="K41" s="147"/>
+      <c r="L41" s="147"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="128"/>
-      <c r="C42" s="128"/>
-      <c r="D42" s="128"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
-      <c r="K42" s="128"/>
-      <c r="L42" s="128"/>
+      <c r="B42" s="147"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="147"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="147"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
-      <c r="J43" s="128"/>
-      <c r="K43" s="128"/>
-      <c r="L43" s="128"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="147"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="147"/>
+      <c r="H43" s="147"/>
+      <c r="I43" s="147"/>
+      <c r="J43" s="147"/>
+      <c r="K43" s="147"/>
+      <c r="L43" s="147"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="128"/>
-      <c r="C44" s="128"/>
-      <c r="D44" s="128"/>
-      <c r="E44" s="128"/>
-      <c r="F44" s="128"/>
-      <c r="G44" s="128"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="128"/>
-      <c r="J44" s="128"/>
-      <c r="K44" s="128"/>
-      <c r="L44" s="128"/>
+      <c r="B44" s="147"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="147"/>
+      <c r="H44" s="147"/>
+      <c r="I44" s="147"/>
+      <c r="J44" s="147"/>
+      <c r="K44" s="147"/>
+      <c r="L44" s="147"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="128"/>
-      <c r="C45" s="128"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="128"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="128"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="128"/>
-      <c r="J45" s="128"/>
-      <c r="K45" s="128"/>
-      <c r="L45" s="128"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="147"/>
+      <c r="D45" s="147"/>
+      <c r="E45" s="147"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="147"/>
+      <c r="H45" s="147"/>
+      <c r="I45" s="147"/>
+      <c r="J45" s="147"/>
+      <c r="K45" s="147"/>
+      <c r="L45" s="147"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="128"/>
-      <c r="C46" s="128"/>
-      <c r="D46" s="128"/>
-      <c r="E46" s="128"/>
-      <c r="F46" s="128"/>
-      <c r="G46" s="128"/>
-      <c r="H46" s="128"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="128"/>
-      <c r="K46" s="128"/>
-      <c r="L46" s="128"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="147"/>
+      <c r="D46" s="147"/>
+      <c r="E46" s="147"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="147"/>
+      <c r="H46" s="147"/>
+      <c r="I46" s="147"/>
+      <c r="J46" s="147"/>
+      <c r="K46" s="147"/>
+      <c r="L46" s="147"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="128"/>
-      <c r="C47" s="128"/>
-      <c r="D47" s="128"/>
-      <c r="E47" s="128"/>
-      <c r="F47" s="128"/>
-      <c r="G47" s="128"/>
-      <c r="H47" s="128"/>
-      <c r="I47" s="128"/>
-      <c r="J47" s="128"/>
-      <c r="K47" s="128"/>
-      <c r="L47" s="128"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="147"/>
+      <c r="D47" s="147"/>
+      <c r="E47" s="147"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="147"/>
+      <c r="I47" s="147"/>
+      <c r="J47" s="147"/>
+      <c r="K47" s="147"/>
+      <c r="L47" s="147"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="128"/>
-      <c r="C48" s="128"/>
-      <c r="D48" s="128"/>
-      <c r="E48" s="128"/>
-      <c r="F48" s="128"/>
-      <c r="G48" s="128"/>
-      <c r="H48" s="128"/>
-      <c r="I48" s="128"/>
-      <c r="J48" s="128"/>
-      <c r="K48" s="128"/>
-      <c r="L48" s="128"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="147"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="147"/>
+      <c r="H48" s="147"/>
+      <c r="I48" s="147"/>
+      <c r="J48" s="147"/>
+      <c r="K48" s="147"/>
+      <c r="L48" s="147"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="128"/>
-      <c r="C49" s="128"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="128"/>
-      <c r="F49" s="128"/>
-      <c r="G49" s="128"/>
-      <c r="H49" s="128"/>
-      <c r="I49" s="128"/>
-      <c r="J49" s="128"/>
-      <c r="K49" s="128"/>
-      <c r="L49" s="128"/>
+      <c r="B49" s="147"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="147"/>
+      <c r="F49" s="147"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="147"/>
+      <c r="I49" s="147"/>
+      <c r="J49" s="147"/>
+      <c r="K49" s="147"/>
+      <c r="L49" s="147"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="128"/>
-      <c r="C50" s="128"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="128"/>
-      <c r="F50" s="128"/>
-      <c r="G50" s="128"/>
-      <c r="H50" s="128"/>
-      <c r="I50" s="128"/>
-      <c r="J50" s="128"/>
-      <c r="K50" s="128"/>
-      <c r="L50" s="128"/>
+      <c r="B50" s="147"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="147"/>
+      <c r="F50" s="147"/>
+      <c r="G50" s="147"/>
+      <c r="H50" s="147"/>
+      <c r="I50" s="147"/>
+      <c r="J50" s="147"/>
+      <c r="K50" s="147"/>
+      <c r="L50" s="147"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="128"/>
-      <c r="C51" s="128"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="128"/>
-      <c r="F51" s="128"/>
-      <c r="G51" s="128"/>
-      <c r="H51" s="128"/>
-      <c r="I51" s="128"/>
-      <c r="J51" s="128"/>
-      <c r="K51" s="128"/>
-      <c r="L51" s="128"/>
+      <c r="B51" s="147"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="147"/>
+      <c r="I51" s="147"/>
+      <c r="J51" s="147"/>
+      <c r="K51" s="147"/>
+      <c r="L51" s="147"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="128"/>
-      <c r="C52" s="128"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="128"/>
-      <c r="F52" s="128"/>
-      <c r="G52" s="128"/>
-      <c r="H52" s="128"/>
-      <c r="I52" s="128"/>
-      <c r="J52" s="128"/>
-      <c r="K52" s="128"/>
-      <c r="L52" s="128"/>
+      <c r="B52" s="147"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="147"/>
+      <c r="F52" s="147"/>
+      <c r="G52" s="147"/>
+      <c r="H52" s="147"/>
+      <c r="I52" s="147"/>
+      <c r="J52" s="147"/>
+      <c r="K52" s="147"/>
+      <c r="L52" s="147"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="128"/>
-      <c r="C53" s="128"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="128"/>
-      <c r="F53" s="128"/>
-      <c r="G53" s="128"/>
-      <c r="H53" s="128"/>
-      <c r="I53" s="128"/>
-      <c r="J53" s="128"/>
-      <c r="K53" s="128"/>
-      <c r="L53" s="128"/>
+      <c r="B53" s="147"/>
+      <c r="C53" s="147"/>
+      <c r="D53" s="147"/>
+      <c r="E53" s="147"/>
+      <c r="F53" s="147"/>
+      <c r="G53" s="147"/>
+      <c r="H53" s="147"/>
+      <c r="I53" s="147"/>
+      <c r="J53" s="147"/>
+      <c r="K53" s="147"/>
+      <c r="L53" s="147"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="128"/>
-      <c r="C54" s="128"/>
-      <c r="D54" s="128"/>
-      <c r="E54" s="128"/>
-      <c r="F54" s="128"/>
-      <c r="G54" s="128"/>
-      <c r="H54" s="128"/>
-      <c r="I54" s="128"/>
-      <c r="J54" s="128"/>
-      <c r="K54" s="128"/>
-      <c r="L54" s="128"/>
+      <c r="B54" s="147"/>
+      <c r="C54" s="147"/>
+      <c r="D54" s="147"/>
+      <c r="E54" s="147"/>
+      <c r="F54" s="147"/>
+      <c r="G54" s="147"/>
+      <c r="H54" s="147"/>
+      <c r="I54" s="147"/>
+      <c r="J54" s="147"/>
+      <c r="K54" s="147"/>
+      <c r="L54" s="147"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="128"/>
-      <c r="C55" s="128"/>
-      <c r="D55" s="128"/>
-      <c r="E55" s="128"/>
-      <c r="F55" s="128"/>
-      <c r="G55" s="128"/>
-      <c r="H55" s="128"/>
-      <c r="I55" s="128"/>
-      <c r="J55" s="128"/>
-      <c r="K55" s="128"/>
-      <c r="L55" s="128"/>
+      <c r="B55" s="147"/>
+      <c r="C55" s="147"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="147"/>
+      <c r="F55" s="147"/>
+      <c r="G55" s="147"/>
+      <c r="H55" s="147"/>
+      <c r="I55" s="147"/>
+      <c r="J55" s="147"/>
+      <c r="K55" s="147"/>
+      <c r="L55" s="147"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="128"/>
-      <c r="C56" s="128"/>
-      <c r="D56" s="128"/>
-      <c r="E56" s="128"/>
-      <c r="F56" s="128"/>
-      <c r="G56" s="128"/>
-      <c r="H56" s="128"/>
-      <c r="I56" s="128"/>
-      <c r="J56" s="128"/>
-      <c r="K56" s="128"/>
-      <c r="L56" s="128"/>
+      <c r="B56" s="147"/>
+      <c r="C56" s="147"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="147"/>
+      <c r="F56" s="147"/>
+      <c r="G56" s="147"/>
+      <c r="H56" s="147"/>
+      <c r="I56" s="147"/>
+      <c r="J56" s="147"/>
+      <c r="K56" s="147"/>
+      <c r="L56" s="147"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="128"/>
-      <c r="C57" s="128"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="128"/>
-      <c r="F57" s="128"/>
-      <c r="G57" s="128"/>
-      <c r="H57" s="128"/>
-      <c r="I57" s="128"/>
-      <c r="J57" s="128"/>
-      <c r="K57" s="128"/>
-      <c r="L57" s="128"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="147"/>
+      <c r="D57" s="147"/>
+      <c r="E57" s="147"/>
+      <c r="F57" s="147"/>
+      <c r="G57" s="147"/>
+      <c r="H57" s="147"/>
+      <c r="I57" s="147"/>
+      <c r="J57" s="147"/>
+      <c r="K57" s="147"/>
+      <c r="L57" s="147"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
       <c r="B58" s="20"/>
@@ -4333,169 +4336,169 @@
       <c r="J59" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K59" s="126" t="str">
+      <c r="K59" s="141" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L59" s="126"/>
+      <c r="L59" s="141"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="129" t="s">
+      <c r="B60" s="148" t="s">
         <v>46</v>
       </c>
-      <c r="C60" s="130"/>
-      <c r="D60" s="130"/>
-      <c r="E60" s="130"/>
-      <c r="F60" s="130"/>
-      <c r="G60" s="130"/>
-      <c r="H60" s="130"/>
-      <c r="I60" s="130"/>
-      <c r="J60" s="130"/>
-      <c r="K60" s="130"/>
-      <c r="L60" s="130"/>
+      <c r="C60" s="149"/>
+      <c r="D60" s="149"/>
+      <c r="E60" s="149"/>
+      <c r="F60" s="149"/>
+      <c r="G60" s="149"/>
+      <c r="H60" s="149"/>
+      <c r="I60" s="149"/>
+      <c r="J60" s="149"/>
+      <c r="K60" s="149"/>
+      <c r="L60" s="149"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="130"/>
-      <c r="C61" s="130"/>
-      <c r="D61" s="130"/>
-      <c r="E61" s="130"/>
-      <c r="F61" s="130"/>
-      <c r="G61" s="130"/>
-      <c r="H61" s="130"/>
-      <c r="I61" s="130"/>
-      <c r="J61" s="130"/>
-      <c r="K61" s="130"/>
-      <c r="L61" s="130"/>
+      <c r="B61" s="149"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="149"/>
+      <c r="E61" s="149"/>
+      <c r="F61" s="149"/>
+      <c r="G61" s="149"/>
+      <c r="H61" s="149"/>
+      <c r="I61" s="149"/>
+      <c r="J61" s="149"/>
+      <c r="K61" s="149"/>
+      <c r="L61" s="149"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="130"/>
-      <c r="C62" s="130"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="130"/>
-      <c r="H62" s="130"/>
-      <c r="I62" s="130"/>
-      <c r="J62" s="130"/>
-      <c r="K62" s="130"/>
-      <c r="L62" s="130"/>
+      <c r="B62" s="149"/>
+      <c r="C62" s="149"/>
+      <c r="D62" s="149"/>
+      <c r="E62" s="149"/>
+      <c r="F62" s="149"/>
+      <c r="G62" s="149"/>
+      <c r="H62" s="149"/>
+      <c r="I62" s="149"/>
+      <c r="J62" s="149"/>
+      <c r="K62" s="149"/>
+      <c r="L62" s="149"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="130"/>
-      <c r="C63" s="130"/>
-      <c r="D63" s="130"/>
-      <c r="E63" s="130"/>
-      <c r="F63" s="130"/>
-      <c r="G63" s="130"/>
-      <c r="H63" s="130"/>
-      <c r="I63" s="130"/>
-      <c r="J63" s="130"/>
-      <c r="K63" s="130"/>
-      <c r="L63" s="130"/>
+      <c r="B63" s="149"/>
+      <c r="C63" s="149"/>
+      <c r="D63" s="149"/>
+      <c r="E63" s="149"/>
+      <c r="F63" s="149"/>
+      <c r="G63" s="149"/>
+      <c r="H63" s="149"/>
+      <c r="I63" s="149"/>
+      <c r="J63" s="149"/>
+      <c r="K63" s="149"/>
+      <c r="L63" s="149"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="130"/>
-      <c r="C64" s="130"/>
-      <c r="D64" s="130"/>
-      <c r="E64" s="130"/>
-      <c r="F64" s="130"/>
-      <c r="G64" s="130"/>
-      <c r="H64" s="130"/>
-      <c r="I64" s="130"/>
-      <c r="J64" s="130"/>
-      <c r="K64" s="130"/>
-      <c r="L64" s="130"/>
+      <c r="B64" s="149"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="149"/>
+      <c r="E64" s="149"/>
+      <c r="F64" s="149"/>
+      <c r="G64" s="149"/>
+      <c r="H64" s="149"/>
+      <c r="I64" s="149"/>
+      <c r="J64" s="149"/>
+      <c r="K64" s="149"/>
+      <c r="L64" s="149"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="130"/>
-      <c r="C65" s="130"/>
-      <c r="D65" s="130"/>
-      <c r="E65" s="130"/>
-      <c r="F65" s="130"/>
-      <c r="G65" s="130"/>
-      <c r="H65" s="130"/>
-      <c r="I65" s="130"/>
-      <c r="J65" s="130"/>
-      <c r="K65" s="130"/>
-      <c r="L65" s="130"/>
+      <c r="B65" s="149"/>
+      <c r="C65" s="149"/>
+      <c r="D65" s="149"/>
+      <c r="E65" s="149"/>
+      <c r="F65" s="149"/>
+      <c r="G65" s="149"/>
+      <c r="H65" s="149"/>
+      <c r="I65" s="149"/>
+      <c r="J65" s="149"/>
+      <c r="K65" s="149"/>
+      <c r="L65" s="149"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="130"/>
-      <c r="C66" s="130"/>
-      <c r="D66" s="130"/>
-      <c r="E66" s="130"/>
-      <c r="F66" s="130"/>
-      <c r="G66" s="130"/>
-      <c r="H66" s="130"/>
-      <c r="I66" s="130"/>
-      <c r="J66" s="130"/>
-      <c r="K66" s="130"/>
-      <c r="L66" s="130"/>
+      <c r="B66" s="149"/>
+      <c r="C66" s="149"/>
+      <c r="D66" s="149"/>
+      <c r="E66" s="149"/>
+      <c r="F66" s="149"/>
+      <c r="G66" s="149"/>
+      <c r="H66" s="149"/>
+      <c r="I66" s="149"/>
+      <c r="J66" s="149"/>
+      <c r="K66" s="149"/>
+      <c r="L66" s="149"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="130"/>
-      <c r="C67" s="130"/>
-      <c r="D67" s="130"/>
-      <c r="E67" s="130"/>
-      <c r="F67" s="130"/>
-      <c r="G67" s="130"/>
-      <c r="H67" s="130"/>
-      <c r="I67" s="130"/>
-      <c r="J67" s="130"/>
-      <c r="K67" s="130"/>
-      <c r="L67" s="130"/>
+      <c r="B67" s="149"/>
+      <c r="C67" s="149"/>
+      <c r="D67" s="149"/>
+      <c r="E67" s="149"/>
+      <c r="F67" s="149"/>
+      <c r="G67" s="149"/>
+      <c r="H67" s="149"/>
+      <c r="I67" s="149"/>
+      <c r="J67" s="149"/>
+      <c r="K67" s="149"/>
+      <c r="L67" s="149"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="130"/>
-      <c r="C68" s="130"/>
-      <c r="D68" s="130"/>
-      <c r="E68" s="130"/>
-      <c r="F68" s="130"/>
-      <c r="G68" s="130"/>
-      <c r="H68" s="130"/>
-      <c r="I68" s="130"/>
-      <c r="J68" s="130"/>
-      <c r="K68" s="130"/>
-      <c r="L68" s="130"/>
+      <c r="B68" s="149"/>
+      <c r="C68" s="149"/>
+      <c r="D68" s="149"/>
+      <c r="E68" s="149"/>
+      <c r="F68" s="149"/>
+      <c r="G68" s="149"/>
+      <c r="H68" s="149"/>
+      <c r="I68" s="149"/>
+      <c r="J68" s="149"/>
+      <c r="K68" s="149"/>
+      <c r="L68" s="149"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="130"/>
-      <c r="C69" s="130"/>
-      <c r="D69" s="130"/>
-      <c r="E69" s="130"/>
-      <c r="F69" s="130"/>
-      <c r="G69" s="130"/>
-      <c r="H69" s="130"/>
-      <c r="I69" s="130"/>
-      <c r="J69" s="130"/>
-      <c r="K69" s="130"/>
-      <c r="L69" s="130"/>
+      <c r="B69" s="149"/>
+      <c r="C69" s="149"/>
+      <c r="D69" s="149"/>
+      <c r="E69" s="149"/>
+      <c r="F69" s="149"/>
+      <c r="G69" s="149"/>
+      <c r="H69" s="149"/>
+      <c r="I69" s="149"/>
+      <c r="J69" s="149"/>
+      <c r="K69" s="149"/>
+      <c r="L69" s="149"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="130"/>
-      <c r="C70" s="130"/>
-      <c r="D70" s="130"/>
-      <c r="E70" s="130"/>
-      <c r="F70" s="130"/>
-      <c r="G70" s="130"/>
-      <c r="H70" s="130"/>
-      <c r="I70" s="130"/>
-      <c r="J70" s="130"/>
-      <c r="K70" s="130"/>
-      <c r="L70" s="130"/>
+      <c r="B70" s="149"/>
+      <c r="C70" s="149"/>
+      <c r="D70" s="149"/>
+      <c r="E70" s="149"/>
+      <c r="F70" s="149"/>
+      <c r="G70" s="149"/>
+      <c r="H70" s="149"/>
+      <c r="I70" s="149"/>
+      <c r="J70" s="149"/>
+      <c r="K70" s="149"/>
+      <c r="L70" s="149"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="130"/>
-      <c r="C71" s="130"/>
-      <c r="D71" s="130"/>
-      <c r="E71" s="130"/>
-      <c r="F71" s="130"/>
-      <c r="G71" s="130"/>
-      <c r="H71" s="130"/>
-      <c r="I71" s="130"/>
-      <c r="J71" s="130"/>
-      <c r="K71" s="130"/>
-      <c r="L71" s="130"/>
+      <c r="B71" s="149"/>
+      <c r="C71" s="149"/>
+      <c r="D71" s="149"/>
+      <c r="E71" s="149"/>
+      <c r="F71" s="149"/>
+      <c r="G71" s="149"/>
+      <c r="H71" s="149"/>
+      <c r="I71" s="149"/>
+      <c r="J71" s="149"/>
+      <c r="K71" s="149"/>
+      <c r="L71" s="149"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
       <c r="B73" s="18" t="s">
@@ -4734,11 +4737,11 @@
       <c r="J127" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K127" s="126" t="str">
+      <c r="K127" s="141" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L127" s="126"/>
+      <c r="L127" s="141"/>
     </row>
     <row r="128" spans="2:12" ht="17.25">
       <c r="B128" s="50" t="s">
@@ -4784,245 +4787,245 @@
       <c r="L130" s="51"/>
     </row>
     <row r="131" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="133" t="s">
+      <c r="B131" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="C131" s="133"/>
-      <c r="D131" s="141" t="str">
+      <c r="C131" s="137"/>
+      <c r="D131" s="127" t="str">
         <f>記入!B10</f>
         <v>${cv.pjnamejapanese}</v>
       </c>
-      <c r="E131" s="141"/>
-      <c r="F131" s="141"/>
-      <c r="G131" s="141"/>
-      <c r="H131" s="141"/>
-      <c r="I131" s="141"/>
-      <c r="J131" s="141"/>
-      <c r="K131" s="141"/>
+      <c r="E131" s="127"/>
+      <c r="F131" s="127"/>
+      <c r="G131" s="127"/>
+      <c r="H131" s="127"/>
+      <c r="I131" s="127"/>
+      <c r="J131" s="127"/>
+      <c r="K131" s="127"/>
       <c r="L131" s="49"/>
     </row>
     <row r="132" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="133" t="s">
+      <c r="B132" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="C132" s="133"/>
-      <c r="D132" s="146" t="str">
+      <c r="C132" s="137"/>
+      <c r="D132" s="126" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E132" s="141"/>
-      <c r="F132" s="141"/>
-      <c r="G132" s="141"/>
-      <c r="H132" s="141"/>
-      <c r="I132" s="141"/>
-      <c r="J132" s="141"/>
-      <c r="K132" s="141"/>
+      <c r="E132" s="127"/>
+      <c r="F132" s="127"/>
+      <c r="G132" s="127"/>
+      <c r="H132" s="127"/>
+      <c r="I132" s="127"/>
+      <c r="J132" s="127"/>
+      <c r="K132" s="127"/>
       <c r="L132" s="49"/>
     </row>
     <row r="133" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B133" s="133" t="s">
+      <c r="B133" s="137" t="s">
         <v>75</v>
       </c>
-      <c r="C133" s="133"/>
-      <c r="D133" s="146" t="str">
+      <c r="C133" s="137"/>
+      <c r="D133" s="126" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E133" s="141"/>
-      <c r="F133" s="141"/>
-      <c r="G133" s="141"/>
-      <c r="H133" s="141"/>
-      <c r="I133" s="141"/>
-      <c r="J133" s="141"/>
-      <c r="K133" s="141"/>
+      <c r="E133" s="127"/>
+      <c r="F133" s="127"/>
+      <c r="G133" s="127"/>
+      <c r="H133" s="127"/>
+      <c r="I133" s="127"/>
+      <c r="J133" s="127"/>
+      <c r="K133" s="127"/>
       <c r="L133" s="49"/>
     </row>
     <row r="134" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="133" t="s">
+      <c r="B134" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="C134" s="133"/>
-      <c r="D134" s="147" t="str">
+      <c r="C134" s="137"/>
+      <c r="D134" s="128" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="E134" s="147"/>
-      <c r="F134" s="147"/>
-      <c r="G134" s="147"/>
-      <c r="H134" s="147"/>
-      <c r="I134" s="147"/>
-      <c r="J134" s="147"/>
-      <c r="K134" s="147"/>
+      <c r="E134" s="128"/>
+      <c r="F134" s="128"/>
+      <c r="G134" s="128"/>
+      <c r="H134" s="128"/>
+      <c r="I134" s="128"/>
+      <c r="J134" s="128"/>
+      <c r="K134" s="128"/>
       <c r="L134" s="49"/>
     </row>
     <row r="135" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="139" t="s">
+      <c r="B135" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="C135" s="133"/>
-      <c r="D135" s="137" t="str">
+      <c r="C135" s="137"/>
+      <c r="D135" s="129" t="str">
         <f>記入!B38</f>
         <v>${cv.technicalcontentjapanese}</v>
       </c>
-      <c r="E135" s="138"/>
-      <c r="F135" s="138"/>
-      <c r="G135" s="138"/>
-      <c r="H135" s="138"/>
-      <c r="I135" s="138"/>
-      <c r="J135" s="138"/>
-      <c r="K135" s="138"/>
+      <c r="E135" s="130"/>
+      <c r="F135" s="130"/>
+      <c r="G135" s="130"/>
+      <c r="H135" s="130"/>
+      <c r="I135" s="130"/>
+      <c r="J135" s="130"/>
+      <c r="K135" s="130"/>
       <c r="L135" s="49"/>
     </row>
     <row r="136" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="133"/>
-      <c r="C136" s="133"/>
-      <c r="D136" s="138"/>
-      <c r="E136" s="138"/>
-      <c r="F136" s="138"/>
-      <c r="G136" s="138"/>
-      <c r="H136" s="138"/>
-      <c r="I136" s="138"/>
-      <c r="J136" s="138"/>
-      <c r="K136" s="138"/>
+      <c r="B136" s="137"/>
+      <c r="C136" s="137"/>
+      <c r="D136" s="130"/>
+      <c r="E136" s="130"/>
+      <c r="F136" s="130"/>
+      <c r="G136" s="130"/>
+      <c r="H136" s="130"/>
+      <c r="I136" s="130"/>
+      <c r="J136" s="130"/>
+      <c r="K136" s="130"/>
       <c r="L136" s="49"/>
     </row>
     <row r="137" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="133"/>
-      <c r="C137" s="133"/>
-      <c r="D137" s="138"/>
-      <c r="E137" s="138"/>
-      <c r="F137" s="138"/>
-      <c r="G137" s="138"/>
-      <c r="H137" s="138"/>
-      <c r="I137" s="138"/>
-      <c r="J137" s="138"/>
-      <c r="K137" s="138"/>
+      <c r="B137" s="137"/>
+      <c r="C137" s="137"/>
+      <c r="D137" s="130"/>
+      <c r="E137" s="130"/>
+      <c r="F137" s="130"/>
+      <c r="G137" s="130"/>
+      <c r="H137" s="130"/>
+      <c r="I137" s="130"/>
+      <c r="J137" s="130"/>
+      <c r="K137" s="130"/>
       <c r="L137" s="49"/>
     </row>
     <row r="138" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="133"/>
-      <c r="C138" s="133"/>
-      <c r="D138" s="138"/>
-      <c r="E138" s="138"/>
-      <c r="F138" s="138"/>
-      <c r="G138" s="138"/>
-      <c r="H138" s="138"/>
-      <c r="I138" s="138"/>
-      <c r="J138" s="138"/>
-      <c r="K138" s="138"/>
+      <c r="B138" s="137"/>
+      <c r="C138" s="137"/>
+      <c r="D138" s="130"/>
+      <c r="E138" s="130"/>
+      <c r="F138" s="130"/>
+      <c r="G138" s="130"/>
+      <c r="H138" s="130"/>
+      <c r="I138" s="130"/>
+      <c r="J138" s="130"/>
+      <c r="K138" s="130"/>
       <c r="L138" s="49"/>
     </row>
     <row r="139" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="133"/>
-      <c r="C139" s="133"/>
-      <c r="D139" s="138"/>
-      <c r="E139" s="138"/>
-      <c r="F139" s="138"/>
-      <c r="G139" s="138"/>
-      <c r="H139" s="138"/>
-      <c r="I139" s="138"/>
-      <c r="J139" s="138"/>
-      <c r="K139" s="138"/>
+      <c r="B139" s="137"/>
+      <c r="C139" s="137"/>
+      <c r="D139" s="130"/>
+      <c r="E139" s="130"/>
+      <c r="F139" s="130"/>
+      <c r="G139" s="130"/>
+      <c r="H139" s="130"/>
+      <c r="I139" s="130"/>
+      <c r="J139" s="130"/>
+      <c r="K139" s="130"/>
       <c r="L139" s="49"/>
     </row>
     <row r="140" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="133"/>
-      <c r="C140" s="133"/>
-      <c r="D140" s="138"/>
-      <c r="E140" s="138"/>
-      <c r="F140" s="138"/>
-      <c r="G140" s="138"/>
-      <c r="H140" s="138"/>
-      <c r="I140" s="138"/>
-      <c r="J140" s="138"/>
-      <c r="K140" s="138"/>
+      <c r="B140" s="137"/>
+      <c r="C140" s="137"/>
+      <c r="D140" s="130"/>
+      <c r="E140" s="130"/>
+      <c r="F140" s="130"/>
+      <c r="G140" s="130"/>
+      <c r="H140" s="130"/>
+      <c r="I140" s="130"/>
+      <c r="J140" s="130"/>
+      <c r="K140" s="130"/>
       <c r="L140" s="49"/>
     </row>
     <row r="141" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="133"/>
-      <c r="C141" s="133"/>
-      <c r="D141" s="138"/>
-      <c r="E141" s="138"/>
-      <c r="F141" s="138"/>
-      <c r="G141" s="138"/>
-      <c r="H141" s="138"/>
-      <c r="I141" s="138"/>
-      <c r="J141" s="138"/>
-      <c r="K141" s="138"/>
+      <c r="B141" s="137"/>
+      <c r="C141" s="137"/>
+      <c r="D141" s="130"/>
+      <c r="E141" s="130"/>
+      <c r="F141" s="130"/>
+      <c r="G141" s="130"/>
+      <c r="H141" s="130"/>
+      <c r="I141" s="130"/>
+      <c r="J141" s="130"/>
+      <c r="K141" s="130"/>
       <c r="L141" s="49"/>
     </row>
     <row r="142" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="133" t="s">
+      <c r="B142" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="C142" s="133"/>
-      <c r="D142" s="134" t="str">
+      <c r="C142" s="137"/>
+      <c r="D142" s="142" t="str">
         <f>記入!B50</f>
         <v>${cv.redelegate}</v>
       </c>
-      <c r="E142" s="135"/>
-      <c r="F142" s="135"/>
-      <c r="G142" s="135"/>
-      <c r="H142" s="135"/>
-      <c r="I142" s="135"/>
-      <c r="J142" s="135"/>
-      <c r="K142" s="136"/>
+      <c r="E142" s="143"/>
+      <c r="F142" s="143"/>
+      <c r="G142" s="143"/>
+      <c r="H142" s="143"/>
+      <c r="I142" s="143"/>
+      <c r="J142" s="143"/>
+      <c r="K142" s="144"/>
       <c r="L142" s="49"/>
     </row>
     <row r="143" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="133"/>
-      <c r="C143" s="133"/>
-      <c r="D143" s="137" t="str">
+      <c r="B143" s="137"/>
+      <c r="C143" s="137"/>
+      <c r="D143" s="129" t="str">
         <f>記入!B51</f>
         <v>再委託先：
 ${cv.redelegatecontent}</v>
       </c>
-      <c r="E143" s="138"/>
-      <c r="F143" s="138"/>
-      <c r="G143" s="138"/>
-      <c r="H143" s="138"/>
-      <c r="I143" s="138"/>
-      <c r="J143" s="138"/>
-      <c r="K143" s="138"/>
+      <c r="E143" s="130"/>
+      <c r="F143" s="130"/>
+      <c r="G143" s="130"/>
+      <c r="H143" s="130"/>
+      <c r="I143" s="130"/>
+      <c r="J143" s="130"/>
+      <c r="K143" s="130"/>
       <c r="L143" s="49"/>
     </row>
     <row r="144" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="133"/>
-      <c r="C144" s="133"/>
-      <c r="D144" s="138"/>
-      <c r="E144" s="138"/>
-      <c r="F144" s="138"/>
-      <c r="G144" s="138"/>
-      <c r="H144" s="138"/>
-      <c r="I144" s="138"/>
-      <c r="J144" s="138"/>
-      <c r="K144" s="138"/>
+      <c r="B144" s="137"/>
+      <c r="C144" s="137"/>
+      <c r="D144" s="130"/>
+      <c r="E144" s="130"/>
+      <c r="F144" s="130"/>
+      <c r="G144" s="130"/>
+      <c r="H144" s="130"/>
+      <c r="I144" s="130"/>
+      <c r="J144" s="130"/>
+      <c r="K144" s="130"/>
       <c r="L144" s="49"/>
     </row>
     <row r="145" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="133"/>
-      <c r="C145" s="133"/>
-      <c r="D145" s="138"/>
-      <c r="E145" s="138"/>
-      <c r="F145" s="138"/>
-      <c r="G145" s="138"/>
-      <c r="H145" s="138"/>
-      <c r="I145" s="138"/>
-      <c r="J145" s="138"/>
-      <c r="K145" s="138"/>
+      <c r="B145" s="137"/>
+      <c r="C145" s="137"/>
+      <c r="D145" s="130"/>
+      <c r="E145" s="130"/>
+      <c r="F145" s="130"/>
+      <c r="G145" s="130"/>
+      <c r="H145" s="130"/>
+      <c r="I145" s="130"/>
+      <c r="J145" s="130"/>
+      <c r="K145" s="130"/>
       <c r="L145" s="49"/>
     </row>
     <row r="146" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="133"/>
-      <c r="C146" s="133"/>
-      <c r="D146" s="138"/>
-      <c r="E146" s="138"/>
-      <c r="F146" s="138"/>
-      <c r="G146" s="138"/>
-      <c r="H146" s="138"/>
-      <c r="I146" s="138"/>
-      <c r="J146" s="138"/>
-      <c r="K146" s="138"/>
+      <c r="B146" s="137"/>
+      <c r="C146" s="137"/>
+      <c r="D146" s="130"/>
+      <c r="E146" s="130"/>
+      <c r="F146" s="130"/>
+      <c r="G146" s="130"/>
+      <c r="H146" s="130"/>
+      <c r="I146" s="130"/>
+      <c r="J146" s="130"/>
+      <c r="K146" s="130"/>
       <c r="L146" s="49"/>
     </row>
     <row r="147" spans="2:12" ht="20.100000000000001" customHeight="1">
@@ -5054,202 +5057,202 @@
       <c r="L148" s="49"/>
     </row>
     <row r="149" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="133" t="s">
+      <c r="B149" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="C149" s="133"/>
-      <c r="D149" s="132" t="s">
+      <c r="C149" s="137"/>
+      <c r="D149" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="E149" s="132"/>
-      <c r="F149" s="132" t="s">
+      <c r="E149" s="135"/>
+      <c r="F149" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="G149" s="132"/>
-      <c r="H149" s="132" t="s">
+      <c r="G149" s="135"/>
+      <c r="H149" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="I149" s="132"/>
-      <c r="J149" s="132" t="s">
+      <c r="I149" s="135"/>
+      <c r="J149" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="K149" s="132"/>
+      <c r="K149" s="135"/>
       <c r="L149" s="49"/>
     </row>
     <row r="150" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="133" t="s">
+      <c r="B150" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="C150" s="133"/>
-      <c r="D150" s="140" t="s">
+      <c r="C150" s="137"/>
+      <c r="D150" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="E150" s="132"/>
-      <c r="F150" s="140" t="s">
+      <c r="E150" s="135"/>
+      <c r="F150" s="134" t="s">
         <v>180</v>
       </c>
-      <c r="G150" s="132"/>
-      <c r="H150" s="140" t="s">
+      <c r="G150" s="135"/>
+      <c r="H150" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="I150" s="132"/>
-      <c r="J150" s="140" t="s">
+      <c r="I150" s="135"/>
+      <c r="J150" s="134" t="s">
         <v>182</v>
       </c>
-      <c r="K150" s="132"/>
+      <c r="K150" s="135"/>
       <c r="L150" s="49"/>
     </row>
     <row r="151" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="133" t="s">
+      <c r="B151" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="C151" s="133"/>
-      <c r="D151" s="140" t="s">
+      <c r="C151" s="137"/>
+      <c r="D151" s="134" t="s">
         <v>183</v>
       </c>
-      <c r="E151" s="132"/>
-      <c r="F151" s="140" t="s">
+      <c r="E151" s="135"/>
+      <c r="F151" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="G151" s="132"/>
-      <c r="H151" s="140" t="s">
+      <c r="G151" s="135"/>
+      <c r="H151" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="I151" s="132"/>
-      <c r="J151" s="140" t="s">
+      <c r="I151" s="135"/>
+      <c r="J151" s="134" t="s">
         <v>186</v>
       </c>
-      <c r="K151" s="132"/>
+      <c r="K151" s="135"/>
       <c r="L151" s="49"/>
     </row>
     <row r="152" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="133" t="s">
+      <c r="B152" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="C152" s="133"/>
-      <c r="D152" s="142" t="s">
+      <c r="C152" s="137"/>
+      <c r="D152" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="E152" s="143"/>
-      <c r="F152" s="140" t="s">
+      <c r="E152" s="138"/>
+      <c r="F152" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="G152" s="132"/>
-      <c r="H152" s="140" t="s">
+      <c r="G152" s="135"/>
+      <c r="H152" s="134" t="s">
         <v>189</v>
       </c>
-      <c r="I152" s="132"/>
-      <c r="J152" s="140" t="s">
+      <c r="I152" s="135"/>
+      <c r="J152" s="134" t="s">
         <v>190</v>
       </c>
-      <c r="K152" s="132"/>
+      <c r="K152" s="135"/>
       <c r="L152" s="49"/>
     </row>
     <row r="153" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="133" t="s">
+      <c r="B153" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="C153" s="133"/>
-      <c r="D153" s="142" t="s">
+      <c r="C153" s="137"/>
+      <c r="D153" s="139" t="s">
         <v>191</v>
       </c>
-      <c r="E153" s="143"/>
-      <c r="F153" s="140" t="s">
+      <c r="E153" s="138"/>
+      <c r="F153" s="134" t="s">
         <v>192</v>
       </c>
-      <c r="G153" s="132"/>
-      <c r="H153" s="140" t="s">
+      <c r="G153" s="135"/>
+      <c r="H153" s="134" t="s">
         <v>193</v>
       </c>
-      <c r="I153" s="132"/>
-      <c r="J153" s="140" t="s">
+      <c r="I153" s="135"/>
+      <c r="J153" s="134" t="s">
         <v>194</v>
       </c>
-      <c r="K153" s="132"/>
+      <c r="K153" s="135"/>
       <c r="L153" s="49"/>
     </row>
     <row r="154" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="133" t="s">
+      <c r="B154" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="C154" s="133"/>
-      <c r="D154" s="145" t="s">
+      <c r="C154" s="137"/>
+      <c r="D154" s="140" t="s">
         <v>195</v>
       </c>
-      <c r="E154" s="143"/>
-      <c r="F154" s="144" t="s">
+      <c r="E154" s="138"/>
+      <c r="F154" s="136" t="s">
         <v>196</v>
       </c>
-      <c r="G154" s="132"/>
-      <c r="H154" s="144" t="s">
+      <c r="G154" s="135"/>
+      <c r="H154" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="I154" s="132"/>
-      <c r="J154" s="144" t="s">
+      <c r="I154" s="135"/>
+      <c r="J154" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="K154" s="132"/>
+      <c r="K154" s="135"/>
       <c r="L154" s="49"/>
     </row>
     <row r="155" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="133" t="s">
+      <c r="B155" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="C155" s="133"/>
-      <c r="D155" s="143" t="str">
+      <c r="C155" s="137"/>
+      <c r="D155" s="138" t="str">
         <f>IF(記入!B29="","-",記入!B12)</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="E155" s="143"/>
-      <c r="F155" s="132" t="str">
+      <c r="E155" s="138"/>
+      <c r="F155" s="135" t="str">
         <f>IF(記入!B29="","-",記入!B12)</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="G155" s="132"/>
-      <c r="H155" s="132" t="str">
+      <c r="G155" s="135"/>
+      <c r="H155" s="135" t="str">
         <f>IF(記入!B29="","-",記入!B12)</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="I155" s="132"/>
-      <c r="J155" s="132" t="str">
+      <c r="I155" s="135"/>
+      <c r="J155" s="135" t="str">
         <f>IF(記入!B29="","-",記入!B12)</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="K155" s="132"/>
+      <c r="K155" s="135"/>
       <c r="L155" s="49"/>
     </row>
     <row r="156" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="133" t="s">
+      <c r="B156" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="C156" s="133"/>
-      <c r="D156" s="132" t="s">
+      <c r="C156" s="137"/>
+      <c r="D156" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="E156" s="132"/>
-      <c r="F156" s="132"/>
-      <c r="G156" s="132"/>
-      <c r="H156" s="132"/>
-      <c r="I156" s="132"/>
-      <c r="J156" s="132"/>
-      <c r="K156" s="132"/>
+      <c r="E156" s="135"/>
+      <c r="F156" s="135"/>
+      <c r="G156" s="135"/>
+      <c r="H156" s="135"/>
+      <c r="I156" s="135"/>
+      <c r="J156" s="135"/>
+      <c r="K156" s="135"/>
       <c r="L156" s="49"/>
     </row>
     <row r="157" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="133" t="s">
+      <c r="B157" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="C157" s="133"/>
-      <c r="D157" s="132" t="s">
+      <c r="C157" s="137"/>
+      <c r="D157" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="E157" s="132"/>
-      <c r="F157" s="132"/>
-      <c r="G157" s="132"/>
-      <c r="H157" s="132"/>
-      <c r="I157" s="132"/>
-      <c r="J157" s="132"/>
-      <c r="K157" s="132"/>
+      <c r="E157" s="135"/>
+      <c r="F157" s="135"/>
+      <c r="G157" s="135"/>
+      <c r="H157" s="135"/>
+      <c r="I157" s="135"/>
+      <c r="J157" s="135"/>
+      <c r="K157" s="135"/>
       <c r="L157" s="49"/>
     </row>
     <row r="158" spans="2:12" ht="20.100000000000001" customHeight="1">
@@ -5281,59 +5284,59 @@
       <c r="L159" s="49"/>
     </row>
     <row r="160" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="148" t="s">
+      <c r="B160" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="C160" s="148"/>
-      <c r="D160" s="148" t="s">
+      <c r="C160" s="131"/>
+      <c r="D160" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="E160" s="148"/>
-      <c r="F160" s="148"/>
-      <c r="G160" s="148"/>
-      <c r="H160" s="148"/>
-      <c r="I160" s="148"/>
-      <c r="J160" s="148"/>
-      <c r="K160" s="148"/>
+      <c r="E160" s="131"/>
+      <c r="F160" s="131"/>
+      <c r="G160" s="131"/>
+      <c r="H160" s="131"/>
+      <c r="I160" s="131"/>
+      <c r="J160" s="131"/>
+      <c r="K160" s="131"/>
       <c r="L160" s="49"/>
     </row>
     <row r="161" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="149"/>
-      <c r="C161" s="149"/>
-      <c r="D161" s="149"/>
-      <c r="E161" s="149"/>
-      <c r="F161" s="149"/>
-      <c r="G161" s="149"/>
-      <c r="H161" s="149"/>
-      <c r="I161" s="149"/>
-      <c r="J161" s="149"/>
-      <c r="K161" s="149"/>
+      <c r="B161" s="132"/>
+      <c r="C161" s="132"/>
+      <c r="D161" s="132"/>
+      <c r="E161" s="132"/>
+      <c r="F161" s="132"/>
+      <c r="G161" s="132"/>
+      <c r="H161" s="132"/>
+      <c r="I161" s="132"/>
+      <c r="J161" s="132"/>
+      <c r="K161" s="132"/>
       <c r="L161" s="49"/>
     </row>
     <row r="162" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="149"/>
-      <c r="C162" s="149"/>
-      <c r="D162" s="149"/>
-      <c r="E162" s="149"/>
-      <c r="F162" s="149"/>
-      <c r="G162" s="149"/>
-      <c r="H162" s="149"/>
-      <c r="I162" s="149"/>
-      <c r="J162" s="149"/>
-      <c r="K162" s="149"/>
+      <c r="B162" s="132"/>
+      <c r="C162" s="132"/>
+      <c r="D162" s="132"/>
+      <c r="E162" s="132"/>
+      <c r="F162" s="132"/>
+      <c r="G162" s="132"/>
+      <c r="H162" s="132"/>
+      <c r="I162" s="132"/>
+      <c r="J162" s="132"/>
+      <c r="K162" s="132"/>
       <c r="L162" s="49"/>
     </row>
     <row r="163" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="150"/>
-      <c r="C163" s="150"/>
-      <c r="D163" s="150"/>
-      <c r="E163" s="150"/>
-      <c r="F163" s="150"/>
-      <c r="G163" s="150"/>
-      <c r="H163" s="150"/>
-      <c r="I163" s="150"/>
-      <c r="J163" s="150"/>
-      <c r="K163" s="150"/>
+      <c r="B163" s="133"/>
+      <c r="C163" s="133"/>
+      <c r="D163" s="133"/>
+      <c r="E163" s="133"/>
+      <c r="F163" s="133"/>
+      <c r="G163" s="133"/>
+      <c r="H163" s="133"/>
+      <c r="I163" s="133"/>
+      <c r="J163" s="133"/>
+      <c r="K163" s="133"/>
       <c r="L163" s="49"/>
     </row>
     <row r="164" spans="2:12" ht="14.25">
@@ -5691,6 +5694,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B11:L57"/>
+    <mergeCell ref="B60:L71"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="D142:K142"/>
+    <mergeCell ref="D143:K146"/>
+    <mergeCell ref="B142:C146"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C141"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="D131:K131"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:K156"/>
+    <mergeCell ref="D157:K157"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="F152:G152"/>
     <mergeCell ref="D132:K132"/>
     <mergeCell ref="D133:K133"/>
     <mergeCell ref="D134:K134"/>
@@ -5707,51 +5755,6 @@
     <mergeCell ref="F155:G155"/>
     <mergeCell ref="H150:I150"/>
     <mergeCell ref="H151:I151"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D156:K156"/>
-    <mergeCell ref="D157:K157"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="J149:K149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="D142:K142"/>
-    <mergeCell ref="D143:K146"/>
-    <mergeCell ref="B142:C146"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C141"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="D131:K131"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B11:L57"/>
-    <mergeCell ref="B60:L71"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5773,8 +5776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A140" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D156" sqref="D156:K156"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A83" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160:K163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5790,18 +5793,18 @@
       <c r="J2" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="154" t="str">
+      <c r="K2" s="168" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="154"/>
+      <c r="L2" s="168"/>
     </row>
     <row r="3" spans="1:12" ht="20.25">
-      <c r="F3" s="155" t="s">
+      <c r="F3" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="155"/>
-      <c r="H3" s="155"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="27" t="s">
@@ -5861,11 +5864,11 @@
         <v>66</v>
       </c>
       <c r="C8" s="46"/>
-      <c r="D8" s="157" t="str">
+      <c r="D8" s="171" t="str">
         <f>記入!B37</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E8" s="158"/>
+      <c r="E8" s="172"/>
       <c r="F8" s="47" t="s">
         <v>64</v>
       </c>
@@ -5905,617 +5908,617 @@
       <c r="L10" s="29"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="170" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="156"/>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="156"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="156"/>
-      <c r="L12" s="156"/>
+      <c r="B12" s="170"/>
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="170"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="156"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156"/>
+      <c r="B13" s="170"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="170"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="156"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="156"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="156"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="156"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="170"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="156"/>
-      <c r="C16" s="156"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
-      <c r="G16" s="156"/>
-      <c r="H16" s="156"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="156"/>
-      <c r="L16" s="156"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="170"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="156"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="156"/>
-      <c r="G17" s="156"/>
-      <c r="H17" s="156"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="156"/>
-      <c r="L17" s="156"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="170"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="156"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="156"/>
-      <c r="G18" s="156"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="156"/>
-      <c r="L18" s="156"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="170"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="156"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="156"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="156"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="156"/>
+      <c r="B19" s="170"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="170"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="156"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="156"/>
-      <c r="G20" s="156"/>
-      <c r="H20" s="156"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="156"/>
-      <c r="L20" s="156"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="156"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="156"/>
-      <c r="G21" s="156"/>
-      <c r="H21" s="156"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="156"/>
-      <c r="L21" s="156"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="170"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="156"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="156"/>
-      <c r="G22" s="156"/>
-      <c r="H22" s="156"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="156"/>
-      <c r="L22" s="156"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="170"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="156"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="156"/>
-      <c r="G23" s="156"/>
-      <c r="H23" s="156"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="156"/>
-      <c r="L23" s="156"/>
+      <c r="B23" s="170"/>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="156"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="156"/>
-      <c r="L24" s="156"/>
+      <c r="B24" s="170"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="170"/>
+      <c r="L24" s="170"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="156"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="156"/>
-      <c r="L25" s="156"/>
+      <c r="B25" s="170"/>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="170"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="156"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="156"/>
-      <c r="G26" s="156"/>
-      <c r="H26" s="156"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="156"/>
-      <c r="L26" s="156"/>
+      <c r="B26" s="170"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="170"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="156"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
-      <c r="G27" s="156"/>
-      <c r="H27" s="156"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="156"/>
-      <c r="L27" s="156"/>
+      <c r="B27" s="170"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="170"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="170"/>
+      <c r="L27" s="170"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
-      <c r="L28" s="156"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="170"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="156"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="156"/>
-      <c r="H29" s="156"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="156"/>
-      <c r="L29" s="156"/>
+      <c r="B29" s="170"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="170"/>
+      <c r="E29" s="170"/>
+      <c r="F29" s="170"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="170"/>
+      <c r="L29" s="170"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="156"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="156"/>
-      <c r="G30" s="156"/>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="170"/>
+      <c r="L30" s="170"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="156"/>
-      <c r="C31" s="156"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="156"/>
-      <c r="G31" s="156"/>
-      <c r="H31" s="156"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="156"/>
-      <c r="L31" s="156"/>
+      <c r="B31" s="170"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="170"/>
+      <c r="E31" s="170"/>
+      <c r="F31" s="170"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="170"/>
+      <c r="J31" s="170"/>
+      <c r="K31" s="170"/>
+      <c r="L31" s="170"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="156"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="156"/>
-      <c r="H32" s="156"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="156"/>
-      <c r="L32" s="156"/>
+      <c r="B32" s="170"/>
+      <c r="C32" s="170"/>
+      <c r="D32" s="170"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="170"/>
+      <c r="J32" s="170"/>
+      <c r="K32" s="170"/>
+      <c r="L32" s="170"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="156"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="156"/>
-      <c r="G33" s="156"/>
-      <c r="H33" s="156"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="156"/>
-      <c r="L33" s="156"/>
+      <c r="B33" s="170"/>
+      <c r="C33" s="170"/>
+      <c r="D33" s="170"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="170"/>
+      <c r="J33" s="170"/>
+      <c r="K33" s="170"/>
+      <c r="L33" s="170"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="156"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="156"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="156"/>
-      <c r="H34" s="156"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="156"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="170"/>
+      <c r="D34" s="170"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="170"/>
+      <c r="J34" s="170"/>
+      <c r="K34" s="170"/>
+      <c r="L34" s="170"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="156"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="156"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="170"/>
+      <c r="H35" s="170"/>
+      <c r="I35" s="170"/>
+      <c r="J35" s="170"/>
+      <c r="K35" s="170"/>
+      <c r="L35" s="170"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="156"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="156"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="156"/>
-      <c r="K36" s="156"/>
-      <c r="L36" s="156"/>
+      <c r="B36" s="170"/>
+      <c r="C36" s="170"/>
+      <c r="D36" s="170"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="170"/>
+      <c r="G36" s="170"/>
+      <c r="H36" s="170"/>
+      <c r="I36" s="170"/>
+      <c r="J36" s="170"/>
+      <c r="K36" s="170"/>
+      <c r="L36" s="170"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="156"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="156"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="156"/>
-      <c r="L37" s="156"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="170"/>
+      <c r="D37" s="170"/>
+      <c r="E37" s="170"/>
+      <c r="F37" s="170"/>
+      <c r="G37" s="170"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="170"/>
+      <c r="J37" s="170"/>
+      <c r="K37" s="170"/>
+      <c r="L37" s="170"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="156"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="156"/>
-      <c r="H38" s="156"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="156"/>
-      <c r="L38" s="156"/>
+      <c r="B38" s="170"/>
+      <c r="C38" s="170"/>
+      <c r="D38" s="170"/>
+      <c r="E38" s="170"/>
+      <c r="F38" s="170"/>
+      <c r="G38" s="170"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="170"/>
+      <c r="J38" s="170"/>
+      <c r="K38" s="170"/>
+      <c r="L38" s="170"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="156"/>
-      <c r="C39" s="156"/>
-      <c r="D39" s="156"/>
-      <c r="E39" s="156"/>
-      <c r="F39" s="156"/>
-      <c r="G39" s="156"/>
-      <c r="H39" s="156"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="156"/>
-      <c r="K39" s="156"/>
-      <c r="L39" s="156"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
+      <c r="D39" s="170"/>
+      <c r="E39" s="170"/>
+      <c r="F39" s="170"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="170"/>
+      <c r="J39" s="170"/>
+      <c r="K39" s="170"/>
+      <c r="L39" s="170"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="156"/>
-      <c r="C40" s="156"/>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="156"/>
-      <c r="H40" s="156"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="156"/>
-      <c r="K40" s="156"/>
-      <c r="L40" s="156"/>
+      <c r="B40" s="170"/>
+      <c r="C40" s="170"/>
+      <c r="D40" s="170"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="170"/>
+      <c r="G40" s="170"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="170"/>
+      <c r="J40" s="170"/>
+      <c r="K40" s="170"/>
+      <c r="L40" s="170"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="156"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="156"/>
-      <c r="E41" s="156"/>
-      <c r="F41" s="156"/>
-      <c r="G41" s="156"/>
-      <c r="H41" s="156"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="156"/>
-      <c r="K41" s="156"/>
-      <c r="L41" s="156"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
+      <c r="D41" s="170"/>
+      <c r="E41" s="170"/>
+      <c r="F41" s="170"/>
+      <c r="G41" s="170"/>
+      <c r="H41" s="170"/>
+      <c r="I41" s="170"/>
+      <c r="J41" s="170"/>
+      <c r="K41" s="170"/>
+      <c r="L41" s="170"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="156"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="156"/>
-      <c r="E42" s="156"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="156"/>
-      <c r="H42" s="156"/>
-      <c r="I42" s="156"/>
-      <c r="J42" s="156"/>
-      <c r="K42" s="156"/>
-      <c r="L42" s="156"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170"/>
+      <c r="D42" s="170"/>
+      <c r="E42" s="170"/>
+      <c r="F42" s="170"/>
+      <c r="G42" s="170"/>
+      <c r="H42" s="170"/>
+      <c r="I42" s="170"/>
+      <c r="J42" s="170"/>
+      <c r="K42" s="170"/>
+      <c r="L42" s="170"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="156"/>
-      <c r="C43" s="156"/>
-      <c r="D43" s="156"/>
-      <c r="E43" s="156"/>
-      <c r="F43" s="156"/>
-      <c r="G43" s="156"/>
-      <c r="H43" s="156"/>
-      <c r="I43" s="156"/>
-      <c r="J43" s="156"/>
-      <c r="K43" s="156"/>
-      <c r="L43" s="156"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="170"/>
+      <c r="E43" s="170"/>
+      <c r="F43" s="170"/>
+      <c r="G43" s="170"/>
+      <c r="H43" s="170"/>
+      <c r="I43" s="170"/>
+      <c r="J43" s="170"/>
+      <c r="K43" s="170"/>
+      <c r="L43" s="170"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="156"/>
-      <c r="H44" s="156"/>
-      <c r="I44" s="156"/>
-      <c r="J44" s="156"/>
-      <c r="K44" s="156"/>
-      <c r="L44" s="156"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="170"/>
+      <c r="J44" s="170"/>
+      <c r="K44" s="170"/>
+      <c r="L44" s="170"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="156"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="156"/>
-      <c r="E45" s="156"/>
-      <c r="F45" s="156"/>
-      <c r="G45" s="156"/>
-      <c r="H45" s="156"/>
-      <c r="I45" s="156"/>
-      <c r="J45" s="156"/>
-      <c r="K45" s="156"/>
-      <c r="L45" s="156"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170"/>
+      <c r="D45" s="170"/>
+      <c r="E45" s="170"/>
+      <c r="F45" s="170"/>
+      <c r="G45" s="170"/>
+      <c r="H45" s="170"/>
+      <c r="I45" s="170"/>
+      <c r="J45" s="170"/>
+      <c r="K45" s="170"/>
+      <c r="L45" s="170"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="156"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="156"/>
-      <c r="E46" s="156"/>
-      <c r="F46" s="156"/>
-      <c r="G46" s="156"/>
-      <c r="H46" s="156"/>
-      <c r="I46" s="156"/>
-      <c r="J46" s="156"/>
-      <c r="K46" s="156"/>
-      <c r="L46" s="156"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170"/>
+      <c r="D46" s="170"/>
+      <c r="E46" s="170"/>
+      <c r="F46" s="170"/>
+      <c r="G46" s="170"/>
+      <c r="H46" s="170"/>
+      <c r="I46" s="170"/>
+      <c r="J46" s="170"/>
+      <c r="K46" s="170"/>
+      <c r="L46" s="170"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="156"/>
-      <c r="C47" s="156"/>
-      <c r="D47" s="156"/>
-      <c r="E47" s="156"/>
-      <c r="F47" s="156"/>
-      <c r="G47" s="156"/>
-      <c r="H47" s="156"/>
-      <c r="I47" s="156"/>
-      <c r="J47" s="156"/>
-      <c r="K47" s="156"/>
-      <c r="L47" s="156"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170"/>
+      <c r="D47" s="170"/>
+      <c r="E47" s="170"/>
+      <c r="F47" s="170"/>
+      <c r="G47" s="170"/>
+      <c r="H47" s="170"/>
+      <c r="I47" s="170"/>
+      <c r="J47" s="170"/>
+      <c r="K47" s="170"/>
+      <c r="L47" s="170"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="156"/>
-      <c r="C48" s="156"/>
-      <c r="D48" s="156"/>
-      <c r="E48" s="156"/>
-      <c r="F48" s="156"/>
-      <c r="G48" s="156"/>
-      <c r="H48" s="156"/>
-      <c r="I48" s="156"/>
-      <c r="J48" s="156"/>
-      <c r="K48" s="156"/>
-      <c r="L48" s="156"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170"/>
+      <c r="D48" s="170"/>
+      <c r="E48" s="170"/>
+      <c r="F48" s="170"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="170"/>
+      <c r="I48" s="170"/>
+      <c r="J48" s="170"/>
+      <c r="K48" s="170"/>
+      <c r="L48" s="170"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="156"/>
-      <c r="C49" s="156"/>
-      <c r="D49" s="156"/>
-      <c r="E49" s="156"/>
-      <c r="F49" s="156"/>
-      <c r="G49" s="156"/>
-      <c r="H49" s="156"/>
-      <c r="I49" s="156"/>
-      <c r="J49" s="156"/>
-      <c r="K49" s="156"/>
-      <c r="L49" s="156"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="170"/>
+      <c r="D49" s="170"/>
+      <c r="E49" s="170"/>
+      <c r="F49" s="170"/>
+      <c r="G49" s="170"/>
+      <c r="H49" s="170"/>
+      <c r="I49" s="170"/>
+      <c r="J49" s="170"/>
+      <c r="K49" s="170"/>
+      <c r="L49" s="170"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="156"/>
-      <c r="C50" s="156"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="156"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="156"/>
-      <c r="I50" s="156"/>
-      <c r="J50" s="156"/>
-      <c r="K50" s="156"/>
-      <c r="L50" s="156"/>
+      <c r="B50" s="170"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="170"/>
+      <c r="E50" s="170"/>
+      <c r="F50" s="170"/>
+      <c r="G50" s="170"/>
+      <c r="H50" s="170"/>
+      <c r="I50" s="170"/>
+      <c r="J50" s="170"/>
+      <c r="K50" s="170"/>
+      <c r="L50" s="170"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="156"/>
-      <c r="C51" s="156"/>
-      <c r="D51" s="156"/>
-      <c r="E51" s="156"/>
-      <c r="F51" s="156"/>
-      <c r="G51" s="156"/>
-      <c r="H51" s="156"/>
-      <c r="I51" s="156"/>
-      <c r="J51" s="156"/>
-      <c r="K51" s="156"/>
-      <c r="L51" s="156"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="170"/>
+      <c r="D51" s="170"/>
+      <c r="E51" s="170"/>
+      <c r="F51" s="170"/>
+      <c r="G51" s="170"/>
+      <c r="H51" s="170"/>
+      <c r="I51" s="170"/>
+      <c r="J51" s="170"/>
+      <c r="K51" s="170"/>
+      <c r="L51" s="170"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="156"/>
-      <c r="C52" s="156"/>
-      <c r="D52" s="156"/>
-      <c r="E52" s="156"/>
-      <c r="F52" s="156"/>
-      <c r="G52" s="156"/>
-      <c r="H52" s="156"/>
-      <c r="I52" s="156"/>
-      <c r="J52" s="156"/>
-      <c r="K52" s="156"/>
-      <c r="L52" s="156"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="170"/>
+      <c r="D52" s="170"/>
+      <c r="E52" s="170"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="170"/>
+      <c r="J52" s="170"/>
+      <c r="K52" s="170"/>
+      <c r="L52" s="170"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="156"/>
-      <c r="C53" s="156"/>
-      <c r="D53" s="156"/>
-      <c r="E53" s="156"/>
-      <c r="F53" s="156"/>
-      <c r="G53" s="156"/>
-      <c r="H53" s="156"/>
-      <c r="I53" s="156"/>
-      <c r="J53" s="156"/>
-      <c r="K53" s="156"/>
-      <c r="L53" s="156"/>
+      <c r="B53" s="170"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="170"/>
+      <c r="E53" s="170"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="170"/>
+      <c r="J53" s="170"/>
+      <c r="K53" s="170"/>
+      <c r="L53" s="170"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="156"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="156"/>
-      <c r="H54" s="156"/>
-      <c r="I54" s="156"/>
-      <c r="J54" s="156"/>
-      <c r="K54" s="156"/>
-      <c r="L54" s="156"/>
+      <c r="B54" s="170"/>
+      <c r="C54" s="170"/>
+      <c r="D54" s="170"/>
+      <c r="E54" s="170"/>
+      <c r="F54" s="170"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="170"/>
+      <c r="I54" s="170"/>
+      <c r="J54" s="170"/>
+      <c r="K54" s="170"/>
+      <c r="L54" s="170"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="156"/>
-      <c r="C55" s="156"/>
-      <c r="D55" s="156"/>
-      <c r="E55" s="156"/>
-      <c r="F55" s="156"/>
-      <c r="G55" s="156"/>
-      <c r="H55" s="156"/>
-      <c r="I55" s="156"/>
-      <c r="J55" s="156"/>
-      <c r="K55" s="156"/>
-      <c r="L55" s="156"/>
+      <c r="B55" s="170"/>
+      <c r="C55" s="170"/>
+      <c r="D55" s="170"/>
+      <c r="E55" s="170"/>
+      <c r="F55" s="170"/>
+      <c r="G55" s="170"/>
+      <c r="H55" s="170"/>
+      <c r="I55" s="170"/>
+      <c r="J55" s="170"/>
+      <c r="K55" s="170"/>
+      <c r="L55" s="170"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="156"/>
-      <c r="C56" s="156"/>
-      <c r="D56" s="156"/>
-      <c r="E56" s="156"/>
-      <c r="F56" s="156"/>
-      <c r="G56" s="156"/>
-      <c r="H56" s="156"/>
-      <c r="I56" s="156"/>
-      <c r="J56" s="156"/>
-      <c r="K56" s="156"/>
-      <c r="L56" s="156"/>
+      <c r="B56" s="170"/>
+      <c r="C56" s="170"/>
+      <c r="D56" s="170"/>
+      <c r="E56" s="170"/>
+      <c r="F56" s="170"/>
+      <c r="G56" s="170"/>
+      <c r="H56" s="170"/>
+      <c r="I56" s="170"/>
+      <c r="J56" s="170"/>
+      <c r="K56" s="170"/>
+      <c r="L56" s="170"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="156"/>
-      <c r="C57" s="156"/>
-      <c r="D57" s="156"/>
-      <c r="E57" s="156"/>
-      <c r="F57" s="156"/>
-      <c r="G57" s="156"/>
-      <c r="H57" s="156"/>
-      <c r="I57" s="156"/>
-      <c r="J57" s="156"/>
-      <c r="K57" s="156"/>
-      <c r="L57" s="156"/>
+      <c r="B57" s="170"/>
+      <c r="C57" s="170"/>
+      <c r="D57" s="170"/>
+      <c r="E57" s="170"/>
+      <c r="F57" s="170"/>
+      <c r="G57" s="170"/>
+      <c r="H57" s="170"/>
+      <c r="I57" s="170"/>
+      <c r="J57" s="170"/>
+      <c r="K57" s="170"/>
+      <c r="L57" s="170"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
       <c r="B58" s="31"/>
@@ -6534,169 +6537,169 @@
       <c r="J59" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="K59" s="154" t="str">
+      <c r="K59" s="168" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L59" s="154"/>
+      <c r="L59" s="168"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="152" t="s">
+      <c r="B60" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="153"/>
-      <c r="D60" s="153"/>
-      <c r="E60" s="153"/>
-      <c r="F60" s="153"/>
-      <c r="G60" s="153"/>
-      <c r="H60" s="153"/>
-      <c r="I60" s="153"/>
-      <c r="J60" s="153"/>
-      <c r="K60" s="153"/>
-      <c r="L60" s="153"/>
+      <c r="C60" s="167"/>
+      <c r="D60" s="167"/>
+      <c r="E60" s="167"/>
+      <c r="F60" s="167"/>
+      <c r="G60" s="167"/>
+      <c r="H60" s="167"/>
+      <c r="I60" s="167"/>
+      <c r="J60" s="167"/>
+      <c r="K60" s="167"/>
+      <c r="L60" s="167"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="153"/>
-      <c r="C61" s="153"/>
-      <c r="D61" s="153"/>
-      <c r="E61" s="153"/>
-      <c r="F61" s="153"/>
-      <c r="G61" s="153"/>
-      <c r="H61" s="153"/>
-      <c r="I61" s="153"/>
-      <c r="J61" s="153"/>
-      <c r="K61" s="153"/>
-      <c r="L61" s="153"/>
+      <c r="B61" s="167"/>
+      <c r="C61" s="167"/>
+      <c r="D61" s="167"/>
+      <c r="E61" s="167"/>
+      <c r="F61" s="167"/>
+      <c r="G61" s="167"/>
+      <c r="H61" s="167"/>
+      <c r="I61" s="167"/>
+      <c r="J61" s="167"/>
+      <c r="K61" s="167"/>
+      <c r="L61" s="167"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="153"/>
-      <c r="C62" s="153"/>
-      <c r="D62" s="153"/>
-      <c r="E62" s="153"/>
-      <c r="F62" s="153"/>
-      <c r="G62" s="153"/>
-      <c r="H62" s="153"/>
-      <c r="I62" s="153"/>
-      <c r="J62" s="153"/>
-      <c r="K62" s="153"/>
-      <c r="L62" s="153"/>
+      <c r="B62" s="167"/>
+      <c r="C62" s="167"/>
+      <c r="D62" s="167"/>
+      <c r="E62" s="167"/>
+      <c r="F62" s="167"/>
+      <c r="G62" s="167"/>
+      <c r="H62" s="167"/>
+      <c r="I62" s="167"/>
+      <c r="J62" s="167"/>
+      <c r="K62" s="167"/>
+      <c r="L62" s="167"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="153"/>
-      <c r="C63" s="153"/>
-      <c r="D63" s="153"/>
-      <c r="E63" s="153"/>
-      <c r="F63" s="153"/>
-      <c r="G63" s="153"/>
-      <c r="H63" s="153"/>
-      <c r="I63" s="153"/>
-      <c r="J63" s="153"/>
-      <c r="K63" s="153"/>
-      <c r="L63" s="153"/>
+      <c r="B63" s="167"/>
+      <c r="C63" s="167"/>
+      <c r="D63" s="167"/>
+      <c r="E63" s="167"/>
+      <c r="F63" s="167"/>
+      <c r="G63" s="167"/>
+      <c r="H63" s="167"/>
+      <c r="I63" s="167"/>
+      <c r="J63" s="167"/>
+      <c r="K63" s="167"/>
+      <c r="L63" s="167"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="153"/>
-      <c r="C64" s="153"/>
-      <c r="D64" s="153"/>
-      <c r="E64" s="153"/>
-      <c r="F64" s="153"/>
-      <c r="G64" s="153"/>
-      <c r="H64" s="153"/>
-      <c r="I64" s="153"/>
-      <c r="J64" s="153"/>
-      <c r="K64" s="153"/>
-      <c r="L64" s="153"/>
+      <c r="B64" s="167"/>
+      <c r="C64" s="167"/>
+      <c r="D64" s="167"/>
+      <c r="E64" s="167"/>
+      <c r="F64" s="167"/>
+      <c r="G64" s="167"/>
+      <c r="H64" s="167"/>
+      <c r="I64" s="167"/>
+      <c r="J64" s="167"/>
+      <c r="K64" s="167"/>
+      <c r="L64" s="167"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="153"/>
-      <c r="C65" s="153"/>
-      <c r="D65" s="153"/>
-      <c r="E65" s="153"/>
-      <c r="F65" s="153"/>
-      <c r="G65" s="153"/>
-      <c r="H65" s="153"/>
-      <c r="I65" s="153"/>
-      <c r="J65" s="153"/>
-      <c r="K65" s="153"/>
-      <c r="L65" s="153"/>
+      <c r="B65" s="167"/>
+      <c r="C65" s="167"/>
+      <c r="D65" s="167"/>
+      <c r="E65" s="167"/>
+      <c r="F65" s="167"/>
+      <c r="G65" s="167"/>
+      <c r="H65" s="167"/>
+      <c r="I65" s="167"/>
+      <c r="J65" s="167"/>
+      <c r="K65" s="167"/>
+      <c r="L65" s="167"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="153"/>
-      <c r="C66" s="153"/>
-      <c r="D66" s="153"/>
-      <c r="E66" s="153"/>
-      <c r="F66" s="153"/>
-      <c r="G66" s="153"/>
-      <c r="H66" s="153"/>
-      <c r="I66" s="153"/>
-      <c r="J66" s="153"/>
-      <c r="K66" s="153"/>
-      <c r="L66" s="153"/>
+      <c r="B66" s="167"/>
+      <c r="C66" s="167"/>
+      <c r="D66" s="167"/>
+      <c r="E66" s="167"/>
+      <c r="F66" s="167"/>
+      <c r="G66" s="167"/>
+      <c r="H66" s="167"/>
+      <c r="I66" s="167"/>
+      <c r="J66" s="167"/>
+      <c r="K66" s="167"/>
+      <c r="L66" s="167"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="153"/>
-      <c r="C67" s="153"/>
-      <c r="D67" s="153"/>
-      <c r="E67" s="153"/>
-      <c r="F67" s="153"/>
-      <c r="G67" s="153"/>
-      <c r="H67" s="153"/>
-      <c r="I67" s="153"/>
-      <c r="J67" s="153"/>
-      <c r="K67" s="153"/>
-      <c r="L67" s="153"/>
+      <c r="B67" s="167"/>
+      <c r="C67" s="167"/>
+      <c r="D67" s="167"/>
+      <c r="E67" s="167"/>
+      <c r="F67" s="167"/>
+      <c r="G67" s="167"/>
+      <c r="H67" s="167"/>
+      <c r="I67" s="167"/>
+      <c r="J67" s="167"/>
+      <c r="K67" s="167"/>
+      <c r="L67" s="167"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="153"/>
-      <c r="C68" s="153"/>
-      <c r="D68" s="153"/>
-      <c r="E68" s="153"/>
-      <c r="F68" s="153"/>
-      <c r="G68" s="153"/>
-      <c r="H68" s="153"/>
-      <c r="I68" s="153"/>
-      <c r="J68" s="153"/>
-      <c r="K68" s="153"/>
-      <c r="L68" s="153"/>
+      <c r="B68" s="167"/>
+      <c r="C68" s="167"/>
+      <c r="D68" s="167"/>
+      <c r="E68" s="167"/>
+      <c r="F68" s="167"/>
+      <c r="G68" s="167"/>
+      <c r="H68" s="167"/>
+      <c r="I68" s="167"/>
+      <c r="J68" s="167"/>
+      <c r="K68" s="167"/>
+      <c r="L68" s="167"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="153"/>
-      <c r="C69" s="153"/>
-      <c r="D69" s="153"/>
-      <c r="E69" s="153"/>
-      <c r="F69" s="153"/>
-      <c r="G69" s="153"/>
-      <c r="H69" s="153"/>
-      <c r="I69" s="153"/>
-      <c r="J69" s="153"/>
-      <c r="K69" s="153"/>
-      <c r="L69" s="153"/>
+      <c r="B69" s="167"/>
+      <c r="C69" s="167"/>
+      <c r="D69" s="167"/>
+      <c r="E69" s="167"/>
+      <c r="F69" s="167"/>
+      <c r="G69" s="167"/>
+      <c r="H69" s="167"/>
+      <c r="I69" s="167"/>
+      <c r="J69" s="167"/>
+      <c r="K69" s="167"/>
+      <c r="L69" s="167"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="153"/>
-      <c r="C70" s="153"/>
-      <c r="D70" s="153"/>
-      <c r="E70" s="153"/>
-      <c r="F70" s="153"/>
-      <c r="G70" s="153"/>
-      <c r="H70" s="153"/>
-      <c r="I70" s="153"/>
-      <c r="J70" s="153"/>
-      <c r="K70" s="153"/>
-      <c r="L70" s="153"/>
+      <c r="B70" s="167"/>
+      <c r="C70" s="167"/>
+      <c r="D70" s="167"/>
+      <c r="E70" s="167"/>
+      <c r="F70" s="167"/>
+      <c r="G70" s="167"/>
+      <c r="H70" s="167"/>
+      <c r="I70" s="167"/>
+      <c r="J70" s="167"/>
+      <c r="K70" s="167"/>
+      <c r="L70" s="167"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="153"/>
-      <c r="C71" s="153"/>
-      <c r="D71" s="153"/>
-      <c r="E71" s="153"/>
-      <c r="F71" s="153"/>
-      <c r="G71" s="153"/>
-      <c r="H71" s="153"/>
-      <c r="I71" s="153"/>
-      <c r="J71" s="153"/>
-      <c r="K71" s="153"/>
-      <c r="L71" s="153"/>
+      <c r="B71" s="167"/>
+      <c r="C71" s="167"/>
+      <c r="D71" s="167"/>
+      <c r="E71" s="167"/>
+      <c r="F71" s="167"/>
+      <c r="G71" s="167"/>
+      <c r="H71" s="167"/>
+      <c r="I71" s="167"/>
+      <c r="J71" s="167"/>
+      <c r="K71" s="167"/>
+      <c r="L71" s="167"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
       <c r="B73" s="29" t="s">
@@ -6939,11 +6942,11 @@
       <c r="J127" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="K127" s="151" t="str">
+      <c r="K127" s="165" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L127" s="151"/>
+      <c r="L127" s="165"/>
     </row>
     <row r="128" spans="2:12" s="57" customFormat="1" ht="18.75">
       <c r="B128" s="59" t="s">
@@ -6987,245 +6990,245 @@
       <c r="L130" s="61"/>
     </row>
     <row r="131" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="159" t="s">
+      <c r="B131" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="C131" s="159"/>
-      <c r="D131" s="160" t="str">
+      <c r="C131" s="151"/>
+      <c r="D131" s="163" t="str">
         <f>記入!B11</f>
         <v>${cv.pjnamechinese}</v>
       </c>
-      <c r="E131" s="160"/>
-      <c r="F131" s="160"/>
-      <c r="G131" s="160"/>
-      <c r="H131" s="160"/>
-      <c r="I131" s="160"/>
-      <c r="J131" s="160"/>
-      <c r="K131" s="160"/>
+      <c r="E131" s="163"/>
+      <c r="F131" s="163"/>
+      <c r="G131" s="163"/>
+      <c r="H131" s="163"/>
+      <c r="I131" s="163"/>
+      <c r="J131" s="163"/>
+      <c r="K131" s="163"/>
       <c r="L131" s="62"/>
     </row>
     <row r="132" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="159" t="s">
+      <c r="B132" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="C132" s="159"/>
-      <c r="D132" s="161" t="str">
+      <c r="C132" s="151"/>
+      <c r="D132" s="164" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E132" s="160"/>
-      <c r="F132" s="160"/>
-      <c r="G132" s="160"/>
-      <c r="H132" s="160"/>
-      <c r="I132" s="160"/>
-      <c r="J132" s="160"/>
-      <c r="K132" s="160"/>
+      <c r="E132" s="163"/>
+      <c r="F132" s="163"/>
+      <c r="G132" s="163"/>
+      <c r="H132" s="163"/>
+      <c r="I132" s="163"/>
+      <c r="J132" s="163"/>
+      <c r="K132" s="163"/>
       <c r="L132" s="63"/>
     </row>
     <row r="133" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B133" s="159" t="s">
+      <c r="B133" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="C133" s="159"/>
-      <c r="D133" s="161" t="str">
+      <c r="C133" s="151"/>
+      <c r="D133" s="164" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E133" s="160"/>
-      <c r="F133" s="160"/>
-      <c r="G133" s="160"/>
-      <c r="H133" s="160"/>
-      <c r="I133" s="160"/>
-      <c r="J133" s="160"/>
-      <c r="K133" s="160"/>
+      <c r="E133" s="163"/>
+      <c r="F133" s="163"/>
+      <c r="G133" s="163"/>
+      <c r="H133" s="163"/>
+      <c r="I133" s="163"/>
+      <c r="J133" s="163"/>
+      <c r="K133" s="163"/>
       <c r="L133" s="63"/>
     </row>
     <row r="134" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="159" t="s">
+      <c r="B134" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="C134" s="159"/>
-      <c r="D134" s="162" t="str">
+      <c r="C134" s="151"/>
+      <c r="D134" s="156" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="E134" s="162"/>
-      <c r="F134" s="162"/>
-      <c r="G134" s="162"/>
-      <c r="H134" s="162"/>
-      <c r="I134" s="162"/>
-      <c r="J134" s="162"/>
-      <c r="K134" s="162"/>
+      <c r="E134" s="156"/>
+      <c r="F134" s="156"/>
+      <c r="G134" s="156"/>
+      <c r="H134" s="156"/>
+      <c r="I134" s="156"/>
+      <c r="J134" s="156"/>
+      <c r="K134" s="156"/>
       <c r="L134" s="63"/>
     </row>
     <row r="135" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="163" t="s">
+      <c r="B135" s="157" t="s">
         <v>105</v>
       </c>
-      <c r="C135" s="159"/>
-      <c r="D135" s="164" t="str">
+      <c r="C135" s="151"/>
+      <c r="D135" s="158" t="str">
         <f>記入!B44</f>
         <v>${cv.technicalcontentchinese}</v>
       </c>
-      <c r="E135" s="165"/>
-      <c r="F135" s="165"/>
-      <c r="G135" s="165"/>
-      <c r="H135" s="165"/>
-      <c r="I135" s="165"/>
-      <c r="J135" s="165"/>
-      <c r="K135" s="165"/>
+      <c r="E135" s="159"/>
+      <c r="F135" s="159"/>
+      <c r="G135" s="159"/>
+      <c r="H135" s="159"/>
+      <c r="I135" s="159"/>
+      <c r="J135" s="159"/>
+      <c r="K135" s="159"/>
       <c r="L135" s="63"/>
     </row>
     <row r="136" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="159"/>
-      <c r="C136" s="159"/>
-      <c r="D136" s="165"/>
-      <c r="E136" s="165"/>
-      <c r="F136" s="165"/>
-      <c r="G136" s="165"/>
-      <c r="H136" s="165"/>
-      <c r="I136" s="165"/>
-      <c r="J136" s="165"/>
-      <c r="K136" s="165"/>
+      <c r="B136" s="151"/>
+      <c r="C136" s="151"/>
+      <c r="D136" s="159"/>
+      <c r="E136" s="159"/>
+      <c r="F136" s="159"/>
+      <c r="G136" s="159"/>
+      <c r="H136" s="159"/>
+      <c r="I136" s="159"/>
+      <c r="J136" s="159"/>
+      <c r="K136" s="159"/>
       <c r="L136" s="63"/>
     </row>
     <row r="137" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="159"/>
-      <c r="C137" s="159"/>
-      <c r="D137" s="165"/>
-      <c r="E137" s="165"/>
-      <c r="F137" s="165"/>
-      <c r="G137" s="165"/>
-      <c r="H137" s="165"/>
-      <c r="I137" s="165"/>
-      <c r="J137" s="165"/>
-      <c r="K137" s="165"/>
+      <c r="B137" s="151"/>
+      <c r="C137" s="151"/>
+      <c r="D137" s="159"/>
+      <c r="E137" s="159"/>
+      <c r="F137" s="159"/>
+      <c r="G137" s="159"/>
+      <c r="H137" s="159"/>
+      <c r="I137" s="159"/>
+      <c r="J137" s="159"/>
+      <c r="K137" s="159"/>
       <c r="L137" s="63"/>
     </row>
     <row r="138" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="159"/>
-      <c r="C138" s="159"/>
-      <c r="D138" s="165"/>
-      <c r="E138" s="165"/>
-      <c r="F138" s="165"/>
-      <c r="G138" s="165"/>
-      <c r="H138" s="165"/>
-      <c r="I138" s="165"/>
-      <c r="J138" s="165"/>
-      <c r="K138" s="165"/>
+      <c r="B138" s="151"/>
+      <c r="C138" s="151"/>
+      <c r="D138" s="159"/>
+      <c r="E138" s="159"/>
+      <c r="F138" s="159"/>
+      <c r="G138" s="159"/>
+      <c r="H138" s="159"/>
+      <c r="I138" s="159"/>
+      <c r="J138" s="159"/>
+      <c r="K138" s="159"/>
       <c r="L138" s="62"/>
     </row>
     <row r="139" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="159"/>
-      <c r="C139" s="159"/>
-      <c r="D139" s="165"/>
-      <c r="E139" s="165"/>
-      <c r="F139" s="165"/>
-      <c r="G139" s="165"/>
-      <c r="H139" s="165"/>
-      <c r="I139" s="165"/>
-      <c r="J139" s="165"/>
-      <c r="K139" s="165"/>
+      <c r="B139" s="151"/>
+      <c r="C139" s="151"/>
+      <c r="D139" s="159"/>
+      <c r="E139" s="159"/>
+      <c r="F139" s="159"/>
+      <c r="G139" s="159"/>
+      <c r="H139" s="159"/>
+      <c r="I139" s="159"/>
+      <c r="J139" s="159"/>
+      <c r="K139" s="159"/>
       <c r="L139" s="62"/>
     </row>
     <row r="140" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="159"/>
-      <c r="C140" s="159"/>
-      <c r="D140" s="165"/>
-      <c r="E140" s="165"/>
-      <c r="F140" s="165"/>
-      <c r="G140" s="165"/>
-      <c r="H140" s="165"/>
-      <c r="I140" s="165"/>
-      <c r="J140" s="165"/>
-      <c r="K140" s="165"/>
+      <c r="B140" s="151"/>
+      <c r="C140" s="151"/>
+      <c r="D140" s="159"/>
+      <c r="E140" s="159"/>
+      <c r="F140" s="159"/>
+      <c r="G140" s="159"/>
+      <c r="H140" s="159"/>
+      <c r="I140" s="159"/>
+      <c r="J140" s="159"/>
+      <c r="K140" s="159"/>
       <c r="L140" s="63"/>
     </row>
     <row r="141" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="159"/>
-      <c r="C141" s="159"/>
-      <c r="D141" s="165"/>
-      <c r="E141" s="165"/>
-      <c r="F141" s="165"/>
-      <c r="G141" s="165"/>
-      <c r="H141" s="165"/>
-      <c r="I141" s="165"/>
-      <c r="J141" s="165"/>
-      <c r="K141" s="165"/>
+      <c r="B141" s="151"/>
+      <c r="C141" s="151"/>
+      <c r="D141" s="159"/>
+      <c r="E141" s="159"/>
+      <c r="F141" s="159"/>
+      <c r="G141" s="159"/>
+      <c r="H141" s="159"/>
+      <c r="I141" s="159"/>
+      <c r="J141" s="159"/>
+      <c r="K141" s="159"/>
       <c r="L141" s="63"/>
     </row>
     <row r="142" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="159" t="s">
+      <c r="B142" s="151" t="s">
         <v>106</v>
       </c>
-      <c r="C142" s="159"/>
-      <c r="D142" s="166" t="str">
+      <c r="C142" s="151"/>
+      <c r="D142" s="160" t="str">
         <f>記入!B55</f>
         <v>${cv.subcontract}</v>
       </c>
-      <c r="E142" s="167"/>
-      <c r="F142" s="167"/>
-      <c r="G142" s="167"/>
-      <c r="H142" s="167"/>
-      <c r="I142" s="167"/>
-      <c r="J142" s="167"/>
-      <c r="K142" s="168"/>
+      <c r="E142" s="161"/>
+      <c r="F142" s="161"/>
+      <c r="G142" s="161"/>
+      <c r="H142" s="161"/>
+      <c r="I142" s="161"/>
+      <c r="J142" s="161"/>
+      <c r="K142" s="162"/>
       <c r="L142" s="62"/>
     </row>
     <row r="143" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="159"/>
-      <c r="C143" s="159"/>
-      <c r="D143" s="164" t="str">
+      <c r="B143" s="151"/>
+      <c r="C143" s="151"/>
+      <c r="D143" s="158" t="str">
         <f>記入!B56</f>
         <v>再委托公司：
 ${cv.subcontractcontent}</v>
       </c>
-      <c r="E143" s="165"/>
-      <c r="F143" s="165"/>
-      <c r="G143" s="165"/>
-      <c r="H143" s="165"/>
-      <c r="I143" s="165"/>
-      <c r="J143" s="165"/>
-      <c r="K143" s="165"/>
+      <c r="E143" s="159"/>
+      <c r="F143" s="159"/>
+      <c r="G143" s="159"/>
+      <c r="H143" s="159"/>
+      <c r="I143" s="159"/>
+      <c r="J143" s="159"/>
+      <c r="K143" s="159"/>
       <c r="L143" s="64"/>
     </row>
     <row r="144" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="159"/>
-      <c r="C144" s="159"/>
-      <c r="D144" s="165"/>
-      <c r="E144" s="165"/>
-      <c r="F144" s="165"/>
-      <c r="G144" s="165"/>
-      <c r="H144" s="165"/>
-      <c r="I144" s="165"/>
-      <c r="J144" s="165"/>
-      <c r="K144" s="165"/>
+      <c r="B144" s="151"/>
+      <c r="C144" s="151"/>
+      <c r="D144" s="159"/>
+      <c r="E144" s="159"/>
+      <c r="F144" s="159"/>
+      <c r="G144" s="159"/>
+      <c r="H144" s="159"/>
+      <c r="I144" s="159"/>
+      <c r="J144" s="159"/>
+      <c r="K144" s="159"/>
       <c r="L144" s="64"/>
     </row>
     <row r="145" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="159"/>
-      <c r="C145" s="159"/>
-      <c r="D145" s="165"/>
-      <c r="E145" s="165"/>
-      <c r="F145" s="165"/>
-      <c r="G145" s="165"/>
-      <c r="H145" s="165"/>
-      <c r="I145" s="165"/>
-      <c r="J145" s="165"/>
-      <c r="K145" s="165"/>
+      <c r="B145" s="151"/>
+      <c r="C145" s="151"/>
+      <c r="D145" s="159"/>
+      <c r="E145" s="159"/>
+      <c r="F145" s="159"/>
+      <c r="G145" s="159"/>
+      <c r="H145" s="159"/>
+      <c r="I145" s="159"/>
+      <c r="J145" s="159"/>
+      <c r="K145" s="159"/>
       <c r="L145" s="64"/>
     </row>
     <row r="146" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="159"/>
-      <c r="C146" s="159"/>
-      <c r="D146" s="165"/>
-      <c r="E146" s="165"/>
-      <c r="F146" s="165"/>
-      <c r="G146" s="165"/>
-      <c r="H146" s="165"/>
-      <c r="I146" s="165"/>
-      <c r="J146" s="165"/>
-      <c r="K146" s="165"/>
+      <c r="B146" s="151"/>
+      <c r="C146" s="151"/>
+      <c r="D146" s="159"/>
+      <c r="E146" s="159"/>
+      <c r="F146" s="159"/>
+      <c r="G146" s="159"/>
+      <c r="H146" s="159"/>
+      <c r="I146" s="159"/>
+      <c r="J146" s="159"/>
+      <c r="K146" s="159"/>
       <c r="L146" s="64"/>
     </row>
     <row r="147" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7257,202 +7260,202 @@
       <c r="L148" s="63"/>
     </row>
     <row r="149" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="159" t="s">
+      <c r="B149" s="151" t="s">
         <v>80</v>
       </c>
-      <c r="C149" s="159"/>
-      <c r="D149" s="169" t="s">
+      <c r="C149" s="151"/>
+      <c r="D149" s="152" t="s">
         <v>108</v>
       </c>
-      <c r="E149" s="169"/>
-      <c r="F149" s="169" t="s">
+      <c r="E149" s="152"/>
+      <c r="F149" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="G149" s="169"/>
-      <c r="H149" s="169" t="s">
+      <c r="G149" s="152"/>
+      <c r="H149" s="152" t="s">
         <v>110</v>
       </c>
-      <c r="I149" s="169"/>
-      <c r="J149" s="169" t="s">
+      <c r="I149" s="152"/>
+      <c r="J149" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="K149" s="169"/>
+      <c r="K149" s="152"/>
       <c r="L149" s="63"/>
     </row>
     <row r="150" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="159" t="s">
+      <c r="B150" s="151" t="s">
         <v>112</v>
       </c>
-      <c r="C150" s="159"/>
-      <c r="D150" s="140" t="s">
+      <c r="C150" s="151"/>
+      <c r="D150" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="E150" s="132"/>
-      <c r="F150" s="140" t="s">
+      <c r="E150" s="135"/>
+      <c r="F150" s="134" t="s">
         <v>180</v>
       </c>
-      <c r="G150" s="132"/>
-      <c r="H150" s="140" t="s">
+      <c r="G150" s="135"/>
+      <c r="H150" s="134" t="s">
         <v>181</v>
       </c>
-      <c r="I150" s="132"/>
-      <c r="J150" s="140" t="s">
+      <c r="I150" s="135"/>
+      <c r="J150" s="134" t="s">
         <v>182</v>
       </c>
-      <c r="K150" s="132"/>
+      <c r="K150" s="135"/>
       <c r="L150" s="64"/>
     </row>
     <row r="151" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="159" t="s">
+      <c r="B151" s="151" t="s">
         <v>113</v>
       </c>
-      <c r="C151" s="159"/>
-      <c r="D151" s="140" t="s">
+      <c r="C151" s="151"/>
+      <c r="D151" s="134" t="s">
         <v>183</v>
       </c>
-      <c r="E151" s="132"/>
-      <c r="F151" s="140" t="s">
+      <c r="E151" s="135"/>
+      <c r="F151" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="G151" s="132"/>
-      <c r="H151" s="140" t="s">
+      <c r="G151" s="135"/>
+      <c r="H151" s="134" t="s">
         <v>185</v>
       </c>
-      <c r="I151" s="132"/>
-      <c r="J151" s="140" t="s">
+      <c r="I151" s="135"/>
+      <c r="J151" s="134" t="s">
         <v>186</v>
       </c>
-      <c r="K151" s="132"/>
+      <c r="K151" s="135"/>
       <c r="L151" s="62"/>
     </row>
     <row r="152" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="159" t="s">
+      <c r="B152" s="151" t="s">
         <v>114</v>
       </c>
-      <c r="C152" s="159"/>
-      <c r="D152" s="142" t="s">
+      <c r="C152" s="151"/>
+      <c r="D152" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="E152" s="143"/>
-      <c r="F152" s="140" t="s">
+      <c r="E152" s="138"/>
+      <c r="F152" s="134" t="s">
         <v>188</v>
       </c>
-      <c r="G152" s="132"/>
-      <c r="H152" s="140" t="s">
+      <c r="G152" s="135"/>
+      <c r="H152" s="134" t="s">
         <v>189</v>
       </c>
-      <c r="I152" s="132"/>
-      <c r="J152" s="140" t="s">
+      <c r="I152" s="135"/>
+      <c r="J152" s="134" t="s">
         <v>190</v>
       </c>
-      <c r="K152" s="132"/>
+      <c r="K152" s="135"/>
       <c r="L152" s="62"/>
     </row>
     <row r="153" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="159" t="s">
+      <c r="B153" s="151" t="s">
         <v>115</v>
       </c>
-      <c r="C153" s="159"/>
-      <c r="D153" s="142" t="s">
+      <c r="C153" s="151"/>
+      <c r="D153" s="139" t="s">
         <v>191</v>
       </c>
-      <c r="E153" s="143"/>
-      <c r="F153" s="140" t="s">
+      <c r="E153" s="138"/>
+      <c r="F153" s="134" t="s">
         <v>192</v>
       </c>
-      <c r="G153" s="132"/>
-      <c r="H153" s="140" t="s">
+      <c r="G153" s="135"/>
+      <c r="H153" s="134" t="s">
         <v>193</v>
       </c>
-      <c r="I153" s="132"/>
-      <c r="J153" s="140" t="s">
+      <c r="I153" s="135"/>
+      <c r="J153" s="134" t="s">
         <v>194</v>
       </c>
-      <c r="K153" s="132"/>
+      <c r="K153" s="135"/>
       <c r="L153" s="62"/>
     </row>
     <row r="154" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="159" t="s">
+      <c r="B154" s="151" t="s">
         <v>116</v>
       </c>
-      <c r="C154" s="159"/>
-      <c r="D154" s="145" t="s">
+      <c r="C154" s="151"/>
+      <c r="D154" s="140" t="s">
         <v>195</v>
       </c>
-      <c r="E154" s="143"/>
-      <c r="F154" s="144" t="s">
+      <c r="E154" s="138"/>
+      <c r="F154" s="136" t="s">
         <v>196</v>
       </c>
-      <c r="G154" s="132"/>
-      <c r="H154" s="144" t="s">
+      <c r="G154" s="135"/>
+      <c r="H154" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="I154" s="132"/>
-      <c r="J154" s="144" t="s">
+      <c r="I154" s="135"/>
+      <c r="J154" s="136" t="s">
         <v>198</v>
       </c>
-      <c r="K154" s="132"/>
+      <c r="K154" s="135"/>
       <c r="L154" s="62"/>
     </row>
     <row r="155" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="159" t="s">
+      <c r="B155" s="151" t="s">
         <v>117</v>
       </c>
-      <c r="C155" s="159"/>
-      <c r="D155" s="143" t="str">
+      <c r="C155" s="151"/>
+      <c r="D155" s="138" t="str">
         <f>IF(記入!B29="","-",記入!B12)</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="E155" s="143"/>
-      <c r="F155" s="132" t="str">
+      <c r="E155" s="138"/>
+      <c r="F155" s="135" t="str">
         <f>IF(記入!B29="","-",記入!B12)</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="G155" s="132"/>
-      <c r="H155" s="132" t="str">
+      <c r="G155" s="135"/>
+      <c r="H155" s="135" t="str">
         <f>IF(記入!B29="","-",記入!B12)</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="I155" s="132"/>
-      <c r="J155" s="132" t="str">
+      <c r="I155" s="135"/>
+      <c r="J155" s="135" t="str">
         <f>IF(記入!B29="","-",記入!B12)</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="K155" s="132"/>
+      <c r="K155" s="135"/>
       <c r="L155" s="62"/>
     </row>
     <row r="156" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="159" t="s">
+      <c r="B156" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="C156" s="159"/>
-      <c r="D156" s="169" t="s">
+      <c r="C156" s="151"/>
+      <c r="D156" s="152" t="s">
         <v>119</v>
       </c>
-      <c r="E156" s="169"/>
-      <c r="F156" s="169"/>
-      <c r="G156" s="169"/>
-      <c r="H156" s="169"/>
-      <c r="I156" s="169"/>
-      <c r="J156" s="169"/>
-      <c r="K156" s="169"/>
+      <c r="E156" s="152"/>
+      <c r="F156" s="152"/>
+      <c r="G156" s="152"/>
+      <c r="H156" s="152"/>
+      <c r="I156" s="152"/>
+      <c r="J156" s="152"/>
+      <c r="K156" s="152"/>
       <c r="L156" s="63"/>
     </row>
     <row r="157" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="159" t="s">
+      <c r="B157" s="151" t="s">
         <v>118</v>
       </c>
-      <c r="C157" s="159"/>
-      <c r="D157" s="169" t="s">
+      <c r="C157" s="151"/>
+      <c r="D157" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="E157" s="169"/>
-      <c r="F157" s="169"/>
-      <c r="G157" s="169"/>
-      <c r="H157" s="169"/>
-      <c r="I157" s="169"/>
-      <c r="J157" s="169"/>
-      <c r="K157" s="169"/>
+      <c r="E157" s="152"/>
+      <c r="F157" s="152"/>
+      <c r="G157" s="152"/>
+      <c r="H157" s="152"/>
+      <c r="I157" s="152"/>
+      <c r="J157" s="152"/>
+      <c r="K157" s="152"/>
       <c r="L157" s="63"/>
     </row>
     <row r="158" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7484,60 +7487,60 @@
       <c r="L159" s="64"/>
     </row>
     <row r="160" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="170" t="s">
+      <c r="B160" s="153" t="s">
         <v>122</v>
       </c>
-      <c r="C160" s="170"/>
-      <c r="D160" s="170" t="str">
+      <c r="C160" s="153"/>
+      <c r="D160" s="153" t="str">
         <f>記入!B63</f>
         <v>${cv.othertermschinese}</v>
       </c>
-      <c r="E160" s="170"/>
-      <c r="F160" s="170"/>
-      <c r="G160" s="170"/>
-      <c r="H160" s="170"/>
-      <c r="I160" s="170"/>
-      <c r="J160" s="170"/>
-      <c r="K160" s="170"/>
+      <c r="E160" s="153"/>
+      <c r="F160" s="153"/>
+      <c r="G160" s="153"/>
+      <c r="H160" s="153"/>
+      <c r="I160" s="153"/>
+      <c r="J160" s="153"/>
+      <c r="K160" s="153"/>
       <c r="L160" s="64"/>
     </row>
     <row r="161" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="171"/>
-      <c r="C161" s="171"/>
-      <c r="D161" s="171"/>
-      <c r="E161" s="171"/>
-      <c r="F161" s="171"/>
-      <c r="G161" s="171"/>
-      <c r="H161" s="171"/>
-      <c r="I161" s="171"/>
-      <c r="J161" s="171"/>
-      <c r="K161" s="171"/>
+      <c r="B161" s="154"/>
+      <c r="C161" s="154"/>
+      <c r="D161" s="154"/>
+      <c r="E161" s="154"/>
+      <c r="F161" s="154"/>
+      <c r="G161" s="154"/>
+      <c r="H161" s="154"/>
+      <c r="I161" s="154"/>
+      <c r="J161" s="154"/>
+      <c r="K161" s="154"/>
       <c r="L161" s="64"/>
     </row>
     <row r="162" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="171"/>
-      <c r="C162" s="171"/>
-      <c r="D162" s="171"/>
-      <c r="E162" s="171"/>
-      <c r="F162" s="171"/>
-      <c r="G162" s="171"/>
-      <c r="H162" s="171"/>
-      <c r="I162" s="171"/>
-      <c r="J162" s="171"/>
-      <c r="K162" s="171"/>
+      <c r="B162" s="154"/>
+      <c r="C162" s="154"/>
+      <c r="D162" s="154"/>
+      <c r="E162" s="154"/>
+      <c r="F162" s="154"/>
+      <c r="G162" s="154"/>
+      <c r="H162" s="154"/>
+      <c r="I162" s="154"/>
+      <c r="J162" s="154"/>
+      <c r="K162" s="154"/>
       <c r="L162" s="62"/>
     </row>
     <row r="163" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="172"/>
-      <c r="C163" s="172"/>
-      <c r="D163" s="172"/>
-      <c r="E163" s="172"/>
-      <c r="F163" s="172"/>
-      <c r="G163" s="172"/>
-      <c r="H163" s="172"/>
-      <c r="I163" s="172"/>
-      <c r="J163" s="172"/>
-      <c r="K163" s="172"/>
+      <c r="B163" s="155"/>
+      <c r="C163" s="155"/>
+      <c r="D163" s="155"/>
+      <c r="E163" s="155"/>
+      <c r="F163" s="155"/>
+      <c r="G163" s="155"/>
+      <c r="H163" s="155"/>
+      <c r="I163" s="155"/>
+      <c r="J163" s="155"/>
+      <c r="K163" s="155"/>
       <c r="L163" s="64"/>
     </row>
     <row r="164" spans="2:12" s="57" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -7768,47 +7771,19 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:K156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D157:K157"/>
-    <mergeCell ref="B160:C163"/>
-    <mergeCell ref="D160:K163"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="F151:G151"/>
-    <mergeCell ref="H151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="H149:I149"/>
-    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="K127:L127"/>
+    <mergeCell ref="B60:L71"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B11:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="D131:K131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="D132:K132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="D133:K133"/>
     <mergeCell ref="B134:C134"/>
     <mergeCell ref="D134:K134"/>
     <mergeCell ref="B135:C141"/>
@@ -7816,19 +7791,47 @@
     <mergeCell ref="B142:C146"/>
     <mergeCell ref="D142:K142"/>
     <mergeCell ref="D143:K146"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="D131:K131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="D132:K132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="D133:K133"/>
-    <mergeCell ref="K127:L127"/>
-    <mergeCell ref="B60:L71"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B11:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="H149:I149"/>
+    <mergeCell ref="J149:K149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="F151:G151"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:K156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D157:K157"/>
+    <mergeCell ref="B160:C163"/>
+    <mergeCell ref="D160:K163"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/qiyueshu_shoutuo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570"/>
+    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -1524,7 +1524,7 @@
     <numFmt numFmtId="177" formatCode="0;[Red]0"/>
     <numFmt numFmtId="178" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
     <numFmt numFmtId="179" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="180" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="182" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -2014,7 +2014,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2197,14 +2197,35 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2311,51 +2332,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2365,61 +2407,61 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2431,56 +2473,17 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="7" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2795,8 +2798,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2813,14 +2816,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="G1" s="116" t="s">
+      <c r="B1" s="77"/>
+      <c r="G1" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="117"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="34" t="s">
@@ -2833,8 +2836,8 @@
         <v>14</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="119"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="35" t="s">
@@ -2844,8 +2847,8 @@
       <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="81"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="34" t="s">
@@ -2857,8 +2860,8 @@
       <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="81"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="34" t="s">
@@ -2868,8 +2871,8 @@
       <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="118"/>
-      <c r="H5" s="119"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="81"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="36" t="s">
@@ -2881,8 +2884,8 @@
       <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="118"/>
-      <c r="H6" s="119"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="81"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="36" t="s">
@@ -2894,8 +2897,8 @@
       <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="118"/>
-      <c r="H7" s="119"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="34" t="s">
@@ -2905,8 +2908,8 @@
       <c r="C8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="118"/>
-      <c r="H8" s="119"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="81"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="35" t="s">
@@ -2918,8 +2921,8 @@
       <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="118"/>
-      <c r="H9" s="119"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="81"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="34" t="s">
@@ -2931,8 +2934,8 @@
       <c r="C10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="118"/>
-      <c r="H10" s="119"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="34" t="s">
@@ -2944,8 +2947,8 @@
       <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="118"/>
-      <c r="H11" s="119"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="81"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="34" t="s">
@@ -2957,8 +2960,8 @@
       <c r="C12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="118"/>
-      <c r="H12" s="119"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="81"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="34" t="s">
@@ -2968,34 +2971,34 @@
       <c r="C13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="118"/>
-      <c r="H13" s="119"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="81"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="169" t="s">
         <v>195</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="118"/>
-      <c r="H14" s="119"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="81"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="169" t="s">
         <v>196</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="118"/>
-      <c r="H15" s="119"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="34" t="s">
@@ -3005,8 +3008,8 @@
       <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="118"/>
-      <c r="H16" s="119"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="34" t="s">
@@ -3016,8 +3019,8 @@
       <c r="C17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="118"/>
-      <c r="H17" s="119"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="81"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="34" t="s">
@@ -3027,8 +3030,8 @@
       <c r="C18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="118"/>
-      <c r="H18" s="119"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="34" t="s">
@@ -3040,8 +3043,8 @@
       <c r="C19" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="118"/>
-      <c r="H19" s="119"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="34" t="s">
@@ -3053,8 +3056,8 @@
       <c r="C20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="118"/>
-      <c r="H20" s="119"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="81"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="34" t="s">
@@ -3064,8 +3067,8 @@
       <c r="C21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="118"/>
-      <c r="H21" s="119"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="81"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="34" t="s">
@@ -3075,8 +3078,8 @@
       <c r="C22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="118"/>
-      <c r="H22" s="119"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="81"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="35" t="s">
@@ -3086,8 +3089,8 @@
       <c r="C23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="118"/>
-      <c r="H23" s="119"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A24" s="35" t="s">
@@ -3097,8 +3100,8 @@
       <c r="C24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="118"/>
-      <c r="H24" s="119"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="81"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A25" s="35" t="s">
@@ -3110,8 +3113,8 @@
       <c r="C25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="118"/>
-      <c r="H25" s="119"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="81"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="35" t="s">
@@ -3123,14 +3126,14 @@
       <c r="C26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="118"/>
-      <c r="H26" s="119"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="81"/>
     </row>
     <row r="27" spans="1:8" ht="1.5" hidden="1" customHeight="1">
       <c r="A27" s="37"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="119"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="81"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="38" t="s">
@@ -3151,47 +3154,47 @@
       <c r="F28" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="118"/>
-      <c r="H28" s="119"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="81"/>
     </row>
     <row r="29" spans="1:8" ht="13.5">
       <c r="A29" s="72" t="str">
         <f>IF(B29="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="B29" s="78" t="s">
+      <c r="B29" s="170" t="s">
         <v>155</v>
       </c>
-      <c r="C29" s="79" t="s">
+      <c r="C29" s="171" t="s">
         <v>156</v>
       </c>
-      <c r="D29" s="78" t="s">
+      <c r="D29" s="170" t="s">
         <v>157</v>
       </c>
-      <c r="E29" s="78" t="s">
+      <c r="E29" s="170" t="s">
         <v>158</v>
       </c>
       <c r="F29" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="120"/>
-      <c r="H29" s="119"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="81"/>
     </row>
     <row r="30" spans="1:8" ht="13.5">
       <c r="A30" s="72" t="str">
         <f>IF(B30="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="170" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="171" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="170" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="170" t="s">
         <v>161</v>
       </c>
       <c r="F30" s="71" t="s">
@@ -3205,16 +3208,16 @@
         <f>IF(B31="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="170" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="171" t="s">
         <v>163</v>
       </c>
-      <c r="D31" s="78" t="s">
+      <c r="D31" s="170" t="s">
         <v>164</v>
       </c>
-      <c r="E31" s="78" t="s">
+      <c r="E31" s="170" t="s">
         <v>165</v>
       </c>
       <c r="F31" s="71" t="s">
@@ -3228,16 +3231,16 @@
         <f>IF(B32="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="170" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="171" t="s">
         <v>167</v>
       </c>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="170" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="78" t="s">
+      <c r="E32" s="170" t="s">
         <v>168</v>
       </c>
       <c r="F32" s="71" t="s">
@@ -3261,14 +3264,14 @@
       <c r="B35" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C35" s="121" t="s">
+      <c r="C35" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="122"/>
-      <c r="E35" s="123" t="s">
+      <c r="D35" s="84"/>
+      <c r="E35" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="F35" s="124"/>
+      <c r="F35" s="86"/>
     </row>
     <row r="36" spans="1:6" ht="13.5">
       <c r="A36" s="11" t="s">
@@ -3277,285 +3280,279 @@
       <c r="B36" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="121" t="s">
+      <c r="C36" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="122"/>
-      <c r="E36" s="123" t="s">
+      <c r="D36" s="84"/>
+      <c r="E36" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="124"/>
+      <c r="F36" s="86"/>
     </row>
     <row r="37" spans="1:6" ht="13.5">
       <c r="A37" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="77" t="s">
+      <c r="B37" s="172" t="s">
         <v>197</v>
       </c>
       <c r="C37" s="41"/>
       <c r="D37" s="41"/>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="89" t="s">
+      <c r="B38" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="91"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="98"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A39" s="85"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="94"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="101"/>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A40" s="85"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="93"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="94"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="101"/>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A41" s="85"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="94"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="100"/>
+      <c r="F41" s="101"/>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A42" s="85"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="94"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="101"/>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A43" s="86"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="97"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="102"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="104"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="112" t="s">
+      <c r="A44" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="110" t="s">
+      <c r="B44" s="117" t="s">
         <v>144</v>
       </c>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="118"/>
+      <c r="E44" s="118"/>
+      <c r="F44" s="118"/>
     </row>
     <row r="45" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A45" s="112"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
+      <c r="A45" s="119"/>
+      <c r="B45" s="118"/>
+      <c r="C45" s="118"/>
+      <c r="D45" s="118"/>
+      <c r="E45" s="118"/>
+      <c r="F45" s="118"/>
     </row>
     <row r="46" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A46" s="112"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
+      <c r="A46" s="119"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A47" s="112"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
+      <c r="A47" s="119"/>
+      <c r="B47" s="118"/>
+      <c r="C47" s="118"/>
+      <c r="D47" s="118"/>
+      <c r="E47" s="118"/>
+      <c r="F47" s="118"/>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A48" s="112"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="111"/>
+      <c r="A48" s="119"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A49" s="112"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
+      <c r="A49" s="119"/>
+      <c r="B49" s="118"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="118"/>
+      <c r="E49" s="118"/>
+      <c r="F49" s="118"/>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A50" s="84" t="s">
+      <c r="A50" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="107" t="s">
+      <c r="B50" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="C50" s="108"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="108"/>
-      <c r="F50" s="109"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="116"/>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A51" s="87"/>
-      <c r="B51" s="98" t="s">
+      <c r="A51" s="94"/>
+      <c r="B51" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99"/>
-      <c r="E51" s="99"/>
-      <c r="F51" s="100"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="107"/>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A52" s="87"/>
-      <c r="B52" s="101"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="103"/>
+      <c r="A52" s="94"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="110"/>
     </row>
     <row r="53" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A53" s="87"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="102"/>
-      <c r="D53" s="102"/>
-      <c r="E53" s="102"/>
-      <c r="F53" s="103"/>
+      <c r="A53" s="94"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="110"/>
     </row>
     <row r="54" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A54" s="88"/>
-      <c r="B54" s="104"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="106"/>
+      <c r="A54" s="95"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="113"/>
     </row>
     <row r="55" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A55" s="113" t="s">
+      <c r="A55" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="107" t="s">
+      <c r="B55" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="C55" s="108"/>
-      <c r="D55" s="108"/>
-      <c r="E55" s="108"/>
-      <c r="F55" s="109"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="116"/>
     </row>
     <row r="56" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A56" s="113"/>
-      <c r="B56" s="114" t="s">
+      <c r="A56" s="120"/>
+      <c r="B56" s="121" t="s">
         <v>146</v>
       </c>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
     </row>
     <row r="57" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A57" s="113"/>
-      <c r="B57" s="83"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
+      <c r="A57" s="120"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
     </row>
     <row r="58" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A58" s="113"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
+      <c r="A58" s="120"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="113"/>
-      <c r="B59" s="83"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
+      <c r="A59" s="120"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="90"/>
+      <c r="E59" s="90"/>
+      <c r="F59" s="90"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="80" t="s">
+      <c r="A60" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="82" t="s">
+      <c r="B60" s="89" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="80"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
+      <c r="A61" s="87"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="80"/>
-      <c r="B62" s="83"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
+      <c r="A62" s="87"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="80" t="s">
+      <c r="A63" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="B63" s="82" t="s">
+      <c r="B63" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="81"/>
-      <c r="B64" s="83"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
+      <c r="A64" s="88"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="90"/>
+      <c r="E64" s="90"/>
+      <c r="F64" s="90"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="81"/>
-      <c r="B65" s="83"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
+      <c r="A65" s="88"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
+      <c r="F65" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="G1:H29"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="B60:F62"/>
@@ -3570,6 +3567,12 @@
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="B55:F55"/>
     <mergeCell ref="B56:F59"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="G1:H29"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="2">
@@ -3591,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L190"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A130" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153:K153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3608,18 +3611,18 @@
       <c r="J2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="140" t="str">
+      <c r="K2" s="122" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="140"/>
+      <c r="L2" s="122"/>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="F3" s="145" t="s">
+      <c r="F3" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="15" t="s">
@@ -3678,11 +3681,11 @@
         <v>66</v>
       </c>
       <c r="C8" s="42"/>
-      <c r="D8" s="149" t="str">
+      <c r="D8" s="127" t="str">
         <f>記入!B37</f>
         <v>${signingdate}</v>
       </c>
-      <c r="E8" s="149"/>
+      <c r="E8" s="127"/>
       <c r="F8" s="43" t="s">
         <v>61</v>
       </c>
@@ -3722,617 +3725,617 @@
       <c r="L10" s="16"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="146"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="146"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="146"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="146"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="124"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="146"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="124"/>
+      <c r="L15" s="124"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
+      <c r="L16" s="124"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="146"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="124"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="124"/>
+      <c r="L18" s="124"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="146"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="146"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="146"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="146"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="146"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="146"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="146"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="124"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="146"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="146"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="146"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="146"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="146"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="146"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="124"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="124"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
+      <c r="B28" s="124"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="124"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="124"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="124"/>
+      <c r="L28" s="124"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="124"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="124"/>
+      <c r="L29" s="124"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="146"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="124"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="124"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="146"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="124"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="124"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="124"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
+      <c r="B33" s="124"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="124"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="124"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="146"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="146"/>
+      <c r="B34" s="124"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="124"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="146"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="146"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="146"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="124"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="146"/>
-      <c r="C36" s="146"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="146"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="146"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="124"/>
+      <c r="L36" s="124"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="146"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="146"/>
-      <c r="K37" s="146"/>
-      <c r="L37" s="146"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="124"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="124"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="124"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="124"/>
+      <c r="L37" s="124"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="146"/>
-      <c r="C38" s="146"/>
-      <c r="D38" s="146"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="146"/>
-      <c r="K38" s="146"/>
-      <c r="L38" s="146"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="124"/>
+      <c r="L38" s="124"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="146"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="146"/>
-      <c r="K39" s="146"/>
-      <c r="L39" s="146"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="124"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="124"/>
+      <c r="K39" s="124"/>
+      <c r="L39" s="124"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="146"/>
-      <c r="C40" s="146"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="146"/>
-      <c r="K40" s="146"/>
-      <c r="L40" s="146"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="124"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="146"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
-      <c r="K41" s="146"/>
-      <c r="L41" s="146"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="124"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="146"/>
-      <c r="C42" s="146"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
-      <c r="K42" s="146"/>
-      <c r="L42" s="146"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="124"/>
+      <c r="L42" s="124"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="146"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="146"/>
-      <c r="I43" s="146"/>
-      <c r="J43" s="146"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="124"/>
+      <c r="G43" s="124"/>
+      <c r="H43" s="124"/>
+      <c r="I43" s="124"/>
+      <c r="J43" s="124"/>
+      <c r="K43" s="124"/>
+      <c r="L43" s="124"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="146"/>
-      <c r="C44" s="146"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="146"/>
-      <c r="F44" s="146"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="146"/>
-      <c r="I44" s="146"/>
-      <c r="J44" s="146"/>
-      <c r="K44" s="146"/>
-      <c r="L44" s="146"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="124"/>
+      <c r="K44" s="124"/>
+      <c r="L44" s="124"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="146"/>
-      <c r="C45" s="146"/>
-      <c r="D45" s="146"/>
-      <c r="E45" s="146"/>
-      <c r="F45" s="146"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="146"/>
-      <c r="I45" s="146"/>
-      <c r="J45" s="146"/>
-      <c r="K45" s="146"/>
-      <c r="L45" s="146"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="124"/>
+      <c r="L45" s="124"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="146"/>
-      <c r="C46" s="146"/>
-      <c r="D46" s="146"/>
-      <c r="E46" s="146"/>
-      <c r="F46" s="146"/>
-      <c r="G46" s="146"/>
-      <c r="H46" s="146"/>
-      <c r="I46" s="146"/>
-      <c r="J46" s="146"/>
-      <c r="K46" s="146"/>
-      <c r="L46" s="146"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="124"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="146"/>
-      <c r="C47" s="146"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="146"/>
-      <c r="F47" s="146"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="146"/>
-      <c r="I47" s="146"/>
-      <c r="J47" s="146"/>
-      <c r="K47" s="146"/>
-      <c r="L47" s="146"/>
+      <c r="B47" s="124"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="124"/>
+      <c r="K47" s="124"/>
+      <c r="L47" s="124"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="146"/>
-      <c r="C48" s="146"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="146"/>
-      <c r="F48" s="146"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="146"/>
-      <c r="J48" s="146"/>
-      <c r="K48" s="146"/>
-      <c r="L48" s="146"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="124"/>
+      <c r="J48" s="124"/>
+      <c r="K48" s="124"/>
+      <c r="L48" s="124"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="146"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="146"/>
-      <c r="F49" s="146"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="146"/>
-      <c r="I49" s="146"/>
-      <c r="J49" s="146"/>
-      <c r="K49" s="146"/>
-      <c r="L49" s="146"/>
+      <c r="B49" s="124"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="124"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="146"/>
-      <c r="C50" s="146"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="146"/>
-      <c r="F50" s="146"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="146"/>
-      <c r="I50" s="146"/>
-      <c r="J50" s="146"/>
-      <c r="K50" s="146"/>
-      <c r="L50" s="146"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="124"/>
+      <c r="J50" s="124"/>
+      <c r="K50" s="124"/>
+      <c r="L50" s="124"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="146"/>
-      <c r="C51" s="146"/>
-      <c r="D51" s="146"/>
-      <c r="E51" s="146"/>
-      <c r="F51" s="146"/>
-      <c r="G51" s="146"/>
-      <c r="H51" s="146"/>
-      <c r="I51" s="146"/>
-      <c r="J51" s="146"/>
-      <c r="K51" s="146"/>
-      <c r="L51" s="146"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="124"/>
+      <c r="L51" s="124"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="146"/>
-      <c r="C52" s="146"/>
-      <c r="D52" s="146"/>
-      <c r="E52" s="146"/>
-      <c r="F52" s="146"/>
-      <c r="G52" s="146"/>
-      <c r="H52" s="146"/>
-      <c r="I52" s="146"/>
-      <c r="J52" s="146"/>
-      <c r="K52" s="146"/>
-      <c r="L52" s="146"/>
+      <c r="B52" s="124"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="124"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="124"/>
+      <c r="L52" s="124"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="146"/>
-      <c r="C53" s="146"/>
-      <c r="D53" s="146"/>
-      <c r="E53" s="146"/>
-      <c r="F53" s="146"/>
-      <c r="G53" s="146"/>
-      <c r="H53" s="146"/>
-      <c r="I53" s="146"/>
-      <c r="J53" s="146"/>
-      <c r="K53" s="146"/>
-      <c r="L53" s="146"/>
+      <c r="B53" s="124"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="124"/>
+      <c r="G53" s="124"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="124"/>
+      <c r="J53" s="124"/>
+      <c r="K53" s="124"/>
+      <c r="L53" s="124"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="146"/>
-      <c r="C54" s="146"/>
-      <c r="D54" s="146"/>
-      <c r="E54" s="146"/>
-      <c r="F54" s="146"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="146"/>
-      <c r="I54" s="146"/>
-      <c r="J54" s="146"/>
-      <c r="K54" s="146"/>
-      <c r="L54" s="146"/>
+      <c r="B54" s="124"/>
+      <c r="C54" s="124"/>
+      <c r="D54" s="124"/>
+      <c r="E54" s="124"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="124"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="124"/>
+      <c r="J54" s="124"/>
+      <c r="K54" s="124"/>
+      <c r="L54" s="124"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="146"/>
-      <c r="C55" s="146"/>
-      <c r="D55" s="146"/>
-      <c r="E55" s="146"/>
-      <c r="F55" s="146"/>
-      <c r="G55" s="146"/>
-      <c r="H55" s="146"/>
-      <c r="I55" s="146"/>
-      <c r="J55" s="146"/>
-      <c r="K55" s="146"/>
-      <c r="L55" s="146"/>
+      <c r="B55" s="124"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="124"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="124"/>
+      <c r="J55" s="124"/>
+      <c r="K55" s="124"/>
+      <c r="L55" s="124"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="146"/>
-      <c r="C56" s="146"/>
-      <c r="D56" s="146"/>
-      <c r="E56" s="146"/>
-      <c r="F56" s="146"/>
-      <c r="G56" s="146"/>
-      <c r="H56" s="146"/>
-      <c r="I56" s="146"/>
-      <c r="J56" s="146"/>
-      <c r="K56" s="146"/>
-      <c r="L56" s="146"/>
+      <c r="B56" s="124"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="124"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="124"/>
+      <c r="L56" s="124"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="146"/>
-      <c r="C57" s="146"/>
-      <c r="D57" s="146"/>
-      <c r="E57" s="146"/>
-      <c r="F57" s="146"/>
-      <c r="G57" s="146"/>
-      <c r="H57" s="146"/>
-      <c r="I57" s="146"/>
-      <c r="J57" s="146"/>
-      <c r="K57" s="146"/>
-      <c r="L57" s="146"/>
+      <c r="B57" s="124"/>
+      <c r="C57" s="124"/>
+      <c r="D57" s="124"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="124"/>
+      <c r="J57" s="124"/>
+      <c r="K57" s="124"/>
+      <c r="L57" s="124"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
       <c r="B58" s="18"/>
@@ -4351,169 +4354,169 @@
       <c r="J59" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K59" s="140" t="str">
+      <c r="K59" s="122" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L59" s="140"/>
+      <c r="L59" s="122"/>
     </row>
     <row r="60" spans="2:12">
-      <c r="B60" s="147" t="s">
+      <c r="B60" s="125" t="s">
         <v>45</v>
       </c>
-      <c r="C60" s="148"/>
-      <c r="D60" s="148"/>
-      <c r="E60" s="148"/>
-      <c r="F60" s="148"/>
-      <c r="G60" s="148"/>
-      <c r="H60" s="148"/>
-      <c r="I60" s="148"/>
-      <c r="J60" s="148"/>
-      <c r="K60" s="148"/>
-      <c r="L60" s="148"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
+      <c r="G60" s="126"/>
+      <c r="H60" s="126"/>
+      <c r="I60" s="126"/>
+      <c r="J60" s="126"/>
+      <c r="K60" s="126"/>
+      <c r="L60" s="126"/>
     </row>
     <row r="61" spans="2:12">
-      <c r="B61" s="148"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="148"/>
-      <c r="E61" s="148"/>
-      <c r="F61" s="148"/>
-      <c r="G61" s="148"/>
-      <c r="H61" s="148"/>
-      <c r="I61" s="148"/>
-      <c r="J61" s="148"/>
-      <c r="K61" s="148"/>
-      <c r="L61" s="148"/>
+      <c r="B61" s="126"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="126"/>
+      <c r="F61" s="126"/>
+      <c r="G61" s="126"/>
+      <c r="H61" s="126"/>
+      <c r="I61" s="126"/>
+      <c r="J61" s="126"/>
+      <c r="K61" s="126"/>
+      <c r="L61" s="126"/>
     </row>
     <row r="62" spans="2:12">
-      <c r="B62" s="148"/>
-      <c r="C62" s="148"/>
-      <c r="D62" s="148"/>
-      <c r="E62" s="148"/>
-      <c r="F62" s="148"/>
-      <c r="G62" s="148"/>
-      <c r="H62" s="148"/>
-      <c r="I62" s="148"/>
-      <c r="J62" s="148"/>
-      <c r="K62" s="148"/>
-      <c r="L62" s="148"/>
+      <c r="B62" s="126"/>
+      <c r="C62" s="126"/>
+      <c r="D62" s="126"/>
+      <c r="E62" s="126"/>
+      <c r="F62" s="126"/>
+      <c r="G62" s="126"/>
+      <c r="H62" s="126"/>
+      <c r="I62" s="126"/>
+      <c r="J62" s="126"/>
+      <c r="K62" s="126"/>
+      <c r="L62" s="126"/>
     </row>
     <row r="63" spans="2:12">
-      <c r="B63" s="148"/>
-      <c r="C63" s="148"/>
-      <c r="D63" s="148"/>
-      <c r="E63" s="148"/>
-      <c r="F63" s="148"/>
-      <c r="G63" s="148"/>
-      <c r="H63" s="148"/>
-      <c r="I63" s="148"/>
-      <c r="J63" s="148"/>
-      <c r="K63" s="148"/>
-      <c r="L63" s="148"/>
+      <c r="B63" s="126"/>
+      <c r="C63" s="126"/>
+      <c r="D63" s="126"/>
+      <c r="E63" s="126"/>
+      <c r="F63" s="126"/>
+      <c r="G63" s="126"/>
+      <c r="H63" s="126"/>
+      <c r="I63" s="126"/>
+      <c r="J63" s="126"/>
+      <c r="K63" s="126"/>
+      <c r="L63" s="126"/>
     </row>
     <row r="64" spans="2:12">
-      <c r="B64" s="148"/>
-      <c r="C64" s="148"/>
-      <c r="D64" s="148"/>
-      <c r="E64" s="148"/>
-      <c r="F64" s="148"/>
-      <c r="G64" s="148"/>
-      <c r="H64" s="148"/>
-      <c r="I64" s="148"/>
-      <c r="J64" s="148"/>
-      <c r="K64" s="148"/>
-      <c r="L64" s="148"/>
+      <c r="B64" s="126"/>
+      <c r="C64" s="126"/>
+      <c r="D64" s="126"/>
+      <c r="E64" s="126"/>
+      <c r="F64" s="126"/>
+      <c r="G64" s="126"/>
+      <c r="H64" s="126"/>
+      <c r="I64" s="126"/>
+      <c r="J64" s="126"/>
+      <c r="K64" s="126"/>
+      <c r="L64" s="126"/>
     </row>
     <row r="65" spans="2:12">
-      <c r="B65" s="148"/>
-      <c r="C65" s="148"/>
-      <c r="D65" s="148"/>
-      <c r="E65" s="148"/>
-      <c r="F65" s="148"/>
-      <c r="G65" s="148"/>
-      <c r="H65" s="148"/>
-      <c r="I65" s="148"/>
-      <c r="J65" s="148"/>
-      <c r="K65" s="148"/>
-      <c r="L65" s="148"/>
+      <c r="B65" s="126"/>
+      <c r="C65" s="126"/>
+      <c r="D65" s="126"/>
+      <c r="E65" s="126"/>
+      <c r="F65" s="126"/>
+      <c r="G65" s="126"/>
+      <c r="H65" s="126"/>
+      <c r="I65" s="126"/>
+      <c r="J65" s="126"/>
+      <c r="K65" s="126"/>
+      <c r="L65" s="126"/>
     </row>
     <row r="66" spans="2:12">
-      <c r="B66" s="148"/>
-      <c r="C66" s="148"/>
-      <c r="D66" s="148"/>
-      <c r="E66" s="148"/>
-      <c r="F66" s="148"/>
-      <c r="G66" s="148"/>
-      <c r="H66" s="148"/>
-      <c r="I66" s="148"/>
-      <c r="J66" s="148"/>
-      <c r="K66" s="148"/>
-      <c r="L66" s="148"/>
+      <c r="B66" s="126"/>
+      <c r="C66" s="126"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="126"/>
+      <c r="F66" s="126"/>
+      <c r="G66" s="126"/>
+      <c r="H66" s="126"/>
+      <c r="I66" s="126"/>
+      <c r="J66" s="126"/>
+      <c r="K66" s="126"/>
+      <c r="L66" s="126"/>
     </row>
     <row r="67" spans="2:12">
-      <c r="B67" s="148"/>
-      <c r="C67" s="148"/>
-      <c r="D67" s="148"/>
-      <c r="E67" s="148"/>
-      <c r="F67" s="148"/>
-      <c r="G67" s="148"/>
-      <c r="H67" s="148"/>
-      <c r="I67" s="148"/>
-      <c r="J67" s="148"/>
-      <c r="K67" s="148"/>
-      <c r="L67" s="148"/>
+      <c r="B67" s="126"/>
+      <c r="C67" s="126"/>
+      <c r="D67" s="126"/>
+      <c r="E67" s="126"/>
+      <c r="F67" s="126"/>
+      <c r="G67" s="126"/>
+      <c r="H67" s="126"/>
+      <c r="I67" s="126"/>
+      <c r="J67" s="126"/>
+      <c r="K67" s="126"/>
+      <c r="L67" s="126"/>
     </row>
     <row r="68" spans="2:12">
-      <c r="B68" s="148"/>
-      <c r="C68" s="148"/>
-      <c r="D68" s="148"/>
-      <c r="E68" s="148"/>
-      <c r="F68" s="148"/>
-      <c r="G68" s="148"/>
-      <c r="H68" s="148"/>
-      <c r="I68" s="148"/>
-      <c r="J68" s="148"/>
-      <c r="K68" s="148"/>
-      <c r="L68" s="148"/>
+      <c r="B68" s="126"/>
+      <c r="C68" s="126"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="126"/>
+      <c r="G68" s="126"/>
+      <c r="H68" s="126"/>
+      <c r="I68" s="126"/>
+      <c r="J68" s="126"/>
+      <c r="K68" s="126"/>
+      <c r="L68" s="126"/>
     </row>
     <row r="69" spans="2:12">
-      <c r="B69" s="148"/>
-      <c r="C69" s="148"/>
-      <c r="D69" s="148"/>
-      <c r="E69" s="148"/>
-      <c r="F69" s="148"/>
-      <c r="G69" s="148"/>
-      <c r="H69" s="148"/>
-      <c r="I69" s="148"/>
-      <c r="J69" s="148"/>
-      <c r="K69" s="148"/>
-      <c r="L69" s="148"/>
+      <c r="B69" s="126"/>
+      <c r="C69" s="126"/>
+      <c r="D69" s="126"/>
+      <c r="E69" s="126"/>
+      <c r="F69" s="126"/>
+      <c r="G69" s="126"/>
+      <c r="H69" s="126"/>
+      <c r="I69" s="126"/>
+      <c r="J69" s="126"/>
+      <c r="K69" s="126"/>
+      <c r="L69" s="126"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="148"/>
-      <c r="C70" s="148"/>
-      <c r="D70" s="148"/>
-      <c r="E70" s="148"/>
-      <c r="F70" s="148"/>
-      <c r="G70" s="148"/>
-      <c r="H70" s="148"/>
-      <c r="I70" s="148"/>
-      <c r="J70" s="148"/>
-      <c r="K70" s="148"/>
-      <c r="L70" s="148"/>
+      <c r="B70" s="126"/>
+      <c r="C70" s="126"/>
+      <c r="D70" s="126"/>
+      <c r="E70" s="126"/>
+      <c r="F70" s="126"/>
+      <c r="G70" s="126"/>
+      <c r="H70" s="126"/>
+      <c r="I70" s="126"/>
+      <c r="J70" s="126"/>
+      <c r="K70" s="126"/>
+      <c r="L70" s="126"/>
     </row>
     <row r="71" spans="2:12">
-      <c r="B71" s="148"/>
-      <c r="C71" s="148"/>
-      <c r="D71" s="148"/>
-      <c r="E71" s="148"/>
-      <c r="F71" s="148"/>
-      <c r="G71" s="148"/>
-      <c r="H71" s="148"/>
-      <c r="I71" s="148"/>
-      <c r="J71" s="148"/>
-      <c r="K71" s="148"/>
-      <c r="L71" s="148"/>
+      <c r="B71" s="126"/>
+      <c r="C71" s="126"/>
+      <c r="D71" s="126"/>
+      <c r="E71" s="126"/>
+      <c r="F71" s="126"/>
+      <c r="G71" s="126"/>
+      <c r="H71" s="126"/>
+      <c r="I71" s="126"/>
+      <c r="J71" s="126"/>
+      <c r="K71" s="126"/>
+      <c r="L71" s="126"/>
     </row>
     <row r="73" spans="2:12" ht="14.25">
       <c r="B73" s="16" t="s">
@@ -4752,11 +4755,11 @@
       <c r="J127" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K127" s="140" t="str">
+      <c r="K127" s="122" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L127" s="140"/>
+      <c r="L127" s="122"/>
     </row>
     <row r="128" spans="2:12" ht="17.25">
       <c r="B128" s="48" t="s">
@@ -4802,245 +4805,245 @@
       <c r="L130" s="49"/>
     </row>
     <row r="131" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="136" t="s">
+      <c r="B131" s="129" t="s">
         <v>72</v>
       </c>
-      <c r="C131" s="136"/>
-      <c r="D131" s="126" t="str">
+      <c r="C131" s="129"/>
+      <c r="D131" s="137" t="str">
         <f>記入!B10</f>
         <v>${cv.pjnamejapanese}</v>
       </c>
-      <c r="E131" s="126"/>
-      <c r="F131" s="126"/>
-      <c r="G131" s="126"/>
-      <c r="H131" s="126"/>
-      <c r="I131" s="126"/>
-      <c r="J131" s="126"/>
-      <c r="K131" s="126"/>
+      <c r="E131" s="137"/>
+      <c r="F131" s="137"/>
+      <c r="G131" s="137"/>
+      <c r="H131" s="137"/>
+      <c r="I131" s="137"/>
+      <c r="J131" s="137"/>
+      <c r="K131" s="137"/>
       <c r="L131" s="47"/>
     </row>
     <row r="132" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="136" t="s">
+      <c r="B132" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="C132" s="136"/>
-      <c r="D132" s="125" t="str">
+      <c r="C132" s="129"/>
+      <c r="D132" s="142" t="str">
         <f>記入!B14</f>
         <v>${openingdate}</v>
       </c>
-      <c r="E132" s="126"/>
-      <c r="F132" s="126"/>
-      <c r="G132" s="126"/>
-      <c r="H132" s="126"/>
-      <c r="I132" s="126"/>
-      <c r="J132" s="126"/>
-      <c r="K132" s="126"/>
+      <c r="E132" s="142"/>
+      <c r="F132" s="142"/>
+      <c r="G132" s="142"/>
+      <c r="H132" s="142"/>
+      <c r="I132" s="142"/>
+      <c r="J132" s="142"/>
+      <c r="K132" s="142"/>
       <c r="L132" s="47"/>
     </row>
     <row r="133" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B133" s="136" t="s">
+      <c r="B133" s="129" t="s">
         <v>74</v>
       </c>
-      <c r="C133" s="136"/>
-      <c r="D133" s="125" t="str">
+      <c r="C133" s="129"/>
+      <c r="D133" s="142" t="str">
         <f>記入!B15</f>
         <v>${enddate}</v>
       </c>
-      <c r="E133" s="126"/>
-      <c r="F133" s="126"/>
-      <c r="G133" s="126"/>
-      <c r="H133" s="126"/>
-      <c r="I133" s="126"/>
-      <c r="J133" s="126"/>
-      <c r="K133" s="126"/>
+      <c r="E133" s="142"/>
+      <c r="F133" s="142"/>
+      <c r="G133" s="142"/>
+      <c r="H133" s="142"/>
+      <c r="I133" s="142"/>
+      <c r="J133" s="142"/>
+      <c r="K133" s="142"/>
       <c r="L133" s="47"/>
     </row>
     <row r="134" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B134" s="136" t="s">
+      <c r="B134" s="129" t="s">
         <v>75</v>
       </c>
-      <c r="C134" s="136"/>
-      <c r="D134" s="127" t="e">
+      <c r="C134" s="129"/>
+      <c r="D134" s="143" t="e">
         <f>記入!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E134" s="127"/>
-      <c r="F134" s="127"/>
-      <c r="G134" s="127"/>
-      <c r="H134" s="127"/>
-      <c r="I134" s="127"/>
-      <c r="J134" s="127"/>
-      <c r="K134" s="127"/>
+      <c r="E134" s="143"/>
+      <c r="F134" s="143"/>
+      <c r="G134" s="143"/>
+      <c r="H134" s="143"/>
+      <c r="I134" s="143"/>
+      <c r="J134" s="143"/>
+      <c r="K134" s="143"/>
       <c r="L134" s="47"/>
     </row>
     <row r="135" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="144" t="s">
+      <c r="B135" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="C135" s="136"/>
-      <c r="D135" s="128" t="str">
+      <c r="C135" s="129"/>
+      <c r="D135" s="133" t="str">
         <f>記入!B38</f>
         <v>${cv.technicalcontentjapanese}</v>
       </c>
-      <c r="E135" s="129"/>
-      <c r="F135" s="129"/>
-      <c r="G135" s="129"/>
-      <c r="H135" s="129"/>
-      <c r="I135" s="129"/>
-      <c r="J135" s="129"/>
-      <c r="K135" s="129"/>
+      <c r="E135" s="134"/>
+      <c r="F135" s="134"/>
+      <c r="G135" s="134"/>
+      <c r="H135" s="134"/>
+      <c r="I135" s="134"/>
+      <c r="J135" s="134"/>
+      <c r="K135" s="134"/>
       <c r="L135" s="47"/>
     </row>
     <row r="136" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="136"/>
-      <c r="C136" s="136"/>
-      <c r="D136" s="129"/>
-      <c r="E136" s="129"/>
-      <c r="F136" s="129"/>
-      <c r="G136" s="129"/>
-      <c r="H136" s="129"/>
-      <c r="I136" s="129"/>
-      <c r="J136" s="129"/>
-      <c r="K136" s="129"/>
+      <c r="B136" s="129"/>
+      <c r="C136" s="129"/>
+      <c r="D136" s="134"/>
+      <c r="E136" s="134"/>
+      <c r="F136" s="134"/>
+      <c r="G136" s="134"/>
+      <c r="H136" s="134"/>
+      <c r="I136" s="134"/>
+      <c r="J136" s="134"/>
+      <c r="K136" s="134"/>
       <c r="L136" s="47"/>
     </row>
     <row r="137" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="136"/>
-      <c r="C137" s="136"/>
-      <c r="D137" s="129"/>
-      <c r="E137" s="129"/>
-      <c r="F137" s="129"/>
-      <c r="G137" s="129"/>
-      <c r="H137" s="129"/>
-      <c r="I137" s="129"/>
-      <c r="J137" s="129"/>
-      <c r="K137" s="129"/>
+      <c r="B137" s="129"/>
+      <c r="C137" s="129"/>
+      <c r="D137" s="134"/>
+      <c r="E137" s="134"/>
+      <c r="F137" s="134"/>
+      <c r="G137" s="134"/>
+      <c r="H137" s="134"/>
+      <c r="I137" s="134"/>
+      <c r="J137" s="134"/>
+      <c r="K137" s="134"/>
       <c r="L137" s="47"/>
     </row>
     <row r="138" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="136"/>
-      <c r="C138" s="136"/>
-      <c r="D138" s="129"/>
-      <c r="E138" s="129"/>
-      <c r="F138" s="129"/>
-      <c r="G138" s="129"/>
-      <c r="H138" s="129"/>
-      <c r="I138" s="129"/>
-      <c r="J138" s="129"/>
-      <c r="K138" s="129"/>
+      <c r="B138" s="129"/>
+      <c r="C138" s="129"/>
+      <c r="D138" s="134"/>
+      <c r="E138" s="134"/>
+      <c r="F138" s="134"/>
+      <c r="G138" s="134"/>
+      <c r="H138" s="134"/>
+      <c r="I138" s="134"/>
+      <c r="J138" s="134"/>
+      <c r="K138" s="134"/>
       <c r="L138" s="47"/>
     </row>
     <row r="139" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="136"/>
-      <c r="C139" s="136"/>
-      <c r="D139" s="129"/>
-      <c r="E139" s="129"/>
-      <c r="F139" s="129"/>
-      <c r="G139" s="129"/>
-      <c r="H139" s="129"/>
-      <c r="I139" s="129"/>
-      <c r="J139" s="129"/>
-      <c r="K139" s="129"/>
+      <c r="B139" s="129"/>
+      <c r="C139" s="129"/>
+      <c r="D139" s="134"/>
+      <c r="E139" s="134"/>
+      <c r="F139" s="134"/>
+      <c r="G139" s="134"/>
+      <c r="H139" s="134"/>
+      <c r="I139" s="134"/>
+      <c r="J139" s="134"/>
+      <c r="K139" s="134"/>
       <c r="L139" s="47"/>
     </row>
     <row r="140" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B140" s="136"/>
-      <c r="C140" s="136"/>
-      <c r="D140" s="129"/>
-      <c r="E140" s="129"/>
-      <c r="F140" s="129"/>
-      <c r="G140" s="129"/>
-      <c r="H140" s="129"/>
-      <c r="I140" s="129"/>
-      <c r="J140" s="129"/>
-      <c r="K140" s="129"/>
+      <c r="B140" s="129"/>
+      <c r="C140" s="129"/>
+      <c r="D140" s="134"/>
+      <c r="E140" s="134"/>
+      <c r="F140" s="134"/>
+      <c r="G140" s="134"/>
+      <c r="H140" s="134"/>
+      <c r="I140" s="134"/>
+      <c r="J140" s="134"/>
+      <c r="K140" s="134"/>
       <c r="L140" s="47"/>
     </row>
     <row r="141" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B141" s="136"/>
-      <c r="C141" s="136"/>
-      <c r="D141" s="129"/>
-      <c r="E141" s="129"/>
-      <c r="F141" s="129"/>
-      <c r="G141" s="129"/>
-      <c r="H141" s="129"/>
-      <c r="I141" s="129"/>
-      <c r="J141" s="129"/>
-      <c r="K141" s="129"/>
+      <c r="B141" s="129"/>
+      <c r="C141" s="129"/>
+      <c r="D141" s="134"/>
+      <c r="E141" s="134"/>
+      <c r="F141" s="134"/>
+      <c r="G141" s="134"/>
+      <c r="H141" s="134"/>
+      <c r="I141" s="134"/>
+      <c r="J141" s="134"/>
+      <c r="K141" s="134"/>
       <c r="L141" s="47"/>
     </row>
     <row r="142" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="136" t="s">
+      <c r="B142" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="C142" s="136"/>
-      <c r="D142" s="141" t="str">
+      <c r="C142" s="129"/>
+      <c r="D142" s="130" t="str">
         <f>記入!B50</f>
         <v>${cv.redelegate}</v>
       </c>
-      <c r="E142" s="142"/>
-      <c r="F142" s="142"/>
-      <c r="G142" s="142"/>
-      <c r="H142" s="142"/>
-      <c r="I142" s="142"/>
-      <c r="J142" s="142"/>
-      <c r="K142" s="143"/>
+      <c r="E142" s="131"/>
+      <c r="F142" s="131"/>
+      <c r="G142" s="131"/>
+      <c r="H142" s="131"/>
+      <c r="I142" s="131"/>
+      <c r="J142" s="131"/>
+      <c r="K142" s="132"/>
       <c r="L142" s="47"/>
     </row>
     <row r="143" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="136"/>
-      <c r="C143" s="136"/>
-      <c r="D143" s="128" t="str">
+      <c r="B143" s="129"/>
+      <c r="C143" s="129"/>
+      <c r="D143" s="133" t="str">
         <f>記入!B51</f>
         <v>再委託先：
 ${cv.redelegatecontent}</v>
       </c>
-      <c r="E143" s="129"/>
-      <c r="F143" s="129"/>
-      <c r="G143" s="129"/>
-      <c r="H143" s="129"/>
-      <c r="I143" s="129"/>
-      <c r="J143" s="129"/>
-      <c r="K143" s="129"/>
+      <c r="E143" s="134"/>
+      <c r="F143" s="134"/>
+      <c r="G143" s="134"/>
+      <c r="H143" s="134"/>
+      <c r="I143" s="134"/>
+      <c r="J143" s="134"/>
+      <c r="K143" s="134"/>
       <c r="L143" s="47"/>
     </row>
     <row r="144" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="136"/>
-      <c r="C144" s="136"/>
-      <c r="D144" s="129"/>
-      <c r="E144" s="129"/>
-      <c r="F144" s="129"/>
-      <c r="G144" s="129"/>
-      <c r="H144" s="129"/>
-      <c r="I144" s="129"/>
-      <c r="J144" s="129"/>
-      <c r="K144" s="129"/>
+      <c r="B144" s="129"/>
+      <c r="C144" s="129"/>
+      <c r="D144" s="134"/>
+      <c r="E144" s="134"/>
+      <c r="F144" s="134"/>
+      <c r="G144" s="134"/>
+      <c r="H144" s="134"/>
+      <c r="I144" s="134"/>
+      <c r="J144" s="134"/>
+      <c r="K144" s="134"/>
       <c r="L144" s="47"/>
     </row>
     <row r="145" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="136"/>
-      <c r="C145" s="136"/>
-      <c r="D145" s="129"/>
-      <c r="E145" s="129"/>
-      <c r="F145" s="129"/>
-      <c r="G145" s="129"/>
-      <c r="H145" s="129"/>
-      <c r="I145" s="129"/>
-      <c r="J145" s="129"/>
-      <c r="K145" s="129"/>
+      <c r="B145" s="129"/>
+      <c r="C145" s="129"/>
+      <c r="D145" s="134"/>
+      <c r="E145" s="134"/>
+      <c r="F145" s="134"/>
+      <c r="G145" s="134"/>
+      <c r="H145" s="134"/>
+      <c r="I145" s="134"/>
+      <c r="J145" s="134"/>
+      <c r="K145" s="134"/>
       <c r="L145" s="47"/>
     </row>
     <row r="146" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="136"/>
-      <c r="C146" s="136"/>
-      <c r="D146" s="129"/>
-      <c r="E146" s="129"/>
-      <c r="F146" s="129"/>
-      <c r="G146" s="129"/>
-      <c r="H146" s="129"/>
-      <c r="I146" s="129"/>
-      <c r="J146" s="129"/>
-      <c r="K146" s="129"/>
+      <c r="B146" s="129"/>
+      <c r="C146" s="129"/>
+      <c r="D146" s="134"/>
+      <c r="E146" s="134"/>
+      <c r="F146" s="134"/>
+      <c r="G146" s="134"/>
+      <c r="H146" s="134"/>
+      <c r="I146" s="134"/>
+      <c r="J146" s="134"/>
+      <c r="K146" s="134"/>
       <c r="L146" s="47"/>
     </row>
     <row r="147" spans="2:12" ht="20.100000000000001" customHeight="1">
@@ -5072,202 +5075,202 @@
       <c r="L148" s="47"/>
     </row>
     <row r="149" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="136" t="s">
+      <c r="B149" s="129" t="s">
         <v>79</v>
       </c>
-      <c r="C149" s="136"/>
-      <c r="D149" s="134" t="s">
+      <c r="C149" s="129"/>
+      <c r="D149" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="E149" s="134"/>
-      <c r="F149" s="134" t="s">
+      <c r="E149" s="128"/>
+      <c r="F149" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="G149" s="134"/>
-      <c r="H149" s="134" t="s">
+      <c r="G149" s="128"/>
+      <c r="H149" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="I149" s="134"/>
-      <c r="J149" s="134" t="s">
+      <c r="I149" s="128"/>
+      <c r="J149" s="128" t="s">
         <v>83</v>
       </c>
-      <c r="K149" s="134"/>
+      <c r="K149" s="128"/>
       <c r="L149" s="47"/>
     </row>
     <row r="150" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="136" t="s">
+      <c r="B150" s="129" t="s">
         <v>84</v>
       </c>
-      <c r="C150" s="136"/>
-      <c r="D150" s="133" t="s">
+      <c r="C150" s="129"/>
+      <c r="D150" s="136" t="s">
         <v>174</v>
       </c>
-      <c r="E150" s="134"/>
-      <c r="F150" s="133" t="s">
+      <c r="E150" s="136"/>
+      <c r="F150" s="136" t="s">
         <v>175</v>
       </c>
-      <c r="G150" s="134"/>
-      <c r="H150" s="133" t="s">
+      <c r="G150" s="136"/>
+      <c r="H150" s="136" t="s">
         <v>176</v>
       </c>
-      <c r="I150" s="134"/>
-      <c r="J150" s="133" t="s">
+      <c r="I150" s="136"/>
+      <c r="J150" s="136" t="s">
         <v>177</v>
       </c>
-      <c r="K150" s="134"/>
+      <c r="K150" s="136"/>
       <c r="L150" s="47"/>
     </row>
     <row r="151" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="136" t="s">
+      <c r="B151" s="129" t="s">
         <v>85</v>
       </c>
-      <c r="C151" s="136"/>
-      <c r="D151" s="133" t="s">
+      <c r="C151" s="129"/>
+      <c r="D151" s="136" t="s">
         <v>178</v>
       </c>
-      <c r="E151" s="134"/>
-      <c r="F151" s="133" t="s">
+      <c r="E151" s="136"/>
+      <c r="F151" s="136" t="s">
         <v>179</v>
       </c>
-      <c r="G151" s="134"/>
-      <c r="H151" s="133" t="s">
+      <c r="G151" s="136"/>
+      <c r="H151" s="136" t="s">
         <v>180</v>
       </c>
-      <c r="I151" s="134"/>
-      <c r="J151" s="133" t="s">
+      <c r="I151" s="136"/>
+      <c r="J151" s="136" t="s">
         <v>181</v>
       </c>
-      <c r="K151" s="134"/>
+      <c r="K151" s="136"/>
       <c r="L151" s="47"/>
     </row>
     <row r="152" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="136" t="s">
+      <c r="B152" s="129" t="s">
         <v>86</v>
       </c>
-      <c r="C152" s="136"/>
+      <c r="C152" s="129"/>
       <c r="D152" s="138" t="s">
         <v>182</v>
       </c>
-      <c r="E152" s="137"/>
-      <c r="F152" s="133" t="s">
+      <c r="E152" s="138"/>
+      <c r="F152" s="136" t="s">
         <v>183</v>
       </c>
-      <c r="G152" s="134"/>
-      <c r="H152" s="133" t="s">
+      <c r="G152" s="136"/>
+      <c r="H152" s="136" t="s">
         <v>184</v>
       </c>
-      <c r="I152" s="134"/>
-      <c r="J152" s="133" t="s">
+      <c r="I152" s="136"/>
+      <c r="J152" s="136" t="s">
         <v>185</v>
       </c>
-      <c r="K152" s="134"/>
+      <c r="K152" s="136"/>
       <c r="L152" s="47"/>
     </row>
     <row r="153" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="136" t="s">
+      <c r="B153" s="129" t="s">
         <v>87</v>
       </c>
-      <c r="C153" s="136"/>
+      <c r="C153" s="129"/>
       <c r="D153" s="138" t="s">
         <v>186</v>
       </c>
-      <c r="E153" s="137"/>
-      <c r="F153" s="133" t="s">
+      <c r="E153" s="138"/>
+      <c r="F153" s="136" t="s">
         <v>187</v>
       </c>
-      <c r="G153" s="134"/>
-      <c r="H153" s="133" t="s">
+      <c r="G153" s="136"/>
+      <c r="H153" s="136" t="s">
         <v>188</v>
       </c>
-      <c r="I153" s="134"/>
-      <c r="J153" s="133" t="s">
+      <c r="I153" s="136"/>
+      <c r="J153" s="136" t="s">
         <v>189</v>
       </c>
-      <c r="K153" s="134"/>
+      <c r="K153" s="136"/>
       <c r="L153" s="47"/>
     </row>
     <row r="154" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B154" s="136" t="s">
+      <c r="B154" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="C154" s="136"/>
-      <c r="D154" s="139" t="s">
+      <c r="C154" s="129"/>
+      <c r="D154" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="E154" s="137"/>
-      <c r="F154" s="135" t="s">
+      <c r="E154" s="139"/>
+      <c r="F154" s="140" t="s">
         <v>191</v>
       </c>
-      <c r="G154" s="134"/>
-      <c r="H154" s="135" t="s">
+      <c r="G154" s="128"/>
+      <c r="H154" s="140" t="s">
         <v>192</v>
       </c>
-      <c r="I154" s="134"/>
-      <c r="J154" s="135" t="s">
+      <c r="I154" s="128"/>
+      <c r="J154" s="140" t="s">
         <v>193</v>
       </c>
-      <c r="K154" s="134"/>
+      <c r="K154" s="128"/>
       <c r="L154" s="47"/>
     </row>
     <row r="155" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B155" s="136" t="s">
+      <c r="B155" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="C155" s="136"/>
-      <c r="D155" s="137" t="str">
+      <c r="C155" s="129"/>
+      <c r="D155" s="139" t="str">
         <f>IF(記入!B29="","-",記入!B12)</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="E155" s="137"/>
-      <c r="F155" s="134" t="str">
+      <c r="E155" s="139"/>
+      <c r="F155" s="128" t="str">
         <f>IF(記入!B29="","-",記入!B12)</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="G155" s="134"/>
-      <c r="H155" s="134" t="str">
+      <c r="G155" s="128"/>
+      <c r="H155" s="128" t="str">
         <f>IF(記入!B29="","-",記入!B12)</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="I155" s="134"/>
-      <c r="J155" s="134" t="str">
+      <c r="I155" s="128"/>
+      <c r="J155" s="128" t="str">
         <f>IF(記入!B29="","-",記入!B12)</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="K155" s="134"/>
+      <c r="K155" s="128"/>
       <c r="L155" s="47"/>
     </row>
     <row r="156" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="136" t="s">
+      <c r="B156" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="C156" s="136"/>
-      <c r="D156" s="134" t="s">
+      <c r="C156" s="129"/>
+      <c r="D156" s="128" t="s">
         <v>92</v>
       </c>
-      <c r="E156" s="134"/>
-      <c r="F156" s="134"/>
-      <c r="G156" s="134"/>
-      <c r="H156" s="134"/>
-      <c r="I156" s="134"/>
-      <c r="J156" s="134"/>
-      <c r="K156" s="134"/>
+      <c r="E156" s="128"/>
+      <c r="F156" s="128"/>
+      <c r="G156" s="128"/>
+      <c r="H156" s="128"/>
+      <c r="I156" s="128"/>
+      <c r="J156" s="128"/>
+      <c r="K156" s="128"/>
       <c r="L156" s="47"/>
     </row>
     <row r="157" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="136" t="s">
+      <c r="B157" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="C157" s="136"/>
-      <c r="D157" s="134" t="s">
+      <c r="C157" s="129"/>
+      <c r="D157" s="128" t="s">
         <v>93</v>
       </c>
-      <c r="E157" s="134"/>
-      <c r="F157" s="134"/>
-      <c r="G157" s="134"/>
-      <c r="H157" s="134"/>
-      <c r="I157" s="134"/>
-      <c r="J157" s="134"/>
-      <c r="K157" s="134"/>
+      <c r="E157" s="128"/>
+      <c r="F157" s="128"/>
+      <c r="G157" s="128"/>
+      <c r="H157" s="128"/>
+      <c r="I157" s="128"/>
+      <c r="J157" s="128"/>
+      <c r="K157" s="128"/>
       <c r="L157" s="47"/>
     </row>
     <row r="158" spans="2:12" ht="20.100000000000001" customHeight="1">
@@ -5299,59 +5302,59 @@
       <c r="L159" s="47"/>
     </row>
     <row r="160" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="130" t="s">
+      <c r="B160" s="144" t="s">
         <v>95</v>
       </c>
-      <c r="C160" s="130"/>
-      <c r="D160" s="130" t="s">
+      <c r="C160" s="144"/>
+      <c r="D160" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="E160" s="130"/>
-      <c r="F160" s="130"/>
-      <c r="G160" s="130"/>
-      <c r="H160" s="130"/>
-      <c r="I160" s="130"/>
-      <c r="J160" s="130"/>
-      <c r="K160" s="130"/>
+      <c r="E160" s="144"/>
+      <c r="F160" s="144"/>
+      <c r="G160" s="144"/>
+      <c r="H160" s="144"/>
+      <c r="I160" s="144"/>
+      <c r="J160" s="144"/>
+      <c r="K160" s="144"/>
       <c r="L160" s="47"/>
     </row>
     <row r="161" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="131"/>
-      <c r="C161" s="131"/>
-      <c r="D161" s="131"/>
-      <c r="E161" s="131"/>
-      <c r="F161" s="131"/>
-      <c r="G161" s="131"/>
-      <c r="H161" s="131"/>
-      <c r="I161" s="131"/>
-      <c r="J161" s="131"/>
-      <c r="K161" s="131"/>
+      <c r="B161" s="145"/>
+      <c r="C161" s="145"/>
+      <c r="D161" s="145"/>
+      <c r="E161" s="145"/>
+      <c r="F161" s="145"/>
+      <c r="G161" s="145"/>
+      <c r="H161" s="145"/>
+      <c r="I161" s="145"/>
+      <c r="J161" s="145"/>
+      <c r="K161" s="145"/>
       <c r="L161" s="47"/>
     </row>
     <row r="162" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B162" s="131"/>
-      <c r="C162" s="131"/>
-      <c r="D162" s="131"/>
-      <c r="E162" s="131"/>
-      <c r="F162" s="131"/>
-      <c r="G162" s="131"/>
-      <c r="H162" s="131"/>
-      <c r="I162" s="131"/>
-      <c r="J162" s="131"/>
-      <c r="K162" s="131"/>
+      <c r="B162" s="145"/>
+      <c r="C162" s="145"/>
+      <c r="D162" s="145"/>
+      <c r="E162" s="145"/>
+      <c r="F162" s="145"/>
+      <c r="G162" s="145"/>
+      <c r="H162" s="145"/>
+      <c r="I162" s="145"/>
+      <c r="J162" s="145"/>
+      <c r="K162" s="145"/>
       <c r="L162" s="47"/>
     </row>
     <row r="163" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="132"/>
-      <c r="C163" s="132"/>
-      <c r="D163" s="132"/>
-      <c r="E163" s="132"/>
-      <c r="F163" s="132"/>
-      <c r="G163" s="132"/>
-      <c r="H163" s="132"/>
-      <c r="I163" s="132"/>
-      <c r="J163" s="132"/>
-      <c r="K163" s="132"/>
+      <c r="B163" s="146"/>
+      <c r="C163" s="146"/>
+      <c r="D163" s="146"/>
+      <c r="E163" s="146"/>
+      <c r="F163" s="146"/>
+      <c r="G163" s="146"/>
+      <c r="H163" s="146"/>
+      <c r="I163" s="146"/>
+      <c r="J163" s="146"/>
+      <c r="K163" s="146"/>
       <c r="L163" s="47"/>
     </row>
     <row r="164" spans="2:12" ht="14.25">
@@ -5709,12 +5712,45 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B11:L57"/>
-    <mergeCell ref="B60:L71"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D132:K132"/>
+    <mergeCell ref="D133:K133"/>
+    <mergeCell ref="D134:K134"/>
+    <mergeCell ref="D135:K141"/>
+    <mergeCell ref="B160:C163"/>
+    <mergeCell ref="D160:K163"/>
+    <mergeCell ref="J150:K150"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="J153:K153"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="F153:G153"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="H150:I150"/>
+    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="H152:I152"/>
+    <mergeCell ref="H153:I153"/>
+    <mergeCell ref="H154:I154"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="D156:K156"/>
+    <mergeCell ref="D157:K157"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="H155:I155"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="F149:G149"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="D152:E152"/>
     <mergeCell ref="J149:K149"/>
     <mergeCell ref="B150:C150"/>
     <mergeCell ref="B151:C151"/>
@@ -5731,45 +5767,12 @@
     <mergeCell ref="F150:G150"/>
     <mergeCell ref="F151:G151"/>
     <mergeCell ref="D131:K131"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="F149:G149"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="H152:I152"/>
-    <mergeCell ref="H153:I153"/>
-    <mergeCell ref="H154:I154"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="D156:K156"/>
-    <mergeCell ref="D157:K157"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="H155:I155"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="D132:K132"/>
-    <mergeCell ref="D133:K133"/>
-    <mergeCell ref="D134:K134"/>
-    <mergeCell ref="D135:K141"/>
-    <mergeCell ref="B160:C163"/>
-    <mergeCell ref="D160:K163"/>
-    <mergeCell ref="J150:K150"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="J153:K153"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="F153:G153"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="H150:I150"/>
-    <mergeCell ref="H151:I151"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B11:L57"/>
+    <mergeCell ref="B60:L71"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5791,8 +5794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A83" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D160" sqref="D160:K163"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A136" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D150" sqref="D150:K153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5808,18 +5811,18 @@
       <c r="J2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="167" t="str">
+      <c r="K2" s="150" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="167"/>
+      <c r="L2" s="150"/>
     </row>
     <row r="3" spans="1:12" ht="20.25">
-      <c r="F3" s="168" t="s">
+      <c r="F3" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="25" t="s">
@@ -5879,11 +5882,11 @@
         <v>65</v>
       </c>
       <c r="C8" s="44"/>
-      <c r="D8" s="170" t="str">
+      <c r="D8" s="153" t="str">
         <f>記入!B37</f>
         <v>${signingdate}</v>
       </c>
-      <c r="E8" s="171"/>
+      <c r="E8" s="154"/>
       <c r="F8" s="45" t="s">
         <v>63</v>
       </c>
@@ -5923,617 +5926,617 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="152" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="169"/>
-      <c r="D11" s="169"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="169"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="152"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="169"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="169"/>
-      <c r="K12" s="169"/>
-      <c r="L12" s="169"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="152"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="169"/>
-      <c r="K13" s="169"/>
-      <c r="L13" s="169"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="152"/>
+      <c r="L13" s="152"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="169"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="169"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="152"/>
+      <c r="L14" s="152"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="169"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="169"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="152"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="169"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="152"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="169"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="152"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="169"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="169"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="169"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="169"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="152"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="169"/>
-      <c r="J19" s="169"/>
-      <c r="K19" s="169"/>
-      <c r="L19" s="169"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="169"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="169"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="169"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="169"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="169"/>
-      <c r="F21" s="169"/>
-      <c r="G21" s="169"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="169"/>
-      <c r="J21" s="169"/>
-      <c r="K21" s="169"/>
-      <c r="L21" s="169"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="152"/>
+      <c r="L21" s="152"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="169"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="169"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="169"/>
-      <c r="K22" s="169"/>
-      <c r="L22" s="169"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="152"/>
+      <c r="L22" s="152"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="169"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="169"/>
+      <c r="B23" s="152"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="152"/>
+      <c r="L23" s="152"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="169"/>
-      <c r="K24" s="169"/>
-      <c r="L24" s="169"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="152"/>
+      <c r="L24" s="152"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="169"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="169"/>
-      <c r="K25" s="169"/>
-      <c r="L25" s="169"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
+      <c r="L25" s="152"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="169"/>
-      <c r="C26" s="169"/>
-      <c r="D26" s="169"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="169"/>
-      <c r="G26" s="169"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="169"/>
-      <c r="K26" s="169"/>
-      <c r="L26" s="169"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="169"/>
-      <c r="C27" s="169"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="169"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="169"/>
-      <c r="K27" s="169"/>
-      <c r="L27" s="169"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="152"/>
+      <c r="L27" s="152"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="169"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="169"/>
-      <c r="L28" s="169"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+      <c r="L28" s="152"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="169"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="169"/>
-      <c r="L29" s="169"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
+      <c r="I29" s="152"/>
+      <c r="J29" s="152"/>
+      <c r="K29" s="152"/>
+      <c r="L29" s="152"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="169"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="169"/>
-      <c r="K30" s="169"/>
-      <c r="L30" s="169"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="152"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="152"/>
+      <c r="L30" s="152"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="169"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="169"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="169"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="152"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="169"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="169"/>
-      <c r="L32" s="169"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="152"/>
+      <c r="L32" s="152"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="169"/>
-      <c r="L33" s="169"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="152"/>
+      <c r="H33" s="152"/>
+      <c r="I33" s="152"/>
+      <c r="J33" s="152"/>
+      <c r="K33" s="152"/>
+      <c r="L33" s="152"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="169"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="169"/>
-      <c r="H34" s="169"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="169"/>
-      <c r="K34" s="169"/>
-      <c r="L34" s="169"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="152"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="152"/>
+      <c r="G34" s="152"/>
+      <c r="H34" s="152"/>
+      <c r="I34" s="152"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="152"/>
+      <c r="L34" s="152"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="169"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="169"/>
-      <c r="J35" s="169"/>
-      <c r="K35" s="169"/>
-      <c r="L35" s="169"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="152"/>
+      <c r="F35" s="152"/>
+      <c r="G35" s="152"/>
+      <c r="H35" s="152"/>
+      <c r="I35" s="152"/>
+      <c r="J35" s="152"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="152"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="169"